--- a/1-Data-Codes/2-Final_Data/L_2002.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2002.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>1517.94185379298</v>
+        <v>959.003815835148</v>
       </c>
       <c r="C2">
-        <v>35.0982971428315</v>
+        <v>46.3860570535801</v>
       </c>
       <c r="D2">
-        <v>62.0473998913641</v>
+        <v>84.538059436574</v>
       </c>
       <c r="E2">
-        <v>52.422814189523</v>
+        <v>70.82939311539501</v>
       </c>
       <c r="F2">
-        <v>15.0570109378092</v>
+        <v>18.6246626150855</v>
       </c>
       <c r="G2">
-        <v>13.6016215074546</v>
+        <v>17.522160172283</v>
       </c>
       <c r="H2">
-        <v>13.7610891359996</v>
+        <v>21.5079292060945</v>
       </c>
       <c r="I2">
-        <v>11.8610949326808</v>
+        <v>14.3119056965317</v>
       </c>
       <c r="J2">
-        <v>55.5663082197064</v>
+        <v>71.3493967185275</v>
       </c>
       <c r="K2">
-        <v>14.9754183859236</v>
+        <v>23.0752940695204</v>
       </c>
       <c r="L2">
-        <v>32.4011223304014</v>
+        <v>42.1834044102303</v>
       </c>
       <c r="M2">
-        <v>41.4729822991549</v>
+        <v>46.225730231197</v>
       </c>
       <c r="N2">
-        <v>33.1516352182075</v>
+        <v>30.9422541882847</v>
       </c>
       <c r="O2">
-        <v>1220.41440128466</v>
+        <v>1667.69395396416</v>
       </c>
       <c r="P2">
-        <v>26.8253633356804</v>
+        <v>36.7273403192938</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>210.8713394966</v>
+        <v>133.960433223609</v>
       </c>
       <c r="C3">
-        <v>1.25886764215228</v>
+        <v>6.76268004447723</v>
       </c>
       <c r="D3">
-        <v>0.202573632252492</v>
+        <v>0.188469837877664</v>
       </c>
       <c r="E3">
-        <v>1.26808330121558</v>
+        <v>1.66672486518245</v>
       </c>
       <c r="F3">
-        <v>11.6563843140221</v>
+        <v>13.2593449748885</v>
       </c>
       <c r="G3">
-        <v>0.407165391371356</v>
+        <v>0.37180553255819</v>
       </c>
       <c r="H3">
-        <v>0.00175362151611397</v>
+        <v>0.18143557481097</v>
       </c>
       <c r="I3">
-        <v>0.432479469372803</v>
+        <v>0.23394515518719</v>
       </c>
       <c r="J3">
-        <v>0.939182211927199</v>
+        <v>0.872897437439113</v>
       </c>
       <c r="K3">
-        <v>0.437890142452527</v>
+        <v>0.13022902825207</v>
       </c>
       <c r="L3">
-        <v>0.121928076621574</v>
+        <v>0.198628327315643</v>
       </c>
       <c r="M3">
-        <v>0.334485824676509</v>
+        <v>1.12366101860505</v>
       </c>
       <c r="N3">
-        <v>1.00653889605047</v>
+        <v>1.1143655644673</v>
       </c>
       <c r="O3">
-        <v>278.54772670823</v>
+        <v>333.520976239563</v>
       </c>
       <c r="P3">
-        <v>5.17499686643711</v>
+        <v>14.8362043173515</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>1653.53923486333</v>
+        <v>1070.56674374086</v>
       </c>
       <c r="C4">
-        <v>12.3175723924491</v>
+        <v>11.9746508312532</v>
       </c>
       <c r="D4">
-        <v>3.97295352717989</v>
+        <v>4.39030834297178</v>
       </c>
       <c r="E4">
-        <v>24.4049962186644</v>
+        <v>24.7042336139892</v>
       </c>
       <c r="F4">
-        <v>16.3091684294444</v>
+        <v>15.6806352603782</v>
       </c>
       <c r="G4">
-        <v>10.0920829368293</v>
+        <v>10.457388687001</v>
       </c>
       <c r="H4">
-        <v>11.4726281878529</v>
+        <v>9.102130216477271</v>
       </c>
       <c r="I4">
-        <v>7.85045815741208</v>
+        <v>9.25966128286051</v>
       </c>
       <c r="J4">
-        <v>27.531849285589</v>
+        <v>31.1182507157318</v>
       </c>
       <c r="K4">
-        <v>8.351540012718569</v>
+        <v>11.1405320335294</v>
       </c>
       <c r="L4">
-        <v>70.9300050557365</v>
+        <v>81.4487282643335</v>
       </c>
       <c r="M4">
-        <v>54.821662661306</v>
+        <v>57.3985169063223</v>
       </c>
       <c r="N4">
-        <v>26.3996377453931</v>
+        <v>35.9266703446237</v>
       </c>
       <c r="O4">
-        <v>1646.85358753847</v>
+        <v>2186.49340990181</v>
       </c>
       <c r="P4">
-        <v>22.6907726174068</v>
+        <v>49.3386965900986</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>941.82000887903</v>
+        <v>554.13051445485</v>
       </c>
       <c r="C5">
-        <v>57.4744858167047</v>
+        <v>79.0240375116084</v>
       </c>
       <c r="D5">
-        <v>10.688524446565</v>
+        <v>18.190210899759</v>
       </c>
       <c r="E5">
-        <v>38.4124989890114</v>
+        <v>49.7373646915605</v>
       </c>
       <c r="F5">
-        <v>4.82141315150137</v>
+        <v>3.35620726456153</v>
       </c>
       <c r="G5">
-        <v>10.9330521939423</v>
+        <v>12.4175949854357</v>
       </c>
       <c r="H5">
-        <v>10.5695759438635</v>
+        <v>12.5997032801932</v>
       </c>
       <c r="I5">
-        <v>6.34444930146904</v>
+        <v>8.19810878668333</v>
       </c>
       <c r="J5">
-        <v>21.9963493027457</v>
+        <v>32.3263766095789</v>
       </c>
       <c r="K5">
-        <v>15.6467763214589</v>
+        <v>28.1534969293366</v>
       </c>
       <c r="L5">
-        <v>18.4554771060765</v>
+        <v>23.3664472565981</v>
       </c>
       <c r="M5">
-        <v>25.6473537646921</v>
+        <v>26.2239010374987</v>
       </c>
       <c r="N5">
-        <v>19.1355855508404</v>
+        <v>23.1196015239533</v>
       </c>
       <c r="O5">
-        <v>689.763679062434</v>
+        <v>971.5628638126</v>
       </c>
       <c r="P5">
-        <v>40.9661720731316</v>
+        <v>61.7692446272316</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>10075.3303627385</v>
+        <v>7160.61812045588</v>
       </c>
       <c r="C6">
-        <v>165.028414944536</v>
+        <v>206.20434099289</v>
       </c>
       <c r="D6">
-        <v>136.118642883448</v>
+        <v>237.212162219986</v>
       </c>
       <c r="E6">
-        <v>188.791637967151</v>
+        <v>162.767767580144</v>
       </c>
       <c r="F6">
-        <v>45.6193121151293</v>
+        <v>39.813054539026</v>
       </c>
       <c r="G6">
-        <v>104.121537805792</v>
+        <v>118.015961276573</v>
       </c>
       <c r="H6">
-        <v>65.7933385297916</v>
+        <v>78.9977551067504</v>
       </c>
       <c r="I6">
-        <v>49.7955710262296</v>
+        <v>55.1202706968898</v>
       </c>
       <c r="J6">
-        <v>169.906287656618</v>
+        <v>191.151370011472</v>
       </c>
       <c r="K6">
-        <v>83.7944852233162</v>
+        <v>121.628645028062</v>
       </c>
       <c r="L6">
-        <v>599.891013118234</v>
+        <v>611.053264534955</v>
       </c>
       <c r="M6">
-        <v>246.807890559485</v>
+        <v>283.338156757511</v>
       </c>
       <c r="N6">
-        <v>222.900755080185</v>
+        <v>292.88709599431</v>
       </c>
       <c r="O6">
-        <v>10573.951998208</v>
+        <v>13176.1999488204</v>
       </c>
       <c r="P6">
-        <v>257.979354220141</v>
+        <v>370.239432585685</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>1097.59444919522</v>
+        <v>655.762425108415</v>
       </c>
       <c r="C7">
-        <v>22.7426392434913</v>
+        <v>31.3207596212091</v>
       </c>
       <c r="D7">
-        <v>5.5089521914884</v>
+        <v>5.12601719589008</v>
       </c>
       <c r="E7">
-        <v>27.9865846041027</v>
+        <v>19.7696311089551</v>
       </c>
       <c r="F7">
-        <v>21.1350532878887</v>
+        <v>18.5654400276084</v>
       </c>
       <c r="G7">
-        <v>10.1271042219013</v>
+        <v>9.80209360949263</v>
       </c>
       <c r="H7">
-        <v>6.55838709940444</v>
+        <v>9.34097320817464</v>
       </c>
       <c r="I7">
-        <v>8.648348541751011</v>
+        <v>10.2184149825288</v>
       </c>
       <c r="J7">
-        <v>21.3912435351526</v>
+        <v>19.4715463901186</v>
       </c>
       <c r="K7">
-        <v>9.46384096802039</v>
+        <v>17.445996489705</v>
       </c>
       <c r="L7">
-        <v>60.7084787934259</v>
+        <v>57.0583367844375</v>
       </c>
       <c r="M7">
-        <v>18.244738346578</v>
+        <v>20.1989782058022</v>
       </c>
       <c r="N7">
-        <v>23.4498485857664</v>
+        <v>26.5597031989026</v>
       </c>
       <c r="O7">
-        <v>1581.25411278687</v>
+        <v>1998.29497669768</v>
       </c>
       <c r="P7">
-        <v>56.8703652342759</v>
+        <v>48.6768345041048</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>914.698531493891</v>
+        <v>583.186597632795</v>
       </c>
       <c r="C8">
-        <v>9.940578408504241</v>
+        <v>10.6251304266841</v>
       </c>
       <c r="D8">
-        <v>7.4890428673587</v>
+        <v>12.2710914755974</v>
       </c>
       <c r="E8">
-        <v>24.4253898609145</v>
+        <v>22.5615461907305</v>
       </c>
       <c r="F8">
-        <v>1.62540638925913</v>
+        <v>1.41617122209123</v>
       </c>
       <c r="G8">
-        <v>30.0074092972153</v>
+        <v>35.9401985332502</v>
       </c>
       <c r="H8">
-        <v>7.06753454760789</v>
+        <v>10.7294115452169</v>
       </c>
       <c r="I8">
-        <v>3.17742212233363</v>
+        <v>3.02864475601336</v>
       </c>
       <c r="J8">
-        <v>51.2735809888191</v>
+        <v>55.8842948785736</v>
       </c>
       <c r="K8">
-        <v>23.9744353775611</v>
+        <v>28.6384840701918</v>
       </c>
       <c r="L8">
-        <v>50.3123529833786</v>
+        <v>50.3621368737305</v>
       </c>
       <c r="M8">
-        <v>58.2268590949557</v>
+        <v>57.67036670698</v>
       </c>
       <c r="N8">
-        <v>15.0533193584773</v>
+        <v>19.2728566074508</v>
       </c>
       <c r="O8">
-        <v>1190.21059112193</v>
+        <v>1480.14606211639</v>
       </c>
       <c r="P8">
-        <v>6.20988200146901</v>
+        <v>5.74823564509104</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>286.42376872247</v>
+        <v>143.839107027468</v>
       </c>
       <c r="C9">
-        <v>7.83284383067148</v>
+        <v>11.6328448628044</v>
       </c>
       <c r="D9">
-        <v>2.92951382608003</v>
+        <v>3.19619936426517</v>
       </c>
       <c r="E9">
-        <v>6.96987707634022</v>
+        <v>7.31919483309727</v>
       </c>
       <c r="F9">
-        <v>1.77163639368574</v>
+        <v>2.1744832602299</v>
       </c>
       <c r="G9">
-        <v>18.3871919985265</v>
+        <v>25.1408822105503</v>
       </c>
       <c r="H9">
-        <v>2.48275203747912</v>
+        <v>3.6274667486262</v>
       </c>
       <c r="I9">
-        <v>0.494523544797507</v>
+        <v>1.67738967546056</v>
       </c>
       <c r="J9">
-        <v>2.62617620149959</v>
+        <v>3.61352242513528</v>
       </c>
       <c r="K9">
-        <v>1.43269197330344</v>
+        <v>3.52961363730513</v>
       </c>
       <c r="L9">
-        <v>3.98909362054568</v>
+        <v>3.98727309082817</v>
       </c>
       <c r="M9">
-        <v>5.47326297786161</v>
+        <v>10.7019716922732</v>
       </c>
       <c r="N9">
-        <v>4.12442878910994</v>
+        <v>5.55055516439631</v>
       </c>
       <c r="O9">
-        <v>291.113296484682</v>
+        <v>404.67415901086</v>
       </c>
       <c r="P9">
-        <v>5.00007487674753</v>
+        <v>8.188840374109571</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>5617.02655047169</v>
+        <v>3523.34110266301</v>
       </c>
       <c r="C10">
-        <v>56.3183140176851</v>
+        <v>59.2705293337281</v>
       </c>
       <c r="D10">
-        <v>21.5141211749656</v>
+        <v>37.2499870214035</v>
       </c>
       <c r="E10">
-        <v>84.91355606388549</v>
+        <v>68.5907070132271</v>
       </c>
       <c r="F10">
-        <v>14.1722059152235</v>
+        <v>17.0304720927544</v>
       </c>
       <c r="G10">
-        <v>31.7547910947783</v>
+        <v>32.7667967819624</v>
       </c>
       <c r="H10">
-        <v>21.4712449654445</v>
+        <v>19.1646503860181</v>
       </c>
       <c r="I10">
-        <v>24.5913769539855</v>
+        <v>31.5535348040479</v>
       </c>
       <c r="J10">
-        <v>44.131326868465</v>
+        <v>60.4124388612161</v>
       </c>
       <c r="K10">
-        <v>28.1294267102579</v>
+        <v>36.4095598072222</v>
       </c>
       <c r="L10">
-        <v>79.86350452330019</v>
+        <v>116.706393795185</v>
       </c>
       <c r="M10">
-        <v>83.0809281253127</v>
+        <v>104.32645601277</v>
       </c>
       <c r="N10">
-        <v>68.3706773396418</v>
+        <v>89.4432161965335</v>
       </c>
       <c r="O10">
-        <v>5591.35363367501</v>
+        <v>7531.245848087991</v>
       </c>
       <c r="P10">
-        <v>67.6370036900116</v>
+        <v>123.84830695202</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>2376.93438516727</v>
+        <v>1544.64096992983</v>
       </c>
       <c r="C11">
-        <v>72.5976423745131</v>
+        <v>79.27164988930581</v>
       </c>
       <c r="D11">
-        <v>104.401900214762</v>
+        <v>161.2414584249</v>
       </c>
       <c r="E11">
-        <v>106.591018840356</v>
+        <v>104.367090575546</v>
       </c>
       <c r="F11">
-        <v>19.8459748871631</v>
+        <v>12.4684636047608</v>
       </c>
       <c r="G11">
-        <v>35.7249117816817</v>
+        <v>36.8693950715475</v>
       </c>
       <c r="H11">
-        <v>26.7588857792473</v>
+        <v>24.4396580186849</v>
       </c>
       <c r="I11">
-        <v>19.8579946455513</v>
+        <v>21.2128428681011</v>
       </c>
       <c r="J11">
-        <v>46.3594901436803</v>
+        <v>66.0475723548948</v>
       </c>
       <c r="K11">
-        <v>31.8253203838458</v>
+        <v>39.6511869016046</v>
       </c>
       <c r="L11">
-        <v>53.8883672426659</v>
+        <v>71.97674478154261</v>
       </c>
       <c r="M11">
-        <v>73.4251398757313</v>
+        <v>67.8386786689364</v>
       </c>
       <c r="N11">
-        <v>45.3025334256968</v>
+        <v>42.0914367368787</v>
       </c>
       <c r="O11">
-        <v>2600.88738694613</v>
+        <v>3350.50671488339</v>
       </c>
       <c r="P11">
-        <v>47.5825535852042</v>
+        <v>41.5508591609979</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>426.182516887023</v>
+        <v>260.980272143288</v>
       </c>
       <c r="C12">
-        <v>5.48633805662675</v>
+        <v>8.105943626759821</v>
       </c>
       <c r="D12">
-        <v>2.18014492713858</v>
+        <v>3.81699028425859</v>
       </c>
       <c r="E12">
-        <v>2.21090430300114</v>
+        <v>0.792130430664329</v>
       </c>
       <c r="F12">
-        <v>0.700676738881339</v>
+        <v>0.65708916978615</v>
       </c>
       <c r="G12">
-        <v>0.335912053258614</v>
+        <v>0.324757427652153</v>
       </c>
       <c r="H12">
-        <v>0.0279839198674176</v>
+        <v>0.101477022695634</v>
       </c>
       <c r="I12">
-        <v>1.3941386283797</v>
+        <v>1.57492225956174</v>
       </c>
       <c r="J12">
-        <v>0.392880293730941</v>
+        <v>0.867910974803926</v>
       </c>
       <c r="K12">
-        <v>0.250174083398393</v>
+        <v>0.390389097215481</v>
       </c>
       <c r="L12">
-        <v>0.667107094753764</v>
+        <v>0.360331170257193</v>
       </c>
       <c r="M12">
-        <v>3.82687900972056</v>
+        <v>4.21891830459307</v>
       </c>
       <c r="N12">
-        <v>2.86272201090203</v>
+        <v>4.04580466860036</v>
       </c>
       <c r="O12">
-        <v>494.969387582873</v>
+        <v>631.325991610589</v>
       </c>
       <c r="P12">
-        <v>13.445933484686</v>
+        <v>23.7219707100052</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>424.981030263075</v>
+        <v>225.901777653628</v>
       </c>
       <c r="C13">
-        <v>20.6870393005199</v>
+        <v>29.0367561323655</v>
       </c>
       <c r="D13">
-        <v>0.769624019511592</v>
+        <v>1.68039247146715</v>
       </c>
       <c r="E13">
-        <v>19.2822962586595</v>
+        <v>19.0537829581258</v>
       </c>
       <c r="F13">
-        <v>0.217807252345576</v>
+        <v>4.11180376032911</v>
       </c>
       <c r="G13">
-        <v>5.59781787791719</v>
+        <v>5.88921414197607</v>
       </c>
       <c r="H13">
-        <v>0.306020205355181</v>
+        <v>1.93836046117783</v>
       </c>
       <c r="I13">
-        <v>1.31262525128702</v>
+        <v>1.16509034568489</v>
       </c>
       <c r="J13">
-        <v>4.62936566764469</v>
+        <v>6.05716576386753</v>
       </c>
       <c r="K13">
-        <v>3.6634041308519</v>
+        <v>3.75459423194317</v>
       </c>
       <c r="L13">
-        <v>18.4709752746234</v>
+        <v>24.5057146296549</v>
       </c>
       <c r="M13">
-        <v>2.27603168325023</v>
+        <v>2.9384986552907</v>
       </c>
       <c r="N13">
-        <v>7.66623163982548</v>
+        <v>8.45419217094174</v>
       </c>
       <c r="O13">
-        <v>387.571832998568</v>
+        <v>544.321382544641</v>
       </c>
       <c r="P13">
-        <v>42.7402381191784</v>
+        <v>56.082981765055</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>3476.94692130646</v>
+        <v>2267.59837099347</v>
       </c>
       <c r="C14">
-        <v>97.9355126138563</v>
+        <v>113.187874264663</v>
       </c>
       <c r="D14">
-        <v>17.9612182933552</v>
+        <v>18.9252500787496</v>
       </c>
       <c r="E14">
-        <v>148.91906422685</v>
+        <v>109.391554290116</v>
       </c>
       <c r="F14">
-        <v>36.2519819241747</v>
+        <v>28.8855081887585</v>
       </c>
       <c r="G14">
-        <v>77.0074512035644</v>
+        <v>94.15122951771519</v>
       </c>
       <c r="H14">
-        <v>70.7346880381936</v>
+        <v>71.14550301713339</v>
       </c>
       <c r="I14">
-        <v>15.2288848200713</v>
+        <v>27.8265372113484</v>
       </c>
       <c r="J14">
-        <v>179.265193148702</v>
+        <v>184.014970731421</v>
       </c>
       <c r="K14">
-        <v>137.610503975662</v>
+        <v>182.290910770417</v>
       </c>
       <c r="L14">
-        <v>132.549336779316</v>
+        <v>147.891941294726</v>
       </c>
       <c r="M14">
-        <v>81.2904985201383</v>
+        <v>100.66376682852</v>
       </c>
       <c r="N14">
-        <v>78.51871991717761</v>
+        <v>100.062084241562</v>
       </c>
       <c r="O14">
-        <v>3945.64478344084</v>
+        <v>5051.48701129328</v>
       </c>
       <c r="P14">
-        <v>87.2493684211022</v>
+        <v>84.9061882945437</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>1678.80507355514</v>
+        <v>1007.03231462049</v>
       </c>
       <c r="C15">
-        <v>45.5544959541341</v>
+        <v>53.0806924565057</v>
       </c>
       <c r="D15">
-        <v>10.5859065930858</v>
+        <v>11.7743786283103</v>
       </c>
       <c r="E15">
-        <v>65.4065838682462</v>
+        <v>60.2923948200229</v>
       </c>
       <c r="F15">
-        <v>9.71127737416948</v>
+        <v>13.1222265574503</v>
       </c>
       <c r="G15">
-        <v>43.1114612439542</v>
+        <v>44.1626021400853</v>
       </c>
       <c r="H15">
-        <v>36.5011023164077</v>
+        <v>54.6131410486638</v>
       </c>
       <c r="I15">
-        <v>23.3490110594354</v>
+        <v>37.5739410707087</v>
       </c>
       <c r="J15">
-        <v>137.515529894607</v>
+        <v>173.195908169835</v>
       </c>
       <c r="K15">
-        <v>38.8771183605672</v>
+        <v>71.99573989626241</v>
       </c>
       <c r="L15">
-        <v>57.3761843067983</v>
+        <v>59.4540588767814</v>
       </c>
       <c r="M15">
-        <v>219.044800040694</v>
+        <v>207.015254642734</v>
       </c>
       <c r="N15">
-        <v>69.65299619187699</v>
+        <v>87.9576494741958</v>
       </c>
       <c r="O15">
-        <v>1782.89749709256</v>
+        <v>2333.42421307497</v>
       </c>
       <c r="P15">
-        <v>43.1689481920695</v>
+        <v>50.671704862893</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>811.203110624338</v>
+        <v>401.261714408886</v>
       </c>
       <c r="C16">
-        <v>58.5785876155011</v>
+        <v>73.4333990334039</v>
       </c>
       <c r="D16">
-        <v>6.54447179411623</v>
+        <v>10.4410727883714</v>
       </c>
       <c r="E16">
-        <v>33.5288891283475</v>
+        <v>29.7252326963929</v>
       </c>
       <c r="F16">
-        <v>2.89152176370994</v>
+        <v>5.49127534906444</v>
       </c>
       <c r="G16">
-        <v>10.6973074914435</v>
+        <v>13.7510968813591</v>
       </c>
       <c r="H16">
-        <v>17.1733448975453</v>
+        <v>21.4485079468377</v>
       </c>
       <c r="I16">
-        <v>7.07934179920573</v>
+        <v>8.83383797160112</v>
       </c>
       <c r="J16">
-        <v>47.1972404213945</v>
+        <v>46.467303192856</v>
       </c>
       <c r="K16">
-        <v>48.1406643553354</v>
+        <v>59.325110168667</v>
       </c>
       <c r="L16">
-        <v>28.6055552411754</v>
+        <v>37.2103573908596</v>
       </c>
       <c r="M16">
-        <v>29.069358166229</v>
+        <v>28.2206116643499</v>
       </c>
       <c r="N16">
-        <v>19.5855782623345</v>
+        <v>25.5722559270157</v>
       </c>
       <c r="O16">
-        <v>922.735005854468</v>
+        <v>1239.09901294964</v>
       </c>
       <c r="P16">
-        <v>90.5301202232119</v>
+        <v>113.167395974747</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>723.497832045342</v>
+        <v>435.003874985653</v>
       </c>
       <c r="C17">
-        <v>19.9958276719546</v>
+        <v>29.6523595660521</v>
       </c>
       <c r="D17">
-        <v>5.3648684347925</v>
+        <v>6.12001647236582</v>
       </c>
       <c r="E17">
-        <v>32.1327706364836</v>
+        <v>21.4848063145024</v>
       </c>
       <c r="F17">
-        <v>16.6347370818148</v>
+        <v>15.6825607350975</v>
       </c>
       <c r="G17">
-        <v>9.17057119597092</v>
+        <v>10.8058988149739</v>
       </c>
       <c r="H17">
-        <v>11.4284195816269</v>
+        <v>11.989956431353</v>
       </c>
       <c r="I17">
-        <v>9.179295805674929</v>
+        <v>7.07582005920472</v>
       </c>
       <c r="J17">
-        <v>20.1923843066012</v>
+        <v>19.7349020348056</v>
       </c>
       <c r="K17">
-        <v>18.964307857574</v>
+        <v>21.745530295261</v>
       </c>
       <c r="L17">
-        <v>14.4101436828557</v>
+        <v>15.4444055538372</v>
       </c>
       <c r="M17">
-        <v>61.9261466619095</v>
+        <v>76.9168793467511</v>
       </c>
       <c r="N17">
-        <v>13.9589642730721</v>
+        <v>13.145484170637</v>
       </c>
       <c r="O17">
-        <v>881.5198055771371</v>
+        <v>1145.00362300188</v>
       </c>
       <c r="P17">
-        <v>66.0658563046531</v>
+        <v>65.58290851251201</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>1491.71539536865</v>
+        <v>899.466152543359</v>
       </c>
       <c r="C18">
-        <v>32.6754619977042</v>
+        <v>37.78223254899</v>
       </c>
       <c r="D18">
-        <v>17.2629345694503</v>
+        <v>19.3036459720631</v>
       </c>
       <c r="E18">
-        <v>59.6511629597572</v>
+        <v>46.560167474731</v>
       </c>
       <c r="F18">
-        <v>26.2874145007532</v>
+        <v>36.8686602357432</v>
       </c>
       <c r="G18">
-        <v>14.5557481659023</v>
+        <v>24.2715833930168</v>
       </c>
       <c r="H18">
-        <v>16.636490788833</v>
+        <v>24.7735574075942</v>
       </c>
       <c r="I18">
-        <v>9.873691055148001</v>
+        <v>9.760824305802901</v>
       </c>
       <c r="J18">
-        <v>55.9002710890152</v>
+        <v>59.402858120528</v>
       </c>
       <c r="K18">
-        <v>25.037818698804</v>
+        <v>30.4139413629993</v>
       </c>
       <c r="L18">
-        <v>18.9555516324811</v>
+        <v>32.15476757143</v>
       </c>
       <c r="M18">
-        <v>74.26738798959779</v>
+        <v>70.4950276669162</v>
       </c>
       <c r="N18">
-        <v>21.3626900554057</v>
+        <v>25.8832539129008</v>
       </c>
       <c r="O18">
-        <v>1070.31563286984</v>
+        <v>1606.65971233592</v>
       </c>
       <c r="P18">
-        <v>30.7204270789568</v>
+        <v>50.0641441014823</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>1506.21197339571</v>
+        <v>1019.36951671475</v>
       </c>
       <c r="C19">
-        <v>21.642717297629</v>
+        <v>22.7158065549262</v>
       </c>
       <c r="D19">
-        <v>4.68921863835414</v>
+        <v>11.8367677984527</v>
       </c>
       <c r="E19">
-        <v>34.117213475197</v>
+        <v>34.5082175790733</v>
       </c>
       <c r="F19">
-        <v>60.1148431504643</v>
+        <v>76.8340147778745</v>
       </c>
       <c r="G19">
-        <v>34.5652093677246</v>
+        <v>38.0739013104997</v>
       </c>
       <c r="H19">
-        <v>8.02135046438455</v>
+        <v>8.938174683753241</v>
       </c>
       <c r="I19">
-        <v>11.4254406446352</v>
+        <v>10.4530544266541</v>
       </c>
       <c r="J19">
-        <v>24.1786973867376</v>
+        <v>22.3146552142536</v>
       </c>
       <c r="K19">
-        <v>14.1152997637193</v>
+        <v>17.1107389545334</v>
       </c>
       <c r="L19">
-        <v>6.44337455461283</v>
+        <v>5.2339203715247</v>
       </c>
       <c r="M19">
-        <v>24.3274217658816</v>
+        <v>34.4054468709601</v>
       </c>
       <c r="N19">
-        <v>5.3302783325862</v>
+        <v>5.78793706616447</v>
       </c>
       <c r="O19">
-        <v>1322.79632478556</v>
+        <v>1755.37632657612</v>
       </c>
       <c r="P19">
-        <v>44.5630221776628</v>
+        <v>58.3995319805682</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>416.195156954554</v>
+        <v>238.035094487861</v>
       </c>
       <c r="C20">
-        <v>8.28938522978827</v>
+        <v>9.07719002547381</v>
       </c>
       <c r="D20">
-        <v>11.0543917144255</v>
+        <v>13.9780780005473</v>
       </c>
       <c r="E20">
-        <v>35.8361835523118</v>
+        <v>41.3997795781351</v>
       </c>
       <c r="F20">
-        <v>0.251832887858217</v>
+        <v>0.142797272944652</v>
       </c>
       <c r="G20">
-        <v>1.31532016706145</v>
+        <v>1.16956280437321</v>
       </c>
       <c r="H20">
-        <v>1.69485018992357</v>
+        <v>2.12554612237043</v>
       </c>
       <c r="I20">
-        <v>0.907959805984441</v>
+        <v>0.757533316652809</v>
       </c>
       <c r="J20">
-        <v>6.7851427322222</v>
+        <v>7.62748588019448</v>
       </c>
       <c r="K20">
-        <v>3.19992992251864</v>
+        <v>3.99534187022525</v>
       </c>
       <c r="L20">
-        <v>9.09764970993283</v>
+        <v>9.075852630890131</v>
       </c>
       <c r="M20">
-        <v>17.0131903717388</v>
+        <v>18.3745571959128</v>
       </c>
       <c r="N20">
-        <v>7.23671731786694</v>
+        <v>7.56408944451329</v>
       </c>
       <c r="O20">
-        <v>433.14799440514</v>
+        <v>584.8244700602741</v>
       </c>
       <c r="P20">
-        <v>16.7492730600079</v>
+        <v>28.1826128768231</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>1499.36933212155</v>
+        <v>821.599828548554</v>
       </c>
       <c r="C21">
-        <v>23.340046291359</v>
+        <v>24.4044054772479</v>
       </c>
       <c r="D21">
-        <v>11.6361769151452</v>
+        <v>9.94239199142557</v>
       </c>
       <c r="E21">
-        <v>51.5114556587639</v>
+        <v>40.8419226312666</v>
       </c>
       <c r="F21">
-        <v>4.0401258324168</v>
+        <v>3.04933139656727</v>
       </c>
       <c r="G21">
-        <v>15.3871965435126</v>
+        <v>17.165013874942</v>
       </c>
       <c r="H21">
-        <v>5.79570177801866</v>
+        <v>7.71723485526329</v>
       </c>
       <c r="I21">
-        <v>7.86588749607917</v>
+        <v>7.94959501193174</v>
       </c>
       <c r="J21">
-        <v>22.4560157662205</v>
+        <v>25.1866906705861</v>
       </c>
       <c r="K21">
-        <v>11.6518265701409</v>
+        <v>14.4997616839044</v>
       </c>
       <c r="L21">
-        <v>42.7798469723252</v>
+        <v>31.6536121662405</v>
       </c>
       <c r="M21">
-        <v>22.6815828238347</v>
+        <v>28.3209921555727</v>
       </c>
       <c r="N21">
-        <v>14.879782579329</v>
+        <v>18.1425095579506</v>
       </c>
       <c r="O21">
-        <v>1954.42196714227</v>
+        <v>2608.70484451342</v>
       </c>
       <c r="P21">
-        <v>20.2263936290337</v>
+        <v>22.776195356112</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>1725.67416425701</v>
+        <v>1090.25878629972</v>
       </c>
       <c r="C22">
-        <v>20.1389390015938</v>
+        <v>16.9364908645559</v>
       </c>
       <c r="D22">
-        <v>22.9150585740483</v>
+        <v>28.6987843110405</v>
       </c>
       <c r="E22">
-        <v>58.5848015641365</v>
+        <v>51.1581688888338</v>
       </c>
       <c r="F22">
-        <v>1.32226025599153</v>
+        <v>1.27333869635688</v>
       </c>
       <c r="G22">
-        <v>24.2705011288089</v>
+        <v>27.9129774941958</v>
       </c>
       <c r="H22">
-        <v>18.1292230173169</v>
+        <v>22.7661966958973</v>
       </c>
       <c r="I22">
-        <v>10.8486575548341</v>
+        <v>12.1608331679651</v>
       </c>
       <c r="J22">
-        <v>45.9403789699553</v>
+        <v>55.5885969323997</v>
       </c>
       <c r="K22">
-        <v>26.6147561070511</v>
+        <v>35.660337090201</v>
       </c>
       <c r="L22">
-        <v>119.922746454122</v>
+        <v>128.740255326199</v>
       </c>
       <c r="M22">
-        <v>21.4268991184818</v>
+        <v>21.8922593462325</v>
       </c>
       <c r="N22">
-        <v>41.9010058086513</v>
+        <v>61.6079551820248</v>
       </c>
       <c r="O22">
-        <v>2248.36346211097</v>
+        <v>2819.20722635441</v>
       </c>
       <c r="P22">
-        <v>11.0779672053746</v>
+        <v>19.5923006494051</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>2966.31790715405</v>
+        <v>1921.00714735621</v>
       </c>
       <c r="C23">
-        <v>47.8504877076382</v>
+        <v>53.6810318489603</v>
       </c>
       <c r="D23">
-        <v>11.2599560265519</v>
+        <v>16.4713704321703</v>
       </c>
       <c r="E23">
-        <v>78.7793351216466</v>
+        <v>71.8301575753522</v>
       </c>
       <c r="F23">
-        <v>7.85903547580825</v>
+        <v>4.59852456339058</v>
       </c>
       <c r="G23">
-        <v>56.8714240300606</v>
+        <v>63.5192751584253</v>
       </c>
       <c r="H23">
-        <v>56.6194081499661</v>
+        <v>76.3708494784285</v>
       </c>
       <c r="I23">
-        <v>22.9433186713376</v>
+        <v>30.2095159455101</v>
       </c>
       <c r="J23">
-        <v>155.690961776894</v>
+        <v>177.899596257595</v>
       </c>
       <c r="K23">
-        <v>88.2696065559028</v>
+        <v>121.998356285806</v>
       </c>
       <c r="L23">
-        <v>38.5098545036381</v>
+        <v>43.3406064018326</v>
       </c>
       <c r="M23">
-        <v>492.222222869174</v>
+        <v>571.465079996436</v>
       </c>
       <c r="N23">
-        <v>64.3624169875462</v>
+        <v>83.3925555501542</v>
       </c>
       <c r="O23">
-        <v>2823.85644821462</v>
+        <v>3659.95765235621</v>
       </c>
       <c r="P23">
-        <v>61.1251319333821</v>
+        <v>77.4501945245529</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>1129.02183828569</v>
+        <v>636.592306335264</v>
       </c>
       <c r="C24">
-        <v>70.9135558185521</v>
+        <v>81.2481026180767</v>
       </c>
       <c r="D24">
-        <v>6.87525708105045</v>
+        <v>9.88368705011467</v>
       </c>
       <c r="E24">
-        <v>87.8032515211552</v>
+        <v>72.9903007572149</v>
       </c>
       <c r="F24">
-        <v>14.9651005391354</v>
+        <v>29.2022552930978</v>
       </c>
       <c r="G24">
-        <v>12.1757260383795</v>
+        <v>14.6787908925601</v>
       </c>
       <c r="H24">
-        <v>11.5763464409086</v>
+        <v>16.2967525605138</v>
       </c>
       <c r="I24">
-        <v>10.4060198480538</v>
+        <v>13.3483340234462</v>
       </c>
       <c r="J24">
-        <v>64.41468958616061</v>
+        <v>62.4913869353129</v>
       </c>
       <c r="K24">
-        <v>43.4861650338158</v>
+        <v>62.5618003833039</v>
       </c>
       <c r="L24">
-        <v>76.44804955676101</v>
+        <v>74.51645452172281</v>
       </c>
       <c r="M24">
-        <v>24.2927967540609</v>
+        <v>25.4169067950291</v>
       </c>
       <c r="N24">
-        <v>45.9508624739144</v>
+        <v>61.6812293561455</v>
       </c>
       <c r="O24">
-        <v>1706.63305472495</v>
+        <v>2114.07606228582</v>
       </c>
       <c r="P24">
-        <v>110.092921981794</v>
+        <v>137.510031829055</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>1043.08269080573</v>
+        <v>641.707209551209</v>
       </c>
       <c r="C25">
-        <v>20.4986396925516</v>
+        <v>45.6589639383209</v>
       </c>
       <c r="D25">
-        <v>23.0516235481346</v>
+        <v>27.2904136604551</v>
       </c>
       <c r="E25">
-        <v>36.0962204386774</v>
+        <v>43.9117204065342</v>
       </c>
       <c r="F25">
-        <v>8.51230092992475</v>
+        <v>17.3439963991554</v>
       </c>
       <c r="G25">
-        <v>11.5460643820487</v>
+        <v>10.7113306434345</v>
       </c>
       <c r="H25">
-        <v>11.4425399685592</v>
+        <v>14.9809465256365</v>
       </c>
       <c r="I25">
-        <v>5.73638526437259</v>
+        <v>6.25928919869592</v>
       </c>
       <c r="J25">
-        <v>19.198446297496</v>
+        <v>23.728415807208</v>
       </c>
       <c r="K25">
-        <v>20.5982377144185</v>
+        <v>23.8093964397648</v>
       </c>
       <c r="L25">
-        <v>23.1910487767497</v>
+        <v>27.8528953964623</v>
       </c>
       <c r="M25">
-        <v>24.0119272699157</v>
+        <v>42.9853223866197</v>
       </c>
       <c r="N25">
-        <v>49.3897856341249</v>
+        <v>48.320993993948</v>
       </c>
       <c r="O25">
-        <v>741.82506175508</v>
+        <v>1028.99905522631</v>
       </c>
       <c r="P25">
-        <v>33.1304036216138</v>
+        <v>48.3676841711708</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>1684.4974018261</v>
+        <v>915.9654244678781</v>
       </c>
       <c r="C26">
-        <v>66.12684272801749</v>
+        <v>73.92295764314871</v>
       </c>
       <c r="D26">
-        <v>16.370616080862</v>
+        <v>17.6333986307735</v>
       </c>
       <c r="E26">
-        <v>65.88650349112331</v>
+        <v>63.2202452299295</v>
       </c>
       <c r="F26">
-        <v>15.3889107970395</v>
+        <v>13.2920323304145</v>
       </c>
       <c r="G26">
-        <v>26.0710336506973</v>
+        <v>40.0949509062642</v>
       </c>
       <c r="H26">
-        <v>15.7638103431159</v>
+        <v>26.5781713510136</v>
       </c>
       <c r="I26">
-        <v>12.3710232964463</v>
+        <v>15.098539455949</v>
       </c>
       <c r="J26">
-        <v>60.4315584636486</v>
+        <v>61.8332598719384</v>
       </c>
       <c r="K26">
-        <v>30.7770266918735</v>
+        <v>42.8020225023319</v>
       </c>
       <c r="L26">
-        <v>41.9634265142259</v>
+        <v>43.686329512804</v>
       </c>
       <c r="M26">
-        <v>67.44905770476819</v>
+        <v>82.10869393766011</v>
       </c>
       <c r="N26">
-        <v>35.6471452365613</v>
+        <v>34.0325367726232</v>
       </c>
       <c r="O26">
-        <v>1687.87596996148</v>
+        <v>2371.19440312702</v>
       </c>
       <c r="P26">
-        <v>74.39911805798531</v>
+        <v>81.2523070459394</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>330.617866285487</v>
+        <v>169.966712128474</v>
       </c>
       <c r="C27">
-        <v>3.51532865363734</v>
+        <v>4.64116316207129</v>
       </c>
       <c r="D27">
-        <v>0.970399629245328</v>
+        <v>1.17380249454481</v>
       </c>
       <c r="E27">
-        <v>7.93588168105262</v>
+        <v>13.8630611381231</v>
       </c>
       <c r="F27">
-        <v>8.21351077782376</v>
+        <v>7.83088847223146</v>
       </c>
       <c r="G27">
-        <v>0.461250727733948</v>
+        <v>0.625444691782604</v>
       </c>
       <c r="H27">
-        <v>0.162244796235363</v>
+        <v>0.147699787853797</v>
       </c>
       <c r="I27">
-        <v>2.16605500960415</v>
+        <v>2.44582329184515</v>
       </c>
       <c r="J27">
-        <v>2.26807222465836</v>
+        <v>4.30082192106263</v>
       </c>
       <c r="K27">
-        <v>1.11762700309522</v>
+        <v>2.48068916345526</v>
       </c>
       <c r="L27">
-        <v>1.46013667791961</v>
+        <v>1.59595012619228</v>
       </c>
       <c r="M27">
-        <v>0.750555879581857</v>
+        <v>1.18097713480345</v>
       </c>
       <c r="N27">
-        <v>3.34983507154039</v>
+        <v>4.3293608891787</v>
       </c>
       <c r="O27">
-        <v>318.167668393934</v>
+        <v>441.693095310978</v>
       </c>
       <c r="P27">
-        <v>41.7577622184364</v>
+        <v>54.940488609518</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>436.853645755652</v>
+        <v>240.532096209946</v>
       </c>
       <c r="C28">
-        <v>37.3629388038651</v>
+        <v>41.7370142219129</v>
       </c>
       <c r="D28">
-        <v>1.88786941227086</v>
+        <v>1.9524720827951</v>
       </c>
       <c r="E28">
-        <v>9.87831582501048</v>
+        <v>9.349386222780771</v>
       </c>
       <c r="F28">
-        <v>2.76000144692889</v>
+        <v>2.60290163678663</v>
       </c>
       <c r="G28">
-        <v>4.84733942409693</v>
+        <v>5.38148003472242</v>
       </c>
       <c r="H28">
-        <v>5.63157754960712</v>
+        <v>7.42279506099977</v>
       </c>
       <c r="I28">
-        <v>4.70159345434987</v>
+        <v>4.09025107792471</v>
       </c>
       <c r="J28">
-        <v>13.1867237121512</v>
+        <v>18.0682148917473</v>
       </c>
       <c r="K28">
-        <v>15.5403956151996</v>
+        <v>18.7826276300541</v>
       </c>
       <c r="L28">
-        <v>10.5227616177631</v>
+        <v>15.0943517496342</v>
       </c>
       <c r="M28">
-        <v>10.5056277050493</v>
+        <v>9.428258807955761</v>
       </c>
       <c r="N28">
-        <v>11.148287796717</v>
+        <v>11.0826913700768</v>
       </c>
       <c r="O28">
-        <v>595.210721191796</v>
+        <v>762.1214046006541</v>
       </c>
       <c r="P28">
-        <v>82.03106727769441</v>
+        <v>93.3579184984539</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>649.543687433005</v>
+        <v>384.026696914268</v>
       </c>
       <c r="C29">
-        <v>5.48633524399209</v>
+        <v>4.61672174436034</v>
       </c>
       <c r="D29">
-        <v>1.79232414304809</v>
+        <v>2.13609735764932</v>
       </c>
       <c r="E29">
-        <v>8.99235120847092</v>
+        <v>6.99163467642714</v>
       </c>
       <c r="F29">
-        <v>14.1867578902997</v>
+        <v>18.0088194411301</v>
       </c>
       <c r="G29">
-        <v>2.99880642310549</v>
+        <v>2.93696117129172</v>
       </c>
       <c r="H29">
-        <v>2.42169685491283</v>
+        <v>2.57513316517859</v>
       </c>
       <c r="I29">
-        <v>3.25610862995124</v>
+        <v>4.06108119827396</v>
       </c>
       <c r="J29">
-        <v>6.67645317755631</v>
+        <v>6.14106700639527</v>
       </c>
       <c r="K29">
-        <v>1.39084699558093</v>
+        <v>3.24660425417147</v>
       </c>
       <c r="L29">
-        <v>6.78845339664785</v>
+        <v>3.83010153436051</v>
       </c>
       <c r="M29">
-        <v>2.29882654518836</v>
+        <v>2.14184018237575</v>
       </c>
       <c r="N29">
-        <v>5.98721031418606</v>
+        <v>11.8424054575953</v>
       </c>
       <c r="O29">
-        <v>791.45220142376</v>
+        <v>1036.05670222279</v>
       </c>
       <c r="P29">
-        <v>6.94936960981179</v>
+        <v>5.35426226206959</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>336.532565245746</v>
+        <v>193.534976581537</v>
       </c>
       <c r="C30">
-        <v>3.5077477076476</v>
+        <v>3.83176154610362</v>
       </c>
       <c r="D30">
-        <v>5.3360373207963</v>
+        <v>6.0409483017157</v>
       </c>
       <c r="E30">
-        <v>14.8156269540225</v>
+        <v>12.889142975339</v>
       </c>
       <c r="F30">
-        <v>0.105326977176597</v>
+        <v>0.447126754296893</v>
       </c>
       <c r="G30">
-        <v>2.99946996526386</v>
+        <v>4.95743913583721</v>
       </c>
       <c r="H30">
-        <v>3.85821892258508</v>
+        <v>6.69399845475781</v>
       </c>
       <c r="I30">
-        <v>2.56411622731564</v>
+        <v>3.30963255553501</v>
       </c>
       <c r="J30">
-        <v>19.9318647770878</v>
+        <v>19.8903603589501</v>
       </c>
       <c r="K30">
-        <v>7.72392461288327</v>
+        <v>12.4560838118801</v>
       </c>
       <c r="L30">
-        <v>33.0939524931946</v>
+        <v>41.0873651760322</v>
       </c>
       <c r="M30">
-        <v>8.149766345441099</v>
+        <v>10.3705107481565</v>
       </c>
       <c r="N30">
-        <v>13.5355104359854</v>
+        <v>16.943269960578</v>
       </c>
       <c r="O30">
-        <v>472.829419542693</v>
+        <v>591.400126173965</v>
       </c>
       <c r="P30">
-        <v>6.3372459018428</v>
+        <v>7.82190354496923</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>2610.70534789389</v>
+        <v>1688.98039013129</v>
       </c>
       <c r="C31">
-        <v>38.1071381178885</v>
+        <v>44.6607435657583</v>
       </c>
       <c r="D31">
-        <v>23.3308856550973</v>
+        <v>47.8367010208586</v>
       </c>
       <c r="E31">
-        <v>59.5287560970216</v>
+        <v>49.2780588879305</v>
       </c>
       <c r="F31">
-        <v>11.698170358418</v>
+        <v>10.0803675839398</v>
       </c>
       <c r="G31">
-        <v>133.00480572911</v>
+        <v>145.360962847967</v>
       </c>
       <c r="H31">
-        <v>21.0436594524842</v>
+        <v>27.7042875924678</v>
       </c>
       <c r="I31">
-        <v>14.0317619024618</v>
+        <v>19.3649893739713</v>
       </c>
       <c r="J31">
-        <v>45.4530660530272</v>
+        <v>50.4015197410504</v>
       </c>
       <c r="K31">
-        <v>28.1625472861997</v>
+        <v>31.7926934189668</v>
       </c>
       <c r="L31">
-        <v>87.2463032846379</v>
+        <v>81.84736651239059</v>
       </c>
       <c r="M31">
-        <v>15.8661527020449</v>
+        <v>20.2693293859692</v>
       </c>
       <c r="N31">
-        <v>44.3385558761319</v>
+        <v>53.3142922708103</v>
       </c>
       <c r="O31">
-        <v>2791.46782129393</v>
+        <v>3657.84628220879</v>
       </c>
       <c r="P31">
-        <v>12.9640298010977</v>
+        <v>10.4883181037956</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>628.5402272991501</v>
+        <v>389.180136515248</v>
       </c>
       <c r="C32">
-        <v>6.92441294287336</v>
+        <v>7.00984140850492</v>
       </c>
       <c r="D32">
-        <v>0.585690490081247</v>
+        <v>1.78421756398707</v>
       </c>
       <c r="E32">
-        <v>5.69351593856244</v>
+        <v>6.43393089493919</v>
       </c>
       <c r="F32">
-        <v>24.3383465768461</v>
+        <v>28.57156937486</v>
       </c>
       <c r="G32">
-        <v>1.94351445078949</v>
+        <v>1.23341248527566</v>
       </c>
       <c r="H32">
-        <v>0.0163295041968431</v>
+        <v>0.513172374086821</v>
       </c>
       <c r="I32">
-        <v>3.63914913189192</v>
+        <v>7.69761326328539</v>
       </c>
       <c r="J32">
-        <v>4.09016825796422</v>
+        <v>6.0112492787125</v>
       </c>
       <c r="K32">
-        <v>1.09238428737198</v>
+        <v>4.46720140348889</v>
       </c>
       <c r="L32">
-        <v>11.3280614773605</v>
+        <v>13.8545618069823</v>
       </c>
       <c r="M32">
-        <v>5.759983948784</v>
+        <v>3.68545752139277</v>
       </c>
       <c r="N32">
-        <v>5.02337503275591</v>
+        <v>9.984966464761589</v>
       </c>
       <c r="O32">
-        <v>578.673380517861</v>
+        <v>799.889110884816</v>
       </c>
       <c r="P32">
-        <v>22.8599449380401</v>
+        <v>28.5027970764836</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>5871.28052564366</v>
+        <v>4179.35346167178</v>
       </c>
       <c r="C33">
-        <v>82.227043663914</v>
+        <v>91.9140477291821</v>
       </c>
       <c r="D33">
-        <v>62.4656837646149</v>
+        <v>114.441720475659</v>
       </c>
       <c r="E33">
-        <v>141.113860076175</v>
+        <v>102.888063837266</v>
       </c>
       <c r="F33">
-        <v>7.86393384585403</v>
+        <v>9.00960761035539</v>
       </c>
       <c r="G33">
-        <v>70.6007733250888</v>
+        <v>83.15801345565789</v>
       </c>
       <c r="H33">
-        <v>36.4796551206164</v>
+        <v>44.9153407910267</v>
       </c>
       <c r="I33">
-        <v>28.9540439694142</v>
+        <v>37.7987339988852</v>
       </c>
       <c r="J33">
-        <v>100.472192419578</v>
+        <v>113.64790183807</v>
       </c>
       <c r="K33">
-        <v>125.943687248108</v>
+        <v>126.613903274817</v>
       </c>
       <c r="L33">
-        <v>140.890128620623</v>
+        <v>161.234995171697</v>
       </c>
       <c r="M33">
-        <v>76.82018897343841</v>
+        <v>85.7581733780478</v>
       </c>
       <c r="N33">
-        <v>98.0042645871761</v>
+        <v>147.764509307494</v>
       </c>
       <c r="O33">
-        <v>6265.0654963954</v>
+        <v>7846.25901939715</v>
       </c>
       <c r="P33">
-        <v>78.4794251962367</v>
+        <v>83.2355991804819</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>2443.51058636505</v>
+        <v>1530.52952934468</v>
       </c>
       <c r="C34">
-        <v>49.7824885226031</v>
+        <v>80.2849286948164</v>
       </c>
       <c r="D34">
-        <v>172.938879030954</v>
+        <v>227.570580378948</v>
       </c>
       <c r="E34">
-        <v>88.5026943313983</v>
+        <v>75.8016412691142</v>
       </c>
       <c r="F34">
-        <v>6.93292916553516</v>
+        <v>6.81871285022273</v>
       </c>
       <c r="G34">
-        <v>49.355293058181</v>
+        <v>61.341392036413</v>
       </c>
       <c r="H34">
-        <v>34.6549480145084</v>
+        <v>45.6635328109167</v>
       </c>
       <c r="I34">
-        <v>20.6752152969908</v>
+        <v>27.6152987719649</v>
       </c>
       <c r="J34">
-        <v>52.4574063443784</v>
+        <v>57.9634187113459</v>
       </c>
       <c r="K34">
-        <v>38.1585473586598</v>
+        <v>59.7703269651213</v>
       </c>
       <c r="L34">
-        <v>97.241349949925</v>
+        <v>110.504859912444</v>
       </c>
       <c r="M34">
-        <v>44.5252155513287</v>
+        <v>54.8877885390007</v>
       </c>
       <c r="N34">
-        <v>120.645750147174</v>
+        <v>135.442386036944</v>
       </c>
       <c r="O34">
-        <v>2452.55304607013</v>
+        <v>3138.73126095768</v>
       </c>
       <c r="P34">
-        <v>56.4839990447662</v>
+        <v>76.9445657672174</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>199.897961022685</v>
+        <v>99.8581594286067</v>
       </c>
       <c r="C35">
-        <v>6.15633548740897</v>
+        <v>9.250480681533441</v>
       </c>
       <c r="D35">
-        <v>0.608416962590275</v>
+        <v>0.69801873205049</v>
       </c>
       <c r="E35">
-        <v>1.92334933606048</v>
+        <v>2.57758260989086</v>
       </c>
       <c r="F35">
-        <v>4.83182129833761</v>
+        <v>6.31638741976279</v>
       </c>
       <c r="G35">
-        <v>0.528688999707864</v>
+        <v>0.396612328286179</v>
       </c>
       <c r="H35">
-        <v>0.226174832494896</v>
+        <v>0.6266628098084</v>
       </c>
       <c r="I35">
-        <v>0.6075938832641981</v>
+        <v>0.7478264860831571</v>
       </c>
       <c r="J35">
-        <v>2.78831660278722</v>
+        <v>3.18281233048325</v>
       </c>
       <c r="K35">
-        <v>4.8681755807549</v>
+        <v>6.10045734420764</v>
       </c>
       <c r="L35">
-        <v>2.79904214620697</v>
+        <v>3.19471257805871</v>
       </c>
       <c r="M35">
-        <v>4.12891912353764</v>
+        <v>3.30696106911606</v>
       </c>
       <c r="N35">
-        <v>2.0592209698877</v>
+        <v>2.6318930835836</v>
       </c>
       <c r="O35">
-        <v>229.919197018243</v>
+        <v>303.031103282756</v>
       </c>
       <c r="P35">
-        <v>39.5385181320102</v>
+        <v>53.5530879752106</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>3348.58877193558</v>
+        <v>2106.59292692892</v>
       </c>
       <c r="C36">
-        <v>76.6372803403749</v>
+        <v>78.5257015282387</v>
       </c>
       <c r="D36">
-        <v>23.3364212051108</v>
+        <v>21.5960128212831</v>
       </c>
       <c r="E36">
-        <v>134.221248955361</v>
+        <v>113.466015774857</v>
       </c>
       <c r="F36">
-        <v>20.8430675476541</v>
+        <v>31.4675928966254</v>
       </c>
       <c r="G36">
-        <v>77.0077042350221</v>
+        <v>84.3402777865204</v>
       </c>
       <c r="H36">
-        <v>94.2997349422543</v>
+        <v>119.218065010335</v>
       </c>
       <c r="I36">
-        <v>41.8266694892634</v>
+        <v>62.6508071427154</v>
       </c>
       <c r="J36">
-        <v>246.928068363015</v>
+        <v>258.572742228789</v>
       </c>
       <c r="K36">
-        <v>97.49239837901681</v>
+        <v>133.212767741438</v>
       </c>
       <c r="L36">
-        <v>100.472841270577</v>
+        <v>109.848163079499</v>
       </c>
       <c r="M36">
-        <v>244.190394697879</v>
+        <v>267.631032989785</v>
       </c>
       <c r="N36">
-        <v>71.85611815938511</v>
+        <v>88.4165838096375</v>
       </c>
       <c r="O36">
-        <v>3351.05572637867</v>
+        <v>4441.73484696353</v>
       </c>
       <c r="P36">
-        <v>37.7758783746895</v>
+        <v>49.9067608203351</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>1079.87572794845</v>
+        <v>693.827432157998</v>
       </c>
       <c r="C37">
-        <v>24.800871388821</v>
+        <v>26.4257241292423</v>
       </c>
       <c r="D37">
-        <v>9.48469145113752</v>
+        <v>12.0603627348396</v>
       </c>
       <c r="E37">
-        <v>13.8158187131221</v>
+        <v>15.9908523038258</v>
       </c>
       <c r="F37">
-        <v>45.229883726194</v>
+        <v>49.644076276209</v>
       </c>
       <c r="G37">
-        <v>7.57965674955532</v>
+        <v>6.3542992710179</v>
       </c>
       <c r="H37">
-        <v>17.2044115446681</v>
+        <v>23.0163200273002</v>
       </c>
       <c r="I37">
-        <v>6.7075392012294</v>
+        <v>10.7405578517971</v>
       </c>
       <c r="J37">
-        <v>32.5945032704071</v>
+        <v>31.5157494400295</v>
       </c>
       <c r="K37">
-        <v>30.0849348871207</v>
+        <v>40.2535313398674</v>
       </c>
       <c r="L37">
-        <v>21.1451068390897</v>
+        <v>27.8059194761292</v>
       </c>
       <c r="M37">
-        <v>34.0484778273575</v>
+        <v>35.273546415597</v>
       </c>
       <c r="N37">
-        <v>13.6902898041983</v>
+        <v>15.2434074970616</v>
       </c>
       <c r="O37">
-        <v>1022.29504767889</v>
+        <v>1350.31858515837</v>
       </c>
       <c r="P37">
-        <v>25.4499920962149</v>
+        <v>52.8912028677524</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>1051.31033251529</v>
+        <v>636.256100585494</v>
       </c>
       <c r="C38">
-        <v>13.834513671249</v>
+        <v>28.2955433112823</v>
       </c>
       <c r="D38">
-        <v>8.53384541892475</v>
+        <v>10.0844849868935</v>
       </c>
       <c r="E38">
-        <v>63.9946259284124</v>
+        <v>61.9330959292833</v>
       </c>
       <c r="F38">
-        <v>3.69007006125743</v>
+        <v>3.23220031210534</v>
       </c>
       <c r="G38">
-        <v>6.25845003672911</v>
+        <v>6.24316909254078</v>
       </c>
       <c r="H38">
-        <v>4.1539488452299</v>
+        <v>6.88285121374955</v>
       </c>
       <c r="I38">
-        <v>2.33094805742021</v>
+        <v>3.9314100782281</v>
       </c>
       <c r="J38">
-        <v>31.5849221506972</v>
+        <v>38.4730393836979</v>
       </c>
       <c r="K38">
-        <v>11.8141577996837</v>
+        <v>15.429229421938</v>
       </c>
       <c r="L38">
-        <v>64.0831292331449</v>
+        <v>80.693802122077</v>
       </c>
       <c r="M38">
-        <v>23.5276123750711</v>
+        <v>22.6061668445119</v>
       </c>
       <c r="N38">
-        <v>19.8517665788076</v>
+        <v>20.1522596030942</v>
       </c>
       <c r="O38">
-        <v>1130.26906139317</v>
+        <v>1454.25509148829</v>
       </c>
       <c r="P38">
-        <v>50.3613653971137</v>
+        <v>89.9424993089506</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>3811.08721024581</v>
+        <v>2531.7888130824</v>
       </c>
       <c r="C39">
-        <v>83.970173714985</v>
+        <v>109.975564260029</v>
       </c>
       <c r="D39">
-        <v>60.1276449767669</v>
+        <v>84.5605770705119</v>
       </c>
       <c r="E39">
-        <v>141.460572350123</v>
+        <v>136.902344758185</v>
       </c>
       <c r="F39">
-        <v>36.3988409771571</v>
+        <v>42.1297847489144</v>
       </c>
       <c r="G39">
-        <v>87.1951695020045</v>
+        <v>106.056467262594</v>
       </c>
       <c r="H39">
-        <v>47.472639106608</v>
+        <v>53.576152479987</v>
       </c>
       <c r="I39">
-        <v>51.6351084311015</v>
+        <v>57.6186296323446</v>
       </c>
       <c r="J39">
-        <v>204.633776450154</v>
+        <v>210.393629036442</v>
       </c>
       <c r="K39">
-        <v>77.30350295532941</v>
+        <v>114.018232784051</v>
       </c>
       <c r="L39">
-        <v>113.731016214372</v>
+        <v>117.95983214283</v>
       </c>
       <c r="M39">
-        <v>62.1238859405316</v>
+        <v>75.1110370141634</v>
       </c>
       <c r="N39">
-        <v>99.8901578075665</v>
+        <v>109.543548453554</v>
       </c>
       <c r="O39">
-        <v>3771.70208303678</v>
+        <v>4889.26629444788</v>
       </c>
       <c r="P39">
-        <v>71.9473051032888</v>
+        <v>80.2889308648451</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>373.237849953957</v>
+        <v>196.547125379675</v>
       </c>
       <c r="C40">
-        <v>3.21409916670951</v>
+        <v>5.67554688504096</v>
       </c>
       <c r="D40">
-        <v>6.99205916064763</v>
+        <v>13.6763254760682</v>
       </c>
       <c r="E40">
-        <v>7.9118486742199</v>
+        <v>7.00463407647409</v>
       </c>
       <c r="F40">
-        <v>0.768856084629759</v>
+        <v>0.554350349187879</v>
       </c>
       <c r="G40">
-        <v>4.12226930932232</v>
+        <v>5.70819102653201</v>
       </c>
       <c r="H40">
-        <v>3.94576085372606</v>
+        <v>6.21254299521554</v>
       </c>
       <c r="I40">
-        <v>1.33059941953718</v>
+        <v>3.64317298197058</v>
       </c>
       <c r="J40">
-        <v>13.5378959248512</v>
+        <v>16.482872928552</v>
       </c>
       <c r="K40">
-        <v>3.65178788039328</v>
+        <v>4.9227196266562</v>
       </c>
       <c r="L40">
-        <v>16.0675612791402</v>
+        <v>18.4495341128133</v>
       </c>
       <c r="M40">
-        <v>5.15983091893771</v>
+        <v>7.27160181398173</v>
       </c>
       <c r="N40">
-        <v>16.8877988672174</v>
+        <v>27.6049080761527</v>
       </c>
       <c r="O40">
-        <v>363.984030675591</v>
+        <v>493.163841852336</v>
       </c>
       <c r="P40">
-        <v>1.1605637715937</v>
+        <v>1.78058802459787</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>1284.40899439872</v>
+        <v>748.8417839915491</v>
       </c>
       <c r="C41">
-        <v>14.9640609397221</v>
+        <v>19.1644110293211</v>
       </c>
       <c r="D41">
-        <v>75.6307722399081</v>
+        <v>106.499829243364</v>
       </c>
       <c r="E41">
-        <v>38.5127649145272</v>
+        <v>49.1577083487537</v>
       </c>
       <c r="F41">
-        <v>3.13880412307535</v>
+        <v>3.49572316340065</v>
       </c>
       <c r="G41">
-        <v>24.7016470492872</v>
+        <v>30.3984377165557</v>
       </c>
       <c r="H41">
-        <v>34.4903056335138</v>
+        <v>36.7799802214581</v>
       </c>
       <c r="I41">
-        <v>7.92352467098265</v>
+        <v>8.966721555393081</v>
       </c>
       <c r="J41">
-        <v>41.9475165641522</v>
+        <v>58.7912449653955</v>
       </c>
       <c r="K41">
-        <v>28.016621113371</v>
+        <v>41.6209292056345</v>
       </c>
       <c r="L41">
-        <v>21.8202495260998</v>
+        <v>33.1066257372612</v>
       </c>
       <c r="M41">
-        <v>36.2288584845344</v>
+        <v>43.1325396743214</v>
       </c>
       <c r="N41">
-        <v>25.7813518220786</v>
+        <v>25.9589809847481</v>
       </c>
       <c r="O41">
-        <v>1170.60988177532</v>
+        <v>1586.01727940578</v>
       </c>
       <c r="P41">
-        <v>14.7798684488378</v>
+        <v>22.366569868828</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>235.465109837336</v>
+        <v>109.969459239058</v>
       </c>
       <c r="C42">
-        <v>7.49544235379499</v>
+        <v>8.97460421154819</v>
       </c>
       <c r="D42">
-        <v>0.420187031594059</v>
+        <v>0.8723164486535</v>
       </c>
       <c r="E42">
-        <v>6.13344290473907</v>
+        <v>8.07939910407921</v>
       </c>
       <c r="F42">
-        <v>1.7956143808727</v>
+        <v>2.63926707533118</v>
       </c>
       <c r="G42">
-        <v>0.661565936863053</v>
+        <v>0.910614117215849</v>
       </c>
       <c r="H42">
-        <v>1.9269962345691</v>
+        <v>2.39296205159014</v>
       </c>
       <c r="I42">
-        <v>2.63578165408606</v>
+        <v>1.54404671325293</v>
       </c>
       <c r="J42">
-        <v>5.9398616552894</v>
+        <v>5.03996656949289</v>
       </c>
       <c r="K42">
-        <v>4.86543735543167</v>
+        <v>6.09295304356881</v>
       </c>
       <c r="L42">
-        <v>6.42895161052361</v>
+        <v>8.034674551300441</v>
       </c>
       <c r="M42">
-        <v>3.31360900091744</v>
+        <v>3.86362503555118</v>
       </c>
       <c r="N42">
-        <v>9.45705044911934</v>
+        <v>7.76853869143614</v>
       </c>
       <c r="O42">
-        <v>283.194452551438</v>
+        <v>373.862768715502</v>
       </c>
       <c r="P42">
-        <v>40.9045873905955</v>
+        <v>57.5090303794551</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1830.30025345621</v>
+        <v>1208.4290963151</v>
       </c>
       <c r="C43">
-        <v>47.4205925921286</v>
+        <v>52.4848154309986</v>
       </c>
       <c r="D43">
-        <v>27.6423109963105</v>
+        <v>54.7089198852635</v>
       </c>
       <c r="E43">
-        <v>70.3266844097365</v>
+        <v>66.7214620280628</v>
       </c>
       <c r="F43">
-        <v>5.56072801598184</v>
+        <v>7.07689527298689</v>
       </c>
       <c r="G43">
-        <v>34.0588968441338</v>
+        <v>32.7419643955633</v>
       </c>
       <c r="H43">
-        <v>28.4518503548952</v>
+        <v>31.198241657974</v>
       </c>
       <c r="I43">
-        <v>12.8058078012009</v>
+        <v>21.3738162045391</v>
       </c>
       <c r="J43">
-        <v>55.3540016302497</v>
+        <v>66.710083785282</v>
       </c>
       <c r="K43">
-        <v>44.5592932736471</v>
+        <v>56.3499967971568</v>
       </c>
       <c r="L43">
-        <v>45.553960532934</v>
+        <v>60.483412399647</v>
       </c>
       <c r="M43">
-        <v>105.583323964223</v>
+        <v>107.892414141625</v>
       </c>
       <c r="N43">
-        <v>48.5541638745202</v>
+        <v>56.7914007135744</v>
       </c>
       <c r="O43">
-        <v>1668.63247686624</v>
+        <v>2187.3818984109</v>
       </c>
       <c r="P43">
-        <v>29.7068647835255</v>
+        <v>47.7677683162486</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>6023.65586821683</v>
+        <v>4196.5946646971</v>
       </c>
       <c r="C44">
-        <v>97.8648192173472</v>
+        <v>127.475952219189</v>
       </c>
       <c r="D44">
-        <v>45.7942368252365</v>
+        <v>62.0720180637168</v>
       </c>
       <c r="E44">
-        <v>113.90092028494</v>
+        <v>106.713695514775</v>
       </c>
       <c r="F44">
-        <v>216.47516246331</v>
+        <v>239.177336626046</v>
       </c>
       <c r="G44">
-        <v>109.203995912101</v>
+        <v>121.870261464579</v>
       </c>
       <c r="H44">
-        <v>59.2167398205525</v>
+        <v>58.5765228881848</v>
       </c>
       <c r="I44">
-        <v>51.2669045016555</v>
+        <v>51.4248330848431</v>
       </c>
       <c r="J44">
-        <v>144.369031296592</v>
+        <v>145.145170682624</v>
       </c>
       <c r="K44">
-        <v>77.45543248837331</v>
+        <v>101.702467713881</v>
       </c>
       <c r="L44">
-        <v>227.236124953383</v>
+        <v>243.672402030562</v>
       </c>
       <c r="M44">
-        <v>125.191112991353</v>
+        <v>125.999327128214</v>
       </c>
       <c r="N44">
-        <v>95.412270584938</v>
+        <v>95.2640040790657</v>
       </c>
       <c r="O44">
-        <v>6456.64164757393</v>
+        <v>8120.05684710397</v>
       </c>
       <c r="P44">
-        <v>137.225373819012</v>
+        <v>229.782990485871</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>577.376149350707</v>
+        <v>404.519448541946</v>
       </c>
       <c r="C45">
-        <v>13.5540355830246</v>
+        <v>19.6906648948882</v>
       </c>
       <c r="D45">
-        <v>3.08632073413574</v>
+        <v>4.55257619514748</v>
       </c>
       <c r="E45">
-        <v>16.8786689808196</v>
+        <v>13.5125472414007</v>
       </c>
       <c r="F45">
-        <v>19.8127874441631</v>
+        <v>22.9498734583492</v>
       </c>
       <c r="G45">
-        <v>11.1728445193068</v>
+        <v>12.1923115172506</v>
       </c>
       <c r="H45">
-        <v>2.11334781469766</v>
+        <v>3.33126182691706</v>
       </c>
       <c r="I45">
-        <v>3.63921012597317</v>
+        <v>5.40630286450777</v>
       </c>
       <c r="J45">
-        <v>17.0920749378559</v>
+        <v>18.410869569197</v>
       </c>
       <c r="K45">
-        <v>4.83724797061526</v>
+        <v>6.66502814341715</v>
       </c>
       <c r="L45">
-        <v>20.2058439836545</v>
+        <v>19.3073954417127</v>
       </c>
       <c r="M45">
-        <v>24.602889570694</v>
+        <v>26.1334885143962</v>
       </c>
       <c r="N45">
-        <v>25.6060996165804</v>
+        <v>26.5580250894188</v>
       </c>
       <c r="O45">
-        <v>712.291020986556</v>
+        <v>874.752066306005</v>
       </c>
       <c r="P45">
-        <v>13.2850880509261</v>
+        <v>18.5333347697258</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>185.306077307746</v>
+        <v>94.8501209698035</v>
       </c>
       <c r="C46">
-        <v>4.6779861453369</v>
+        <v>5.73965775826116</v>
       </c>
       <c r="D46">
-        <v>0.933622484553021</v>
+        <v>2.16260244711134</v>
       </c>
       <c r="E46">
-        <v>8.66228305221372</v>
+        <v>8.601224359488191</v>
       </c>
       <c r="F46">
-        <v>0.902934473901748</v>
+        <v>1.82389404394987</v>
       </c>
       <c r="G46">
-        <v>1.75863869129787</v>
+        <v>2.05735274331473</v>
       </c>
       <c r="H46">
-        <v>1.97712945447741</v>
+        <v>2.2291072652993</v>
       </c>
       <c r="I46">
-        <v>2.15691622462808</v>
+        <v>2.01365630728068</v>
       </c>
       <c r="J46">
-        <v>5.76304062748762</v>
+        <v>5.9079851158159</v>
       </c>
       <c r="K46">
-        <v>3.2571038290971</v>
+        <v>5.32575419304509</v>
       </c>
       <c r="L46">
-        <v>12.713080993956</v>
+        <v>13.2885779219503</v>
       </c>
       <c r="M46">
-        <v>4.64763512352656</v>
+        <v>5.41547844085663</v>
       </c>
       <c r="N46">
-        <v>5.75867924761141</v>
+        <v>8.81953383799944</v>
       </c>
       <c r="O46">
-        <v>246.690716833629</v>
+        <v>319.118474298324</v>
       </c>
       <c r="P46">
-        <v>11.7318128564467</v>
+        <v>14.8472834950831</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1977.30788109522</v>
+        <v>1275.20240642006</v>
       </c>
       <c r="C47">
-        <v>45.6231298083023</v>
+        <v>60.2056270368349</v>
       </c>
       <c r="D47">
-        <v>45.9794892516053</v>
+        <v>49.1728743426229</v>
       </c>
       <c r="E47">
-        <v>62.831470706106</v>
+        <v>62.9824058452969</v>
       </c>
       <c r="F47">
-        <v>16.7410574049079</v>
+        <v>12.8584522458641</v>
       </c>
       <c r="G47">
-        <v>26.077062777418</v>
+        <v>29.2122321864142</v>
       </c>
       <c r="H47">
-        <v>22.0103637468524</v>
+        <v>22.9643732652996</v>
       </c>
       <c r="I47">
-        <v>12.4520451185201</v>
+        <v>13.171714710874</v>
       </c>
       <c r="J47">
-        <v>31.1213735908527</v>
+        <v>38.963922440363</v>
       </c>
       <c r="K47">
-        <v>24.7920500003103</v>
+        <v>27.9863344203686</v>
       </c>
       <c r="L47">
-        <v>47.7158817701222</v>
+        <v>54.1578362453454</v>
       </c>
       <c r="M47">
-        <v>73.08870875172801</v>
+        <v>76.9462075403555</v>
       </c>
       <c r="N47">
-        <v>45.2966099695556</v>
+        <v>45.2905145512107</v>
       </c>
       <c r="O47">
-        <v>2417.5407477967</v>
+        <v>3068.68260235302</v>
       </c>
       <c r="P47">
-        <v>30.1059111287758</v>
+        <v>50.8011997701043</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1748.73976187389</v>
+        <v>1141.84023676285</v>
       </c>
       <c r="C48">
-        <v>38.4178945506935</v>
+        <v>37.0975647856628</v>
       </c>
       <c r="D48">
-        <v>6.11872794604641</v>
+        <v>7.45801183820261</v>
       </c>
       <c r="E48">
-        <v>59.8929335164352</v>
+        <v>68.78493063999019</v>
       </c>
       <c r="F48">
-        <v>5.40933336266756</v>
+        <v>9.442123665245649</v>
       </c>
       <c r="G48">
-        <v>6.49032933028796</v>
+        <v>7.110755769244</v>
       </c>
       <c r="H48">
-        <v>6.73214893810568</v>
+        <v>5.83105085120938</v>
       </c>
       <c r="I48">
-        <v>7.51198905940897</v>
+        <v>8.665561078120311</v>
       </c>
       <c r="J48">
-        <v>29.118118593771</v>
+        <v>35.7619244624352</v>
       </c>
       <c r="K48">
-        <v>17.2878774318492</v>
+        <v>22.2829257515225</v>
       </c>
       <c r="L48">
-        <v>42.716478345901</v>
+        <v>45.4274998388824</v>
       </c>
       <c r="M48">
-        <v>129.685374561348</v>
+        <v>135.78917652351</v>
       </c>
       <c r="N48">
-        <v>28.8029596727001</v>
+        <v>32.9264406145388</v>
       </c>
       <c r="O48">
-        <v>1942.81237116088</v>
+        <v>2467.14992887108</v>
       </c>
       <c r="P48">
-        <v>50.2299755631848</v>
+        <v>103.371173611193</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>838.151054901917</v>
+        <v>557.516241657951</v>
       </c>
       <c r="C49">
-        <v>6.19028257868057</v>
+        <v>8.344436216689029</v>
       </c>
       <c r="D49">
-        <v>1.58516237319051</v>
+        <v>4.16813923068896</v>
       </c>
       <c r="E49">
-        <v>14.1580544504774</v>
+        <v>18.6580825220116</v>
       </c>
       <c r="F49">
-        <v>25.6603887535046</v>
+        <v>37.8279730976352</v>
       </c>
       <c r="G49">
-        <v>14.5496236600634</v>
+        <v>18.5834336038298</v>
       </c>
       <c r="H49">
-        <v>6.95081378529315</v>
+        <v>10.2094856160856</v>
       </c>
       <c r="I49">
-        <v>2.87112540915949</v>
+        <v>9.39930818704117</v>
       </c>
       <c r="J49">
-        <v>17.8085786875057</v>
+        <v>26.2679803969412</v>
       </c>
       <c r="K49">
-        <v>7.08729312492163</v>
+        <v>10.5989762252875</v>
       </c>
       <c r="L49">
-        <v>2.28147734671126</v>
+        <v>2.98655469479052</v>
       </c>
       <c r="M49">
-        <v>3.66049357728915</v>
+        <v>7.54151189909365</v>
       </c>
       <c r="N49">
-        <v>4.81251121144675</v>
+        <v>4.98309844317923</v>
       </c>
       <c r="O49">
-        <v>476.029753478568</v>
+        <v>706.945397351717</v>
       </c>
       <c r="P49">
-        <v>11.1690833122389</v>
+        <v>12.3654489267944</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>1445.61032592763</v>
+        <v>774.968876157193</v>
       </c>
       <c r="C50">
-        <v>79.3822181445547</v>
+        <v>87.0779900388556</v>
       </c>
       <c r="D50">
-        <v>11.9315889617823</v>
+        <v>14.4801922804333</v>
       </c>
       <c r="E50">
-        <v>143.624460812536</v>
+        <v>151.168141798005</v>
       </c>
       <c r="F50">
-        <v>5.06116182503362</v>
+        <v>4.29454615232381</v>
       </c>
       <c r="G50">
-        <v>18.6103536718702</v>
+        <v>24.086199944381</v>
       </c>
       <c r="H50">
-        <v>47.62233466388</v>
+        <v>50.4144151173791</v>
       </c>
       <c r="I50">
-        <v>11.8170901377511</v>
+        <v>16.7191287912877</v>
       </c>
       <c r="J50">
-        <v>99.84249158536071</v>
+        <v>128.798822514008</v>
       </c>
       <c r="K50">
-        <v>71.18641412471111</v>
+        <v>105.002518370382</v>
       </c>
       <c r="L50">
-        <v>53.2048367046448</v>
+        <v>71.46953253049919</v>
       </c>
       <c r="M50">
-        <v>63.8571788941478</v>
+        <v>54.5082830569294</v>
       </c>
       <c r="N50">
-        <v>56.1600610358709</v>
+        <v>65.0334834099215</v>
       </c>
       <c r="O50">
-        <v>1584.0699148815</v>
+        <v>2121.03890934835</v>
       </c>
       <c r="P50">
-        <v>112.107994785728</v>
+        <v>129.017385488909</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>186.771573956982</v>
+        <v>96.7163685894693</v>
       </c>
       <c r="C51">
-        <v>0.928559847047381</v>
+        <v>1.80377899969418</v>
       </c>
       <c r="D51">
-        <v>0.151838276461374</v>
+        <v>0.0500330711749979</v>
       </c>
       <c r="E51">
-        <v>2.24628874066203</v>
+        <v>2.24454468812314</v>
       </c>
       <c r="F51">
-        <v>26.8561514853696</v>
+        <v>34.5777873153528</v>
       </c>
       <c r="G51">
-        <v>3.97943151587217</v>
+        <v>3.12720337417637</v>
       </c>
       <c r="H51">
-        <v>0.192609324460059</v>
+        <v>0.508876678808214</v>
       </c>
       <c r="I51">
-        <v>1.20009897070973</v>
+        <v>1.47032078006755</v>
       </c>
       <c r="J51">
-        <v>2.07996919531014</v>
+        <v>2.2500583558081</v>
       </c>
       <c r="K51">
-        <v>0.265030406442511</v>
+        <v>0.768244098190554</v>
       </c>
       <c r="L51">
-        <v>0.442711113618877</v>
+        <v>0.280087117996869</v>
       </c>
       <c r="M51">
-        <v>0.561163475300722</v>
+        <v>0.626708427266783</v>
       </c>
       <c r="N51">
-        <v>1.49738436881284</v>
+        <v>2.37503744019408</v>
       </c>
       <c r="O51">
-        <v>217.468493195341</v>
+        <v>283.737176506507</v>
       </c>
       <c r="P51">
-        <v>10.9363177934581</v>
+        <v>20.7936541895277</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2002.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2002.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>959.003815835148</v>
+        <v>456.66745169054</v>
       </c>
       <c r="C2">
-        <v>46.3860570535801</v>
+        <v>44.3777537333626</v>
       </c>
       <c r="D2">
-        <v>84.538059436574</v>
+        <v>83.07060367345041</v>
       </c>
       <c r="E2">
-        <v>70.82939311539501</v>
+        <v>92.6173874709723</v>
       </c>
       <c r="F2">
-        <v>18.6246626150855</v>
+        <v>22.2599018350222</v>
       </c>
       <c r="G2">
-        <v>17.522160172283</v>
+        <v>24.7129315854336</v>
       </c>
       <c r="H2">
-        <v>21.5079292060945</v>
+        <v>39.827183090757</v>
       </c>
       <c r="I2">
-        <v>14.3119056965317</v>
+        <v>23.0776417049982</v>
       </c>
       <c r="J2">
-        <v>71.3493967185275</v>
+        <v>85.7365150629647</v>
       </c>
       <c r="K2">
-        <v>23.0752940695204</v>
+        <v>25.970239311748</v>
       </c>
       <c r="L2">
-        <v>42.1834044102303</v>
+        <v>43.8806264627576</v>
       </c>
       <c r="M2">
-        <v>46.225730231197</v>
+        <v>61.6160939874529</v>
       </c>
       <c r="N2">
-        <v>30.9422541882847</v>
+        <v>33.5593032389</v>
       </c>
       <c r="O2">
-        <v>1667.69395396416</v>
+        <v>2052.41990919665</v>
       </c>
       <c r="P2">
-        <v>36.7273403192938</v>
+        <v>44.7405893678468</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>133.960433223609</v>
+        <v>95.507397527981</v>
       </c>
       <c r="C3">
-        <v>6.76268004447723</v>
+        <v>5.17608609036046</v>
       </c>
       <c r="D3">
-        <v>0.188469837877664</v>
+        <v>0.391176549292106</v>
       </c>
       <c r="E3">
-        <v>1.66672486518245</v>
+        <v>1.47735630762197</v>
       </c>
       <c r="F3">
-        <v>13.2593449748885</v>
+        <v>17.242489445265</v>
       </c>
       <c r="G3">
-        <v>0.37180553255819</v>
+        <v>0.929605434095457</v>
       </c>
       <c r="H3">
-        <v>0.18143557481097</v>
+        <v>0.273282398129791</v>
       </c>
       <c r="I3">
-        <v>0.23394515518719</v>
+        <v>0.467178793503316</v>
       </c>
       <c r="J3">
-        <v>0.872897437439113</v>
+        <v>1.00753377983898</v>
       </c>
       <c r="K3">
-        <v>0.13022902825207</v>
+        <v>0.349275733757043</v>
       </c>
       <c r="L3">
-        <v>0.198628327315643</v>
+        <v>0.210116396281411</v>
       </c>
       <c r="M3">
-        <v>1.12366101860505</v>
+        <v>1.60265470237216</v>
       </c>
       <c r="N3">
-        <v>1.1143655644673</v>
+        <v>1.46011291646014</v>
       </c>
       <c r="O3">
-        <v>333.520976239563</v>
+        <v>418.476500118982</v>
       </c>
       <c r="P3">
-        <v>14.8362043173515</v>
+        <v>14.3647048342462</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>1070.56674374086</v>
+        <v>563.410994071877</v>
       </c>
       <c r="C4">
-        <v>11.9746508312532</v>
+        <v>15.2719015001306</v>
       </c>
       <c r="D4">
-        <v>4.39030834297178</v>
+        <v>7.42245649828242</v>
       </c>
       <c r="E4">
-        <v>24.7042336139892</v>
+        <v>16.8992459946229</v>
       </c>
       <c r="F4">
-        <v>15.6806352603782</v>
+        <v>8.65081987276824</v>
       </c>
       <c r="G4">
-        <v>10.457388687001</v>
+        <v>16.2021745066461</v>
       </c>
       <c r="H4">
-        <v>9.102130216477271</v>
+        <v>9.13265569261492</v>
       </c>
       <c r="I4">
-        <v>9.25966128286051</v>
+        <v>10.9739070927914</v>
       </c>
       <c r="J4">
-        <v>31.1182507157318</v>
+        <v>31.1515525603609</v>
       </c>
       <c r="K4">
-        <v>11.1405320335294</v>
+        <v>11.5114540032841</v>
       </c>
       <c r="L4">
-        <v>81.4487282643335</v>
+        <v>114.817845777179</v>
       </c>
       <c r="M4">
-        <v>57.3985169063223</v>
+        <v>72.6365488671577</v>
       </c>
       <c r="N4">
-        <v>35.9266703446237</v>
+        <v>43.4049619175868</v>
       </c>
       <c r="O4">
-        <v>2186.49340990181</v>
+        <v>2588.51679526001</v>
       </c>
       <c r="P4">
-        <v>49.3386965900986</v>
+        <v>42.5536262896125</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>554.13051445485</v>
+        <v>261.978481315962</v>
       </c>
       <c r="C5">
-        <v>79.0240375116084</v>
+        <v>81.6870592333876</v>
       </c>
       <c r="D5">
-        <v>18.190210899759</v>
+        <v>22.5166624362945</v>
       </c>
       <c r="E5">
-        <v>49.7373646915605</v>
+        <v>42.9616685939435</v>
       </c>
       <c r="F5">
-        <v>3.35620726456153</v>
+        <v>1.22534344703007</v>
       </c>
       <c r="G5">
-        <v>12.4175949854357</v>
+        <v>13.7710801918992</v>
       </c>
       <c r="H5">
-        <v>12.5997032801932</v>
+        <v>14.1192092924761</v>
       </c>
       <c r="I5">
-        <v>8.19810878668333</v>
+        <v>12.5132168926228</v>
       </c>
       <c r="J5">
-        <v>32.3263766095789</v>
+        <v>43.1615318762913</v>
       </c>
       <c r="K5">
-        <v>28.1534969293366</v>
+        <v>36.0004940475503</v>
       </c>
       <c r="L5">
-        <v>23.3664472565981</v>
+        <v>31.6045517819272</v>
       </c>
       <c r="M5">
-        <v>26.2239010374987</v>
+        <v>19.802416760295</v>
       </c>
       <c r="N5">
-        <v>23.1196015239533</v>
+        <v>21.1172949392554</v>
       </c>
       <c r="O5">
-        <v>971.5628638126</v>
+        <v>1249.25532615956</v>
       </c>
       <c r="P5">
-        <v>61.7692446272316</v>
+        <v>52.367780503688</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>7160.61812045588</v>
+        <v>4097.55641056019</v>
       </c>
       <c r="C6">
-        <v>206.20434099289</v>
+        <v>188.922077418715</v>
       </c>
       <c r="D6">
-        <v>237.212162219986</v>
+        <v>320.803178413738</v>
       </c>
       <c r="E6">
-        <v>162.767767580144</v>
+        <v>128.931515142264</v>
       </c>
       <c r="F6">
-        <v>39.813054539026</v>
+        <v>44.3857565753696</v>
       </c>
       <c r="G6">
-        <v>118.015961276573</v>
+        <v>164.383243632069</v>
       </c>
       <c r="H6">
-        <v>78.9977551067504</v>
+        <v>98.0532626933786</v>
       </c>
       <c r="I6">
-        <v>55.1202706968898</v>
+        <v>67.21085450722801</v>
       </c>
       <c r="J6">
-        <v>191.151370011472</v>
+        <v>222.280592661598</v>
       </c>
       <c r="K6">
-        <v>121.628645028062</v>
+        <v>176.849476420393</v>
       </c>
       <c r="L6">
-        <v>611.053264534955</v>
+        <v>628.899294814549</v>
       </c>
       <c r="M6">
-        <v>283.338156757511</v>
+        <v>417.897451243976</v>
       </c>
       <c r="N6">
-        <v>292.88709599431</v>
+        <v>392.584296450318</v>
       </c>
       <c r="O6">
-        <v>13176.1999488204</v>
+        <v>15663.3142723983</v>
       </c>
       <c r="P6">
-        <v>370.239432585685</v>
+        <v>281.471643452992</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>655.762425108415</v>
+        <v>365.536417169946</v>
       </c>
       <c r="C7">
-        <v>31.3207596212091</v>
+        <v>42.465916963207</v>
       </c>
       <c r="D7">
-        <v>5.12601719589008</v>
+        <v>5.3351974570796</v>
       </c>
       <c r="E7">
-        <v>19.7696311089551</v>
+        <v>14.4618559158193</v>
       </c>
       <c r="F7">
-        <v>18.5654400276084</v>
+        <v>16.9527313721538</v>
       </c>
       <c r="G7">
-        <v>9.80209360949263</v>
+        <v>12.5496628453562</v>
       </c>
       <c r="H7">
-        <v>9.34097320817464</v>
+        <v>13.8309285298994</v>
       </c>
       <c r="I7">
-        <v>10.2184149825288</v>
+        <v>9.607727215815659</v>
       </c>
       <c r="J7">
-        <v>19.4715463901186</v>
+        <v>23.557248791449</v>
       </c>
       <c r="K7">
-        <v>17.445996489705</v>
+        <v>23.9034678816445</v>
       </c>
       <c r="L7">
-        <v>57.0583367844375</v>
+        <v>65.2782608983154</v>
       </c>
       <c r="M7">
-        <v>20.1989782058022</v>
+        <v>27.5750699936879</v>
       </c>
       <c r="N7">
-        <v>26.5597031989026</v>
+        <v>35.3664583035672</v>
       </c>
       <c r="O7">
-        <v>1998.29497669768</v>
+        <v>2261.0573407509</v>
       </c>
       <c r="P7">
-        <v>48.6768345041048</v>
+        <v>26.1945963140285</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>583.186597632795</v>
+        <v>265.38489316771</v>
       </c>
       <c r="C8">
-        <v>10.6251304266841</v>
+        <v>15.8743013549392</v>
       </c>
       <c r="D8">
-        <v>12.2710914755974</v>
+        <v>11.0378731675811</v>
       </c>
       <c r="E8">
-        <v>22.5615461907305</v>
+        <v>13.6558204375475</v>
       </c>
       <c r="F8">
-        <v>1.41617122209123</v>
+        <v>2.2793409722766</v>
       </c>
       <c r="G8">
-        <v>35.9401985332502</v>
+        <v>41.1942756137596</v>
       </c>
       <c r="H8">
-        <v>10.7294115452169</v>
+        <v>17.8096835680934</v>
       </c>
       <c r="I8">
-        <v>3.02864475601336</v>
+        <v>1.51293276663666</v>
       </c>
       <c r="J8">
-        <v>55.8842948785736</v>
+        <v>58.2191984274606</v>
       </c>
       <c r="K8">
-        <v>28.6384840701918</v>
+        <v>50.1689493417386</v>
       </c>
       <c r="L8">
-        <v>50.3621368737305</v>
+        <v>61.5001939028449</v>
       </c>
       <c r="M8">
-        <v>57.67036670698</v>
+        <v>83.55796319596971</v>
       </c>
       <c r="N8">
-        <v>19.2728566074508</v>
+        <v>34.1513643895595</v>
       </c>
       <c r="O8">
-        <v>1480.14606211639</v>
+        <v>1720.70660029598</v>
       </c>
       <c r="P8">
-        <v>5.74823564509104</v>
+        <v>5.45252406122506</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>143.839107027468</v>
+        <v>72.95484184496721</v>
       </c>
       <c r="C9">
-        <v>11.6328448628044</v>
+        <v>10.8480250542713</v>
       </c>
       <c r="D9">
-        <v>3.19619936426517</v>
+        <v>3.20307170842212</v>
       </c>
       <c r="E9">
-        <v>7.31919483309727</v>
+        <v>6.06224722565192</v>
       </c>
       <c r="F9">
-        <v>2.1744832602299</v>
+        <v>3.13829297987566</v>
       </c>
       <c r="G9">
-        <v>25.1408822105503</v>
+        <v>34.4714144910203</v>
       </c>
       <c r="H9">
-        <v>3.6274667486262</v>
+        <v>4.76053178718618</v>
       </c>
       <c r="I9">
-        <v>1.67738967546056</v>
+        <v>1.26051031111548</v>
       </c>
       <c r="J9">
-        <v>3.61352242513528</v>
+        <v>3.93802813505793</v>
       </c>
       <c r="K9">
-        <v>3.52961363730513</v>
+        <v>5.88774610372142</v>
       </c>
       <c r="L9">
-        <v>3.98727309082817</v>
+        <v>5.22169289245594</v>
       </c>
       <c r="M9">
-        <v>10.7019716922732</v>
+        <v>11.3346097980332</v>
       </c>
       <c r="N9">
-        <v>5.55055516439631</v>
+        <v>7.67734879851861</v>
       </c>
       <c r="O9">
-        <v>404.67415901086</v>
+        <v>505.71389709442</v>
       </c>
       <c r="P9">
-        <v>8.188840374109571</v>
+        <v>10.0653398739148</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>3523.34110266301</v>
+        <v>1653.98643621545</v>
       </c>
       <c r="C10">
-        <v>59.2705293337281</v>
+        <v>63.3497837828176</v>
       </c>
       <c r="D10">
-        <v>37.2499870214035</v>
+        <v>45.536509520381</v>
       </c>
       <c r="E10">
-        <v>68.5907070132271</v>
+        <v>53.4578444763261</v>
       </c>
       <c r="F10">
-        <v>17.0304720927544</v>
+        <v>12.178263959313</v>
       </c>
       <c r="G10">
-        <v>32.7667967819624</v>
+        <v>37.6316583406508</v>
       </c>
       <c r="H10">
-        <v>19.1646503860181</v>
+        <v>23.1261258741904</v>
       </c>
       <c r="I10">
-        <v>31.5535348040479</v>
+        <v>42.7013876789796</v>
       </c>
       <c r="J10">
-        <v>60.4124388612161</v>
+        <v>62.3475972859275</v>
       </c>
       <c r="K10">
-        <v>36.4095598072222</v>
+        <v>60.2046307850527</v>
       </c>
       <c r="L10">
-        <v>116.706393795185</v>
+        <v>153.196983729993</v>
       </c>
       <c r="M10">
-        <v>104.32645601277</v>
+        <v>129.57414103822</v>
       </c>
       <c r="N10">
-        <v>89.4432161965335</v>
+        <v>113.294914178237</v>
       </c>
       <c r="O10">
-        <v>7531.245848087991</v>
+        <v>9205.099496322509</v>
       </c>
       <c r="P10">
-        <v>123.84830695202</v>
+        <v>96.8291159204781</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>1544.64096992983</v>
+        <v>771.57470333756</v>
       </c>
       <c r="C11">
-        <v>79.27164988930581</v>
+        <v>80.95798993874919</v>
       </c>
       <c r="D11">
-        <v>161.2414584249</v>
+        <v>188.875004926974</v>
       </c>
       <c r="E11">
-        <v>104.367090575546</v>
+        <v>122.491981376354</v>
       </c>
       <c r="F11">
-        <v>12.4684636047608</v>
+        <v>8.493689222111939</v>
       </c>
       <c r="G11">
-        <v>36.8693950715475</v>
+        <v>46.0305173550886</v>
       </c>
       <c r="H11">
-        <v>24.4396580186849</v>
+        <v>19.570536120186</v>
       </c>
       <c r="I11">
-        <v>21.2128428681011</v>
+        <v>26.8881786971755</v>
       </c>
       <c r="J11">
-        <v>66.0475723548948</v>
+        <v>59.4604831969188</v>
       </c>
       <c r="K11">
-        <v>39.6511869016046</v>
+        <v>53.2507987329715</v>
       </c>
       <c r="L11">
-        <v>71.97674478154261</v>
+        <v>81.1186787483414</v>
       </c>
       <c r="M11">
-        <v>67.8386786689364</v>
+        <v>66.3083168051661</v>
       </c>
       <c r="N11">
-        <v>42.0914367368787</v>
+        <v>50.7232507050254</v>
       </c>
       <c r="O11">
-        <v>3350.50671488339</v>
+        <v>4047.91087696578</v>
       </c>
       <c r="P11">
-        <v>41.5508591609979</v>
+        <v>28.1940518983902</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>260.980272143288</v>
+        <v>137.506275804723</v>
       </c>
       <c r="C12">
-        <v>8.105943626759821</v>
+        <v>12.5895128236421</v>
       </c>
       <c r="D12">
-        <v>3.81699028425859</v>
+        <v>5.91684826190088</v>
       </c>
       <c r="E12">
-        <v>0.792130430664329</v>
+        <v>0.443633748525523</v>
       </c>
       <c r="F12">
-        <v>0.65708916978615</v>
+        <v>1.09306262068017</v>
       </c>
       <c r="G12">
-        <v>0.324757427652153</v>
+        <v>0.720621470226249</v>
       </c>
       <c r="H12">
-        <v>0.101477022695634</v>
+        <v>0.324368449374581</v>
       </c>
       <c r="I12">
-        <v>1.57492225956174</v>
+        <v>2.46527287354945</v>
       </c>
       <c r="J12">
-        <v>0.867910974803926</v>
+        <v>1.44080808010842</v>
       </c>
       <c r="K12">
-        <v>0.390389097215481</v>
+        <v>0.572021551975355</v>
       </c>
       <c r="L12">
-        <v>0.360331170257193</v>
+        <v>0.433134863819404</v>
       </c>
       <c r="M12">
-        <v>4.21891830459307</v>
+        <v>5.62187898277578</v>
       </c>
       <c r="N12">
-        <v>4.04580466860036</v>
+        <v>5.46503705015339</v>
       </c>
       <c r="O12">
-        <v>631.325991610589</v>
+        <v>793.277189127665</v>
       </c>
       <c r="P12">
-        <v>23.7219707100052</v>
+        <v>22.4816343119502</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>225.901777653628</v>
+        <v>131.66604618708</v>
       </c>
       <c r="C13">
-        <v>29.0367561323655</v>
+        <v>34.4672639555275</v>
       </c>
       <c r="D13">
-        <v>1.68039247146715</v>
+        <v>1.50036389012408</v>
       </c>
       <c r="E13">
-        <v>19.0537829581258</v>
+        <v>19.0000800536657</v>
       </c>
       <c r="F13">
-        <v>4.11180376032911</v>
+        <v>4.69143904494591</v>
       </c>
       <c r="G13">
-        <v>5.88921414197607</v>
+        <v>7.89792435298554</v>
       </c>
       <c r="H13">
-        <v>1.93836046117783</v>
+        <v>2.44598139785018</v>
       </c>
       <c r="I13">
-        <v>1.16509034568489</v>
+        <v>1.44296609613273</v>
       </c>
       <c r="J13">
-        <v>6.05716576386753</v>
+        <v>6.13430417985777</v>
       </c>
       <c r="K13">
-        <v>3.75459423194317</v>
+        <v>5.79906981653213</v>
       </c>
       <c r="L13">
-        <v>24.5057146296549</v>
+        <v>33.9660480069222</v>
       </c>
       <c r="M13">
-        <v>2.9384986552907</v>
+        <v>4.16478070375181</v>
       </c>
       <c r="N13">
-        <v>8.45419217094174</v>
+        <v>9.704577198916949</v>
       </c>
       <c r="O13">
-        <v>544.321382544641</v>
+        <v>640.361522269006</v>
       </c>
       <c r="P13">
-        <v>56.082981765055</v>
+        <v>54.5684240674172</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>2267.59837099347</v>
+        <v>1204.9782947889</v>
       </c>
       <c r="C14">
-        <v>113.187874264663</v>
+        <v>127.45140540678</v>
       </c>
       <c r="D14">
-        <v>18.9252500787496</v>
+        <v>19.4773641075749</v>
       </c>
       <c r="E14">
-        <v>109.391554290116</v>
+        <v>65.3831537901247</v>
       </c>
       <c r="F14">
-        <v>28.8855081887585</v>
+        <v>18.0044123500489</v>
       </c>
       <c r="G14">
-        <v>94.15122951771519</v>
+        <v>129.780157343184</v>
       </c>
       <c r="H14">
-        <v>71.14550301713339</v>
+        <v>74.0326005697287</v>
       </c>
       <c r="I14">
-        <v>27.8265372113484</v>
+        <v>34.4853052055259</v>
       </c>
       <c r="J14">
-        <v>184.014970731421</v>
+        <v>164.05431593075</v>
       </c>
       <c r="K14">
-        <v>182.290910770417</v>
+        <v>232.460878485766</v>
       </c>
       <c r="L14">
-        <v>147.891941294726</v>
+        <v>184.001269668361</v>
       </c>
       <c r="M14">
-        <v>100.66376682852</v>
+        <v>100.20454211772</v>
       </c>
       <c r="N14">
-        <v>100.062084241562</v>
+        <v>115.392993607368</v>
       </c>
       <c r="O14">
-        <v>5051.48701129328</v>
+        <v>6039.24940863258</v>
       </c>
       <c r="P14">
-        <v>84.9061882945437</v>
+        <v>43.8231463982863</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>1007.03231462049</v>
+        <v>519.924654190241</v>
       </c>
       <c r="C15">
-        <v>53.0806924565057</v>
+        <v>43.6314428622681</v>
       </c>
       <c r="D15">
-        <v>11.7743786283103</v>
+        <v>16.3923424690239</v>
       </c>
       <c r="E15">
-        <v>60.2923948200229</v>
+        <v>61.1633099537804</v>
       </c>
       <c r="F15">
-        <v>13.1222265574503</v>
+        <v>13.7855084114471</v>
       </c>
       <c r="G15">
-        <v>44.1626021400853</v>
+        <v>54.8399326534745</v>
       </c>
       <c r="H15">
-        <v>54.6131410486638</v>
+        <v>57.7230013871784</v>
       </c>
       <c r="I15">
-        <v>37.5739410707087</v>
+        <v>59.2695203874962</v>
       </c>
       <c r="J15">
-        <v>173.195908169835</v>
+        <v>227.9692157922</v>
       </c>
       <c r="K15">
-        <v>71.99573989626241</v>
+        <v>112.964932618995</v>
       </c>
       <c r="L15">
-        <v>59.4540588767814</v>
+        <v>64.9256498846637</v>
       </c>
       <c r="M15">
-        <v>207.015254642734</v>
+        <v>174.819752993423</v>
       </c>
       <c r="N15">
-        <v>87.9576494741958</v>
+        <v>118.966619409572</v>
       </c>
       <c r="O15">
-        <v>2333.42421307497</v>
+        <v>2693.67506447074</v>
       </c>
       <c r="P15">
-        <v>50.671704862893</v>
+        <v>52.644348020534</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>401.261714408886</v>
+        <v>176.110477985863</v>
       </c>
       <c r="C16">
-        <v>73.4333990334039</v>
+        <v>79.2899361375742</v>
       </c>
       <c r="D16">
-        <v>10.4410727883714</v>
+        <v>20.3712101034826</v>
       </c>
       <c r="E16">
-        <v>29.7252326963929</v>
+        <v>23.3496015713208</v>
       </c>
       <c r="F16">
-        <v>5.49127534906444</v>
+        <v>5.68923966988906</v>
       </c>
       <c r="G16">
-        <v>13.7510968813591</v>
+        <v>18.6125692685257</v>
       </c>
       <c r="H16">
-        <v>21.4485079468377</v>
+        <v>19.4318817857226</v>
       </c>
       <c r="I16">
-        <v>8.83383797160112</v>
+        <v>10.5116164527226</v>
       </c>
       <c r="J16">
-        <v>46.467303192856</v>
+        <v>49.1857960376858</v>
       </c>
       <c r="K16">
-        <v>59.325110168667</v>
+        <v>66.46550125131991</v>
       </c>
       <c r="L16">
-        <v>37.2103573908596</v>
+        <v>36.0392806543456</v>
       </c>
       <c r="M16">
-        <v>28.2206116643499</v>
+        <v>16.8704721960257</v>
       </c>
       <c r="N16">
-        <v>25.5722559270157</v>
+        <v>35.1073260498768</v>
       </c>
       <c r="O16">
-        <v>1239.09901294964</v>
+        <v>1484.83494648419</v>
       </c>
       <c r="P16">
-        <v>113.167395974747</v>
+        <v>118.638384811144</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>435.003874985653</v>
+        <v>213.031753718256</v>
       </c>
       <c r="C17">
-        <v>29.6523595660521</v>
+        <v>25.2137474367729</v>
       </c>
       <c r="D17">
-        <v>6.12001647236582</v>
+        <v>9.87433912981434</v>
       </c>
       <c r="E17">
-        <v>21.4848063145024</v>
+        <v>13.1239264800505</v>
       </c>
       <c r="F17">
-        <v>15.6825607350975</v>
+        <v>14.6918755608936</v>
       </c>
       <c r="G17">
-        <v>10.8058988149739</v>
+        <v>15.1890561146004</v>
       </c>
       <c r="H17">
-        <v>11.989956431353</v>
+        <v>7.57551157829514</v>
       </c>
       <c r="I17">
-        <v>7.07582005920472</v>
+        <v>9.24400499394612</v>
       </c>
       <c r="J17">
-        <v>19.7349020348056</v>
+        <v>21.0452685057826</v>
       </c>
       <c r="K17">
-        <v>21.745530295261</v>
+        <v>28.5732905752131</v>
       </c>
       <c r="L17">
-        <v>15.4444055538372</v>
+        <v>18.1842776033302</v>
       </c>
       <c r="M17">
-        <v>76.9168793467511</v>
+        <v>93.1453701005366</v>
       </c>
       <c r="N17">
-        <v>13.145484170637</v>
+        <v>15.3491326160388</v>
       </c>
       <c r="O17">
-        <v>1145.00362300188</v>
+        <v>1388.80243210502</v>
       </c>
       <c r="P17">
-        <v>65.58290851251201</v>
+        <v>60.5435292516166</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>899.466152543359</v>
+        <v>455.362974658609</v>
       </c>
       <c r="C18">
-        <v>37.78223254899</v>
+        <v>41.071084625925</v>
       </c>
       <c r="D18">
-        <v>19.3036459720631</v>
+        <v>17.3165556174299</v>
       </c>
       <c r="E18">
-        <v>46.560167474731</v>
+        <v>36.5420783330231</v>
       </c>
       <c r="F18">
-        <v>36.8686602357432</v>
+        <v>49.1573764266776</v>
       </c>
       <c r="G18">
-        <v>24.2715833930168</v>
+        <v>42.2173252733584</v>
       </c>
       <c r="H18">
-        <v>24.7735574075942</v>
+        <v>28.8891834860113</v>
       </c>
       <c r="I18">
-        <v>9.760824305802901</v>
+        <v>10.8801140818902</v>
       </c>
       <c r="J18">
-        <v>59.402858120528</v>
+        <v>51.0991569584332</v>
       </c>
       <c r="K18">
-        <v>30.4139413629993</v>
+        <v>35.5462715501749</v>
       </c>
       <c r="L18">
-        <v>32.15476757143</v>
+        <v>47.441306512587</v>
       </c>
       <c r="M18">
-        <v>70.4950276669162</v>
+        <v>73.21311963723871</v>
       </c>
       <c r="N18">
-        <v>25.8832539129008</v>
+        <v>24.8393548731733</v>
       </c>
       <c r="O18">
-        <v>1606.65971233592</v>
+        <v>2043.39559562531</v>
       </c>
       <c r="P18">
-        <v>50.0641441014823</v>
+        <v>53.6644397429168</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>1019.36951671475</v>
+        <v>555.832844859284</v>
       </c>
       <c r="C19">
-        <v>22.7158065549262</v>
+        <v>30.5098291324249</v>
       </c>
       <c r="D19">
-        <v>11.8367677984527</v>
+        <v>13.6805015238682</v>
       </c>
       <c r="E19">
-        <v>34.5082175790733</v>
+        <v>25.1489237822576</v>
       </c>
       <c r="F19">
-        <v>76.8340147778745</v>
+        <v>98.36072958863571</v>
       </c>
       <c r="G19">
-        <v>38.0739013104997</v>
+        <v>46.3027061700957</v>
       </c>
       <c r="H19">
-        <v>8.938174683753241</v>
+        <v>8.01775288420332</v>
       </c>
       <c r="I19">
-        <v>10.4530544266541</v>
+        <v>13.3281563283413</v>
       </c>
       <c r="J19">
-        <v>22.3146552142536</v>
+        <v>15.6221029896669</v>
       </c>
       <c r="K19">
-        <v>17.1107389545334</v>
+        <v>23.3152205115448</v>
       </c>
       <c r="L19">
-        <v>5.2339203715247</v>
+        <v>6.99889244440584</v>
       </c>
       <c r="M19">
-        <v>34.4054468709601</v>
+        <v>35.2001936908534</v>
       </c>
       <c r="N19">
-        <v>5.78793706616447</v>
+        <v>5.42119567989451</v>
       </c>
       <c r="O19">
-        <v>1755.37632657612</v>
+        <v>2201.33383919128</v>
       </c>
       <c r="P19">
-        <v>58.3995319805682</v>
+        <v>50.0595726839101</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>238.035094487861</v>
+        <v>116.49952967862</v>
       </c>
       <c r="C20">
-        <v>9.07719002547381</v>
+        <v>10.9800679806547</v>
       </c>
       <c r="D20">
-        <v>13.9780780005473</v>
+        <v>16.9743088928657</v>
       </c>
       <c r="E20">
-        <v>41.3997795781351</v>
+        <v>41.762860929554</v>
       </c>
       <c r="F20">
-        <v>0.142797272944652</v>
+        <v>0.119975507072791</v>
       </c>
       <c r="G20">
-        <v>1.16956280437321</v>
+        <v>1.19476949705151</v>
       </c>
       <c r="H20">
-        <v>2.12554612237043</v>
+        <v>4.80302975609016</v>
       </c>
       <c r="I20">
-        <v>0.757533316652809</v>
+        <v>0.480961637546558</v>
       </c>
       <c r="J20">
-        <v>7.62748588019448</v>
+        <v>6.2106284989596</v>
       </c>
       <c r="K20">
-        <v>3.99534187022525</v>
+        <v>5.8023435167594</v>
       </c>
       <c r="L20">
-        <v>9.075852630890131</v>
+        <v>10.9535912983691</v>
       </c>
       <c r="M20">
-        <v>18.3745571959128</v>
+        <v>28.0672758920114</v>
       </c>
       <c r="N20">
-        <v>7.56408944451329</v>
+        <v>7.17348001413367</v>
       </c>
       <c r="O20">
-        <v>584.8244700602741</v>
+        <v>711.687357067683</v>
       </c>
       <c r="P20">
-        <v>28.1826128768231</v>
+        <v>25.6180724463789</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>821.599828548554</v>
+        <v>411.06797229926</v>
       </c>
       <c r="C21">
-        <v>24.4044054772479</v>
+        <v>27.1001133855535</v>
       </c>
       <c r="D21">
-        <v>9.94239199142557</v>
+        <v>8.355144984746291</v>
       </c>
       <c r="E21">
-        <v>40.8419226312666</v>
+        <v>25.0641648117725</v>
       </c>
       <c r="F21">
-        <v>3.04933139656727</v>
+        <v>2.48362706928473</v>
       </c>
       <c r="G21">
-        <v>17.165013874942</v>
+        <v>21.1202379486016</v>
       </c>
       <c r="H21">
-        <v>7.71723485526329</v>
+        <v>9.115569887403471</v>
       </c>
       <c r="I21">
-        <v>7.94959501193174</v>
+        <v>10.0220302846203</v>
       </c>
       <c r="J21">
-        <v>25.1866906705861</v>
+        <v>17.6728462661097</v>
       </c>
       <c r="K21">
-        <v>14.4997616839044</v>
+        <v>24.8380994284778</v>
       </c>
       <c r="L21">
-        <v>31.6536121662405</v>
+        <v>27.9196233264718</v>
       </c>
       <c r="M21">
-        <v>28.3209921555727</v>
+        <v>33.4634844681213</v>
       </c>
       <c r="N21">
-        <v>18.1425095579506</v>
+        <v>21.3863468150961</v>
       </c>
       <c r="O21">
-        <v>2608.70484451342</v>
+        <v>3019.37616701176</v>
       </c>
       <c r="P21">
-        <v>22.776195356112</v>
+        <v>28.0971895922973</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>1090.25878629972</v>
+        <v>519.910413322439</v>
       </c>
       <c r="C22">
-        <v>16.9364908645559</v>
+        <v>18.4498605586391</v>
       </c>
       <c r="D22">
-        <v>28.6987843110405</v>
+        <v>32.2007519388062</v>
       </c>
       <c r="E22">
-        <v>51.1581688888338</v>
+        <v>33.6121460170783</v>
       </c>
       <c r="F22">
-        <v>1.27333869635688</v>
+        <v>1.48955256417667</v>
       </c>
       <c r="G22">
-        <v>27.9129774941958</v>
+        <v>33.9001584413092</v>
       </c>
       <c r="H22">
-        <v>22.7661966958973</v>
+        <v>34.3957143785155</v>
       </c>
       <c r="I22">
-        <v>12.1608331679651</v>
+        <v>10.8841081644713</v>
       </c>
       <c r="J22">
-        <v>55.5885969323997</v>
+        <v>62.8947697896341</v>
       </c>
       <c r="K22">
-        <v>35.660337090201</v>
+        <v>53.8373901165969</v>
       </c>
       <c r="L22">
-        <v>128.740255326199</v>
+        <v>134.036014388278</v>
       </c>
       <c r="M22">
-        <v>21.8922593462325</v>
+        <v>25.3663520572914</v>
       </c>
       <c r="N22">
-        <v>61.6079551820248</v>
+        <v>102.827275617465</v>
       </c>
       <c r="O22">
-        <v>2819.20722635441</v>
+        <v>3312.64677357882</v>
       </c>
       <c r="P22">
-        <v>19.5923006494051</v>
+        <v>20.3554621532079</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>1921.00714735621</v>
+        <v>972.234818754308</v>
       </c>
       <c r="C23">
-        <v>53.6810318489603</v>
+        <v>55.7287357540315</v>
       </c>
       <c r="D23">
-        <v>16.4713704321703</v>
+        <v>19.8625575000795</v>
       </c>
       <c r="E23">
-        <v>71.8301575753522</v>
+        <v>44.6045138499537</v>
       </c>
       <c r="F23">
-        <v>4.59852456339058</v>
+        <v>0.795260262828726</v>
       </c>
       <c r="G23">
-        <v>63.5192751584253</v>
+        <v>87.6925562272485</v>
       </c>
       <c r="H23">
-        <v>76.3708494784285</v>
+        <v>76.8934785675427</v>
       </c>
       <c r="I23">
-        <v>30.2095159455101</v>
+        <v>34.62209670989</v>
       </c>
       <c r="J23">
-        <v>177.899596257595</v>
+        <v>190.116406809055</v>
       </c>
       <c r="K23">
-        <v>121.998356285806</v>
+        <v>169.564889091614</v>
       </c>
       <c r="L23">
-        <v>43.3406064018326</v>
+        <v>56.7240931241141</v>
       </c>
       <c r="M23">
-        <v>571.465079996436</v>
+        <v>707.125161666731</v>
       </c>
       <c r="N23">
-        <v>83.3925555501542</v>
+        <v>105.353684719984</v>
       </c>
       <c r="O23">
-        <v>3659.95765235621</v>
+        <v>4410.97179538454</v>
       </c>
       <c r="P23">
-        <v>77.4501945245529</v>
+        <v>52.9317944792338</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>636.592306335264</v>
+        <v>319.466172153222</v>
       </c>
       <c r="C24">
-        <v>81.2481026180767</v>
+        <v>54.2969064375662</v>
       </c>
       <c r="D24">
-        <v>9.88368705011467</v>
+        <v>12.5815016845819</v>
       </c>
       <c r="E24">
-        <v>72.9903007572149</v>
+        <v>49.8516248643997</v>
       </c>
       <c r="F24">
-        <v>29.2022552930978</v>
+        <v>22.9714900099547</v>
       </c>
       <c r="G24">
-        <v>14.6787908925601</v>
+        <v>27.3781045024716</v>
       </c>
       <c r="H24">
-        <v>16.2967525605138</v>
+        <v>19.4312171489343</v>
       </c>
       <c r="I24">
-        <v>13.3483340234462</v>
+        <v>13.7220958068037</v>
       </c>
       <c r="J24">
-        <v>62.4913869353129</v>
+        <v>46.9320778477669</v>
       </c>
       <c r="K24">
-        <v>62.5618003833039</v>
+        <v>103.415151343693</v>
       </c>
       <c r="L24">
-        <v>74.51645452172281</v>
+        <v>70.495250065438</v>
       </c>
       <c r="M24">
-        <v>25.4169067950291</v>
+        <v>15.5452651160873</v>
       </c>
       <c r="N24">
-        <v>61.6812293561455</v>
+        <v>88.9403672858721</v>
       </c>
       <c r="O24">
-        <v>2114.07606228582</v>
+        <v>2456.64963272169</v>
       </c>
       <c r="P24">
-        <v>137.510031829055</v>
+        <v>109.126539327176</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>641.707209551209</v>
+        <v>311.804218972939</v>
       </c>
       <c r="C25">
-        <v>45.6589639383209</v>
+        <v>55.1465156432863</v>
       </c>
       <c r="D25">
-        <v>27.2904136604551</v>
+        <v>25.9060669794713</v>
       </c>
       <c r="E25">
-        <v>43.9117204065342</v>
+        <v>55.6225402605445</v>
       </c>
       <c r="F25">
-        <v>17.3439963991554</v>
+        <v>35.8435648048512</v>
       </c>
       <c r="G25">
-        <v>10.7113306434345</v>
+        <v>12.298334192137</v>
       </c>
       <c r="H25">
-        <v>14.9809465256365</v>
+        <v>20.0268730196051</v>
       </c>
       <c r="I25">
-        <v>6.25928919869592</v>
+        <v>6.73765810229056</v>
       </c>
       <c r="J25">
-        <v>23.728415807208</v>
+        <v>23.3488757015756</v>
       </c>
       <c r="K25">
-        <v>23.8093964397648</v>
+        <v>28.8890041504617</v>
       </c>
       <c r="L25">
-        <v>27.8528953964623</v>
+        <v>33.4953995961262</v>
       </c>
       <c r="M25">
-        <v>42.9853223866197</v>
+        <v>46.9630340131302</v>
       </c>
       <c r="N25">
-        <v>48.320993993948</v>
+        <v>36.2709992341845</v>
       </c>
       <c r="O25">
-        <v>1028.99905522631</v>
+        <v>1338.90159690237</v>
       </c>
       <c r="P25">
-        <v>48.3676841711708</v>
+        <v>53.9414869642805</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>915.9654244678781</v>
+        <v>435.336604806844</v>
       </c>
       <c r="C26">
-        <v>73.92295764314871</v>
+        <v>75.7223491741609</v>
       </c>
       <c r="D26">
-        <v>17.6333986307735</v>
+        <v>13.8542792965263</v>
       </c>
       <c r="E26">
-        <v>63.2202452299295</v>
+        <v>51.9712413847649</v>
       </c>
       <c r="F26">
-        <v>13.2920323304145</v>
+        <v>9.376977892079511</v>
       </c>
       <c r="G26">
-        <v>40.0949509062642</v>
+        <v>55.1824228768545</v>
       </c>
       <c r="H26">
-        <v>26.5781713510136</v>
+        <v>19.564148019722</v>
       </c>
       <c r="I26">
-        <v>15.098539455949</v>
+        <v>18.1823176755029</v>
       </c>
       <c r="J26">
-        <v>61.8332598719384</v>
+        <v>63.2842094852199</v>
       </c>
       <c r="K26">
-        <v>42.8020225023319</v>
+        <v>53.843082905465</v>
       </c>
       <c r="L26">
-        <v>43.686329512804</v>
+        <v>36.9219803026604</v>
       </c>
       <c r="M26">
-        <v>82.10869393766011</v>
+        <v>82.0414656421443</v>
       </c>
       <c r="N26">
-        <v>34.0325367726232</v>
+        <v>35.8325627083498</v>
       </c>
       <c r="O26">
-        <v>2371.19440312702</v>
+        <v>2875.89053197384</v>
       </c>
       <c r="P26">
-        <v>81.2523070459394</v>
+        <v>56.5115271350091</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>169.966712128474</v>
+        <v>92.5702207238876</v>
       </c>
       <c r="C27">
-        <v>4.64116316207129</v>
+        <v>5.18252396123561</v>
       </c>
       <c r="D27">
-        <v>1.17380249454481</v>
+        <v>1.22528764581838</v>
       </c>
       <c r="E27">
-        <v>13.8630611381231</v>
+        <v>17.1983314922354</v>
       </c>
       <c r="F27">
-        <v>7.83088847223146</v>
+        <v>8.67467779704192</v>
       </c>
       <c r="G27">
-        <v>0.625444691782604</v>
+        <v>0.464359532540062</v>
       </c>
       <c r="H27">
-        <v>0.147699787853797</v>
+        <v>0.177060737604067</v>
       </c>
       <c r="I27">
-        <v>2.44582329184515</v>
+        <v>3.65197300261109</v>
       </c>
       <c r="J27">
-        <v>4.30082192106263</v>
+        <v>4.71434209278099</v>
       </c>
       <c r="K27">
-        <v>2.48068916345526</v>
+        <v>2.58370043736586</v>
       </c>
       <c r="L27">
-        <v>1.59595012619228</v>
+        <v>2.71206238254795</v>
       </c>
       <c r="M27">
-        <v>1.18097713480345</v>
+        <v>1.66441316648773</v>
       </c>
       <c r="N27">
-        <v>4.3293608891787</v>
+        <v>6.81598304242773</v>
       </c>
       <c r="O27">
-        <v>441.693095310978</v>
+        <v>540.581353067107</v>
       </c>
       <c r="P27">
-        <v>54.940488609518</v>
+        <v>57.4562923379232</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>240.532096209946</v>
+        <v>106.752697224738</v>
       </c>
       <c r="C28">
-        <v>41.7370142219129</v>
+        <v>35.5408693126753</v>
       </c>
       <c r="D28">
-        <v>1.9524720827951</v>
+        <v>2.9814988349111</v>
       </c>
       <c r="E28">
-        <v>9.349386222780771</v>
+        <v>6.89277442821139</v>
       </c>
       <c r="F28">
-        <v>2.60290163678663</v>
+        <v>3.4246584294501</v>
       </c>
       <c r="G28">
-        <v>5.38148003472242</v>
+        <v>8.36762516334823</v>
       </c>
       <c r="H28">
-        <v>7.42279506099977</v>
+        <v>10.7056438631521</v>
       </c>
       <c r="I28">
-        <v>4.09025107792471</v>
+        <v>4.45759662601335</v>
       </c>
       <c r="J28">
-        <v>18.0682148917473</v>
+        <v>19.1632582068636</v>
       </c>
       <c r="K28">
-        <v>18.7826276300541</v>
+        <v>19.1850638390719</v>
       </c>
       <c r="L28">
-        <v>15.0943517496342</v>
+        <v>15.942722720677</v>
       </c>
       <c r="M28">
-        <v>9.428258807955761</v>
+        <v>8.30631932065044</v>
       </c>
       <c r="N28">
-        <v>11.0826913700768</v>
+        <v>12.9814966399828</v>
       </c>
       <c r="O28">
-        <v>762.1214046006541</v>
+        <v>930.616143147133</v>
       </c>
       <c r="P28">
-        <v>93.3579184984539</v>
+        <v>93.6889838621623</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>384.026696914268</v>
+        <v>204.105071391083</v>
       </c>
       <c r="C29">
-        <v>4.61672174436034</v>
+        <v>4.7217787716999</v>
       </c>
       <c r="D29">
-        <v>2.13609735764932</v>
+        <v>4.40437070410752</v>
       </c>
       <c r="E29">
-        <v>6.99163467642714</v>
+        <v>4.31024901266099</v>
       </c>
       <c r="F29">
-        <v>18.0088194411301</v>
+        <v>19.7214761647207</v>
       </c>
       <c r="G29">
-        <v>2.93696117129172</v>
+        <v>4.15910587655104</v>
       </c>
       <c r="H29">
-        <v>2.57513316517859</v>
+        <v>2.96396159510584</v>
       </c>
       <c r="I29">
-        <v>4.06108119827396</v>
+        <v>6.77990479048713</v>
       </c>
       <c r="J29">
-        <v>6.14106700639527</v>
+        <v>5.51029966250392</v>
       </c>
       <c r="K29">
-        <v>3.24660425417147</v>
+        <v>4.76481657034602</v>
       </c>
       <c r="L29">
-        <v>3.83010153436051</v>
+        <v>2.99368597666372</v>
       </c>
       <c r="M29">
-        <v>2.14184018237575</v>
+        <v>2.11767889316092</v>
       </c>
       <c r="N29">
-        <v>11.8424054575953</v>
+        <v>12.6915191479593</v>
       </c>
       <c r="O29">
-        <v>1036.05670222279</v>
+        <v>1246.31880322457</v>
       </c>
       <c r="P29">
-        <v>5.35426226206959</v>
+        <v>3.80942385532134</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>193.534976581537</v>
+        <v>95.64048030188739</v>
       </c>
       <c r="C30">
-        <v>3.83176154610362</v>
+        <v>4.84599579217316</v>
       </c>
       <c r="D30">
-        <v>6.0409483017157</v>
+        <v>7.8163763981606</v>
       </c>
       <c r="E30">
-        <v>12.889142975339</v>
+        <v>8.9724376054985</v>
       </c>
       <c r="F30">
-        <v>0.447126754296893</v>
+        <v>0.398659310134566</v>
       </c>
       <c r="G30">
-        <v>4.95743913583721</v>
+        <v>5.18694691495576</v>
       </c>
       <c r="H30">
-        <v>6.69399845475781</v>
+        <v>9.26523318256128</v>
       </c>
       <c r="I30">
-        <v>3.30963255553501</v>
+        <v>4.1070221259016</v>
       </c>
       <c r="J30">
-        <v>19.8903603589501</v>
+        <v>17.8500533121369</v>
       </c>
       <c r="K30">
-        <v>12.4560838118801</v>
+        <v>22.0294159470704</v>
       </c>
       <c r="L30">
-        <v>41.0873651760322</v>
+        <v>51.0398145998379</v>
       </c>
       <c r="M30">
-        <v>10.3705107481565</v>
+        <v>12.7367424567597</v>
       </c>
       <c r="N30">
-        <v>16.943269960578</v>
+        <v>18.9651537252677</v>
       </c>
       <c r="O30">
-        <v>591.400126173965</v>
+        <v>695.232747906024</v>
       </c>
       <c r="P30">
-        <v>7.82190354496923</v>
+        <v>8.765802454289039</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>1688.98039013129</v>
+        <v>918.2906036810761</v>
       </c>
       <c r="C31">
-        <v>44.6607435657583</v>
+        <v>52.2366421642735</v>
       </c>
       <c r="D31">
-        <v>47.8367010208586</v>
+        <v>53.5927421160475</v>
       </c>
       <c r="E31">
-        <v>49.2780588879305</v>
+        <v>26.8138419954127</v>
       </c>
       <c r="F31">
-        <v>10.0803675839398</v>
+        <v>10.8640488375505</v>
       </c>
       <c r="G31">
-        <v>145.360962847967</v>
+        <v>172.416391677726</v>
       </c>
       <c r="H31">
-        <v>27.7042875924678</v>
+        <v>33.1164724419065</v>
       </c>
       <c r="I31">
-        <v>19.3649893739713</v>
+        <v>32.2997126986462</v>
       </c>
       <c r="J31">
-        <v>50.4015197410504</v>
+        <v>47.8838692228294</v>
       </c>
       <c r="K31">
-        <v>31.7926934189668</v>
+        <v>47.6990170908116</v>
       </c>
       <c r="L31">
-        <v>81.84736651239059</v>
+        <v>79.3077754983088</v>
       </c>
       <c r="M31">
-        <v>20.2693293859692</v>
+        <v>21.9772377774022</v>
       </c>
       <c r="N31">
-        <v>53.3142922708103</v>
+        <v>68.8278855736352</v>
       </c>
       <c r="O31">
-        <v>3657.84628220879</v>
+        <v>4346.29126850399</v>
       </c>
       <c r="P31">
-        <v>10.4883181037956</v>
+        <v>6.55605097002408</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>389.180136515248</v>
+        <v>218.487695407098</v>
       </c>
       <c r="C32">
-        <v>7.00984140850492</v>
+        <v>7.05102054903023</v>
       </c>
       <c r="D32">
-        <v>1.78421756398707</v>
+        <v>3.27510109724733</v>
       </c>
       <c r="E32">
-        <v>6.43393089493919</v>
+        <v>3.67754699724495</v>
       </c>
       <c r="F32">
-        <v>28.57156937486</v>
+        <v>43.4220003490638</v>
       </c>
       <c r="G32">
-        <v>1.23341248527566</v>
+        <v>1.5397458233748</v>
       </c>
       <c r="H32">
-        <v>0.513172374086821</v>
+        <v>2.05412472373941</v>
       </c>
       <c r="I32">
-        <v>7.69761326328539</v>
+        <v>8.225196439853409</v>
       </c>
       <c r="J32">
-        <v>6.0112492787125</v>
+        <v>5.21189938516693</v>
       </c>
       <c r="K32">
-        <v>4.46720140348889</v>
+        <v>7.62055212210135</v>
       </c>
       <c r="L32">
-        <v>13.8545618069823</v>
+        <v>15.6680090382796</v>
       </c>
       <c r="M32">
-        <v>3.68545752139277</v>
+        <v>3.72424338940666</v>
       </c>
       <c r="N32">
-        <v>9.984966464761589</v>
+        <v>13.3371568961279</v>
       </c>
       <c r="O32">
-        <v>799.889110884816</v>
+        <v>954.130670898988</v>
       </c>
       <c r="P32">
-        <v>28.5027970764836</v>
+        <v>29.4086074475508</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>4179.35346167178</v>
+        <v>2305.95731829231</v>
       </c>
       <c r="C33">
-        <v>91.9140477291821</v>
+        <v>95.90133307794829</v>
       </c>
       <c r="D33">
-        <v>114.441720475659</v>
+        <v>138.744937410383</v>
       </c>
       <c r="E33">
-        <v>102.888063837266</v>
+        <v>50.6296555024241</v>
       </c>
       <c r="F33">
-        <v>9.00960761035539</v>
+        <v>10.0572022278591</v>
       </c>
       <c r="G33">
-        <v>83.15801345565789</v>
+        <v>74.1923916718635</v>
       </c>
       <c r="H33">
-        <v>44.9153407910267</v>
+        <v>49.5690326887554</v>
       </c>
       <c r="I33">
-        <v>37.7987339988852</v>
+        <v>41.3156724279038</v>
       </c>
       <c r="J33">
-        <v>113.64790183807</v>
+        <v>119.053666767069</v>
       </c>
       <c r="K33">
-        <v>126.613903274817</v>
+        <v>136.581098230038</v>
       </c>
       <c r="L33">
-        <v>161.234995171697</v>
+        <v>179.760738089332</v>
       </c>
       <c r="M33">
-        <v>85.7581733780478</v>
+        <v>103.99009971932</v>
       </c>
       <c r="N33">
-        <v>147.764509307494</v>
+        <v>224.540472997205</v>
       </c>
       <c r="O33">
-        <v>7846.25901939715</v>
+        <v>9552.882108506101</v>
       </c>
       <c r="P33">
-        <v>83.2355991804819</v>
+        <v>62.8515357507925</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>1530.52952934468</v>
+        <v>734.320085549365</v>
       </c>
       <c r="C34">
-        <v>80.2849286948164</v>
+        <v>95.62040039293051</v>
       </c>
       <c r="D34">
-        <v>227.570580378948</v>
+        <v>261.113882830075</v>
       </c>
       <c r="E34">
-        <v>75.8016412691142</v>
+        <v>67.3483737719843</v>
       </c>
       <c r="F34">
-        <v>6.81871285022273</v>
+        <v>6.58339882166958</v>
       </c>
       <c r="G34">
-        <v>61.341392036413</v>
+        <v>79.1891386322575</v>
       </c>
       <c r="H34">
-        <v>45.6635328109167</v>
+        <v>61.778682170538</v>
       </c>
       <c r="I34">
-        <v>27.6152987719649</v>
+        <v>30.9212461136392</v>
       </c>
       <c r="J34">
-        <v>57.9634187113459</v>
+        <v>64.5282936284797</v>
       </c>
       <c r="K34">
-        <v>59.7703269651213</v>
+        <v>102.147705230753</v>
       </c>
       <c r="L34">
-        <v>110.504859912444</v>
+        <v>158.67169409437</v>
       </c>
       <c r="M34">
-        <v>54.8877885390007</v>
+        <v>53.9778415232302</v>
       </c>
       <c r="N34">
-        <v>135.442386036944</v>
+        <v>158.661529140601</v>
       </c>
       <c r="O34">
-        <v>3138.73126095768</v>
+        <v>3734.22074390104</v>
       </c>
       <c r="P34">
-        <v>76.9445657672174</v>
+        <v>84.9341159928412</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>99.8581594286067</v>
+        <v>43.3902375988259</v>
       </c>
       <c r="C35">
-        <v>9.250480681533441</v>
+        <v>7.85970576423371</v>
       </c>
       <c r="D35">
-        <v>0.69801873205049</v>
+        <v>0.962744387231837</v>
       </c>
       <c r="E35">
-        <v>2.57758260989086</v>
+        <v>3.78253344403939</v>
       </c>
       <c r="F35">
-        <v>6.31638741976279</v>
+        <v>6.43620214397445</v>
       </c>
       <c r="G35">
-        <v>0.396612328286179</v>
+        <v>0.245247715802919</v>
       </c>
       <c r="H35">
-        <v>0.6266628098084</v>
+        <v>1.0348150522636</v>
       </c>
       <c r="I35">
-        <v>0.7478264860831571</v>
+        <v>1.22644474889372</v>
       </c>
       <c r="J35">
-        <v>3.18281233048325</v>
+        <v>3.01721446768535</v>
       </c>
       <c r="K35">
-        <v>6.10045734420764</v>
+        <v>7.91096517457453</v>
       </c>
       <c r="L35">
-        <v>3.19471257805871</v>
+        <v>3.78107745835743</v>
       </c>
       <c r="M35">
-        <v>3.30696106911606</v>
+        <v>3.35963919214769</v>
       </c>
       <c r="N35">
-        <v>2.6318930835836</v>
+        <v>2.95804709329774</v>
       </c>
       <c r="O35">
-        <v>303.031103282756</v>
+        <v>381.028660747946</v>
       </c>
       <c r="P35">
-        <v>53.5530879752106</v>
+        <v>50.5686505962444</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>2106.59292692892</v>
+        <v>1047.33163748775</v>
       </c>
       <c r="C36">
-        <v>78.5257015282387</v>
+        <v>81.82080305011981</v>
       </c>
       <c r="D36">
-        <v>21.5960128212831</v>
+        <v>21.7251718354428</v>
       </c>
       <c r="E36">
-        <v>113.466015774857</v>
+        <v>71.8573072464572</v>
       </c>
       <c r="F36">
-        <v>31.4675928966254</v>
+        <v>49.3182472945326</v>
       </c>
       <c r="G36">
-        <v>84.3402777865204</v>
+        <v>124.901976096227</v>
       </c>
       <c r="H36">
-        <v>119.218065010335</v>
+        <v>135.222069147019</v>
       </c>
       <c r="I36">
-        <v>62.6508071427154</v>
+        <v>54.9096168225305</v>
       </c>
       <c r="J36">
-        <v>258.572742228789</v>
+        <v>253.429998923286</v>
       </c>
       <c r="K36">
-        <v>133.212767741438</v>
+        <v>197.698848675799</v>
       </c>
       <c r="L36">
-        <v>109.848163079499</v>
+        <v>126.34497143053</v>
       </c>
       <c r="M36">
-        <v>267.631032989785</v>
+        <v>266.725925936573</v>
       </c>
       <c r="N36">
-        <v>88.4165838096375</v>
+        <v>108.333171299872</v>
       </c>
       <c r="O36">
-        <v>4441.73484696353</v>
+        <v>5390.78133360381</v>
       </c>
       <c r="P36">
-        <v>49.9067608203351</v>
+        <v>42.673627122042</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>693.827432157998</v>
+        <v>331.548095990055</v>
       </c>
       <c r="C37">
-        <v>26.4257241292423</v>
+        <v>26.0861132453163</v>
       </c>
       <c r="D37">
-        <v>12.0603627348396</v>
+        <v>13.6883647162254</v>
       </c>
       <c r="E37">
-        <v>15.9908523038258</v>
+        <v>17.0027860367747</v>
       </c>
       <c r="F37">
-        <v>49.644076276209</v>
+        <v>52.2647352912743</v>
       </c>
       <c r="G37">
-        <v>6.3542992710179</v>
+        <v>9.352069048588501</v>
       </c>
       <c r="H37">
-        <v>23.0163200273002</v>
+        <v>29.0236929924588</v>
       </c>
       <c r="I37">
-        <v>10.7405578517971</v>
+        <v>18.1050152316454</v>
       </c>
       <c r="J37">
-        <v>31.5157494400295</v>
+        <v>34.072059228103</v>
       </c>
       <c r="K37">
-        <v>40.2535313398674</v>
+        <v>54.6521988133772</v>
       </c>
       <c r="L37">
-        <v>27.8059194761292</v>
+        <v>34.4458382499958</v>
       </c>
       <c r="M37">
-        <v>35.273546415597</v>
+        <v>35.4862923861766</v>
       </c>
       <c r="N37">
-        <v>15.2434074970616</v>
+        <v>19.2221246344514</v>
       </c>
       <c r="O37">
-        <v>1350.31858515837</v>
+        <v>1634.88748751131</v>
       </c>
       <c r="P37">
-        <v>52.8912028677524</v>
+        <v>61.5916697761298</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>636.256100585494</v>
+        <v>374.420567657616</v>
       </c>
       <c r="C38">
-        <v>28.2955433112823</v>
+        <v>31.0866463839243</v>
       </c>
       <c r="D38">
-        <v>10.0844849868935</v>
+        <v>16.4722308925581</v>
       </c>
       <c r="E38">
-        <v>61.9330959292833</v>
+        <v>54.3511870925617</v>
       </c>
       <c r="F38">
-        <v>3.23220031210534</v>
+        <v>4.46306382026715</v>
       </c>
       <c r="G38">
-        <v>6.24316909254078</v>
+        <v>7.57428337924975</v>
       </c>
       <c r="H38">
-        <v>6.88285121374955</v>
+        <v>9.21185195439883</v>
       </c>
       <c r="I38">
-        <v>3.9314100782281</v>
+        <v>4.12800582744505</v>
       </c>
       <c r="J38">
-        <v>38.4730393836979</v>
+        <v>43.6497447202575</v>
       </c>
       <c r="K38">
-        <v>15.429229421938</v>
+        <v>20.233836749193</v>
       </c>
       <c r="L38">
-        <v>80.693802122077</v>
+        <v>95.54974121379119</v>
       </c>
       <c r="M38">
-        <v>22.6061668445119</v>
+        <v>28.6442879434846</v>
       </c>
       <c r="N38">
-        <v>20.1522596030942</v>
+        <v>27.3815080090036</v>
       </c>
       <c r="O38">
-        <v>1454.25509148829</v>
+        <v>1669.99943084402</v>
       </c>
       <c r="P38">
-        <v>89.9424993089506</v>
+        <v>80.032652761126</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>2531.7888130824</v>
+        <v>1279.36383849124</v>
       </c>
       <c r="C39">
-        <v>109.975564260029</v>
+        <v>149.233953193482</v>
       </c>
       <c r="D39">
-        <v>84.5605770705119</v>
+        <v>77.9680761305514</v>
       </c>
       <c r="E39">
-        <v>136.902344758185</v>
+        <v>95.9056319617018</v>
       </c>
       <c r="F39">
-        <v>42.1297847489144</v>
+        <v>31.1415753465571</v>
       </c>
       <c r="G39">
-        <v>106.056467262594</v>
+        <v>149.534165507526</v>
       </c>
       <c r="H39">
-        <v>53.576152479987</v>
+        <v>49.1261097076174</v>
       </c>
       <c r="I39">
-        <v>57.6186296323446</v>
+        <v>60.4991769622815</v>
       </c>
       <c r="J39">
-        <v>210.393629036442</v>
+        <v>189.061154394064</v>
       </c>
       <c r="K39">
-        <v>114.018232784051</v>
+        <v>164.283332112757</v>
       </c>
       <c r="L39">
-        <v>117.95983214283</v>
+        <v>146.82031615166</v>
       </c>
       <c r="M39">
-        <v>75.1110370141634</v>
+        <v>84.6367889755319</v>
       </c>
       <c r="N39">
-        <v>109.543548453554</v>
+        <v>135.920415435053</v>
       </c>
       <c r="O39">
-        <v>4889.26629444788</v>
+        <v>6033.48655467094</v>
       </c>
       <c r="P39">
-        <v>80.2889308648451</v>
+        <v>61.113008329966</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>196.547125379675</v>
+        <v>101.071321912809</v>
       </c>
       <c r="C40">
-        <v>5.67554688504096</v>
+        <v>5.16543695883692</v>
       </c>
       <c r="D40">
-        <v>13.6763254760682</v>
+        <v>14.1211223877201</v>
       </c>
       <c r="E40">
-        <v>7.00463407647409</v>
+        <v>3.9515242222028</v>
       </c>
       <c r="F40">
-        <v>0.554350349187879</v>
+        <v>1.0652994832716</v>
       </c>
       <c r="G40">
-        <v>5.70819102653201</v>
+        <v>8.51592535876957</v>
       </c>
       <c r="H40">
-        <v>6.21254299521554</v>
+        <v>11.1920455998129</v>
       </c>
       <c r="I40">
-        <v>3.64317298197058</v>
+        <v>2.76574222948612</v>
       </c>
       <c r="J40">
-        <v>16.482872928552</v>
+        <v>16.2541430244079</v>
       </c>
       <c r="K40">
-        <v>4.9227196266562</v>
+        <v>11.9343191308347</v>
       </c>
       <c r="L40">
-        <v>18.4495341128133</v>
+        <v>17.8518861405521</v>
       </c>
       <c r="M40">
-        <v>7.27160181398173</v>
+        <v>9.44459327393734</v>
       </c>
       <c r="N40">
-        <v>27.6049080761527</v>
+        <v>36.8698569255081</v>
       </c>
       <c r="O40">
-        <v>493.163841852336</v>
+        <v>603.589711778858</v>
       </c>
       <c r="P40">
-        <v>1.78058802459787</v>
+        <v>1.51069674772677</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>748.8417839915491</v>
+        <v>344.389203036359</v>
       </c>
       <c r="C41">
-        <v>19.1644110293211</v>
+        <v>14.2055929990292</v>
       </c>
       <c r="D41">
-        <v>106.499829243364</v>
+        <v>120.46273328282</v>
       </c>
       <c r="E41">
-        <v>49.1577083487537</v>
+        <v>50.7301488822691</v>
       </c>
       <c r="F41">
-        <v>3.49572316340065</v>
+        <v>3.1511077958629</v>
       </c>
       <c r="G41">
-        <v>30.3984377165557</v>
+        <v>58.0696190836849</v>
       </c>
       <c r="H41">
-        <v>36.7799802214581</v>
+        <v>51.1322264255738</v>
       </c>
       <c r="I41">
-        <v>8.966721555393081</v>
+        <v>10.9297758194623</v>
       </c>
       <c r="J41">
-        <v>58.7912449653955</v>
+        <v>72.1754450576622</v>
       </c>
       <c r="K41">
-        <v>41.6209292056345</v>
+        <v>68.0407866171456</v>
       </c>
       <c r="L41">
-        <v>33.1066257372612</v>
+        <v>35.8612177469602</v>
       </c>
       <c r="M41">
-        <v>43.1325396743214</v>
+        <v>46.2375995126334</v>
       </c>
       <c r="N41">
-        <v>25.9589809847481</v>
+        <v>33.8583092131631</v>
       </c>
       <c r="O41">
-        <v>1586.01727940578</v>
+        <v>1871.50069668302</v>
       </c>
       <c r="P41">
-        <v>22.366569868828</v>
+        <v>25.3729810632645</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>109.969459239058</v>
+        <v>51.1855642929974</v>
       </c>
       <c r="C42">
-        <v>8.97460421154819</v>
+        <v>9.901350647707901</v>
       </c>
       <c r="D42">
-        <v>0.8723164486535</v>
+        <v>1.52305398894949</v>
       </c>
       <c r="E42">
-        <v>8.07939910407921</v>
+        <v>7.56729896319586</v>
       </c>
       <c r="F42">
-        <v>2.63926707533118</v>
+        <v>2.95947113050388</v>
       </c>
       <c r="G42">
-        <v>0.910614117215849</v>
+        <v>1.36398783029971</v>
       </c>
       <c r="H42">
-        <v>2.39296205159014</v>
+        <v>2.65170210055113</v>
       </c>
       <c r="I42">
-        <v>1.54404671325293</v>
+        <v>1.17287954867907</v>
       </c>
       <c r="J42">
-        <v>5.03996656949289</v>
+        <v>5.40641847507424</v>
       </c>
       <c r="K42">
-        <v>6.09295304356881</v>
+        <v>10.1195927118021</v>
       </c>
       <c r="L42">
-        <v>8.034674551300441</v>
+        <v>10.8992974591652</v>
       </c>
       <c r="M42">
-        <v>3.86362503555118</v>
+        <v>4.82163140872067</v>
       </c>
       <c r="N42">
-        <v>7.76853869143614</v>
+        <v>10.4477878233156</v>
       </c>
       <c r="O42">
-        <v>373.862768715502</v>
+        <v>476.057806224622</v>
       </c>
       <c r="P42">
-        <v>57.5090303794551</v>
+        <v>53.982968318913</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1208.4290963151</v>
+        <v>616.993610632207</v>
       </c>
       <c r="C43">
-        <v>52.4848154309986</v>
+        <v>47.3169125407311</v>
       </c>
       <c r="D43">
-        <v>54.7089198852635</v>
+        <v>61.9085470022448</v>
       </c>
       <c r="E43">
-        <v>66.7214620280628</v>
+        <v>45.436310514368</v>
       </c>
       <c r="F43">
-        <v>7.07689527298689</v>
+        <v>12.1788390209327</v>
       </c>
       <c r="G43">
-        <v>32.7419643955633</v>
+        <v>37.095866408415</v>
       </c>
       <c r="H43">
-        <v>31.198241657974</v>
+        <v>28.1145923910315</v>
       </c>
       <c r="I43">
-        <v>21.3738162045391</v>
+        <v>33.938981077514</v>
       </c>
       <c r="J43">
-        <v>66.710083785282</v>
+        <v>62.4297629463941</v>
       </c>
       <c r="K43">
-        <v>56.3499967971568</v>
+        <v>87.052114600968</v>
       </c>
       <c r="L43">
-        <v>60.483412399647</v>
+        <v>63.9960951736135</v>
       </c>
       <c r="M43">
-        <v>107.892414141625</v>
+        <v>100.193101844219</v>
       </c>
       <c r="N43">
-        <v>56.7914007135744</v>
+        <v>84.478917489381</v>
       </c>
       <c r="O43">
-        <v>2187.3818984109</v>
+        <v>2705.10813909965</v>
       </c>
       <c r="P43">
-        <v>47.7677683162486</v>
+        <v>58.4056808012105</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>4196.5946646971</v>
+        <v>2284.63306881277</v>
       </c>
       <c r="C44">
-        <v>127.475952219189</v>
+        <v>187.482846742084</v>
       </c>
       <c r="D44">
-        <v>62.0720180637168</v>
+        <v>77.34203081063001</v>
       </c>
       <c r="E44">
-        <v>106.713695514775</v>
+        <v>83.7364266808148</v>
       </c>
       <c r="F44">
-        <v>239.177336626046</v>
+        <v>289.105893736106</v>
       </c>
       <c r="G44">
-        <v>121.870261464579</v>
+        <v>169.905023886925</v>
       </c>
       <c r="H44">
-        <v>58.5765228881848</v>
+        <v>57.866699663527</v>
       </c>
       <c r="I44">
-        <v>51.4248330848431</v>
+        <v>64.5947398136082</v>
       </c>
       <c r="J44">
-        <v>145.145170682624</v>
+        <v>160.812066575192</v>
       </c>
       <c r="K44">
-        <v>101.702467713881</v>
+        <v>149.885546655433</v>
       </c>
       <c r="L44">
-        <v>243.672402030562</v>
+        <v>285.100511801211</v>
       </c>
       <c r="M44">
-        <v>125.999327128214</v>
+        <v>127.741225300425</v>
       </c>
       <c r="N44">
-        <v>95.2640040790657</v>
+        <v>99.6477840809345</v>
       </c>
       <c r="O44">
-        <v>8120.05684710397</v>
+        <v>9551.280849024521</v>
       </c>
       <c r="P44">
-        <v>229.782990485871</v>
+        <v>286.147495303786</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>404.519448541946</v>
+        <v>243.846197575914</v>
       </c>
       <c r="C45">
-        <v>19.6906648948882</v>
+        <v>17.7341841676894</v>
       </c>
       <c r="D45">
-        <v>4.55257619514748</v>
+        <v>6.16001349133107</v>
       </c>
       <c r="E45">
-        <v>13.5125472414007</v>
+        <v>6.65202078375016</v>
       </c>
       <c r="F45">
-        <v>22.9498734583492</v>
+        <v>28.2447643778579</v>
       </c>
       <c r="G45">
-        <v>12.1923115172506</v>
+        <v>14.0958587617066</v>
       </c>
       <c r="H45">
-        <v>3.33126182691706</v>
+        <v>5.99526959255473</v>
       </c>
       <c r="I45">
-        <v>5.40630286450777</v>
+        <v>6.05733680787556</v>
       </c>
       <c r="J45">
-        <v>18.410869569197</v>
+        <v>19.3449712908329</v>
       </c>
       <c r="K45">
-        <v>6.66502814341715</v>
+        <v>11.5431976590016</v>
       </c>
       <c r="L45">
-        <v>19.3073954417127</v>
+        <v>22.7217715271136</v>
       </c>
       <c r="M45">
-        <v>26.1334885143962</v>
+        <v>26.5899772508631</v>
       </c>
       <c r="N45">
-        <v>26.5580250894188</v>
+        <v>27.7102406843772</v>
       </c>
       <c r="O45">
-        <v>874.752066306005</v>
+        <v>1024.78063310781</v>
       </c>
       <c r="P45">
-        <v>18.5333347697258</v>
+        <v>14.9115205083592</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>94.8501209698035</v>
+        <v>47.1651080673763</v>
       </c>
       <c r="C46">
-        <v>5.73965775826116</v>
+        <v>6.42427699069554</v>
       </c>
       <c r="D46">
-        <v>2.16260244711134</v>
+        <v>2.46998291645971</v>
       </c>
       <c r="E46">
-        <v>8.601224359488191</v>
+        <v>7.45322909529405</v>
       </c>
       <c r="F46">
-        <v>1.82389404394987</v>
+        <v>2.16067511255594</v>
       </c>
       <c r="G46">
-        <v>2.05735274331473</v>
+        <v>2.73552875646534</v>
       </c>
       <c r="H46">
-        <v>2.2291072652993</v>
+        <v>3.81838690228007</v>
       </c>
       <c r="I46">
-        <v>2.01365630728068</v>
+        <v>2.47459809249366</v>
       </c>
       <c r="J46">
-        <v>5.9079851158159</v>
+        <v>5.85065207628429</v>
       </c>
       <c r="K46">
-        <v>5.32575419304509</v>
+        <v>7.17123962409275</v>
       </c>
       <c r="L46">
-        <v>13.2885779219503</v>
+        <v>18.8387394875326</v>
       </c>
       <c r="M46">
-        <v>5.41547844085663</v>
+        <v>6.42650750970232</v>
       </c>
       <c r="N46">
-        <v>8.81953383799944</v>
+        <v>10.4302608629627</v>
       </c>
       <c r="O46">
-        <v>319.118474298324</v>
+        <v>392.272449293122</v>
       </c>
       <c r="P46">
-        <v>14.8472834950831</v>
+        <v>12.2127439893596</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1275.20240642006</v>
+        <v>637.1634659577491</v>
       </c>
       <c r="C47">
-        <v>60.2056270368349</v>
+        <v>68.1266752932283</v>
       </c>
       <c r="D47">
-        <v>49.1728743426229</v>
+        <v>40.7233918615656</v>
       </c>
       <c r="E47">
-        <v>62.9824058452969</v>
+        <v>42.2181903192531</v>
       </c>
       <c r="F47">
-        <v>12.8584522458641</v>
+        <v>9.197967753119631</v>
       </c>
       <c r="G47">
-        <v>29.2122321864142</v>
+        <v>37.4821078585464</v>
       </c>
       <c r="H47">
-        <v>22.9643732652996</v>
+        <v>24.7244478111164</v>
       </c>
       <c r="I47">
-        <v>13.171714710874</v>
+        <v>16.4693690110833</v>
       </c>
       <c r="J47">
-        <v>38.963922440363</v>
+        <v>59.7605784084698</v>
       </c>
       <c r="K47">
-        <v>27.9863344203686</v>
+        <v>30.1045024167141</v>
       </c>
       <c r="L47">
-        <v>54.1578362453454</v>
+        <v>68.0122308365458</v>
       </c>
       <c r="M47">
-        <v>76.9462075403555</v>
+        <v>88.9873996206375</v>
       </c>
       <c r="N47">
-        <v>45.2905145512107</v>
+        <v>43.4666301827591</v>
       </c>
       <c r="O47">
-        <v>3068.68260235302</v>
+        <v>3676.75040368634</v>
       </c>
       <c r="P47">
-        <v>50.8011997701043</v>
+        <v>42.0548573962627</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1141.84023676285</v>
+        <v>669.830296353139</v>
       </c>
       <c r="C48">
-        <v>37.0975647856628</v>
+        <v>22.9634027552797</v>
       </c>
       <c r="D48">
-        <v>7.45801183820261</v>
+        <v>12.0641735830389</v>
       </c>
       <c r="E48">
-        <v>68.78493063999019</v>
+        <v>79.7647849995779</v>
       </c>
       <c r="F48">
-        <v>9.442123665245649</v>
+        <v>16.9650636838184</v>
       </c>
       <c r="G48">
-        <v>7.110755769244</v>
+        <v>11.740623014723</v>
       </c>
       <c r="H48">
-        <v>5.83105085120938</v>
+        <v>4.59130567238165</v>
       </c>
       <c r="I48">
-        <v>8.665561078120311</v>
+        <v>15.3715110989724</v>
       </c>
       <c r="J48">
-        <v>35.7619244624352</v>
+        <v>30.8866662819554</v>
       </c>
       <c r="K48">
-        <v>22.2829257515225</v>
+        <v>29.7008528367197</v>
       </c>
       <c r="L48">
-        <v>45.4274998388824</v>
+        <v>47.5155901199693</v>
       </c>
       <c r="M48">
-        <v>135.78917652351</v>
+        <v>177.113040052203</v>
       </c>
       <c r="N48">
-        <v>32.9264406145388</v>
+        <v>27.2479930765274</v>
       </c>
       <c r="O48">
-        <v>2467.14992887108</v>
+        <v>2866.21751659148</v>
       </c>
       <c r="P48">
-        <v>103.371173611193</v>
+        <v>94.6010954347561</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>557.516241657951</v>
+        <v>311.605366360126</v>
       </c>
       <c r="C49">
-        <v>8.344436216689029</v>
+        <v>7.82772390265994</v>
       </c>
       <c r="D49">
-        <v>4.16813923068896</v>
+        <v>8.07871009040835</v>
       </c>
       <c r="E49">
-        <v>18.6580825220116</v>
+        <v>19.9202568345256</v>
       </c>
       <c r="F49">
-        <v>37.8279730976352</v>
+        <v>53.3969566357804</v>
       </c>
       <c r="G49">
-        <v>18.5834336038298</v>
+        <v>27.2510238647607</v>
       </c>
       <c r="H49">
-        <v>10.2094856160856</v>
+        <v>8.257095724640839</v>
       </c>
       <c r="I49">
-        <v>9.39930818704117</v>
+        <v>12.960538417159</v>
       </c>
       <c r="J49">
-        <v>26.2679803969412</v>
+        <v>33.0385599395457</v>
       </c>
       <c r="K49">
-        <v>10.5989762252875</v>
+        <v>13.110033901572</v>
       </c>
       <c r="L49">
-        <v>2.98655469479052</v>
+        <v>4.03700284069369</v>
       </c>
       <c r="M49">
-        <v>7.54151189909365</v>
+        <v>7.68270020907454</v>
       </c>
       <c r="N49">
-        <v>4.98309844317923</v>
+        <v>4.44719946414281</v>
       </c>
       <c r="O49">
-        <v>706.945397351717</v>
+        <v>925.142518432503</v>
       </c>
       <c r="P49">
-        <v>12.3654489267944</v>
+        <v>11.4709064531581</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>774.968876157193</v>
+        <v>370.639200247334</v>
       </c>
       <c r="C50">
-        <v>87.0779900388556</v>
+        <v>97.92433006320501</v>
       </c>
       <c r="D50">
-        <v>14.4801922804333</v>
+        <v>15.0289364415693</v>
       </c>
       <c r="E50">
-        <v>151.168141798005</v>
+        <v>125.026860500631</v>
       </c>
       <c r="F50">
-        <v>4.29454615232381</v>
+        <v>3.31228781350335</v>
       </c>
       <c r="G50">
-        <v>24.086199944381</v>
+        <v>42.5974997873549</v>
       </c>
       <c r="H50">
-        <v>50.4144151173791</v>
+        <v>43.5664418774323</v>
       </c>
       <c r="I50">
-        <v>16.7191287912877</v>
+        <v>18.1387481041515</v>
       </c>
       <c r="J50">
-        <v>128.798822514008</v>
+        <v>117.151432039189</v>
       </c>
       <c r="K50">
-        <v>105.002518370382</v>
+        <v>129.37416502874</v>
       </c>
       <c r="L50">
-        <v>71.46953253049919</v>
+        <v>98.40823078496879</v>
       </c>
       <c r="M50">
-        <v>54.5082830569294</v>
+        <v>36.6420945042733</v>
       </c>
       <c r="N50">
-        <v>65.0334834099215</v>
+        <v>91.4366629706355</v>
       </c>
       <c r="O50">
-        <v>2121.03890934835</v>
+        <v>2543.41599848667</v>
       </c>
       <c r="P50">
-        <v>129.017385488909</v>
+        <v>81.8382019113874</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>96.7163685894693</v>
+        <v>59.0795266082678</v>
       </c>
       <c r="C51">
-        <v>1.80377899969418</v>
+        <v>2.33609331888757</v>
       </c>
       <c r="D51">
-        <v>0.0500330711749979</v>
+        <v>0.0327823762129383</v>
       </c>
       <c r="E51">
-        <v>2.24454468812314</v>
+        <v>1.59315504016092</v>
       </c>
       <c r="F51">
-        <v>34.5777873153528</v>
+        <v>44.1392260829582</v>
       </c>
       <c r="G51">
-        <v>3.12720337417637</v>
+        <v>2.38646447256832</v>
       </c>
       <c r="H51">
-        <v>0.508876678808214</v>
+        <v>0.456119119838526</v>
       </c>
       <c r="I51">
-        <v>1.47032078006755</v>
+        <v>1.93847271831686</v>
       </c>
       <c r="J51">
-        <v>2.2500583558081</v>
+        <v>3.04568472099559</v>
       </c>
       <c r="K51">
-        <v>0.768244098190554</v>
+        <v>1.48675218730231</v>
       </c>
       <c r="L51">
-        <v>0.280087117996869</v>
+        <v>0.428371311745746</v>
       </c>
       <c r="M51">
-        <v>0.626708427266783</v>
+        <v>0.807071472393066</v>
       </c>
       <c r="N51">
-        <v>2.37503744019408</v>
+        <v>2.59363889360608</v>
       </c>
       <c r="O51">
-        <v>283.737176506507</v>
+        <v>359.737803993075</v>
       </c>
       <c r="P51">
-        <v>20.7936541895277</v>
+        <v>24.1666535036864</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2002.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2002.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>456.66745169054</v>
+        <v>920.713640130151</v>
       </c>
       <c r="C2">
-        <v>44.3777537333626</v>
+        <v>37.5417091876284</v>
       </c>
       <c r="D2">
-        <v>83.07060367345041</v>
+        <v>67.8541371133625</v>
       </c>
       <c r="E2">
-        <v>92.6173874709723</v>
+        <v>75.44397548552151</v>
       </c>
       <c r="F2">
-        <v>22.2599018350222</v>
+        <v>17.6863142569219</v>
       </c>
       <c r="G2">
-        <v>24.7129315854336</v>
+        <v>20.4551303804639</v>
       </c>
       <c r="H2">
-        <v>39.827183090757</v>
+        <v>34.070678919315</v>
       </c>
       <c r="I2">
-        <v>23.0776417049982</v>
+        <v>19.0779926210629</v>
       </c>
       <c r="J2">
-        <v>85.7365150629647</v>
+        <v>70.9605535718763</v>
       </c>
       <c r="K2">
-        <v>25.970239311748</v>
+        <v>20.7357092612319</v>
       </c>
       <c r="L2">
-        <v>43.8806264627576</v>
+        <v>36.2904178622737</v>
       </c>
       <c r="M2">
-        <v>61.6160939874529</v>
+        <v>49.9621494440918</v>
       </c>
       <c r="N2">
-        <v>33.5593032389</v>
+        <v>27.7133956506005</v>
       </c>
       <c r="O2">
-        <v>2052.41990919665</v>
+        <v>1700.5778127525</v>
       </c>
       <c r="P2">
-        <v>44.7405893678468</v>
+        <v>35.2331017079752</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>95.507397527981</v>
+        <v>145.047235496509</v>
       </c>
       <c r="C3">
-        <v>5.17608609036046</v>
+        <v>4.5929241128386</v>
       </c>
       <c r="D3">
-        <v>0.391176549292106</v>
+        <v>0.352366704455278</v>
       </c>
       <c r="E3">
-        <v>1.47735630762197</v>
+        <v>1.32738239692957</v>
       </c>
       <c r="F3">
-        <v>17.242489445265</v>
+        <v>15.4678613289221</v>
       </c>
       <c r="G3">
-        <v>0.929605434095457</v>
+        <v>0.83783874761337</v>
       </c>
       <c r="H3">
-        <v>0.273282398129791</v>
+        <v>0.233421508114579</v>
       </c>
       <c r="I3">
-        <v>0.467178793503316</v>
+        <v>0.419703085959096</v>
       </c>
       <c r="J3">
-        <v>1.00753377983898</v>
+        <v>0.9031341138629621</v>
       </c>
       <c r="K3">
-        <v>0.349275733757043</v>
+        <v>0.314411310726376</v>
       </c>
       <c r="L3">
-        <v>0.210116396281411</v>
+        <v>0.188348954940567</v>
       </c>
       <c r="M3">
-        <v>1.60265470237216</v>
+        <v>1.65003023201689</v>
       </c>
       <c r="N3">
-        <v>1.46011291646014</v>
+        <v>1.30731187141945</v>
       </c>
       <c r="O3">
-        <v>418.476500118982</v>
+        <v>373.711864455567</v>
       </c>
       <c r="P3">
-        <v>14.3647048342462</v>
+        <v>12.6650454884813</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>563.410994071877</v>
+        <v>966.352224612427</v>
       </c>
       <c r="C4">
-        <v>15.2719015001306</v>
+        <v>13.1648449909131</v>
       </c>
       <c r="D4">
-        <v>7.42245649828242</v>
+        <v>6.39524214234796</v>
       </c>
       <c r="E4">
-        <v>16.8992459946229</v>
+        <v>14.5835014816847</v>
       </c>
       <c r="F4">
-        <v>8.65081987276824</v>
+        <v>7.46462751078534</v>
       </c>
       <c r="G4">
-        <v>16.2021745066461</v>
+        <v>13.5566003301713</v>
       </c>
       <c r="H4">
-        <v>9.13265569261492</v>
+        <v>7.34993486668906</v>
       </c>
       <c r="I4">
-        <v>10.9739070927914</v>
+        <v>8.854088692709549</v>
       </c>
       <c r="J4">
-        <v>31.1515525603609</v>
+        <v>26.0878266465521</v>
       </c>
       <c r="K4">
-        <v>11.5114540032841</v>
+        <v>9.957165187466259</v>
       </c>
       <c r="L4">
-        <v>114.817845777179</v>
+        <v>97.40083340603491</v>
       </c>
       <c r="M4">
-        <v>72.6365488671577</v>
+        <v>62.8380918662418</v>
       </c>
       <c r="N4">
-        <v>43.4049619175868</v>
+        <v>37.2255178852044</v>
       </c>
       <c r="O4">
-        <v>2588.51679526001</v>
+        <v>2245.87342616254</v>
       </c>
       <c r="P4">
-        <v>42.5536262896125</v>
+        <v>36.2459725124917</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>261.978481315962</v>
+        <v>581.095742430215</v>
       </c>
       <c r="C5">
-        <v>81.6870592333876</v>
+        <v>66.0514224044165</v>
       </c>
       <c r="D5">
-        <v>22.5166624362945</v>
+        <v>17.8268613442264</v>
       </c>
       <c r="E5">
-        <v>42.9616685939435</v>
+        <v>35.0230079757213</v>
       </c>
       <c r="F5">
-        <v>1.22534344703007</v>
+        <v>0.979959977841111</v>
       </c>
       <c r="G5">
-        <v>13.7710801918992</v>
+        <v>11.1297864459261</v>
       </c>
       <c r="H5">
-        <v>14.1192092924761</v>
+        <v>11.4261372030734</v>
       </c>
       <c r="I5">
-        <v>12.5132168926228</v>
+        <v>10.1277494895139</v>
       </c>
       <c r="J5">
-        <v>43.1615318762913</v>
+        <v>34.9747268407745</v>
       </c>
       <c r="K5">
-        <v>36.0004940475503</v>
+        <v>28.8704274350988</v>
       </c>
       <c r="L5">
-        <v>31.6045517819272</v>
+        <v>25.0225289714964</v>
       </c>
       <c r="M5">
-        <v>19.802416760295</v>
+        <v>15.5623648272783</v>
       </c>
       <c r="N5">
-        <v>21.1172949392554</v>
+        <v>17.8549710671052</v>
       </c>
       <c r="O5">
-        <v>1249.25532615956</v>
+        <v>1006.23126153762</v>
       </c>
       <c r="P5">
-        <v>52.367780503688</v>
+        <v>42.0092042566086</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>4097.55641056019</v>
+        <v>6171.29035815664</v>
       </c>
       <c r="C6">
-        <v>188.922077418715</v>
+        <v>171.111360617993</v>
       </c>
       <c r="D6">
-        <v>320.803178413738</v>
+        <v>283.189271134657</v>
       </c>
       <c r="E6">
-        <v>128.931515142264</v>
+        <v>114.771314148524</v>
       </c>
       <c r="F6">
-        <v>44.3857565753696</v>
+        <v>38.4323966234398</v>
       </c>
       <c r="G6">
-        <v>164.383243632069</v>
+        <v>148.88547868406</v>
       </c>
       <c r="H6">
-        <v>98.0532626933786</v>
+        <v>88.90399913853391</v>
       </c>
       <c r="I6">
-        <v>67.21085450722801</v>
+        <v>59.4317105855345</v>
       </c>
       <c r="J6">
-        <v>222.280592661598</v>
+        <v>197.590510802278</v>
       </c>
       <c r="K6">
-        <v>176.849476420393</v>
+        <v>159.222518158793</v>
       </c>
       <c r="L6">
-        <v>628.899294814549</v>
+        <v>554.885044650855</v>
       </c>
       <c r="M6">
-        <v>417.897451243976</v>
+        <v>371.360400013551</v>
       </c>
       <c r="N6">
-        <v>392.584296450318</v>
+        <v>351.068374464561</v>
       </c>
       <c r="O6">
-        <v>15663.3142723983</v>
+        <v>13929.9170579721</v>
       </c>
       <c r="P6">
-        <v>281.471643452992</v>
+        <v>253.571917529961</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>365.536417169946</v>
+        <v>642.937930706812</v>
       </c>
       <c r="C7">
-        <v>42.465916963207</v>
+        <v>37.7262227224916</v>
       </c>
       <c r="D7">
-        <v>5.3351974570796</v>
+        <v>4.78336801624116</v>
       </c>
       <c r="E7">
-        <v>14.4618559158193</v>
+        <v>12.9549790098789</v>
       </c>
       <c r="F7">
-        <v>16.9527313721538</v>
+        <v>14.6443138491559</v>
       </c>
       <c r="G7">
-        <v>12.5496628453562</v>
+        <v>10.86726255283</v>
       </c>
       <c r="H7">
-        <v>13.8309285298994</v>
+        <v>12.3627596088182</v>
       </c>
       <c r="I7">
-        <v>9.607727215815659</v>
+        <v>8.609414627631701</v>
       </c>
       <c r="J7">
-        <v>23.557248791449</v>
+        <v>21.7870054027463</v>
       </c>
       <c r="K7">
-        <v>23.9034678816445</v>
+        <v>21.3979970386248</v>
       </c>
       <c r="L7">
-        <v>65.2782608983154</v>
+        <v>57.3217357225442</v>
       </c>
       <c r="M7">
-        <v>27.5750699936879</v>
+        <v>24.3369534444258</v>
       </c>
       <c r="N7">
-        <v>35.3664583035672</v>
+        <v>30.8421183908133</v>
       </c>
       <c r="O7">
-        <v>2261.0573407509</v>
+        <v>2019.61663918159</v>
       </c>
       <c r="P7">
-        <v>26.1945963140285</v>
+        <v>23.5436253949199</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>265.38489316771</v>
+        <v>488.974299434611</v>
       </c>
       <c r="C8">
-        <v>15.8743013549392</v>
+        <v>13.7973583930454</v>
       </c>
       <c r="D8">
-        <v>11.0378731675811</v>
+        <v>10.0046089370195</v>
       </c>
       <c r="E8">
-        <v>13.6558204375475</v>
+        <v>12.2307247849276</v>
       </c>
       <c r="F8">
-        <v>2.2793409722766</v>
+        <v>2.04630071478634</v>
       </c>
       <c r="G8">
-        <v>41.1942756137596</v>
+        <v>36.7423174898808</v>
       </c>
       <c r="H8">
-        <v>17.8096835680934</v>
+        <v>16.6821676588917</v>
       </c>
       <c r="I8">
-        <v>1.51293276663666</v>
+        <v>1.35377891707302</v>
       </c>
       <c r="J8">
-        <v>58.2191984274606</v>
+        <v>51.2020286215873</v>
       </c>
       <c r="K8">
-        <v>50.1689493417386</v>
+        <v>44.2678386608873</v>
       </c>
       <c r="L8">
-        <v>61.5001939028449</v>
+        <v>55.0787754463242</v>
       </c>
       <c r="M8">
-        <v>83.55796319596971</v>
+        <v>72.8520389022132</v>
       </c>
       <c r="N8">
-        <v>34.1513643895595</v>
+        <v>30.5843585830744</v>
       </c>
       <c r="O8">
-        <v>1720.70660029598</v>
+        <v>1541.24013604911</v>
       </c>
       <c r="P8">
-        <v>5.45252406122506</v>
+        <v>5.21884404108698</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>72.95484184496721</v>
+        <v>155.759640251099</v>
       </c>
       <c r="C9">
-        <v>10.8480250542713</v>
+        <v>9.32231874640015</v>
       </c>
       <c r="D9">
-        <v>3.20307170842212</v>
+        <v>2.69154003035409</v>
       </c>
       <c r="E9">
-        <v>6.06224722565192</v>
+        <v>5.23822297566712</v>
       </c>
       <c r="F9">
-        <v>3.13829297987566</v>
+        <v>2.71587869447874</v>
       </c>
       <c r="G9">
-        <v>34.4714144910203</v>
+        <v>29.4821289706815</v>
       </c>
       <c r="H9">
-        <v>4.76053178718618</v>
+        <v>4.04120819757991</v>
       </c>
       <c r="I9">
-        <v>1.26051031111548</v>
+        <v>1.09861561864287</v>
       </c>
       <c r="J9">
-        <v>3.93802813505793</v>
+        <v>3.40322016999612</v>
       </c>
       <c r="K9">
-        <v>5.88774610372142</v>
+        <v>4.98213932960684</v>
       </c>
       <c r="L9">
-        <v>5.22169289245594</v>
+        <v>4.51838744234388</v>
       </c>
       <c r="M9">
-        <v>11.3346097980332</v>
+        <v>9.675804183225701</v>
       </c>
       <c r="N9">
-        <v>7.67734879851861</v>
+        <v>6.64627116617662</v>
       </c>
       <c r="O9">
-        <v>505.71389709442</v>
+        <v>438.453435567992</v>
       </c>
       <c r="P9">
-        <v>10.0653398739148</v>
+        <v>8.525551978241779</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>1653.98643621545</v>
+        <v>3084.62673627118</v>
       </c>
       <c r="C10">
-        <v>63.3497837828176</v>
+        <v>54.0486118300785</v>
       </c>
       <c r="D10">
-        <v>45.536509520381</v>
+        <v>38.9389185181691</v>
       </c>
       <c r="E10">
-        <v>53.4578444763261</v>
+        <v>44.6929191398253</v>
       </c>
       <c r="F10">
-        <v>12.178263959313</v>
+        <v>10.5065322158833</v>
       </c>
       <c r="G10">
-        <v>37.6316583406508</v>
+        <v>33.6894523580506</v>
       </c>
       <c r="H10">
-        <v>23.1261258741904</v>
+        <v>19.8803766187628</v>
       </c>
       <c r="I10">
-        <v>42.7013876789796</v>
+        <v>37.9667738130697</v>
       </c>
       <c r="J10">
-        <v>62.3475972859275</v>
+        <v>53.6453938565929</v>
       </c>
       <c r="K10">
-        <v>60.2046307850527</v>
+        <v>50.7048270225675</v>
       </c>
       <c r="L10">
-        <v>153.196983729993</v>
+        <v>130.677353725173</v>
       </c>
       <c r="M10">
-        <v>129.57414103822</v>
+        <v>109.809342773537</v>
       </c>
       <c r="N10">
-        <v>113.294914178237</v>
+        <v>96.8547991769134</v>
       </c>
       <c r="O10">
-        <v>9205.099496322509</v>
+        <v>7898.22464558285</v>
       </c>
       <c r="P10">
-        <v>96.8291159204781</v>
+        <v>89.3668868482907</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>771.57470333756</v>
+        <v>1458.99353485632</v>
       </c>
       <c r="C11">
-        <v>80.95798993874919</v>
+        <v>69.3565523486262</v>
       </c>
       <c r="D11">
-        <v>188.875004926974</v>
+        <v>163.606161786524</v>
       </c>
       <c r="E11">
-        <v>122.491981376354</v>
+        <v>103.868735274106</v>
       </c>
       <c r="F11">
-        <v>8.493689222111939</v>
+        <v>7.42338201167062</v>
       </c>
       <c r="G11">
-        <v>46.0305173550886</v>
+        <v>39.1567931480399</v>
       </c>
       <c r="H11">
-        <v>19.570536120186</v>
+        <v>16.9507339137808</v>
       </c>
       <c r="I11">
-        <v>26.8881786971755</v>
+        <v>23.2312167434961</v>
       </c>
       <c r="J11">
-        <v>59.4604831969188</v>
+        <v>51.3338352593826</v>
       </c>
       <c r="K11">
-        <v>53.2507987329715</v>
+        <v>45.5421880172192</v>
       </c>
       <c r="L11">
-        <v>81.1186787483414</v>
+        <v>70.3531266722246</v>
       </c>
       <c r="M11">
-        <v>66.3083168051661</v>
+        <v>57.4724098641515</v>
       </c>
       <c r="N11">
-        <v>50.7232507050254</v>
+        <v>43.9345448307684</v>
       </c>
       <c r="O11">
-        <v>4047.91087696578</v>
+        <v>3477.24085830914</v>
       </c>
       <c r="P11">
-        <v>28.1940518983902</v>
+        <v>23.6827362761121</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>137.506275804723</v>
+        <v>231.648339627443</v>
       </c>
       <c r="C12">
-        <v>12.5895128236421</v>
+        <v>11.2733297729334</v>
       </c>
       <c r="D12">
-        <v>5.91684826190088</v>
+        <v>5.28054281805025</v>
       </c>
       <c r="E12">
-        <v>0.443633748525523</v>
+        <v>0.395335508540332</v>
       </c>
       <c r="F12">
-        <v>1.09306262068017</v>
+        <v>0.97914601377179</v>
       </c>
       <c r="G12">
-        <v>0.720621470226249</v>
+        <v>0.646210205951777</v>
       </c>
       <c r="H12">
-        <v>0.324368449374581</v>
+        <v>0.291703230329559</v>
       </c>
       <c r="I12">
-        <v>2.46527287354945</v>
+        <v>2.20166319205957</v>
       </c>
       <c r="J12">
-        <v>1.44080808010842</v>
+        <v>1.28481667055966</v>
       </c>
       <c r="K12">
-        <v>0.572021551975355</v>
+        <v>0.429557989548199</v>
       </c>
       <c r="L12">
-        <v>0.433134863819404</v>
+        <v>0.385342650485551</v>
       </c>
       <c r="M12">
-        <v>5.62187898277578</v>
+        <v>5.03519490244495</v>
       </c>
       <c r="N12">
-        <v>5.46503705015339</v>
+        <v>4.87894067596238</v>
       </c>
       <c r="O12">
-        <v>793.277189127665</v>
+        <v>705.5263644314271</v>
       </c>
       <c r="P12">
-        <v>22.4816343119502</v>
+        <v>20.2161034244133</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>131.66604618708</v>
+        <v>225.314648900217</v>
       </c>
       <c r="C13">
-        <v>34.4672639555275</v>
+        <v>30.7879492091456</v>
       </c>
       <c r="D13">
-        <v>1.50036389012408</v>
+        <v>1.330948311687</v>
       </c>
       <c r="E13">
-        <v>19.0000800536657</v>
+        <v>17.0329253045931</v>
       </c>
       <c r="F13">
-        <v>4.69143904494591</v>
+        <v>4.16823235155631</v>
       </c>
       <c r="G13">
-        <v>7.89792435298554</v>
+        <v>7.02312644010792</v>
       </c>
       <c r="H13">
-        <v>2.44598139785018</v>
+        <v>2.17420262017469</v>
       </c>
       <c r="I13">
-        <v>1.44296609613273</v>
+        <v>1.28146461271699</v>
       </c>
       <c r="J13">
-        <v>6.13430417985777</v>
+        <v>5.44836373094422</v>
       </c>
       <c r="K13">
-        <v>5.79906981653213</v>
+        <v>5.14582416673913</v>
       </c>
       <c r="L13">
-        <v>33.9660480069222</v>
+        <v>29.5946094520534</v>
       </c>
       <c r="M13">
-        <v>4.16478070375181</v>
+        <v>3.85071203921816</v>
       </c>
       <c r="N13">
-        <v>9.704577198916949</v>
+        <v>8.494638649479789</v>
       </c>
       <c r="O13">
-        <v>640.361522269006</v>
+        <v>567.165040856579</v>
       </c>
       <c r="P13">
-        <v>54.5684240674172</v>
+        <v>48.9712127757587</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>1204.9782947889</v>
+        <v>1971.29270339939</v>
       </c>
       <c r="C14">
-        <v>127.45140540678</v>
+        <v>112.899924446925</v>
       </c>
       <c r="D14">
-        <v>19.4773641075749</v>
+        <v>17.4941005597807</v>
       </c>
       <c r="E14">
-        <v>65.3831537901247</v>
+        <v>59.6987482936858</v>
       </c>
       <c r="F14">
-        <v>18.0044123500489</v>
+        <v>15.8880026111381</v>
       </c>
       <c r="G14">
-        <v>129.780157343184</v>
+        <v>115.494519632309</v>
       </c>
       <c r="H14">
-        <v>74.0326005697287</v>
+        <v>63.4653028036852</v>
       </c>
       <c r="I14">
-        <v>34.4853052055259</v>
+        <v>30.8921122384089</v>
       </c>
       <c r="J14">
-        <v>164.05431593075</v>
+        <v>146.559150069678</v>
       </c>
       <c r="K14">
-        <v>232.460878485766</v>
+        <v>207.07860858156</v>
       </c>
       <c r="L14">
-        <v>184.001269668361</v>
+        <v>163.863247644893</v>
       </c>
       <c r="M14">
-        <v>100.20454211772</v>
+        <v>88.9175710565212</v>
       </c>
       <c r="N14">
-        <v>115.392993607368</v>
+        <v>104.746104726595</v>
       </c>
       <c r="O14">
-        <v>6039.24940863258</v>
+        <v>5415.00831391523</v>
       </c>
       <c r="P14">
-        <v>43.8231463982863</v>
+        <v>39.675509028141</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>519.924654190241</v>
+        <v>992.860272156516</v>
       </c>
       <c r="C15">
-        <v>43.6314428622681</v>
+        <v>37.9416935638913</v>
       </c>
       <c r="D15">
-        <v>16.3923424690239</v>
+        <v>15.998138232467</v>
       </c>
       <c r="E15">
-        <v>61.1633099537804</v>
+        <v>54.0645090803953</v>
       </c>
       <c r="F15">
-        <v>13.7855084114471</v>
+        <v>12.0845406787737</v>
       </c>
       <c r="G15">
-        <v>54.8399326534745</v>
+        <v>47.2855853902226</v>
       </c>
       <c r="H15">
-        <v>57.7230013871784</v>
+        <v>48.934071436549</v>
       </c>
       <c r="I15">
-        <v>59.2695203874962</v>
+        <v>51.90535966685</v>
       </c>
       <c r="J15">
-        <v>227.9692157922</v>
+        <v>197.01794374536</v>
       </c>
       <c r="K15">
-        <v>112.964932618995</v>
+        <v>95.8130165510814</v>
       </c>
       <c r="L15">
-        <v>64.9256498846637</v>
+        <v>56.7367394570338</v>
       </c>
       <c r="M15">
-        <v>174.819752993423</v>
+        <v>149.765540755681</v>
       </c>
       <c r="N15">
-        <v>118.966619409572</v>
+        <v>103.248270468028</v>
       </c>
       <c r="O15">
-        <v>2693.67506447074</v>
+        <v>2358.1822481419</v>
       </c>
       <c r="P15">
-        <v>52.644348020534</v>
+        <v>50.2560924603734</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>176.110477985863</v>
+        <v>362.19170816721</v>
       </c>
       <c r="C16">
-        <v>79.2899361375742</v>
+        <v>71.5650568895484</v>
       </c>
       <c r="D16">
-        <v>20.3712101034826</v>
+        <v>17.5612072807025</v>
       </c>
       <c r="E16">
-        <v>23.3496015713208</v>
+        <v>21.5081003286447</v>
       </c>
       <c r="F16">
-        <v>5.68923966988906</v>
+        <v>5.19111011216535</v>
       </c>
       <c r="G16">
-        <v>18.6125692685257</v>
+        <v>16.8872583131778</v>
       </c>
       <c r="H16">
-        <v>19.4318817857226</v>
+        <v>17.6337591648986</v>
       </c>
       <c r="I16">
-        <v>10.5116164527226</v>
+        <v>9.506666060241139</v>
       </c>
       <c r="J16">
-        <v>49.1857960376858</v>
+        <v>46.2540669161249</v>
       </c>
       <c r="K16">
-        <v>66.46550125131991</v>
+        <v>59.5494897758669</v>
       </c>
       <c r="L16">
-        <v>36.0392806543456</v>
+        <v>32.7499111318525</v>
       </c>
       <c r="M16">
-        <v>16.8704721960257</v>
+        <v>15.3187669749652</v>
       </c>
       <c r="N16">
-        <v>35.1073260498768</v>
+        <v>31.6148593297894</v>
       </c>
       <c r="O16">
-        <v>1484.83494648419</v>
+        <v>1351.0033291772</v>
       </c>
       <c r="P16">
-        <v>118.638384811144</v>
+        <v>101.642953639879</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>213.031753718256</v>
+        <v>387.483846946522</v>
       </c>
       <c r="C17">
-        <v>25.2137474367729</v>
+        <v>22.776635237057</v>
       </c>
       <c r="D17">
-        <v>9.87433912981434</v>
+        <v>9.433247914805211</v>
       </c>
       <c r="E17">
-        <v>13.1239264800505</v>
+        <v>11.8422132280826</v>
       </c>
       <c r="F17">
-        <v>14.6918755608936</v>
+        <v>13.268460802405</v>
       </c>
       <c r="G17">
-        <v>15.1890561146004</v>
+        <v>13.7288797506614</v>
       </c>
       <c r="H17">
-        <v>7.57551157829514</v>
+        <v>6.80896929308464</v>
       </c>
       <c r="I17">
-        <v>9.24400499394612</v>
+        <v>8.32152344059001</v>
       </c>
       <c r="J17">
-        <v>21.0452685057826</v>
+        <v>18.0268611748713</v>
       </c>
       <c r="K17">
-        <v>28.5732905752131</v>
+        <v>25.7793172554081</v>
       </c>
       <c r="L17">
-        <v>18.1842776033302</v>
+        <v>16.3926108690178</v>
       </c>
       <c r="M17">
-        <v>93.1453701005366</v>
+        <v>84.1102017562163</v>
       </c>
       <c r="N17">
-        <v>15.3491326160388</v>
+        <v>13.8871603701071</v>
       </c>
       <c r="O17">
-        <v>1388.80243210502</v>
+        <v>1249.74811429193</v>
       </c>
       <c r="P17">
-        <v>60.5435292516166</v>
+        <v>51.9793785054893</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>455.362974658609</v>
+        <v>923.033541586263</v>
       </c>
       <c r="C18">
-        <v>41.071084625925</v>
+        <v>33.7952573056416</v>
       </c>
       <c r="D18">
-        <v>17.3165556174299</v>
+        <v>14.9916050856271</v>
       </c>
       <c r="E18">
-        <v>36.5420783330231</v>
+        <v>28.3083307683556</v>
       </c>
       <c r="F18">
-        <v>49.1573764266776</v>
+        <v>39.077073741503</v>
       </c>
       <c r="G18">
-        <v>42.2173252733584</v>
+        <v>33.955004577254</v>
       </c>
       <c r="H18">
-        <v>28.8891834860113</v>
+        <v>23.8117647033377</v>
       </c>
       <c r="I18">
-        <v>10.8801140818902</v>
+        <v>8.95959815277746</v>
       </c>
       <c r="J18">
-        <v>51.0991569584332</v>
+        <v>41.9659076674792</v>
       </c>
       <c r="K18">
-        <v>35.5462715501749</v>
+        <v>27.9842806720576</v>
       </c>
       <c r="L18">
-        <v>47.441306512587</v>
+        <v>40.2061664965735</v>
       </c>
       <c r="M18">
-        <v>73.21311963723871</v>
+        <v>60.295138546117</v>
       </c>
       <c r="N18">
-        <v>24.8393548731733</v>
+        <v>19.8857731059295</v>
       </c>
       <c r="O18">
-        <v>2043.39559562531</v>
+        <v>1668.14486956829</v>
       </c>
       <c r="P18">
-        <v>53.6644397429168</v>
+        <v>46.3356254645123</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>555.832844859284</v>
+        <v>980.779979325138</v>
       </c>
       <c r="C19">
-        <v>30.5098291324249</v>
+        <v>26.570302602156</v>
       </c>
       <c r="D19">
-        <v>13.6805015238682</v>
+        <v>11.4548181156008</v>
       </c>
       <c r="E19">
-        <v>25.1489237822576</v>
+        <v>21.1050703804492</v>
       </c>
       <c r="F19">
-        <v>98.36072958863571</v>
+        <v>81.7516177966194</v>
       </c>
       <c r="G19">
-        <v>46.3027061700957</v>
+        <v>38.8951027641668</v>
       </c>
       <c r="H19">
-        <v>8.01775288420332</v>
+        <v>6.7186410257417</v>
       </c>
       <c r="I19">
-        <v>13.3281563283413</v>
+        <v>11.1598197335161</v>
       </c>
       <c r="J19">
-        <v>15.6221029896669</v>
+        <v>14.5054566736424</v>
       </c>
       <c r="K19">
-        <v>23.3152205115448</v>
+        <v>19.537058421907</v>
       </c>
       <c r="L19">
-        <v>6.99889244440584</v>
+        <v>5.03616205705122</v>
       </c>
       <c r="M19">
-        <v>35.2001936908534</v>
+        <v>30.3374839138118</v>
       </c>
       <c r="N19">
-        <v>5.42119567989451</v>
+        <v>4.543614449519</v>
       </c>
       <c r="O19">
-        <v>2201.33383919128</v>
+        <v>1834.9826072641</v>
       </c>
       <c r="P19">
-        <v>50.0595726839101</v>
+        <v>42.0591118349059</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>116.49952967862</v>
+        <v>234.783272950092</v>
       </c>
       <c r="C20">
-        <v>10.9800679806547</v>
+        <v>9.220841982283289</v>
       </c>
       <c r="D20">
-        <v>16.9743088928657</v>
+        <v>14.3880500300814</v>
       </c>
       <c r="E20">
-        <v>41.762860929554</v>
+        <v>35.4965093981306</v>
       </c>
       <c r="F20">
-        <v>0.119975507072791</v>
+        <v>0.103466938589017</v>
       </c>
       <c r="G20">
-        <v>1.19476949705151</v>
+        <v>1.03219585994659</v>
       </c>
       <c r="H20">
-        <v>4.80302975609016</v>
+        <v>4.14914718587787</v>
       </c>
       <c r="I20">
-        <v>0.480961637546558</v>
+        <v>0.415292405904027</v>
       </c>
       <c r="J20">
-        <v>6.2106284989596</v>
+        <v>5.38559470502611</v>
       </c>
       <c r="K20">
-        <v>5.8023435167594</v>
+        <v>5.40355552640318</v>
       </c>
       <c r="L20">
-        <v>10.9535912983691</v>
+        <v>9.45527999164813</v>
       </c>
       <c r="M20">
-        <v>28.0672758920114</v>
+        <v>24.1315626737199</v>
       </c>
       <c r="N20">
-        <v>7.17348001413367</v>
+        <v>5.91961282833641</v>
       </c>
       <c r="O20">
-        <v>711.687357067683</v>
+        <v>616.71210771816</v>
       </c>
       <c r="P20">
-        <v>25.6180724463789</v>
+        <v>21.6496669409814</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>411.06797229926</v>
+        <v>810.45342496323</v>
       </c>
       <c r="C21">
-        <v>27.1001133855535</v>
+        <v>24.0176862364864</v>
       </c>
       <c r="D21">
-        <v>8.355144984746291</v>
+        <v>7.35256731333832</v>
       </c>
       <c r="E21">
-        <v>25.0641648117725</v>
+        <v>21.5166336590731</v>
       </c>
       <c r="F21">
-        <v>2.48362706928473</v>
+        <v>2.20793209069555</v>
       </c>
       <c r="G21">
-        <v>21.1202379486016</v>
+        <v>18.567953292484</v>
       </c>
       <c r="H21">
-        <v>9.115569887403471</v>
+        <v>7.98624600729717</v>
       </c>
       <c r="I21">
-        <v>10.0220302846203</v>
+        <v>8.842529979700631</v>
       </c>
       <c r="J21">
-        <v>17.6728462661097</v>
+        <v>15.5687537449762</v>
       </c>
       <c r="K21">
-        <v>24.8380994284778</v>
+        <v>21.8232421733026</v>
       </c>
       <c r="L21">
-        <v>27.9196233264718</v>
+        <v>24.5438779297224</v>
       </c>
       <c r="M21">
-        <v>33.4634844681213</v>
+        <v>29.4530998557739</v>
       </c>
       <c r="N21">
-        <v>21.3863468150961</v>
+        <v>18.7787117603791</v>
       </c>
       <c r="O21">
-        <v>3019.37616701176</v>
+        <v>2651.80475812972</v>
       </c>
       <c r="P21">
-        <v>28.0971895922973</v>
+        <v>24.0461531715074</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>519.910413322439</v>
+        <v>992.114587936221</v>
       </c>
       <c r="C22">
-        <v>18.4498605586391</v>
+        <v>16.2135603906396</v>
       </c>
       <c r="D22">
-        <v>32.2007519388062</v>
+        <v>27.4737939561003</v>
       </c>
       <c r="E22">
-        <v>33.6121460170783</v>
+        <v>29.5910792164813</v>
       </c>
       <c r="F22">
-        <v>1.48955256417667</v>
+        <v>1.31256443419074</v>
       </c>
       <c r="G22">
-        <v>33.9001584413092</v>
+        <v>29.8753307132143</v>
       </c>
       <c r="H22">
-        <v>34.3957143785155</v>
+        <v>29.4256657244781</v>
       </c>
       <c r="I22">
-        <v>10.8841081644713</v>
+        <v>9.641176564988269</v>
       </c>
       <c r="J22">
-        <v>62.8947697896341</v>
+        <v>54.7028944979025</v>
       </c>
       <c r="K22">
-        <v>53.8373901165969</v>
+        <v>46.7208413311448</v>
       </c>
       <c r="L22">
-        <v>134.036014388278</v>
+        <v>116.482236482445</v>
       </c>
       <c r="M22">
-        <v>25.3663520572914</v>
+        <v>22.3765933425407</v>
       </c>
       <c r="N22">
-        <v>102.827275617465</v>
+        <v>91.7081359453295</v>
       </c>
       <c r="O22">
-        <v>3312.64677357882</v>
+        <v>2910.84206027998</v>
       </c>
       <c r="P22">
-        <v>20.3554621532079</v>
+        <v>17.9862596615926</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>972.234818754308</v>
+        <v>1760.96615722611</v>
       </c>
       <c r="C23">
-        <v>55.7287357540315</v>
+        <v>50.2482364647229</v>
       </c>
       <c r="D23">
-        <v>19.8625575000795</v>
+        <v>17.3105124356714</v>
       </c>
       <c r="E23">
-        <v>44.6045138499537</v>
+        <v>40.0141961876539</v>
       </c>
       <c r="F23">
-        <v>0.795260262828726</v>
+        <v>0.575131232063141</v>
       </c>
       <c r="G23">
-        <v>87.6925562272485</v>
+        <v>76.4243328364748</v>
       </c>
       <c r="H23">
-        <v>76.8934785675427</v>
+        <v>67.4890497312492</v>
       </c>
       <c r="I23">
-        <v>34.62209670989</v>
+        <v>30.1707911401076</v>
       </c>
       <c r="J23">
-        <v>190.116406809055</v>
+        <v>165.623439684678</v>
       </c>
       <c r="K23">
-        <v>169.564889091614</v>
+        <v>148.574412502361</v>
       </c>
       <c r="L23">
-        <v>56.7240931241141</v>
+        <v>49.1229537195845</v>
       </c>
       <c r="M23">
-        <v>707.125161666731</v>
+        <v>610.997825298508</v>
       </c>
       <c r="N23">
-        <v>105.353684719984</v>
+        <v>91.51248296257</v>
       </c>
       <c r="O23">
-        <v>4410.97179538454</v>
+        <v>3829.27114380265</v>
       </c>
       <c r="P23">
-        <v>52.9317944792338</v>
+        <v>46.7608835136819</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>319.466172153222</v>
+        <v>581.878497963069</v>
       </c>
       <c r="C24">
-        <v>54.2969064375662</v>
+        <v>50.9113631234817</v>
       </c>
       <c r="D24">
-        <v>12.5815016845819</v>
+        <v>11.5376784378932</v>
       </c>
       <c r="E24">
-        <v>49.8516248643997</v>
+        <v>44.9612418933595</v>
       </c>
       <c r="F24">
-        <v>22.9714900099547</v>
+        <v>21.0867072489466</v>
       </c>
       <c r="G24">
-        <v>27.3781045024716</v>
+        <v>25.0611154533461</v>
       </c>
       <c r="H24">
-        <v>19.4312171489343</v>
+        <v>17.8868285072789</v>
       </c>
       <c r="I24">
-        <v>13.7220958068037</v>
+        <v>12.5462981491391</v>
       </c>
       <c r="J24">
-        <v>46.9320778477669</v>
+        <v>42.6879956193149</v>
       </c>
       <c r="K24">
-        <v>103.415151343693</v>
+        <v>95.46706694417171</v>
       </c>
       <c r="L24">
-        <v>70.495250065438</v>
+        <v>64.55818995425329</v>
       </c>
       <c r="M24">
-        <v>15.5452651160873</v>
+        <v>14.277414367686</v>
       </c>
       <c r="N24">
-        <v>88.9403672858721</v>
+        <v>81.1211167036556</v>
       </c>
       <c r="O24">
-        <v>2456.64963272169</v>
+        <v>2247.11316437908</v>
       </c>
       <c r="P24">
-        <v>109.126539327176</v>
+        <v>99.497769828117</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>311.804218972939</v>
+        <v>616.809066237038</v>
       </c>
       <c r="C25">
-        <v>55.1465156432863</v>
+        <v>46.5393637086772</v>
       </c>
       <c r="D25">
-        <v>25.9060669794713</v>
+        <v>20.3286969441148</v>
       </c>
       <c r="E25">
-        <v>55.6225402605445</v>
+        <v>46.9450318112879</v>
       </c>
       <c r="F25">
-        <v>35.8435648048512</v>
+        <v>29.816674027133</v>
       </c>
       <c r="G25">
-        <v>12.298334192137</v>
+        <v>9.911710521696961</v>
       </c>
       <c r="H25">
-        <v>20.0268730196051</v>
+        <v>16.6573924217731</v>
       </c>
       <c r="I25">
-        <v>6.73765810229056</v>
+        <v>5.61023324870534</v>
       </c>
       <c r="J25">
-        <v>23.3488757015756</v>
+        <v>18.2259648324071</v>
       </c>
       <c r="K25">
-        <v>28.8890041504617</v>
+        <v>24.6705890900827</v>
       </c>
       <c r="L25">
-        <v>33.4953995961262</v>
+        <v>27.2997288805086</v>
       </c>
       <c r="M25">
-        <v>46.9630340131302</v>
+        <v>38.4675320808847</v>
       </c>
       <c r="N25">
-        <v>36.2709992341845</v>
+        <v>31.903522270075</v>
       </c>
       <c r="O25">
-        <v>1338.90159690237</v>
+        <v>1109.05485962562</v>
       </c>
       <c r="P25">
-        <v>53.9414869642805</v>
+        <v>42.9498705546267</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>435.336604806844</v>
+        <v>826.7241786149961</v>
       </c>
       <c r="C26">
-        <v>75.7223491741609</v>
+        <v>67.3813817863777</v>
       </c>
       <c r="D26">
-        <v>13.8542792965263</v>
+        <v>11.8508297976841</v>
       </c>
       <c r="E26">
-        <v>51.9712413847649</v>
+        <v>44.7215156786573</v>
       </c>
       <c r="F26">
-        <v>9.376977892079511</v>
+        <v>7.73502062936026</v>
       </c>
       <c r="G26">
-        <v>55.1824228768545</v>
+        <v>48.7957220828148</v>
       </c>
       <c r="H26">
-        <v>19.564148019722</v>
+        <v>17.2783820315629</v>
       </c>
       <c r="I26">
-        <v>18.1823176755029</v>
+        <v>16.1060712507474</v>
       </c>
       <c r="J26">
-        <v>63.2842094852199</v>
+        <v>55.5671370248039</v>
       </c>
       <c r="K26">
-        <v>53.843082905465</v>
+        <v>47.1700497445446</v>
       </c>
       <c r="L26">
-        <v>36.9219803026604</v>
+        <v>32.7188278231901</v>
       </c>
       <c r="M26">
-        <v>82.0414656421443</v>
+        <v>72.1937670052471</v>
       </c>
       <c r="N26">
-        <v>35.8325627083498</v>
+        <v>31.7689467018392</v>
       </c>
       <c r="O26">
-        <v>2875.89053197384</v>
+        <v>2546.63040020293</v>
       </c>
       <c r="P26">
-        <v>56.5115271350091</v>
+        <v>57.0115018978797</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>92.5702207238876</v>
+        <v>179.981994320807</v>
       </c>
       <c r="C27">
-        <v>5.18252396123561</v>
+        <v>4.48062601295955</v>
       </c>
       <c r="D27">
-        <v>1.22528764581838</v>
+        <v>1.06826046941039</v>
       </c>
       <c r="E27">
-        <v>17.1983314922354</v>
+        <v>15.0074929919946</v>
       </c>
       <c r="F27">
-        <v>8.67467779704192</v>
+        <v>7.38156851748293</v>
       </c>
       <c r="G27">
-        <v>0.464359532540062</v>
+        <v>0.40512438989433</v>
       </c>
       <c r="H27">
-        <v>0.177060737604067</v>
+        <v>0.154517784658884</v>
       </c>
       <c r="I27">
-        <v>3.65197300261109</v>
+        <v>3.17006888614624</v>
       </c>
       <c r="J27">
-        <v>4.71434209278099</v>
+        <v>3.92318210676386</v>
       </c>
       <c r="K27">
-        <v>2.58370043736586</v>
+        <v>2.20733355564002</v>
       </c>
       <c r="L27">
-        <v>2.71206238254795</v>
+        <v>2.36946021873324</v>
       </c>
       <c r="M27">
-        <v>1.66441316648773</v>
+        <v>1.43477876149557</v>
       </c>
       <c r="N27">
-        <v>6.81598304242773</v>
+        <v>5.94527975744325</v>
       </c>
       <c r="O27">
-        <v>540.581353067107</v>
+        <v>466.994874421816</v>
       </c>
       <c r="P27">
-        <v>57.4562923379232</v>
+        <v>51.16356787404</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>106.752697224738</v>
+        <v>207.327793895054</v>
       </c>
       <c r="C28">
-        <v>35.5408693126753</v>
+        <v>32.3249546409035</v>
       </c>
       <c r="D28">
-        <v>2.9814988349111</v>
+        <v>2.72478668654799</v>
       </c>
       <c r="E28">
-        <v>6.89277442821139</v>
+        <v>6.30235025434242</v>
       </c>
       <c r="F28">
-        <v>3.4246584294501</v>
+        <v>3.25682147086124</v>
       </c>
       <c r="G28">
-        <v>8.36762516334823</v>
+        <v>7.65041790298909</v>
       </c>
       <c r="H28">
-        <v>10.7056438631521</v>
+        <v>9.780061054576491</v>
       </c>
       <c r="I28">
-        <v>4.45759662601335</v>
+        <v>3.67394405479579</v>
       </c>
       <c r="J28">
-        <v>19.1632582068636</v>
+        <v>17.5085496211268</v>
       </c>
       <c r="K28">
-        <v>19.1850638390719</v>
+        <v>17.5267111418607</v>
       </c>
       <c r="L28">
-        <v>15.942722720677</v>
+        <v>14.1084138030778</v>
       </c>
       <c r="M28">
-        <v>8.30631932065044</v>
+        <v>7.59063956300943</v>
       </c>
       <c r="N28">
-        <v>12.9814966399828</v>
+        <v>11.8642877578129</v>
       </c>
       <c r="O28">
-        <v>930.616143147133</v>
+        <v>852.521127347282</v>
       </c>
       <c r="P28">
-        <v>93.6889838621623</v>
+        <v>84.6674080109113</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>204.105071391083</v>
+        <v>362.905400154836</v>
       </c>
       <c r="C29">
-        <v>4.7217787716999</v>
+        <v>4.16145192819546</v>
       </c>
       <c r="D29">
-        <v>4.40437070410752</v>
+        <v>3.86892290703314</v>
       </c>
       <c r="E29">
-        <v>4.31024901266099</v>
+        <v>3.80936409113088</v>
       </c>
       <c r="F29">
-        <v>19.7214761647207</v>
+        <v>17.1966889484836</v>
       </c>
       <c r="G29">
-        <v>4.15910587655104</v>
+        <v>3.66106813725567</v>
       </c>
       <c r="H29">
-        <v>2.96396159510584</v>
+        <v>2.60175668599188</v>
       </c>
       <c r="I29">
-        <v>6.77990479048713</v>
+        <v>5.95969312253356</v>
       </c>
       <c r="J29">
-        <v>5.51029966250392</v>
+        <v>4.84940216109422</v>
       </c>
       <c r="K29">
-        <v>4.76481657034602</v>
+        <v>4.34158119724053</v>
       </c>
       <c r="L29">
-        <v>2.99368597666372</v>
+        <v>2.46198488679088</v>
       </c>
       <c r="M29">
-        <v>2.11767889316092</v>
+        <v>1.86393940318798</v>
       </c>
       <c r="N29">
-        <v>12.6915191479593</v>
+        <v>11.037731606842</v>
       </c>
       <c r="O29">
-        <v>1246.31880322457</v>
+        <v>1096.94782987294</v>
       </c>
       <c r="P29">
-        <v>3.80942385532134</v>
+        <v>3.70353854097003</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>95.64048030188739</v>
+        <v>183.556571518388</v>
       </c>
       <c r="C30">
-        <v>4.84599579217316</v>
+        <v>4.21757623094208</v>
       </c>
       <c r="D30">
-        <v>7.8163763981606</v>
+        <v>7.42937396181701</v>
       </c>
       <c r="E30">
-        <v>8.9724376054985</v>
+        <v>8.29883823616211</v>
       </c>
       <c r="F30">
-        <v>0.398659310134566</v>
+        <v>0.356648870147114</v>
       </c>
       <c r="G30">
-        <v>5.18694691495576</v>
+        <v>4.74381474128009</v>
       </c>
       <c r="H30">
-        <v>9.26523318256128</v>
+        <v>8.10745396606101</v>
       </c>
       <c r="I30">
-        <v>4.1070221259016</v>
+        <v>3.67343194575428</v>
       </c>
       <c r="J30">
-        <v>17.8500533121369</v>
+        <v>15.6553903828906</v>
       </c>
       <c r="K30">
-        <v>22.0294159470704</v>
+        <v>19.7978518946986</v>
       </c>
       <c r="L30">
-        <v>51.0398145998379</v>
+        <v>46.4163944841359</v>
       </c>
       <c r="M30">
-        <v>12.7367424567597</v>
+        <v>11.4475844424898</v>
       </c>
       <c r="N30">
-        <v>18.9651537252677</v>
+        <v>16.7798416059551</v>
       </c>
       <c r="O30">
-        <v>695.232747906024</v>
+        <v>623.850749150188</v>
       </c>
       <c r="P30">
-        <v>8.765802454289039</v>
+        <v>8.37490777235535</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>918.2906036810761</v>
+        <v>1485.61645842103</v>
       </c>
       <c r="C31">
-        <v>52.2366421642735</v>
+        <v>47.5241241566698</v>
       </c>
       <c r="D31">
-        <v>53.5927421160475</v>
+        <v>48.743165141301</v>
       </c>
       <c r="E31">
-        <v>26.8138419954127</v>
+        <v>24.1415685703344</v>
       </c>
       <c r="F31">
-        <v>10.8640488375505</v>
+        <v>9.56454004742629</v>
       </c>
       <c r="G31">
-        <v>172.416391677726</v>
+        <v>152.23786738083</v>
       </c>
       <c r="H31">
-        <v>33.1164724419065</v>
+        <v>27.6393430156883</v>
       </c>
       <c r="I31">
-        <v>32.2997126986462</v>
+        <v>26.340167055269</v>
       </c>
       <c r="J31">
-        <v>47.8838692228294</v>
+        <v>41.3501598269722</v>
       </c>
       <c r="K31">
-        <v>47.6990170908116</v>
+        <v>42.5028347206353</v>
       </c>
       <c r="L31">
-        <v>79.3077754983088</v>
+        <v>70.1938903751863</v>
       </c>
       <c r="M31">
-        <v>21.9772377774022</v>
+        <v>19.262699593361</v>
       </c>
       <c r="N31">
-        <v>68.8278855736352</v>
+        <v>60.5278620289793</v>
       </c>
       <c r="O31">
-        <v>4346.29126850399</v>
+        <v>3853.87977992037</v>
       </c>
       <c r="P31">
-        <v>6.55605097002408</v>
+        <v>8.00230529701734</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>218.487695407098</v>
+        <v>377.119339341678</v>
       </c>
       <c r="C32">
-        <v>7.05102054903023</v>
+        <v>6.38930262207159</v>
       </c>
       <c r="D32">
-        <v>3.27510109724733</v>
+        <v>3.05180610457923</v>
       </c>
       <c r="E32">
-        <v>3.67754699724495</v>
+        <v>3.12596041746631</v>
       </c>
       <c r="F32">
-        <v>43.4220003490638</v>
+        <v>37.247921715964</v>
       </c>
       <c r="G32">
-        <v>1.5397458233748</v>
+        <v>1.30331116894262</v>
       </c>
       <c r="H32">
-        <v>2.05412472373941</v>
+        <v>1.74150449825127</v>
       </c>
       <c r="I32">
-        <v>8.225196439853409</v>
+        <v>6.78941575851328</v>
       </c>
       <c r="J32">
-        <v>5.21189938516693</v>
+        <v>4.39360388670599</v>
       </c>
       <c r="K32">
-        <v>7.62055212210135</v>
+        <v>6.48625766902001</v>
       </c>
       <c r="L32">
-        <v>15.6680090382796</v>
+        <v>13.9018319239157</v>
       </c>
       <c r="M32">
-        <v>3.72424338940666</v>
+        <v>3.16237241466937</v>
       </c>
       <c r="N32">
-        <v>13.3371568961279</v>
+        <v>11.7954970508244</v>
       </c>
       <c r="O32">
-        <v>954.130670898988</v>
+        <v>817.339228405797</v>
       </c>
       <c r="P32">
-        <v>29.4086074475508</v>
+        <v>23.1197001202366</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>2305.95731829231</v>
+        <v>3900.42902255445</v>
       </c>
       <c r="C33">
-        <v>95.90133307794829</v>
+        <v>80.75708309846981</v>
       </c>
       <c r="D33">
-        <v>138.744937410383</v>
+        <v>120.819534522952</v>
       </c>
       <c r="E33">
-        <v>50.6296555024241</v>
+        <v>43.3573070646682</v>
       </c>
       <c r="F33">
-        <v>10.0572022278591</v>
+        <v>8.61082445646475</v>
       </c>
       <c r="G33">
-        <v>74.1923916718635</v>
+        <v>64.3911000209991</v>
       </c>
       <c r="H33">
-        <v>49.5690326887554</v>
+        <v>40.7922617316903</v>
       </c>
       <c r="I33">
-        <v>41.3156724279038</v>
+        <v>32.984305010366</v>
       </c>
       <c r="J33">
-        <v>119.053666767069</v>
+        <v>98.7156213222974</v>
       </c>
       <c r="K33">
-        <v>136.581098230038</v>
+        <v>117.809671958642</v>
       </c>
       <c r="L33">
-        <v>179.760738089332</v>
+        <v>151.036560032124</v>
       </c>
       <c r="M33">
-        <v>103.99009971932</v>
+        <v>88.4928853672744</v>
       </c>
       <c r="N33">
-        <v>224.540472997205</v>
+        <v>190.60984346894</v>
       </c>
       <c r="O33">
-        <v>9552.882108506101</v>
+        <v>8151.68912246969</v>
       </c>
       <c r="P33">
-        <v>62.8515357507925</v>
+        <v>56.1714014505734</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>734.320085549365</v>
+        <v>1434.72408828577</v>
       </c>
       <c r="C34">
-        <v>95.62040039293051</v>
+        <v>81.1950069500957</v>
       </c>
       <c r="D34">
-        <v>261.113882830075</v>
+        <v>222.184277059497</v>
       </c>
       <c r="E34">
-        <v>67.3483737719843</v>
+        <v>58.0849089287906</v>
       </c>
       <c r="F34">
-        <v>6.58339882166958</v>
+        <v>5.62549439484205</v>
       </c>
       <c r="G34">
-        <v>79.1891386322575</v>
+        <v>66.8616476867514</v>
       </c>
       <c r="H34">
-        <v>61.778682170538</v>
+        <v>53.3462749341453</v>
       </c>
       <c r="I34">
-        <v>30.9212461136392</v>
+        <v>26.4942462612533</v>
       </c>
       <c r="J34">
-        <v>64.5282936284797</v>
+        <v>54.626470822917</v>
       </c>
       <c r="K34">
-        <v>102.147705230753</v>
+        <v>86.67879849731639</v>
       </c>
       <c r="L34">
-        <v>158.67169409437</v>
+        <v>135.619739270391</v>
       </c>
       <c r="M34">
-        <v>53.9778415232302</v>
+        <v>47.9937167283905</v>
       </c>
       <c r="N34">
-        <v>158.661529140601</v>
+        <v>136.750854122047</v>
       </c>
       <c r="O34">
-        <v>3734.22074390104</v>
+        <v>3213.36169591517</v>
       </c>
       <c r="P34">
-        <v>84.9341159928412</v>
+        <v>69.7300755743525</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>43.3902375988259</v>
+        <v>89.6137274579693</v>
       </c>
       <c r="C35">
-        <v>7.85970576423371</v>
+        <v>7.21810696809475</v>
       </c>
       <c r="D35">
-        <v>0.962744387231837</v>
+        <v>0.871784952442465</v>
       </c>
       <c r="E35">
-        <v>3.78253344403939</v>
+        <v>3.36114283359723</v>
       </c>
       <c r="F35">
-        <v>6.43620214397445</v>
+        <v>5.82686379260844</v>
       </c>
       <c r="G35">
-        <v>0.245247715802919</v>
+        <v>0.221719703431064</v>
       </c>
       <c r="H35">
-        <v>1.0348150522636</v>
+        <v>0.934521625934838</v>
       </c>
       <c r="I35">
-        <v>1.22644474889372</v>
+        <v>1.16249277220701</v>
       </c>
       <c r="J35">
-        <v>3.01721446768535</v>
+        <v>2.72862894500166</v>
       </c>
       <c r="K35">
-        <v>7.91096517457453</v>
+        <v>7.15451862517671</v>
       </c>
       <c r="L35">
-        <v>3.78107745835743</v>
+        <v>3.43150592249429</v>
       </c>
       <c r="M35">
-        <v>3.35963919214769</v>
+        <v>3.03662883043356</v>
       </c>
       <c r="N35">
-        <v>2.95804709329774</v>
+        <v>2.67566378088356</v>
       </c>
       <c r="O35">
-        <v>381.028660747946</v>
+        <v>343.711825211097</v>
       </c>
       <c r="P35">
-        <v>50.5686505962444</v>
+        <v>45.5614604907549</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>1047.33163748775</v>
+        <v>1983.54493138194</v>
       </c>
       <c r="C36">
-        <v>81.82080305011981</v>
+        <v>69.2870619014337</v>
       </c>
       <c r="D36">
-        <v>21.7251718354428</v>
+        <v>18.1253297681934</v>
       </c>
       <c r="E36">
-        <v>71.8573072464572</v>
+        <v>61.9209106234874</v>
       </c>
       <c r="F36">
-        <v>49.3182472945326</v>
+        <v>43.238624442195</v>
       </c>
       <c r="G36">
-        <v>124.901976096227</v>
+        <v>104.571553816602</v>
       </c>
       <c r="H36">
-        <v>135.222069147019</v>
+        <v>114.196080331739</v>
       </c>
       <c r="I36">
-        <v>54.9096168225305</v>
+        <v>47.4067307267737</v>
       </c>
       <c r="J36">
-        <v>253.429998923286</v>
+        <v>219.814013427871</v>
       </c>
       <c r="K36">
-        <v>197.698848675799</v>
+        <v>169.151034133589</v>
       </c>
       <c r="L36">
-        <v>126.34497143053</v>
+        <v>108.571930120498</v>
       </c>
       <c r="M36">
-        <v>266.725925936573</v>
+        <v>226.085774547854</v>
       </c>
       <c r="N36">
-        <v>108.333171299872</v>
+        <v>94.63651855239991</v>
       </c>
       <c r="O36">
-        <v>5390.78133360381</v>
+        <v>4673.1494210481</v>
       </c>
       <c r="P36">
-        <v>42.673627122042</v>
+        <v>39.0392682143131</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>331.548095990055</v>
+        <v>674.442303347848</v>
       </c>
       <c r="C37">
-        <v>26.0861132453163</v>
+        <v>22.7397810215958</v>
       </c>
       <c r="D37">
-        <v>13.6883647162254</v>
+        <v>11.1235491301836</v>
       </c>
       <c r="E37">
-        <v>17.0027860367747</v>
+        <v>14.2217876874634</v>
       </c>
       <c r="F37">
-        <v>52.2647352912743</v>
+        <v>44.0381542372846</v>
       </c>
       <c r="G37">
-        <v>9.352069048588501</v>
+        <v>7.78834582284468</v>
       </c>
       <c r="H37">
-        <v>29.0236929924588</v>
+        <v>24.26980149569</v>
       </c>
       <c r="I37">
-        <v>18.1050152316454</v>
+        <v>15.1654395185938</v>
       </c>
       <c r="J37">
-        <v>34.072059228103</v>
+        <v>27.1285837620679</v>
       </c>
       <c r="K37">
-        <v>54.6521988133772</v>
+        <v>44.655903712709</v>
       </c>
       <c r="L37">
-        <v>34.4458382499958</v>
+        <v>29.7098646952704</v>
       </c>
       <c r="M37">
-        <v>35.4862923861766</v>
+        <v>29.307293142526</v>
       </c>
       <c r="N37">
-        <v>19.2221246344514</v>
+        <v>15.782678387489</v>
       </c>
       <c r="O37">
-        <v>1634.88748751131</v>
+        <v>1358.27686141648</v>
       </c>
       <c r="P37">
-        <v>61.5916697761298</v>
+        <v>52.8868985046</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>374.420567657616</v>
+        <v>640.791396846585</v>
       </c>
       <c r="C38">
-        <v>31.0866463839243</v>
+        <v>26.4833670212631</v>
       </c>
       <c r="D38">
-        <v>16.4722308925581</v>
+        <v>14.4525598198654</v>
       </c>
       <c r="E38">
-        <v>54.3511870925617</v>
+        <v>47.7730011435684</v>
       </c>
       <c r="F38">
-        <v>4.46306382026715</v>
+        <v>3.90252244968809</v>
       </c>
       <c r="G38">
-        <v>7.57428337924975</v>
+        <v>6.6420494212783</v>
       </c>
       <c r="H38">
-        <v>9.21185195439883</v>
+        <v>8.06002045389088</v>
       </c>
       <c r="I38">
-        <v>4.12800582744505</v>
+        <v>3.61874446231471</v>
       </c>
       <c r="J38">
-        <v>43.6497447202575</v>
+        <v>37.9673823546835</v>
       </c>
       <c r="K38">
-        <v>20.233836749193</v>
+        <v>17.1616936617876</v>
       </c>
       <c r="L38">
-        <v>95.54974121379119</v>
+        <v>82.8628532331666</v>
       </c>
       <c r="M38">
-        <v>28.6442879434846</v>
+        <v>24.7173752363175</v>
       </c>
       <c r="N38">
-        <v>27.3815080090036</v>
+        <v>23.3307404829377</v>
       </c>
       <c r="O38">
-        <v>1669.99943084402</v>
+        <v>1459.59654375312</v>
       </c>
       <c r="P38">
-        <v>80.032652761126</v>
+        <v>69.9920257541196</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>1279.36383849124</v>
+        <v>2239.1225145135</v>
       </c>
       <c r="C39">
-        <v>149.233953193482</v>
+        <v>130.838743922228</v>
       </c>
       <c r="D39">
-        <v>77.9680761305514</v>
+        <v>66.41717619609049</v>
       </c>
       <c r="E39">
-        <v>95.9056319617018</v>
+        <v>83.4976132227835</v>
       </c>
       <c r="F39">
-        <v>31.1415753465571</v>
+        <v>26.5410033012459</v>
       </c>
       <c r="G39">
-        <v>149.534165507526</v>
+        <v>129.911753710759</v>
       </c>
       <c r="H39">
-        <v>49.1261097076174</v>
+        <v>42.9466045381089</v>
       </c>
       <c r="I39">
-        <v>60.4991769622815</v>
+        <v>53.3181707483327</v>
       </c>
       <c r="J39">
-        <v>189.061154394064</v>
+        <v>165.464545402208</v>
       </c>
       <c r="K39">
-        <v>164.283332112757</v>
+        <v>143.709132455682</v>
       </c>
       <c r="L39">
-        <v>146.82031615166</v>
+        <v>123.886695760508</v>
       </c>
       <c r="M39">
-        <v>84.6367889755319</v>
+        <v>74.4954916178614</v>
       </c>
       <c r="N39">
-        <v>135.920415435053</v>
+        <v>118.485368167231</v>
       </c>
       <c r="O39">
-        <v>6033.48655467094</v>
+        <v>5256.69143096319</v>
       </c>
       <c r="P39">
-        <v>61.113008329966</v>
+        <v>52.7085856152123</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>101.071321912809</v>
+        <v>197.75194957397</v>
       </c>
       <c r="C40">
-        <v>5.16543695883692</v>
+        <v>4.35918986425179</v>
       </c>
       <c r="D40">
-        <v>14.1211223877201</v>
+        <v>12.3560424188164</v>
       </c>
       <c r="E40">
-        <v>3.9515242222028</v>
+        <v>3.33710858008393</v>
       </c>
       <c r="F40">
-        <v>1.0652994832716</v>
+        <v>0.927049704784668</v>
       </c>
       <c r="G40">
-        <v>8.51592535876957</v>
+        <v>7.41004618723102</v>
       </c>
       <c r="H40">
-        <v>11.1920455998129</v>
+        <v>9.73876363624049</v>
       </c>
       <c r="I40">
-        <v>2.76574222948612</v>
+        <v>2.38588471026732</v>
       </c>
       <c r="J40">
-        <v>16.2541430244079</v>
+        <v>13.8807162674631</v>
       </c>
       <c r="K40">
-        <v>11.9343191308347</v>
+        <v>10.5135094337908</v>
       </c>
       <c r="L40">
-        <v>17.8518861405521</v>
+        <v>15.5113337513309</v>
       </c>
       <c r="M40">
-        <v>9.44459327393734</v>
+        <v>7.98282227823258</v>
       </c>
       <c r="N40">
-        <v>36.8698569255081</v>
+        <v>31.8641069974655</v>
       </c>
       <c r="O40">
-        <v>603.589711778858</v>
+        <v>525.968663326497</v>
       </c>
       <c r="P40">
-        <v>1.51069674772677</v>
+        <v>1.3140617325722</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>344.389203036359</v>
+        <v>771.350136352857</v>
       </c>
       <c r="C41">
-        <v>14.2055929990292</v>
+        <v>11.3489438097609</v>
       </c>
       <c r="D41">
-        <v>120.46273328282</v>
+        <v>100.647252140508</v>
       </c>
       <c r="E41">
-        <v>50.7301488822691</v>
+        <v>41.9682464006756</v>
       </c>
       <c r="F41">
-        <v>3.1511077958629</v>
+        <v>2.59854608835919</v>
       </c>
       <c r="G41">
-        <v>58.0696190836849</v>
+        <v>46.8748651053442</v>
       </c>
       <c r="H41">
-        <v>51.1322264255738</v>
+        <v>42.3959386509734</v>
       </c>
       <c r="I41">
-        <v>10.9297758194623</v>
+        <v>8.75459583561247</v>
       </c>
       <c r="J41">
-        <v>72.1754450576622</v>
+        <v>59.8266020134535</v>
       </c>
       <c r="K41">
-        <v>68.0407866171456</v>
+        <v>56.8187501039104</v>
       </c>
       <c r="L41">
-        <v>35.8612177469602</v>
+        <v>29.6669593708451</v>
       </c>
       <c r="M41">
-        <v>46.2375995126334</v>
+        <v>38.2990563097565</v>
       </c>
       <c r="N41">
-        <v>33.8583092131631</v>
+        <v>26.9693987244619</v>
       </c>
       <c r="O41">
-        <v>1871.50069668302</v>
+        <v>1547.27838969396</v>
       </c>
       <c r="P41">
-        <v>25.3729810632645</v>
+        <v>21.1547583009559</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>51.1855642929974</v>
+        <v>108.772554007519</v>
       </c>
       <c r="C42">
-        <v>9.901350647707901</v>
+        <v>8.810326854462801</v>
       </c>
       <c r="D42">
-        <v>1.52305398894949</v>
+        <v>1.36858139875725</v>
       </c>
       <c r="E42">
-        <v>7.56729896319586</v>
+        <v>6.93216650925812</v>
       </c>
       <c r="F42">
-        <v>2.95947113050388</v>
+        <v>2.67591864783301</v>
       </c>
       <c r="G42">
-        <v>1.36398783029971</v>
+        <v>1.14511419353427</v>
       </c>
       <c r="H42">
-        <v>2.65170210055113</v>
+        <v>2.39264268006403</v>
       </c>
       <c r="I42">
-        <v>1.17287954867907</v>
+        <v>1.06547999272034</v>
       </c>
       <c r="J42">
-        <v>5.40641847507424</v>
+        <v>4.81727637456767</v>
       </c>
       <c r="K42">
-        <v>10.1195927118021</v>
+        <v>8.863109268806991</v>
       </c>
       <c r="L42">
-        <v>10.8992974591652</v>
+        <v>9.69861750125904</v>
       </c>
       <c r="M42">
-        <v>4.82163140872067</v>
+        <v>4.44170323036271</v>
       </c>
       <c r="N42">
-        <v>10.4477878233156</v>
+        <v>9.122591955387939</v>
       </c>
       <c r="O42">
-        <v>476.057806224622</v>
+        <v>430.675199145248</v>
       </c>
       <c r="P42">
-        <v>53.982968318913</v>
+        <v>49.1197862999425</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>616.993610632207</v>
+        <v>1193.90876323364</v>
       </c>
       <c r="C43">
-        <v>47.3169125407311</v>
+        <v>38.5123003486788</v>
       </c>
       <c r="D43">
-        <v>61.9085470022448</v>
+        <v>50.2265125698445</v>
       </c>
       <c r="E43">
-        <v>45.436310514368</v>
+        <v>37.60170156207</v>
       </c>
       <c r="F43">
-        <v>12.1788390209327</v>
+        <v>10.1732637677866</v>
       </c>
       <c r="G43">
-        <v>37.095866408415</v>
+        <v>30.8168887905677</v>
       </c>
       <c r="H43">
-        <v>28.1145923910315</v>
+        <v>23.5349167667439</v>
       </c>
       <c r="I43">
-        <v>33.938981077514</v>
+        <v>28.4141484698088</v>
       </c>
       <c r="J43">
-        <v>62.4297629463941</v>
+        <v>51.7741858288658</v>
       </c>
       <c r="K43">
-        <v>87.052114600968</v>
+        <v>72.8587810128199</v>
       </c>
       <c r="L43">
-        <v>63.9960951736135</v>
+        <v>53.5646181619016</v>
       </c>
       <c r="M43">
-        <v>100.193101844219</v>
+        <v>82.0138779241715</v>
       </c>
       <c r="N43">
-        <v>84.478917489381</v>
+        <v>71.61882808926801</v>
       </c>
       <c r="O43">
-        <v>2705.10813909965</v>
+        <v>2256.01739388843</v>
       </c>
       <c r="P43">
-        <v>58.4056808012105</v>
+        <v>43.9315878901708</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>2284.63306881277</v>
+        <v>3602.12784324432</v>
       </c>
       <c r="C44">
-        <v>187.482846742084</v>
+        <v>167.511711688759</v>
       </c>
       <c r="D44">
-        <v>77.34203081063001</v>
+        <v>67.7702568238895</v>
       </c>
       <c r="E44">
-        <v>83.7364266808148</v>
+        <v>74.3154673859066</v>
       </c>
       <c r="F44">
-        <v>289.105893736106</v>
+        <v>253.16369289355</v>
       </c>
       <c r="G44">
-        <v>169.905023886925</v>
+        <v>150.222398831377</v>
       </c>
       <c r="H44">
-        <v>57.866699663527</v>
+        <v>49.920211906195</v>
       </c>
       <c r="I44">
-        <v>64.5947398136082</v>
+        <v>56.3276079929001</v>
       </c>
       <c r="J44">
-        <v>160.812066575192</v>
+        <v>143.6200694991</v>
       </c>
       <c r="K44">
-        <v>149.885546655433</v>
+        <v>134.410450477415</v>
       </c>
       <c r="L44">
-        <v>285.100511801211</v>
+        <v>254.039195087492</v>
       </c>
       <c r="M44">
-        <v>127.741225300425</v>
+        <v>112.431084304542</v>
       </c>
       <c r="N44">
-        <v>99.6477840809345</v>
+        <v>90.00048772522599</v>
       </c>
       <c r="O44">
-        <v>9551.280849024521</v>
+        <v>8466.106420876669</v>
       </c>
       <c r="P44">
-        <v>286.147495303786</v>
+        <v>253.614353522155</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>243.846197575914</v>
+        <v>354.715112962502</v>
       </c>
       <c r="C45">
-        <v>17.7341841676894</v>
+        <v>15.7682948195592</v>
       </c>
       <c r="D45">
-        <v>6.16001349133107</v>
+        <v>5.59217107204755</v>
       </c>
       <c r="E45">
-        <v>6.65202078375016</v>
+        <v>6.67864597513178</v>
       </c>
       <c r="F45">
-        <v>28.2447643778579</v>
+        <v>25.3314523087101</v>
       </c>
       <c r="G45">
-        <v>14.0958587617066</v>
+        <v>12.7902460430505</v>
       </c>
       <c r="H45">
-        <v>5.99526959255473</v>
+        <v>5.4506237940569</v>
       </c>
       <c r="I45">
-        <v>6.05733680787556</v>
+        <v>5.50555499249064</v>
       </c>
       <c r="J45">
-        <v>19.3449712908329</v>
+        <v>17.5743876730619</v>
       </c>
       <c r="K45">
-        <v>11.5431976590016</v>
+        <v>10.4841417957523</v>
       </c>
       <c r="L45">
-        <v>22.7217715271136</v>
+        <v>21.0295527613406</v>
       </c>
       <c r="M45">
-        <v>26.5899772508631</v>
+        <v>23.6179510006941</v>
       </c>
       <c r="N45">
-        <v>27.7102406843772</v>
+        <v>25.1783318452038</v>
       </c>
       <c r="O45">
-        <v>1024.78063310781</v>
+        <v>932.7639176890571</v>
       </c>
       <c r="P45">
-        <v>14.9115205083592</v>
+        <v>13.9173510024491</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>47.1651080673763</v>
+        <v>99.57461785474641</v>
       </c>
       <c r="C46">
-        <v>6.42427699069554</v>
+        <v>5.74046839455058</v>
       </c>
       <c r="D46">
-        <v>2.46998291645971</v>
+        <v>2.35664485420578</v>
       </c>
       <c r="E46">
-        <v>7.45322909529405</v>
+        <v>6.54700911685784</v>
       </c>
       <c r="F46">
-        <v>2.16067511255594</v>
+        <v>1.93566381022117</v>
       </c>
       <c r="G46">
-        <v>2.73552875646534</v>
+        <v>2.43375738169256</v>
       </c>
       <c r="H46">
-        <v>3.81838690228007</v>
+        <v>3.39571229160195</v>
       </c>
       <c r="I46">
-        <v>2.47459809249366</v>
+        <v>2.03750961782697</v>
       </c>
       <c r="J46">
-        <v>5.85065207628429</v>
+        <v>5.37565620209079</v>
       </c>
       <c r="K46">
-        <v>7.17123962409275</v>
+        <v>6.40535681161876</v>
       </c>
       <c r="L46">
-        <v>18.8387394875326</v>
+        <v>16.4467956122355</v>
       </c>
       <c r="M46">
-        <v>6.42650750970232</v>
+        <v>5.64241485610606</v>
       </c>
       <c r="N46">
-        <v>10.4302608629627</v>
+        <v>9.292194711442241</v>
       </c>
       <c r="O46">
-        <v>392.272449293122</v>
+        <v>349.335428570515</v>
       </c>
       <c r="P46">
-        <v>12.2127439893596</v>
+        <v>11.253206779981</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>637.1634659577491</v>
+        <v>1197.49562832343</v>
       </c>
       <c r="C47">
-        <v>68.1266752932283</v>
+        <v>57.4590719471982</v>
       </c>
       <c r="D47">
-        <v>40.7233918615656</v>
+        <v>35.335518561023</v>
       </c>
       <c r="E47">
-        <v>42.2181903192531</v>
+        <v>36.6733544270273</v>
       </c>
       <c r="F47">
-        <v>9.197967753119631</v>
+        <v>7.11283556901754</v>
       </c>
       <c r="G47">
-        <v>37.4821078585464</v>
+        <v>30.4246209617729</v>
       </c>
       <c r="H47">
-        <v>24.7244478111164</v>
+        <v>22.0183801735267</v>
       </c>
       <c r="I47">
-        <v>16.4693690110833</v>
+        <v>14.283562589093</v>
       </c>
       <c r="J47">
-        <v>59.7605784084698</v>
+        <v>49.6817241167471</v>
       </c>
       <c r="K47">
-        <v>30.1045024167141</v>
+        <v>25.0447360492828</v>
       </c>
       <c r="L47">
-        <v>68.0122308365458</v>
+        <v>59.0104880522642</v>
       </c>
       <c r="M47">
-        <v>88.9873996206375</v>
+        <v>77.8288503975751</v>
       </c>
       <c r="N47">
-        <v>43.4666301827591</v>
+        <v>37.7137593205327</v>
       </c>
       <c r="O47">
-        <v>3676.75040368634</v>
+        <v>3198.95014641626</v>
       </c>
       <c r="P47">
-        <v>42.0548573962627</v>
+        <v>36.2125844911998</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>669.830296353139</v>
+        <v>1097.71682609862</v>
       </c>
       <c r="C48">
-        <v>22.9634027552797</v>
+        <v>21.2475481618913</v>
       </c>
       <c r="D48">
-        <v>12.0641735830389</v>
+        <v>9.949778212918311</v>
       </c>
       <c r="E48">
-        <v>79.7647849995779</v>
+        <v>70.9986501644397</v>
       </c>
       <c r="F48">
-        <v>16.9650636838184</v>
+        <v>14.930784728344</v>
       </c>
       <c r="G48">
-        <v>11.740623014723</v>
+        <v>10.3244532323507</v>
       </c>
       <c r="H48">
-        <v>4.59130567238165</v>
+        <v>4.02904399028017</v>
       </c>
       <c r="I48">
-        <v>15.3715110989724</v>
+        <v>13.5223850049901</v>
       </c>
       <c r="J48">
-        <v>30.8866662819554</v>
+        <v>27.1832633483272</v>
       </c>
       <c r="K48">
-        <v>29.7008528367197</v>
+        <v>27.1717396448123</v>
       </c>
       <c r="L48">
-        <v>47.5155901199693</v>
+        <v>41.7626629128123</v>
       </c>
       <c r="M48">
-        <v>177.113040052203</v>
+        <v>157.945905675165</v>
       </c>
       <c r="N48">
-        <v>27.2479930765274</v>
+        <v>23.9688963424775</v>
       </c>
       <c r="O48">
-        <v>2866.21751659148</v>
+        <v>2506.21222118324</v>
       </c>
       <c r="P48">
-        <v>94.6010954347561</v>
+        <v>79.7232728465962</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>311.605366360126</v>
+        <v>547.020363326253</v>
       </c>
       <c r="C49">
-        <v>7.82772390265994</v>
+        <v>6.19677161032247</v>
       </c>
       <c r="D49">
-        <v>8.07871009040835</v>
+        <v>6.41374240445007</v>
       </c>
       <c r="E49">
-        <v>19.9202568345256</v>
+        <v>15.9349924868639</v>
       </c>
       <c r="F49">
-        <v>53.3969566357804</v>
+        <v>42.3954137959934</v>
       </c>
       <c r="G49">
-        <v>27.2510238647607</v>
+        <v>21.6716492912685</v>
       </c>
       <c r="H49">
-        <v>8.257095724640839</v>
+        <v>6.74003321109453</v>
       </c>
       <c r="I49">
-        <v>12.960538417159</v>
+        <v>10.6512835490453</v>
       </c>
       <c r="J49">
-        <v>33.0385599395457</v>
+        <v>26.23638269236</v>
       </c>
       <c r="K49">
-        <v>13.110033901572</v>
+        <v>10.1617435518011</v>
       </c>
       <c r="L49">
-        <v>4.03700284069369</v>
+        <v>3.20176819759168</v>
       </c>
       <c r="M49">
-        <v>7.68270020907454</v>
+        <v>7.0005229601913</v>
       </c>
       <c r="N49">
-        <v>4.44719946414281</v>
+        <v>3.76060523797076</v>
       </c>
       <c r="O49">
-        <v>925.142518432503</v>
+        <v>731.590300561241</v>
       </c>
       <c r="P49">
-        <v>11.4709064531581</v>
+        <v>9.590395500244471</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>370.639200247334</v>
+        <v>747.665507856202</v>
       </c>
       <c r="C50">
-        <v>97.92433006320501</v>
+        <v>87.5668034351863</v>
       </c>
       <c r="D50">
-        <v>15.0289364415693</v>
+        <v>13.3971367729479</v>
       </c>
       <c r="E50">
-        <v>125.026860500631</v>
+        <v>111.75279810266</v>
       </c>
       <c r="F50">
-        <v>3.31228781350335</v>
+        <v>2.9564477531121</v>
       </c>
       <c r="G50">
-        <v>42.5974997873549</v>
+        <v>36.7642619793098</v>
       </c>
       <c r="H50">
-        <v>43.5664418774323</v>
+        <v>40.2314206477188</v>
       </c>
       <c r="I50">
-        <v>18.1387481041515</v>
+        <v>15.3526981827963</v>
       </c>
       <c r="J50">
-        <v>117.151432039189</v>
+        <v>102.677505654153</v>
       </c>
       <c r="K50">
-        <v>129.37416502874</v>
+        <v>112.557362300758</v>
       </c>
       <c r="L50">
-        <v>98.40823078496879</v>
+        <v>87.8620669185346</v>
       </c>
       <c r="M50">
-        <v>36.6420945042733</v>
+        <v>31.8749224996031</v>
       </c>
       <c r="N50">
-        <v>91.4366629706355</v>
+        <v>80.9616279129324</v>
       </c>
       <c r="O50">
-        <v>2543.41599848667</v>
+        <v>2268.47379317996</v>
       </c>
       <c r="P50">
-        <v>81.8382019113874</v>
+        <v>73.98255855305941</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>59.0795266082678</v>
+        <v>110.086998083276</v>
       </c>
       <c r="C51">
-        <v>2.33609331888757</v>
+        <v>2.36349278730913</v>
       </c>
       <c r="D51">
-        <v>0.0327823762129383</v>
+        <v>0.137011922318322</v>
       </c>
       <c r="E51">
-        <v>1.59315504016092</v>
+        <v>1.49301856103968</v>
       </c>
       <c r="F51">
-        <v>44.1392260829582</v>
+        <v>39.0009050848501</v>
       </c>
       <c r="G51">
-        <v>2.38646447256832</v>
+        <v>2.10942320036178</v>
       </c>
       <c r="H51">
-        <v>0.456119119838526</v>
+        <v>0.403346080072266</v>
       </c>
       <c r="I51">
-        <v>1.93847271831686</v>
+        <v>1.79304002442755</v>
       </c>
       <c r="J51">
-        <v>3.04568472099559</v>
+        <v>2.70022245430109</v>
       </c>
       <c r="K51">
-        <v>1.48675218730231</v>
+        <v>1.32837768159012</v>
       </c>
       <c r="L51">
-        <v>0.428371311745746</v>
+        <v>0.3791229960924</v>
       </c>
       <c r="M51">
-        <v>0.807071472393066</v>
+        <v>0.936866425417951</v>
       </c>
       <c r="N51">
-        <v>2.59363889360608</v>
+        <v>2.29419240515222</v>
       </c>
       <c r="O51">
-        <v>359.737803993075</v>
+        <v>317.39504480492</v>
       </c>
       <c r="P51">
-        <v>24.1666535036864</v>
+        <v>21.6054476718059</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2002.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2002.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>920.713640130151</v>
+        <v>1249.17695194929</v>
       </c>
       <c r="C2">
-        <v>37.5417091876284</v>
+        <v>29.3507476763596</v>
       </c>
       <c r="D2">
-        <v>67.8541371133625</v>
+        <v>48.8292958531142</v>
       </c>
       <c r="E2">
-        <v>75.44397548552151</v>
+        <v>65.2416752957953</v>
       </c>
       <c r="F2">
-        <v>17.6863142569219</v>
+        <v>18.5341398551611</v>
       </c>
       <c r="G2">
-        <v>20.4551303804639</v>
+        <v>14.2918580789562</v>
       </c>
       <c r="H2">
-        <v>34.070678919315</v>
+        <v>30.5076172010161</v>
       </c>
       <c r="I2">
-        <v>19.0779926210629</v>
+        <v>14.3638212928411</v>
       </c>
       <c r="J2">
-        <v>70.9605535718763</v>
+        <v>63.8632446127071</v>
       </c>
       <c r="K2">
-        <v>20.7357092612319</v>
+        <v>19.9850349662989</v>
       </c>
       <c r="L2">
-        <v>36.2904178622737</v>
+        <v>42.3363378236037</v>
       </c>
       <c r="M2">
-        <v>49.9621494440918</v>
+        <v>45.0242466721503</v>
       </c>
       <c r="N2">
-        <v>27.7133956506005</v>
+        <v>20.4496038801341</v>
       </c>
       <c r="O2">
-        <v>1700.5778127525</v>
+        <v>1456.40352644194</v>
       </c>
       <c r="P2">
-        <v>35.2331017079752</v>
+        <v>23.4263224980076</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>145.047235496509</v>
+        <v>160.586233949359</v>
       </c>
       <c r="C3">
-        <v>4.5929241128386</v>
+        <v>4.05649284541201</v>
       </c>
       <c r="D3">
-        <v>0.352366704455278</v>
+        <v>0.47564172739784</v>
       </c>
       <c r="E3">
-        <v>1.32738239692957</v>
+        <v>1.27939008262845</v>
       </c>
       <c r="F3">
-        <v>15.4678613289221</v>
+        <v>12.6229269564331</v>
       </c>
       <c r="G3">
-        <v>0.83783874761337</v>
+        <v>0.705663544806043</v>
       </c>
       <c r="H3">
-        <v>0.233421508114579</v>
+        <v>0.116556775671196</v>
       </c>
       <c r="I3">
-        <v>0.419703085959096</v>
+        <v>1.10152481385462</v>
       </c>
       <c r="J3">
-        <v>0.9031341138629621</v>
+        <v>0.747475847987836</v>
       </c>
       <c r="K3">
-        <v>0.314411310726376</v>
+        <v>0.306918934781038</v>
       </c>
       <c r="L3">
-        <v>0.188348954940567</v>
+        <v>0.263430634557229</v>
       </c>
       <c r="M3">
-        <v>1.65003023201689</v>
+        <v>1.19499975094359</v>
       </c>
       <c r="N3">
-        <v>1.30731187141945</v>
+        <v>1.9595530209301</v>
       </c>
       <c r="O3">
-        <v>373.711864455567</v>
+        <v>358.944812184198</v>
       </c>
       <c r="P3">
-        <v>12.6650454884813</v>
+        <v>15.1507884387594</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>966.352224612427</v>
+        <v>1186.61749295848</v>
       </c>
       <c r="C4">
-        <v>13.1648449909131</v>
+        <v>7.71508358609083</v>
       </c>
       <c r="D4">
-        <v>6.39524214234796</v>
+        <v>1.95557207724076</v>
       </c>
       <c r="E4">
-        <v>14.5835014816847</v>
+        <v>21.2714571390276</v>
       </c>
       <c r="F4">
-        <v>7.46462751078534</v>
+        <v>9.895052682139919</v>
       </c>
       <c r="G4">
-        <v>13.5566003301713</v>
+        <v>8.46398995007184</v>
       </c>
       <c r="H4">
-        <v>7.34993486668906</v>
+        <v>11.2246897882265</v>
       </c>
       <c r="I4">
-        <v>8.854088692709549</v>
+        <v>11.3131094455178</v>
       </c>
       <c r="J4">
-        <v>26.0878266465521</v>
+        <v>17.2998241445371</v>
       </c>
       <c r="K4">
-        <v>9.957165187466259</v>
+        <v>6.01321978791384</v>
       </c>
       <c r="L4">
-        <v>97.40083340603491</v>
+        <v>73.6795959730628</v>
       </c>
       <c r="M4">
-        <v>62.8380918662418</v>
+        <v>43.9297934323375</v>
       </c>
       <c r="N4">
-        <v>37.2255178852044</v>
+        <v>32.927728005293</v>
       </c>
       <c r="O4">
-        <v>2245.87342616254</v>
+        <v>2110.34061492623</v>
       </c>
       <c r="P4">
-        <v>36.2459725124917</v>
+        <v>19.823258188991</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>581.095742430215</v>
+        <v>680.4772690003221</v>
       </c>
       <c r="C5">
-        <v>66.0514224044165</v>
+        <v>50.3995133877887</v>
       </c>
       <c r="D5">
-        <v>17.8268613442264</v>
+        <v>11.9269155132816</v>
       </c>
       <c r="E5">
-        <v>35.0230079757213</v>
+        <v>29.3389225261605</v>
       </c>
       <c r="F5">
-        <v>0.979959977841111</v>
+        <v>3.52949193018322</v>
       </c>
       <c r="G5">
-        <v>11.1297864459261</v>
+        <v>5.58942910814126</v>
       </c>
       <c r="H5">
-        <v>11.4261372030734</v>
+        <v>12.6047902599933</v>
       </c>
       <c r="I5">
-        <v>10.1277494895139</v>
+        <v>8.920246525590549</v>
       </c>
       <c r="J5">
-        <v>34.9747268407745</v>
+        <v>26.4158493647751</v>
       </c>
       <c r="K5">
-        <v>28.8704274350988</v>
+        <v>19.0788153831291</v>
       </c>
       <c r="L5">
-        <v>25.0225289714964</v>
+        <v>25.0962824190549</v>
       </c>
       <c r="M5">
-        <v>15.5623648272783</v>
+        <v>21.9221422573825</v>
       </c>
       <c r="N5">
-        <v>17.8549710671052</v>
+        <v>22.8238942159702</v>
       </c>
       <c r="O5">
-        <v>1006.23126153762</v>
+        <v>933.261980768513</v>
       </c>
       <c r="P5">
-        <v>42.0092042566086</v>
+        <v>57.73762559929</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>6171.29035815664</v>
+        <v>7424.92950514232</v>
       </c>
       <c r="C6">
-        <v>171.111360617993</v>
+        <v>179.852143681628</v>
       </c>
       <c r="D6">
-        <v>283.189271134657</v>
+        <v>183.474401873065</v>
       </c>
       <c r="E6">
-        <v>114.771314148524</v>
+        <v>156.119889999664</v>
       </c>
       <c r="F6">
-        <v>38.4323966234398</v>
+        <v>41.1573388777256</v>
       </c>
       <c r="G6">
-        <v>148.88547868406</v>
+        <v>100.703835269259</v>
       </c>
       <c r="H6">
-        <v>88.90399913853391</v>
+        <v>77.02884976294121</v>
       </c>
       <c r="I6">
-        <v>59.4317105855345</v>
+        <v>36.3661508089082</v>
       </c>
       <c r="J6">
-        <v>197.590510802278</v>
+        <v>187.973484825208</v>
       </c>
       <c r="K6">
-        <v>159.222518158793</v>
+        <v>116.166561773421</v>
       </c>
       <c r="L6">
-        <v>554.885044650855</v>
+        <v>499.79289523451</v>
       </c>
       <c r="M6">
-        <v>371.360400013551</v>
+        <v>300.101677051483</v>
       </c>
       <c r="N6">
-        <v>351.068374464561</v>
+        <v>305.14949616168</v>
       </c>
       <c r="O6">
-        <v>13929.9170579721</v>
+        <v>13019.5896903895</v>
       </c>
       <c r="P6">
-        <v>253.571917529961</v>
+        <v>280.470877464512</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>642.937930706812</v>
+        <v>767.636837563785</v>
       </c>
       <c r="C7">
-        <v>37.7262227224916</v>
+        <v>37.3236966150982</v>
       </c>
       <c r="D7">
-        <v>4.78336801624116</v>
+        <v>2.48868028467186</v>
       </c>
       <c r="E7">
-        <v>12.9549790098789</v>
+        <v>15.8457855688341</v>
       </c>
       <c r="F7">
-        <v>14.6443138491559</v>
+        <v>11.4292013281447</v>
       </c>
       <c r="G7">
-        <v>10.86726255283</v>
+        <v>7.84979503262256</v>
       </c>
       <c r="H7">
-        <v>12.3627596088182</v>
+        <v>6.63262117009128</v>
       </c>
       <c r="I7">
-        <v>8.609414627631701</v>
+        <v>10.1920269093445</v>
       </c>
       <c r="J7">
-        <v>21.7870054027463</v>
+        <v>15.9231210339052</v>
       </c>
       <c r="K7">
-        <v>21.3979970386248</v>
+        <v>14.3410732333255</v>
       </c>
       <c r="L7">
-        <v>57.3217357225442</v>
+        <v>55.2550825803448</v>
       </c>
       <c r="M7">
-        <v>24.3369534444258</v>
+        <v>18.3487294499518</v>
       </c>
       <c r="N7">
-        <v>30.8421183908133</v>
+        <v>27.5970494522476</v>
       </c>
       <c r="O7">
-        <v>2019.61663918159</v>
+        <v>1926.60263549049</v>
       </c>
       <c r="P7">
-        <v>23.5436253949199</v>
+        <v>18.784355719779</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>488.974299434611</v>
+        <v>625.046668067929</v>
       </c>
       <c r="C8">
-        <v>13.7973583930454</v>
+        <v>13.526382228098</v>
       </c>
       <c r="D8">
-        <v>10.0046089370195</v>
+        <v>7.95266885009784</v>
       </c>
       <c r="E8">
-        <v>12.2307247849276</v>
+        <v>16.1951971796873</v>
       </c>
       <c r="F8">
-        <v>2.04630071478634</v>
+        <v>1.60584596776366</v>
       </c>
       <c r="G8">
-        <v>36.7423174898808</v>
+        <v>29.3435346451463</v>
       </c>
       <c r="H8">
-        <v>16.6821676588917</v>
+        <v>13.9745546985065</v>
       </c>
       <c r="I8">
-        <v>1.35377891707302</v>
+        <v>7.19067674912043</v>
       </c>
       <c r="J8">
-        <v>51.2020286215873</v>
+        <v>39.3387818023703</v>
       </c>
       <c r="K8">
-        <v>44.2678386608873</v>
+        <v>25.2660718607187</v>
       </c>
       <c r="L8">
-        <v>55.0787754463242</v>
+        <v>45.5914813990863</v>
       </c>
       <c r="M8">
-        <v>72.8520389022132</v>
+        <v>53.1588668855067</v>
       </c>
       <c r="N8">
-        <v>30.5843585830744</v>
+        <v>30.6532007272804</v>
       </c>
       <c r="O8">
-        <v>1541.24013604911</v>
+        <v>1460.6989993695</v>
       </c>
       <c r="P8">
-        <v>5.21884404108698</v>
+        <v>4.48612795214891</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>155.759640251099</v>
+        <v>199.557658408296</v>
       </c>
       <c r="C9">
-        <v>9.32231874640015</v>
+        <v>8.318974831401709</v>
       </c>
       <c r="D9">
-        <v>2.69154003035409</v>
+        <v>2.5546175580985</v>
       </c>
       <c r="E9">
-        <v>5.23822297566712</v>
+        <v>4.50154989272428</v>
       </c>
       <c r="F9">
-        <v>2.71587869447874</v>
+        <v>1.77934103051917</v>
       </c>
       <c r="G9">
-        <v>29.4821289706815</v>
+        <v>27.289343973412</v>
       </c>
       <c r="H9">
-        <v>4.04120819757991</v>
+        <v>5.75464094288527</v>
       </c>
       <c r="I9">
-        <v>1.09861561864287</v>
+        <v>1.20591548430878</v>
       </c>
       <c r="J9">
-        <v>3.40322016999612</v>
+        <v>5.00878942623125</v>
       </c>
       <c r="K9">
-        <v>4.98213932960684</v>
+        <v>3.8434870040108</v>
       </c>
       <c r="L9">
-        <v>4.51838744234388</v>
+        <v>2.6766266634944</v>
       </c>
       <c r="M9">
-        <v>9.675804183225701</v>
+        <v>10.3474837994911</v>
       </c>
       <c r="N9">
-        <v>6.64627116617662</v>
+        <v>6.72000004766175</v>
       </c>
       <c r="O9">
-        <v>438.453435567992</v>
+        <v>399.71457183706</v>
       </c>
       <c r="P9">
-        <v>8.525551978241779</v>
+        <v>6.25727567528945</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>3084.62673627118</v>
+        <v>3966.15964323246</v>
       </c>
       <c r="C10">
-        <v>54.0486118300785</v>
+        <v>63.0625322676124</v>
       </c>
       <c r="D10">
-        <v>38.9389185181691</v>
+        <v>29.4034427906486</v>
       </c>
       <c r="E10">
-        <v>44.6929191398253</v>
+        <v>48.8439484070609</v>
       </c>
       <c r="F10">
-        <v>10.5065322158833</v>
+        <v>11.2854485680425</v>
       </c>
       <c r="G10">
-        <v>33.6894523580506</v>
+        <v>32.6858143492987</v>
       </c>
       <c r="H10">
-        <v>19.8803766187628</v>
+        <v>11.9065617535611</v>
       </c>
       <c r="I10">
-        <v>37.9667738130697</v>
+        <v>47.7651802036741</v>
       </c>
       <c r="J10">
-        <v>53.6453938565929</v>
+        <v>56.4973249685011</v>
       </c>
       <c r="K10">
-        <v>50.7048270225675</v>
+        <v>35.2986944847934</v>
       </c>
       <c r="L10">
-        <v>130.677353725173</v>
+        <v>95.9383548053403</v>
       </c>
       <c r="M10">
-        <v>109.809342773537</v>
+        <v>78.31644232521791</v>
       </c>
       <c r="N10">
-        <v>96.8547991769134</v>
+        <v>91.3831484496592</v>
       </c>
       <c r="O10">
-        <v>7898.22464558285</v>
+        <v>7093.1237283752</v>
       </c>
       <c r="P10">
-        <v>89.3668868482907</v>
+        <v>101.25758838851</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>1458.99353485632</v>
+        <v>1782.12069280789</v>
       </c>
       <c r="C11">
-        <v>69.3565523486262</v>
+        <v>67.19438851819029</v>
       </c>
       <c r="D11">
-        <v>163.606161786524</v>
+        <v>176.850970537852</v>
       </c>
       <c r="E11">
-        <v>103.868735274106</v>
+        <v>60.6754027805343</v>
       </c>
       <c r="F11">
-        <v>7.42338201167062</v>
+        <v>2.16296824036601</v>
       </c>
       <c r="G11">
-        <v>39.1567931480399</v>
+        <v>27.570190889906</v>
       </c>
       <c r="H11">
-        <v>16.9507339137808</v>
+        <v>15.7793815566612</v>
       </c>
       <c r="I11">
-        <v>23.2312167434961</v>
+        <v>15.615021897082</v>
       </c>
       <c r="J11">
-        <v>51.3338352593826</v>
+        <v>47.6114165801651</v>
       </c>
       <c r="K11">
-        <v>45.5421880172192</v>
+        <v>29.1219451245552</v>
       </c>
       <c r="L11">
-        <v>70.3531266722246</v>
+        <v>55.7664593165142</v>
       </c>
       <c r="M11">
-        <v>57.4724098641515</v>
+        <v>42.1734767995671</v>
       </c>
       <c r="N11">
-        <v>43.9345448307684</v>
+        <v>46.1623733956759</v>
       </c>
       <c r="O11">
-        <v>3477.24085830914</v>
+        <v>3234.17360766384</v>
       </c>
       <c r="P11">
-        <v>23.6827362761121</v>
+        <v>48.9321729215979</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>231.648339627443</v>
+        <v>289.776646588111</v>
       </c>
       <c r="C12">
-        <v>11.2733297729334</v>
+        <v>7.95867781559026</v>
       </c>
       <c r="D12">
-        <v>5.28054281805025</v>
+        <v>1.49010313952784</v>
       </c>
       <c r="E12">
-        <v>0.395335508540332</v>
+        <v>1.97957609428947</v>
       </c>
       <c r="F12">
-        <v>0.97914601377179</v>
+        <v>0.93981594665526</v>
       </c>
       <c r="G12">
-        <v>0.646210205951777</v>
+        <v>0.0756142619359949</v>
       </c>
       <c r="H12">
-        <v>0.291703230329559</v>
+        <v>0.249036370987895</v>
       </c>
       <c r="I12">
-        <v>2.20166319205957</v>
+        <v>1.75818882105112</v>
       </c>
       <c r="J12">
-        <v>1.28481667055966</v>
+        <v>3.89478554235322</v>
       </c>
       <c r="K12">
-        <v>0.429557989548199</v>
+        <v>0.200325838576385</v>
       </c>
       <c r="L12">
-        <v>0.385342650485551</v>
+        <v>0.745584214245665</v>
       </c>
       <c r="M12">
-        <v>5.03519490244495</v>
+        <v>4.46881352614085</v>
       </c>
       <c r="N12">
-        <v>4.87894067596238</v>
+        <v>3.27499543767615</v>
       </c>
       <c r="O12">
-        <v>705.5263644314271</v>
+        <v>647.833582004111</v>
       </c>
       <c r="P12">
-        <v>20.2161034244133</v>
+        <v>24.8671178779902</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>225.314648900217</v>
+        <v>250.145719741862</v>
       </c>
       <c r="C13">
-        <v>30.7879492091456</v>
+        <v>18.4643540071563</v>
       </c>
       <c r="D13">
-        <v>1.330948311687</v>
+        <v>0.424422955603027</v>
       </c>
       <c r="E13">
-        <v>17.0329253045931</v>
+        <v>13.7120598202676</v>
       </c>
       <c r="F13">
-        <v>4.16823235155631</v>
+        <v>3.1104523499288</v>
       </c>
       <c r="G13">
-        <v>7.02312644010792</v>
+        <v>5.80523970843085</v>
       </c>
       <c r="H13">
-        <v>2.17420262017469</v>
+        <v>2.47409953140905</v>
       </c>
       <c r="I13">
-        <v>1.28146461271699</v>
+        <v>1.54482302644622</v>
       </c>
       <c r="J13">
-        <v>5.44836373094422</v>
+        <v>6.27879766140579</v>
       </c>
       <c r="K13">
-        <v>5.14582416673913</v>
+        <v>6.97153359795961</v>
       </c>
       <c r="L13">
-        <v>29.5946094520534</v>
+        <v>20.9195755089906</v>
       </c>
       <c r="M13">
-        <v>3.85071203921816</v>
+        <v>1.81036397393731</v>
       </c>
       <c r="N13">
-        <v>8.494638649479789</v>
+        <v>6.25609945625023</v>
       </c>
       <c r="O13">
-        <v>567.165040856579</v>
+        <v>561.765817486894</v>
       </c>
       <c r="P13">
-        <v>48.9712127757587</v>
+        <v>58.7767454840541</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>1971.29270339939</v>
+        <v>2483.02754981622</v>
       </c>
       <c r="C14">
-        <v>112.899924446925</v>
+        <v>123.487978201256</v>
       </c>
       <c r="D14">
-        <v>17.4941005597807</v>
+        <v>14.6018017541952</v>
       </c>
       <c r="E14">
-        <v>59.6987482936858</v>
+        <v>67.7277931471732</v>
       </c>
       <c r="F14">
-        <v>15.8880026111381</v>
+        <v>15.2164879814884</v>
       </c>
       <c r="G14">
-        <v>115.494519632309</v>
+        <v>104.401904678234</v>
       </c>
       <c r="H14">
-        <v>63.4653028036852</v>
+        <v>41.1979914458489</v>
       </c>
       <c r="I14">
-        <v>30.8921122384089</v>
+        <v>28.0709977441914</v>
       </c>
       <c r="J14">
-        <v>146.559150069678</v>
+        <v>146.927222641038</v>
       </c>
       <c r="K14">
-        <v>207.07860858156</v>
+        <v>160.654364132851</v>
       </c>
       <c r="L14">
-        <v>163.863247644893</v>
+        <v>133.005643218875</v>
       </c>
       <c r="M14">
-        <v>88.9175710565212</v>
+        <v>77.6292103194499</v>
       </c>
       <c r="N14">
-        <v>104.746104726595</v>
+        <v>105.224715811669</v>
       </c>
       <c r="O14">
-        <v>5415.00831391523</v>
+        <v>4987.54290599891</v>
       </c>
       <c r="P14">
-        <v>39.675509028141</v>
+        <v>52.5197584302334</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>992.860272156516</v>
+        <v>1247.97915162549</v>
       </c>
       <c r="C15">
-        <v>37.9416935638913</v>
+        <v>33.9008223995268</v>
       </c>
       <c r="D15">
-        <v>15.998138232467</v>
+        <v>14.6303244972332</v>
       </c>
       <c r="E15">
-        <v>54.0645090803953</v>
+        <v>67.0750147449921</v>
       </c>
       <c r="F15">
-        <v>12.0845406787737</v>
+        <v>18.0845819788506</v>
       </c>
       <c r="G15">
-        <v>47.2855853902226</v>
+        <v>40.2179854467014</v>
       </c>
       <c r="H15">
-        <v>48.934071436549</v>
+        <v>64.351862189958</v>
       </c>
       <c r="I15">
-        <v>51.90535966685</v>
+        <v>28.0281586941887</v>
       </c>
       <c r="J15">
-        <v>197.01794374536</v>
+        <v>158.325311541294</v>
       </c>
       <c r="K15">
-        <v>95.8130165510814</v>
+        <v>51.2678755884258</v>
       </c>
       <c r="L15">
-        <v>56.7367394570338</v>
+        <v>42.2794939369867</v>
       </c>
       <c r="M15">
-        <v>149.765540755681</v>
+        <v>164.910366317172</v>
       </c>
       <c r="N15">
-        <v>103.248270468028</v>
+        <v>100.078252457631</v>
       </c>
       <c r="O15">
-        <v>2358.1822481419</v>
+        <v>2189.50892192544</v>
       </c>
       <c r="P15">
-        <v>50.2560924603734</v>
+        <v>49.2229812462015</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>362.19170816721</v>
+        <v>488.850654534</v>
       </c>
       <c r="C16">
-        <v>71.5650568895484</v>
+        <v>65.59282740505191</v>
       </c>
       <c r="D16">
-        <v>17.5612072807025</v>
+        <v>8.25569300221809</v>
       </c>
       <c r="E16">
-        <v>21.5081003286447</v>
+        <v>26.8601424477442</v>
       </c>
       <c r="F16">
-        <v>5.19111011216535</v>
+        <v>4.89578666493157</v>
       </c>
       <c r="G16">
-        <v>16.8872583131778</v>
+        <v>19.5735047383542</v>
       </c>
       <c r="H16">
-        <v>17.6337591648986</v>
+        <v>12.0217690358179</v>
       </c>
       <c r="I16">
-        <v>9.506666060241139</v>
+        <v>8.718617628350581</v>
       </c>
       <c r="J16">
-        <v>46.2540669161249</v>
+        <v>45.6078981601619</v>
       </c>
       <c r="K16">
-        <v>59.5494897758669</v>
+        <v>47.6437904101902</v>
       </c>
       <c r="L16">
-        <v>32.7499111318525</v>
+        <v>25.6592796572587</v>
       </c>
       <c r="M16">
-        <v>15.3187669749652</v>
+        <v>26.2226771345712</v>
       </c>
       <c r="N16">
-        <v>31.6148593297894</v>
+        <v>29.2177323030106</v>
       </c>
       <c r="O16">
-        <v>1351.0033291772</v>
+        <v>1248.25416357253</v>
       </c>
       <c r="P16">
-        <v>101.642953639879</v>
+        <v>95.2138224429756</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>387.483846946522</v>
+        <v>498.583506930519</v>
       </c>
       <c r="C17">
-        <v>22.776635237057</v>
+        <v>17.8970501421124</v>
       </c>
       <c r="D17">
-        <v>9.433247914805211</v>
+        <v>2.75282893085641</v>
       </c>
       <c r="E17">
-        <v>11.8422132280826</v>
+        <v>15.564291105349</v>
       </c>
       <c r="F17">
-        <v>13.268460802405</v>
+        <v>9.54309112711039</v>
       </c>
       <c r="G17">
-        <v>13.7288797506614</v>
+        <v>6.71659853209514</v>
       </c>
       <c r="H17">
-        <v>6.80896929308464</v>
+        <v>6.2903265486928</v>
       </c>
       <c r="I17">
-        <v>8.32152344059001</v>
+        <v>9.34039738785936</v>
       </c>
       <c r="J17">
-        <v>18.0268611748713</v>
+        <v>13.9265203359006</v>
       </c>
       <c r="K17">
-        <v>25.7793172554081</v>
+        <v>12.8740906445185</v>
       </c>
       <c r="L17">
-        <v>16.3926108690178</v>
+        <v>9.69576094879837</v>
       </c>
       <c r="M17">
-        <v>84.1102017562163</v>
+        <v>67.8613268009469</v>
       </c>
       <c r="N17">
-        <v>13.8871603701071</v>
+        <v>15.0652553024618</v>
       </c>
       <c r="O17">
-        <v>1249.74811429193</v>
+        <v>1187.29102467156</v>
       </c>
       <c r="P17">
-        <v>51.9793785054893</v>
+        <v>55.515940326648</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>923.033541586263</v>
+        <v>1118.27508709687</v>
       </c>
       <c r="C18">
-        <v>33.7952573056416</v>
+        <v>36.3365216783558</v>
       </c>
       <c r="D18">
-        <v>14.9916050856271</v>
+        <v>7.95861580298102</v>
       </c>
       <c r="E18">
-        <v>28.3083307683556</v>
+        <v>30.5538250576993</v>
       </c>
       <c r="F18">
-        <v>39.077073741503</v>
+        <v>30.3907131549722</v>
       </c>
       <c r="G18">
-        <v>33.955004577254</v>
+        <v>26.7556912034445</v>
       </c>
       <c r="H18">
-        <v>23.8117647033377</v>
+        <v>18.4277997333287</v>
       </c>
       <c r="I18">
-        <v>8.95959815277746</v>
+        <v>4.39677100362301</v>
       </c>
       <c r="J18">
-        <v>41.9659076674792</v>
+        <v>47.9556295035433</v>
       </c>
       <c r="K18">
-        <v>27.9842806720576</v>
+        <v>21.4908641462991</v>
       </c>
       <c r="L18">
-        <v>40.2061664965735</v>
+        <v>39.1091126830386</v>
       </c>
       <c r="M18">
-        <v>60.295138546117</v>
+        <v>64.4808877462996</v>
       </c>
       <c r="N18">
-        <v>19.8857731059295</v>
+        <v>22.8130995589912</v>
       </c>
       <c r="O18">
-        <v>1668.14486956829</v>
+        <v>1487.43172794439</v>
       </c>
       <c r="P18">
-        <v>46.3356254645123</v>
+        <v>61.3314765123339</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>980.779979325138</v>
+        <v>1151.49388750473</v>
       </c>
       <c r="C19">
-        <v>26.570302602156</v>
+        <v>26.8394811628959</v>
       </c>
       <c r="D19">
-        <v>11.4548181156008</v>
+        <v>9.16074910996508</v>
       </c>
       <c r="E19">
-        <v>21.1050703804492</v>
+        <v>36.2813584636558</v>
       </c>
       <c r="F19">
-        <v>81.7516177966194</v>
+        <v>98.4634051904836</v>
       </c>
       <c r="G19">
-        <v>38.8951027641668</v>
+        <v>38.7355423073709</v>
       </c>
       <c r="H19">
-        <v>6.7186410257417</v>
+        <v>6.48007274922434</v>
       </c>
       <c r="I19">
-        <v>11.1598197335161</v>
+        <v>1.11820869915374</v>
       </c>
       <c r="J19">
-        <v>14.5054566736424</v>
+        <v>13.8495893705168</v>
       </c>
       <c r="K19">
-        <v>19.537058421907</v>
+        <v>15.7754595856266</v>
       </c>
       <c r="L19">
-        <v>5.03616205705122</v>
+        <v>5.15344489190548</v>
       </c>
       <c r="M19">
-        <v>30.3374839138118</v>
+        <v>27.6732656680537</v>
       </c>
       <c r="N19">
-        <v>4.543614449519</v>
+        <v>12.369542489467</v>
       </c>
       <c r="O19">
-        <v>1834.9826072641</v>
+        <v>1652.25024305039</v>
       </c>
       <c r="P19">
-        <v>42.0591118349059</v>
+        <v>43.2347802416481</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>234.783272950092</v>
+        <v>285.270925656119</v>
       </c>
       <c r="C20">
-        <v>9.220841982283289</v>
+        <v>7.27761653133734</v>
       </c>
       <c r="D20">
-        <v>14.3880500300814</v>
+        <v>9.071928781388589</v>
       </c>
       <c r="E20">
-        <v>35.4965093981306</v>
+        <v>35.6006852856084</v>
       </c>
       <c r="F20">
-        <v>0.103466938589017</v>
+        <v>0.998725881082133</v>
       </c>
       <c r="G20">
-        <v>1.03219585994659</v>
+        <v>2.3713569873196</v>
       </c>
       <c r="H20">
-        <v>4.14914718587787</v>
+        <v>1.86529443035288</v>
       </c>
       <c r="I20">
-        <v>0.415292405904027</v>
+        <v>1.62846527106268</v>
       </c>
       <c r="J20">
-        <v>5.38559470502611</v>
+        <v>4.75680037849922</v>
       </c>
       <c r="K20">
-        <v>5.40355552640318</v>
+        <v>4.01066393449928</v>
       </c>
       <c r="L20">
-        <v>9.45527999164813</v>
+        <v>7.70486474184483</v>
       </c>
       <c r="M20">
-        <v>24.1315626737199</v>
+        <v>17.4818968635648</v>
       </c>
       <c r="N20">
-        <v>5.91961282833641</v>
+        <v>6.31040909036934</v>
       </c>
       <c r="O20">
-        <v>616.71210771816</v>
+        <v>577.244710599662</v>
       </c>
       <c r="P20">
-        <v>21.6496669409814</v>
+        <v>27.4923108302763</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>810.45342496323</v>
+        <v>1030.57073253213</v>
       </c>
       <c r="C21">
-        <v>24.0176862364864</v>
+        <v>25.4720007028727</v>
       </c>
       <c r="D21">
-        <v>7.35256731333832</v>
+        <v>5.36310519430751</v>
       </c>
       <c r="E21">
-        <v>21.5166336590731</v>
+        <v>20.0813844158548</v>
       </c>
       <c r="F21">
-        <v>2.20793209069555</v>
+        <v>5.64124842855465</v>
       </c>
       <c r="G21">
-        <v>18.567953292484</v>
+        <v>23.0292797613394</v>
       </c>
       <c r="H21">
-        <v>7.98624600729717</v>
+        <v>5.82730722250233</v>
       </c>
       <c r="I21">
-        <v>8.842529979700631</v>
+        <v>10.6302451529404</v>
       </c>
       <c r="J21">
-        <v>15.5687537449762</v>
+        <v>26.6271420946607</v>
       </c>
       <c r="K21">
-        <v>21.8232421733026</v>
+        <v>3.56948337869947</v>
       </c>
       <c r="L21">
-        <v>24.5438779297224</v>
+        <v>22.085077002848</v>
       </c>
       <c r="M21">
-        <v>29.4530998557739</v>
+        <v>29.4980838630143</v>
       </c>
       <c r="N21">
-        <v>18.7787117603791</v>
+        <v>28.2129234096269</v>
       </c>
       <c r="O21">
-        <v>2651.80475812972</v>
+        <v>2416.06384051369</v>
       </c>
       <c r="P21">
-        <v>24.0461531715074</v>
+        <v>21.4627281440983</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>992.114587936221</v>
+        <v>1239.00601197763</v>
       </c>
       <c r="C22">
-        <v>16.2135603906396</v>
+        <v>17.2736055145827</v>
       </c>
       <c r="D22">
-        <v>27.4737939561003</v>
+        <v>22.0554356024836</v>
       </c>
       <c r="E22">
-        <v>29.5910792164813</v>
+        <v>36.1919467971957</v>
       </c>
       <c r="F22">
-        <v>1.31256443419074</v>
+        <v>2.70599114826211</v>
       </c>
       <c r="G22">
-        <v>29.8753307132143</v>
+        <v>34.331935142126</v>
       </c>
       <c r="H22">
-        <v>29.4256657244781</v>
+        <v>18.5134282626741</v>
       </c>
       <c r="I22">
-        <v>9.641176564988269</v>
+        <v>8.58828855894072</v>
       </c>
       <c r="J22">
-        <v>54.7028944979025</v>
+        <v>47.194772677107</v>
       </c>
       <c r="K22">
-        <v>46.7208413311448</v>
+        <v>28.3091386919355</v>
       </c>
       <c r="L22">
-        <v>116.482236482445</v>
+        <v>127.068462149335</v>
       </c>
       <c r="M22">
-        <v>22.3765933425407</v>
+        <v>15.5945594453932</v>
       </c>
       <c r="N22">
-        <v>91.7081359453295</v>
+        <v>86.8393873783527</v>
       </c>
       <c r="O22">
-        <v>2910.84206027998</v>
+        <v>2692.85656771018</v>
       </c>
       <c r="P22">
-        <v>17.9862596615926</v>
+        <v>11.151561240338</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>1760.96615722611</v>
+        <v>2246.97760618084</v>
       </c>
       <c r="C23">
-        <v>50.2482364647229</v>
+        <v>44.0363440265894</v>
       </c>
       <c r="D23">
-        <v>17.3105124356714</v>
+        <v>10.4535850290185</v>
       </c>
       <c r="E23">
-        <v>40.0141961876539</v>
+        <v>29.1600213961354</v>
       </c>
       <c r="F23">
-        <v>0.575131232063141</v>
+        <v>4.78010694121606</v>
       </c>
       <c r="G23">
-        <v>76.4243328364748</v>
+        <v>62.9427374203334</v>
       </c>
       <c r="H23">
-        <v>67.4890497312492</v>
+        <v>62.8292099449626</v>
       </c>
       <c r="I23">
-        <v>30.1707911401076</v>
+        <v>13.3383707398996</v>
       </c>
       <c r="J23">
-        <v>165.623439684678</v>
+        <v>127.292066188013</v>
       </c>
       <c r="K23">
-        <v>148.574412502361</v>
+        <v>111.623653537588</v>
       </c>
       <c r="L23">
-        <v>49.1229537195845</v>
+        <v>46.4088359225059</v>
       </c>
       <c r="M23">
-        <v>610.997825298508</v>
+        <v>563.984229718442</v>
       </c>
       <c r="N23">
-        <v>91.51248296257</v>
+        <v>83.0837402683424</v>
       </c>
       <c r="O23">
-        <v>3829.27114380265</v>
+        <v>3531.4746714771</v>
       </c>
       <c r="P23">
-        <v>46.7608835136819</v>
+        <v>46.2869867773206</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>581.878497963069</v>
+        <v>792.085259391478</v>
       </c>
       <c r="C24">
-        <v>50.9113631234817</v>
+        <v>50.6208814435147</v>
       </c>
       <c r="D24">
-        <v>11.5376784378932</v>
+        <v>7.35797276738417</v>
       </c>
       <c r="E24">
-        <v>44.9612418933595</v>
+        <v>56.5971749936979</v>
       </c>
       <c r="F24">
-        <v>21.0867072489466</v>
+        <v>12.4717340393087</v>
       </c>
       <c r="G24">
-        <v>25.0611154533461</v>
+        <v>29.8364184934336</v>
       </c>
       <c r="H24">
-        <v>17.8868285072789</v>
+        <v>14.37742956722</v>
       </c>
       <c r="I24">
-        <v>12.5462981491391</v>
+        <v>18.4965506884277</v>
       </c>
       <c r="J24">
-        <v>42.6879956193149</v>
+        <v>44.6477488573275</v>
       </c>
       <c r="K24">
-        <v>95.46706694417171</v>
+        <v>59.3562397725726</v>
       </c>
       <c r="L24">
-        <v>64.55818995425329</v>
+        <v>59.596212401851</v>
       </c>
       <c r="M24">
-        <v>14.277414367686</v>
+        <v>30.2042602264329</v>
       </c>
       <c r="N24">
-        <v>81.1211167036556</v>
+        <v>75.9531995930702</v>
       </c>
       <c r="O24">
-        <v>2247.11316437908</v>
+        <v>2046.63961786989</v>
       </c>
       <c r="P24">
-        <v>99.497769828117</v>
+        <v>101.249698960581</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>616.809066237038</v>
+        <v>749.795102838906</v>
       </c>
       <c r="C25">
-        <v>46.5393637086772</v>
+        <v>48.2165331825549</v>
       </c>
       <c r="D25">
-        <v>20.3286969441148</v>
+        <v>18.3219855044836</v>
       </c>
       <c r="E25">
-        <v>46.9450318112879</v>
+        <v>45.5631079531852</v>
       </c>
       <c r="F25">
-        <v>29.816674027133</v>
+        <v>20.3580232415181</v>
       </c>
       <c r="G25">
-        <v>9.911710521696961</v>
+        <v>7.88789218169003</v>
       </c>
       <c r="H25">
-        <v>16.6573924217731</v>
+        <v>11.5425415825806</v>
       </c>
       <c r="I25">
-        <v>5.61023324870534</v>
+        <v>7.16535230589419</v>
       </c>
       <c r="J25">
-        <v>18.2259648324071</v>
+        <v>18.1055519055404</v>
       </c>
       <c r="K25">
-        <v>24.6705890900827</v>
+        <v>19.0363892442036</v>
       </c>
       <c r="L25">
-        <v>27.2997288805086</v>
+        <v>18.490275902028</v>
       </c>
       <c r="M25">
-        <v>38.4675320808847</v>
+        <v>37.0317651424554</v>
       </c>
       <c r="N25">
-        <v>31.903522270075</v>
+        <v>36.3890280384414</v>
       </c>
       <c r="O25">
-        <v>1109.05485962562</v>
+        <v>1008.83040326145</v>
       </c>
       <c r="P25">
-        <v>42.9498705546267</v>
+        <v>43.8453507167362</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>826.7241786149961</v>
+        <v>1062.20284157954</v>
       </c>
       <c r="C26">
-        <v>67.3813817863777</v>
+        <v>63.1054226828071</v>
       </c>
       <c r="D26">
-        <v>11.8508297976841</v>
+        <v>14.125193112755</v>
       </c>
       <c r="E26">
-        <v>44.7215156786573</v>
+        <v>39.3345050461522</v>
       </c>
       <c r="F26">
-        <v>7.73502062936026</v>
+        <v>7.05744312826418</v>
       </c>
       <c r="G26">
-        <v>48.7957220828148</v>
+        <v>34.4681521941185</v>
       </c>
       <c r="H26">
-        <v>17.2783820315629</v>
+        <v>23.619828409545</v>
       </c>
       <c r="I26">
-        <v>16.1060712507474</v>
+        <v>21.4377329541064</v>
       </c>
       <c r="J26">
-        <v>55.5671370248039</v>
+        <v>69.7173739599677</v>
       </c>
       <c r="K26">
-        <v>47.1700497445446</v>
+        <v>29.9042380391304</v>
       </c>
       <c r="L26">
-        <v>32.7188278231901</v>
+        <v>28.3892827392116</v>
       </c>
       <c r="M26">
-        <v>72.1937670052471</v>
+        <v>79.8273964508944</v>
       </c>
       <c r="N26">
-        <v>31.7689467018392</v>
+        <v>23.0502828564002</v>
       </c>
       <c r="O26">
-        <v>2546.63040020293</v>
+        <v>2310.21703814563</v>
       </c>
       <c r="P26">
-        <v>57.0115018978797</v>
+        <v>68.909072819156</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>179.981994320807</v>
+        <v>218.985433612669</v>
       </c>
       <c r="C27">
-        <v>4.48062601295955</v>
+        <v>4.19824654236105</v>
       </c>
       <c r="D27">
-        <v>1.06826046941039</v>
+        <v>1.15128688290018</v>
       </c>
       <c r="E27">
-        <v>15.0074929919946</v>
+        <v>12.1837929483463</v>
       </c>
       <c r="F27">
-        <v>7.38156851748293</v>
+        <v>5.80849852923116</v>
       </c>
       <c r="G27">
-        <v>0.40512438989433</v>
+        <v>1.46785208650747</v>
       </c>
       <c r="H27">
-        <v>0.154517784658884</v>
+        <v>0.239236273435088</v>
       </c>
       <c r="I27">
-        <v>3.17006888614624</v>
+        <v>3.42511716544733</v>
       </c>
       <c r="J27">
-        <v>3.92318210676386</v>
+        <v>3.48629684605299</v>
       </c>
       <c r="K27">
-        <v>2.20733355564002</v>
+        <v>2.30404967333049</v>
       </c>
       <c r="L27">
-        <v>2.36946021873324</v>
+        <v>1.59419753207659</v>
       </c>
       <c r="M27">
-        <v>1.43477876149557</v>
+        <v>0.376578867450317</v>
       </c>
       <c r="N27">
-        <v>5.94527975744325</v>
+        <v>4.4759113580335</v>
       </c>
       <c r="O27">
-        <v>466.994874421816</v>
+        <v>437.246593095367</v>
       </c>
       <c r="P27">
-        <v>51.16356787404</v>
+        <v>50.3445618337148</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>207.327793895054</v>
+        <v>281.189803857851</v>
       </c>
       <c r="C28">
-        <v>32.3249546409035</v>
+        <v>36.418005584475</v>
       </c>
       <c r="D28">
-        <v>2.72478668654799</v>
+        <v>7.15702835075926</v>
       </c>
       <c r="E28">
-        <v>6.30235025434242</v>
+        <v>5.16502054096314</v>
       </c>
       <c r="F28">
-        <v>3.25682147086124</v>
+        <v>2.52071353003511</v>
       </c>
       <c r="G28">
-        <v>7.65041790298909</v>
+        <v>4.91839086590186</v>
       </c>
       <c r="H28">
-        <v>9.780061054576491</v>
+        <v>10.4021568808491</v>
       </c>
       <c r="I28">
-        <v>3.67394405479579</v>
+        <v>1.80767431494767</v>
       </c>
       <c r="J28">
-        <v>17.5085496211268</v>
+        <v>18.5842004595297</v>
       </c>
       <c r="K28">
-        <v>17.5267111418607</v>
+        <v>12.8406481149951</v>
       </c>
       <c r="L28">
-        <v>14.1084138030778</v>
+        <v>17.7903579814838</v>
       </c>
       <c r="M28">
-        <v>7.59063956300943</v>
+        <v>7.93107388347664</v>
       </c>
       <c r="N28">
-        <v>11.8642877578129</v>
+        <v>11.6951316915017</v>
       </c>
       <c r="O28">
-        <v>852.521127347282</v>
+        <v>767.402865365733</v>
       </c>
       <c r="P28">
-        <v>84.6674080109113</v>
+        <v>89.1458068538425</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>362.905400154836</v>
+        <v>433.08470798752</v>
       </c>
       <c r="C29">
-        <v>4.16145192819546</v>
+        <v>3.73005034770827</v>
       </c>
       <c r="D29">
-        <v>3.86892290703314</v>
+        <v>4.06897955903948</v>
       </c>
       <c r="E29">
-        <v>3.80936409113088</v>
+        <v>4.97376255493628</v>
       </c>
       <c r="F29">
-        <v>17.1966889484836</v>
+        <v>22.2303721272975</v>
       </c>
       <c r="G29">
-        <v>3.66106813725567</v>
+        <v>2.50888929965643</v>
       </c>
       <c r="H29">
-        <v>2.60175668599188</v>
+        <v>2.85112616895208</v>
       </c>
       <c r="I29">
-        <v>5.95969312253356</v>
+        <v>2.98484778640231</v>
       </c>
       <c r="J29">
-        <v>4.84940216109422</v>
+        <v>4.75348518043813</v>
       </c>
       <c r="K29">
-        <v>4.34158119724053</v>
+        <v>3.13959806666799</v>
       </c>
       <c r="L29">
-        <v>2.46198488679088</v>
+        <v>3.01199270957663</v>
       </c>
       <c r="M29">
-        <v>1.86393940318798</v>
+        <v>2.8458528907007</v>
       </c>
       <c r="N29">
-        <v>11.037731606842</v>
+        <v>13.6756854988867</v>
       </c>
       <c r="O29">
-        <v>1096.94782987294</v>
+        <v>1015.60934827902</v>
       </c>
       <c r="P29">
-        <v>3.70353854097003</v>
+        <v>6.7765624996197</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>183.556571518388</v>
+        <v>238.946485352786</v>
       </c>
       <c r="C30">
-        <v>4.21757623094208</v>
+        <v>4.09998974640262</v>
       </c>
       <c r="D30">
-        <v>7.42937396181701</v>
+        <v>8.61537375984283</v>
       </c>
       <c r="E30">
-        <v>8.29883823616211</v>
+        <v>14.7410649493407</v>
       </c>
       <c r="F30">
-        <v>0.356648870147114</v>
+        <v>1.46460216261227</v>
       </c>
       <c r="G30">
-        <v>4.74381474128009</v>
+        <v>4.96825181642521</v>
       </c>
       <c r="H30">
-        <v>8.10745396606101</v>
+        <v>6.04008233849623</v>
       </c>
       <c r="I30">
-        <v>3.67343194575428</v>
+        <v>3.56448495491253</v>
       </c>
       <c r="J30">
-        <v>15.6553903828906</v>
+        <v>16.578876792141</v>
       </c>
       <c r="K30">
-        <v>19.7978518946986</v>
+        <v>13.2867978358777</v>
       </c>
       <c r="L30">
-        <v>46.4163944841359</v>
+        <v>38.7870680480712</v>
       </c>
       <c r="M30">
-        <v>11.4475844424898</v>
+        <v>11.714893117236</v>
       </c>
       <c r="N30">
-        <v>16.7798416059551</v>
+        <v>13.9587645568887</v>
       </c>
       <c r="O30">
-        <v>623.850749150188</v>
+        <v>572.813762617716</v>
       </c>
       <c r="P30">
-        <v>8.37490777235535</v>
+        <v>9.68182769766999</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>1485.61645842103</v>
+        <v>1733.03154664521</v>
       </c>
       <c r="C31">
-        <v>47.5241241566698</v>
+        <v>50.3737874235155</v>
       </c>
       <c r="D31">
-        <v>48.743165141301</v>
+        <v>41.7326183518891</v>
       </c>
       <c r="E31">
-        <v>24.1415685703344</v>
+        <v>44.7782043961466</v>
       </c>
       <c r="F31">
-        <v>9.56454004742629</v>
+        <v>8.8471506953905</v>
       </c>
       <c r="G31">
-        <v>152.23786738083</v>
+        <v>118.923926711054</v>
       </c>
       <c r="H31">
-        <v>27.6393430156883</v>
+        <v>14.2278601432383</v>
       </c>
       <c r="I31">
-        <v>26.340167055269</v>
+        <v>28.6238231672778</v>
       </c>
       <c r="J31">
-        <v>41.3501598269722</v>
+        <v>47.274229105368</v>
       </c>
       <c r="K31">
-        <v>42.5028347206353</v>
+        <v>23.6937226199538</v>
       </c>
       <c r="L31">
-        <v>70.1938903751863</v>
+        <v>74.06584081313611</v>
       </c>
       <c r="M31">
-        <v>19.262699593361</v>
+        <v>16.9136046733254</v>
       </c>
       <c r="N31">
-        <v>60.5278620289793</v>
+        <v>53.4181141382839</v>
       </c>
       <c r="O31">
-        <v>3853.87977992037</v>
+        <v>3651.78716722252</v>
       </c>
       <c r="P31">
-        <v>8.00230529701734</v>
+        <v>4.59248146852209</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>377.119339341678</v>
+        <v>443.583439339068</v>
       </c>
       <c r="C32">
-        <v>6.38930262207159</v>
+        <v>6.14984665971703</v>
       </c>
       <c r="D32">
-        <v>3.05180610457923</v>
+        <v>0.905953746715</v>
       </c>
       <c r="E32">
-        <v>3.12596041746631</v>
+        <v>2.26628531932032</v>
       </c>
       <c r="F32">
-        <v>37.247921715964</v>
+        <v>27.6651224170958</v>
       </c>
       <c r="G32">
-        <v>1.30331116894262</v>
+        <v>3.62849091457312</v>
       </c>
       <c r="H32">
-        <v>1.74150449825127</v>
+        <v>2.18392854277092</v>
       </c>
       <c r="I32">
-        <v>6.78941575851328</v>
+        <v>4.66405737027802</v>
       </c>
       <c r="J32">
-        <v>4.39360388670599</v>
+        <v>6.26945038471647</v>
       </c>
       <c r="K32">
-        <v>6.48625766902001</v>
+        <v>1.65745913384557</v>
       </c>
       <c r="L32">
-        <v>13.9018319239157</v>
+        <v>20.2138886567565</v>
       </c>
       <c r="M32">
-        <v>3.16237241466937</v>
+        <v>2.44417945349422</v>
       </c>
       <c r="N32">
-        <v>11.7954970508244</v>
+        <v>6.85208907667872</v>
       </c>
       <c r="O32">
-        <v>817.339228405797</v>
+        <v>770.547693072544</v>
       </c>
       <c r="P32">
-        <v>23.1197001202366</v>
+        <v>22.3484296698376</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>3900.42902255445</v>
+        <v>4520.13960574268</v>
       </c>
       <c r="C33">
-        <v>80.75708309846981</v>
+        <v>80.94813380824191</v>
       </c>
       <c r="D33">
-        <v>120.819534522952</v>
+        <v>93.800479507475</v>
       </c>
       <c r="E33">
-        <v>43.3573070646682</v>
+        <v>66.6147476323918</v>
       </c>
       <c r="F33">
-        <v>8.61082445646475</v>
+        <v>8.18269497572966</v>
       </c>
       <c r="G33">
-        <v>64.3911000209991</v>
+        <v>74.20841391191129</v>
       </c>
       <c r="H33">
-        <v>40.7922617316903</v>
+        <v>35.5438055950009</v>
       </c>
       <c r="I33">
-        <v>32.984305010366</v>
+        <v>32.6256375082857</v>
       </c>
       <c r="J33">
-        <v>98.7156213222974</v>
+        <v>109.87988241351</v>
       </c>
       <c r="K33">
-        <v>117.809671958642</v>
+        <v>93.76812526727539</v>
       </c>
       <c r="L33">
-        <v>151.036560032124</v>
+        <v>126.861332204889</v>
       </c>
       <c r="M33">
-        <v>88.4928853672744</v>
+        <v>67.1937524798368</v>
       </c>
       <c r="N33">
-        <v>190.60984346894</v>
+        <v>151.385356881849</v>
       </c>
       <c r="O33">
-        <v>8151.68912246969</v>
+        <v>7639.03027729444</v>
       </c>
       <c r="P33">
-        <v>56.1714014505734</v>
+        <v>60.2589312733622</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>1434.72408828577</v>
+        <v>1854.87911298363</v>
       </c>
       <c r="C34">
-        <v>81.1950069500957</v>
+        <v>75.02410659991961</v>
       </c>
       <c r="D34">
-        <v>222.184277059497</v>
+        <v>172.378882572405</v>
       </c>
       <c r="E34">
-        <v>58.0849089287906</v>
+        <v>47.3674117537041</v>
       </c>
       <c r="F34">
-        <v>5.62549439484205</v>
+        <v>6.49443263840361</v>
       </c>
       <c r="G34">
-        <v>66.8616476867514</v>
+        <v>46.7717504102052</v>
       </c>
       <c r="H34">
-        <v>53.3462749341453</v>
+        <v>43.1568687602867</v>
       </c>
       <c r="I34">
-        <v>26.4942462612533</v>
+        <v>16.2720368186865</v>
       </c>
       <c r="J34">
-        <v>54.626470822917</v>
+        <v>56.4006073956238</v>
       </c>
       <c r="K34">
-        <v>86.67879849731639</v>
+        <v>48.6808379053243</v>
       </c>
       <c r="L34">
-        <v>135.619739270391</v>
+        <v>94.7832669583325</v>
       </c>
       <c r="M34">
-        <v>47.9937167283905</v>
+        <v>34.6253220269468</v>
       </c>
       <c r="N34">
-        <v>136.750854122047</v>
+        <v>128.220598419253</v>
       </c>
       <c r="O34">
-        <v>3213.36169591517</v>
+        <v>2998.34268306742</v>
       </c>
       <c r="P34">
-        <v>69.7300755743525</v>
+        <v>68.1078004434038</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>89.6137274579693</v>
+        <v>121.92774928166</v>
       </c>
       <c r="C35">
-        <v>7.21810696809475</v>
+        <v>8.72972910590477</v>
       </c>
       <c r="D35">
-        <v>0.871784952442465</v>
+        <v>0.733638832784752</v>
       </c>
       <c r="E35">
-        <v>3.36114283359723</v>
+        <v>2.6300141443003</v>
       </c>
       <c r="F35">
-        <v>5.82686379260844</v>
+        <v>4.89448568024325</v>
       </c>
       <c r="G35">
-        <v>0.221719703431064</v>
+        <v>1.36524829953725</v>
       </c>
       <c r="H35">
-        <v>0.934521625934838</v>
+        <v>0.434958811548104</v>
       </c>
       <c r="I35">
-        <v>1.16249277220701</v>
+        <v>1.36014463075271</v>
       </c>
       <c r="J35">
-        <v>2.72862894500166</v>
+        <v>3.29468924159581</v>
       </c>
       <c r="K35">
-        <v>7.15451862517671</v>
+        <v>6.39243323359616</v>
       </c>
       <c r="L35">
-        <v>3.43150592249429</v>
+        <v>3.11162379180113</v>
       </c>
       <c r="M35">
-        <v>3.03662883043356</v>
+        <v>2.02473012786513</v>
       </c>
       <c r="N35">
-        <v>2.67566378088356</v>
+        <v>3.01753264163008</v>
       </c>
       <c r="O35">
-        <v>343.711825211097</v>
+        <v>305.622154341034</v>
       </c>
       <c r="P35">
-        <v>45.5614604907549</v>
+        <v>50.7151776280482</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>1983.54493138194</v>
+        <v>2431.69854806834</v>
       </c>
       <c r="C36">
-        <v>69.2870619014337</v>
+        <v>48.486624542533</v>
       </c>
       <c r="D36">
-        <v>18.1253297681934</v>
+        <v>13.9405710172358</v>
       </c>
       <c r="E36">
-        <v>61.9209106234874</v>
+        <v>88.5040809871296</v>
       </c>
       <c r="F36">
-        <v>43.238624442195</v>
+        <v>33.3438534707687</v>
       </c>
       <c r="G36">
-        <v>104.571553816602</v>
+        <v>101.07492469049</v>
       </c>
       <c r="H36">
-        <v>114.196080331739</v>
+        <v>95.3268354587256</v>
       </c>
       <c r="I36">
-        <v>47.4067307267737</v>
+        <v>40.4691599201496</v>
       </c>
       <c r="J36">
-        <v>219.814013427871</v>
+        <v>200.778194564308</v>
       </c>
       <c r="K36">
-        <v>169.151034133589</v>
+        <v>118.28131919739</v>
       </c>
       <c r="L36">
-        <v>108.571930120498</v>
+        <v>81.60405865725539</v>
       </c>
       <c r="M36">
-        <v>226.085774547854</v>
+        <v>223.077003307473</v>
       </c>
       <c r="N36">
-        <v>94.63651855239991</v>
+        <v>113.213116142888</v>
       </c>
       <c r="O36">
-        <v>4673.1494210481</v>
+        <v>4335.10901046118</v>
       </c>
       <c r="P36">
-        <v>39.0392682143131</v>
+        <v>46.2626291408673</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>674.442303347848</v>
+        <v>789.1209917821431</v>
       </c>
       <c r="C37">
-        <v>22.7397810215958</v>
+        <v>22.7988169926617</v>
       </c>
       <c r="D37">
-        <v>11.1235491301836</v>
+        <v>4.78734797105291</v>
       </c>
       <c r="E37">
-        <v>14.2217876874634</v>
+        <v>20.3351096341817</v>
       </c>
       <c r="F37">
-        <v>44.0381542372846</v>
+        <v>34.535627354536</v>
       </c>
       <c r="G37">
-        <v>7.78834582284468</v>
+        <v>8.60204327565566</v>
       </c>
       <c r="H37">
-        <v>24.26980149569</v>
+        <v>26.4257243276174</v>
       </c>
       <c r="I37">
-        <v>15.1654395185938</v>
+        <v>13.8320714885105</v>
       </c>
       <c r="J37">
-        <v>27.1285837620679</v>
+        <v>35.3268132264299</v>
       </c>
       <c r="K37">
-        <v>44.655903712709</v>
+        <v>40.1526275813206</v>
       </c>
       <c r="L37">
-        <v>29.7098646952704</v>
+        <v>23.5400209568511</v>
       </c>
       <c r="M37">
-        <v>29.307293142526</v>
+        <v>36.5929323120282</v>
       </c>
       <c r="N37">
-        <v>15.782678387489</v>
+        <v>17.9950389660389</v>
       </c>
       <c r="O37">
-        <v>1358.27686141648</v>
+        <v>1243.05979376032</v>
       </c>
       <c r="P37">
-        <v>52.8868985046</v>
+        <v>59.2441257250041</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>640.791396846585</v>
+        <v>761.274801161615</v>
       </c>
       <c r="C38">
-        <v>26.4833670212631</v>
+        <v>22.9028227767691</v>
       </c>
       <c r="D38">
-        <v>14.4525598198654</v>
+        <v>11.6690329451789</v>
       </c>
       <c r="E38">
-        <v>47.7730011435684</v>
+        <v>48.8332186389892</v>
       </c>
       <c r="F38">
-        <v>3.90252244968809</v>
+        <v>2.96745037161919</v>
       </c>
       <c r="G38">
-        <v>6.6420494212783</v>
+        <v>5.12340634022206</v>
       </c>
       <c r="H38">
-        <v>8.06002045389088</v>
+        <v>4.71948506737683</v>
       </c>
       <c r="I38">
-        <v>3.61874446231471</v>
+        <v>3.93991785889437</v>
       </c>
       <c r="J38">
-        <v>37.9673823546835</v>
+        <v>43.9593640563153</v>
       </c>
       <c r="K38">
-        <v>17.1616936617876</v>
+        <v>8.174950183834961</v>
       </c>
       <c r="L38">
-        <v>82.8628532331666</v>
+        <v>57.8956920759581</v>
       </c>
       <c r="M38">
-        <v>24.7173752363175</v>
+        <v>14.4720047940536</v>
       </c>
       <c r="N38">
-        <v>23.3307404829377</v>
+        <v>33.6565171309168</v>
       </c>
       <c r="O38">
-        <v>1459.59654375312</v>
+        <v>1386.19867404983</v>
       </c>
       <c r="P38">
-        <v>69.9920257541196</v>
+        <v>65.31522884213401</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>2239.1225145135</v>
+        <v>2812.47180273974</v>
       </c>
       <c r="C39">
-        <v>130.838743922228</v>
+        <v>89.6197831380543</v>
       </c>
       <c r="D39">
-        <v>66.41717619609049</v>
+        <v>55.3434522909489</v>
       </c>
       <c r="E39">
-        <v>83.4976132227835</v>
+        <v>115.390821347472</v>
       </c>
       <c r="F39">
-        <v>26.5410033012459</v>
+        <v>24.9354756084194</v>
       </c>
       <c r="G39">
-        <v>129.911753710759</v>
+        <v>120.763184665405</v>
       </c>
       <c r="H39">
-        <v>42.9466045381089</v>
+        <v>52.8221207579296</v>
       </c>
       <c r="I39">
-        <v>53.3181707483327</v>
+        <v>42.327320593401</v>
       </c>
       <c r="J39">
-        <v>165.464545402208</v>
+        <v>159.749598929586</v>
       </c>
       <c r="K39">
-        <v>143.709132455682</v>
+        <v>114.135650029</v>
       </c>
       <c r="L39">
-        <v>123.886695760508</v>
+        <v>103.317662802932</v>
       </c>
       <c r="M39">
-        <v>74.4954916178614</v>
+        <v>60.8205873721531</v>
       </c>
       <c r="N39">
-        <v>118.485368167231</v>
+        <v>109.524427803278</v>
       </c>
       <c r="O39">
-        <v>5256.69143096319</v>
+        <v>4788.54807558939</v>
       </c>
       <c r="P39">
-        <v>52.7085856152123</v>
+        <v>56.9995159721347</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>197.75194957397</v>
+        <v>239.534386468723</v>
       </c>
       <c r="C40">
-        <v>4.35918986425179</v>
+        <v>4.00505477652716</v>
       </c>
       <c r="D40">
-        <v>12.3560424188164</v>
+        <v>8.99368686853661</v>
       </c>
       <c r="E40">
-        <v>3.33710858008393</v>
+        <v>4.83058733090849</v>
       </c>
       <c r="F40">
-        <v>0.927049704784668</v>
+        <v>0.22151328922383</v>
       </c>
       <c r="G40">
-        <v>7.41004618723102</v>
+        <v>5.99266125915847</v>
       </c>
       <c r="H40">
-        <v>9.73876363624049</v>
+        <v>5.20491470419378</v>
       </c>
       <c r="I40">
-        <v>2.38588471026732</v>
+        <v>1.9738054694069</v>
       </c>
       <c r="J40">
-        <v>13.8807162674631</v>
+        <v>8.779885196535711</v>
       </c>
       <c r="K40">
-        <v>10.5135094337908</v>
+        <v>6.30993687424233</v>
       </c>
       <c r="L40">
-        <v>15.5113337513309</v>
+        <v>17.4312550823336</v>
       </c>
       <c r="M40">
-        <v>7.98282227823258</v>
+        <v>6.45052217375527</v>
       </c>
       <c r="N40">
-        <v>31.8641069974655</v>
+        <v>26.0770657644656</v>
       </c>
       <c r="O40">
-        <v>525.968663326497</v>
+        <v>506.468135845175</v>
       </c>
       <c r="P40">
-        <v>1.3140617325722</v>
+        <v>2.21506269028507</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>771.350136352857</v>
+        <v>968.047235021416</v>
       </c>
       <c r="C41">
-        <v>11.3489438097609</v>
+        <v>10.015215978875</v>
       </c>
       <c r="D41">
-        <v>100.647252140508</v>
+        <v>78.3738935350479</v>
       </c>
       <c r="E41">
-        <v>41.9682464006756</v>
+        <v>27.9541166303189</v>
       </c>
       <c r="F41">
-        <v>2.59854608835919</v>
+        <v>1.06602267528349</v>
       </c>
       <c r="G41">
-        <v>46.8748651053442</v>
+        <v>28.2187910362305</v>
       </c>
       <c r="H41">
-        <v>42.3959386509734</v>
+        <v>35.4257384138613</v>
       </c>
       <c r="I41">
-        <v>8.75459583561247</v>
+        <v>15.6083404975309</v>
       </c>
       <c r="J41">
-        <v>59.8266020134535</v>
+        <v>45.8649251119869</v>
       </c>
       <c r="K41">
-        <v>56.8187501039104</v>
+        <v>20.5380998842527</v>
       </c>
       <c r="L41">
-        <v>29.6669593708451</v>
+        <v>33.3542397060643</v>
       </c>
       <c r="M41">
-        <v>38.2990563097565</v>
+        <v>22.1855714321905</v>
       </c>
       <c r="N41">
-        <v>26.9693987244619</v>
+        <v>23.3225255532024</v>
       </c>
       <c r="O41">
-        <v>1547.27838969396</v>
+        <v>1466.0330824347</v>
       </c>
       <c r="P41">
-        <v>21.1547583009559</v>
+        <v>34.1387599111552</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>108.772554007519</v>
+        <v>130.480290870842</v>
       </c>
       <c r="C42">
-        <v>8.810326854462801</v>
+        <v>6.81005813653684</v>
       </c>
       <c r="D42">
-        <v>1.36858139875725</v>
+        <v>1.79782100765226</v>
       </c>
       <c r="E42">
-        <v>6.93216650925812</v>
+        <v>5.76905258447207</v>
       </c>
       <c r="F42">
-        <v>2.67591864783301</v>
+        <v>3.10551943197704</v>
       </c>
       <c r="G42">
-        <v>1.14511419353427</v>
+        <v>2.1074099606482</v>
       </c>
       <c r="H42">
-        <v>2.39264268006403</v>
+        <v>0.7794633843714111</v>
       </c>
       <c r="I42">
-        <v>1.06547999272034</v>
+        <v>0.65656758872605</v>
       </c>
       <c r="J42">
-        <v>4.81727637456767</v>
+        <v>3.80707108547246</v>
       </c>
       <c r="K42">
-        <v>8.863109268806991</v>
+        <v>7.11695747270736</v>
       </c>
       <c r="L42">
-        <v>9.69861750125904</v>
+        <v>9.620400426990241</v>
       </c>
       <c r="M42">
-        <v>4.44170323036271</v>
+        <v>4.1141429615514</v>
       </c>
       <c r="N42">
-        <v>9.122591955387939</v>
+        <v>8.38180310116258</v>
       </c>
       <c r="O42">
-        <v>430.675199145248</v>
+        <v>404.291245504916</v>
       </c>
       <c r="P42">
-        <v>49.1197862999425</v>
+        <v>58.7449491682903</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1193.90876323364</v>
+        <v>1364.69654784834</v>
       </c>
       <c r="C43">
-        <v>38.5123003486788</v>
+        <v>41.8031791410049</v>
       </c>
       <c r="D43">
-        <v>50.2265125698445</v>
+        <v>47.1969162541134</v>
       </c>
       <c r="E43">
-        <v>37.60170156207</v>
+        <v>60.8125378278468</v>
       </c>
       <c r="F43">
-        <v>10.1732637677866</v>
+        <v>7.89746091736951</v>
       </c>
       <c r="G43">
-        <v>30.8168887905677</v>
+        <v>17.1109190859627</v>
       </c>
       <c r="H43">
-        <v>23.5349167667439</v>
+        <v>33.3904907672846</v>
       </c>
       <c r="I43">
-        <v>28.4141484698088</v>
+        <v>29.4975117819578</v>
       </c>
       <c r="J43">
-        <v>51.7741858288658</v>
+        <v>42.2608255533194</v>
       </c>
       <c r="K43">
-        <v>72.8587810128199</v>
+        <v>55.4766692443251</v>
       </c>
       <c r="L43">
-        <v>53.5646181619016</v>
+        <v>45.9870413392834</v>
       </c>
       <c r="M43">
-        <v>82.0138779241715</v>
+        <v>111.257132208829</v>
       </c>
       <c r="N43">
-        <v>71.61882808926801</v>
+        <v>61.8803725908214</v>
       </c>
       <c r="O43">
-        <v>2256.01739388843</v>
+        <v>2087.676136267</v>
       </c>
       <c r="P43">
-        <v>43.9315878901708</v>
+        <v>44.7436022335356</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>3602.12784324432</v>
+        <v>4325.31403300089</v>
       </c>
       <c r="C44">
-        <v>167.511711688759</v>
+        <v>152.517566715923</v>
       </c>
       <c r="D44">
-        <v>67.7702568238895</v>
+        <v>55.4376348528242</v>
       </c>
       <c r="E44">
-        <v>74.3154673859066</v>
+        <v>99.4777902779143</v>
       </c>
       <c r="F44">
-        <v>253.16369289355</v>
+        <v>239.263825819579</v>
       </c>
       <c r="G44">
-        <v>150.222398831377</v>
+        <v>139.828816233772</v>
       </c>
       <c r="H44">
-        <v>49.920211906195</v>
+        <v>40.8186350724346</v>
       </c>
       <c r="I44">
-        <v>56.3276079929001</v>
+        <v>44.7036736981149</v>
       </c>
       <c r="J44">
-        <v>143.6200694991</v>
+        <v>113.967969365757</v>
       </c>
       <c r="K44">
-        <v>134.410450477415</v>
+        <v>80.3263140425734</v>
       </c>
       <c r="L44">
-        <v>254.039195087492</v>
+        <v>199.921630149267</v>
       </c>
       <c r="M44">
-        <v>112.431084304542</v>
+        <v>101.302633729855</v>
       </c>
       <c r="N44">
-        <v>90.00048772522599</v>
+        <v>89.9515236443582</v>
       </c>
       <c r="O44">
-        <v>8466.106420876669</v>
+        <v>7971.02771604475</v>
       </c>
       <c r="P44">
-        <v>253.614353522155</v>
+        <v>221.960229290643</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>354.715112962502</v>
+        <v>423.328132231173</v>
       </c>
       <c r="C45">
-        <v>15.7682948195592</v>
+        <v>16.9730565865442</v>
       </c>
       <c r="D45">
-        <v>5.59217107204755</v>
+        <v>2.88718556267701</v>
       </c>
       <c r="E45">
-        <v>6.67864597513178</v>
+        <v>17.3051641310855</v>
       </c>
       <c r="F45">
-        <v>25.3314523087101</v>
+        <v>23.9321623302238</v>
       </c>
       <c r="G45">
-        <v>12.7902460430505</v>
+        <v>7.44663539852453</v>
       </c>
       <c r="H45">
-        <v>5.4506237940569</v>
+        <v>2.07211841013373</v>
       </c>
       <c r="I45">
-        <v>5.50555499249064</v>
+        <v>4.10254354517185</v>
       </c>
       <c r="J45">
-        <v>17.5743876730619</v>
+        <v>25.4175049976467</v>
       </c>
       <c r="K45">
-        <v>10.4841417957523</v>
+        <v>6.05170940888334</v>
       </c>
       <c r="L45">
-        <v>21.0295527613406</v>
+        <v>14.4691489784984</v>
       </c>
       <c r="M45">
-        <v>23.6179510006941</v>
+        <v>18.233148483601</v>
       </c>
       <c r="N45">
-        <v>25.1783318452038</v>
+        <v>26.7948531259814</v>
       </c>
       <c r="O45">
-        <v>932.7639176890571</v>
+        <v>868.2850244662681</v>
       </c>
       <c r="P45">
-        <v>13.9173510024491</v>
+        <v>18.3520482464128</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>99.57461785474641</v>
+        <v>129.145976706446</v>
       </c>
       <c r="C46">
-        <v>5.74046839455058</v>
+        <v>4.00244944135987</v>
       </c>
       <c r="D46">
-        <v>2.35664485420578</v>
+        <v>1.2706896403187</v>
       </c>
       <c r="E46">
-        <v>6.54700911685784</v>
+        <v>6.37550460625975</v>
       </c>
       <c r="F46">
-        <v>1.93566381022117</v>
+        <v>1.43852998793659</v>
       </c>
       <c r="G46">
-        <v>2.43375738169256</v>
+        <v>3.94706088628567</v>
       </c>
       <c r="H46">
-        <v>3.39571229160195</v>
+        <v>1.93125166783361</v>
       </c>
       <c r="I46">
-        <v>2.03750961782697</v>
+        <v>1.68781792227899</v>
       </c>
       <c r="J46">
-        <v>5.37565620209079</v>
+        <v>4.99792941516443</v>
       </c>
       <c r="K46">
-        <v>6.40535681161876</v>
+        <v>5.44388023994913</v>
       </c>
       <c r="L46">
-        <v>16.4467956122355</v>
+        <v>13.3421312294716</v>
       </c>
       <c r="M46">
-        <v>5.64241485610606</v>
+        <v>4.056674122806</v>
       </c>
       <c r="N46">
-        <v>9.292194711442241</v>
+        <v>10.572389050758</v>
       </c>
       <c r="O46">
-        <v>349.335428570515</v>
+        <v>324.592358215947</v>
       </c>
       <c r="P46">
-        <v>11.253206779981</v>
+        <v>12.5104991228391</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1197.49562832343</v>
+        <v>1480.44870429646</v>
       </c>
       <c r="C47">
-        <v>57.4590719471982</v>
+        <v>56.8644057309071</v>
       </c>
       <c r="D47">
-        <v>35.335518561023</v>
+        <v>36.1786515850524</v>
       </c>
       <c r="E47">
-        <v>36.6733544270273</v>
+        <v>55.4468784372539</v>
       </c>
       <c r="F47">
-        <v>7.11283556901754</v>
+        <v>7.96343090355823</v>
       </c>
       <c r="G47">
-        <v>30.4246209617729</v>
+        <v>25.5230381218445</v>
       </c>
       <c r="H47">
-        <v>22.0183801735267</v>
+        <v>13.5665803027526</v>
       </c>
       <c r="I47">
-        <v>14.283562589093</v>
+        <v>5.8840054035358</v>
       </c>
       <c r="J47">
-        <v>49.6817241167471</v>
+        <v>39.1273406042806</v>
       </c>
       <c r="K47">
-        <v>25.0447360492828</v>
+        <v>16.9849988072499</v>
       </c>
       <c r="L47">
-        <v>59.0104880522642</v>
+        <v>42.2375601791544</v>
       </c>
       <c r="M47">
-        <v>77.8288503975751</v>
+        <v>71.7887316487115</v>
       </c>
       <c r="N47">
-        <v>37.7137593205327</v>
+        <v>37.254878363344</v>
       </c>
       <c r="O47">
-        <v>3198.95014641626</v>
+        <v>2953.15452561048</v>
       </c>
       <c r="P47">
-        <v>36.2125844911998</v>
+        <v>37.0179080517226</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1097.71682609862</v>
+        <v>1313.39019618938</v>
       </c>
       <c r="C48">
-        <v>21.2475481618913</v>
+        <v>18.0668059736676</v>
       </c>
       <c r="D48">
-        <v>9.949778212918311</v>
+        <v>8.37900377392805</v>
       </c>
       <c r="E48">
-        <v>70.9986501644397</v>
+        <v>71.569074308583</v>
       </c>
       <c r="F48">
-        <v>14.930784728344</v>
+        <v>5.03037596626951</v>
       </c>
       <c r="G48">
-        <v>10.3244532323507</v>
+        <v>4.84599723411483</v>
       </c>
       <c r="H48">
-        <v>4.02904399028017</v>
+        <v>3.43781077802154</v>
       </c>
       <c r="I48">
-        <v>13.5223850049901</v>
+        <v>8.69733751042461</v>
       </c>
       <c r="J48">
-        <v>27.1832633483272</v>
+        <v>35.5753383850709</v>
       </c>
       <c r="K48">
-        <v>27.1717396448123</v>
+        <v>14.6564714640063</v>
       </c>
       <c r="L48">
-        <v>41.7626629128123</v>
+        <v>41.8192358164012</v>
       </c>
       <c r="M48">
-        <v>157.945905675165</v>
+        <v>115.329668846154</v>
       </c>
       <c r="N48">
-        <v>23.9688963424775</v>
+        <v>27.1920063397744</v>
       </c>
       <c r="O48">
-        <v>2506.21222118324</v>
+        <v>2351.0178632306</v>
       </c>
       <c r="P48">
-        <v>79.7232728465962</v>
+        <v>91.88764769253601</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>547.020363326253</v>
+        <v>646.501635908125</v>
       </c>
       <c r="C49">
-        <v>6.19677161032247</v>
+        <v>6.82372890112735</v>
       </c>
       <c r="D49">
-        <v>6.41374240445007</v>
+        <v>4.28732227430513</v>
       </c>
       <c r="E49">
-        <v>15.9349924868639</v>
+        <v>22.2407528363223</v>
       </c>
       <c r="F49">
-        <v>42.3954137959934</v>
+        <v>30.2250074597103</v>
       </c>
       <c r="G49">
-        <v>21.6716492912685</v>
+        <v>16.8787468495556</v>
       </c>
       <c r="H49">
-        <v>6.74003321109453</v>
+        <v>6.75986096691477</v>
       </c>
       <c r="I49">
-        <v>10.6512835490453</v>
+        <v>6.45286282286841</v>
       </c>
       <c r="J49">
-        <v>26.23638269236</v>
+        <v>23.5120010515388</v>
       </c>
       <c r="K49">
-        <v>10.1617435518011</v>
+        <v>4.36476308131677</v>
       </c>
       <c r="L49">
-        <v>3.20176819759168</v>
+        <v>1.73203022881779</v>
       </c>
       <c r="M49">
-        <v>7.0005229601913</v>
+        <v>7.79951896238779</v>
       </c>
       <c r="N49">
-        <v>3.76060523797076</v>
+        <v>4.79571452355417</v>
       </c>
       <c r="O49">
-        <v>731.590300561241</v>
+        <v>668.262953941228</v>
       </c>
       <c r="P49">
-        <v>9.590395500244471</v>
+        <v>7.79040621105211</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>747.665507856202</v>
+        <v>918.905833009303</v>
       </c>
       <c r="C50">
-        <v>87.5668034351863</v>
+        <v>76.8640276491526</v>
       </c>
       <c r="D50">
-        <v>13.3971367729479</v>
+        <v>19.6693092899453</v>
       </c>
       <c r="E50">
-        <v>111.75279810266</v>
+        <v>145.257162714955</v>
       </c>
       <c r="F50">
-        <v>2.9564477531121</v>
+        <v>2.78126573362864</v>
       </c>
       <c r="G50">
-        <v>36.7642619793098</v>
+        <v>33.387945815927</v>
       </c>
       <c r="H50">
-        <v>40.2314206477188</v>
+        <v>38.5071658929907</v>
       </c>
       <c r="I50">
-        <v>15.3526981827963</v>
+        <v>14.9974637100719</v>
       </c>
       <c r="J50">
-        <v>102.677505654153</v>
+        <v>110.553663673216</v>
       </c>
       <c r="K50">
-        <v>112.557362300758</v>
+        <v>92.189046474435</v>
       </c>
       <c r="L50">
-        <v>87.8620669185346</v>
+        <v>58.816693124268</v>
       </c>
       <c r="M50">
-        <v>31.8749224996031</v>
+        <v>34.4268741541358</v>
       </c>
       <c r="N50">
-        <v>80.9616279129324</v>
+        <v>56.3915406931495</v>
       </c>
       <c r="O50">
-        <v>2268.47379317996</v>
+        <v>2122.9825079457</v>
       </c>
       <c r="P50">
-        <v>73.98255855305941</v>
+        <v>83.56749886844609</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>110.086998083276</v>
+        <v>132.507771310962</v>
       </c>
       <c r="C51">
-        <v>2.36349278730913</v>
+        <v>3.59295359266236</v>
       </c>
       <c r="D51">
-        <v>0.137011922318322</v>
+        <v>0.0681148970088237</v>
       </c>
       <c r="E51">
-        <v>1.49301856103968</v>
+        <v>2.00809765002446</v>
       </c>
       <c r="F51">
-        <v>39.0009050848501</v>
+        <v>33.7175541567886</v>
       </c>
       <c r="G51">
-        <v>2.10942320036178</v>
+        <v>2.00706918537203</v>
       </c>
       <c r="H51">
-        <v>0.403346080072266</v>
+        <v>0.0149560158334064</v>
       </c>
       <c r="I51">
-        <v>1.79304002442755</v>
+        <v>1.25537138542428</v>
       </c>
       <c r="J51">
-        <v>2.70022245430109</v>
+        <v>1.31878135053155</v>
       </c>
       <c r="K51">
-        <v>1.32837768159012</v>
+        <v>1.55163839924449</v>
       </c>
       <c r="L51">
-        <v>0.3791229960924</v>
+        <v>0.340917219875659</v>
       </c>
       <c r="M51">
-        <v>0.936866425417951</v>
+        <v>0.425270444260041</v>
       </c>
       <c r="N51">
-        <v>2.29419240515222</v>
+        <v>2.00668619674684</v>
       </c>
       <c r="O51">
-        <v>317.39504480492</v>
+        <v>298.300513119467</v>
       </c>
       <c r="P51">
-        <v>21.6054476718059</v>
+        <v>25.5002303011215</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2002.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2002.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>1249.17695194929</v>
+        <v>1361.16068496757</v>
       </c>
       <c r="C2">
-        <v>29.3507476763596</v>
+        <v>30.9076787043908</v>
       </c>
       <c r="D2">
-        <v>48.8292958531142</v>
+        <v>50.4994358860786</v>
       </c>
       <c r="E2">
-        <v>65.2416752957953</v>
+        <v>62.4559413242546</v>
       </c>
       <c r="F2">
-        <v>18.5341398551611</v>
+        <v>18.0063026283498</v>
       </c>
       <c r="G2">
-        <v>14.2918580789562</v>
+        <v>13.1017179380622</v>
       </c>
       <c r="H2">
-        <v>30.5076172010161</v>
+        <v>25.6085812577709</v>
       </c>
       <c r="I2">
-        <v>14.3638212928411</v>
+        <v>13.1857929124437</v>
       </c>
       <c r="J2">
-        <v>63.8632446127071</v>
+        <v>62.757006456482</v>
       </c>
       <c r="K2">
-        <v>19.9850349662989</v>
+        <v>19.5212325844041</v>
       </c>
       <c r="L2">
-        <v>42.3363378236037</v>
+        <v>41.784688945</v>
       </c>
       <c r="M2">
-        <v>45.0242466721503</v>
+        <v>43.5426777791359</v>
       </c>
       <c r="N2">
-        <v>20.4496038801341</v>
+        <v>21.5529225163159</v>
       </c>
       <c r="O2">
-        <v>1456.40352644194</v>
+        <v>1364.93452005486</v>
       </c>
       <c r="P2">
-        <v>23.4263224980076</v>
+        <v>24.1919733356244</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>160.586233949359</v>
+        <v>157.372317579553</v>
       </c>
       <c r="C3">
-        <v>4.05649284541201</v>
+        <v>4.27754892086098</v>
       </c>
       <c r="D3">
-        <v>0.47564172739784</v>
+        <v>0.391103433316481</v>
       </c>
       <c r="E3">
-        <v>1.27939008262845</v>
+        <v>1.19813774389209</v>
       </c>
       <c r="F3">
-        <v>12.6229269564331</v>
+        <v>10.4821084564008</v>
       </c>
       <c r="G3">
-        <v>0.705663544806043</v>
+        <v>0.482857820312206</v>
       </c>
       <c r="H3">
-        <v>0.116556775671196</v>
+        <v>0.0983186665344324</v>
       </c>
       <c r="I3">
-        <v>1.10152481385462</v>
+        <v>0.840133388226901</v>
       </c>
       <c r="J3">
-        <v>0.747475847987836</v>
+        <v>0.602271282029068</v>
       </c>
       <c r="K3">
-        <v>0.306918934781038</v>
+        <v>0.266617478225494</v>
       </c>
       <c r="L3">
-        <v>0.263430634557229</v>
+        <v>0.219182828676924</v>
       </c>
       <c r="M3">
-        <v>1.19499975094359</v>
+        <v>1.01208715075931</v>
       </c>
       <c r="N3">
-        <v>1.9595530209301</v>
+        <v>1.68222970740746</v>
       </c>
       <c r="O3">
-        <v>358.944812184198</v>
+        <v>311.151339382214</v>
       </c>
       <c r="P3">
-        <v>15.1507884387594</v>
+        <v>13.632586437636</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>1186.61749295848</v>
+        <v>1329.67872370361</v>
       </c>
       <c r="C4">
-        <v>7.71508358609083</v>
+        <v>8.03795393514825</v>
       </c>
       <c r="D4">
-        <v>1.95557207724076</v>
+        <v>1.86703921891427</v>
       </c>
       <c r="E4">
-        <v>21.2714571390276</v>
+        <v>23.4932877196381</v>
       </c>
       <c r="F4">
-        <v>9.895052682139919</v>
+        <v>12.3081747447815</v>
       </c>
       <c r="G4">
-        <v>8.46398995007184</v>
+        <v>7.82359896218856</v>
       </c>
       <c r="H4">
-        <v>11.2246897882265</v>
+        <v>11.8916335344864</v>
       </c>
       <c r="I4">
-        <v>11.3131094455178</v>
+        <v>11.16745089823</v>
       </c>
       <c r="J4">
-        <v>17.2998241445371</v>
+        <v>18.0676479423494</v>
       </c>
       <c r="K4">
-        <v>6.01321978791384</v>
+        <v>6.304756205592</v>
       </c>
       <c r="L4">
-        <v>73.6795959730628</v>
+        <v>69.4887677212765</v>
       </c>
       <c r="M4">
-        <v>43.9297934323375</v>
+        <v>42.8435927160221</v>
       </c>
       <c r="N4">
-        <v>32.927728005293</v>
+        <v>31.3122792610349</v>
       </c>
       <c r="O4">
-        <v>2110.34061492623</v>
+        <v>2010.77367897893</v>
       </c>
       <c r="P4">
-        <v>19.823258188991</v>
+        <v>20.7005274459223</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>680.4772690003221</v>
+        <v>745.60282672595</v>
       </c>
       <c r="C5">
-        <v>50.3995133877887</v>
+        <v>50.097706446609</v>
       </c>
       <c r="D5">
-        <v>11.9269155132816</v>
+        <v>10.9042041647688</v>
       </c>
       <c r="E5">
-        <v>29.3389225261605</v>
+        <v>32.2118458791944</v>
       </c>
       <c r="F5">
-        <v>3.52949193018322</v>
+        <v>5.46709839308736</v>
       </c>
       <c r="G5">
-        <v>5.58942910814126</v>
+        <v>5.30153599191516</v>
       </c>
       <c r="H5">
-        <v>12.6047902599933</v>
+        <v>12.6840299252782</v>
       </c>
       <c r="I5">
-        <v>8.920246525590549</v>
+        <v>8.617076571168401</v>
       </c>
       <c r="J5">
-        <v>26.4158493647751</v>
+        <v>26.413468182992</v>
       </c>
       <c r="K5">
-        <v>19.0788153831291</v>
+        <v>16.5248799034078</v>
       </c>
       <c r="L5">
-        <v>25.0962824190549</v>
+        <v>22.8842182975977</v>
       </c>
       <c r="M5">
-        <v>21.9221422573825</v>
+        <v>23.4743696567226</v>
       </c>
       <c r="N5">
-        <v>22.8238942159702</v>
+        <v>22.6690679877235</v>
       </c>
       <c r="O5">
-        <v>933.261980768513</v>
+        <v>872.5556752938641</v>
       </c>
       <c r="P5">
-        <v>57.73762559929</v>
+        <v>59.0371904551411</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>7424.92950514232</v>
+        <v>8339.27474757331</v>
       </c>
       <c r="C6">
-        <v>179.852143681628</v>
+        <v>183.214812881617</v>
       </c>
       <c r="D6">
-        <v>183.474401873065</v>
+        <v>165.08110074712</v>
       </c>
       <c r="E6">
-        <v>156.119889999664</v>
+        <v>163.831645600397</v>
       </c>
       <c r="F6">
-        <v>41.1573388777256</v>
+        <v>39.8673032222469</v>
       </c>
       <c r="G6">
-        <v>100.703835269259</v>
+        <v>95.0613647845246</v>
       </c>
       <c r="H6">
-        <v>77.02884976294121</v>
+        <v>72.807384549736</v>
       </c>
       <c r="I6">
-        <v>36.3661508089082</v>
+        <v>34.0711962564829</v>
       </c>
       <c r="J6">
-        <v>187.973484825208</v>
+        <v>180.81067728012</v>
       </c>
       <c r="K6">
-        <v>116.166561773421</v>
+        <v>109.556784463249</v>
       </c>
       <c r="L6">
-        <v>499.79289523451</v>
+        <v>502.01924801943</v>
       </c>
       <c r="M6">
-        <v>300.101677051483</v>
+        <v>279.362154661467</v>
       </c>
       <c r="N6">
-        <v>305.14949616168</v>
+        <v>280.373748911625</v>
       </c>
       <c r="O6">
-        <v>13019.5896903895</v>
+        <v>12303.2351860669</v>
       </c>
       <c r="P6">
-        <v>280.470877464512</v>
+        <v>299.720898384736</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>767.636837563785</v>
+        <v>848.187151404442</v>
       </c>
       <c r="C7">
-        <v>37.3236966150982</v>
+        <v>35.8211748023761</v>
       </c>
       <c r="D7">
-        <v>2.48868028467186</v>
+        <v>2.41039592237667</v>
       </c>
       <c r="E7">
-        <v>15.8457855688341</v>
+        <v>16.4058978635838</v>
       </c>
       <c r="F7">
-        <v>11.4292013281447</v>
+        <v>12.8830275610181</v>
       </c>
       <c r="G7">
-        <v>7.84979503262256</v>
+        <v>7.60892698746116</v>
       </c>
       <c r="H7">
-        <v>6.63262117009128</v>
+        <v>5.8103710497957</v>
       </c>
       <c r="I7">
-        <v>10.1920269093445</v>
+        <v>9.894620192121449</v>
       </c>
       <c r="J7">
-        <v>15.9231210339052</v>
+        <v>15.1118416406036</v>
       </c>
       <c r="K7">
-        <v>14.3410732333255</v>
+        <v>12.9586758442779</v>
       </c>
       <c r="L7">
-        <v>55.2550825803448</v>
+        <v>53.6719788460272</v>
       </c>
       <c r="M7">
-        <v>18.3487294499518</v>
+        <v>17.281004846296</v>
       </c>
       <c r="N7">
-        <v>27.5970494522476</v>
+        <v>25.7603405775974</v>
       </c>
       <c r="O7">
-        <v>1926.60263549049</v>
+        <v>1866.92923527453</v>
       </c>
       <c r="P7">
-        <v>18.784355719779</v>
+        <v>26.5637434516992</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>625.046668067929</v>
+        <v>713.721041920672</v>
       </c>
       <c r="C8">
-        <v>13.526382228098</v>
+        <v>13.6960278389534</v>
       </c>
       <c r="D8">
-        <v>7.95266885009784</v>
+        <v>7.98348409439047</v>
       </c>
       <c r="E8">
-        <v>16.1951971796873</v>
+        <v>17.9309457456135</v>
       </c>
       <c r="F8">
-        <v>1.60584596776366</v>
+        <v>1.38514908562251</v>
       </c>
       <c r="G8">
-        <v>29.3435346451463</v>
+        <v>26.4070895851664</v>
       </c>
       <c r="H8">
-        <v>13.9745546985065</v>
+        <v>12.237014991827</v>
       </c>
       <c r="I8">
-        <v>7.19067674912043</v>
+        <v>7.29004025934477</v>
       </c>
       <c r="J8">
-        <v>39.3387818023703</v>
+        <v>39.6415735057189</v>
       </c>
       <c r="K8">
-        <v>25.2660718607187</v>
+        <v>22.186583990919</v>
       </c>
       <c r="L8">
-        <v>45.5914813990863</v>
+        <v>43.6617778409188</v>
       </c>
       <c r="M8">
-        <v>53.1588668855067</v>
+        <v>48.792423714375</v>
       </c>
       <c r="N8">
-        <v>30.6532007272804</v>
+        <v>26.3845756188598</v>
       </c>
       <c r="O8">
-        <v>1460.6989993695</v>
+        <v>1390.60962145488</v>
       </c>
       <c r="P8">
-        <v>4.48612795214891</v>
+        <v>4.87259859720518</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>199.557658408296</v>
+        <v>209.551764391775</v>
       </c>
       <c r="C9">
-        <v>8.318974831401709</v>
+        <v>8.14180297116892</v>
       </c>
       <c r="D9">
-        <v>2.5546175580985</v>
+        <v>2.43274594555334</v>
       </c>
       <c r="E9">
-        <v>4.50154989272428</v>
+        <v>4.49273271598434</v>
       </c>
       <c r="F9">
-        <v>1.77934103051917</v>
+        <v>1.5260885128839</v>
       </c>
       <c r="G9">
-        <v>27.289343973412</v>
+        <v>23.4636634963046</v>
       </c>
       <c r="H9">
-        <v>5.75464094288527</v>
+        <v>5.2005765403875</v>
       </c>
       <c r="I9">
-        <v>1.20591548430878</v>
+        <v>1.02510135329622</v>
       </c>
       <c r="J9">
-        <v>5.00878942623125</v>
+        <v>4.57800866229981</v>
       </c>
       <c r="K9">
-        <v>3.8434870040108</v>
+        <v>3.45569904206093</v>
       </c>
       <c r="L9">
-        <v>2.6766266634944</v>
+        <v>2.55749000677319</v>
       </c>
       <c r="M9">
-        <v>10.3474837994911</v>
+        <v>9.654304559381631</v>
       </c>
       <c r="N9">
-        <v>6.72000004766175</v>
+        <v>5.86424645213614</v>
       </c>
       <c r="O9">
-        <v>399.71457183706</v>
+        <v>355.932654824495</v>
       </c>
       <c r="P9">
-        <v>6.25727567528945</v>
+        <v>5.57163186209052</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>3966.15964323246</v>
+        <v>4514.77260526142</v>
       </c>
       <c r="C10">
-        <v>63.0625322676124</v>
+        <v>61.0808276728144</v>
       </c>
       <c r="D10">
-        <v>29.4034427906486</v>
+        <v>25.916728598621</v>
       </c>
       <c r="E10">
-        <v>48.8439484070609</v>
+        <v>51.6283662854058</v>
       </c>
       <c r="F10">
-        <v>11.2854485680425</v>
+        <v>11.1451418093668</v>
       </c>
       <c r="G10">
-        <v>32.6858143492987</v>
+        <v>31.6739671152089</v>
       </c>
       <c r="H10">
-        <v>11.9065617535611</v>
+        <v>11.7339188742546</v>
       </c>
       <c r="I10">
-        <v>47.7651802036741</v>
+        <v>43.204512549567</v>
       </c>
       <c r="J10">
-        <v>56.4973249685011</v>
+        <v>55.2256417258379</v>
       </c>
       <c r="K10">
-        <v>35.2986944847934</v>
+        <v>31.833095778512</v>
       </c>
       <c r="L10">
-        <v>95.9383548053403</v>
+        <v>87.6251973469351</v>
       </c>
       <c r="M10">
-        <v>78.31644232521791</v>
+        <v>75.2678029685388</v>
       </c>
       <c r="N10">
-        <v>91.3831484496592</v>
+        <v>86.45488856393099</v>
       </c>
       <c r="O10">
-        <v>7093.1237283752</v>
+        <v>6661.98669154932</v>
       </c>
       <c r="P10">
-        <v>101.25758838851</v>
+        <v>103.530701100839</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>1782.12069280789</v>
+        <v>1941.36480346343</v>
       </c>
       <c r="C11">
-        <v>67.19438851819029</v>
+        <v>68.74623951945161</v>
       </c>
       <c r="D11">
-        <v>176.850970537852</v>
+        <v>169.124632239173</v>
       </c>
       <c r="E11">
-        <v>60.6754027805343</v>
+        <v>62.4633290890706</v>
       </c>
       <c r="F11">
-        <v>2.16296824036601</v>
+        <v>2.33269382456697</v>
       </c>
       <c r="G11">
-        <v>27.570190889906</v>
+        <v>29.4073054364189</v>
       </c>
       <c r="H11">
-        <v>15.7793815566612</v>
+        <v>17.6595042750944</v>
       </c>
       <c r="I11">
-        <v>15.615021897082</v>
+        <v>15.2858312005354</v>
       </c>
       <c r="J11">
-        <v>47.6114165801651</v>
+        <v>47.6607089556442</v>
       </c>
       <c r="K11">
-        <v>29.1219451245552</v>
+        <v>27.2606072716158</v>
       </c>
       <c r="L11">
-        <v>55.7664593165142</v>
+        <v>55.417408540866</v>
       </c>
       <c r="M11">
-        <v>42.1734767995671</v>
+        <v>41.8299966982775</v>
       </c>
       <c r="N11">
-        <v>46.1623733956759</v>
+        <v>46.0424222177456</v>
       </c>
       <c r="O11">
-        <v>3234.17360766384</v>
+        <v>3089.76775666352</v>
       </c>
       <c r="P11">
-        <v>48.9321729215979</v>
+        <v>54.9111636020029</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>289.776646588111</v>
+        <v>316.771700014158</v>
       </c>
       <c r="C12">
-        <v>7.95867781559026</v>
+        <v>6.31847041604902</v>
       </c>
       <c r="D12">
-        <v>1.49010313952784</v>
+        <v>1.3395659932743</v>
       </c>
       <c r="E12">
-        <v>1.97957609428947</v>
+        <v>1.78501109150481</v>
       </c>
       <c r="F12">
-        <v>0.93981594665526</v>
+        <v>0.750489170704261</v>
       </c>
       <c r="G12">
-        <v>0.0756142619359949</v>
+        <v>0.0716543963644929</v>
       </c>
       <c r="H12">
-        <v>0.249036370987895</v>
+        <v>0.248799243717118</v>
       </c>
       <c r="I12">
-        <v>1.75818882105112</v>
+        <v>1.5050606387358</v>
       </c>
       <c r="J12">
-        <v>3.89478554235322</v>
+        <v>3.16602412723876</v>
       </c>
       <c r="K12">
-        <v>0.200325838576385</v>
+        <v>0.157241442929658</v>
       </c>
       <c r="L12">
-        <v>0.745584214245665</v>
+        <v>0.662198940155993</v>
       </c>
       <c r="M12">
-        <v>4.46881352614085</v>
+        <v>4.09437566926698</v>
       </c>
       <c r="N12">
-        <v>3.27499543767615</v>
+        <v>3.00521825960878</v>
       </c>
       <c r="O12">
-        <v>647.833582004111</v>
+        <v>577.333286593656</v>
       </c>
       <c r="P12">
-        <v>24.8671178779902</v>
+        <v>22.5660651304386</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>250.145719741862</v>
+        <v>277.794349550034</v>
       </c>
       <c r="C13">
-        <v>18.4643540071563</v>
+        <v>17.4985911665139</v>
       </c>
       <c r="D13">
-        <v>0.424422955603027</v>
+        <v>0.45586011583604</v>
       </c>
       <c r="E13">
-        <v>13.7120598202676</v>
+        <v>13.7190383563525</v>
       </c>
       <c r="F13">
-        <v>3.1104523499288</v>
+        <v>2.99944093295657</v>
       </c>
       <c r="G13">
-        <v>5.80523970843085</v>
+        <v>5.3513323968239</v>
       </c>
       <c r="H13">
-        <v>2.47409953140905</v>
+        <v>2.51679695516829</v>
       </c>
       <c r="I13">
-        <v>1.54482302644622</v>
+        <v>1.33140698773738</v>
       </c>
       <c r="J13">
-        <v>6.27879766140579</v>
+        <v>6.05743791035598</v>
       </c>
       <c r="K13">
-        <v>6.97153359795961</v>
+        <v>5.40299497219181</v>
       </c>
       <c r="L13">
-        <v>20.9195755089906</v>
+        <v>19.2341723756667</v>
       </c>
       <c r="M13">
-        <v>1.81036397393731</v>
+        <v>1.82011273585094</v>
       </c>
       <c r="N13">
-        <v>6.25609945625023</v>
+        <v>6.02129294781759</v>
       </c>
       <c r="O13">
-        <v>561.765817486894</v>
+        <v>521.171092817371</v>
       </c>
       <c r="P13">
-        <v>58.7767454840541</v>
+        <v>55.108080551534</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>2483.02754981622</v>
+        <v>2811.39457677968</v>
       </c>
       <c r="C14">
-        <v>123.487978201256</v>
+        <v>120.630477485903</v>
       </c>
       <c r="D14">
-        <v>14.6018017541952</v>
+        <v>15.7160325866349</v>
       </c>
       <c r="E14">
-        <v>67.7277931471732</v>
+        <v>76.87339578432329</v>
       </c>
       <c r="F14">
-        <v>15.2164879814884</v>
+        <v>16.8142084060201</v>
       </c>
       <c r="G14">
-        <v>104.401904678234</v>
+        <v>92.6259503153729</v>
       </c>
       <c r="H14">
-        <v>41.1979914458489</v>
+        <v>42.637435625577</v>
       </c>
       <c r="I14">
-        <v>28.0709977441914</v>
+        <v>26.5562003860752</v>
       </c>
       <c r="J14">
-        <v>146.927222641038</v>
+        <v>152.593168296649</v>
       </c>
       <c r="K14">
-        <v>160.654364132851</v>
+        <v>152.203911268748</v>
       </c>
       <c r="L14">
-        <v>133.005643218875</v>
+        <v>130.521566906245</v>
       </c>
       <c r="M14">
-        <v>77.6292103194499</v>
+        <v>77.80942773766191</v>
       </c>
       <c r="N14">
-        <v>105.224715811669</v>
+        <v>100.090859128416</v>
       </c>
       <c r="O14">
-        <v>4987.54290599891</v>
+        <v>4687.38683996984</v>
       </c>
       <c r="P14">
-        <v>52.5197584302334</v>
+        <v>66.3210459971702</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>1247.97915162549</v>
+        <v>1368.48872931454</v>
       </c>
       <c r="C15">
-        <v>33.9008223995268</v>
+        <v>36.5855261706399</v>
       </c>
       <c r="D15">
-        <v>14.6303244972332</v>
+        <v>13.5502698562378</v>
       </c>
       <c r="E15">
-        <v>67.0750147449921</v>
+        <v>67.0763767935382</v>
       </c>
       <c r="F15">
-        <v>18.0845819788506</v>
+        <v>18.217567919672</v>
       </c>
       <c r="G15">
-        <v>40.2179854467014</v>
+        <v>40.1108841990124</v>
       </c>
       <c r="H15">
-        <v>64.351862189958</v>
+        <v>60.8970394143211</v>
       </c>
       <c r="I15">
-        <v>28.0281586941887</v>
+        <v>25.6555222108623</v>
       </c>
       <c r="J15">
-        <v>158.325311541294</v>
+        <v>151.61397181102</v>
       </c>
       <c r="K15">
-        <v>51.2678755884258</v>
+        <v>47.634954207486</v>
       </c>
       <c r="L15">
-        <v>42.2794939369867</v>
+        <v>42.5652426350243</v>
       </c>
       <c r="M15">
-        <v>164.910366317172</v>
+        <v>176.19016244415</v>
       </c>
       <c r="N15">
-        <v>100.078252457631</v>
+        <v>90.21990261395079</v>
       </c>
       <c r="O15">
-        <v>2189.50892192544</v>
+        <v>2083.61871762278</v>
       </c>
       <c r="P15">
-        <v>49.2229812462015</v>
+        <v>46.5400493554392</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>488.850654534</v>
+        <v>569.480169812457</v>
       </c>
       <c r="C16">
-        <v>65.59282740505191</v>
+        <v>62.3023677292432</v>
       </c>
       <c r="D16">
-        <v>8.25569300221809</v>
+        <v>6.64104197973805</v>
       </c>
       <c r="E16">
-        <v>26.8601424477442</v>
+        <v>27.5065255892949</v>
       </c>
       <c r="F16">
-        <v>4.89578666493157</v>
+        <v>3.88571150200208</v>
       </c>
       <c r="G16">
-        <v>19.5735047383542</v>
+        <v>20.1414226547215</v>
       </c>
       <c r="H16">
-        <v>12.0217690358179</v>
+        <v>13.3298157297932</v>
       </c>
       <c r="I16">
-        <v>8.718617628350581</v>
+        <v>8.77095523613753</v>
       </c>
       <c r="J16">
-        <v>45.6078981601619</v>
+        <v>44.4052113250224</v>
       </c>
       <c r="K16">
-        <v>47.6437904101902</v>
+        <v>45.2370791938798</v>
       </c>
       <c r="L16">
-        <v>25.6592796572587</v>
+        <v>26.5392727265969</v>
       </c>
       <c r="M16">
-        <v>26.2226771345712</v>
+        <v>28.9077894739773</v>
       </c>
       <c r="N16">
-        <v>29.2177323030106</v>
+        <v>26.6211680007587</v>
       </c>
       <c r="O16">
-        <v>1248.25416357253</v>
+        <v>1146.82495131366</v>
       </c>
       <c r="P16">
-        <v>95.2138224429756</v>
+        <v>87.0774897353469</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>498.583506930519</v>
+        <v>565.1584929982651</v>
       </c>
       <c r="C17">
-        <v>17.8970501421124</v>
+        <v>18.6605239376367</v>
       </c>
       <c r="D17">
-        <v>2.75282893085641</v>
+        <v>2.6159799523652</v>
       </c>
       <c r="E17">
-        <v>15.564291105349</v>
+        <v>17.1853972326536</v>
       </c>
       <c r="F17">
-        <v>9.54309112711039</v>
+        <v>12.0721204710938</v>
       </c>
       <c r="G17">
-        <v>6.71659853209514</v>
+        <v>6.94203795675389</v>
       </c>
       <c r="H17">
-        <v>6.2903265486928</v>
+        <v>7.6186960871173</v>
       </c>
       <c r="I17">
-        <v>9.34039738785936</v>
+        <v>8.17675677491059</v>
       </c>
       <c r="J17">
-        <v>13.9265203359006</v>
+        <v>13.6544040971862</v>
       </c>
       <c r="K17">
-        <v>12.8740906445185</v>
+        <v>12.1189414905096</v>
       </c>
       <c r="L17">
-        <v>9.69576094879837</v>
+        <v>8.93204418922819</v>
       </c>
       <c r="M17">
-        <v>67.8613268009469</v>
+        <v>64.3586858145883</v>
       </c>
       <c r="N17">
-        <v>15.0652553024618</v>
+        <v>15.2802416195571</v>
       </c>
       <c r="O17">
-        <v>1187.29102467156</v>
+        <v>1087.34604876369</v>
       </c>
       <c r="P17">
-        <v>55.515940326648</v>
+        <v>57.3444785809549</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>1118.27508709687</v>
+        <v>1192.79855744644</v>
       </c>
       <c r="C18">
-        <v>36.3365216783558</v>
+        <v>35.9176409359235</v>
       </c>
       <c r="D18">
-        <v>7.95861580298102</v>
+        <v>8.616755152166331</v>
       </c>
       <c r="E18">
-        <v>30.5538250576993</v>
+        <v>33.275417343336</v>
       </c>
       <c r="F18">
-        <v>30.3907131549722</v>
+        <v>27.9169735430617</v>
       </c>
       <c r="G18">
-        <v>26.7556912034445</v>
+        <v>23.5128757230006</v>
       </c>
       <c r="H18">
-        <v>18.4277997333287</v>
+        <v>18.7327988529638</v>
       </c>
       <c r="I18">
-        <v>4.39677100362301</v>
+        <v>4.73584693579723</v>
       </c>
       <c r="J18">
-        <v>47.9556295035433</v>
+        <v>48.1178298889901</v>
       </c>
       <c r="K18">
-        <v>21.4908641462991</v>
+        <v>20.1651717797997</v>
       </c>
       <c r="L18">
-        <v>39.1091126830386</v>
+        <v>36.8182183183035</v>
       </c>
       <c r="M18">
-        <v>64.4808877462996</v>
+        <v>66.1372659561202</v>
       </c>
       <c r="N18">
-        <v>22.8130995589912</v>
+        <v>24.0127089982718</v>
       </c>
       <c r="O18">
-        <v>1487.43172794439</v>
+        <v>1376.7103533424</v>
       </c>
       <c r="P18">
-        <v>61.3314765123339</v>
+        <v>57.7640034367223</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>1151.49388750473</v>
+        <v>1240.3960440268</v>
       </c>
       <c r="C19">
-        <v>26.8394811628959</v>
+        <v>25.5278965833038</v>
       </c>
       <c r="D19">
-        <v>9.16074910996508</v>
+        <v>8.814446012914839</v>
       </c>
       <c r="E19">
-        <v>36.2813584636558</v>
+        <v>38.9942470214108</v>
       </c>
       <c r="F19">
-        <v>98.4634051904836</v>
+        <v>93.42216810573071</v>
       </c>
       <c r="G19">
-        <v>38.7355423073709</v>
+        <v>39.6417935742453</v>
       </c>
       <c r="H19">
-        <v>6.48007274922434</v>
+        <v>7.01111687591222</v>
       </c>
       <c r="I19">
-        <v>1.11820869915374</v>
+        <v>1.04860557894347</v>
       </c>
       <c r="J19">
-        <v>13.8495893705168</v>
+        <v>15.0518569496079</v>
       </c>
       <c r="K19">
-        <v>15.7754595856266</v>
+        <v>15.2915699694603</v>
       </c>
       <c r="L19">
-        <v>5.15344489190548</v>
+        <v>5.46656528718993</v>
       </c>
       <c r="M19">
-        <v>27.6732656680537</v>
+        <v>27.788267034643</v>
       </c>
       <c r="N19">
-        <v>12.369542489467</v>
+        <v>13.1198722150736</v>
       </c>
       <c r="O19">
-        <v>1652.25024305039</v>
+        <v>1544.60178263688</v>
       </c>
       <c r="P19">
-        <v>43.2347802416481</v>
+        <v>43.0051128258227</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>285.270925656119</v>
+        <v>316.082699671153</v>
       </c>
       <c r="C20">
-        <v>7.27761653133734</v>
+        <v>7.0943401528703</v>
       </c>
       <c r="D20">
-        <v>9.071928781388589</v>
+        <v>9.012783700610081</v>
       </c>
       <c r="E20">
-        <v>35.6006852856084</v>
+        <v>35.5564073283066</v>
       </c>
       <c r="F20">
-        <v>0.998725881082133</v>
+        <v>0.8620593098439771</v>
       </c>
       <c r="G20">
-        <v>2.3713569873196</v>
+        <v>2.15716963903207</v>
       </c>
       <c r="H20">
-        <v>1.86529443035288</v>
+        <v>1.7288803236276</v>
       </c>
       <c r="I20">
-        <v>1.62846527106268</v>
+        <v>1.76575603821811</v>
       </c>
       <c r="J20">
-        <v>4.75680037849922</v>
+        <v>5.10192771005425</v>
       </c>
       <c r="K20">
-        <v>4.01066393449928</v>
+        <v>3.5687741068108</v>
       </c>
       <c r="L20">
-        <v>7.70486474184483</v>
+        <v>7.40020438179105</v>
       </c>
       <c r="M20">
-        <v>17.4818968635648</v>
+        <v>16.3325018442093</v>
       </c>
       <c r="N20">
-        <v>6.31040909036934</v>
+        <v>5.96225044093045</v>
       </c>
       <c r="O20">
-        <v>577.244710599662</v>
+        <v>529.614920162657</v>
       </c>
       <c r="P20">
-        <v>27.4923108302763</v>
+        <v>27.8501478038285</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>1030.57073253213</v>
+        <v>1139.6533183481</v>
       </c>
       <c r="C21">
-        <v>25.4720007028727</v>
+        <v>26.006219880592</v>
       </c>
       <c r="D21">
-        <v>5.36310519430751</v>
+        <v>5.47199354807855</v>
       </c>
       <c r="E21">
-        <v>20.0813844158548</v>
+        <v>21.781349231071</v>
       </c>
       <c r="F21">
-        <v>5.64124842855465</v>
+        <v>5.34614414552312</v>
       </c>
       <c r="G21">
-        <v>23.0292797613394</v>
+        <v>21.0387758319797</v>
       </c>
       <c r="H21">
-        <v>5.82730722250233</v>
+        <v>5.1257189072143</v>
       </c>
       <c r="I21">
-        <v>10.6302451529404</v>
+        <v>11.0550401411082</v>
       </c>
       <c r="J21">
-        <v>26.6271420946607</v>
+        <v>27.0391137843891</v>
       </c>
       <c r="K21">
-        <v>3.56948337869947</v>
+        <v>3.38714961618637</v>
       </c>
       <c r="L21">
-        <v>22.085077002848</v>
+        <v>22.2450217556881</v>
       </c>
       <c r="M21">
-        <v>29.4980838630143</v>
+        <v>25.7490149274386</v>
       </c>
       <c r="N21">
-        <v>28.2129234096269</v>
+        <v>29.2460741114636</v>
       </c>
       <c r="O21">
-        <v>2416.06384051369</v>
+        <v>2321.37404884918</v>
       </c>
       <c r="P21">
-        <v>21.4627281440983</v>
+        <v>20.8558756298748</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>1239.00601197763</v>
+        <v>1390.89995404449</v>
       </c>
       <c r="C22">
-        <v>17.2736055145827</v>
+        <v>17.891235219982</v>
       </c>
       <c r="D22">
-        <v>22.0554356024836</v>
+        <v>22.8100442404336</v>
       </c>
       <c r="E22">
-        <v>36.1919467971957</v>
+        <v>40.4579148799317</v>
       </c>
       <c r="F22">
-        <v>2.70599114826211</v>
+        <v>2.7866521086103</v>
       </c>
       <c r="G22">
-        <v>34.331935142126</v>
+        <v>31.7106748759845</v>
       </c>
       <c r="H22">
-        <v>18.5134282626741</v>
+        <v>16.5030440841245</v>
       </c>
       <c r="I22">
-        <v>8.58828855894072</v>
+        <v>9.0462955339727</v>
       </c>
       <c r="J22">
-        <v>47.194772677107</v>
+        <v>45.2799295358571</v>
       </c>
       <c r="K22">
-        <v>28.3091386919355</v>
+        <v>26.7976627986759</v>
       </c>
       <c r="L22">
-        <v>127.068462149335</v>
+        <v>122.957392433931</v>
       </c>
       <c r="M22">
-        <v>15.5945594453932</v>
+        <v>13.4746874764352</v>
       </c>
       <c r="N22">
-        <v>86.8393873783527</v>
+        <v>79.1421320794821</v>
       </c>
       <c r="O22">
-        <v>2692.85656771018</v>
+        <v>2572.50811098722</v>
       </c>
       <c r="P22">
-        <v>11.151561240338</v>
+        <v>11.6796122403637</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>2246.97760618084</v>
+        <v>2501.90318228852</v>
       </c>
       <c r="C23">
-        <v>44.0363440265894</v>
+        <v>44.6495534793244</v>
       </c>
       <c r="D23">
-        <v>10.4535850290185</v>
+        <v>9.707230230913099</v>
       </c>
       <c r="E23">
-        <v>29.1600213961354</v>
+        <v>33.1656037475211</v>
       </c>
       <c r="F23">
-        <v>4.78010694121606</v>
+        <v>6.99351356042223</v>
       </c>
       <c r="G23">
-        <v>62.9427374203334</v>
+        <v>57.3195906473434</v>
       </c>
       <c r="H23">
-        <v>62.8292099449626</v>
+        <v>62.5254016624968</v>
       </c>
       <c r="I23">
-        <v>13.3383707398996</v>
+        <v>12.4916800603875</v>
       </c>
       <c r="J23">
-        <v>127.292066188013</v>
+        <v>127.673583595654</v>
       </c>
       <c r="K23">
-        <v>111.623653537588</v>
+        <v>101.011121315972</v>
       </c>
       <c r="L23">
-        <v>46.4088359225059</v>
+        <v>43.6322749215644</v>
       </c>
       <c r="M23">
-        <v>563.984229718442</v>
+        <v>530.034267210509</v>
       </c>
       <c r="N23">
-        <v>83.0837402683424</v>
+        <v>77.11574396218769</v>
       </c>
       <c r="O23">
-        <v>3531.4746714771</v>
+        <v>3313.55757315938</v>
       </c>
       <c r="P23">
-        <v>46.2869867773206</v>
+        <v>50.9462789441572</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>792.085259391478</v>
+        <v>903.283059257417</v>
       </c>
       <c r="C24">
-        <v>50.6208814435147</v>
+        <v>56.7436661247453</v>
       </c>
       <c r="D24">
-        <v>7.35797276738417</v>
+        <v>6.58356691692984</v>
       </c>
       <c r="E24">
-        <v>56.5971749936979</v>
+        <v>61.4880052943596</v>
       </c>
       <c r="F24">
-        <v>12.4717340393087</v>
+        <v>12.5323157219673</v>
       </c>
       <c r="G24">
-        <v>29.8364184934336</v>
+        <v>28.8462196750073</v>
       </c>
       <c r="H24">
-        <v>14.37742956722</v>
+        <v>13.5321304449064</v>
       </c>
       <c r="I24">
-        <v>18.4965506884277</v>
+        <v>18.3921165834688</v>
       </c>
       <c r="J24">
-        <v>44.6477488573275</v>
+        <v>48.9300937252446</v>
       </c>
       <c r="K24">
-        <v>59.3562397725726</v>
+        <v>52.4611944392877</v>
       </c>
       <c r="L24">
-        <v>59.596212401851</v>
+        <v>62.5542588755275</v>
       </c>
       <c r="M24">
-        <v>30.2042602264329</v>
+        <v>32.4545984107171</v>
       </c>
       <c r="N24">
-        <v>75.9531995930702</v>
+        <v>70.9991951545573</v>
       </c>
       <c r="O24">
-        <v>2046.63961786989</v>
+        <v>1940.44519248372</v>
       </c>
       <c r="P24">
-        <v>101.249698960581</v>
+        <v>104.444864878753</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>749.795102838906</v>
+        <v>819.854534534661</v>
       </c>
       <c r="C25">
-        <v>48.2165331825549</v>
+        <v>41.5713130570224</v>
       </c>
       <c r="D25">
-        <v>18.3219855044836</v>
+        <v>17.653515632246</v>
       </c>
       <c r="E25">
-        <v>45.5631079531852</v>
+        <v>42.1652281151132</v>
       </c>
       <c r="F25">
-        <v>20.3580232415181</v>
+        <v>16.8619257145891</v>
       </c>
       <c r="G25">
-        <v>7.88789218169003</v>
+        <v>7.81364932592225</v>
       </c>
       <c r="H25">
-        <v>11.5425415825806</v>
+        <v>10.9638010421387</v>
       </c>
       <c r="I25">
-        <v>7.16535230589419</v>
+        <v>6.80845958072452</v>
       </c>
       <c r="J25">
-        <v>18.1055519055404</v>
+        <v>17.4507985799577</v>
       </c>
       <c r="K25">
-        <v>19.0363892442036</v>
+        <v>16.3508135140774</v>
       </c>
       <c r="L25">
-        <v>18.490275902028</v>
+        <v>18.7295502538845</v>
       </c>
       <c r="M25">
-        <v>37.0317651424554</v>
+        <v>35.7600830512618</v>
       </c>
       <c r="N25">
-        <v>36.3890280384414</v>
+        <v>41.0891623412172</v>
       </c>
       <c r="O25">
-        <v>1008.83040326145</v>
+        <v>917.416834620064</v>
       </c>
       <c r="P25">
-        <v>43.8453507167362</v>
+        <v>42.6983581903458</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>1062.20284157954</v>
+        <v>1230.9295473589</v>
       </c>
       <c r="C26">
-        <v>63.1054226828071</v>
+        <v>61.4761350935222</v>
       </c>
       <c r="D26">
-        <v>14.125193112755</v>
+        <v>16.0204912221341</v>
       </c>
       <c r="E26">
-        <v>39.3345050461522</v>
+        <v>46.0065682415269</v>
       </c>
       <c r="F26">
-        <v>7.05744312826418</v>
+        <v>8.551761586363631</v>
       </c>
       <c r="G26">
-        <v>34.4681521941185</v>
+        <v>30.8344618526065</v>
       </c>
       <c r="H26">
-        <v>23.619828409545</v>
+        <v>24.8041818941161</v>
       </c>
       <c r="I26">
-        <v>21.4377329541064</v>
+        <v>20.1224522257298</v>
       </c>
       <c r="J26">
-        <v>69.7173739599677</v>
+        <v>66.82194789033591</v>
       </c>
       <c r="K26">
-        <v>29.9042380391304</v>
+        <v>26.9482954551332</v>
       </c>
       <c r="L26">
-        <v>28.3892827392116</v>
+        <v>29.8218119493834</v>
       </c>
       <c r="M26">
-        <v>79.8273964508944</v>
+        <v>81.3648630125043</v>
       </c>
       <c r="N26">
-        <v>23.0502828564002</v>
+        <v>24.106703745904</v>
       </c>
       <c r="O26">
-        <v>2310.21703814563</v>
+        <v>2147.7914929584</v>
       </c>
       <c r="P26">
-        <v>68.909072819156</v>
+        <v>74.1254597149528</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>218.985433612669</v>
+        <v>237.953143480823</v>
       </c>
       <c r="C27">
-        <v>4.19824654236105</v>
+        <v>3.76503688976725</v>
       </c>
       <c r="D27">
-        <v>1.15128688290018</v>
+        <v>1.18714088361487</v>
       </c>
       <c r="E27">
-        <v>12.1837929483463</v>
+        <v>11.2208131526792</v>
       </c>
       <c r="F27">
-        <v>5.80849852923116</v>
+        <v>5.5891679745682</v>
       </c>
       <c r="G27">
-        <v>1.46785208650747</v>
+        <v>1.35240690476297</v>
       </c>
       <c r="H27">
-        <v>0.239236273435088</v>
+        <v>0.205077133801513</v>
       </c>
       <c r="I27">
-        <v>3.42511716544733</v>
+        <v>2.65876814112374</v>
       </c>
       <c r="J27">
-        <v>3.48629684605299</v>
+        <v>3.2246570860934</v>
       </c>
       <c r="K27">
-        <v>2.30404967333049</v>
+        <v>2.13426359946157</v>
       </c>
       <c r="L27">
-        <v>1.59419753207659</v>
+        <v>1.44187017339922</v>
       </c>
       <c r="M27">
-        <v>0.376578867450317</v>
+        <v>0.354413296200147</v>
       </c>
       <c r="N27">
-        <v>4.4759113580335</v>
+        <v>3.90304201349544</v>
       </c>
       <c r="O27">
-        <v>437.246593095367</v>
+        <v>392.525190227681</v>
       </c>
       <c r="P27">
-        <v>50.3445618337148</v>
+        <v>48.4007214862291</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>281.189803857851</v>
+        <v>324.534840421659</v>
       </c>
       <c r="C28">
-        <v>36.418005584475</v>
+        <v>36.1070457280456</v>
       </c>
       <c r="D28">
-        <v>7.15702835075926</v>
+        <v>5.34880598554844</v>
       </c>
       <c r="E28">
-        <v>5.16502054096314</v>
+        <v>5.42561206885302</v>
       </c>
       <c r="F28">
-        <v>2.52071353003511</v>
+        <v>2.43414090997386</v>
       </c>
       <c r="G28">
-        <v>4.91839086590186</v>
+        <v>4.22649339919119</v>
       </c>
       <c r="H28">
-        <v>10.4021568808491</v>
+        <v>9.97414973077108</v>
       </c>
       <c r="I28">
-        <v>1.80767431494767</v>
+        <v>1.74933164750536</v>
       </c>
       <c r="J28">
-        <v>18.5842004595297</v>
+        <v>17.679185574312</v>
       </c>
       <c r="K28">
-        <v>12.8406481149951</v>
+        <v>12.7380729841602</v>
       </c>
       <c r="L28">
-        <v>17.7903579814838</v>
+        <v>15.7612733097137</v>
       </c>
       <c r="M28">
-        <v>7.93107388347664</v>
+        <v>8.52929103320669</v>
       </c>
       <c r="N28">
-        <v>11.6951316915017</v>
+        <v>11.3852673885882</v>
       </c>
       <c r="O28">
-        <v>767.402865365733</v>
+        <v>701.7795168281031</v>
       </c>
       <c r="P28">
-        <v>89.1458068538425</v>
+        <v>86.2184470560517</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>433.08470798752</v>
+        <v>482.80255372381</v>
       </c>
       <c r="C29">
-        <v>3.73005034770827</v>
+        <v>3.84115800364331</v>
       </c>
       <c r="D29">
-        <v>4.06897955903948</v>
+        <v>3.63246735753604</v>
       </c>
       <c r="E29">
-        <v>4.97376255493628</v>
+        <v>5.34135440990834</v>
       </c>
       <c r="F29">
-        <v>22.2303721272975</v>
+        <v>21.8662617654908</v>
       </c>
       <c r="G29">
-        <v>2.50888929965643</v>
+        <v>2.33323815122116</v>
       </c>
       <c r="H29">
-        <v>2.85112616895208</v>
+        <v>2.9469727318425</v>
       </c>
       <c r="I29">
-        <v>2.98484778640231</v>
+        <v>2.41953717642304</v>
       </c>
       <c r="J29">
-        <v>4.75348518043813</v>
+        <v>5.31278621576884</v>
       </c>
       <c r="K29">
-        <v>3.13959806666799</v>
+        <v>2.65100983338657</v>
       </c>
       <c r="L29">
-        <v>3.01199270957663</v>
+        <v>2.9841950369157</v>
       </c>
       <c r="M29">
-        <v>2.8458528907007</v>
+        <v>2.5999811683152</v>
       </c>
       <c r="N29">
-        <v>13.6756854988867</v>
+        <v>13.099664167743</v>
       </c>
       <c r="O29">
-        <v>1015.60934827902</v>
+        <v>941.382422606167</v>
       </c>
       <c r="P29">
-        <v>6.7765624996197</v>
+        <v>7.03549214476282</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>238.946485352786</v>
+        <v>260.833542764271</v>
       </c>
       <c r="C30">
-        <v>4.09998974640262</v>
+        <v>3.90302796049283</v>
       </c>
       <c r="D30">
-        <v>8.61537375984283</v>
+        <v>7.9174610426851</v>
       </c>
       <c r="E30">
-        <v>14.7410649493407</v>
+        <v>14.9000071917753</v>
       </c>
       <c r="F30">
-        <v>1.46460216261227</v>
+        <v>1.41551121004357</v>
       </c>
       <c r="G30">
-        <v>4.96825181642521</v>
+        <v>4.81868721925476</v>
       </c>
       <c r="H30">
-        <v>6.04008233849623</v>
+        <v>5.84897198187251</v>
       </c>
       <c r="I30">
-        <v>3.56448495491253</v>
+        <v>3.20807218211578</v>
       </c>
       <c r="J30">
-        <v>16.578876792141</v>
+        <v>16.3666208587784</v>
       </c>
       <c r="K30">
-        <v>13.2867978358777</v>
+        <v>11.3694634107447</v>
       </c>
       <c r="L30">
-        <v>38.7870680480712</v>
+        <v>36.6582321200288</v>
       </c>
       <c r="M30">
-        <v>11.714893117236</v>
+        <v>10.8117430045621</v>
       </c>
       <c r="N30">
-        <v>13.9587645568887</v>
+        <v>13.0436340198276</v>
       </c>
       <c r="O30">
-        <v>572.813762617716</v>
+        <v>531.1476922453931</v>
       </c>
       <c r="P30">
-        <v>9.68182769766999</v>
+        <v>9.818662045045521</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>1733.03154664521</v>
+        <v>1946.53707888296</v>
       </c>
       <c r="C31">
-        <v>50.3737874235155</v>
+        <v>49.2006732092337</v>
       </c>
       <c r="D31">
-        <v>41.7326183518891</v>
+        <v>40.6561647762751</v>
       </c>
       <c r="E31">
-        <v>44.7782043961466</v>
+        <v>51.4465931939822</v>
       </c>
       <c r="F31">
-        <v>8.8471506953905</v>
+        <v>10.3498563606276</v>
       </c>
       <c r="G31">
-        <v>118.923926711054</v>
+        <v>116.022366382986</v>
       </c>
       <c r="H31">
-        <v>14.2278601432383</v>
+        <v>13.6856580007204</v>
       </c>
       <c r="I31">
-        <v>28.6238231672778</v>
+        <v>28.2169441103122</v>
       </c>
       <c r="J31">
-        <v>47.274229105368</v>
+        <v>48.2680047259256</v>
       </c>
       <c r="K31">
-        <v>23.6937226199538</v>
+        <v>21.0631232569041</v>
       </c>
       <c r="L31">
-        <v>74.06584081313611</v>
+        <v>73.80279713872911</v>
       </c>
       <c r="M31">
-        <v>16.9136046733254</v>
+        <v>17.4389808538572</v>
       </c>
       <c r="N31">
-        <v>53.4181141382839</v>
+        <v>51.624587527037</v>
       </c>
       <c r="O31">
-        <v>3651.78716722252</v>
+        <v>3458.26606409099</v>
       </c>
       <c r="P31">
-        <v>4.59248146852209</v>
+        <v>5.84139630341748</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>443.583439339068</v>
+        <v>488.452364340295</v>
       </c>
       <c r="C32">
-        <v>6.14984665971703</v>
+        <v>6.0495989643686</v>
       </c>
       <c r="D32">
-        <v>0.905953746715</v>
+        <v>0.792306675683888</v>
       </c>
       <c r="E32">
-        <v>2.26628531932032</v>
+        <v>3.79106993788192</v>
       </c>
       <c r="F32">
-        <v>27.6651224170958</v>
+        <v>24.3839683504639</v>
       </c>
       <c r="G32">
-        <v>3.62849091457312</v>
+        <v>2.62472372094453</v>
       </c>
       <c r="H32">
-        <v>2.18392854277092</v>
+        <v>2.0438224208199</v>
       </c>
       <c r="I32">
-        <v>4.66405737027802</v>
+        <v>4.83465817163677</v>
       </c>
       <c r="J32">
-        <v>6.26945038471647</v>
+        <v>5.73625409841729</v>
       </c>
       <c r="K32">
-        <v>1.65745913384557</v>
+        <v>1.36952482214405</v>
       </c>
       <c r="L32">
-        <v>20.2138886567565</v>
+        <v>18.4564628792073</v>
       </c>
       <c r="M32">
-        <v>2.44417945349422</v>
+        <v>2.38313836925314</v>
       </c>
       <c r="N32">
-        <v>6.85208907667872</v>
+        <v>6.65201892186246</v>
       </c>
       <c r="O32">
-        <v>770.547693072544</v>
+        <v>718.687723946519</v>
       </c>
       <c r="P32">
-        <v>22.3484296698376</v>
+        <v>21.2366754673813</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>4520.13960574268</v>
+        <v>4988.43802321379</v>
       </c>
       <c r="C33">
-        <v>80.94813380824191</v>
+        <v>81.8841120508209</v>
       </c>
       <c r="D33">
-        <v>93.800479507475</v>
+        <v>87.48609868975269</v>
       </c>
       <c r="E33">
-        <v>66.6147476323918</v>
+        <v>79.9181270602173</v>
       </c>
       <c r="F33">
-        <v>8.18269497572966</v>
+        <v>7.69801285261872</v>
       </c>
       <c r="G33">
-        <v>74.20841391191129</v>
+        <v>76.33138246089359</v>
       </c>
       <c r="H33">
-        <v>35.5438055950009</v>
+        <v>33.4866330536085</v>
       </c>
       <c r="I33">
-        <v>32.6256375082857</v>
+        <v>31.6361922843929</v>
       </c>
       <c r="J33">
-        <v>109.87988241351</v>
+        <v>111.438843309162</v>
       </c>
       <c r="K33">
-        <v>93.76812526727539</v>
+        <v>93.6745728714165</v>
       </c>
       <c r="L33">
-        <v>126.861332204889</v>
+        <v>126.045595935652</v>
       </c>
       <c r="M33">
-        <v>67.1937524798368</v>
+        <v>65.460265763756</v>
       </c>
       <c r="N33">
-        <v>151.385356881849</v>
+        <v>138.530531770752</v>
       </c>
       <c r="O33">
-        <v>7639.03027729444</v>
+        <v>7223.65983030232</v>
       </c>
       <c r="P33">
-        <v>60.2589312733622</v>
+        <v>67.154468970569</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>1854.87911298363</v>
+        <v>2035.40931148897</v>
       </c>
       <c r="C34">
-        <v>75.02410659991961</v>
+        <v>71.7666007637163</v>
       </c>
       <c r="D34">
-        <v>172.378882572405</v>
+        <v>168.654362517869</v>
       </c>
       <c r="E34">
-        <v>47.3674117537041</v>
+        <v>51.1927457171137</v>
       </c>
       <c r="F34">
-        <v>6.49443263840361</v>
+        <v>6.65227561940422</v>
       </c>
       <c r="G34">
-        <v>46.7717504102052</v>
+        <v>44.119264075664</v>
       </c>
       <c r="H34">
-        <v>43.1568687602867</v>
+        <v>41.1312442716155</v>
       </c>
       <c r="I34">
-        <v>16.2720368186865</v>
+        <v>16.5727965442777</v>
       </c>
       <c r="J34">
-        <v>56.4006073956238</v>
+        <v>54.5206945682664</v>
       </c>
       <c r="K34">
-        <v>48.6808379053243</v>
+        <v>43.1636159189902</v>
       </c>
       <c r="L34">
-        <v>94.7832669583325</v>
+        <v>87.8098575217535</v>
       </c>
       <c r="M34">
-        <v>34.6253220269468</v>
+        <v>38.1514685595686</v>
       </c>
       <c r="N34">
-        <v>128.220598419253</v>
+        <v>123.7173825586</v>
       </c>
       <c r="O34">
-        <v>2998.34268306742</v>
+        <v>2848.53718497543</v>
       </c>
       <c r="P34">
-        <v>68.1078004434038</v>
+        <v>65.30602353980041</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>121.92774928166</v>
+        <v>140.539916863615</v>
       </c>
       <c r="C35">
-        <v>8.72972910590477</v>
+        <v>8.353076774673029</v>
       </c>
       <c r="D35">
-        <v>0.733638832784752</v>
+        <v>0.684757097196542</v>
       </c>
       <c r="E35">
-        <v>2.6300141443003</v>
+        <v>2.20330740822803</v>
       </c>
       <c r="F35">
-        <v>4.89448568024325</v>
+        <v>4.77095781955758</v>
       </c>
       <c r="G35">
-        <v>1.36524829953725</v>
+        <v>1.30342800839059</v>
       </c>
       <c r="H35">
-        <v>0.434958811548104</v>
+        <v>0.351490057135437</v>
       </c>
       <c r="I35">
-        <v>1.36014463075271</v>
+        <v>1.238945746754</v>
       </c>
       <c r="J35">
-        <v>3.29468924159581</v>
+        <v>2.99770567569076</v>
       </c>
       <c r="K35">
-        <v>6.39243323359616</v>
+        <v>6.06284244187607</v>
       </c>
       <c r="L35">
-        <v>3.11162379180113</v>
+        <v>2.68974778190749</v>
       </c>
       <c r="M35">
-        <v>2.02473012786513</v>
+        <v>1.97582111486371</v>
       </c>
       <c r="N35">
-        <v>3.01753264163008</v>
+        <v>2.70420374786471</v>
       </c>
       <c r="O35">
-        <v>305.622154341034</v>
+        <v>273.832105324414</v>
       </c>
       <c r="P35">
-        <v>50.7151776280482</v>
+        <v>46.6803746186171</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>2431.69854806834</v>
+        <v>2695.10095332044</v>
       </c>
       <c r="C36">
-        <v>48.486624542533</v>
+        <v>49.4549447765919</v>
       </c>
       <c r="D36">
-        <v>13.9405710172358</v>
+        <v>14.9223812438163</v>
       </c>
       <c r="E36">
-        <v>88.5040809871296</v>
+        <v>99.1267508393166</v>
       </c>
       <c r="F36">
-        <v>33.3438534707687</v>
+        <v>29.039932225183</v>
       </c>
       <c r="G36">
-        <v>101.07492469049</v>
+        <v>95.8287714676182</v>
       </c>
       <c r="H36">
-        <v>95.3268354587256</v>
+        <v>94.9311274874652</v>
       </c>
       <c r="I36">
-        <v>40.4691599201496</v>
+        <v>41.2742228145175</v>
       </c>
       <c r="J36">
-        <v>200.778194564308</v>
+        <v>208.65905973635</v>
       </c>
       <c r="K36">
-        <v>118.28131919739</v>
+        <v>106.295314893822</v>
       </c>
       <c r="L36">
-        <v>81.60405865725539</v>
+        <v>78.31152928812109</v>
       </c>
       <c r="M36">
-        <v>223.077003307473</v>
+        <v>225.346338844198</v>
       </c>
       <c r="N36">
-        <v>113.213116142888</v>
+        <v>108.696771547156</v>
       </c>
       <c r="O36">
-        <v>4335.10901046118</v>
+        <v>4076.93941509676</v>
       </c>
       <c r="P36">
-        <v>46.2626291408673</v>
+        <v>48.803499924148</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>789.1209917821431</v>
+        <v>869.486435959814</v>
       </c>
       <c r="C37">
-        <v>22.7988169926617</v>
+        <v>23.1147779605843</v>
       </c>
       <c r="D37">
-        <v>4.78734797105291</v>
+        <v>4.40598195406795</v>
       </c>
       <c r="E37">
-        <v>20.3351096341817</v>
+        <v>20.2531704203037</v>
       </c>
       <c r="F37">
-        <v>34.535627354536</v>
+        <v>35.4501473627798</v>
       </c>
       <c r="G37">
-        <v>8.60204327565566</v>
+        <v>7.81429834821566</v>
       </c>
       <c r="H37">
-        <v>26.4257243276174</v>
+        <v>25.0664807535138</v>
       </c>
       <c r="I37">
-        <v>13.8320714885105</v>
+        <v>11.9024578497712</v>
       </c>
       <c r="J37">
-        <v>35.3268132264299</v>
+        <v>37.5102019730805</v>
       </c>
       <c r="K37">
-        <v>40.1526275813206</v>
+        <v>34.8293183250606</v>
       </c>
       <c r="L37">
-        <v>23.5400209568511</v>
+        <v>22.451193508868</v>
       </c>
       <c r="M37">
-        <v>36.5929323120282</v>
+        <v>36.8939058795283</v>
       </c>
       <c r="N37">
-        <v>17.9950389660389</v>
+        <v>17.7056497303935</v>
       </c>
       <c r="O37">
-        <v>1243.05979376032</v>
+        <v>1191.66666604962</v>
       </c>
       <c r="P37">
-        <v>59.2441257250041</v>
+        <v>57.6078696689756</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>761.274801161615</v>
+        <v>849.294359108502</v>
       </c>
       <c r="C38">
-        <v>22.9028227767691</v>
+        <v>22.241655644164</v>
       </c>
       <c r="D38">
-        <v>11.6690329451789</v>
+        <v>10.2025817921236</v>
       </c>
       <c r="E38">
-        <v>48.8332186389892</v>
+        <v>55.2654137149058</v>
       </c>
       <c r="F38">
-        <v>2.96745037161919</v>
+        <v>2.60708677862289</v>
       </c>
       <c r="G38">
-        <v>5.12340634022206</v>
+        <v>4.7163575940423</v>
       </c>
       <c r="H38">
-        <v>4.71948506737683</v>
+        <v>4.08243181500327</v>
       </c>
       <c r="I38">
-        <v>3.93991785889437</v>
+        <v>4.19880197793916</v>
       </c>
       <c r="J38">
-        <v>43.9593640563153</v>
+        <v>40.5742922967226</v>
       </c>
       <c r="K38">
-        <v>8.174950183834961</v>
+        <v>7.93282984461997</v>
       </c>
       <c r="L38">
-        <v>57.8956920759581</v>
+        <v>54.4039029372259</v>
       </c>
       <c r="M38">
-        <v>14.4720047940536</v>
+        <v>13.7465069095437</v>
       </c>
       <c r="N38">
-        <v>33.6565171309168</v>
+        <v>31.6057117576115</v>
       </c>
       <c r="O38">
-        <v>1386.19867404983</v>
+        <v>1312.30085072965</v>
       </c>
       <c r="P38">
-        <v>65.31522884213401</v>
+        <v>65.0032498099585</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>2812.47180273974</v>
+        <v>3150.43762655519</v>
       </c>
       <c r="C39">
-        <v>89.6197831380543</v>
+        <v>85.4060210992774</v>
       </c>
       <c r="D39">
-        <v>55.3434522909489</v>
+        <v>54.5878054865719</v>
       </c>
       <c r="E39">
-        <v>115.390821347472</v>
+        <v>128.029088706419</v>
       </c>
       <c r="F39">
-        <v>24.9354756084194</v>
+        <v>26.9569002386504</v>
       </c>
       <c r="G39">
-        <v>120.763184665405</v>
+        <v>111.527488969913</v>
       </c>
       <c r="H39">
-        <v>52.8221207579296</v>
+        <v>54.6946527841582</v>
       </c>
       <c r="I39">
-        <v>42.327320593401</v>
+        <v>42.8720841775662</v>
       </c>
       <c r="J39">
-        <v>159.749598929586</v>
+        <v>168.576960214428</v>
       </c>
       <c r="K39">
-        <v>114.135650029</v>
+        <v>105.41589963557</v>
       </c>
       <c r="L39">
-        <v>103.317662802932</v>
+        <v>100.549453633163</v>
       </c>
       <c r="M39">
-        <v>60.8205873721531</v>
+        <v>61.0610062847244</v>
       </c>
       <c r="N39">
-        <v>109.524427803278</v>
+        <v>104.760784392496</v>
       </c>
       <c r="O39">
-        <v>4788.54807558939</v>
+        <v>4459.34254584507</v>
       </c>
       <c r="P39">
-        <v>56.9995159721347</v>
+        <v>61.8870482921329</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>239.534386468723</v>
+        <v>262.457200193341</v>
       </c>
       <c r="C40">
-        <v>4.00505477652716</v>
+        <v>3.91929613436133</v>
       </c>
       <c r="D40">
-        <v>8.99368686853661</v>
+        <v>8.56603428689429</v>
       </c>
       <c r="E40">
-        <v>4.83058733090849</v>
+        <v>5.15874526467894</v>
       </c>
       <c r="F40">
-        <v>0.22151328922383</v>
+        <v>0.211324884763325</v>
       </c>
       <c r="G40">
-        <v>5.99266125915847</v>
+        <v>5.38907786848111</v>
       </c>
       <c r="H40">
-        <v>5.20491470419378</v>
+        <v>4.54272807959691</v>
       </c>
       <c r="I40">
-        <v>1.9738054694069</v>
+        <v>1.85895050089442</v>
       </c>
       <c r="J40">
-        <v>8.779885196535711</v>
+        <v>8.801895226035541</v>
       </c>
       <c r="K40">
-        <v>6.30993687424233</v>
+        <v>5.35376488274516</v>
       </c>
       <c r="L40">
-        <v>17.4312550823336</v>
+        <v>16.7849046572716</v>
       </c>
       <c r="M40">
-        <v>6.45052217375527</v>
+        <v>5.83899804019469</v>
       </c>
       <c r="N40">
-        <v>26.0770657644656</v>
+        <v>23.7042294148706</v>
       </c>
       <c r="O40">
-        <v>506.468135845175</v>
+        <v>456.685058698907</v>
       </c>
       <c r="P40">
-        <v>2.21506269028507</v>
+        <v>2.59098674113114</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>968.047235021416</v>
+        <v>1063.26753863935</v>
       </c>
       <c r="C41">
-        <v>10.015215978875</v>
+        <v>12.7029089470997</v>
       </c>
       <c r="D41">
-        <v>78.3738935350479</v>
+        <v>78.4978999445345</v>
       </c>
       <c r="E41">
-        <v>27.9541166303189</v>
+        <v>29.3157016055442</v>
       </c>
       <c r="F41">
-        <v>1.06602267528349</v>
+        <v>1.02653844531893</v>
       </c>
       <c r="G41">
-        <v>28.2187910362305</v>
+        <v>25.6525364387634</v>
       </c>
       <c r="H41">
-        <v>35.4257384138613</v>
+        <v>33.8014943851466</v>
       </c>
       <c r="I41">
-        <v>15.6083404975309</v>
+        <v>15.3561339718516</v>
       </c>
       <c r="J41">
-        <v>45.8649251119869</v>
+        <v>43.105951712003</v>
       </c>
       <c r="K41">
-        <v>20.5380998842527</v>
+        <v>18.9841500019446</v>
       </c>
       <c r="L41">
-        <v>33.3542397060643</v>
+        <v>31.6486871203386</v>
       </c>
       <c r="M41">
-        <v>22.1855714321905</v>
+        <v>22.3334407764593</v>
       </c>
       <c r="N41">
-        <v>23.3225255532024</v>
+        <v>23.0056211260201</v>
       </c>
       <c r="O41">
-        <v>1466.0330824347</v>
+        <v>1392.78084908726</v>
       </c>
       <c r="P41">
-        <v>34.1387599111552</v>
+        <v>32.6978090754528</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>130.480290870842</v>
+        <v>147.062352171204</v>
       </c>
       <c r="C42">
-        <v>6.81005813653684</v>
+        <v>6.50345682297929</v>
       </c>
       <c r="D42">
-        <v>1.79782100765226</v>
+        <v>1.67108452753839</v>
       </c>
       <c r="E42">
-        <v>5.76905258447207</v>
+        <v>5.63241188557058</v>
       </c>
       <c r="F42">
-        <v>3.10551943197704</v>
+        <v>2.89877640057844</v>
       </c>
       <c r="G42">
-        <v>2.1074099606482</v>
+        <v>1.71311632826855</v>
       </c>
       <c r="H42">
-        <v>0.7794633843714111</v>
+        <v>0.8037487174661661</v>
       </c>
       <c r="I42">
-        <v>0.65656758872605</v>
+        <v>0.751096720232088</v>
       </c>
       <c r="J42">
-        <v>3.80707108547246</v>
+        <v>3.63765648947686</v>
       </c>
       <c r="K42">
-        <v>7.11695747270736</v>
+        <v>6.0197887427147</v>
       </c>
       <c r="L42">
-        <v>9.620400426990241</v>
+        <v>8.482139411281491</v>
       </c>
       <c r="M42">
-        <v>4.1141429615514</v>
+        <v>3.79632671994137</v>
       </c>
       <c r="N42">
-        <v>8.38180310116258</v>
+        <v>8.08268319910345</v>
       </c>
       <c r="O42">
-        <v>404.291245504916</v>
+        <v>348.414186562484</v>
       </c>
       <c r="P42">
-        <v>58.7449491682903</v>
+        <v>56.1481846200549</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1364.69654784834</v>
+        <v>1497.84812742307</v>
       </c>
       <c r="C43">
-        <v>41.8031791410049</v>
+        <v>46.3319090573319</v>
       </c>
       <c r="D43">
-        <v>47.1969162541134</v>
+        <v>45.7913237414485</v>
       </c>
       <c r="E43">
-        <v>60.8125378278468</v>
+        <v>67.6264149852349</v>
       </c>
       <c r="F43">
-        <v>7.89746091736951</v>
+        <v>7.12397784572681</v>
       </c>
       <c r="G43">
-        <v>17.1109190859627</v>
+        <v>17.3904360248764</v>
       </c>
       <c r="H43">
-        <v>33.3904907672846</v>
+        <v>35.7167142096583</v>
       </c>
       <c r="I43">
-        <v>29.4975117819578</v>
+        <v>24.5120070148983</v>
       </c>
       <c r="J43">
-        <v>42.2608255533194</v>
+        <v>49.6399979541189</v>
       </c>
       <c r="K43">
-        <v>55.4766692443251</v>
+        <v>51.3514392527713</v>
       </c>
       <c r="L43">
-        <v>45.9870413392834</v>
+        <v>45.6183572820114</v>
       </c>
       <c r="M43">
-        <v>111.257132208829</v>
+        <v>118.740299394738</v>
       </c>
       <c r="N43">
-        <v>61.8803725908214</v>
+        <v>57.0749228856139</v>
       </c>
       <c r="O43">
-        <v>2087.676136267</v>
+        <v>1960.62970427277</v>
       </c>
       <c r="P43">
-        <v>44.7436022335356</v>
+        <v>38.3687645204315</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>4325.31403300089</v>
+        <v>4850.91546357904</v>
       </c>
       <c r="C44">
-        <v>152.517566715923</v>
+        <v>137.554495211344</v>
       </c>
       <c r="D44">
-        <v>55.4376348528242</v>
+        <v>52.0178712547089</v>
       </c>
       <c r="E44">
-        <v>99.4777902779143</v>
+        <v>108.563301352076</v>
       </c>
       <c r="F44">
-        <v>239.263825819579</v>
+        <v>225.601147065846</v>
       </c>
       <c r="G44">
-        <v>139.828816233772</v>
+        <v>129.627440391156</v>
       </c>
       <c r="H44">
-        <v>40.8186350724346</v>
+        <v>44.115139908772</v>
       </c>
       <c r="I44">
-        <v>44.7036736981149</v>
+        <v>44.1699956711905</v>
       </c>
       <c r="J44">
-        <v>113.967969365757</v>
+        <v>112.349079911943</v>
       </c>
       <c r="K44">
-        <v>80.3263140425734</v>
+        <v>75.35841238777699</v>
       </c>
       <c r="L44">
-        <v>199.921630149267</v>
+        <v>195.836444332545</v>
       </c>
       <c r="M44">
-        <v>101.302633729855</v>
+        <v>101.949170251183</v>
       </c>
       <c r="N44">
-        <v>89.9515236443582</v>
+        <v>89.1221564490104</v>
       </c>
       <c r="O44">
-        <v>7971.02771604475</v>
+        <v>7621.83360446459</v>
       </c>
       <c r="P44">
-        <v>221.960229290643</v>
+        <v>205.497007584031</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>423.328132231173</v>
+        <v>458.809369356029</v>
       </c>
       <c r="C45">
-        <v>16.9730565865442</v>
+        <v>17.743442366767</v>
       </c>
       <c r="D45">
-        <v>2.88718556267701</v>
+        <v>2.63803553273366</v>
       </c>
       <c r="E45">
-        <v>17.3051641310855</v>
+        <v>19.9455110705244</v>
       </c>
       <c r="F45">
-        <v>23.9321623302238</v>
+        <v>22.5973434328091</v>
       </c>
       <c r="G45">
-        <v>7.44663539852453</v>
+        <v>6.93207297961555</v>
       </c>
       <c r="H45">
-        <v>2.07211841013373</v>
+        <v>2.0019104656996</v>
       </c>
       <c r="I45">
-        <v>4.10254354517185</v>
+        <v>3.98153186092623</v>
       </c>
       <c r="J45">
-        <v>25.4175049976467</v>
+        <v>23.535948684337</v>
       </c>
       <c r="K45">
-        <v>6.05170940888334</v>
+        <v>5.65258232348508</v>
       </c>
       <c r="L45">
-        <v>14.4691489784984</v>
+        <v>14.9769215823966</v>
       </c>
       <c r="M45">
-        <v>18.233148483601</v>
+        <v>19.1002195700522</v>
       </c>
       <c r="N45">
-        <v>26.7948531259814</v>
+        <v>26.7494695917369</v>
       </c>
       <c r="O45">
-        <v>868.2850244662681</v>
+        <v>829.92937904161</v>
       </c>
       <c r="P45">
-        <v>18.3520482464128</v>
+        <v>18.8495448201187</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>129.145976706446</v>
+        <v>139.140308101103</v>
       </c>
       <c r="C46">
-        <v>4.00244944135987</v>
+        <v>3.88165906663781</v>
       </c>
       <c r="D46">
-        <v>1.2706896403187</v>
+        <v>1.15478731355348</v>
       </c>
       <c r="E46">
-        <v>6.37550460625975</v>
+        <v>6.50647797648322</v>
       </c>
       <c r="F46">
-        <v>1.43852998793659</v>
+        <v>1.11665490935967</v>
       </c>
       <c r="G46">
-        <v>3.94706088628567</v>
+        <v>3.24653597839022</v>
       </c>
       <c r="H46">
-        <v>1.93125166783361</v>
+        <v>1.59442835130541</v>
       </c>
       <c r="I46">
-        <v>1.68781792227899</v>
+        <v>1.45706637597529</v>
       </c>
       <c r="J46">
-        <v>4.99792941516443</v>
+        <v>4.89213585189977</v>
       </c>
       <c r="K46">
-        <v>5.44388023994913</v>
+        <v>4.66559608110624</v>
       </c>
       <c r="L46">
-        <v>13.3421312294716</v>
+        <v>11.6708135716527</v>
       </c>
       <c r="M46">
-        <v>4.056674122806</v>
+        <v>3.83445350773212</v>
       </c>
       <c r="N46">
-        <v>10.572389050758</v>
+        <v>9.775744347302609</v>
       </c>
       <c r="O46">
-        <v>324.592358215947</v>
+        <v>289.035087989087</v>
       </c>
       <c r="P46">
-        <v>12.5104991228391</v>
+        <v>12.7838180627537</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1480.44870429646</v>
+        <v>1625.6953645719</v>
       </c>
       <c r="C47">
-        <v>56.8644057309071</v>
+        <v>53.8882966265713</v>
       </c>
       <c r="D47">
-        <v>36.1786515850524</v>
+        <v>37.2426520092945</v>
       </c>
       <c r="E47">
-        <v>55.4468784372539</v>
+        <v>61.0212767878037</v>
       </c>
       <c r="F47">
-        <v>7.96343090355823</v>
+        <v>8.639430608764339</v>
       </c>
       <c r="G47">
-        <v>25.5230381218445</v>
+        <v>23.4598015566154</v>
       </c>
       <c r="H47">
-        <v>13.5665803027526</v>
+        <v>14.0254048008926</v>
       </c>
       <c r="I47">
-        <v>5.8840054035358</v>
+        <v>6.16983196363841</v>
       </c>
       <c r="J47">
-        <v>39.1273406042806</v>
+        <v>36.1212726650696</v>
       </c>
       <c r="K47">
-        <v>16.9849988072499</v>
+        <v>17.6517057557919</v>
       </c>
       <c r="L47">
-        <v>42.2375601791544</v>
+        <v>41.311638651143</v>
       </c>
       <c r="M47">
-        <v>71.7887316487115</v>
+        <v>71.05007607517931</v>
       </c>
       <c r="N47">
-        <v>37.254878363344</v>
+        <v>39.044848014518</v>
       </c>
       <c r="O47">
-        <v>2953.15452561048</v>
+        <v>2821.08475966358</v>
       </c>
       <c r="P47">
-        <v>37.0179080517226</v>
+        <v>38.1581859150188</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1313.39019618938</v>
+        <v>1438.0299737162</v>
       </c>
       <c r="C48">
-        <v>18.0668059736676</v>
+        <v>22.3753044823916</v>
       </c>
       <c r="D48">
-        <v>8.37900377392805</v>
+        <v>7.41446971621525</v>
       </c>
       <c r="E48">
-        <v>71.569074308583</v>
+        <v>70.3634114214716</v>
       </c>
       <c r="F48">
-        <v>5.03037596626951</v>
+        <v>4.5278039454101</v>
       </c>
       <c r="G48">
-        <v>4.84599723411483</v>
+        <v>4.56739361793701</v>
       </c>
       <c r="H48">
-        <v>3.43781077802154</v>
+        <v>3.84002030037714</v>
       </c>
       <c r="I48">
-        <v>8.69733751042461</v>
+        <v>8.11633021306991</v>
       </c>
       <c r="J48">
-        <v>35.5753383850709</v>
+        <v>36.4405221217096</v>
       </c>
       <c r="K48">
-        <v>14.6564714640063</v>
+        <v>12.9953896350143</v>
       </c>
       <c r="L48">
-        <v>41.8192358164012</v>
+        <v>41.1618931879027</v>
       </c>
       <c r="M48">
-        <v>115.329668846154</v>
+        <v>108.443855211215</v>
       </c>
       <c r="N48">
-        <v>27.1920063397744</v>
+        <v>28.7402543224528</v>
       </c>
       <c r="O48">
-        <v>2351.0178632306</v>
+        <v>2248.1867896476</v>
       </c>
       <c r="P48">
-        <v>91.88764769253601</v>
+        <v>91.2537118423938</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>646.501635908125</v>
+        <v>680.67501801854</v>
       </c>
       <c r="C49">
-        <v>6.82372890112735</v>
+        <v>6.80812691675411</v>
       </c>
       <c r="D49">
-        <v>4.28732227430513</v>
+        <v>3.55502135400188</v>
       </c>
       <c r="E49">
-        <v>22.2407528363223</v>
+        <v>21.7835845520382</v>
       </c>
       <c r="F49">
-        <v>30.2250074597103</v>
+        <v>27.553545325014</v>
       </c>
       <c r="G49">
-        <v>16.8787468495556</v>
+        <v>16.0637304241611</v>
       </c>
       <c r="H49">
-        <v>6.75986096691477</v>
+        <v>7.08972351377577</v>
       </c>
       <c r="I49">
-        <v>6.45286282286841</v>
+        <v>5.84733816776041</v>
       </c>
       <c r="J49">
-        <v>23.5120010515388</v>
+        <v>21.4799435218689</v>
       </c>
       <c r="K49">
-        <v>4.36476308131677</v>
+        <v>4.04386260077642</v>
       </c>
       <c r="L49">
-        <v>1.73203022881779</v>
+        <v>1.60101698989812</v>
       </c>
       <c r="M49">
-        <v>7.79951896238779</v>
+        <v>7.91747846860837</v>
       </c>
       <c r="N49">
-        <v>4.79571452355417</v>
+        <v>4.48728674457429</v>
       </c>
       <c r="O49">
-        <v>668.262953941228</v>
+        <v>617.034041058753</v>
       </c>
       <c r="P49">
-        <v>7.79040621105211</v>
+        <v>7.76677000002997</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>918.905833009303</v>
+        <v>1057.63876060404</v>
       </c>
       <c r="C50">
-        <v>76.8640276491526</v>
+        <v>79.9842155181998</v>
       </c>
       <c r="D50">
-        <v>19.6693092899453</v>
+        <v>19.0497251942197</v>
       </c>
       <c r="E50">
-        <v>145.257162714955</v>
+        <v>148.545998864878</v>
       </c>
       <c r="F50">
-        <v>2.78126573362864</v>
+        <v>2.85903111622018</v>
       </c>
       <c r="G50">
-        <v>33.387945815927</v>
+        <v>27.5830572096404</v>
       </c>
       <c r="H50">
-        <v>38.5071658929907</v>
+        <v>38.6629620810218</v>
       </c>
       <c r="I50">
-        <v>14.9974637100719</v>
+        <v>14.6916663364672</v>
       </c>
       <c r="J50">
-        <v>110.553663673216</v>
+        <v>109.772323917001</v>
       </c>
       <c r="K50">
-        <v>92.189046474435</v>
+        <v>83.70878523548259</v>
       </c>
       <c r="L50">
-        <v>58.816693124268</v>
+        <v>56.1849236082393</v>
       </c>
       <c r="M50">
-        <v>34.4268741541358</v>
+        <v>37.1224255782505</v>
       </c>
       <c r="N50">
-        <v>56.3915406931495</v>
+        <v>52.930410851655</v>
       </c>
       <c r="O50">
-        <v>2122.9825079457</v>
+        <v>1985.48811000454</v>
       </c>
       <c r="P50">
-        <v>83.56749886844609</v>
+        <v>92.2193995994583</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>132.507771310962</v>
+        <v>133.243051533465</v>
       </c>
       <c r="C51">
-        <v>3.59295359266236</v>
+        <v>3.01155854728689</v>
       </c>
       <c r="D51">
-        <v>0.0681148970088237</v>
+        <v>0.0968253105655849</v>
       </c>
       <c r="E51">
-        <v>2.00809765002446</v>
+        <v>2.03825148621436</v>
       </c>
       <c r="F51">
-        <v>33.7175541567886</v>
+        <v>30.422154304106</v>
       </c>
       <c r="G51">
-        <v>2.00706918537203</v>
+        <v>2.29563823575758</v>
       </c>
       <c r="H51">
-        <v>0.0149560158334064</v>
+        <v>0.0220409279528294</v>
       </c>
       <c r="I51">
-        <v>1.25537138542428</v>
+        <v>1.1224799308424</v>
       </c>
       <c r="J51">
-        <v>1.31878135053155</v>
+        <v>1.13444006033133</v>
       </c>
       <c r="K51">
-        <v>1.55163839924449</v>
+        <v>1.23697201684873</v>
       </c>
       <c r="L51">
-        <v>0.340917219875659</v>
+        <v>0.338724920024137</v>
       </c>
       <c r="M51">
-        <v>0.425270444260041</v>
+        <v>0.389409820433696</v>
       </c>
       <c r="N51">
-        <v>2.00668619674684</v>
+        <v>1.7268630898023</v>
       </c>
       <c r="O51">
-        <v>298.300513119467</v>
+        <v>254.295918447295</v>
       </c>
       <c r="P51">
-        <v>25.5002303011215</v>
+        <v>22.1603703525316</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2002.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2002.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>1361.16068496757</v>
+        <v>1361.16109049259</v>
       </c>
       <c r="C2">
-        <v>30.9076787043908</v>
+        <v>30.9076863569718</v>
       </c>
       <c r="D2">
-        <v>50.4994358860786</v>
+        <v>50.4994181102802</v>
       </c>
       <c r="E2">
-        <v>62.4559413242546</v>
+        <v>62.4558566233476</v>
       </c>
       <c r="F2">
-        <v>18.0063026283498</v>
+        <v>18.0062251569152</v>
       </c>
       <c r="G2">
-        <v>13.1017179380622</v>
+        <v>13.1017056683118</v>
       </c>
       <c r="H2">
-        <v>25.6085812577709</v>
+        <v>25.6084034802766</v>
       </c>
       <c r="I2">
-        <v>13.1857929124437</v>
+        <v>13.1857878166471</v>
       </c>
       <c r="J2">
-        <v>62.757006456482</v>
+        <v>62.756977380666</v>
       </c>
       <c r="K2">
-        <v>19.5212325844041</v>
+        <v>19.5211804355379</v>
       </c>
       <c r="L2">
-        <v>41.784688945</v>
+        <v>41.784490123086</v>
       </c>
       <c r="M2">
-        <v>43.5426777791359</v>
+        <v>43.542665199783</v>
       </c>
       <c r="N2">
-        <v>21.5529225163159</v>
+        <v>21.5528692365129</v>
       </c>
       <c r="O2">
-        <v>1364.93452005486</v>
+        <v>1364.934979781</v>
       </c>
       <c r="P2">
-        <v>24.1919733356244</v>
+        <v>24.1919745211064</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>157.372317579553</v>
+        <v>157.354617446677</v>
       </c>
       <c r="C3">
-        <v>4.27754892086098</v>
+        <v>4.27707918743613</v>
       </c>
       <c r="D3">
-        <v>0.391103433316481</v>
+        <v>0.391061524246452</v>
       </c>
       <c r="E3">
-        <v>1.19813774389209</v>
+        <v>1.19792519864598</v>
       </c>
       <c r="F3">
-        <v>10.4821084564008</v>
+        <v>10.4807834680616</v>
       </c>
       <c r="G3">
-        <v>0.482857820312206</v>
+        <v>0.482790760438799</v>
       </c>
       <c r="H3">
-        <v>0.0983186665344324</v>
+        <v>0.107295711138343</v>
       </c>
       <c r="I3">
-        <v>0.840133388226901</v>
+        <v>0.844847065605127</v>
       </c>
       <c r="J3">
-        <v>0.602271282029068</v>
+        <v>0.610227784160208</v>
       </c>
       <c r="K3">
-        <v>0.266617478225494</v>
+        <v>0.270559335209995</v>
       </c>
       <c r="L3">
-        <v>0.219182828676924</v>
+        <v>0.224972292951461</v>
       </c>
       <c r="M3">
-        <v>1.01208715075931</v>
+        <v>1.01270590705303</v>
       </c>
       <c r="N3">
-        <v>1.68222970740746</v>
+        <v>1.68759436591932</v>
       </c>
       <c r="O3">
-        <v>311.151339382214</v>
+        <v>311.122203136036</v>
       </c>
       <c r="P3">
-        <v>13.632586437636</v>
+        <v>13.6310652165904</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>1329.67872370361</v>
+        <v>1329.68032610869</v>
       </c>
       <c r="C4">
-        <v>8.03795393514825</v>
+        <v>8.03793037957472</v>
       </c>
       <c r="D4">
-        <v>1.86703921891427</v>
+        <v>1.86704177012625</v>
       </c>
       <c r="E4">
-        <v>23.4932877196381</v>
+        <v>23.4932732802376</v>
       </c>
       <c r="F4">
-        <v>12.3081747447815</v>
+        <v>12.3078743499544</v>
       </c>
       <c r="G4">
-        <v>7.82359896218856</v>
+        <v>7.82359633775901</v>
       </c>
       <c r="H4">
-        <v>11.8916335344864</v>
+        <v>11.8874056069074</v>
       </c>
       <c r="I4">
-        <v>11.16745089823</v>
+        <v>11.1674637659198</v>
       </c>
       <c r="J4">
-        <v>18.0676479423494</v>
+        <v>18.0675543729076</v>
       </c>
       <c r="K4">
-        <v>6.304756205592</v>
+        <v>6.30470117182759</v>
       </c>
       <c r="L4">
-        <v>69.4887677212765</v>
+        <v>69.4882935029717</v>
       </c>
       <c r="M4">
-        <v>42.8435927160221</v>
+        <v>42.8434892548907</v>
       </c>
       <c r="N4">
-        <v>31.3122792610349</v>
+        <v>31.3120646984379</v>
       </c>
       <c r="O4">
-        <v>2010.77367897893</v>
+        <v>2010.77588782959</v>
       </c>
       <c r="P4">
-        <v>20.7005274459223</v>
+        <v>20.7005921238625</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>745.60282672595</v>
+        <v>745.602889191557</v>
       </c>
       <c r="C5">
-        <v>50.097706446609</v>
+        <v>50.0977081327625</v>
       </c>
       <c r="D5">
-        <v>10.9042041647688</v>
+        <v>10.9042003430641</v>
       </c>
       <c r="E5">
-        <v>32.2118458791944</v>
+        <v>32.2115971208185</v>
       </c>
       <c r="F5">
-        <v>5.46709839308736</v>
+        <v>5.46701667004764</v>
       </c>
       <c r="G5">
-        <v>5.30153599191516</v>
+        <v>5.30153504389132</v>
       </c>
       <c r="H5">
-        <v>12.6840299252782</v>
+        <v>12.6839748115303</v>
       </c>
       <c r="I5">
-        <v>8.617076571168401</v>
+        <v>8.61706165614642</v>
       </c>
       <c r="J5">
-        <v>26.413468182992</v>
+        <v>26.413492862153</v>
       </c>
       <c r="K5">
-        <v>16.5248799034078</v>
+        <v>16.5248569514672</v>
       </c>
       <c r="L5">
-        <v>22.8842182975977</v>
+        <v>22.8841774017754</v>
       </c>
       <c r="M5">
-        <v>23.4743696567226</v>
+        <v>23.4743615519792</v>
       </c>
       <c r="N5">
-        <v>22.6690679877235</v>
+        <v>22.6690006436872</v>
       </c>
       <c r="O5">
-        <v>872.5556752938641</v>
+        <v>872.555723971887</v>
       </c>
       <c r="P5">
-        <v>59.0371904551411</v>
+        <v>59.037204170753</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>8339.27474757331</v>
+        <v>8339.27915122736</v>
       </c>
       <c r="C6">
-        <v>183.214812881617</v>
+        <v>183.214881654093</v>
       </c>
       <c r="D6">
-        <v>165.08110074712</v>
+        <v>165.081064521265</v>
       </c>
       <c r="E6">
-        <v>163.831645600397</v>
+        <v>163.829299036361</v>
       </c>
       <c r="F6">
-        <v>39.8673032222469</v>
+        <v>39.8659972860574</v>
       </c>
       <c r="G6">
-        <v>95.0613647845246</v>
+        <v>95.0607271220493</v>
       </c>
       <c r="H6">
-        <v>72.807384549736</v>
+        <v>72.8037543479543</v>
       </c>
       <c r="I6">
-        <v>34.0711962564829</v>
+        <v>34.0710534757655</v>
       </c>
       <c r="J6">
-        <v>180.81067728012</v>
+        <v>180.810190225477</v>
       </c>
       <c r="K6">
-        <v>109.556784463249</v>
+        <v>109.55637537894</v>
       </c>
       <c r="L6">
-        <v>502.01924801943</v>
+        <v>502.017177464023</v>
       </c>
       <c r="M6">
-        <v>279.362154661467</v>
+        <v>279.361718290503</v>
       </c>
       <c r="N6">
-        <v>280.373748911625</v>
+        <v>280.372251278</v>
       </c>
       <c r="O6">
-        <v>12303.2351860669</v>
+        <v>12303.2413327329</v>
       </c>
       <c r="P6">
-        <v>299.720898384736</v>
+        <v>299.721497164729</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>848.187151404442</v>
+        <v>848.188553285454</v>
       </c>
       <c r="C7">
-        <v>35.8211748023761</v>
+        <v>35.8212226412109</v>
       </c>
       <c r="D7">
-        <v>2.41039592237667</v>
+        <v>2.4103684015241</v>
       </c>
       <c r="E7">
-        <v>16.4058978635838</v>
+        <v>16.40570647983</v>
       </c>
       <c r="F7">
-        <v>12.8830275610181</v>
+        <v>12.8829911418317</v>
       </c>
       <c r="G7">
-        <v>7.60892698746116</v>
+        <v>7.6087541446655</v>
       </c>
       <c r="H7">
-        <v>5.8103710497957</v>
+        <v>5.80977672093016</v>
       </c>
       <c r="I7">
-        <v>9.894620192121449</v>
+        <v>9.89463001538236</v>
       </c>
       <c r="J7">
-        <v>15.1118416406036</v>
+        <v>15.1116849043966</v>
       </c>
       <c r="K7">
-        <v>12.9586758442779</v>
+        <v>12.9584978705474</v>
       </c>
       <c r="L7">
-        <v>53.6719788460272</v>
+        <v>53.671605323656</v>
       </c>
       <c r="M7">
-        <v>17.281004846296</v>
+        <v>17.2809516326356</v>
       </c>
       <c r="N7">
-        <v>25.7603405775974</v>
+        <v>25.7597771035714</v>
       </c>
       <c r="O7">
-        <v>1866.92923527453</v>
+        <v>1866.93128446235</v>
       </c>
       <c r="P7">
-        <v>26.5637434516992</v>
+        <v>26.5638715909623</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>713.721041920672</v>
+        <v>713.71913938045</v>
       </c>
       <c r="C8">
-        <v>13.6960278389534</v>
+        <v>13.6959940397744</v>
       </c>
       <c r="D8">
-        <v>7.98348409439047</v>
+        <v>7.98346955625821</v>
       </c>
       <c r="E8">
-        <v>17.9309457456135</v>
+        <v>17.9309031328995</v>
       </c>
       <c r="F8">
-        <v>1.38514908562251</v>
+        <v>1.38957317987162</v>
       </c>
       <c r="G8">
-        <v>26.4070895851664</v>
+        <v>26.4070011734013</v>
       </c>
       <c r="H8">
-        <v>12.237014991827</v>
+        <v>12.2369177430345</v>
       </c>
       <c r="I8">
-        <v>7.29004025934477</v>
+        <v>7.29002062324204</v>
       </c>
       <c r="J8">
-        <v>39.6415735057189</v>
+        <v>39.6414490183079</v>
       </c>
       <c r="K8">
-        <v>22.186583990919</v>
+        <v>22.1865105532623</v>
       </c>
       <c r="L8">
-        <v>43.6617778409188</v>
+        <v>43.6616114657436</v>
       </c>
       <c r="M8">
-        <v>48.792423714375</v>
+        <v>48.7922587351852</v>
       </c>
       <c r="N8">
-        <v>26.3845756188598</v>
+        <v>26.3844566242698</v>
       </c>
       <c r="O8">
-        <v>1390.60962145488</v>
+        <v>1390.60729023335</v>
       </c>
       <c r="P8">
-        <v>4.87259859720518</v>
+        <v>4.87258762163065</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>209.551764391775</v>
+        <v>209.55180058998</v>
       </c>
       <c r="C9">
-        <v>8.14180297116892</v>
+        <v>8.14180486647027</v>
       </c>
       <c r="D9">
-        <v>2.43274594555334</v>
+        <v>2.4327452202063</v>
       </c>
       <c r="E9">
-        <v>4.49273271598434</v>
+        <v>4.49272030467965</v>
       </c>
       <c r="F9">
-        <v>1.5260885128839</v>
+        <v>1.52607539310161</v>
       </c>
       <c r="G9">
-        <v>23.4636634963046</v>
+        <v>23.4636564392338</v>
       </c>
       <c r="H9">
-        <v>5.2005765403875</v>
+        <v>5.20057674479979</v>
       </c>
       <c r="I9">
-        <v>1.02510135329622</v>
+        <v>1.02509912882184</v>
       </c>
       <c r="J9">
-        <v>4.57800866229981</v>
+        <v>4.57801927913664</v>
       </c>
       <c r="K9">
-        <v>3.45569904206093</v>
+        <v>3.45569504657484</v>
       </c>
       <c r="L9">
-        <v>2.55749000677319</v>
+        <v>2.55747364039846</v>
       </c>
       <c r="M9">
-        <v>9.654304559381631</v>
+        <v>9.65429337386343</v>
       </c>
       <c r="N9">
-        <v>5.86424645213614</v>
+        <v>5.86425648945644</v>
       </c>
       <c r="O9">
-        <v>355.932654824495</v>
+        <v>355.932729150786</v>
       </c>
       <c r="P9">
-        <v>5.57163186209052</v>
+        <v>5.57163494686478</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>4514.77260526142</v>
+        <v>4514.7741494854</v>
       </c>
       <c r="C10">
-        <v>61.0808276728144</v>
+        <v>61.0808485487631</v>
       </c>
       <c r="D10">
-        <v>25.916728598621</v>
+        <v>25.9167256841937</v>
       </c>
       <c r="E10">
-        <v>51.6283662854058</v>
+        <v>51.628300291466</v>
       </c>
       <c r="F10">
-        <v>11.1451418093668</v>
+        <v>11.1448957746002</v>
       </c>
       <c r="G10">
-        <v>31.6739671152089</v>
+        <v>31.6737382527562</v>
       </c>
       <c r="H10">
-        <v>11.7339188742546</v>
+        <v>11.7337406688331</v>
       </c>
       <c r="I10">
-        <v>43.204512549567</v>
+        <v>43.2042316275747</v>
       </c>
       <c r="J10">
-        <v>55.2256417258379</v>
+        <v>55.2254265146278</v>
       </c>
       <c r="K10">
-        <v>31.833095778512</v>
+        <v>31.8328811071846</v>
       </c>
       <c r="L10">
-        <v>87.6251973469351</v>
+        <v>87.6250127442639</v>
       </c>
       <c r="M10">
-        <v>75.2678029685388</v>
+        <v>75.26763066070561</v>
       </c>
       <c r="N10">
-        <v>86.45488856393099</v>
+        <v>86.4546801893553</v>
       </c>
       <c r="O10">
-        <v>6661.98669154932</v>
+        <v>6661.98812158221</v>
       </c>
       <c r="P10">
-        <v>103.530701100839</v>
+        <v>103.530814314913</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>1941.36480346343</v>
+        <v>1941.36517561954</v>
       </c>
       <c r="C11">
-        <v>68.74623951945161</v>
+        <v>68.7462602335427</v>
       </c>
       <c r="D11">
-        <v>169.124632239173</v>
+        <v>169.124566601489</v>
       </c>
       <c r="E11">
-        <v>62.4633290890706</v>
+        <v>62.4632668486944</v>
       </c>
       <c r="F11">
-        <v>2.33269382456697</v>
+        <v>2.33254769055744</v>
       </c>
       <c r="G11">
-        <v>29.4073054364189</v>
+        <v>29.4072375991753</v>
       </c>
       <c r="H11">
-        <v>17.6595042750944</v>
+        <v>17.6593968422587</v>
       </c>
       <c r="I11">
-        <v>15.2858312005354</v>
+        <v>15.2857589488825</v>
       </c>
       <c r="J11">
-        <v>47.6607089556442</v>
+        <v>47.6606475691773</v>
       </c>
       <c r="K11">
-        <v>27.2606072716158</v>
+        <v>27.2605857529225</v>
       </c>
       <c r="L11">
-        <v>55.417408540866</v>
+        <v>55.4172830022792</v>
       </c>
       <c r="M11">
-        <v>41.8299966982775</v>
+        <v>41.8299891146699</v>
       </c>
       <c r="N11">
-        <v>46.0424222177456</v>
+        <v>46.0423324404123</v>
       </c>
       <c r="O11">
-        <v>3089.76775666352</v>
+        <v>3089.76786722714</v>
       </c>
       <c r="P11">
-        <v>54.9111636020029</v>
+        <v>54.9111631197698</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>316.771700014158</v>
+        <v>316.744746327478</v>
       </c>
       <c r="C12">
-        <v>6.31847041604902</v>
+        <v>6.31785968564881</v>
       </c>
       <c r="D12">
-        <v>1.3395659932743</v>
+        <v>1.33938666237949</v>
       </c>
       <c r="E12">
-        <v>1.78501109150481</v>
+        <v>1.82161374952979</v>
       </c>
       <c r="F12">
-        <v>0.750489170704261</v>
+        <v>0.756166184019707</v>
       </c>
       <c r="G12">
-        <v>0.0716543963644929</v>
+        <v>0.0716449556358244</v>
       </c>
       <c r="H12">
-        <v>0.248799243717118</v>
+        <v>0.261752262530166</v>
       </c>
       <c r="I12">
-        <v>1.5050606387358</v>
+        <v>1.50484729953667</v>
       </c>
       <c r="J12">
-        <v>3.16602412723876</v>
+        <v>3.16559002307819</v>
       </c>
       <c r="K12">
-        <v>0.157241442929658</v>
+        <v>0.157215113772874</v>
       </c>
       <c r="L12">
-        <v>0.662198940155993</v>
+        <v>0.6631966286632081</v>
       </c>
       <c r="M12">
-        <v>4.09437566926698</v>
+        <v>4.09402761554812</v>
       </c>
       <c r="N12">
-        <v>3.00521825960878</v>
+        <v>3.03197420325643</v>
       </c>
       <c r="O12">
-        <v>577.333286593656</v>
+        <v>577.288756693612</v>
       </c>
       <c r="P12">
-        <v>22.5660651304386</v>
+        <v>22.5640155596223</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>277.794349550034</v>
+        <v>277.794726697234</v>
       </c>
       <c r="C13">
-        <v>17.4985911665139</v>
+        <v>17.4986082076094</v>
       </c>
       <c r="D13">
-        <v>0.45586011583604</v>
+        <v>0.455860462505676</v>
       </c>
       <c r="E13">
-        <v>13.7190383563525</v>
+        <v>13.7190678109207</v>
       </c>
       <c r="F13">
-        <v>2.99944093295657</v>
+        <v>2.99945886454031</v>
       </c>
       <c r="G13">
-        <v>5.3513323968239</v>
+        <v>5.35125961410854</v>
       </c>
       <c r="H13">
-        <v>2.51679695516829</v>
+        <v>2.51670128475074</v>
       </c>
       <c r="I13">
-        <v>1.33140698773738</v>
+        <v>1.3313851485339</v>
       </c>
       <c r="J13">
-        <v>6.05743791035598</v>
+        <v>6.0573069209545</v>
       </c>
       <c r="K13">
-        <v>5.40299497219181</v>
+        <v>5.40282694713696</v>
       </c>
       <c r="L13">
-        <v>19.2341723756667</v>
+        <v>19.234152248144</v>
       </c>
       <c r="M13">
-        <v>1.82011273585094</v>
+        <v>1.82011274005266</v>
       </c>
       <c r="N13">
-        <v>6.02129294781759</v>
+        <v>6.02125159044539</v>
       </c>
       <c r="O13">
-        <v>521.171092817371</v>
+        <v>521.171641170716</v>
       </c>
       <c r="P13">
-        <v>55.108080551534</v>
+        <v>55.1081364990112</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>2811.39457677968</v>
+        <v>2811.39498862984</v>
       </c>
       <c r="C14">
-        <v>120.630477485903</v>
+        <v>120.630460081036</v>
       </c>
       <c r="D14">
-        <v>15.7160325866349</v>
+        <v>15.7160047249256</v>
       </c>
       <c r="E14">
-        <v>76.87339578432329</v>
+        <v>76.87322572912539</v>
       </c>
       <c r="F14">
-        <v>16.8142084060201</v>
+        <v>16.814099824083</v>
       </c>
       <c r="G14">
-        <v>92.6259503153729</v>
+        <v>92.6258380102225</v>
       </c>
       <c r="H14">
-        <v>42.637435625577</v>
+        <v>42.6371737851817</v>
       </c>
       <c r="I14">
-        <v>26.5562003860752</v>
+        <v>26.5561761584462</v>
       </c>
       <c r="J14">
-        <v>152.593168296649</v>
+        <v>152.593096695256</v>
       </c>
       <c r="K14">
-        <v>152.203911268748</v>
+        <v>152.203758602335</v>
       </c>
       <c r="L14">
-        <v>130.521566906245</v>
+        <v>130.521392887843</v>
       </c>
       <c r="M14">
-        <v>77.80942773766191</v>
+        <v>77.8093470511453</v>
       </c>
       <c r="N14">
-        <v>100.090859128416</v>
+        <v>100.090747022248</v>
       </c>
       <c r="O14">
-        <v>4687.38683996984</v>
+        <v>4687.38723280258</v>
       </c>
       <c r="P14">
-        <v>66.3210459971702</v>
+        <v>66.3210916678608</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>1368.48872931454</v>
+        <v>1368.48884579051</v>
       </c>
       <c r="C15">
-        <v>36.5855261706399</v>
+        <v>36.5855274374816</v>
       </c>
       <c r="D15">
-        <v>13.5502698562378</v>
+        <v>13.5502713079243</v>
       </c>
       <c r="E15">
-        <v>67.0763767935382</v>
+        <v>67.0761020172403</v>
       </c>
       <c r="F15">
-        <v>18.217567919672</v>
+        <v>18.2175247019551</v>
       </c>
       <c r="G15">
-        <v>40.1108841990124</v>
+        <v>40.1108737316681</v>
       </c>
       <c r="H15">
-        <v>60.8970394143211</v>
+        <v>60.8967963035108</v>
       </c>
       <c r="I15">
-        <v>25.6555222108623</v>
+        <v>25.6555062873353</v>
       </c>
       <c r="J15">
-        <v>151.61397181102</v>
+        <v>151.61404228767</v>
       </c>
       <c r="K15">
-        <v>47.634954207486</v>
+        <v>47.6349224825657</v>
       </c>
       <c r="L15">
-        <v>42.5652426350243</v>
+        <v>42.565187360259</v>
       </c>
       <c r="M15">
-        <v>176.19016244415</v>
+        <v>176.190097226025</v>
       </c>
       <c r="N15">
-        <v>90.21990261395079</v>
+        <v>90.2198097988143</v>
       </c>
       <c r="O15">
-        <v>2083.61871762278</v>
+        <v>2083.61892223067</v>
       </c>
       <c r="P15">
-        <v>46.5400493554392</v>
+        <v>46.5400537458222</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>569.480169812457</v>
+        <v>569.480303914112</v>
       </c>
       <c r="C16">
-        <v>62.3023677292432</v>
+        <v>62.3023698360926</v>
       </c>
       <c r="D16">
-        <v>6.64104197973805</v>
+        <v>6.64104258330744</v>
       </c>
       <c r="E16">
-        <v>27.5065255892949</v>
+        <v>27.5067430692577</v>
       </c>
       <c r="F16">
-        <v>3.88571150200208</v>
+        <v>3.88569132463766</v>
       </c>
       <c r="G16">
-        <v>20.1414226547215</v>
+        <v>20.1414032841644</v>
       </c>
       <c r="H16">
-        <v>13.3298157297932</v>
+        <v>13.3297840998447</v>
       </c>
       <c r="I16">
-        <v>8.77095523613753</v>
+        <v>8.77095050861355</v>
       </c>
       <c r="J16">
-        <v>44.4052113250224</v>
+        <v>44.4051837029295</v>
       </c>
       <c r="K16">
-        <v>45.2370791938798</v>
+        <v>45.2370470016888</v>
       </c>
       <c r="L16">
-        <v>26.5392727265969</v>
+        <v>26.5392530384665</v>
       </c>
       <c r="M16">
-        <v>28.9077894739773</v>
+        <v>28.9077929477435</v>
       </c>
       <c r="N16">
-        <v>26.6211680007587</v>
+        <v>26.6210871380965</v>
       </c>
       <c r="O16">
-        <v>1146.82495131366</v>
+        <v>1146.82509910264</v>
       </c>
       <c r="P16">
-        <v>87.0774897353469</v>
+        <v>87.0775035463036</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>565.1584929982651</v>
+        <v>565.158640354848</v>
       </c>
       <c r="C17">
-        <v>18.6605239376367</v>
+        <v>18.6605278357555</v>
       </c>
       <c r="D17">
-        <v>2.6159799523652</v>
+        <v>2.61598048612356</v>
       </c>
       <c r="E17">
-        <v>17.1853972326536</v>
+        <v>17.1855914637889</v>
       </c>
       <c r="F17">
-        <v>12.0721204710938</v>
+        <v>12.0720584241508</v>
       </c>
       <c r="G17">
-        <v>6.94203795675389</v>
+        <v>6.94202396623901</v>
       </c>
       <c r="H17">
-        <v>7.6186960871173</v>
+        <v>7.6185577102635</v>
       </c>
       <c r="I17">
-        <v>8.17675677491059</v>
+        <v>8.17674946729697</v>
       </c>
       <c r="J17">
-        <v>13.6544040971862</v>
+        <v>13.6543807223092</v>
       </c>
       <c r="K17">
-        <v>12.1189414905096</v>
+        <v>12.1189217510936</v>
       </c>
       <c r="L17">
-        <v>8.93204418922819</v>
+        <v>8.932038290068601</v>
       </c>
       <c r="M17">
-        <v>64.3586858145883</v>
+        <v>64.358657464827</v>
       </c>
       <c r="N17">
-        <v>15.2802416195571</v>
+        <v>15.2802824427634</v>
       </c>
       <c r="O17">
-        <v>1087.34604876369</v>
+        <v>1087.34635788554</v>
       </c>
       <c r="P17">
-        <v>57.3444785809549</v>
+        <v>57.3445000607211</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>1192.79855744644</v>
+        <v>1192.79880037573</v>
       </c>
       <c r="C18">
-        <v>35.9176409359235</v>
+        <v>35.9176449529542</v>
       </c>
       <c r="D18">
-        <v>8.616755152166331</v>
+        <v>8.61675595183265</v>
       </c>
       <c r="E18">
-        <v>33.275417343336</v>
+        <v>33.2755616989354</v>
       </c>
       <c r="F18">
-        <v>27.9169735430617</v>
+        <v>27.9169151779521</v>
       </c>
       <c r="G18">
-        <v>23.5128757230006</v>
+        <v>23.5128484126907</v>
       </c>
       <c r="H18">
-        <v>18.7327988529638</v>
+        <v>18.7327453409009</v>
       </c>
       <c r="I18">
-        <v>4.73584693579723</v>
+        <v>4.735846111034</v>
       </c>
       <c r="J18">
-        <v>48.1178298889901</v>
+        <v>48.1178018051968</v>
       </c>
       <c r="K18">
-        <v>20.1651717797997</v>
+        <v>20.1651405805767</v>
       </c>
       <c r="L18">
-        <v>36.8182183183035</v>
+        <v>36.8181706836319</v>
       </c>
       <c r="M18">
-        <v>66.1372659561202</v>
+        <v>66.1372218920216</v>
       </c>
       <c r="N18">
-        <v>24.0127089982718</v>
+        <v>24.0126836989982</v>
       </c>
       <c r="O18">
-        <v>1376.7103533424</v>
+        <v>1376.71070002552</v>
       </c>
       <c r="P18">
-        <v>57.7640034367223</v>
+        <v>57.7640386926815</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>1240.3960440268</v>
+        <v>1240.39625525526</v>
       </c>
       <c r="C19">
-        <v>25.5278965833038</v>
+        <v>25.5278942022865</v>
       </c>
       <c r="D19">
-        <v>8.814446012914839</v>
+        <v>8.814491651678569</v>
       </c>
       <c r="E19">
-        <v>38.9942470214108</v>
+        <v>38.9952778333998</v>
       </c>
       <c r="F19">
-        <v>93.42216810573071</v>
+        <v>93.4222135783775</v>
       </c>
       <c r="G19">
-        <v>39.6417935742453</v>
+        <v>39.6417585402847</v>
       </c>
       <c r="H19">
-        <v>7.01111687591222</v>
+        <v>7.01107630453068</v>
       </c>
       <c r="I19">
-        <v>1.04860557894347</v>
+        <v>1.04860579636883</v>
       </c>
       <c r="J19">
-        <v>15.0518569496079</v>
+        <v>15.0518431287609</v>
       </c>
       <c r="K19">
-        <v>15.2915699694603</v>
+        <v>15.2915333199184</v>
       </c>
       <c r="L19">
-        <v>5.46656528718993</v>
+        <v>5.46651147669955</v>
       </c>
       <c r="M19">
-        <v>27.788267034643</v>
+        <v>27.7882528198572</v>
       </c>
       <c r="N19">
-        <v>13.1198722150736</v>
+        <v>13.1198393705801</v>
       </c>
       <c r="O19">
-        <v>1544.60178263688</v>
+        <v>1544.60198608137</v>
       </c>
       <c r="P19">
-        <v>43.0051128258227</v>
+        <v>43.0051331343188</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>316.082699671153</v>
+        <v>316.081590812365</v>
       </c>
       <c r="C20">
-        <v>7.0943401528703</v>
+        <v>7.09431229907878</v>
       </c>
       <c r="D20">
-        <v>9.012783700610081</v>
+        <v>9.01274949432961</v>
       </c>
       <c r="E20">
-        <v>35.5564073283066</v>
+        <v>35.5561642735506</v>
       </c>
       <c r="F20">
-        <v>0.8620593098439771</v>
+        <v>0.865637071909916</v>
       </c>
       <c r="G20">
-        <v>2.15716963903207</v>
+        <v>2.15715443812464</v>
       </c>
       <c r="H20">
-        <v>1.7288803236276</v>
+        <v>1.72886342090446</v>
       </c>
       <c r="I20">
-        <v>1.76575603821811</v>
+        <v>1.76574808207719</v>
       </c>
       <c r="J20">
-        <v>5.10192771005425</v>
+        <v>5.10190647723435</v>
       </c>
       <c r="K20">
-        <v>3.5687741068108</v>
+        <v>3.56876024598676</v>
       </c>
       <c r="L20">
-        <v>7.40020438179105</v>
+        <v>7.40017309592322</v>
       </c>
       <c r="M20">
-        <v>16.3325018442093</v>
+        <v>16.3324475041175</v>
       </c>
       <c r="N20">
-        <v>5.96225044093045</v>
+        <v>5.96219500888683</v>
       </c>
       <c r="O20">
-        <v>529.614920162657</v>
+        <v>529.613850772754</v>
       </c>
       <c r="P20">
-        <v>27.8501478038285</v>
+        <v>27.8500286947114</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>1139.6533183481</v>
+        <v>1139.6535243841</v>
       </c>
       <c r="C21">
-        <v>26.006219880592</v>
+        <v>26.0062178281858</v>
       </c>
       <c r="D21">
-        <v>5.47199354807855</v>
+        <v>5.47199495051591</v>
       </c>
       <c r="E21">
-        <v>21.781349231071</v>
+        <v>21.7813010668782</v>
       </c>
       <c r="F21">
-        <v>5.34614414552312</v>
+        <v>5.34597470661021</v>
       </c>
       <c r="G21">
-        <v>21.0387758319797</v>
+        <v>21.0387549884624</v>
       </c>
       <c r="H21">
-        <v>5.1257189072143</v>
+        <v>5.12570282203832</v>
       </c>
       <c r="I21">
-        <v>11.0550401411082</v>
+        <v>11.0550366132781</v>
       </c>
       <c r="J21">
-        <v>27.0391137843891</v>
+        <v>27.0390596543354</v>
       </c>
       <c r="K21">
-        <v>3.38714961618637</v>
+        <v>3.38714780342194</v>
       </c>
       <c r="L21">
-        <v>22.2450217556881</v>
+        <v>22.2450077438933</v>
       </c>
       <c r="M21">
-        <v>25.7490149274386</v>
+        <v>25.7490067354315</v>
       </c>
       <c r="N21">
-        <v>29.2460741114636</v>
+        <v>29.2459975049958</v>
       </c>
       <c r="O21">
-        <v>2321.37404884918</v>
+        <v>2321.37428747352</v>
       </c>
       <c r="P21">
-        <v>20.8558756298748</v>
+        <v>20.8558892149471</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>1390.89995404449</v>
+        <v>1390.90090795573</v>
       </c>
       <c r="C22">
-        <v>17.891235219982</v>
+        <v>17.8912564018199</v>
       </c>
       <c r="D22">
-        <v>22.8100442404336</v>
+        <v>22.8100557011481</v>
       </c>
       <c r="E22">
-        <v>40.4579148799317</v>
+        <v>40.4577777319868</v>
       </c>
       <c r="F22">
-        <v>2.7866521086103</v>
+        <v>2.7858430611123</v>
       </c>
       <c r="G22">
-        <v>31.7106748759845</v>
+        <v>31.7106194581845</v>
       </c>
       <c r="H22">
-        <v>16.5030440841245</v>
+        <v>16.5028203775851</v>
       </c>
       <c r="I22">
-        <v>9.0462955339727</v>
+        <v>9.045792350025909</v>
       </c>
       <c r="J22">
-        <v>45.2799295358571</v>
+        <v>45.2799061186548</v>
       </c>
       <c r="K22">
-        <v>26.7976627986759</v>
+        <v>26.7976059530918</v>
       </c>
       <c r="L22">
-        <v>122.957392433931</v>
+        <v>122.956720596456</v>
       </c>
       <c r="M22">
-        <v>13.4746874764352</v>
+        <v>13.4746900206193</v>
       </c>
       <c r="N22">
-        <v>79.1421320794821</v>
+        <v>79.14198771945451</v>
       </c>
       <c r="O22">
-        <v>2572.50811098722</v>
+        <v>2572.50921729809</v>
       </c>
       <c r="P22">
-        <v>11.6796122403637</v>
+        <v>11.6796450328129</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>2501.90318228852</v>
+        <v>2501.90341661199</v>
       </c>
       <c r="C23">
-        <v>44.6495534793244</v>
+        <v>44.6495589033418</v>
       </c>
       <c r="D23">
-        <v>9.707230230913099</v>
+        <v>9.707225361009151</v>
       </c>
       <c r="E23">
-        <v>33.1656037475211</v>
+        <v>33.1656864488077</v>
       </c>
       <c r="F23">
-        <v>6.99351356042223</v>
+        <v>6.99333283892569</v>
       </c>
       <c r="G23">
-        <v>57.3195906473434</v>
+        <v>57.3195727573908</v>
       </c>
       <c r="H23">
-        <v>62.5254016624968</v>
+        <v>62.5252556389777</v>
       </c>
       <c r="I23">
-        <v>12.4916800603875</v>
+        <v>12.4916794201739</v>
       </c>
       <c r="J23">
-        <v>127.673583595654</v>
+        <v>127.67354935426</v>
       </c>
       <c r="K23">
-        <v>101.011121315972</v>
+        <v>101.011057256917</v>
       </c>
       <c r="L23">
-        <v>43.6322749215644</v>
+        <v>43.6322222541057</v>
       </c>
       <c r="M23">
-        <v>530.034267210509</v>
+        <v>530.034072157909</v>
       </c>
       <c r="N23">
-        <v>77.11574396218769</v>
+        <v>77.1156665073152</v>
       </c>
       <c r="O23">
-        <v>3313.55757315938</v>
+        <v>3313.5580282143</v>
       </c>
       <c r="P23">
-        <v>50.9462789441572</v>
+        <v>50.9463122872564</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>903.283059257417</v>
+        <v>903.28368672286</v>
       </c>
       <c r="C24">
-        <v>56.7436661247453</v>
+        <v>56.7436978961882</v>
       </c>
       <c r="D24">
-        <v>6.58356691692984</v>
+        <v>6.58355992029099</v>
       </c>
       <c r="E24">
-        <v>61.4880052943596</v>
+        <v>61.4877037196632</v>
       </c>
       <c r="F24">
-        <v>12.5323157219673</v>
+        <v>12.5322625382234</v>
       </c>
       <c r="G24">
-        <v>28.8462196750073</v>
+        <v>28.8460039600356</v>
       </c>
       <c r="H24">
-        <v>13.5321304449064</v>
+        <v>13.5318915038345</v>
       </c>
       <c r="I24">
-        <v>18.3921165834688</v>
+        <v>18.3920773006329</v>
       </c>
       <c r="J24">
-        <v>48.9300937252446</v>
+        <v>48.9300183005647</v>
       </c>
       <c r="K24">
-        <v>52.4611944392877</v>
+        <v>52.4610808322833</v>
       </c>
       <c r="L24">
-        <v>62.5542588755275</v>
+        <v>62.5538343588376</v>
       </c>
       <c r="M24">
-        <v>32.4545984107171</v>
+        <v>32.4545700886693</v>
       </c>
       <c r="N24">
-        <v>70.9991951545573</v>
+        <v>70.9988860386655</v>
       </c>
       <c r="O24">
-        <v>1940.44519248372</v>
+        <v>1940.44609323635</v>
       </c>
       <c r="P24">
-        <v>104.444864878753</v>
+        <v>104.444931242058</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>819.854534534661</v>
+        <v>819.854641495832</v>
       </c>
       <c r="C25">
-        <v>41.5713130570224</v>
+        <v>41.5713156492531</v>
       </c>
       <c r="D25">
-        <v>17.653515632246</v>
+        <v>17.6535061723615</v>
       </c>
       <c r="E25">
-        <v>42.1652281151132</v>
+        <v>42.1651938576893</v>
       </c>
       <c r="F25">
-        <v>16.8619257145891</v>
+        <v>16.8618999343021</v>
       </c>
       <c r="G25">
-        <v>7.81364932592225</v>
+        <v>7.81363468447241</v>
       </c>
       <c r="H25">
-        <v>10.9638010421387</v>
+        <v>10.9637218865504</v>
       </c>
       <c r="I25">
-        <v>6.80845958072452</v>
+        <v>6.80845835842693</v>
       </c>
       <c r="J25">
-        <v>17.4507985799577</v>
+        <v>17.4507932778043</v>
       </c>
       <c r="K25">
-        <v>16.3508135140774</v>
+        <v>16.3507951247684</v>
       </c>
       <c r="L25">
-        <v>18.7295502538845</v>
+        <v>18.7295322620145</v>
       </c>
       <c r="M25">
-        <v>35.7600830512618</v>
+        <v>35.7600708054847</v>
       </c>
       <c r="N25">
-        <v>41.0891623412172</v>
+        <v>41.0891174294414</v>
       </c>
       <c r="O25">
-        <v>917.416834620064</v>
+        <v>917.416985770675</v>
       </c>
       <c r="P25">
-        <v>42.6983581903458</v>
+        <v>42.6983628807598</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>1230.9295473589</v>
+        <v>1230.92990873934</v>
       </c>
       <c r="C26">
-        <v>61.4761350935222</v>
+        <v>61.4761596857693</v>
       </c>
       <c r="D26">
-        <v>16.0204912221341</v>
+        <v>16.0204781312759</v>
       </c>
       <c r="E26">
-        <v>46.0065682415269</v>
+        <v>46.0064534507108</v>
       </c>
       <c r="F26">
-        <v>8.551761586363631</v>
+        <v>8.55161784608512</v>
       </c>
       <c r="G26">
-        <v>30.8344618526065</v>
+        <v>30.8343994326503</v>
       </c>
       <c r="H26">
-        <v>24.8041818941161</v>
+        <v>24.8038017066647</v>
       </c>
       <c r="I26">
-        <v>20.1224522257298</v>
+        <v>20.1223950618616</v>
       </c>
       <c r="J26">
-        <v>66.82194789033591</v>
+        <v>66.8219015525724</v>
       </c>
       <c r="K26">
-        <v>26.9482954551332</v>
+        <v>26.9481411688444</v>
       </c>
       <c r="L26">
-        <v>29.8218119493834</v>
+        <v>29.8216172465531</v>
       </c>
       <c r="M26">
-        <v>81.3648630125043</v>
+        <v>81.3648279231458</v>
       </c>
       <c r="N26">
-        <v>24.106703745904</v>
+        <v>24.1066139895676</v>
       </c>
       <c r="O26">
-        <v>2147.7914929584</v>
+        <v>2147.79216425998</v>
       </c>
       <c r="P26">
-        <v>74.1254597149528</v>
+        <v>74.1255116370205</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>237.953143480823</v>
+        <v>237.948079704563</v>
       </c>
       <c r="C27">
-        <v>3.76503688976725</v>
+        <v>3.76486675331207</v>
       </c>
       <c r="D27">
-        <v>1.18714088361487</v>
+        <v>1.1871039158906</v>
       </c>
       <c r="E27">
-        <v>11.2208131526792</v>
+        <v>11.2203666418089</v>
       </c>
       <c r="F27">
-        <v>5.5891679745682</v>
+        <v>5.58898731841643</v>
       </c>
       <c r="G27">
-        <v>1.35240690476297</v>
+        <v>1.3523543692402</v>
       </c>
       <c r="H27">
-        <v>0.205077133801513</v>
+        <v>0.256762374924738</v>
       </c>
       <c r="I27">
-        <v>2.65876814112374</v>
+        <v>2.65868884616626</v>
       </c>
       <c r="J27">
-        <v>3.2246570860934</v>
+        <v>3.22453118958461</v>
       </c>
       <c r="K27">
-        <v>2.13426359946157</v>
+        <v>2.13417310922174</v>
       </c>
       <c r="L27">
-        <v>1.44187017339922</v>
+        <v>1.44179189810004</v>
       </c>
       <c r="M27">
-        <v>0.354413296200147</v>
+        <v>0.354402793213712</v>
       </c>
       <c r="N27">
-        <v>3.90304201349544</v>
+        <v>3.90286299136794</v>
       </c>
       <c r="O27">
-        <v>392.525190227681</v>
+        <v>392.483053742711</v>
       </c>
       <c r="P27">
-        <v>48.4007214862291</v>
+        <v>48.3998012845494</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>324.534840421659</v>
+        <v>324.534866749924</v>
       </c>
       <c r="C28">
-        <v>36.1070457280456</v>
+        <v>36.1070481341798</v>
       </c>
       <c r="D28">
-        <v>5.34880598554844</v>
+        <v>5.34879716372366</v>
       </c>
       <c r="E28">
-        <v>5.42561206885302</v>
+        <v>5.42558636465545</v>
       </c>
       <c r="F28">
-        <v>2.43414090997386</v>
+        <v>2.4341308200119</v>
       </c>
       <c r="G28">
-        <v>4.22649339919119</v>
+        <v>4.22648668254658</v>
       </c>
       <c r="H28">
-        <v>9.97414973077108</v>
+        <v>9.9740047617477</v>
       </c>
       <c r="I28">
-        <v>1.74933164750536</v>
+        <v>1.74933116671311</v>
       </c>
       <c r="J28">
-        <v>17.679185574312</v>
+        <v>17.6791601382016</v>
       </c>
       <c r="K28">
-        <v>12.7380729841602</v>
+        <v>12.7380639005574</v>
       </c>
       <c r="L28">
-        <v>15.7612733097137</v>
+        <v>15.7612548866656</v>
       </c>
       <c r="M28">
-        <v>8.52929103320669</v>
+        <v>8.5292888623871</v>
       </c>
       <c r="N28">
-        <v>11.3852673885882</v>
+        <v>11.3852499987843</v>
       </c>
       <c r="O28">
-        <v>701.7795168281031</v>
+        <v>701.77956450439</v>
       </c>
       <c r="P28">
-        <v>86.2184470560517</v>
+        <v>86.21846023405671</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>482.80255372381</v>
+        <v>482.803169940237</v>
       </c>
       <c r="C29">
-        <v>3.84115800364331</v>
+        <v>3.8411683382069</v>
       </c>
       <c r="D29">
-        <v>3.63246735753604</v>
+        <v>3.63247378607252</v>
       </c>
       <c r="E29">
-        <v>5.34135440990834</v>
+        <v>5.34111425677821</v>
       </c>
       <c r="F29">
-        <v>21.8662617654908</v>
+        <v>21.8661428750487</v>
       </c>
       <c r="G29">
-        <v>2.33323815122116</v>
+        <v>2.33322365258715</v>
       </c>
       <c r="H29">
-        <v>2.9469727318425</v>
+        <v>2.94617322525546</v>
       </c>
       <c r="I29">
-        <v>2.41953717642304</v>
+        <v>2.4195403042249</v>
       </c>
       <c r="J29">
-        <v>5.31278621576884</v>
+        <v>5.31274374060468</v>
       </c>
       <c r="K29">
-        <v>2.65100983338657</v>
+        <v>2.65097305724317</v>
       </c>
       <c r="L29">
-        <v>2.9841950369157</v>
+        <v>2.98409923436949</v>
       </c>
       <c r="M29">
-        <v>2.5999811683152</v>
+        <v>2.59997968453161</v>
       </c>
       <c r="N29">
-        <v>13.099664167743</v>
+        <v>13.0995306244984</v>
       </c>
       <c r="O29">
-        <v>941.382422606167</v>
+        <v>941.382902421551</v>
       </c>
       <c r="P29">
-        <v>7.03549214476282</v>
+        <v>7.03555318271294</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>260.833542764271</v>
+        <v>260.833641794913</v>
       </c>
       <c r="C30">
-        <v>3.90302796049283</v>
+        <v>3.90302898440907</v>
       </c>
       <c r="D30">
-        <v>7.9174610426851</v>
+        <v>7.91744033022042</v>
       </c>
       <c r="E30">
-        <v>14.9000071917753</v>
+        <v>14.9000259480024</v>
       </c>
       <c r="F30">
-        <v>1.41551121004357</v>
+        <v>1.41549376977573</v>
       </c>
       <c r="G30">
-        <v>4.81868721925476</v>
+        <v>4.81868189327562</v>
       </c>
       <c r="H30">
-        <v>5.84897198187251</v>
+        <v>5.84894261765584</v>
       </c>
       <c r="I30">
-        <v>3.20807218211578</v>
+        <v>3.20806596264801</v>
       </c>
       <c r="J30">
-        <v>16.3666208587784</v>
+        <v>16.3666351707163</v>
       </c>
       <c r="K30">
-        <v>11.3694634107447</v>
+        <v>11.369463806641</v>
       </c>
       <c r="L30">
-        <v>36.6582321200288</v>
+        <v>36.6583146935391</v>
       </c>
       <c r="M30">
-        <v>10.8117430045621</v>
+        <v>10.8117405653368</v>
       </c>
       <c r="N30">
-        <v>13.0436340198276</v>
+        <v>13.0436302590166</v>
       </c>
       <c r="O30">
-        <v>531.1476922453931</v>
+        <v>531.14772792671</v>
       </c>
       <c r="P30">
-        <v>9.818662045045521</v>
+        <v>9.818668036769729</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>1946.53707888296</v>
+        <v>1946.53740985169</v>
       </c>
       <c r="C31">
-        <v>49.2006732092337</v>
+        <v>49.2006845393269</v>
       </c>
       <c r="D31">
-        <v>40.6561647762751</v>
+        <v>40.6561381880895</v>
       </c>
       <c r="E31">
-        <v>51.4465931939822</v>
+        <v>51.4463711193861</v>
       </c>
       <c r="F31">
-        <v>10.3498563606276</v>
+        <v>10.3494847600615</v>
       </c>
       <c r="G31">
-        <v>116.022366382986</v>
+        <v>116.022306652257</v>
       </c>
       <c r="H31">
-        <v>13.6856580007204</v>
+        <v>13.6855143861391</v>
       </c>
       <c r="I31">
-        <v>28.2169441103122</v>
+        <v>28.2169247514723</v>
       </c>
       <c r="J31">
-        <v>48.2680047259256</v>
+        <v>48.267941801733</v>
       </c>
       <c r="K31">
-        <v>21.0631232569041</v>
+        <v>21.0630519682005</v>
       </c>
       <c r="L31">
-        <v>73.80279713872911</v>
+        <v>73.8026010999438</v>
       </c>
       <c r="M31">
-        <v>17.4389808538572</v>
+        <v>17.4389801905459</v>
       </c>
       <c r="N31">
-        <v>51.624587527037</v>
+        <v>51.624489007157</v>
       </c>
       <c r="O31">
-        <v>3458.26606409099</v>
+        <v>3458.26660174911</v>
       </c>
       <c r="P31">
-        <v>5.84139630341748</v>
+        <v>5.84141348307032</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>488.452364340295</v>
+        <v>488.450542559201</v>
       </c>
       <c r="C32">
-        <v>6.0495989643686</v>
+        <v>6.04959453855386</v>
       </c>
       <c r="D32">
-        <v>0.792306675683888</v>
+        <v>0.792300944434517</v>
       </c>
       <c r="E32">
-        <v>3.79106993788192</v>
+        <v>3.79086900396331</v>
       </c>
       <c r="F32">
-        <v>24.3839683504639</v>
+        <v>24.383797787844</v>
       </c>
       <c r="G32">
-        <v>2.62472372094453</v>
+        <v>2.6244971787208</v>
       </c>
       <c r="H32">
-        <v>2.0438224208199</v>
+        <v>2.05065598035594</v>
       </c>
       <c r="I32">
-        <v>4.83465817163677</v>
+        <v>4.83464103831812</v>
       </c>
       <c r="J32">
-        <v>5.73625409841729</v>
+        <v>5.73612881424512</v>
       </c>
       <c r="K32">
-        <v>1.36952482214405</v>
+        <v>1.3694935325466</v>
       </c>
       <c r="L32">
-        <v>18.4564628792073</v>
+        <v>18.4560511133116</v>
       </c>
       <c r="M32">
-        <v>2.38313836925314</v>
+        <v>2.3831264314727</v>
       </c>
       <c r="N32">
-        <v>6.65201892186246</v>
+        <v>6.65188749860893</v>
       </c>
       <c r="O32">
-        <v>718.687723946519</v>
+        <v>718.685228166931</v>
       </c>
       <c r="P32">
-        <v>21.2366754673813</v>
+        <v>21.2366007317202</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>4988.43802321379</v>
+        <v>4988.43897234342</v>
       </c>
       <c r="C33">
-        <v>81.8841120508209</v>
+        <v>81.8841352639604</v>
       </c>
       <c r="D33">
-        <v>87.48609868975269</v>
+        <v>87.4860724399862</v>
       </c>
       <c r="E33">
-        <v>79.9181270602173</v>
+        <v>79.9180656310046</v>
       </c>
       <c r="F33">
-        <v>7.69801285261872</v>
+        <v>7.69756735772602</v>
       </c>
       <c r="G33">
-        <v>76.33138246089359</v>
+        <v>76.3313314565427</v>
       </c>
       <c r="H33">
-        <v>33.4866330536085</v>
+        <v>33.4863349950089</v>
       </c>
       <c r="I33">
-        <v>31.6361922843929</v>
+        <v>31.636005257809</v>
       </c>
       <c r="J33">
-        <v>111.438843309162</v>
+        <v>111.438783115201</v>
       </c>
       <c r="K33">
-        <v>93.6745728714165</v>
+        <v>93.67443002377659</v>
       </c>
       <c r="L33">
-        <v>126.045595935652</v>
+        <v>126.045399549194</v>
       </c>
       <c r="M33">
-        <v>65.460265763756</v>
+        <v>65.4602543398955</v>
       </c>
       <c r="N33">
-        <v>138.530531770752</v>
+        <v>138.530247426137</v>
       </c>
       <c r="O33">
-        <v>7223.65983030232</v>
+        <v>7223.66153832913</v>
       </c>
       <c r="P33">
-        <v>67.154468970569</v>
+        <v>67.15454106967979</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>2035.40931148897</v>
+        <v>2035.41036439649</v>
       </c>
       <c r="C34">
-        <v>71.7666007637163</v>
+        <v>71.7666339282093</v>
       </c>
       <c r="D34">
-        <v>168.654362517869</v>
+        <v>168.654281286068</v>
       </c>
       <c r="E34">
-        <v>51.1927457171137</v>
+        <v>51.1925176545858</v>
       </c>
       <c r="F34">
-        <v>6.65227561940422</v>
+        <v>6.65192186722019</v>
       </c>
       <c r="G34">
-        <v>44.119264075664</v>
+        <v>44.1191932132694</v>
       </c>
       <c r="H34">
-        <v>41.1312442716155</v>
+        <v>41.1307448917573</v>
       </c>
       <c r="I34">
-        <v>16.5727965442777</v>
+        <v>16.5727856607336</v>
       </c>
       <c r="J34">
-        <v>54.5206945682664</v>
+        <v>54.5205633853425</v>
       </c>
       <c r="K34">
-        <v>43.1636159189902</v>
+        <v>43.1633914449676</v>
       </c>
       <c r="L34">
-        <v>87.8098575217535</v>
+        <v>87.8093373095748</v>
       </c>
       <c r="M34">
-        <v>38.1514685595686</v>
+        <v>38.1514222326927</v>
       </c>
       <c r="N34">
-        <v>123.7173825586</v>
+        <v>123.716935257684</v>
       </c>
       <c r="O34">
-        <v>2848.53718497543</v>
+        <v>2848.53868228527</v>
       </c>
       <c r="P34">
-        <v>65.30602353980041</v>
+        <v>65.306068463117</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>140.539916863615</v>
+        <v>140.540002635962</v>
       </c>
       <c r="C35">
-        <v>8.353076774673029</v>
+        <v>8.35301692027754</v>
       </c>
       <c r="D35">
-        <v>0.684757097196542</v>
+        <v>0.684754203986524</v>
       </c>
       <c r="E35">
-        <v>2.20330740822803</v>
+        <v>2.20322603065967</v>
       </c>
       <c r="F35">
-        <v>4.77095781955758</v>
+        <v>4.77095584874872</v>
       </c>
       <c r="G35">
-        <v>1.30342800839059</v>
+        <v>1.3034001953957</v>
       </c>
       <c r="H35">
-        <v>0.351490057135437</v>
+        <v>0.351464710556341</v>
       </c>
       <c r="I35">
-        <v>1.238945746754</v>
+        <v>1.23894184571551</v>
       </c>
       <c r="J35">
-        <v>2.99770567569076</v>
+        <v>2.99752463774712</v>
       </c>
       <c r="K35">
-        <v>6.06284244187607</v>
+        <v>6.06281939892382</v>
       </c>
       <c r="L35">
-        <v>2.68974778190749</v>
+        <v>2.68974213198806</v>
       </c>
       <c r="M35">
-        <v>1.97582111486371</v>
+        <v>1.97581609302089</v>
       </c>
       <c r="N35">
-        <v>2.70420374786471</v>
+        <v>2.70413762693356</v>
       </c>
       <c r="O35">
-        <v>273.832105324414</v>
+        <v>273.832235405272</v>
       </c>
       <c r="P35">
-        <v>46.6803746186171</v>
+        <v>46.6804096494828</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>2695.10095332044</v>
+        <v>2695.10140221063</v>
       </c>
       <c r="C36">
-        <v>49.4549447765919</v>
+        <v>49.4549510728228</v>
       </c>
       <c r="D36">
-        <v>14.9223812438163</v>
+        <v>14.9223748626434</v>
       </c>
       <c r="E36">
-        <v>99.1267508393166</v>
+        <v>99.1267210996174</v>
       </c>
       <c r="F36">
-        <v>29.039932225183</v>
+        <v>29.0397577741939</v>
       </c>
       <c r="G36">
-        <v>95.8287714676182</v>
+        <v>95.8287100421495</v>
       </c>
       <c r="H36">
-        <v>94.9311274874652</v>
+        <v>94.9307767292802</v>
       </c>
       <c r="I36">
-        <v>41.2742228145175</v>
+        <v>41.2742218225875</v>
       </c>
       <c r="J36">
-        <v>208.65905973635</v>
+        <v>208.658985280216</v>
       </c>
       <c r="K36">
-        <v>106.295314893822</v>
+        <v>106.295234249718</v>
       </c>
       <c r="L36">
-        <v>78.31152928812109</v>
+        <v>78.311392368743</v>
       </c>
       <c r="M36">
-        <v>225.346338844198</v>
+        <v>225.346251980827</v>
       </c>
       <c r="N36">
-        <v>108.696771547156</v>
+        <v>108.696660560816</v>
       </c>
       <c r="O36">
-        <v>4076.93941509676</v>
+        <v>4076.94010680889</v>
       </c>
       <c r="P36">
-        <v>48.803499924148</v>
+        <v>48.8035187213989</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>869.486435959814</v>
+        <v>869.486948698155</v>
       </c>
       <c r="C37">
-        <v>23.1147779605843</v>
+        <v>23.1147949165891</v>
       </c>
       <c r="D37">
-        <v>4.40598195406795</v>
+        <v>4.4059845628244</v>
       </c>
       <c r="E37">
-        <v>20.2531704203037</v>
+        <v>20.2529934118466</v>
       </c>
       <c r="F37">
-        <v>35.4501473627798</v>
+        <v>35.4500735456561</v>
       </c>
       <c r="G37">
-        <v>7.81429834821566</v>
+        <v>7.81428398491202</v>
       </c>
       <c r="H37">
-        <v>25.0664807535138</v>
+        <v>25.0661289219762</v>
       </c>
       <c r="I37">
-        <v>11.9024578497712</v>
+        <v>11.9024515022058</v>
       </c>
       <c r="J37">
-        <v>37.5102019730805</v>
+        <v>37.510182650318</v>
       </c>
       <c r="K37">
-        <v>34.8293183250606</v>
+        <v>34.8292776720328</v>
       </c>
       <c r="L37">
-        <v>22.451193508868</v>
+        <v>22.4510244693911</v>
       </c>
       <c r="M37">
-        <v>36.8939058795283</v>
+        <v>36.8938720779764</v>
       </c>
       <c r="N37">
-        <v>17.7056497303935</v>
+        <v>17.7056083989462</v>
       </c>
       <c r="O37">
-        <v>1191.66666604962</v>
+        <v>1191.66732171452</v>
       </c>
       <c r="P37">
-        <v>57.6078696689756</v>
+        <v>57.6078976100077</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>849.294359108502</v>
+        <v>849.2949197585031</v>
       </c>
       <c r="C38">
-        <v>22.241655644164</v>
+        <v>22.2416869097925</v>
       </c>
       <c r="D38">
-        <v>10.2025817921236</v>
+        <v>10.2025868248847</v>
       </c>
       <c r="E38">
-        <v>55.2654137149058</v>
+        <v>55.2654270111575</v>
       </c>
       <c r="F38">
-        <v>2.60708677862289</v>
+        <v>2.60706889264888</v>
       </c>
       <c r="G38">
-        <v>4.7163575940423</v>
+        <v>4.71618784617436</v>
       </c>
       <c r="H38">
-        <v>4.08243181500327</v>
+        <v>4.08182574953678</v>
       </c>
       <c r="I38">
-        <v>4.19880197793916</v>
+        <v>4.19879945446094</v>
       </c>
       <c r="J38">
-        <v>40.5742922967226</v>
+        <v>40.5739843337766</v>
       </c>
       <c r="K38">
-        <v>7.93282984461997</v>
+        <v>7.93275740927289</v>
       </c>
       <c r="L38">
-        <v>54.4039029372259</v>
+        <v>54.4035174604175</v>
       </c>
       <c r="M38">
-        <v>13.7465069095437</v>
+        <v>13.7464962894167</v>
       </c>
       <c r="N38">
-        <v>31.6057117576115</v>
+        <v>31.6053979437359</v>
       </c>
       <c r="O38">
-        <v>1312.30085072965</v>
+        <v>1312.30261651062</v>
       </c>
       <c r="P38">
-        <v>65.0032498099585</v>
+        <v>65.0033070285272</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>3150.43762655519</v>
+        <v>3150.43822369401</v>
       </c>
       <c r="C39">
-        <v>85.4060210992774</v>
+        <v>85.4060353169271</v>
       </c>
       <c r="D39">
-        <v>54.5878054865719</v>
+        <v>54.5878057934949</v>
       </c>
       <c r="E39">
-        <v>128.029088706419</v>
+        <v>128.028988356878</v>
       </c>
       <c r="F39">
-        <v>26.9569002386504</v>
+        <v>26.9566384221572</v>
       </c>
       <c r="G39">
-        <v>111.527488969913</v>
+        <v>111.52738990445</v>
       </c>
       <c r="H39">
-        <v>54.6946527841582</v>
+        <v>54.6941567354198</v>
       </c>
       <c r="I39">
-        <v>42.8720841775662</v>
+        <v>42.872043237818</v>
       </c>
       <c r="J39">
-        <v>168.576960214428</v>
+        <v>168.57685744815</v>
       </c>
       <c r="K39">
-        <v>105.41589963557</v>
+        <v>105.41576536179</v>
       </c>
       <c r="L39">
-        <v>100.549453633163</v>
+        <v>100.549215246183</v>
       </c>
       <c r="M39">
-        <v>61.0610062847244</v>
+        <v>61.0609915600305</v>
       </c>
       <c r="N39">
-        <v>104.760784392496</v>
+        <v>104.760628558405</v>
       </c>
       <c r="O39">
-        <v>4459.34254584507</v>
+        <v>4459.34339077675</v>
       </c>
       <c r="P39">
-        <v>61.8870482921329</v>
+        <v>61.8871034754036</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>262.457200193341</v>
+        <v>262.457222193684</v>
       </c>
       <c r="C40">
-        <v>3.91929613436133</v>
+        <v>3.91929580689867</v>
       </c>
       <c r="D40">
-        <v>8.56603428689429</v>
+        <v>8.566027941387659</v>
       </c>
       <c r="E40">
-        <v>5.15874526467894</v>
+        <v>5.15868882900879</v>
       </c>
       <c r="F40">
-        <v>0.211324884763325</v>
+        <v>0.211238196205714</v>
       </c>
       <c r="G40">
-        <v>5.38907786848111</v>
+        <v>5.3890847173196</v>
       </c>
       <c r="H40">
-        <v>4.54272807959691</v>
+        <v>4.54274931891811</v>
       </c>
       <c r="I40">
-        <v>1.85895050089442</v>
+        <v>1.85895106031362</v>
       </c>
       <c r="J40">
-        <v>8.801895226035541</v>
+        <v>8.8019204468002</v>
       </c>
       <c r="K40">
-        <v>5.35376488274516</v>
+        <v>5.35375664967909</v>
       </c>
       <c r="L40">
-        <v>16.7849046572716</v>
+        <v>16.7849019882484</v>
       </c>
       <c r="M40">
-        <v>5.83899804019469</v>
+        <v>5.83900416539386</v>
       </c>
       <c r="N40">
-        <v>23.7042294148706</v>
+        <v>23.7042755705535</v>
       </c>
       <c r="O40">
-        <v>456.685058698907</v>
+        <v>456.685086776306</v>
       </c>
       <c r="P40">
-        <v>2.59098674113114</v>
+        <v>2.59096272739176</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>1063.26753863935</v>
+        <v>1063.2679797096</v>
       </c>
       <c r="C41">
-        <v>12.7029089470997</v>
+        <v>12.7029109626367</v>
       </c>
       <c r="D41">
-        <v>78.4978999445345</v>
+        <v>78.49789783055191</v>
       </c>
       <c r="E41">
-        <v>29.3157016055442</v>
+        <v>29.3156877466396</v>
       </c>
       <c r="F41">
-        <v>1.02653844531893</v>
+        <v>1.026463740875</v>
       </c>
       <c r="G41">
-        <v>25.6525364387634</v>
+        <v>25.6524356064574</v>
       </c>
       <c r="H41">
-        <v>33.8014943851466</v>
+        <v>33.8012058880344</v>
       </c>
       <c r="I41">
-        <v>15.3561339718516</v>
+        <v>15.3559938066449</v>
       </c>
       <c r="J41">
-        <v>43.105951712003</v>
+        <v>43.105904236093</v>
       </c>
       <c r="K41">
-        <v>18.9841500019446</v>
+        <v>18.9841198505967</v>
       </c>
       <c r="L41">
-        <v>31.6486871203386</v>
+        <v>31.6485288852346</v>
       </c>
       <c r="M41">
-        <v>22.3334407764593</v>
+        <v>22.3334246338677</v>
       </c>
       <c r="N41">
-        <v>23.0056211260201</v>
+        <v>23.0055330573454</v>
       </c>
       <c r="O41">
-        <v>1392.78084908726</v>
+        <v>1392.78143007406</v>
       </c>
       <c r="P41">
-        <v>32.6978090754528</v>
+        <v>32.6978377341462</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>147.062352171204</v>
+        <v>147.062393229915</v>
       </c>
       <c r="C42">
-        <v>6.50345682297929</v>
+        <v>6.50345982219106</v>
       </c>
       <c r="D42">
-        <v>1.67108452753839</v>
+        <v>1.67105662495406</v>
       </c>
       <c r="E42">
-        <v>5.63241188557058</v>
+        <v>5.63252529997038</v>
       </c>
       <c r="F42">
-        <v>2.89877640057844</v>
+        <v>2.89878142754191</v>
       </c>
       <c r="G42">
-        <v>1.71311632826855</v>
+        <v>1.71311412773346</v>
       </c>
       <c r="H42">
-        <v>0.8037487174661661</v>
+        <v>0.803707230688015</v>
       </c>
       <c r="I42">
-        <v>0.751096720232088</v>
+        <v>0.751094355301673</v>
       </c>
       <c r="J42">
-        <v>3.63765648947686</v>
+        <v>3.63764449389651</v>
       </c>
       <c r="K42">
-        <v>6.0197887427147</v>
+        <v>6.01975106559987</v>
       </c>
       <c r="L42">
-        <v>8.482139411281491</v>
+        <v>8.482223462623001</v>
       </c>
       <c r="M42">
-        <v>3.79632671994137</v>
+        <v>3.79632325010395</v>
       </c>
       <c r="N42">
-        <v>8.08268319910345</v>
+        <v>8.08265985946719</v>
       </c>
       <c r="O42">
-        <v>348.414186562484</v>
+        <v>348.414210815506</v>
       </c>
       <c r="P42">
-        <v>56.1481846200549</v>
+        <v>56.1482160652043</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1497.84812742307</v>
+        <v>1497.84848133049</v>
       </c>
       <c r="C43">
-        <v>46.3319090573319</v>
+        <v>46.3319209598972</v>
       </c>
       <c r="D43">
-        <v>45.7913237414485</v>
+        <v>45.791313702011</v>
       </c>
       <c r="E43">
-        <v>67.6264149852349</v>
+        <v>67.6264579262065</v>
       </c>
       <c r="F43">
-        <v>7.12397784572681</v>
+        <v>7.12392783537448</v>
       </c>
       <c r="G43">
-        <v>17.3904360248764</v>
+        <v>17.3904378114533</v>
       </c>
       <c r="H43">
-        <v>35.7167142096583</v>
+        <v>35.7163475777194</v>
       </c>
       <c r="I43">
-        <v>24.5120070148983</v>
+        <v>24.5119977725914</v>
       </c>
       <c r="J43">
-        <v>49.6399979541189</v>
+        <v>49.6399124123762</v>
       </c>
       <c r="K43">
-        <v>51.3514392527713</v>
+        <v>51.3513540090692</v>
       </c>
       <c r="L43">
-        <v>45.6183572820114</v>
+        <v>45.6182161033679</v>
       </c>
       <c r="M43">
-        <v>118.740299394738</v>
+        <v>118.740205174522</v>
       </c>
       <c r="N43">
-        <v>57.0749228856139</v>
+        <v>57.0748271430357</v>
       </c>
       <c r="O43">
-        <v>1960.62970427277</v>
+        <v>1960.63019032666</v>
       </c>
       <c r="P43">
-        <v>38.3687645204315</v>
+        <v>38.3687881366413</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>4850.91546357904</v>
+        <v>4850.91738900537</v>
       </c>
       <c r="C44">
-        <v>137.554495211344</v>
+        <v>137.554569565233</v>
       </c>
       <c r="D44">
-        <v>52.0178712547089</v>
+        <v>52.0177639706725</v>
       </c>
       <c r="E44">
-        <v>108.563301352076</v>
+        <v>108.56223588687</v>
       </c>
       <c r="F44">
-        <v>225.601147065846</v>
+        <v>225.600726040978</v>
       </c>
       <c r="G44">
-        <v>129.627440391156</v>
+        <v>129.627073587287</v>
       </c>
       <c r="H44">
-        <v>44.115139908772</v>
+        <v>44.1126705191342</v>
       </c>
       <c r="I44">
-        <v>44.1699956711905</v>
+        <v>44.1700098668423</v>
       </c>
       <c r="J44">
-        <v>112.349079911943</v>
+        <v>112.348737903381</v>
       </c>
       <c r="K44">
-        <v>75.35841238777699</v>
+        <v>75.3581556436576</v>
       </c>
       <c r="L44">
-        <v>195.836444332545</v>
+        <v>195.835378702825</v>
       </c>
       <c r="M44">
-        <v>101.949170251183</v>
+        <v>101.949154311695</v>
       </c>
       <c r="N44">
-        <v>89.1221564490104</v>
+        <v>89.1216017661731</v>
       </c>
       <c r="O44">
-        <v>7621.83360446459</v>
+        <v>7621.83712148125</v>
       </c>
       <c r="P44">
-        <v>205.497007584031</v>
+        <v>205.497180574282</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>458.809369356029</v>
+        <v>458.809819791507</v>
       </c>
       <c r="C45">
-        <v>17.743442366767</v>
+        <v>17.7434629810991</v>
       </c>
       <c r="D45">
-        <v>2.63803553273366</v>
+        <v>2.63802294475126</v>
       </c>
       <c r="E45">
-        <v>19.9455110705244</v>
+        <v>19.9448318135074</v>
       </c>
       <c r="F45">
-        <v>22.5973434328091</v>
+        <v>22.5971945328962</v>
       </c>
       <c r="G45">
-        <v>6.93207297961555</v>
+        <v>6.93193248827963</v>
       </c>
       <c r="H45">
-        <v>2.0019104656996</v>
+        <v>2.00179688828994</v>
       </c>
       <c r="I45">
-        <v>3.98153186092623</v>
+        <v>3.98152182429423</v>
       </c>
       <c r="J45">
-        <v>23.535948684337</v>
+        <v>23.5358632032947</v>
       </c>
       <c r="K45">
-        <v>5.65258232348508</v>
+        <v>5.6525483539196</v>
       </c>
       <c r="L45">
-        <v>14.9769215823966</v>
+        <v>14.9767447586443</v>
       </c>
       <c r="M45">
-        <v>19.1002195700522</v>
+        <v>19.1002001371835</v>
       </c>
       <c r="N45">
-        <v>26.7494695917369</v>
+        <v>26.7491434813668</v>
       </c>
       <c r="O45">
-        <v>829.92937904161</v>
+        <v>829.9300196884</v>
       </c>
       <c r="P45">
-        <v>18.8495448201187</v>
+        <v>18.8496086490669</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>139.140308101103</v>
+        <v>139.140285229465</v>
       </c>
       <c r="C46">
-        <v>3.88165906663781</v>
+        <v>3.88165896858746</v>
       </c>
       <c r="D46">
-        <v>1.15478731355348</v>
+        <v>1.15478748461946</v>
       </c>
       <c r="E46">
-        <v>6.50647797648322</v>
+        <v>6.50634997770542</v>
       </c>
       <c r="F46">
-        <v>1.11665490935967</v>
+        <v>1.11668017840465</v>
       </c>
       <c r="G46">
-        <v>3.24653597839022</v>
+        <v>3.24651162764521</v>
       </c>
       <c r="H46">
-        <v>1.59442835130541</v>
+        <v>1.59441837125757</v>
       </c>
       <c r="I46">
-        <v>1.45706637597529</v>
+        <v>1.45706545110967</v>
       </c>
       <c r="J46">
-        <v>4.89213585189977</v>
+        <v>4.89214178568237</v>
       </c>
       <c r="K46">
-        <v>4.66559608110624</v>
+        <v>4.66557058990433</v>
       </c>
       <c r="L46">
-        <v>11.6708135716527</v>
+        <v>11.6708282146193</v>
       </c>
       <c r="M46">
-        <v>3.83445350773212</v>
+        <v>3.83445440456489</v>
       </c>
       <c r="N46">
-        <v>9.775744347302609</v>
+        <v>9.77571925822317</v>
       </c>
       <c r="O46">
-        <v>289.035087989087</v>
+        <v>289.035009451926</v>
       </c>
       <c r="P46">
-        <v>12.7838180627537</v>
+        <v>12.7837850576769</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1625.6953645719</v>
+        <v>1625.6957483281</v>
       </c>
       <c r="C47">
-        <v>53.8882966265713</v>
+        <v>53.8883187999439</v>
       </c>
       <c r="D47">
-        <v>37.2426520092945</v>
+        <v>37.2426544325475</v>
       </c>
       <c r="E47">
-        <v>61.0212767878037</v>
+        <v>61.0212083413275</v>
       </c>
       <c r="F47">
-        <v>8.639430608764339</v>
+        <v>8.63921790711402</v>
       </c>
       <c r="G47">
-        <v>23.4598015566154</v>
+        <v>23.4597214693866</v>
       </c>
       <c r="H47">
-        <v>14.0254048008926</v>
+        <v>14.025223885094</v>
       </c>
       <c r="I47">
-        <v>6.16983196363841</v>
+        <v>6.16983315609729</v>
       </c>
       <c r="J47">
-        <v>36.1212726650696</v>
+        <v>36.1212013143927</v>
       </c>
       <c r="K47">
-        <v>17.6517057557919</v>
+        <v>17.6516770676479</v>
       </c>
       <c r="L47">
-        <v>41.311638651143</v>
+        <v>41.3113963814337</v>
       </c>
       <c r="M47">
-        <v>71.05007607517931</v>
+        <v>71.0500582970794</v>
       </c>
       <c r="N47">
-        <v>39.044848014518</v>
+        <v>39.0446557694153</v>
       </c>
       <c r="O47">
-        <v>2821.08475966358</v>
+        <v>2821.08509654304</v>
       </c>
       <c r="P47">
-        <v>38.1581859150188</v>
+        <v>38.1582281354468</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1438.0299737162</v>
+        <v>1438.03246556434</v>
       </c>
       <c r="C48">
-        <v>22.3753044823916</v>
+        <v>22.3753593270227</v>
       </c>
       <c r="D48">
-        <v>7.41446971621525</v>
+        <v>7.41445795434498</v>
       </c>
       <c r="E48">
-        <v>70.3634114214716</v>
+        <v>70.3629805708552</v>
       </c>
       <c r="F48">
-        <v>4.5278039454101</v>
+        <v>4.52774225457606</v>
       </c>
       <c r="G48">
-        <v>4.56739361793701</v>
+        <v>4.56730296716188</v>
       </c>
       <c r="H48">
-        <v>3.84002030037714</v>
+        <v>3.83923424278952</v>
       </c>
       <c r="I48">
-        <v>8.11633021306991</v>
+        <v>8.116343058112809</v>
       </c>
       <c r="J48">
-        <v>36.4405221217096</v>
+        <v>36.4403274484234</v>
       </c>
       <c r="K48">
-        <v>12.9953896350143</v>
+        <v>12.9952294012387</v>
       </c>
       <c r="L48">
-        <v>41.1618931879027</v>
+        <v>41.1609883799456</v>
       </c>
       <c r="M48">
-        <v>108.443855211215</v>
+        <v>108.443658998047</v>
       </c>
       <c r="N48">
-        <v>28.7402543224528</v>
+        <v>28.7398601034267</v>
       </c>
       <c r="O48">
-        <v>2248.1867896476</v>
+        <v>2248.18922606315</v>
       </c>
       <c r="P48">
-        <v>91.2537118423938</v>
+        <v>91.2538976066821</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>680.67501801854</v>
+        <v>680.675031052793</v>
       </c>
       <c r="C49">
-        <v>6.80812691675411</v>
+        <v>6.80812845382127</v>
       </c>
       <c r="D49">
-        <v>3.55502135400188</v>
+        <v>3.55501274233375</v>
       </c>
       <c r="E49">
-        <v>21.7835845520382</v>
+        <v>21.7835707830105</v>
       </c>
       <c r="F49">
-        <v>27.553545325014</v>
+        <v>27.5534269777277</v>
       </c>
       <c r="G49">
-        <v>16.0637304241611</v>
+        <v>16.0637176537138</v>
       </c>
       <c r="H49">
-        <v>7.08972351377577</v>
+        <v>7.08965573357727</v>
       </c>
       <c r="I49">
-        <v>5.84733816776041</v>
+        <v>5.84733107325673</v>
       </c>
       <c r="J49">
-        <v>21.4799435218689</v>
+        <v>21.47989732326</v>
       </c>
       <c r="K49">
-        <v>4.04386260077642</v>
+        <v>4.04385690311308</v>
       </c>
       <c r="L49">
-        <v>1.60101698989812</v>
+        <v>1.60101029301144</v>
       </c>
       <c r="M49">
-        <v>7.91747846860837</v>
+        <v>7.91747605707587</v>
       </c>
       <c r="N49">
-        <v>4.48728674457429</v>
+        <v>4.48726840659735</v>
       </c>
       <c r="O49">
-        <v>617.034041058753</v>
+        <v>617.034073651455</v>
       </c>
       <c r="P49">
-        <v>7.76677000002997</v>
+        <v>7.76677138986956</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>1057.63876060404</v>
+        <v>1057.63908825414</v>
       </c>
       <c r="C50">
-        <v>79.9842155181998</v>
+        <v>79.9842217557392</v>
       </c>
       <c r="D50">
-        <v>19.0497251942197</v>
+        <v>19.0497295489327</v>
       </c>
       <c r="E50">
-        <v>148.545998864878</v>
+        <v>148.545868753417</v>
       </c>
       <c r="F50">
-        <v>2.85903111622018</v>
+        <v>2.85900177383879</v>
       </c>
       <c r="G50">
-        <v>27.5830572096404</v>
+        <v>27.5830045029706</v>
       </c>
       <c r="H50">
-        <v>38.6629620810218</v>
+        <v>38.6628061704371</v>
       </c>
       <c r="I50">
-        <v>14.6916663364672</v>
+        <v>14.691642153121</v>
       </c>
       <c r="J50">
-        <v>109.772323917001</v>
+        <v>109.772335323719</v>
       </c>
       <c r="K50">
-        <v>83.70878523548259</v>
+        <v>83.7087449763946</v>
       </c>
       <c r="L50">
-        <v>56.1849236082393</v>
+        <v>56.1848740597015</v>
       </c>
       <c r="M50">
-        <v>37.1224255782505</v>
+        <v>37.1224195535722</v>
       </c>
       <c r="N50">
-        <v>52.930410851655</v>
+        <v>52.9304065722703</v>
       </c>
       <c r="O50">
-        <v>1985.48811000454</v>
+        <v>1985.48872004566</v>
       </c>
       <c r="P50">
-        <v>92.2193995994583</v>
+        <v>92.2194323912715</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>133.243051533465</v>
+        <v>133.243227082664</v>
       </c>
       <c r="C51">
-        <v>3.01155854728689</v>
+        <v>3.01156164596419</v>
       </c>
       <c r="D51">
-        <v>0.0968253105655849</v>
+        <v>0.0968256990868706</v>
       </c>
       <c r="E51">
-        <v>2.03825148621436</v>
+        <v>2.03837093557823</v>
       </c>
       <c r="F51">
-        <v>30.422154304106</v>
+        <v>30.4230347316369</v>
       </c>
       <c r="G51">
-        <v>2.29563823575758</v>
+        <v>2.29564414193635</v>
       </c>
       <c r="H51">
-        <v>0.0220409279528294</v>
+        <v>0.0220270568051283</v>
       </c>
       <c r="I51">
-        <v>1.1224799308424</v>
+        <v>1.1224841391881</v>
       </c>
       <c r="J51">
-        <v>1.13444006033133</v>
+        <v>1.13442443604205</v>
       </c>
       <c r="K51">
-        <v>1.23697201684873</v>
+        <v>1.23693720975991</v>
       </c>
       <c r="L51">
-        <v>0.338724920024137</v>
+        <v>0.338711529948586</v>
       </c>
       <c r="M51">
-        <v>0.389409820433696</v>
+        <v>0.389408543896833</v>
       </c>
       <c r="N51">
-        <v>1.7268630898023</v>
+        <v>1.72685342262271</v>
       </c>
       <c r="O51">
-        <v>254.295918447295</v>
+        <v>254.296154822973</v>
       </c>
       <c r="P51">
-        <v>22.1603703525316</v>
+        <v>22.1604012265925</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2002.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2002.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>1361.16109049259</v>
+        <v>1332.64854428019</v>
       </c>
       <c r="C2">
-        <v>30.9076863569718</v>
+        <v>29.5218205300809</v>
       </c>
       <c r="D2">
-        <v>50.4994181102802</v>
+        <v>49.5483205383625</v>
       </c>
       <c r="E2">
-        <v>62.4558566233476</v>
+        <v>63.5818724091151</v>
       </c>
       <c r="F2">
-        <v>18.0062251569152</v>
+        <v>18.8129828085112</v>
       </c>
       <c r="G2">
-        <v>13.1017056683118</v>
+        <v>15.9559501235863</v>
       </c>
       <c r="H2">
-        <v>25.6084034802766</v>
+        <v>25.5854480050731</v>
       </c>
       <c r="I2">
-        <v>13.1857878166471</v>
+        <v>14.2469964390563</v>
       </c>
       <c r="J2">
-        <v>62.756977380666</v>
+        <v>68.4632360940516</v>
       </c>
       <c r="K2">
-        <v>19.5211804355379</v>
+        <v>17.0211939733481</v>
       </c>
       <c r="L2">
-        <v>41.784490123086</v>
+        <v>39.7940137361575</v>
       </c>
       <c r="M2">
-        <v>43.542665199783</v>
+        <v>42.9746239309754</v>
       </c>
       <c r="N2">
-        <v>21.5528692365129</v>
+        <v>24.4466539761029</v>
       </c>
       <c r="O2">
-        <v>1364.934979781</v>
+        <v>1388.58468183974</v>
       </c>
       <c r="P2">
-        <v>24.1919745211064</v>
+        <v>23.7234195764609</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>157.354617446677</v>
+        <v>155.92873155914</v>
       </c>
       <c r="C3">
-        <v>4.27707918743613</v>
+        <v>4.7672472736598</v>
       </c>
       <c r="D3">
-        <v>0.391061524246452</v>
+        <v>0.378499028070742</v>
       </c>
       <c r="E3">
-        <v>1.19792519864598</v>
+        <v>1.32953721955414</v>
       </c>
       <c r="F3">
-        <v>10.4807834680616</v>
+        <v>10.446565677717</v>
       </c>
       <c r="G3">
-        <v>0.482790760438799</v>
+        <v>0.449489216822836</v>
       </c>
       <c r="H3">
-        <v>0.107295711138343</v>
+        <v>0.0857060198438491</v>
       </c>
       <c r="I3">
-        <v>0.844847065605127</v>
+        <v>0.766418543036996</v>
       </c>
       <c r="J3">
-        <v>0.610227784160208</v>
+        <v>0.566569727879189</v>
       </c>
       <c r="K3">
-        <v>0.270559335209995</v>
+        <v>0.166909922042816</v>
       </c>
       <c r="L3">
-        <v>0.224972292951461</v>
+        <v>0.332366916664093</v>
       </c>
       <c r="M3">
-        <v>1.01270590705303</v>
+        <v>0.789496696274001</v>
       </c>
       <c r="N3">
-        <v>1.68759436591932</v>
+        <v>1.90287753711689</v>
       </c>
       <c r="O3">
-        <v>311.122203136036</v>
+        <v>308.00738991226</v>
       </c>
       <c r="P3">
-        <v>13.6310652165904</v>
+        <v>14.3071816746174</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>1329.68032610869</v>
+        <v>1352.40687272804</v>
       </c>
       <c r="C4">
-        <v>8.03793037957472</v>
+        <v>8.70119117088878</v>
       </c>
       <c r="D4">
-        <v>1.86704177012625</v>
+        <v>2.2543418248219</v>
       </c>
       <c r="E4">
-        <v>23.4932732802376</v>
+        <v>25.2408744742306</v>
       </c>
       <c r="F4">
-        <v>12.3078743499544</v>
+        <v>10.5446036592386</v>
       </c>
       <c r="G4">
-        <v>7.82359633775901</v>
+        <v>7.62422808849956</v>
       </c>
       <c r="H4">
-        <v>11.8874056069074</v>
+        <v>10.2832098674161</v>
       </c>
       <c r="I4">
-        <v>11.1674637659198</v>
+        <v>10.2076345463</v>
       </c>
       <c r="J4">
-        <v>18.0675543729076</v>
+        <v>22.6999605407586</v>
       </c>
       <c r="K4">
-        <v>6.30470117182759</v>
+        <v>5.15549633788087</v>
       </c>
       <c r="L4">
-        <v>69.4882935029717</v>
+        <v>66.9507083550109</v>
       </c>
       <c r="M4">
-        <v>42.8434892548907</v>
+        <v>46.7905545279211</v>
       </c>
       <c r="N4">
-        <v>31.3120646984379</v>
+        <v>33.851622111196</v>
       </c>
       <c r="O4">
-        <v>2010.77588782959</v>
+        <v>1995.74604717964</v>
       </c>
       <c r="P4">
-        <v>20.7005921238625</v>
+        <v>22.7036550141856</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>745.602889191557</v>
+        <v>729.042549192523</v>
       </c>
       <c r="C5">
-        <v>50.0977081327625</v>
+        <v>52.4573557548018</v>
       </c>
       <c r="D5">
-        <v>10.9042003430641</v>
+        <v>12.1368649264576</v>
       </c>
       <c r="E5">
-        <v>32.2115971208185</v>
+        <v>37.5105000337183</v>
       </c>
       <c r="F5">
-        <v>5.46701667004764</v>
+        <v>5.04337567461974</v>
       </c>
       <c r="G5">
-        <v>5.30153504389132</v>
+        <v>5.44202127707029</v>
       </c>
       <c r="H5">
-        <v>12.6839748115303</v>
+        <v>11.7964735040013</v>
       </c>
       <c r="I5">
-        <v>8.61706165614642</v>
+        <v>8.557147715099591</v>
       </c>
       <c r="J5">
-        <v>26.413492862153</v>
+        <v>30.1003387958363</v>
       </c>
       <c r="K5">
-        <v>16.5248569514672</v>
+        <v>15.6584051854423</v>
       </c>
       <c r="L5">
-        <v>22.8841774017754</v>
+        <v>22.8569231657344</v>
       </c>
       <c r="M5">
-        <v>23.4743615519792</v>
+        <v>23.591751917293</v>
       </c>
       <c r="N5">
-        <v>22.6690006436872</v>
+        <v>22.7135512144529</v>
       </c>
       <c r="O5">
-        <v>872.555723971887</v>
+        <v>869.366761137696</v>
       </c>
       <c r="P5">
-        <v>59.037204170753</v>
+        <v>56.7237513952626</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>8339.27915122736</v>
+        <v>8280.46293858725</v>
       </c>
       <c r="C6">
-        <v>183.214881654093</v>
+        <v>190.131194488896</v>
       </c>
       <c r="D6">
-        <v>165.081064521265</v>
+        <v>162.140398599532</v>
       </c>
       <c r="E6">
-        <v>163.829299036361</v>
+        <v>158.772650932072</v>
       </c>
       <c r="F6">
-        <v>39.8659972860574</v>
+        <v>42.0258346586464</v>
       </c>
       <c r="G6">
-        <v>95.0607271220493</v>
+        <v>108.065242511055</v>
       </c>
       <c r="H6">
-        <v>72.8037543479543</v>
+        <v>74.6798105697228</v>
       </c>
       <c r="I6">
-        <v>34.0710534757655</v>
+        <v>47.8289847261634</v>
       </c>
       <c r="J6">
-        <v>180.810190225477</v>
+        <v>189.1122896194</v>
       </c>
       <c r="K6">
-        <v>109.55637537894</v>
+        <v>102.838024511458</v>
       </c>
       <c r="L6">
-        <v>502.017177464023</v>
+        <v>498.389894702641</v>
       </c>
       <c r="M6">
-        <v>279.361718290503</v>
+        <v>270.145396453329</v>
       </c>
       <c r="N6">
-        <v>280.372251278</v>
+        <v>280.49973190318</v>
       </c>
       <c r="O6">
-        <v>12303.2413327329</v>
+        <v>12327.6453374372</v>
       </c>
       <c r="P6">
-        <v>299.721497164729</v>
+        <v>302.269829939276</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>848.188553285454</v>
+        <v>835.979662143786</v>
       </c>
       <c r="C7">
-        <v>35.8212226412109</v>
+        <v>33.8881883524569</v>
       </c>
       <c r="D7">
-        <v>2.4103684015241</v>
+        <v>3.29327855209496</v>
       </c>
       <c r="E7">
-        <v>16.40570647983</v>
+        <v>17.6169157528717</v>
       </c>
       <c r="F7">
-        <v>12.8829911418317</v>
+        <v>13.2662322389642</v>
       </c>
       <c r="G7">
-        <v>7.6087541446655</v>
+        <v>6.47109037293109</v>
       </c>
       <c r="H7">
-        <v>5.80977672093016</v>
+        <v>5.16287791236286</v>
       </c>
       <c r="I7">
-        <v>9.89463001538236</v>
+        <v>10.2476937735032</v>
       </c>
       <c r="J7">
-        <v>15.1116849043966</v>
+        <v>17.4623622557487</v>
       </c>
       <c r="K7">
-        <v>12.9584978705474</v>
+        <v>12.745011949077</v>
       </c>
       <c r="L7">
-        <v>53.671605323656</v>
+        <v>55.3947996316033</v>
       </c>
       <c r="M7">
-        <v>17.2809516326356</v>
+        <v>17.4557074427668</v>
       </c>
       <c r="N7">
-        <v>25.7597771035714</v>
+        <v>30.7596054814818</v>
       </c>
       <c r="O7">
-        <v>1866.93128446235</v>
+        <v>1862.55167722492</v>
       </c>
       <c r="P7">
-        <v>26.5638715909623</v>
+        <v>32.9251507218337</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>713.71913938045</v>
+        <v>715.864349494898</v>
       </c>
       <c r="C8">
-        <v>13.6959940397744</v>
+        <v>12.8080995874494</v>
       </c>
       <c r="D8">
-        <v>7.98346955625821</v>
+        <v>6.40418131474113</v>
       </c>
       <c r="E8">
-        <v>17.9309031328995</v>
+        <v>19.6269369507881</v>
       </c>
       <c r="F8">
-        <v>1.38957317987162</v>
+        <v>3.64539999851324</v>
       </c>
       <c r="G8">
-        <v>26.4070011734013</v>
+        <v>28.3746730855775</v>
       </c>
       <c r="H8">
-        <v>12.2369177430345</v>
+        <v>10.9655770432709</v>
       </c>
       <c r="I8">
-        <v>7.29002062324204</v>
+        <v>5.97725363079798</v>
       </c>
       <c r="J8">
-        <v>39.6414490183079</v>
+        <v>38.2894293386542</v>
       </c>
       <c r="K8">
-        <v>22.1865105532623</v>
+        <v>20.9808694308841</v>
       </c>
       <c r="L8">
-        <v>43.6616114657436</v>
+        <v>46.3202969017601</v>
       </c>
       <c r="M8">
-        <v>48.7922587351852</v>
+        <v>49.4539557857627</v>
       </c>
       <c r="N8">
-        <v>26.3844566242698</v>
+        <v>27.7542317573637</v>
       </c>
       <c r="O8">
-        <v>1390.60729023335</v>
+        <v>1378.76838121215</v>
       </c>
       <c r="P8">
-        <v>4.87258762163065</v>
+        <v>5.15472877909666</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>209.55180058998</v>
+        <v>211.628719125725</v>
       </c>
       <c r="C9">
-        <v>8.14180486647027</v>
+        <v>8.525421865631751</v>
       </c>
       <c r="D9">
-        <v>2.4327452202063</v>
+        <v>2.10393635833873</v>
       </c>
       <c r="E9">
-        <v>4.49272030467965</v>
+        <v>4.52760927050317</v>
       </c>
       <c r="F9">
-        <v>1.52607539310161</v>
+        <v>1.73870263942983</v>
       </c>
       <c r="G9">
-        <v>23.4636564392338</v>
+        <v>22.6612767053296</v>
       </c>
       <c r="H9">
-        <v>5.20057674479979</v>
+        <v>4.36634379776968</v>
       </c>
       <c r="I9">
-        <v>1.02509912882184</v>
+        <v>1.315238300942</v>
       </c>
       <c r="J9">
-        <v>4.57801927913664</v>
+        <v>4.7879329250747</v>
       </c>
       <c r="K9">
-        <v>3.45569504657484</v>
+        <v>2.25677789021241</v>
       </c>
       <c r="L9">
-        <v>2.55747364039846</v>
+        <v>3.26420852304049</v>
       </c>
       <c r="M9">
-        <v>9.65429337386343</v>
+        <v>8.38702867496947</v>
       </c>
       <c r="N9">
-        <v>5.86425648945644</v>
+        <v>5.10618540512362</v>
       </c>
       <c r="O9">
-        <v>355.932729150786</v>
+        <v>361.349012755468</v>
       </c>
       <c r="P9">
-        <v>5.57163494686478</v>
+        <v>5.76893524723582</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>4514.7741494854</v>
+        <v>4478.26646191483</v>
       </c>
       <c r="C10">
-        <v>61.0808485487631</v>
+        <v>63.9763464341485</v>
       </c>
       <c r="D10">
-        <v>25.9167256841937</v>
+        <v>30.3763538597212</v>
       </c>
       <c r="E10">
-        <v>51.628300291466</v>
+        <v>53.2293626542995</v>
       </c>
       <c r="F10">
-        <v>11.1448957746002</v>
+        <v>10.6586050555019</v>
       </c>
       <c r="G10">
-        <v>31.6737382527562</v>
+        <v>32.9184996032299</v>
       </c>
       <c r="H10">
-        <v>11.7337406688331</v>
+        <v>19.2281030074852</v>
       </c>
       <c r="I10">
-        <v>43.2042316275747</v>
+        <v>39.6987981664983</v>
       </c>
       <c r="J10">
-        <v>55.2254265146278</v>
+        <v>55.9416115224335</v>
       </c>
       <c r="K10">
-        <v>31.8328811071846</v>
+        <v>28.500019733607</v>
       </c>
       <c r="L10">
-        <v>87.6250127442639</v>
+        <v>90.9309572579462</v>
       </c>
       <c r="M10">
-        <v>75.26763066070561</v>
+        <v>72.6649835177239</v>
       </c>
       <c r="N10">
-        <v>86.4546801893553</v>
+        <v>89.6427686049913</v>
       </c>
       <c r="O10">
-        <v>6661.98812158221</v>
+        <v>6719.75326250808</v>
       </c>
       <c r="P10">
-        <v>103.530814314913</v>
+        <v>96.73064546854761</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>1941.36517561954</v>
+        <v>1923.93825547089</v>
       </c>
       <c r="C11">
-        <v>68.7462602335427</v>
+        <v>72.9545224708847</v>
       </c>
       <c r="D11">
-        <v>169.124566601489</v>
+        <v>160.781939393716</v>
       </c>
       <c r="E11">
-        <v>62.4632668486944</v>
+        <v>74.759177790675</v>
       </c>
       <c r="F11">
-        <v>2.33254769055744</v>
+        <v>4.60939841615188</v>
       </c>
       <c r="G11">
-        <v>29.4072375991753</v>
+        <v>27.8785487190093</v>
       </c>
       <c r="H11">
-        <v>17.6593968422587</v>
+        <v>16.9704077336392</v>
       </c>
       <c r="I11">
-        <v>15.2857589488825</v>
+        <v>16.468631649535</v>
       </c>
       <c r="J11">
-        <v>47.6606475691773</v>
+        <v>48.3757830990343</v>
       </c>
       <c r="K11">
-        <v>27.2605857529225</v>
+        <v>26.5414139756595</v>
       </c>
       <c r="L11">
-        <v>55.4172830022792</v>
+        <v>63.0039149662252</v>
       </c>
       <c r="M11">
-        <v>41.8299891146699</v>
+        <v>44.7578907374461</v>
       </c>
       <c r="N11">
-        <v>46.0423324404123</v>
+        <v>49.2812538521916</v>
       </c>
       <c r="O11">
-        <v>3089.76786722714</v>
+        <v>3083.26061645691</v>
       </c>
       <c r="P11">
-        <v>54.9111631197698</v>
+        <v>56.5704615000218</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>316.744746327478</v>
+        <v>315.033507850401</v>
       </c>
       <c r="C12">
-        <v>6.31785968564881</v>
+        <v>7.98594425372621</v>
       </c>
       <c r="D12">
-        <v>1.33938666237949</v>
+        <v>1.03618289852819</v>
       </c>
       <c r="E12">
-        <v>1.82161374952979</v>
+        <v>2.69443178253244</v>
       </c>
       <c r="F12">
-        <v>0.756166184019707</v>
+        <v>0.895892273625455</v>
       </c>
       <c r="G12">
-        <v>0.0716449556358244</v>
+        <v>0.482118410095725</v>
       </c>
       <c r="H12">
-        <v>0.261752262530166</v>
+        <v>0.21165217013397</v>
       </c>
       <c r="I12">
-        <v>1.50484729953667</v>
+        <v>1.26216701381138</v>
       </c>
       <c r="J12">
-        <v>3.16559002307819</v>
+        <v>2.06924014121657</v>
       </c>
       <c r="K12">
-        <v>0.157215113772874</v>
+        <v>0.094474449314059</v>
       </c>
       <c r="L12">
-        <v>0.6631966286632081</v>
+        <v>0.519148667183302</v>
       </c>
       <c r="M12">
-        <v>4.09402761554812</v>
+        <v>3.88421677166546</v>
       </c>
       <c r="N12">
-        <v>3.03197420325643</v>
+        <v>3.92879980568047</v>
       </c>
       <c r="O12">
-        <v>577.288756693612</v>
+        <v>574.3143048933511</v>
       </c>
       <c r="P12">
-        <v>22.5640155596223</v>
+        <v>19.9878298500034</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>277.794726697234</v>
+        <v>283.043285770612</v>
       </c>
       <c r="C13">
-        <v>17.4986082076094</v>
+        <v>19.0393462651775</v>
       </c>
       <c r="D13">
-        <v>0.455860462505676</v>
+        <v>0.6181460975047241</v>
       </c>
       <c r="E13">
-        <v>13.7190678109207</v>
+        <v>13.3639334861405</v>
       </c>
       <c r="F13">
-        <v>2.99945886454031</v>
+        <v>2.82545429381052</v>
       </c>
       <c r="G13">
-        <v>5.35125961410854</v>
+        <v>5.65499355522596</v>
       </c>
       <c r="H13">
-        <v>2.51670128475074</v>
+        <v>2.04987895103593</v>
       </c>
       <c r="I13">
-        <v>1.3313851485339</v>
+        <v>1.25770211546935</v>
       </c>
       <c r="J13">
-        <v>6.0573069209545</v>
+        <v>6.31679758838869</v>
       </c>
       <c r="K13">
-        <v>5.40282694713696</v>
+        <v>4.96052859797416</v>
       </c>
       <c r="L13">
-        <v>19.234152248144</v>
+        <v>20.9105532212488</v>
       </c>
       <c r="M13">
-        <v>1.82011274005266</v>
+        <v>1.69989209454301</v>
       </c>
       <c r="N13">
-        <v>6.02125159044539</v>
+        <v>5.36627644932138</v>
       </c>
       <c r="O13">
-        <v>521.171641170716</v>
+        <v>518.366747606207</v>
       </c>
       <c r="P13">
-        <v>55.1081364990112</v>
+        <v>54.4338253873852</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>2811.39498862984</v>
+        <v>2783.89879606959</v>
       </c>
       <c r="C14">
-        <v>120.630460081036</v>
+        <v>113.597350057608</v>
       </c>
       <c r="D14">
-        <v>15.7160047249256</v>
+        <v>13.5104535966617</v>
       </c>
       <c r="E14">
-        <v>76.87322572912539</v>
+        <v>86.2938082014702</v>
       </c>
       <c r="F14">
-        <v>16.814099824083</v>
+        <v>20.033674377828</v>
       </c>
       <c r="G14">
-        <v>92.6258380102225</v>
+        <v>93.176899213193</v>
       </c>
       <c r="H14">
-        <v>42.6371737851817</v>
+        <v>45.1967465475187</v>
       </c>
       <c r="I14">
-        <v>26.5561761584462</v>
+        <v>24.9599853107608</v>
       </c>
       <c r="J14">
-        <v>152.593096695256</v>
+        <v>149.568108714781</v>
       </c>
       <c r="K14">
-        <v>152.203758602335</v>
+        <v>151.604140346109</v>
       </c>
       <c r="L14">
-        <v>130.521392887843</v>
+        <v>129.434934395123</v>
       </c>
       <c r="M14">
-        <v>77.8093470511453</v>
+        <v>78.7449807271649</v>
       </c>
       <c r="N14">
-        <v>100.090747022248</v>
+        <v>90.0445432891393</v>
       </c>
       <c r="O14">
-        <v>4687.38723280258</v>
+        <v>4718.42617491595</v>
       </c>
       <c r="P14">
-        <v>66.3210916678608</v>
+        <v>64.5982437908373</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>1368.48884579051</v>
+        <v>1366.65519836468</v>
       </c>
       <c r="C15">
-        <v>36.5855274374816</v>
+        <v>32.3290508594193</v>
       </c>
       <c r="D15">
-        <v>13.5502713079243</v>
+        <v>14.8809161401422</v>
       </c>
       <c r="E15">
-        <v>67.0761020172403</v>
+        <v>73.16402113925329</v>
       </c>
       <c r="F15">
-        <v>18.2175247019551</v>
+        <v>18.7286732337228</v>
       </c>
       <c r="G15">
-        <v>40.1108737316681</v>
+        <v>43.8102918801686</v>
       </c>
       <c r="H15">
-        <v>60.8967963035108</v>
+        <v>52.2219754658354</v>
       </c>
       <c r="I15">
-        <v>25.6555062873353</v>
+        <v>26.5002343611552</v>
       </c>
       <c r="J15">
-        <v>151.61404228767</v>
+        <v>158.943617161448</v>
       </c>
       <c r="K15">
-        <v>47.6349224825657</v>
+        <v>43.1001751886096</v>
       </c>
       <c r="L15">
-        <v>42.565187360259</v>
+        <v>43.1806829271328</v>
       </c>
       <c r="M15">
-        <v>176.190097226025</v>
+        <v>181.488194242495</v>
       </c>
       <c r="N15">
-        <v>90.2198097988143</v>
+        <v>88.9788937948202</v>
       </c>
       <c r="O15">
-        <v>2083.61892223067</v>
+        <v>2081.47743684929</v>
       </c>
       <c r="P15">
-        <v>46.5400537458222</v>
+        <v>46.2186030837045</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>569.480303914112</v>
+        <v>575.017715472732</v>
       </c>
       <c r="C16">
-        <v>62.3023698360926</v>
+        <v>63.1537750639979</v>
       </c>
       <c r="D16">
-        <v>6.64104258330744</v>
+        <v>6.17104115139717</v>
       </c>
       <c r="E16">
-        <v>27.5067430692577</v>
+        <v>24.1380451587902</v>
       </c>
       <c r="F16">
-        <v>3.88569132463766</v>
+        <v>3.0247046081961</v>
       </c>
       <c r="G16">
-        <v>20.1414032841644</v>
+        <v>18.6440725514071</v>
       </c>
       <c r="H16">
-        <v>13.3297840998447</v>
+        <v>14.5209380989744</v>
       </c>
       <c r="I16">
-        <v>8.77095050861355</v>
+        <v>8.66277782751733</v>
       </c>
       <c r="J16">
-        <v>44.4051837029295</v>
+        <v>47.3806629564192</v>
       </c>
       <c r="K16">
-        <v>45.2370470016888</v>
+        <v>45.7169774026619</v>
       </c>
       <c r="L16">
-        <v>26.5392530384665</v>
+        <v>30.1385953051235</v>
       </c>
       <c r="M16">
-        <v>28.9077929477435</v>
+        <v>27.8582075013655</v>
       </c>
       <c r="N16">
-        <v>26.6210871380965</v>
+        <v>26.9409347343756</v>
       </c>
       <c r="O16">
-        <v>1146.82509910264</v>
+        <v>1139.29737241555</v>
       </c>
       <c r="P16">
-        <v>87.0775035463036</v>
+        <v>86.8465447072457</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>565.158640354848</v>
+        <v>557.336114490084</v>
       </c>
       <c r="C17">
-        <v>18.6605278357555</v>
+        <v>24.2185657870999</v>
       </c>
       <c r="D17">
-        <v>2.61598048612356</v>
+        <v>3.3010776789548</v>
       </c>
       <c r="E17">
-        <v>17.1855914637889</v>
+        <v>20.5696981924195</v>
       </c>
       <c r="F17">
-        <v>12.0720584241508</v>
+        <v>11.8037212766855</v>
       </c>
       <c r="G17">
-        <v>6.94202396623901</v>
+        <v>7.26665009503434</v>
       </c>
       <c r="H17">
-        <v>7.6185577102635</v>
+        <v>8.227270619273529</v>
       </c>
       <c r="I17">
-        <v>8.17674946729697</v>
+        <v>9.219823762963801</v>
       </c>
       <c r="J17">
-        <v>13.6543807223092</v>
+        <v>17.0552866311198</v>
       </c>
       <c r="K17">
-        <v>12.1189217510936</v>
+        <v>13.6298434401526</v>
       </c>
       <c r="L17">
-        <v>8.932038290068601</v>
+        <v>9.90841840405996</v>
       </c>
       <c r="M17">
-        <v>64.358657464827</v>
+        <v>65.78054803686361</v>
       </c>
       <c r="N17">
-        <v>15.2802824427634</v>
+        <v>14.6628839075555</v>
       </c>
       <c r="O17">
-        <v>1087.34635788554</v>
+        <v>1074.37503346764</v>
       </c>
       <c r="P17">
-        <v>57.3445000607211</v>
+        <v>59.9620478294715</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>1192.79880037573</v>
+        <v>1181.1998638138</v>
       </c>
       <c r="C18">
-        <v>35.9176449529542</v>
+        <v>35.4236891000947</v>
       </c>
       <c r="D18">
-        <v>8.61675595183265</v>
+        <v>7.74217981421326</v>
       </c>
       <c r="E18">
-        <v>33.2755616989354</v>
+        <v>36.4818978874717</v>
       </c>
       <c r="F18">
-        <v>27.9169151779521</v>
+        <v>28.402482993334</v>
       </c>
       <c r="G18">
-        <v>23.5128484126907</v>
+        <v>23.0681765016556</v>
       </c>
       <c r="H18">
-        <v>18.7327453409009</v>
+        <v>20.0433248797714</v>
       </c>
       <c r="I18">
-        <v>4.735846111034</v>
+        <v>6.08219125812873</v>
       </c>
       <c r="J18">
-        <v>48.1178018051968</v>
+        <v>46.3531837910723</v>
       </c>
       <c r="K18">
-        <v>20.1651405805767</v>
+        <v>21.54171219751</v>
       </c>
       <c r="L18">
-        <v>36.8181706836319</v>
+        <v>35.2737191912454</v>
       </c>
       <c r="M18">
-        <v>66.1372218920216</v>
+        <v>67.2869560161941</v>
       </c>
       <c r="N18">
-        <v>24.0126836989982</v>
+        <v>20.6236404036057</v>
       </c>
       <c r="O18">
-        <v>1376.71070002552</v>
+        <v>1403.87640609472</v>
       </c>
       <c r="P18">
-        <v>57.7640386926815</v>
+        <v>52.7620656973599</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>1240.39625525526</v>
+        <v>1254.21122098711</v>
       </c>
       <c r="C19">
-        <v>25.5278942022865</v>
+        <v>27.0743777138676</v>
       </c>
       <c r="D19">
-        <v>8.814491651678569</v>
+        <v>7.67561030366971</v>
       </c>
       <c r="E19">
-        <v>38.9952778333998</v>
+        <v>39.9316670181292</v>
       </c>
       <c r="F19">
-        <v>93.4222135783775</v>
+        <v>90.1553727225038</v>
       </c>
       <c r="G19">
-        <v>39.6417585402847</v>
+        <v>41.6741506913039</v>
       </c>
       <c r="H19">
-        <v>7.01107630453068</v>
+        <v>6.2460446213847</v>
       </c>
       <c r="I19">
-        <v>1.04860579636883</v>
+        <v>3.65021331630015</v>
       </c>
       <c r="J19">
-        <v>15.0518431287609</v>
+        <v>14.8756399479622</v>
       </c>
       <c r="K19">
-        <v>15.2915333199184</v>
+        <v>12.1997112620026</v>
       </c>
       <c r="L19">
-        <v>5.46651147669955</v>
+        <v>3.91946288359114</v>
       </c>
       <c r="M19">
-        <v>27.7882528198572</v>
+        <v>32.2737167037442</v>
       </c>
       <c r="N19">
-        <v>13.1198393705801</v>
+        <v>9.56498314215602</v>
       </c>
       <c r="O19">
-        <v>1544.60198608137</v>
+        <v>1537.97409318803</v>
       </c>
       <c r="P19">
-        <v>43.0051331343188</v>
+        <v>40.5715960766246</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>316.081590812365</v>
+        <v>309.796444573267</v>
       </c>
       <c r="C20">
-        <v>7.09431229907878</v>
+        <v>9.00538942478819</v>
       </c>
       <c r="D20">
-        <v>9.01274949432961</v>
+        <v>10.7639502442514</v>
       </c>
       <c r="E20">
-        <v>35.5561642735506</v>
+        <v>37.8488858357649</v>
       </c>
       <c r="F20">
-        <v>0.865637071909916</v>
+        <v>1.12224461872707</v>
       </c>
       <c r="G20">
-        <v>2.15715443812464</v>
+        <v>2.04329827701264</v>
       </c>
       <c r="H20">
-        <v>1.72886342090446</v>
+        <v>1.5787330406636</v>
       </c>
       <c r="I20">
-        <v>1.76574808207719</v>
+        <v>1.53032992603426</v>
       </c>
       <c r="J20">
-        <v>5.10190647723435</v>
+        <v>4.52402521984774</v>
       </c>
       <c r="K20">
-        <v>3.56876024598676</v>
+        <v>2.98317938344413</v>
       </c>
       <c r="L20">
-        <v>7.40017309592322</v>
+        <v>8.181242161386031</v>
       </c>
       <c r="M20">
-        <v>16.3324475041175</v>
+        <v>17.4883166310484</v>
       </c>
       <c r="N20">
-        <v>5.96219500888683</v>
+        <v>6.48230499876861</v>
       </c>
       <c r="O20">
-        <v>529.613850772754</v>
+        <v>528.575639722547</v>
       </c>
       <c r="P20">
-        <v>27.8500286947114</v>
+        <v>25.1465387432388</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>1139.6535243841</v>
+        <v>1160.28944430759</v>
       </c>
       <c r="C21">
-        <v>26.0062178281858</v>
+        <v>24.8202016717365</v>
       </c>
       <c r="D21">
-        <v>5.47199495051591</v>
+        <v>5.83795083695549</v>
       </c>
       <c r="E21">
-        <v>21.7813010668782</v>
+        <v>21.7872536072739</v>
       </c>
       <c r="F21">
-        <v>5.34597470661021</v>
+        <v>4.34090022057194</v>
       </c>
       <c r="G21">
-        <v>21.0387549884624</v>
+        <v>20.2791249664524</v>
       </c>
       <c r="H21">
-        <v>5.12570282203832</v>
+        <v>6.31919310167548</v>
       </c>
       <c r="I21">
-        <v>11.0550366132781</v>
+        <v>10.1574237939211</v>
       </c>
       <c r="J21">
-        <v>27.0390596543354</v>
+        <v>29.4307841880878</v>
       </c>
       <c r="K21">
-        <v>3.38714780342194</v>
+        <v>4.68479870349038</v>
       </c>
       <c r="L21">
-        <v>22.2450077438933</v>
+        <v>24.3641846277877</v>
       </c>
       <c r="M21">
-        <v>25.7490067354315</v>
+        <v>26.4265195813792</v>
       </c>
       <c r="N21">
-        <v>29.2459975049958</v>
+        <v>23.5245252461878</v>
       </c>
       <c r="O21">
-        <v>2321.37428747352</v>
+        <v>2303.54711370623</v>
       </c>
       <c r="P21">
-        <v>20.8558892149471</v>
+        <v>22.1168321721137</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>1390.90090795573</v>
+        <v>1361.73834740827</v>
       </c>
       <c r="C22">
-        <v>17.8912564018199</v>
+        <v>17.2013750746057</v>
       </c>
       <c r="D22">
-        <v>22.8100557011481</v>
+        <v>22.3507550404102</v>
       </c>
       <c r="E22">
-        <v>40.4577777319868</v>
+        <v>45.6530196067138</v>
       </c>
       <c r="F22">
-        <v>2.7858430611123</v>
+        <v>3.14374302946805</v>
       </c>
       <c r="G22">
-        <v>31.7106194581845</v>
+        <v>31.5799806075909</v>
       </c>
       <c r="H22">
-        <v>16.5028203775851</v>
+        <v>19.1430260755481</v>
       </c>
       <c r="I22">
-        <v>9.045792350025909</v>
+        <v>8.973098153925269</v>
       </c>
       <c r="J22">
-        <v>45.2799061186548</v>
+        <v>43.1039868331316</v>
       </c>
       <c r="K22">
-        <v>26.7976059530918</v>
+        <v>24.5852195912385</v>
       </c>
       <c r="L22">
-        <v>122.956720596456</v>
+        <v>124.630388069044</v>
       </c>
       <c r="M22">
-        <v>13.4746900206193</v>
+        <v>16.7164352460478</v>
       </c>
       <c r="N22">
-        <v>79.14198771945451</v>
+        <v>74.38657516062121</v>
       </c>
       <c r="O22">
-        <v>2572.50921729809</v>
+        <v>2595.67516058292</v>
       </c>
       <c r="P22">
-        <v>11.6796450328129</v>
+        <v>10.6294850105001</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>2501.90341661199</v>
+        <v>2453.85151841243</v>
       </c>
       <c r="C23">
-        <v>44.6495589033418</v>
+        <v>41.3786904739147</v>
       </c>
       <c r="D23">
-        <v>9.707225361009151</v>
+        <v>9.3441670342675</v>
       </c>
       <c r="E23">
-        <v>33.1656864488077</v>
+        <v>49.0319416328819</v>
       </c>
       <c r="F23">
-        <v>6.99333283892569</v>
+        <v>6.16472367236928</v>
       </c>
       <c r="G23">
-        <v>57.3195727573908</v>
+        <v>56.447205825468</v>
       </c>
       <c r="H23">
-        <v>62.5252556389777</v>
+        <v>63.4008227900247</v>
       </c>
       <c r="I23">
-        <v>12.4916794201739</v>
+        <v>12.5913441752086</v>
       </c>
       <c r="J23">
-        <v>127.67354935426</v>
+        <v>135.02918029549</v>
       </c>
       <c r="K23">
-        <v>101.011057256917</v>
+        <v>96.8964407961553</v>
       </c>
       <c r="L23">
-        <v>43.6322222541057</v>
+        <v>38.1910782351059</v>
       </c>
       <c r="M23">
-        <v>530.034072157909</v>
+        <v>539.159357358898</v>
       </c>
       <c r="N23">
-        <v>77.1156665073152</v>
+        <v>80.2896010501558</v>
       </c>
       <c r="O23">
-        <v>3313.5580282143</v>
+        <v>3338.88016369772</v>
       </c>
       <c r="P23">
-        <v>50.9463122872564</v>
+        <v>52.4870738958487</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>903.28368672286</v>
+        <v>897.386689435764</v>
       </c>
       <c r="C24">
-        <v>56.7436978961882</v>
+        <v>57.1892757577025</v>
       </c>
       <c r="D24">
-        <v>6.58355992029099</v>
+        <v>8.00327355773077</v>
       </c>
       <c r="E24">
-        <v>61.4877037196632</v>
+        <v>57.0402770488464</v>
       </c>
       <c r="F24">
-        <v>12.5322625382234</v>
+        <v>11.577114989927</v>
       </c>
       <c r="G24">
-        <v>28.8460039600356</v>
+        <v>30.3259642891293</v>
       </c>
       <c r="H24">
-        <v>13.5318915038345</v>
+        <v>14.928059002483</v>
       </c>
       <c r="I24">
-        <v>18.3920773006329</v>
+        <v>18.9353284028151</v>
       </c>
       <c r="J24">
-        <v>48.9300183005647</v>
+        <v>53.0130732818175</v>
       </c>
       <c r="K24">
-        <v>52.4610808322833</v>
+        <v>51.8156943414874</v>
       </c>
       <c r="L24">
-        <v>62.5538343588376</v>
+        <v>66.8647538001028</v>
       </c>
       <c r="M24">
-        <v>32.4545700886693</v>
+        <v>32.2376124328513</v>
       </c>
       <c r="N24">
-        <v>70.9988860386655</v>
+        <v>70.8638223505065</v>
       </c>
       <c r="O24">
-        <v>1940.44609323635</v>
+        <v>1934.80168781786</v>
       </c>
       <c r="P24">
-        <v>104.444931242058</v>
+        <v>108.524471927268</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>819.854641495832</v>
+        <v>819.62654031434</v>
       </c>
       <c r="C25">
-        <v>41.5713156492531</v>
+        <v>40.1675349707336</v>
       </c>
       <c r="D25">
-        <v>17.6535061723615</v>
+        <v>15.6272584295932</v>
       </c>
       <c r="E25">
-        <v>42.1651938576893</v>
+        <v>42.5141682421033</v>
       </c>
       <c r="F25">
-        <v>16.8618999343021</v>
+        <v>15.579498056941</v>
       </c>
       <c r="G25">
-        <v>7.81363468447241</v>
+        <v>7.97811690461582</v>
       </c>
       <c r="H25">
-        <v>10.9637218865504</v>
+        <v>12.7252806687224</v>
       </c>
       <c r="I25">
-        <v>6.80845835842693</v>
+        <v>6.02912783376636</v>
       </c>
       <c r="J25">
-        <v>17.4507932778043</v>
+        <v>16.6197770640299</v>
       </c>
       <c r="K25">
-        <v>16.3507951247684</v>
+        <v>13.7104677464745</v>
       </c>
       <c r="L25">
-        <v>18.7295322620145</v>
+        <v>17.6184120452625</v>
       </c>
       <c r="M25">
-        <v>35.7600708054847</v>
+        <v>36.5302278810367</v>
       </c>
       <c r="N25">
-        <v>41.0891174294414</v>
+        <v>39.3968439225815</v>
       </c>
       <c r="O25">
-        <v>917.416985770675</v>
+        <v>917.747831911536</v>
       </c>
       <c r="P25">
-        <v>42.6983628807598</v>
+        <v>44.6295027714031</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>1230.92990873934</v>
+        <v>1236.23047900317</v>
       </c>
       <c r="C26">
-        <v>61.4761596857693</v>
+        <v>63.6616389524726</v>
       </c>
       <c r="D26">
-        <v>16.0204781312759</v>
+        <v>14.1026170357579</v>
       </c>
       <c r="E26">
-        <v>46.0064534507108</v>
+        <v>50.5546402715561</v>
       </c>
       <c r="F26">
-        <v>8.55161784608512</v>
+        <v>11.2022655924684</v>
       </c>
       <c r="G26">
-        <v>30.8343994326503</v>
+        <v>32.1876880235438</v>
       </c>
       <c r="H26">
-        <v>24.8038017066647</v>
+        <v>17.5946621165187</v>
       </c>
       <c r="I26">
-        <v>20.1223950618616</v>
+        <v>16.1745428748579</v>
       </c>
       <c r="J26">
-        <v>66.8219015525724</v>
+        <v>55.1988814164037</v>
       </c>
       <c r="K26">
-        <v>26.9481411688444</v>
+        <v>27.3391803477902</v>
       </c>
       <c r="L26">
-        <v>29.8216172465531</v>
+        <v>31.7338400168879</v>
       </c>
       <c r="M26">
-        <v>81.3648279231458</v>
+        <v>80.9643993186664</v>
       </c>
       <c r="N26">
-        <v>24.1066139895676</v>
+        <v>27.9461169835436</v>
       </c>
       <c r="O26">
-        <v>2147.79216425998</v>
+        <v>2152.56359819244</v>
       </c>
       <c r="P26">
-        <v>74.1255116370205</v>
+        <v>74.96481979497651</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>237.948079704563</v>
+        <v>234.22474035303</v>
       </c>
       <c r="C27">
-        <v>3.76486675331207</v>
+        <v>3.06689931233599</v>
       </c>
       <c r="D27">
-        <v>1.1871039158906</v>
+        <v>1.12736053079876</v>
       </c>
       <c r="E27">
-        <v>11.2203666418089</v>
+        <v>11.3926967383209</v>
       </c>
       <c r="F27">
-        <v>5.58898731841643</v>
+        <v>6.18248891152598</v>
       </c>
       <c r="G27">
-        <v>1.3523543692402</v>
+        <v>0.908495250255737</v>
       </c>
       <c r="H27">
-        <v>0.256762374924738</v>
+        <v>0.408923778991044</v>
       </c>
       <c r="I27">
-        <v>2.65868884616626</v>
+        <v>2.52582632993341</v>
       </c>
       <c r="J27">
-        <v>3.22453118958461</v>
+        <v>3.22008073374792</v>
       </c>
       <c r="K27">
-        <v>2.13417310922174</v>
+        <v>1.92217102974622</v>
       </c>
       <c r="L27">
-        <v>1.44179189810004</v>
+        <v>1.77423102380724</v>
       </c>
       <c r="M27">
-        <v>0.354402793213712</v>
+        <v>0.717835568181789</v>
       </c>
       <c r="N27">
-        <v>3.90286299136794</v>
+        <v>4.050740416573</v>
       </c>
       <c r="O27">
-        <v>392.483053742711</v>
+        <v>390.705496218565</v>
       </c>
       <c r="P27">
-        <v>48.3998012845494</v>
+        <v>49.4703494142391</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>324.534866749924</v>
+        <v>316.236369116432</v>
       </c>
       <c r="C28">
-        <v>36.1070481341798</v>
+        <v>35.2770299967671</v>
       </c>
       <c r="D28">
-        <v>5.34879716372366</v>
+        <v>4.00979037903853</v>
       </c>
       <c r="E28">
-        <v>5.42558636465545</v>
+        <v>7.31469149302728</v>
       </c>
       <c r="F28">
-        <v>2.4341308200119</v>
+        <v>2.37659009306728</v>
       </c>
       <c r="G28">
-        <v>4.22648668254658</v>
+        <v>4.758450227985</v>
       </c>
       <c r="H28">
-        <v>9.9740047617477</v>
+        <v>8.38446420082281</v>
       </c>
       <c r="I28">
-        <v>1.74933116671311</v>
+        <v>3.03435583566199</v>
       </c>
       <c r="J28">
-        <v>17.6791601382016</v>
+        <v>17.7655690187853</v>
       </c>
       <c r="K28">
-        <v>12.7380639005574</v>
+        <v>13.5308301192621</v>
       </c>
       <c r="L28">
-        <v>15.7612548866656</v>
+        <v>16.5174791681263</v>
       </c>
       <c r="M28">
-        <v>8.5292888623871</v>
+        <v>10.2487814950785</v>
       </c>
       <c r="N28">
-        <v>11.3852499987843</v>
+        <v>9.747166748104011</v>
       </c>
       <c r="O28">
-        <v>701.77956450439</v>
+        <v>707.63215401689</v>
       </c>
       <c r="P28">
-        <v>86.21846023405671</v>
+        <v>88.0353342910344</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>482.803169940237</v>
+        <v>485.481542106439</v>
       </c>
       <c r="C29">
-        <v>3.8411683382069</v>
+        <v>4.12339602536549</v>
       </c>
       <c r="D29">
-        <v>3.63247378607252</v>
+        <v>2.71025775537089</v>
       </c>
       <c r="E29">
-        <v>5.34111425677821</v>
+        <v>5.27104195667818</v>
       </c>
       <c r="F29">
-        <v>21.8661428750487</v>
+        <v>21.3656507352247</v>
       </c>
       <c r="G29">
-        <v>2.33322365258715</v>
+        <v>3.08159094083118</v>
       </c>
       <c r="H29">
-        <v>2.94617322525546</v>
+        <v>2.86867889076955</v>
       </c>
       <c r="I29">
-        <v>2.4195403042249</v>
+        <v>2.61101780780567</v>
       </c>
       <c r="J29">
-        <v>5.31274374060468</v>
+        <v>5.78534832088121</v>
       </c>
       <c r="K29">
-        <v>2.65097305724317</v>
+        <v>2.48365072656982</v>
       </c>
       <c r="L29">
-        <v>2.98409923436949</v>
+        <v>3.41416440125827</v>
       </c>
       <c r="M29">
-        <v>2.59997968453161</v>
+        <v>2.60454060119058</v>
       </c>
       <c r="N29">
-        <v>13.0995306244984</v>
+        <v>11.271774369217</v>
       </c>
       <c r="O29">
-        <v>941.382902421551</v>
+        <v>947.862618158441</v>
       </c>
       <c r="P29">
-        <v>7.03555318271294</v>
+        <v>6.15749721043804</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>260.833641794913</v>
+        <v>251.006146439944</v>
       </c>
       <c r="C30">
-        <v>3.90302898440907</v>
+        <v>3.67857100033743</v>
       </c>
       <c r="D30">
-        <v>7.91744033022042</v>
+        <v>6.84729759450403</v>
       </c>
       <c r="E30">
-        <v>14.9000259480024</v>
+        <v>16.6436600790334</v>
       </c>
       <c r="F30">
-        <v>1.41549376977573</v>
+        <v>0.807615017525508</v>
       </c>
       <c r="G30">
-        <v>4.81868189327562</v>
+        <v>4.16015664762362</v>
       </c>
       <c r="H30">
-        <v>5.84894261765584</v>
+        <v>5.46222882535895</v>
       </c>
       <c r="I30">
-        <v>3.20806596264801</v>
+        <v>2.76668205325703</v>
       </c>
       <c r="J30">
-        <v>16.3666351707163</v>
+        <v>16.837776181827</v>
       </c>
       <c r="K30">
-        <v>11.369463806641</v>
+        <v>10.0705430464708</v>
       </c>
       <c r="L30">
-        <v>36.6583146935391</v>
+        <v>39.5836967220167</v>
       </c>
       <c r="M30">
-        <v>10.8117405653368</v>
+        <v>10.3076392830657</v>
       </c>
       <c r="N30">
-        <v>13.0436302590166</v>
+        <v>14.2221985352932</v>
       </c>
       <c r="O30">
-        <v>531.14772792671</v>
+        <v>540.248299715764</v>
       </c>
       <c r="P30">
-        <v>9.818668036769729</v>
+        <v>9.335048798765239</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>1946.53740985169</v>
+        <v>1926.21023007577</v>
       </c>
       <c r="C31">
-        <v>49.2006845393269</v>
+        <v>49.2198625970187</v>
       </c>
       <c r="D31">
-        <v>40.6561381880895</v>
+        <v>37.8580445627297</v>
       </c>
       <c r="E31">
-        <v>51.4463711193861</v>
+        <v>47.7123133843591</v>
       </c>
       <c r="F31">
-        <v>10.3494847600615</v>
+        <v>7.57905789323148</v>
       </c>
       <c r="G31">
-        <v>116.022306652257</v>
+        <v>113.914532859729</v>
       </c>
       <c r="H31">
-        <v>13.6855143861391</v>
+        <v>17.445391644784</v>
       </c>
       <c r="I31">
-        <v>28.2169247514723</v>
+        <v>25.9941491731651</v>
       </c>
       <c r="J31">
-        <v>48.267941801733</v>
+        <v>43.874104226549</v>
       </c>
       <c r="K31">
-        <v>21.0630519682005</v>
+        <v>22.4320473384588</v>
       </c>
       <c r="L31">
-        <v>73.8026010999438</v>
+        <v>73.70285740440519</v>
       </c>
       <c r="M31">
-        <v>17.4389801905459</v>
+        <v>18.5664291714148</v>
       </c>
       <c r="N31">
-        <v>51.624489007157</v>
+        <v>51.0616663509655</v>
       </c>
       <c r="O31">
-        <v>3458.26660174911</v>
+        <v>3479.19539903417</v>
       </c>
       <c r="P31">
-        <v>5.84141348307032</v>
+        <v>9.72496190873329</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>488.450542559201</v>
+        <v>491.408004706822</v>
       </c>
       <c r="C32">
-        <v>6.04959453855386</v>
+        <v>5.72467321967039</v>
       </c>
       <c r="D32">
-        <v>0.792300944434517</v>
+        <v>0.694239936256374</v>
       </c>
       <c r="E32">
-        <v>3.79086900396331</v>
+        <v>2.85267941743887</v>
       </c>
       <c r="F32">
-        <v>24.383797787844</v>
+        <v>24.307150415722</v>
       </c>
       <c r="G32">
-        <v>2.6244971787208</v>
+        <v>2.72096709086197</v>
       </c>
       <c r="H32">
-        <v>2.05065598035594</v>
+        <v>2.15488194506443</v>
       </c>
       <c r="I32">
-        <v>4.83464103831812</v>
+        <v>3.62674010792286</v>
       </c>
       <c r="J32">
-        <v>5.73612881424512</v>
+        <v>5.60452286746548</v>
       </c>
       <c r="K32">
-        <v>1.3694935325466</v>
+        <v>1.73158511350044</v>
       </c>
       <c r="L32">
-        <v>18.4560511133116</v>
+        <v>16.0817866556169</v>
       </c>
       <c r="M32">
-        <v>2.3831264314727</v>
+        <v>2.38445262817485</v>
       </c>
       <c r="N32">
-        <v>6.65188749860893</v>
+        <v>9.3731976425503</v>
       </c>
       <c r="O32">
-        <v>718.685228166931</v>
+        <v>716.893901962812</v>
       </c>
       <c r="P32">
-        <v>21.2366007317202</v>
+        <v>22.1546241123719</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>4988.43897234342</v>
+        <v>4916.33896952492</v>
       </c>
       <c r="C33">
-        <v>81.8841352639604</v>
+        <v>90.3179494516708</v>
       </c>
       <c r="D33">
-        <v>87.4860724399862</v>
+        <v>86.4214737438616</v>
       </c>
       <c r="E33">
-        <v>79.9180656310046</v>
+        <v>86.9427427899672</v>
       </c>
       <c r="F33">
-        <v>7.69756735772602</v>
+        <v>8.629157833072281</v>
       </c>
       <c r="G33">
-        <v>76.3313314565427</v>
+        <v>73.8728816835481</v>
       </c>
       <c r="H33">
-        <v>33.4863349950089</v>
+        <v>35.4869097494065</v>
       </c>
       <c r="I33">
-        <v>31.636005257809</v>
+        <v>32.1155246436294</v>
       </c>
       <c r="J33">
-        <v>111.438783115201</v>
+        <v>101.015095806523</v>
       </c>
       <c r="K33">
-        <v>93.67443002377659</v>
+        <v>92.3360027991736</v>
       </c>
       <c r="L33">
-        <v>126.045399549194</v>
+        <v>127.004460008222</v>
       </c>
       <c r="M33">
-        <v>65.4602543398955</v>
+        <v>69.8762389350851</v>
       </c>
       <c r="N33">
-        <v>138.530247426137</v>
+        <v>141.391329908388</v>
       </c>
       <c r="O33">
-        <v>7223.66153832913</v>
+        <v>7253.47992044449</v>
       </c>
       <c r="P33">
-        <v>67.15454106967979</v>
+        <v>71.65244349871961</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>2035.41036439649</v>
+        <v>1967.96010598515</v>
       </c>
       <c r="C34">
-        <v>71.7666339282093</v>
+        <v>69.0645037880782</v>
       </c>
       <c r="D34">
-        <v>168.654281286068</v>
+        <v>174.79984229613</v>
       </c>
       <c r="E34">
-        <v>51.1925176545858</v>
+        <v>50.8543696301497</v>
       </c>
       <c r="F34">
-        <v>6.65192186722019</v>
+        <v>5.69654479659176</v>
       </c>
       <c r="G34">
-        <v>44.1191932132694</v>
+        <v>49.5013304819729</v>
       </c>
       <c r="H34">
-        <v>41.1307448917573</v>
+        <v>42.3510905684581</v>
       </c>
       <c r="I34">
-        <v>16.5727856607336</v>
+        <v>17.1034037535139</v>
       </c>
       <c r="J34">
-        <v>54.5205633853425</v>
+        <v>56.2788090673525</v>
       </c>
       <c r="K34">
-        <v>43.1633914449676</v>
+        <v>44.407507956556</v>
       </c>
       <c r="L34">
-        <v>87.8093373095748</v>
+        <v>103.926561701773</v>
       </c>
       <c r="M34">
-        <v>38.1514222326927</v>
+        <v>37.974937245385</v>
       </c>
       <c r="N34">
-        <v>123.716935257684</v>
+        <v>124.231147340967</v>
       </c>
       <c r="O34">
-        <v>2848.53868228527</v>
+        <v>2863.52948314779</v>
       </c>
       <c r="P34">
-        <v>65.306068463117</v>
+        <v>69.8147743021337</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>140.540002635962</v>
+        <v>136.450316885412</v>
       </c>
       <c r="C35">
-        <v>8.35301692027754</v>
+        <v>7.77082336419224</v>
       </c>
       <c r="D35">
-        <v>0.684754203986524</v>
+        <v>0.465880701731688</v>
       </c>
       <c r="E35">
-        <v>2.20322603065967</v>
+        <v>2.99788180775108</v>
       </c>
       <c r="F35">
-        <v>4.77095584874872</v>
+        <v>4.87974229240042</v>
       </c>
       <c r="G35">
-        <v>1.3034001953957</v>
+        <v>0.981345640395211</v>
       </c>
       <c r="H35">
-        <v>0.351464710556341</v>
+        <v>0.278317841142278</v>
       </c>
       <c r="I35">
-        <v>1.23894184571551</v>
+        <v>1.4057008536641</v>
       </c>
       <c r="J35">
-        <v>2.99752463774712</v>
+        <v>2.98609496095421</v>
       </c>
       <c r="K35">
-        <v>6.06281939892382</v>
+        <v>6.24867618250287</v>
       </c>
       <c r="L35">
-        <v>2.68974213198806</v>
+        <v>2.51213220982552</v>
       </c>
       <c r="M35">
-        <v>1.97581609302089</v>
+        <v>2.27236544582618</v>
       </c>
       <c r="N35">
-        <v>2.70413762693356</v>
+        <v>2.98737163858667</v>
       </c>
       <c r="O35">
-        <v>273.832235405272</v>
+        <v>276.065062571993</v>
       </c>
       <c r="P35">
-        <v>46.6804096494828</v>
+        <v>46.7332786878693</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>2695.10140221063</v>
+        <v>2717.06995397419</v>
       </c>
       <c r="C36">
-        <v>49.4549510728228</v>
+        <v>57.4689105619948</v>
       </c>
       <c r="D36">
-        <v>14.9223748626434</v>
+        <v>14.0254107062722</v>
       </c>
       <c r="E36">
-        <v>99.1267210996174</v>
+        <v>108.779649440964</v>
       </c>
       <c r="F36">
-        <v>29.0397577741939</v>
+        <v>27.8049343691755</v>
       </c>
       <c r="G36">
-        <v>95.8287100421495</v>
+        <v>87.40494700977961</v>
       </c>
       <c r="H36">
-        <v>94.9307767292802</v>
+        <v>95.28571738225701</v>
       </c>
       <c r="I36">
-        <v>41.2742218225875</v>
+        <v>46.0673527412671</v>
       </c>
       <c r="J36">
-        <v>208.658985280216</v>
+        <v>208.75798905811</v>
       </c>
       <c r="K36">
-        <v>106.295234249718</v>
+        <v>110.278787342835</v>
       </c>
       <c r="L36">
-        <v>78.311392368743</v>
+        <v>83.2670469127047</v>
       </c>
       <c r="M36">
-        <v>225.346251980827</v>
+        <v>229.275143335651</v>
       </c>
       <c r="N36">
-        <v>108.696660560816</v>
+        <v>102.226677288788</v>
       </c>
       <c r="O36">
-        <v>4076.94010680889</v>
+        <v>4046.2077649413</v>
       </c>
       <c r="P36">
-        <v>48.8035187213989</v>
+        <v>45.7122302349557</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>869.486948698155</v>
+        <v>864.551391408549</v>
       </c>
       <c r="C37">
-        <v>23.1147949165891</v>
+        <v>23.7019976420079</v>
       </c>
       <c r="D37">
-        <v>4.4059845628244</v>
+        <v>4.72877201696273</v>
       </c>
       <c r="E37">
-        <v>20.2529934118466</v>
+        <v>20.7669157630686</v>
       </c>
       <c r="F37">
-        <v>35.4500735456561</v>
+        <v>34.3944796779158</v>
       </c>
       <c r="G37">
-        <v>7.81428398491202</v>
+        <v>10.0097654702968</v>
       </c>
       <c r="H37">
-        <v>25.0661289219762</v>
+        <v>23.1067025038979</v>
       </c>
       <c r="I37">
-        <v>11.9024515022058</v>
+        <v>14.4596884594142</v>
       </c>
       <c r="J37">
-        <v>37.510182650318</v>
+        <v>36.2384427476819</v>
       </c>
       <c r="K37">
-        <v>34.8292776720328</v>
+        <v>32.1108642266989</v>
       </c>
       <c r="L37">
-        <v>22.4510244693911</v>
+        <v>19.595019197695</v>
       </c>
       <c r="M37">
-        <v>36.8938720779764</v>
+        <v>37.7151979694791</v>
       </c>
       <c r="N37">
-        <v>17.7056083989462</v>
+        <v>16.1396301787297</v>
       </c>
       <c r="O37">
-        <v>1191.66732171452</v>
+        <v>1201.09850402144</v>
       </c>
       <c r="P37">
-        <v>57.6078976100077</v>
+        <v>57.4200284271333</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>849.2949197585031</v>
+        <v>846.548424518389</v>
       </c>
       <c r="C38">
-        <v>22.2416869097925</v>
+        <v>23.2700341449369</v>
       </c>
       <c r="D38">
-        <v>10.2025868248847</v>
+        <v>9.56892621681388</v>
       </c>
       <c r="E38">
-        <v>55.2654270111575</v>
+        <v>54.7671085473832</v>
       </c>
       <c r="F38">
-        <v>2.60706889264888</v>
+        <v>2.54279810038969</v>
       </c>
       <c r="G38">
-        <v>4.71618784617436</v>
+        <v>7.00098608789765</v>
       </c>
       <c r="H38">
-        <v>4.08182574953678</v>
+        <v>4.44426426988907</v>
       </c>
       <c r="I38">
-        <v>4.19879945446094</v>
+        <v>3.91278194901457</v>
       </c>
       <c r="J38">
-        <v>40.5739843337766</v>
+        <v>39.7161945615482</v>
       </c>
       <c r="K38">
-        <v>7.93275740927289</v>
+        <v>6.69741901885978</v>
       </c>
       <c r="L38">
-        <v>54.4035174604175</v>
+        <v>60.477599288452</v>
       </c>
       <c r="M38">
-        <v>13.7464962894167</v>
+        <v>18.4380448846301</v>
       </c>
       <c r="N38">
-        <v>31.6053979437359</v>
+        <v>29.6774549999845</v>
       </c>
       <c r="O38">
-        <v>1312.30261651062</v>
+        <v>1297.85763600161</v>
       </c>
       <c r="P38">
-        <v>65.0033070285272</v>
+        <v>69.65832968252791</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>3150.43822369401</v>
+        <v>3101.91192538371</v>
       </c>
       <c r="C39">
-        <v>85.4060353169271</v>
+        <v>94.0650038161989</v>
       </c>
       <c r="D39">
-        <v>54.5878057934949</v>
+        <v>54.606201973029</v>
       </c>
       <c r="E39">
-        <v>128.028988356878</v>
+        <v>131.779447043478</v>
       </c>
       <c r="F39">
-        <v>26.9566384221572</v>
+        <v>26.4014317169089</v>
       </c>
       <c r="G39">
-        <v>111.52738990445</v>
+        <v>109.595009902781</v>
       </c>
       <c r="H39">
-        <v>54.6941567354198</v>
+        <v>54.4521604701224</v>
       </c>
       <c r="I39">
-        <v>42.872043237818</v>
+        <v>39.521335052998</v>
       </c>
       <c r="J39">
-        <v>168.57685744815</v>
+        <v>170.575877524188</v>
       </c>
       <c r="K39">
-        <v>105.41576536179</v>
+        <v>100.217639590852</v>
       </c>
       <c r="L39">
-        <v>100.549215246183</v>
+        <v>107.319106318434</v>
       </c>
       <c r="M39">
-        <v>61.0609915600305</v>
+        <v>65.05556321797209</v>
       </c>
       <c r="N39">
-        <v>104.760628558405</v>
+        <v>111.481738723732</v>
       </c>
       <c r="O39">
-        <v>4459.34339077675</v>
+        <v>4485.1479651581</v>
       </c>
       <c r="P39">
-        <v>61.8871034754036</v>
+        <v>68.36394565415991</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>262.457222193684</v>
+        <v>262.660499132098</v>
       </c>
       <c r="C40">
-        <v>3.91929580689867</v>
+        <v>4.27211336232871</v>
       </c>
       <c r="D40">
-        <v>8.566027941387659</v>
+        <v>8.32104522850803</v>
       </c>
       <c r="E40">
-        <v>5.15868882900879</v>
+        <v>5.42895023514006</v>
       </c>
       <c r="F40">
-        <v>0.211238196205714</v>
+        <v>0.331038280897229</v>
       </c>
       <c r="G40">
-        <v>5.3890847173196</v>
+        <v>5.16547652555957</v>
       </c>
       <c r="H40">
-        <v>4.54274931891811</v>
+        <v>4.61796451908486</v>
       </c>
       <c r="I40">
-        <v>1.85895106031362</v>
+        <v>1.28023416890473</v>
       </c>
       <c r="J40">
-        <v>8.8019204468002</v>
+        <v>10.4132806024673</v>
       </c>
       <c r="K40">
-        <v>5.35375664967909</v>
+        <v>5.12618994519521</v>
       </c>
       <c r="L40">
-        <v>16.7849019882484</v>
+        <v>15.5323088403261</v>
       </c>
       <c r="M40">
-        <v>5.83900416539386</v>
+        <v>5.48964988830949</v>
       </c>
       <c r="N40">
-        <v>23.7042755705535</v>
+        <v>22.779046878972</v>
       </c>
       <c r="O40">
-        <v>456.685086776306</v>
+        <v>453.617955116235</v>
       </c>
       <c r="P40">
-        <v>2.59096272739176</v>
+        <v>2.72600600563592</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>1063.2679797096</v>
+        <v>1032.39721235114</v>
       </c>
       <c r="C41">
-        <v>12.7029109626367</v>
+        <v>14.0200899338405</v>
       </c>
       <c r="D41">
-        <v>78.49789783055191</v>
+        <v>87.8352178911835</v>
       </c>
       <c r="E41">
-        <v>29.3156877466396</v>
+        <v>33.2726223185576</v>
       </c>
       <c r="F41">
-        <v>1.026463740875</v>
+        <v>1.76410951856798</v>
       </c>
       <c r="G41">
-        <v>25.6524356064574</v>
+        <v>27.1552842761124</v>
       </c>
       <c r="H41">
-        <v>33.8012058880344</v>
+        <v>35.1430929045636</v>
       </c>
       <c r="I41">
-        <v>15.3559938066449</v>
+        <v>15.5857279438845</v>
       </c>
       <c r="J41">
-        <v>43.105904236093</v>
+        <v>44.2282606224116</v>
       </c>
       <c r="K41">
-        <v>18.9841198505967</v>
+        <v>20.2777993212667</v>
       </c>
       <c r="L41">
-        <v>31.6485288852346</v>
+        <v>34.7113408773259</v>
       </c>
       <c r="M41">
-        <v>22.3334246338677</v>
+        <v>26.0925716120501</v>
       </c>
       <c r="N41">
-        <v>23.0055330573454</v>
+        <v>20.176988117604</v>
       </c>
       <c r="O41">
-        <v>1392.78143007406</v>
+        <v>1402.3401790581</v>
       </c>
       <c r="P41">
-        <v>32.6978377341462</v>
+        <v>33.5790777856748</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>147.062393229915</v>
+        <v>147.647028916391</v>
       </c>
       <c r="C42">
-        <v>6.50345982219106</v>
+        <v>7.14208472352396</v>
       </c>
       <c r="D42">
-        <v>1.67105662495406</v>
+        <v>1.6268564850477</v>
       </c>
       <c r="E42">
-        <v>5.63252529997038</v>
+        <v>6.44529846891263</v>
       </c>
       <c r="F42">
-        <v>2.89878142754191</v>
+        <v>2.53812283443454</v>
       </c>
       <c r="G42">
-        <v>1.71311412773346</v>
+        <v>1.6114556438837</v>
       </c>
       <c r="H42">
-        <v>0.803707230688015</v>
+        <v>0.688417455301081</v>
       </c>
       <c r="I42">
-        <v>0.751094355301673</v>
+        <v>0.923585499219964</v>
       </c>
       <c r="J42">
-        <v>3.63764449389651</v>
+        <v>4.04984316010406</v>
       </c>
       <c r="K42">
-        <v>6.01975106559987</v>
+        <v>5.32999958634639</v>
       </c>
       <c r="L42">
-        <v>8.482223462623001</v>
+        <v>8.62209468376896</v>
       </c>
       <c r="M42">
-        <v>3.79632325010395</v>
+        <v>4.23327054010577</v>
       </c>
       <c r="N42">
-        <v>8.08265985946719</v>
+        <v>8.91521728464436</v>
       </c>
       <c r="O42">
-        <v>348.414210815506</v>
+        <v>345.924128712395</v>
       </c>
       <c r="P42">
-        <v>56.1482160652043</v>
+        <v>54.1775536235174</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1497.84848133049</v>
+        <v>1492.40583792208</v>
       </c>
       <c r="C43">
-        <v>46.3319209598972</v>
+        <v>37.4784830215072</v>
       </c>
       <c r="D43">
-        <v>45.791313702011</v>
+        <v>46.043816120462</v>
       </c>
       <c r="E43">
-        <v>67.6264579262065</v>
+        <v>63.2561143362885</v>
       </c>
       <c r="F43">
-        <v>7.12392783537448</v>
+        <v>6.92551672877366</v>
       </c>
       <c r="G43">
-        <v>17.3904378114533</v>
+        <v>21.3125291609213</v>
       </c>
       <c r="H43">
-        <v>35.7163475777194</v>
+        <v>32.7788381874048</v>
       </c>
       <c r="I43">
-        <v>24.5119977725914</v>
+        <v>25.6243329207052</v>
       </c>
       <c r="J43">
-        <v>49.6399124123762</v>
+        <v>50.0239421078679</v>
       </c>
       <c r="K43">
-        <v>51.3513540090692</v>
+        <v>47.759192177999</v>
       </c>
       <c r="L43">
-        <v>45.6182161033679</v>
+        <v>50.6666639700389</v>
       </c>
       <c r="M43">
-        <v>118.740205174522</v>
+        <v>115.236344460035</v>
       </c>
       <c r="N43">
-        <v>57.0748271430357</v>
+        <v>60.6799493167602</v>
       </c>
       <c r="O43">
-        <v>1960.63019032666</v>
+        <v>1976.41031944984</v>
       </c>
       <c r="P43">
-        <v>38.3687881366413</v>
+        <v>44.3802073458881</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>4850.91738900537</v>
+        <v>4811.40602750096</v>
       </c>
       <c r="C44">
-        <v>137.554569565233</v>
+        <v>129.069007165961</v>
       </c>
       <c r="D44">
-        <v>52.0177639706725</v>
+        <v>46.4059326675212</v>
       </c>
       <c r="E44">
-        <v>108.56223588687</v>
+        <v>98.5287401404846</v>
       </c>
       <c r="F44">
-        <v>225.600726040978</v>
+        <v>231.785420923778</v>
       </c>
       <c r="G44">
-        <v>129.627073587287</v>
+        <v>127.308617035413</v>
       </c>
       <c r="H44">
-        <v>44.1126705191342</v>
+        <v>46.0660116554157</v>
       </c>
       <c r="I44">
-        <v>44.1700098668423</v>
+        <v>41.6815601470686</v>
       </c>
       <c r="J44">
-        <v>112.348737903381</v>
+        <v>113.964112424882</v>
       </c>
       <c r="K44">
-        <v>75.3581556436576</v>
+        <v>75.03180521615501</v>
       </c>
       <c r="L44">
-        <v>195.835378702825</v>
+        <v>189.985095347879</v>
       </c>
       <c r="M44">
-        <v>101.949154311695</v>
+        <v>101.212254877762</v>
       </c>
       <c r="N44">
-        <v>89.1216017661731</v>
+        <v>94.72958935814481</v>
       </c>
       <c r="O44">
-        <v>7621.83712148125</v>
+        <v>7678.44849323235</v>
       </c>
       <c r="P44">
-        <v>205.497180574282</v>
+        <v>222.186507479337</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>458.809819791507</v>
+        <v>458.487455500741</v>
       </c>
       <c r="C45">
-        <v>17.7434629810991</v>
+        <v>17.2098875384951</v>
       </c>
       <c r="D45">
-        <v>2.63802294475126</v>
+        <v>3.20220469276713</v>
       </c>
       <c r="E45">
-        <v>19.9448318135074</v>
+        <v>18.0252250884215</v>
       </c>
       <c r="F45">
-        <v>22.5971945328962</v>
+        <v>22.2831320145331</v>
       </c>
       <c r="G45">
-        <v>6.93193248827963</v>
+        <v>7.66184885447693</v>
       </c>
       <c r="H45">
-        <v>2.00179688828994</v>
+        <v>3.1513093897372</v>
       </c>
       <c r="I45">
-        <v>3.98152182429423</v>
+        <v>3.94188150473582</v>
       </c>
       <c r="J45">
-        <v>23.5358632032947</v>
+        <v>21.3572943535365</v>
       </c>
       <c r="K45">
-        <v>5.6525483539196</v>
+        <v>5.66193924086383</v>
       </c>
       <c r="L45">
-        <v>14.9767447586443</v>
+        <v>15.5454950100524</v>
       </c>
       <c r="M45">
-        <v>19.1002001371835</v>
+        <v>18.9088958367738</v>
       </c>
       <c r="N45">
-        <v>26.7491434813668</v>
+        <v>30.2002396254361</v>
       </c>
       <c r="O45">
-        <v>829.9300196884</v>
+        <v>834.992967390315</v>
       </c>
       <c r="P45">
-        <v>18.8496086490669</v>
+        <v>22.5805409981719</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>139.140285229465</v>
+        <v>134.455220657709</v>
       </c>
       <c r="C46">
-        <v>3.88165896858746</v>
+        <v>4.55224118874133</v>
       </c>
       <c r="D46">
-        <v>1.15478748461946</v>
+        <v>1.73276632915898</v>
       </c>
       <c r="E46">
-        <v>6.50634997770542</v>
+        <v>6.23931062467244</v>
       </c>
       <c r="F46">
-        <v>1.11668017840465</v>
+        <v>1.17216203322994</v>
       </c>
       <c r="G46">
-        <v>3.24651162764521</v>
+        <v>3.37797745669107</v>
       </c>
       <c r="H46">
-        <v>1.59441837125757</v>
+        <v>1.92199074300232</v>
       </c>
       <c r="I46">
-        <v>1.45706545110967</v>
+        <v>1.90413074469691</v>
       </c>
       <c r="J46">
-        <v>4.89214178568237</v>
+        <v>5.05053262400982</v>
       </c>
       <c r="K46">
-        <v>4.66557058990433</v>
+        <v>4.21280791599813</v>
       </c>
       <c r="L46">
-        <v>11.6708282146193</v>
+        <v>12.9864744442062</v>
       </c>
       <c r="M46">
-        <v>3.83445440456489</v>
+        <v>3.79575045935789</v>
       </c>
       <c r="N46">
-        <v>9.77571925822317</v>
+        <v>9.47686827017286</v>
       </c>
       <c r="O46">
-        <v>289.035009451926</v>
+        <v>293.770093790293</v>
       </c>
       <c r="P46">
-        <v>12.7837850576769</v>
+        <v>12.3211002667553</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1625.6957483281</v>
+        <v>1622.03971495306</v>
       </c>
       <c r="C47">
-        <v>53.8883187999439</v>
+        <v>51.9317402908165</v>
       </c>
       <c r="D47">
-        <v>37.2426544325475</v>
+        <v>36.4611499677815</v>
       </c>
       <c r="E47">
-        <v>61.0212083413275</v>
+        <v>56.64201359884</v>
       </c>
       <c r="F47">
-        <v>8.63921790711402</v>
+        <v>11.8485791507908</v>
       </c>
       <c r="G47">
-        <v>23.4597214693866</v>
+        <v>27.1942836757303</v>
       </c>
       <c r="H47">
-        <v>14.025223885094</v>
+        <v>11.8556823915196</v>
       </c>
       <c r="I47">
-        <v>6.16983315609729</v>
+        <v>7.39511694508099</v>
       </c>
       <c r="J47">
-        <v>36.1212013143927</v>
+        <v>41.5838699242013</v>
       </c>
       <c r="K47">
-        <v>17.6516770676479</v>
+        <v>13.8820900327319</v>
       </c>
       <c r="L47">
-        <v>41.3113963814337</v>
+        <v>37.8283270078158</v>
       </c>
       <c r="M47">
-        <v>71.0500582970794</v>
+        <v>71.1225155222232</v>
       </c>
       <c r="N47">
-        <v>39.0446557694153</v>
+        <v>40.2649907449899</v>
       </c>
       <c r="O47">
-        <v>2821.08509654304</v>
+        <v>2829.85576570805</v>
       </c>
       <c r="P47">
-        <v>38.1582281354468</v>
+        <v>37.4229135123278</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1438.03246556434</v>
+        <v>1418.28967518479</v>
       </c>
       <c r="C48">
-        <v>22.3753593270227</v>
+        <v>26.9753872715181</v>
       </c>
       <c r="D48">
-        <v>7.41445795434498</v>
+        <v>5.51457399566572</v>
       </c>
       <c r="E48">
-        <v>70.3629805708552</v>
+        <v>69.9266804690062</v>
       </c>
       <c r="F48">
-        <v>4.52774225457606</v>
+        <v>7.171672004524</v>
       </c>
       <c r="G48">
-        <v>4.56730296716188</v>
+        <v>5.88998512147232</v>
       </c>
       <c r="H48">
-        <v>3.83923424278952</v>
+        <v>3.17216020329252</v>
       </c>
       <c r="I48">
-        <v>8.116343058112809</v>
+        <v>9.225952325368709</v>
       </c>
       <c r="J48">
-        <v>36.4403274484234</v>
+        <v>33.8760472264718</v>
       </c>
       <c r="K48">
-        <v>12.9952294012387</v>
+        <v>15.2771129396658</v>
       </c>
       <c r="L48">
-        <v>41.1609883799456</v>
+        <v>46.844255598782</v>
       </c>
       <c r="M48">
-        <v>108.443658998047</v>
+        <v>119.453702838978</v>
       </c>
       <c r="N48">
-        <v>28.7398601034267</v>
+        <v>31.4559603345608</v>
       </c>
       <c r="O48">
-        <v>2248.18922606315</v>
+        <v>2246.61172836965</v>
       </c>
       <c r="P48">
-        <v>91.2538976066821</v>
+        <v>95.33310743213011</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>680.675031052793</v>
+        <v>679.256991384127</v>
       </c>
       <c r="C49">
-        <v>6.80812845382127</v>
+        <v>6.0090958112466</v>
       </c>
       <c r="D49">
-        <v>3.55501274233375</v>
+        <v>4.03186648534307</v>
       </c>
       <c r="E49">
-        <v>21.7835707830105</v>
+        <v>22.1434797570152</v>
       </c>
       <c r="F49">
-        <v>27.5534269777277</v>
+        <v>27.5158392914447</v>
       </c>
       <c r="G49">
-        <v>16.0637176537138</v>
+        <v>16.0738454053592</v>
       </c>
       <c r="H49">
-        <v>7.08965573357727</v>
+        <v>6.16464517645159</v>
       </c>
       <c r="I49">
-        <v>5.84733107325673</v>
+        <v>6.04196469171318</v>
       </c>
       <c r="J49">
-        <v>21.47989732326</v>
+        <v>21.7037332811751</v>
       </c>
       <c r="K49">
-        <v>4.04385690311308</v>
+        <v>3.8794744158504</v>
       </c>
       <c r="L49">
-        <v>1.60101029301144</v>
+        <v>1.2826617845068</v>
       </c>
       <c r="M49">
-        <v>7.91747605707587</v>
+        <v>6.8628813289004</v>
       </c>
       <c r="N49">
-        <v>4.48726840659735</v>
+        <v>4.69436393986699</v>
       </c>
       <c r="O49">
-        <v>617.034073651455</v>
+        <v>613.510167126578</v>
       </c>
       <c r="P49">
-        <v>7.76677138986956</v>
+        <v>7.3414471707551</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>1057.63908825414</v>
+        <v>1051.79355991948</v>
       </c>
       <c r="C50">
-        <v>79.9842217557392</v>
+        <v>76.5726835775387</v>
       </c>
       <c r="D50">
-        <v>19.0497295489327</v>
+        <v>17.0216323354884</v>
       </c>
       <c r="E50">
-        <v>148.545868753417</v>
+        <v>146.124625453957</v>
       </c>
       <c r="F50">
-        <v>2.85900177383879</v>
+        <v>3.98812923975779</v>
       </c>
       <c r="G50">
-        <v>27.5830045029706</v>
+        <v>28.3605090314859</v>
       </c>
       <c r="H50">
-        <v>38.6628061704371</v>
+        <v>35.8196976998042</v>
       </c>
       <c r="I50">
-        <v>14.691642153121</v>
+        <v>15.8005339854643</v>
       </c>
       <c r="J50">
-        <v>109.772335323719</v>
+        <v>113.652661706486</v>
       </c>
       <c r="K50">
-        <v>83.7087449763946</v>
+        <v>77.496090683747</v>
       </c>
       <c r="L50">
-        <v>56.1848740597015</v>
+        <v>57.3190413699858</v>
       </c>
       <c r="M50">
-        <v>37.1224195535722</v>
+        <v>36.6602424753514</v>
       </c>
       <c r="N50">
-        <v>52.9304065722703</v>
+        <v>57.5929045588445</v>
       </c>
       <c r="O50">
-        <v>1985.48872004566</v>
+        <v>1985.07152766703</v>
       </c>
       <c r="P50">
-        <v>92.2194323912715</v>
+        <v>99.31064195100279</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>133.243227082664</v>
+        <v>132.96158105154</v>
       </c>
       <c r="C51">
-        <v>3.01156164596419</v>
+        <v>3.0201066002917</v>
       </c>
       <c r="D51">
-        <v>0.0968256990868706</v>
+        <v>0.173333033471679</v>
       </c>
       <c r="E51">
-        <v>2.03837093557823</v>
+        <v>2.48916076952341</v>
       </c>
       <c r="F51">
-        <v>30.4230347316369</v>
+        <v>29.3268369326667</v>
       </c>
       <c r="G51">
-        <v>2.29564414193635</v>
+        <v>2.17444971508486</v>
       </c>
       <c r="H51">
-        <v>0.0220270568051283</v>
+        <v>0.018834754981313</v>
       </c>
       <c r="I51">
-        <v>1.1224841391881</v>
+        <v>1.11376252027224</v>
       </c>
       <c r="J51">
-        <v>1.13442443604205</v>
+        <v>1.20302285905159</v>
       </c>
       <c r="K51">
-        <v>1.23693720975991</v>
+        <v>0.935409451398493</v>
       </c>
       <c r="L51">
-        <v>0.338711529948586</v>
+        <v>0.352488916786935</v>
       </c>
       <c r="M51">
-        <v>0.389408543896833</v>
+        <v>0.532058536280433</v>
       </c>
       <c r="N51">
-        <v>1.72685342262271</v>
+        <v>1.39104409491473</v>
       </c>
       <c r="O51">
-        <v>254.296154822973</v>
+        <v>253.809177516992</v>
       </c>
       <c r="P51">
-        <v>22.1604012265925</v>
+        <v>22.3446879816381</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2002.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2002.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>1332.64854428019</v>
+        <v>1339.25558345281</v>
       </c>
       <c r="C2">
-        <v>29.5218205300809</v>
+        <v>30.6763250931962</v>
       </c>
       <c r="D2">
-        <v>49.5483205383625</v>
+        <v>52.2004671210979</v>
       </c>
       <c r="E2">
-        <v>63.5818724091151</v>
+        <v>62.0520845023539</v>
       </c>
       <c r="F2">
-        <v>18.8129828085112</v>
+        <v>19.0281139721565</v>
       </c>
       <c r="G2">
-        <v>15.9559501235863</v>
+        <v>12.871651111484</v>
       </c>
       <c r="H2">
-        <v>25.5854480050731</v>
+        <v>25.4905544137209</v>
       </c>
       <c r="I2">
-        <v>14.2469964390563</v>
+        <v>14.1758396495602</v>
       </c>
       <c r="J2">
-        <v>68.4632360940516</v>
+        <v>61.3136973209553</v>
       </c>
       <c r="K2">
-        <v>17.0211939733481</v>
+        <v>18.88981098811</v>
       </c>
       <c r="L2">
-        <v>39.7940137361575</v>
+        <v>43.7040732055831</v>
       </c>
       <c r="M2">
-        <v>42.9746239309754</v>
+        <v>42.5540605343395</v>
       </c>
       <c r="N2">
-        <v>24.4466539761029</v>
+        <v>19.0226916220413</v>
       </c>
       <c r="O2">
-        <v>1388.58468183974</v>
+        <v>1388.98091381865</v>
       </c>
       <c r="P2">
-        <v>23.7234195764609</v>
+        <v>25.6589461930579</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>155.92873155914</v>
+        <v>118.526483531074</v>
       </c>
       <c r="C3">
-        <v>4.7672472736598</v>
+        <v>3.29376173957348</v>
       </c>
       <c r="D3">
-        <v>0.378499028070742</v>
+        <v>0.166357769082099</v>
       </c>
       <c r="E3">
-        <v>1.32953721955414</v>
+        <v>0.986929997881931</v>
       </c>
       <c r="F3">
-        <v>10.446565677717</v>
+        <v>8.522440880669601</v>
       </c>
       <c r="G3">
-        <v>0.449489216822836</v>
+        <v>0.294780876979085</v>
       </c>
       <c r="H3">
-        <v>0.0857060198438491</v>
+        <v>0.09718771662375871</v>
       </c>
       <c r="I3">
-        <v>0.766418543036996</v>
+        <v>0.529344060294877</v>
       </c>
       <c r="J3">
-        <v>0.566569727879189</v>
+        <v>0.46184256277611</v>
       </c>
       <c r="K3">
-        <v>0.166909922042816</v>
+        <v>0.266636925007241</v>
       </c>
       <c r="L3">
-        <v>0.332366916664093</v>
+        <v>0.306975322361497</v>
       </c>
       <c r="M3">
-        <v>0.789496696274001</v>
+        <v>0.691221183317028</v>
       </c>
       <c r="N3">
-        <v>1.90287753711689</v>
+        <v>2.25303096821219</v>
       </c>
       <c r="O3">
-        <v>308.00738991226</v>
+        <v>240.554603112014</v>
       </c>
       <c r="P3">
-        <v>14.3071816746174</v>
+        <v>10.5169578496576</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>1352.40687272804</v>
+        <v>1352.92539669411</v>
       </c>
       <c r="C4">
-        <v>8.70119117088878</v>
+        <v>9.307323303686781</v>
       </c>
       <c r="D4">
-        <v>2.2543418248219</v>
+        <v>1.64283654492592</v>
       </c>
       <c r="E4">
-        <v>25.2408744742306</v>
+        <v>21.1483035657874</v>
       </c>
       <c r="F4">
-        <v>10.5446036592386</v>
+        <v>15.7619069526769</v>
       </c>
       <c r="G4">
-        <v>7.62422808849956</v>
+        <v>8.773000077426859</v>
       </c>
       <c r="H4">
-        <v>10.2832098674161</v>
+        <v>11.7714221260267</v>
       </c>
       <c r="I4">
-        <v>10.2076345463</v>
+        <v>11.4957926217738</v>
       </c>
       <c r="J4">
-        <v>22.6999605407586</v>
+        <v>17.1486009404043</v>
       </c>
       <c r="K4">
-        <v>5.15549633788087</v>
+        <v>7.53400929223599</v>
       </c>
       <c r="L4">
-        <v>66.9507083550109</v>
+        <v>71.1435320810876</v>
       </c>
       <c r="M4">
-        <v>46.7905545279211</v>
+        <v>43.1503541698802</v>
       </c>
       <c r="N4">
-        <v>33.851622111196</v>
+        <v>33.5068066333932</v>
       </c>
       <c r="O4">
-        <v>1995.74604717964</v>
+        <v>2056.51027284493</v>
       </c>
       <c r="P4">
-        <v>22.7036550141856</v>
+        <v>20.5425089031284</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>729.042549192523</v>
+        <v>741.587946502278</v>
       </c>
       <c r="C5">
-        <v>52.4573557548018</v>
+        <v>50.3783701970864</v>
       </c>
       <c r="D5">
-        <v>12.1368649264576</v>
+        <v>10.6013219870115</v>
       </c>
       <c r="E5">
-        <v>37.5105000337183</v>
+        <v>31.4069896247111</v>
       </c>
       <c r="F5">
-        <v>5.04337567461974</v>
+        <v>5.99563164270357</v>
       </c>
       <c r="G5">
-        <v>5.44202127707029</v>
+        <v>5.46353709402289</v>
       </c>
       <c r="H5">
-        <v>11.7964735040013</v>
+        <v>12.9078207401834</v>
       </c>
       <c r="I5">
-        <v>8.557147715099591</v>
+        <v>8.97950643575377</v>
       </c>
       <c r="J5">
-        <v>30.1003387958363</v>
+        <v>26.2424364027131</v>
       </c>
       <c r="K5">
-        <v>15.6584051854423</v>
+        <v>14.5892162357546</v>
       </c>
       <c r="L5">
-        <v>22.8569231657344</v>
+        <v>24.3736592522463</v>
       </c>
       <c r="M5">
-        <v>23.591751917293</v>
+        <v>27.7574463122751</v>
       </c>
       <c r="N5">
-        <v>22.7135512144529</v>
+        <v>23.6515136707794</v>
       </c>
       <c r="O5">
-        <v>869.366761137696</v>
+        <v>893.450218734613</v>
       </c>
       <c r="P5">
-        <v>56.7237513952626</v>
+        <v>59.5166800050724</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>8280.46293858725</v>
+        <v>8399.56645555214</v>
       </c>
       <c r="C6">
-        <v>190.131194488896</v>
+        <v>196.630149310292</v>
       </c>
       <c r="D6">
-        <v>162.140398599532</v>
+        <v>154.833647314971</v>
       </c>
       <c r="E6">
-        <v>158.772650932072</v>
+        <v>152.012483196062</v>
       </c>
       <c r="F6">
-        <v>42.0258346586464</v>
+        <v>43.2310449363491</v>
       </c>
       <c r="G6">
-        <v>108.065242511055</v>
+        <v>98.4132837620473</v>
       </c>
       <c r="H6">
-        <v>74.6798105697228</v>
+        <v>72.66628942762</v>
       </c>
       <c r="I6">
-        <v>47.8289847261634</v>
+        <v>32.4974814785981</v>
       </c>
       <c r="J6">
-        <v>189.1122896194</v>
+        <v>174.725634547148</v>
       </c>
       <c r="K6">
-        <v>102.838024511458</v>
+        <v>109.040284643885</v>
       </c>
       <c r="L6">
-        <v>498.389894702641</v>
+        <v>539.262590102979</v>
       </c>
       <c r="M6">
-        <v>270.145396453329</v>
+        <v>272.366076948006</v>
       </c>
       <c r="N6">
-        <v>280.49973190318</v>
+        <v>278.976924149527</v>
       </c>
       <c r="O6">
-        <v>12327.6453374372</v>
+        <v>12452.9924233039</v>
       </c>
       <c r="P6">
-        <v>302.269829939276</v>
+        <v>343.242589462189</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>835.979662143786</v>
+        <v>865.89469617304</v>
       </c>
       <c r="C7">
-        <v>33.8881883524569</v>
+        <v>38.4249072782437</v>
       </c>
       <c r="D7">
-        <v>3.29327855209496</v>
+        <v>3.18095403299393</v>
       </c>
       <c r="E7">
-        <v>17.6169157528717</v>
+        <v>18.338795654357</v>
       </c>
       <c r="F7">
-        <v>13.2662322389642</v>
+        <v>12.8722068591478</v>
       </c>
       <c r="G7">
-        <v>6.47109037293109</v>
+        <v>8.09768238152707</v>
       </c>
       <c r="H7">
-        <v>5.16287791236286</v>
+        <v>6.21434021618636</v>
       </c>
       <c r="I7">
-        <v>10.2476937735032</v>
+        <v>10.1680801178438</v>
       </c>
       <c r="J7">
-        <v>17.4623622557487</v>
+        <v>17.3799311413416</v>
       </c>
       <c r="K7">
-        <v>12.745011949077</v>
+        <v>15.6534270943226</v>
       </c>
       <c r="L7">
-        <v>55.3947996316033</v>
+        <v>57.2792285547211</v>
       </c>
       <c r="M7">
-        <v>17.4557074427668</v>
+        <v>17.6134549581086</v>
       </c>
       <c r="N7">
-        <v>30.7596054814818</v>
+        <v>23.2962157734686</v>
       </c>
       <c r="O7">
-        <v>1862.55167722492</v>
+        <v>1907.98946029159</v>
       </c>
       <c r="P7">
-        <v>32.9251507218337</v>
+        <v>25.9518385746351</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>715.864349494898</v>
+        <v>709.273046158213</v>
       </c>
       <c r="C8">
-        <v>12.8080995874494</v>
+        <v>10.1614102669666</v>
       </c>
       <c r="D8">
-        <v>6.40418131474113</v>
+        <v>9.77826429453723</v>
       </c>
       <c r="E8">
-        <v>19.6269369507881</v>
+        <v>16.1047859363242</v>
       </c>
       <c r="F8">
-        <v>3.64539999851324</v>
+        <v>4.2997066545339</v>
       </c>
       <c r="G8">
-        <v>28.3746730855775</v>
+        <v>25.4286764133746</v>
       </c>
       <c r="H8">
-        <v>10.9655770432709</v>
+        <v>12.5764651988278</v>
       </c>
       <c r="I8">
-        <v>5.97725363079798</v>
+        <v>6.81352257837536</v>
       </c>
       <c r="J8">
-        <v>38.2894293386542</v>
+        <v>39.1150595187081</v>
       </c>
       <c r="K8">
-        <v>20.9808694308841</v>
+        <v>24.692514932413</v>
       </c>
       <c r="L8">
-        <v>46.3202969017601</v>
+        <v>40.9250026559852</v>
       </c>
       <c r="M8">
-        <v>49.4539557857627</v>
+        <v>51.926308081649</v>
       </c>
       <c r="N8">
-        <v>27.7542317573637</v>
+        <v>29.3414650997263</v>
       </c>
       <c r="O8">
-        <v>1378.76838121215</v>
+        <v>1409.05375718078</v>
       </c>
       <c r="P8">
-        <v>5.15472877909666</v>
+        <v>5.86727141998619</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>211.628719125725</v>
+        <v>179.804034200906</v>
       </c>
       <c r="C9">
-        <v>8.525421865631751</v>
+        <v>6.83677480485001</v>
       </c>
       <c r="D9">
-        <v>2.10393635833873</v>
+        <v>1.84946629757385</v>
       </c>
       <c r="E9">
-        <v>4.52760927050317</v>
+        <v>3.95995716832884</v>
       </c>
       <c r="F9">
-        <v>1.73870263942983</v>
+        <v>1.20355171074013</v>
       </c>
       <c r="G9">
-        <v>22.6612767053296</v>
+        <v>21.0267250985799</v>
       </c>
       <c r="H9">
-        <v>4.36634379776968</v>
+        <v>4.79712273676842</v>
       </c>
       <c r="I9">
-        <v>1.315238300942</v>
+        <v>1.00965892449667</v>
       </c>
       <c r="J9">
-        <v>4.7879329250747</v>
+        <v>3.85667986813357</v>
       </c>
       <c r="K9">
-        <v>2.25677789021241</v>
+        <v>3.23483294361259</v>
       </c>
       <c r="L9">
-        <v>3.26420852304049</v>
+        <v>1.77825196746905</v>
       </c>
       <c r="M9">
-        <v>8.38702867496947</v>
+        <v>9.393858480451209</v>
       </c>
       <c r="N9">
-        <v>5.10618540512362</v>
+        <v>5.32799401057708</v>
       </c>
       <c r="O9">
-        <v>361.349012755468</v>
+        <v>310.699238909788</v>
       </c>
       <c r="P9">
-        <v>5.76893524723582</v>
+        <v>4.92173849301459</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>4478.26646191483</v>
+        <v>4504.60043635778</v>
       </c>
       <c r="C10">
-        <v>63.9763464341485</v>
+        <v>63.5954076575348</v>
       </c>
       <c r="D10">
-        <v>30.3763538597212</v>
+        <v>25.7121946245799</v>
       </c>
       <c r="E10">
-        <v>53.2293626542995</v>
+        <v>53.1620781044087</v>
       </c>
       <c r="F10">
-        <v>10.6586050555019</v>
+        <v>14.1120217099814</v>
       </c>
       <c r="G10">
-        <v>32.9184996032299</v>
+        <v>33.4480664861003</v>
       </c>
       <c r="H10">
-        <v>19.2281030074852</v>
+        <v>12.873677578683</v>
       </c>
       <c r="I10">
-        <v>39.6987981664983</v>
+        <v>43.627819444231</v>
       </c>
       <c r="J10">
-        <v>55.9416115224335</v>
+        <v>58.7516654160906</v>
       </c>
       <c r="K10">
-        <v>28.500019733607</v>
+        <v>33.4402217320688</v>
       </c>
       <c r="L10">
-        <v>90.9309572579462</v>
+        <v>89.8242666815911</v>
       </c>
       <c r="M10">
-        <v>72.6649835177239</v>
+        <v>78.0642572885144</v>
       </c>
       <c r="N10">
-        <v>89.6427686049913</v>
+        <v>90.4088913043298</v>
       </c>
       <c r="O10">
-        <v>6719.75326250808</v>
+        <v>6775.62329205419</v>
       </c>
       <c r="P10">
-        <v>96.73064546854761</v>
+        <v>111.246489911805</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>1923.93825547089</v>
+        <v>1953.588469689</v>
       </c>
       <c r="C11">
-        <v>72.9545224708847</v>
+        <v>65.9393887883472</v>
       </c>
       <c r="D11">
-        <v>160.781939393716</v>
+        <v>167.182904643593</v>
       </c>
       <c r="E11">
-        <v>74.759177790675</v>
+        <v>59.1772589984398</v>
       </c>
       <c r="F11">
-        <v>4.60939841615188</v>
+        <v>2.42633424817736</v>
       </c>
       <c r="G11">
-        <v>27.8785487190093</v>
+        <v>30.5788380617326</v>
       </c>
       <c r="H11">
-        <v>16.9704077336392</v>
+        <v>16.2517176983133</v>
       </c>
       <c r="I11">
-        <v>16.468631649535</v>
+        <v>14.8064843365705</v>
       </c>
       <c r="J11">
-        <v>48.3757830990343</v>
+        <v>52.6378910859719</v>
       </c>
       <c r="K11">
-        <v>26.5414139756595</v>
+        <v>31.260270147074</v>
       </c>
       <c r="L11">
-        <v>63.0039149662252</v>
+        <v>53.0801837343404</v>
       </c>
       <c r="M11">
-        <v>44.7578907374461</v>
+        <v>44.5583560524852</v>
       </c>
       <c r="N11">
-        <v>49.2812538521916</v>
+        <v>39.2803586203147</v>
       </c>
       <c r="O11">
-        <v>3083.26061645691</v>
+        <v>3131.79050963479</v>
       </c>
       <c r="P11">
-        <v>56.5704615000218</v>
+        <v>57.5137710140331</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>315.033507850401</v>
+        <v>284.432745682918</v>
       </c>
       <c r="C12">
-        <v>7.98594425372621</v>
+        <v>5.51882864614403</v>
       </c>
       <c r="D12">
-        <v>1.03618289852819</v>
+        <v>1.84186316811782</v>
       </c>
       <c r="E12">
-        <v>2.69443178253244</v>
+        <v>3.10205016249031</v>
       </c>
       <c r="F12">
-        <v>0.895892273625455</v>
+        <v>0.930538127157876</v>
       </c>
       <c r="G12">
-        <v>0.482118410095725</v>
+        <v>0.0349207536101672</v>
       </c>
       <c r="H12">
-        <v>0.21165217013397</v>
+        <v>0.210091823438642</v>
       </c>
       <c r="I12">
-        <v>1.26216701381138</v>
+        <v>1.18784246524707</v>
       </c>
       <c r="J12">
-        <v>2.06924014121657</v>
+        <v>2.42787899371888</v>
       </c>
       <c r="K12">
-        <v>0.094474449314059</v>
+        <v>0.139183388653429</v>
       </c>
       <c r="L12">
-        <v>0.519148667183302</v>
+        <v>0.5153356181365441</v>
       </c>
       <c r="M12">
-        <v>3.88421677166546</v>
+        <v>3.60263486251274</v>
       </c>
       <c r="N12">
-        <v>3.92879980568047</v>
+        <v>2.09441222731227</v>
       </c>
       <c r="O12">
-        <v>574.3143048933511</v>
+        <v>509.987885804858</v>
       </c>
       <c r="P12">
-        <v>19.9878298500034</v>
+        <v>21.1029515627481</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>283.043285770612</v>
+        <v>251.749819891875</v>
       </c>
       <c r="C13">
-        <v>19.0393462651775</v>
+        <v>17.7258284365554</v>
       </c>
       <c r="D13">
-        <v>0.6181460975047241</v>
+        <v>0.478137755240563</v>
       </c>
       <c r="E13">
-        <v>13.3639334861405</v>
+        <v>12.1963156568944</v>
       </c>
       <c r="F13">
-        <v>2.82545429381052</v>
+        <v>2.79663479240215</v>
       </c>
       <c r="G13">
-        <v>5.65499355522596</v>
+        <v>5.47874793424765</v>
       </c>
       <c r="H13">
-        <v>2.04987895103593</v>
+        <v>2.75905144988707</v>
       </c>
       <c r="I13">
-        <v>1.25770211546935</v>
+        <v>1.07923911964314</v>
       </c>
       <c r="J13">
-        <v>6.31679758838869</v>
+        <v>6.14769729388419</v>
       </c>
       <c r="K13">
-        <v>4.96052859797416</v>
+        <v>4.74241535992403</v>
       </c>
       <c r="L13">
-        <v>20.9105532212488</v>
+        <v>18.6930776882832</v>
       </c>
       <c r="M13">
-        <v>1.69989209454301</v>
+        <v>1.73343366472584</v>
       </c>
       <c r="N13">
-        <v>5.36627644932138</v>
+        <v>5.61698526834079</v>
       </c>
       <c r="O13">
-        <v>518.366747606207</v>
+        <v>492.260931473072</v>
       </c>
       <c r="P13">
-        <v>54.4338253873852</v>
+        <v>53.0918413168264</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>2783.89879606959</v>
+        <v>2798.55111557846</v>
       </c>
       <c r="C14">
-        <v>113.597350057608</v>
+        <v>132.948915901648</v>
       </c>
       <c r="D14">
-        <v>13.5104535966617</v>
+        <v>16.9597482798657</v>
       </c>
       <c r="E14">
-        <v>86.2938082014702</v>
+        <v>78.90264332344231</v>
       </c>
       <c r="F14">
-        <v>20.033674377828</v>
+        <v>17.1569721318688</v>
       </c>
       <c r="G14">
-        <v>93.176899213193</v>
+        <v>87.79602824217641</v>
       </c>
       <c r="H14">
-        <v>45.1967465475187</v>
+        <v>45.7145726305897</v>
       </c>
       <c r="I14">
-        <v>24.9599853107608</v>
+        <v>29.7269915048803</v>
       </c>
       <c r="J14">
-        <v>149.568108714781</v>
+        <v>150.241091726325</v>
       </c>
       <c r="K14">
-        <v>151.604140346109</v>
+        <v>157.400313171957</v>
       </c>
       <c r="L14">
-        <v>129.434934395123</v>
+        <v>135.418417865541</v>
       </c>
       <c r="M14">
-        <v>78.7449807271649</v>
+        <v>83.1729316208252</v>
       </c>
       <c r="N14">
-        <v>90.0445432891393</v>
+        <v>96.5454075326401</v>
       </c>
       <c r="O14">
-        <v>4718.42617491595</v>
+        <v>4704.14337756794</v>
       </c>
       <c r="P14">
-        <v>64.5982437908373</v>
+        <v>80.97061240615101</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>1366.65519836468</v>
+        <v>1369.89662832217</v>
       </c>
       <c r="C15">
-        <v>32.3290508594193</v>
+        <v>31.9247274411179</v>
       </c>
       <c r="D15">
-        <v>14.8809161401422</v>
+        <v>15.3366001106378</v>
       </c>
       <c r="E15">
-        <v>73.16402113925329</v>
+        <v>62.0953138885084</v>
       </c>
       <c r="F15">
-        <v>18.7286732337228</v>
+        <v>18.7350211782698</v>
       </c>
       <c r="G15">
-        <v>43.8102918801686</v>
+        <v>39.204816298877</v>
       </c>
       <c r="H15">
-        <v>52.2219754658354</v>
+        <v>62.8490015264025</v>
       </c>
       <c r="I15">
-        <v>26.5002343611552</v>
+        <v>27.3567249221861</v>
       </c>
       <c r="J15">
-        <v>158.943617161448</v>
+        <v>150.473742531856</v>
       </c>
       <c r="K15">
-        <v>43.1001751886096</v>
+        <v>47.9197340600725</v>
       </c>
       <c r="L15">
-        <v>43.1806829271328</v>
+        <v>44.1488469099042</v>
       </c>
       <c r="M15">
-        <v>181.488194242495</v>
+        <v>179.221969338677</v>
       </c>
       <c r="N15">
-        <v>88.9788937948202</v>
+        <v>96.4127109799108</v>
       </c>
       <c r="O15">
-        <v>2081.47743684929</v>
+        <v>2089.42690037456</v>
       </c>
       <c r="P15">
-        <v>46.2186030837045</v>
+        <v>46.3060834847677</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>575.017715472732</v>
+        <v>534.169583509295</v>
       </c>
       <c r="C16">
-        <v>63.1537750639979</v>
+        <v>61.7935610691233</v>
       </c>
       <c r="D16">
-        <v>6.17104115139717</v>
+        <v>7.1196547016878</v>
       </c>
       <c r="E16">
-        <v>24.1380451587902</v>
+        <v>25.6675151033767</v>
       </c>
       <c r="F16">
-        <v>3.0247046081961</v>
+        <v>3.84294384187881</v>
       </c>
       <c r="G16">
-        <v>18.6440725514071</v>
+        <v>19.919456350056</v>
       </c>
       <c r="H16">
-        <v>14.5209380989744</v>
+        <v>12.7701038287491</v>
       </c>
       <c r="I16">
-        <v>8.66277782751733</v>
+        <v>6.65872771932145</v>
       </c>
       <c r="J16">
-        <v>47.3806629564192</v>
+        <v>41.4828193765758</v>
       </c>
       <c r="K16">
-        <v>45.7169774026619</v>
+        <v>43.8377582436153</v>
       </c>
       <c r="L16">
-        <v>30.1385953051235</v>
+        <v>26.2869598091688</v>
       </c>
       <c r="M16">
-        <v>27.8582075013655</v>
+        <v>28.4839511975414</v>
       </c>
       <c r="N16">
-        <v>26.9409347343756</v>
+        <v>24.9236584802166</v>
       </c>
       <c r="O16">
-        <v>1139.29737241555</v>
+        <v>1126.60037373467</v>
       </c>
       <c r="P16">
-        <v>86.8465447072457</v>
+        <v>85.85231201265201</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>557.336114490084</v>
+        <v>548.270122990416</v>
       </c>
       <c r="C17">
-        <v>24.2185657870999</v>
+        <v>18.5080863371945</v>
       </c>
       <c r="D17">
-        <v>3.3010776789548</v>
+        <v>1.65263521623819</v>
       </c>
       <c r="E17">
-        <v>20.5696981924195</v>
+        <v>13.2657433912905</v>
       </c>
       <c r="F17">
-        <v>11.8037212766855</v>
+        <v>11.8514266100557</v>
       </c>
       <c r="G17">
-        <v>7.26665009503434</v>
+        <v>5.7952049821196</v>
       </c>
       <c r="H17">
-        <v>8.227270619273529</v>
+        <v>6.59780206916463</v>
       </c>
       <c r="I17">
-        <v>9.219823762963801</v>
+        <v>8.213309284980831</v>
       </c>
       <c r="J17">
-        <v>17.0552866311198</v>
+        <v>12.5348534525459</v>
       </c>
       <c r="K17">
-        <v>13.6298434401526</v>
+        <v>13.212778228135</v>
       </c>
       <c r="L17">
-        <v>9.90841840405996</v>
+        <v>8.125028503395679</v>
       </c>
       <c r="M17">
-        <v>65.78054803686361</v>
+        <v>63.168765116119</v>
       </c>
       <c r="N17">
-        <v>14.6628839075555</v>
+        <v>14.0886942170362</v>
       </c>
       <c r="O17">
-        <v>1074.37503346764</v>
+        <v>1052.57138887595</v>
       </c>
       <c r="P17">
-        <v>59.9620478294715</v>
+        <v>57.947978532204</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>1181.1998638138</v>
+        <v>1155.76983571838</v>
       </c>
       <c r="C18">
-        <v>35.4236891000947</v>
+        <v>35.6137719440147</v>
       </c>
       <c r="D18">
-        <v>7.74217981421326</v>
+        <v>6.63414778601252</v>
       </c>
       <c r="E18">
-        <v>36.4818978874717</v>
+        <v>30.5425057939572</v>
       </c>
       <c r="F18">
-        <v>28.402482993334</v>
+        <v>26.5518996321136</v>
       </c>
       <c r="G18">
-        <v>23.0681765016556</v>
+        <v>21.5396686843828</v>
       </c>
       <c r="H18">
-        <v>20.0433248797714</v>
+        <v>18.0363152536816</v>
       </c>
       <c r="I18">
-        <v>6.08219125812873</v>
+        <v>3.88705701210057</v>
       </c>
       <c r="J18">
-        <v>46.3531837910723</v>
+        <v>46.375247355884</v>
       </c>
       <c r="K18">
-        <v>21.54171219751</v>
+        <v>20.3864781133681</v>
       </c>
       <c r="L18">
-        <v>35.2737191912454</v>
+        <v>36.4537571849502</v>
       </c>
       <c r="M18">
-        <v>67.2869560161941</v>
+        <v>66.7989833009631</v>
       </c>
       <c r="N18">
-        <v>20.6236404036057</v>
+        <v>22.946361496768</v>
       </c>
       <c r="O18">
-        <v>1403.87640609472</v>
+        <v>1334.14350915646</v>
       </c>
       <c r="P18">
-        <v>52.7620656973599</v>
+        <v>59.3452985626933</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>1254.21122098711</v>
+        <v>1202.0272547439</v>
       </c>
       <c r="C19">
-        <v>27.0743777138676</v>
+        <v>23.3450816476216</v>
       </c>
       <c r="D19">
-        <v>7.67561030366971</v>
+        <v>8.407840113702999</v>
       </c>
       <c r="E19">
-        <v>39.9316670181292</v>
+        <v>40.5513383989176</v>
       </c>
       <c r="F19">
-        <v>90.1553727225038</v>
+        <v>93.59483723609419</v>
       </c>
       <c r="G19">
-        <v>41.6741506913039</v>
+        <v>39.4925040579189</v>
       </c>
       <c r="H19">
-        <v>6.2460446213847</v>
+        <v>6.6810055655394</v>
       </c>
       <c r="I19">
-        <v>3.65021331630015</v>
+        <v>2.23891975385896</v>
       </c>
       <c r="J19">
-        <v>14.8756399479622</v>
+        <v>13.061462554536</v>
       </c>
       <c r="K19">
-        <v>12.1997112620026</v>
+        <v>15.6186548861567</v>
       </c>
       <c r="L19">
-        <v>3.91946288359114</v>
+        <v>7.10987438811203</v>
       </c>
       <c r="M19">
-        <v>32.2737167037442</v>
+        <v>26.4306710356427</v>
       </c>
       <c r="N19">
-        <v>9.56498314215602</v>
+        <v>14.0015571723701</v>
       </c>
       <c r="O19">
-        <v>1537.97409318803</v>
+        <v>1535.98921130993</v>
       </c>
       <c r="P19">
-        <v>40.5715960766246</v>
+        <v>44.268929089202</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>309.796444573267</v>
+        <v>302.166112506002</v>
       </c>
       <c r="C20">
-        <v>9.00538942478819</v>
+        <v>7.09930426606035</v>
       </c>
       <c r="D20">
-        <v>10.7639502442514</v>
+        <v>8.103097335253111</v>
       </c>
       <c r="E20">
-        <v>37.8488858357649</v>
+        <v>34.3115951456233</v>
       </c>
       <c r="F20">
-        <v>1.12224461872707</v>
+        <v>1.13753008634117</v>
       </c>
       <c r="G20">
-        <v>2.04329827701264</v>
+        <v>2.2360525808471</v>
       </c>
       <c r="H20">
-        <v>1.5787330406636</v>
+        <v>1.45554451607704</v>
       </c>
       <c r="I20">
-        <v>1.53032992603426</v>
+        <v>1.35772592841584</v>
       </c>
       <c r="J20">
-        <v>4.52402521984774</v>
+        <v>4.74975642114476</v>
       </c>
       <c r="K20">
-        <v>2.98317938344413</v>
+        <v>4.2566194756049</v>
       </c>
       <c r="L20">
-        <v>8.181242161386031</v>
+        <v>7.10151378372466</v>
       </c>
       <c r="M20">
-        <v>17.4883166310484</v>
+        <v>15.6873359292938</v>
       </c>
       <c r="N20">
-        <v>6.48230499876861</v>
+        <v>5.11319326426554</v>
       </c>
       <c r="O20">
-        <v>528.575639722547</v>
+        <v>516.724454918871</v>
       </c>
       <c r="P20">
-        <v>25.1465387432388</v>
+        <v>29.8393458119495</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>1160.28944430759</v>
+        <v>1100.12222410941</v>
       </c>
       <c r="C21">
-        <v>24.8202016717365</v>
+        <v>25.1692557237849</v>
       </c>
       <c r="D21">
-        <v>5.83795083695549</v>
+        <v>5.93744044507097</v>
       </c>
       <c r="E21">
-        <v>21.7872536072739</v>
+        <v>24.1834926330622</v>
       </c>
       <c r="F21">
-        <v>4.34090022057194</v>
+        <v>6.67922976076782</v>
       </c>
       <c r="G21">
-        <v>20.2791249664524</v>
+        <v>23.5315821283209</v>
       </c>
       <c r="H21">
-        <v>6.31919310167548</v>
+        <v>5.27068916827895</v>
       </c>
       <c r="I21">
-        <v>10.1574237939211</v>
+        <v>11.0694607287909</v>
       </c>
       <c r="J21">
-        <v>29.4307841880878</v>
+        <v>29.1805691033658</v>
       </c>
       <c r="K21">
-        <v>4.68479870349038</v>
+        <v>2.58272464641943</v>
       </c>
       <c r="L21">
-        <v>24.3641846277877</v>
+        <v>20.4401754322345</v>
       </c>
       <c r="M21">
-        <v>26.4265195813792</v>
+        <v>22.152957157432</v>
       </c>
       <c r="N21">
-        <v>23.5245252461878</v>
+        <v>27.8723542988655</v>
       </c>
       <c r="O21">
-        <v>2303.54711370623</v>
+        <v>2355.29617530505</v>
       </c>
       <c r="P21">
-        <v>22.1168321721137</v>
+        <v>17.8226261866242</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>1361.73834740827</v>
+        <v>1399.16400642788</v>
       </c>
       <c r="C22">
-        <v>17.2013750746057</v>
+        <v>18.649953602755</v>
       </c>
       <c r="D22">
-        <v>22.3507550404102</v>
+        <v>22.1606328268333</v>
       </c>
       <c r="E22">
-        <v>45.6530196067138</v>
+        <v>38.9950967234238</v>
       </c>
       <c r="F22">
-        <v>3.14374302946805</v>
+        <v>3.48088156752167</v>
       </c>
       <c r="G22">
-        <v>31.5799806075909</v>
+        <v>33.3938538262229</v>
       </c>
       <c r="H22">
-        <v>19.1430260755481</v>
+        <v>16.5236744403037</v>
       </c>
       <c r="I22">
-        <v>8.973098153925269</v>
+        <v>8.159841987962929</v>
       </c>
       <c r="J22">
-        <v>43.1039868331316</v>
+        <v>46.8352715736889</v>
       </c>
       <c r="K22">
-        <v>24.5852195912385</v>
+        <v>27.549981806155</v>
       </c>
       <c r="L22">
-        <v>124.630388069044</v>
+        <v>125.316792310663</v>
       </c>
       <c r="M22">
-        <v>16.7164352460478</v>
+        <v>14.3230895662795</v>
       </c>
       <c r="N22">
-        <v>74.38657516062121</v>
+        <v>82.8640935124664</v>
       </c>
       <c r="O22">
-        <v>2595.67516058292</v>
+        <v>2606.51484275894</v>
       </c>
       <c r="P22">
-        <v>10.6294850105001</v>
+        <v>11.8794112406567</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>2453.85151841243</v>
+        <v>2477.45328025162</v>
       </c>
       <c r="C23">
-        <v>41.3786904739147</v>
+        <v>46.6542650513678</v>
       </c>
       <c r="D23">
-        <v>9.3441670342675</v>
+        <v>10.7694427385506</v>
       </c>
       <c r="E23">
-        <v>49.0319416328819</v>
+        <v>33.2337691949049</v>
       </c>
       <c r="F23">
-        <v>6.16472367236928</v>
+        <v>8.6901151914482</v>
       </c>
       <c r="G23">
-        <v>56.447205825468</v>
+        <v>58.3123991432683</v>
       </c>
       <c r="H23">
-        <v>63.4008227900247</v>
+        <v>65.726186862821</v>
       </c>
       <c r="I23">
-        <v>12.5913441752086</v>
+        <v>15.8073645079732</v>
       </c>
       <c r="J23">
-        <v>135.02918029549</v>
+        <v>132.637835023034</v>
       </c>
       <c r="K23">
-        <v>96.8964407961553</v>
+        <v>102.605775530878</v>
       </c>
       <c r="L23">
-        <v>38.1910782351059</v>
+        <v>38.7592060761631</v>
       </c>
       <c r="M23">
-        <v>539.159357358898</v>
+        <v>540.2594630194631</v>
       </c>
       <c r="N23">
-        <v>80.2896010501558</v>
+        <v>74.5126526106046</v>
       </c>
       <c r="O23">
-        <v>3338.88016369772</v>
+        <v>3324.14935420677</v>
       </c>
       <c r="P23">
-        <v>52.4870738958487</v>
+        <v>59.1306724800814</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>897.386689435764</v>
+        <v>905.377397897278</v>
       </c>
       <c r="C24">
-        <v>57.1892757577025</v>
+        <v>57.5598454466236</v>
       </c>
       <c r="D24">
-        <v>8.00327355773077</v>
+        <v>7.11451760015236</v>
       </c>
       <c r="E24">
-        <v>57.0402770488464</v>
+        <v>59.3428248130353</v>
       </c>
       <c r="F24">
-        <v>11.577114989927</v>
+        <v>13.5512333270477</v>
       </c>
       <c r="G24">
-        <v>30.3259642891293</v>
+        <v>29.8143695607455</v>
       </c>
       <c r="H24">
-        <v>14.928059002483</v>
+        <v>12.213488841567</v>
       </c>
       <c r="I24">
-        <v>18.9353284028151</v>
+        <v>19.0422606980736</v>
       </c>
       <c r="J24">
-        <v>53.0130732818175</v>
+        <v>47.3899095760272</v>
       </c>
       <c r="K24">
-        <v>51.8156943414874</v>
+        <v>57.6614859884621</v>
       </c>
       <c r="L24">
-        <v>66.8647538001028</v>
+        <v>60.6700651270772</v>
       </c>
       <c r="M24">
-        <v>32.2376124328513</v>
+        <v>34.6281756703001</v>
       </c>
       <c r="N24">
-        <v>70.8638223505065</v>
+        <v>70.3043849949604</v>
       </c>
       <c r="O24">
-        <v>1934.80168781786</v>
+        <v>1972.54154138404</v>
       </c>
       <c r="P24">
-        <v>108.524471927268</v>
+        <v>105.486927883962</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>819.62654031434</v>
+        <v>771.681251665482</v>
       </c>
       <c r="C25">
-        <v>40.1675349707336</v>
+        <v>42.9310687473953</v>
       </c>
       <c r="D25">
-        <v>15.6272584295932</v>
+        <v>15.8887852724453</v>
       </c>
       <c r="E25">
-        <v>42.5141682421033</v>
+        <v>40.9925659418042</v>
       </c>
       <c r="F25">
-        <v>15.579498056941</v>
+        <v>13.7865384811657</v>
       </c>
       <c r="G25">
-        <v>7.97811690461582</v>
+        <v>6.65499660545747</v>
       </c>
       <c r="H25">
-        <v>12.7252806687224</v>
+        <v>10.94959309084</v>
       </c>
       <c r="I25">
-        <v>6.02912783376636</v>
+        <v>5.79732651158283</v>
       </c>
       <c r="J25">
-        <v>16.6197770640299</v>
+        <v>16.61427582008</v>
       </c>
       <c r="K25">
-        <v>13.7104677464745</v>
+        <v>15.5727125305115</v>
       </c>
       <c r="L25">
-        <v>17.6184120452625</v>
+        <v>16.2956736469945</v>
       </c>
       <c r="M25">
-        <v>36.5302278810367</v>
+        <v>33.7722362695844</v>
       </c>
       <c r="N25">
-        <v>39.3968439225815</v>
+        <v>41.4704694958389</v>
       </c>
       <c r="O25">
-        <v>917.747831911536</v>
+        <v>873.3026338615271</v>
       </c>
       <c r="P25">
-        <v>44.6295027714031</v>
+        <v>39.7908772350573</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>1236.23047900317</v>
+        <v>1215.89755794985</v>
       </c>
       <c r="C26">
-        <v>63.6616389524726</v>
+        <v>67.41382662478171</v>
       </c>
       <c r="D26">
-        <v>14.1026170357579</v>
+        <v>18.4608687433509</v>
       </c>
       <c r="E26">
-        <v>50.5546402715561</v>
+        <v>41.9898127638126</v>
       </c>
       <c r="F26">
-        <v>11.2022655924684</v>
+        <v>9.04160909591517</v>
       </c>
       <c r="G26">
-        <v>32.1876880235438</v>
+        <v>31.8094702256411</v>
       </c>
       <c r="H26">
-        <v>17.5946621165187</v>
+        <v>26.142614546522</v>
       </c>
       <c r="I26">
-        <v>16.1745428748579</v>
+        <v>21.0800181410067</v>
       </c>
       <c r="J26">
-        <v>55.1988814164037</v>
+        <v>70.6914811421764</v>
       </c>
       <c r="K26">
-        <v>27.3391803477902</v>
+        <v>28.5548538416391</v>
       </c>
       <c r="L26">
-        <v>31.7338400168879</v>
+        <v>33.2246204212988</v>
       </c>
       <c r="M26">
-        <v>80.9643993186664</v>
+        <v>79.0232369161906</v>
       </c>
       <c r="N26">
-        <v>27.9461169835436</v>
+        <v>22.6166328007232</v>
       </c>
       <c r="O26">
-        <v>2152.56359819244</v>
+        <v>2186.524262186</v>
       </c>
       <c r="P26">
-        <v>74.96481979497651</v>
+        <v>75.53423441552459</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>234.22474035303</v>
+        <v>211.536907449642</v>
       </c>
       <c r="C27">
-        <v>3.06689931233599</v>
+        <v>3.4843858719332</v>
       </c>
       <c r="D27">
-        <v>1.12736053079876</v>
+        <v>1.17390179983153</v>
       </c>
       <c r="E27">
-        <v>11.3926967383209</v>
+        <v>9.229954352910619</v>
       </c>
       <c r="F27">
-        <v>6.18248891152598</v>
+        <v>5.00711187958013</v>
       </c>
       <c r="G27">
-        <v>0.908495250255737</v>
+        <v>1.37243701330453</v>
       </c>
       <c r="H27">
-        <v>0.408923778991044</v>
+        <v>0.288562835073794</v>
       </c>
       <c r="I27">
-        <v>2.52582632993341</v>
+        <v>2.59757687217388</v>
       </c>
       <c r="J27">
-        <v>3.22008073374792</v>
+        <v>3.20560056886203</v>
       </c>
       <c r="K27">
-        <v>1.92217102974622</v>
+        <v>2.03863948451133</v>
       </c>
       <c r="L27">
-        <v>1.77423102380724</v>
+        <v>1.13559563526019</v>
       </c>
       <c r="M27">
-        <v>0.717835568181789</v>
+        <v>0.238495459167525</v>
       </c>
       <c r="N27">
-        <v>4.050740416573</v>
+        <v>3.45113234260153</v>
       </c>
       <c r="O27">
-        <v>390.705496218565</v>
+        <v>352.321536533528</v>
       </c>
       <c r="P27">
-        <v>49.4703494142391</v>
+        <v>45.543814179267</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>316.236369116432</v>
+        <v>311.762051390905</v>
       </c>
       <c r="C28">
-        <v>35.2770299967671</v>
+        <v>36.1150009871766</v>
       </c>
       <c r="D28">
-        <v>4.00979037903853</v>
+        <v>5.56553338375426</v>
       </c>
       <c r="E28">
-        <v>7.31469149302728</v>
+        <v>4.37097432295727</v>
       </c>
       <c r="F28">
-        <v>2.37659009306728</v>
+        <v>2.39552344128712</v>
       </c>
       <c r="G28">
-        <v>4.758450227985</v>
+        <v>4.19250266812942</v>
       </c>
       <c r="H28">
-        <v>8.38446420082281</v>
+        <v>9.83161385549108</v>
       </c>
       <c r="I28">
-        <v>3.03435583566199</v>
+        <v>1.871956253482</v>
       </c>
       <c r="J28">
-        <v>17.7655690187853</v>
+        <v>15.8675335645743</v>
       </c>
       <c r="K28">
-        <v>13.5308301192621</v>
+        <v>13.0633408055154</v>
       </c>
       <c r="L28">
-        <v>16.5174791681263</v>
+        <v>15.4122347798616</v>
       </c>
       <c r="M28">
-        <v>10.2487814950785</v>
+        <v>8.14358456334921</v>
       </c>
       <c r="N28">
-        <v>9.747166748104011</v>
+        <v>10.5915028416709</v>
       </c>
       <c r="O28">
-        <v>707.63215401689</v>
+        <v>672.039647031061</v>
       </c>
       <c r="P28">
-        <v>88.0353342910344</v>
+        <v>82.1285843587975</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>485.481542106439</v>
+        <v>466.564548320536</v>
       </c>
       <c r="C29">
-        <v>4.12339602536549</v>
+        <v>3.46675192249348</v>
       </c>
       <c r="D29">
-        <v>2.71025775537089</v>
+        <v>2.83976982728763</v>
       </c>
       <c r="E29">
-        <v>5.27104195667818</v>
+        <v>4.40522239472174</v>
       </c>
       <c r="F29">
-        <v>21.3656507352247</v>
+        <v>21.6138783190041</v>
       </c>
       <c r="G29">
-        <v>3.08159094083118</v>
+        <v>1.83461046049716</v>
       </c>
       <c r="H29">
-        <v>2.86867889076955</v>
+        <v>3.06404917569213</v>
       </c>
       <c r="I29">
-        <v>2.61101780780567</v>
+        <v>2.76526827052533</v>
       </c>
       <c r="J29">
-        <v>5.78534832088121</v>
+        <v>4.57626664283534</v>
       </c>
       <c r="K29">
-        <v>2.48365072656982</v>
+        <v>2.93962886336024</v>
       </c>
       <c r="L29">
-        <v>3.41416440125827</v>
+        <v>2.40149189415599</v>
       </c>
       <c r="M29">
-        <v>2.60454060119058</v>
+        <v>2.22600647588694</v>
       </c>
       <c r="N29">
-        <v>11.271774369217</v>
+        <v>11.0071621065444</v>
       </c>
       <c r="O29">
-        <v>947.862618158441</v>
+        <v>923.598001734644</v>
       </c>
       <c r="P29">
-        <v>6.15749721043804</v>
+        <v>8.66548467030654</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>251.006146439944</v>
+        <v>241.617264653393</v>
       </c>
       <c r="C30">
-        <v>3.67857100033743</v>
+        <v>4.19456755788293</v>
       </c>
       <c r="D30">
-        <v>6.84729759450403</v>
+        <v>8.28168787686727</v>
       </c>
       <c r="E30">
-        <v>16.6436600790334</v>
+        <v>13.4862064407661</v>
       </c>
       <c r="F30">
-        <v>0.807615017525508</v>
+        <v>1.07612225421613</v>
       </c>
       <c r="G30">
-        <v>4.16015664762362</v>
+        <v>4.41655151680925</v>
       </c>
       <c r="H30">
-        <v>5.46222882535895</v>
+        <v>5.29611165197101</v>
       </c>
       <c r="I30">
-        <v>2.76668205325703</v>
+        <v>2.72118652507993</v>
       </c>
       <c r="J30">
-        <v>16.837776181827</v>
+        <v>14.8690463373977</v>
       </c>
       <c r="K30">
-        <v>10.0705430464708</v>
+        <v>11.7569755946188</v>
       </c>
       <c r="L30">
-        <v>39.5836967220167</v>
+        <v>36.310990716939</v>
       </c>
       <c r="M30">
-        <v>10.3076392830657</v>
+        <v>10.3114754427298</v>
       </c>
       <c r="N30">
-        <v>14.2221985352932</v>
+        <v>12.052406675223</v>
       </c>
       <c r="O30">
-        <v>540.248299715764</v>
+        <v>496.464794666633</v>
       </c>
       <c r="P30">
-        <v>9.335048798765239</v>
+        <v>9.879121894441649</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>1926.21023007577</v>
+        <v>1918.12979487816</v>
       </c>
       <c r="C31">
-        <v>49.2198625970187</v>
+        <v>49.7118675597452</v>
       </c>
       <c r="D31">
-        <v>37.8580445627297</v>
+        <v>40.4278137401165</v>
       </c>
       <c r="E31">
-        <v>47.7123133843591</v>
+        <v>49.8965969836742</v>
       </c>
       <c r="F31">
-        <v>7.57905789323148</v>
+        <v>11.8090204113394</v>
       </c>
       <c r="G31">
-        <v>113.914532859729</v>
+        <v>119.589467682661</v>
       </c>
       <c r="H31">
-        <v>17.445391644784</v>
+        <v>13.763250028296</v>
       </c>
       <c r="I31">
-        <v>25.9941491731651</v>
+        <v>28.7730776224132</v>
       </c>
       <c r="J31">
-        <v>43.874104226549</v>
+        <v>52.9781906217808</v>
       </c>
       <c r="K31">
-        <v>22.4320473384588</v>
+        <v>21.1073655120214</v>
       </c>
       <c r="L31">
-        <v>73.70285740440519</v>
+        <v>76.7803328698803</v>
       </c>
       <c r="M31">
-        <v>18.5664291714148</v>
+        <v>17.0725452925175</v>
       </c>
       <c r="N31">
-        <v>51.0616663509655</v>
+        <v>51.2016870994045</v>
       </c>
       <c r="O31">
-        <v>3479.19539903417</v>
+        <v>3503.49578109805</v>
       </c>
       <c r="P31">
-        <v>9.72496190873329</v>
+        <v>5.23571358553962</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>491.408004706822</v>
+        <v>481.667258965078</v>
       </c>
       <c r="C32">
-        <v>5.72467321967039</v>
+        <v>7.44286001949799</v>
       </c>
       <c r="D32">
-        <v>0.694239936256374</v>
+        <v>0.7058604156606501</v>
       </c>
       <c r="E32">
-        <v>2.85267941743887</v>
+        <v>3.32517132224307</v>
       </c>
       <c r="F32">
-        <v>24.307150415722</v>
+        <v>23.8447438304242</v>
       </c>
       <c r="G32">
-        <v>2.72096709086197</v>
+        <v>2.10082251394826</v>
       </c>
       <c r="H32">
-        <v>2.15488194506443</v>
+        <v>2.68850213690378</v>
       </c>
       <c r="I32">
-        <v>3.62674010792286</v>
+        <v>4.87521243949292</v>
       </c>
       <c r="J32">
-        <v>5.60452286746548</v>
+        <v>6.49266062142184</v>
       </c>
       <c r="K32">
-        <v>1.73158511350044</v>
+        <v>1.05143429307345</v>
       </c>
       <c r="L32">
-        <v>16.0817866556169</v>
+        <v>17.7651477349381</v>
       </c>
       <c r="M32">
-        <v>2.38445262817485</v>
+        <v>2.24231755929536</v>
       </c>
       <c r="N32">
-        <v>9.3731976425503</v>
+        <v>6.03385483448264</v>
       </c>
       <c r="O32">
-        <v>716.893901962812</v>
+        <v>691.256039749979</v>
       </c>
       <c r="P32">
-        <v>22.1546241123719</v>
+        <v>19.0073840849904</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>4916.33896952492</v>
+        <v>4970.51782469332</v>
       </c>
       <c r="C33">
-        <v>90.3179494516708</v>
+        <v>79.5343601192817</v>
       </c>
       <c r="D33">
-        <v>86.4214737438616</v>
+        <v>90.26178499466271</v>
       </c>
       <c r="E33">
-        <v>86.9427427899672</v>
+        <v>83.3111289528707</v>
       </c>
       <c r="F33">
-        <v>8.629157833072281</v>
+        <v>7.94566808503361</v>
       </c>
       <c r="G33">
-        <v>73.8728816835481</v>
+        <v>78.9594353307304</v>
       </c>
       <c r="H33">
-        <v>35.4869097494065</v>
+        <v>35.4118928361214</v>
       </c>
       <c r="I33">
-        <v>32.1155246436294</v>
+        <v>31.2891595707591</v>
       </c>
       <c r="J33">
-        <v>101.015095806523</v>
+        <v>111.209064097274</v>
       </c>
       <c r="K33">
-        <v>92.3360027991736</v>
+        <v>99.5289440240728</v>
       </c>
       <c r="L33">
-        <v>127.004460008222</v>
+        <v>130.213448568243</v>
       </c>
       <c r="M33">
-        <v>69.8762389350851</v>
+        <v>65.287896534886</v>
       </c>
       <c r="N33">
-        <v>141.391329908388</v>
+        <v>142.979270679874</v>
       </c>
       <c r="O33">
-        <v>7253.47992044449</v>
+        <v>7283.15443962596</v>
       </c>
       <c r="P33">
-        <v>71.65244349871961</v>
+        <v>67.246894356374</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>1967.96010598515</v>
+        <v>2029.22398555835</v>
       </c>
       <c r="C34">
-        <v>69.0645037880782</v>
+        <v>72.0976722663374</v>
       </c>
       <c r="D34">
-        <v>174.79984229613</v>
+        <v>171.742264618252</v>
       </c>
       <c r="E34">
-        <v>50.8543696301497</v>
+        <v>49.8606210361149</v>
       </c>
       <c r="F34">
-        <v>5.69654479659176</v>
+        <v>7.36575419021344</v>
       </c>
       <c r="G34">
-        <v>49.5013304819729</v>
+        <v>44.7617152924457</v>
       </c>
       <c r="H34">
-        <v>42.3510905684581</v>
+        <v>41.1521369182837</v>
       </c>
       <c r="I34">
-        <v>17.1034037535139</v>
+        <v>19.8220357045291</v>
       </c>
       <c r="J34">
-        <v>56.2788090673525</v>
+        <v>54.2598753467072</v>
       </c>
       <c r="K34">
-        <v>44.407507956556</v>
+        <v>45.8231058473992</v>
       </c>
       <c r="L34">
-        <v>103.926561701773</v>
+        <v>89.3957660764188</v>
       </c>
       <c r="M34">
-        <v>37.974937245385</v>
+        <v>35.5632075813446</v>
       </c>
       <c r="N34">
-        <v>124.231147340967</v>
+        <v>121.7028539955</v>
       </c>
       <c r="O34">
-        <v>2863.52948314779</v>
+        <v>2886.24600347887</v>
       </c>
       <c r="P34">
-        <v>69.8147743021337</v>
+        <v>73.65806722315951</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>136.450316885412</v>
+        <v>124.016206185879</v>
       </c>
       <c r="C35">
-        <v>7.77082336419224</v>
+        <v>7.24820028812268</v>
       </c>
       <c r="D35">
-        <v>0.465880701731688</v>
+        <v>0.610706052249367</v>
       </c>
       <c r="E35">
-        <v>2.99788180775108</v>
+        <v>2.04683743869647</v>
       </c>
       <c r="F35">
-        <v>4.87974229240042</v>
+        <v>4.51670332956077</v>
       </c>
       <c r="G35">
-        <v>0.981345640395211</v>
+        <v>0.901223352469461</v>
       </c>
       <c r="H35">
-        <v>0.278317841142278</v>
+        <v>0.311010458560969</v>
       </c>
       <c r="I35">
-        <v>1.4057008536641</v>
+        <v>1.01974695244918</v>
       </c>
       <c r="J35">
-        <v>2.98609496095421</v>
+        <v>2.65352529720843</v>
       </c>
       <c r="K35">
-        <v>6.24867618250287</v>
+        <v>5.09358961047843</v>
       </c>
       <c r="L35">
-        <v>2.51213220982552</v>
+        <v>2.22079968047371</v>
       </c>
       <c r="M35">
-        <v>2.27236544582618</v>
+        <v>1.82253686198054</v>
       </c>
       <c r="N35">
-        <v>2.98737163858667</v>
+        <v>2.1522691120582</v>
       </c>
       <c r="O35">
-        <v>276.065062571993</v>
+        <v>248.676056570263</v>
       </c>
       <c r="P35">
-        <v>46.7332786878693</v>
+        <v>43.5659308408494</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>2717.06995397419</v>
+        <v>2667.07629778464</v>
       </c>
       <c r="C36">
-        <v>57.4689105619948</v>
+        <v>53.0095378215013</v>
       </c>
       <c r="D36">
-        <v>14.0254107062722</v>
+        <v>15.6207199505107</v>
       </c>
       <c r="E36">
-        <v>108.779649440964</v>
+        <v>95.0746599507475</v>
       </c>
       <c r="F36">
-        <v>27.8049343691755</v>
+        <v>37.8013683424135</v>
       </c>
       <c r="G36">
-        <v>87.40494700977961</v>
+        <v>101.900538206883</v>
       </c>
       <c r="H36">
-        <v>95.28571738225701</v>
+        <v>103.999217605291</v>
       </c>
       <c r="I36">
-        <v>46.0673527412671</v>
+        <v>45.3344209879567</v>
       </c>
       <c r="J36">
-        <v>208.75798905811</v>
+        <v>208.794056253902</v>
       </c>
       <c r="K36">
-        <v>110.278787342835</v>
+        <v>104.403982418176</v>
       </c>
       <c r="L36">
-        <v>83.2670469127047</v>
+        <v>78.8716942452259</v>
       </c>
       <c r="M36">
-        <v>229.275143335651</v>
+        <v>226.505681547099</v>
       </c>
       <c r="N36">
-        <v>102.226677288788</v>
+        <v>106.83910994439</v>
       </c>
       <c r="O36">
-        <v>4046.2077649413</v>
+        <v>4097.1224885251</v>
       </c>
       <c r="P36">
-        <v>45.7122302349557</v>
+        <v>58.403375974012</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>864.551391408549</v>
+        <v>867.4664185096181</v>
       </c>
       <c r="C37">
-        <v>23.7019976420079</v>
+        <v>21.0181002340131</v>
       </c>
       <c r="D37">
-        <v>4.72877201696273</v>
+        <v>4.36470692649438</v>
       </c>
       <c r="E37">
-        <v>20.7669157630686</v>
+        <v>21.0773694119192</v>
       </c>
       <c r="F37">
-        <v>34.3944796779158</v>
+        <v>36.9030968381707</v>
       </c>
       <c r="G37">
-        <v>10.0097654702968</v>
+        <v>8.72816873382795</v>
       </c>
       <c r="H37">
-        <v>23.1067025038979</v>
+        <v>24.8884534225391</v>
       </c>
       <c r="I37">
-        <v>14.4596884594142</v>
+        <v>11.9377467125945</v>
       </c>
       <c r="J37">
-        <v>36.2384427476819</v>
+        <v>38.4126281657174</v>
       </c>
       <c r="K37">
-        <v>32.1108642266989</v>
+        <v>36.42622885579</v>
       </c>
       <c r="L37">
-        <v>19.595019197695</v>
+        <v>22.9371176550334</v>
       </c>
       <c r="M37">
-        <v>37.7151979694791</v>
+        <v>35.9461148631775</v>
       </c>
       <c r="N37">
-        <v>16.1396301787297</v>
+        <v>17.416500088205</v>
       </c>
       <c r="O37">
-        <v>1201.09850402144</v>
+        <v>1208.51524945227</v>
       </c>
       <c r="P37">
-        <v>57.4200284271333</v>
+        <v>59.9063970930844</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>846.548424518389</v>
+        <v>870.073057884194</v>
       </c>
       <c r="C38">
-        <v>23.2700341449369</v>
+        <v>23.1655422148416</v>
       </c>
       <c r="D38">
-        <v>9.56892621681388</v>
+        <v>11.0658902739042</v>
       </c>
       <c r="E38">
-        <v>54.7671085473832</v>
+        <v>55.9727639135555</v>
       </c>
       <c r="F38">
-        <v>2.54279810038969</v>
+        <v>2.30560561687124</v>
       </c>
       <c r="G38">
-        <v>7.00098608789765</v>
+        <v>4.14427858099389</v>
       </c>
       <c r="H38">
-        <v>4.44426426988907</v>
+        <v>4.91176047075764</v>
       </c>
       <c r="I38">
-        <v>3.91278194901457</v>
+        <v>4.31534212108998</v>
       </c>
       <c r="J38">
-        <v>39.7161945615482</v>
+        <v>45.6634052410985</v>
       </c>
       <c r="K38">
-        <v>6.69741901885978</v>
+        <v>9.237803836814059</v>
       </c>
       <c r="L38">
-        <v>60.477599288452</v>
+        <v>53.6332939018635</v>
       </c>
       <c r="M38">
-        <v>18.4380448846301</v>
+        <v>14.7447850692058</v>
       </c>
       <c r="N38">
-        <v>29.6774549999845</v>
+        <v>31.2977419641539</v>
       </c>
       <c r="O38">
-        <v>1297.85763600161</v>
+        <v>1320.27396117562</v>
       </c>
       <c r="P38">
-        <v>69.65832968252791</v>
+        <v>72.0606011161627</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>3101.91192538371</v>
+        <v>3161.35738511528</v>
       </c>
       <c r="C39">
-        <v>94.0650038161989</v>
+        <v>83.49535705095219</v>
       </c>
       <c r="D39">
-        <v>54.606201973029</v>
+        <v>52.1899839907477</v>
       </c>
       <c r="E39">
-        <v>131.779447043478</v>
+        <v>137.246942526002</v>
       </c>
       <c r="F39">
-        <v>26.4014317169089</v>
+        <v>32.2933544459712</v>
       </c>
       <c r="G39">
-        <v>109.595009902781</v>
+        <v>111.758310521719</v>
       </c>
       <c r="H39">
-        <v>54.4521604701224</v>
+        <v>52.4592065218655</v>
       </c>
       <c r="I39">
-        <v>39.521335052998</v>
+        <v>45.959188136814</v>
       </c>
       <c r="J39">
-        <v>170.575877524188</v>
+        <v>176.44256051417</v>
       </c>
       <c r="K39">
-        <v>100.217639590852</v>
+        <v>105.117928892038</v>
       </c>
       <c r="L39">
-        <v>107.319106318434</v>
+        <v>98.0920280738864</v>
       </c>
       <c r="M39">
-        <v>65.05556321797209</v>
+        <v>61.0519277402031</v>
       </c>
       <c r="N39">
-        <v>111.481738723732</v>
+        <v>104.127673198779</v>
       </c>
       <c r="O39">
-        <v>4485.1479651581</v>
+        <v>4467.7348221662</v>
       </c>
       <c r="P39">
-        <v>68.36394565415991</v>
+        <v>62.5437310943434</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>262.660499132098</v>
+        <v>239.754211088816</v>
       </c>
       <c r="C40">
-        <v>4.27211336232871</v>
+        <v>3.78431960122787</v>
       </c>
       <c r="D40">
-        <v>8.32104522850803</v>
+        <v>7.42635313275004</v>
       </c>
       <c r="E40">
-        <v>5.42895023514006</v>
+        <v>4.50053786858598</v>
       </c>
       <c r="F40">
-        <v>0.331038280897229</v>
+        <v>0.0931576425168516</v>
       </c>
       <c r="G40">
-        <v>5.16547652555957</v>
+        <v>5.34818708950619</v>
       </c>
       <c r="H40">
-        <v>4.61796451908486</v>
+        <v>4.45089198170626</v>
       </c>
       <c r="I40">
-        <v>1.28023416890473</v>
+        <v>1.48225927449164</v>
       </c>
       <c r="J40">
-        <v>10.4132806024673</v>
+        <v>6.92695277145852</v>
       </c>
       <c r="K40">
-        <v>5.12618994519521</v>
+        <v>5.06408109316834</v>
       </c>
       <c r="L40">
-        <v>15.5323088403261</v>
+        <v>16.2533028458139</v>
       </c>
       <c r="M40">
-        <v>5.48964988830949</v>
+        <v>5.98931558094757</v>
       </c>
       <c r="N40">
-        <v>22.779046878972</v>
+        <v>21.2759280883721</v>
       </c>
       <c r="O40">
-        <v>453.617955116235</v>
+        <v>423.188676371936</v>
       </c>
       <c r="P40">
-        <v>2.72600600563592</v>
+        <v>2.5969264237457</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>1032.39721235114</v>
+        <v>1059.97944657121</v>
       </c>
       <c r="C41">
-        <v>14.0200899338405</v>
+        <v>13.0308857910263</v>
       </c>
       <c r="D41">
-        <v>87.8352178911835</v>
+        <v>73.4774865551766</v>
       </c>
       <c r="E41">
-        <v>33.2726223185576</v>
+        <v>30.4590131131103</v>
       </c>
       <c r="F41">
-        <v>1.76410951856798</v>
+        <v>1.18982419353068</v>
       </c>
       <c r="G41">
-        <v>27.1552842761124</v>
+        <v>25.0727804304137</v>
       </c>
       <c r="H41">
-        <v>35.1430929045636</v>
+        <v>32.4693328277003</v>
       </c>
       <c r="I41">
-        <v>15.5857279438845</v>
+        <v>19.7295140746007</v>
       </c>
       <c r="J41">
-        <v>44.2282606224116</v>
+        <v>45.1810949849655</v>
       </c>
       <c r="K41">
-        <v>20.2777993212667</v>
+        <v>22.1951348270856</v>
       </c>
       <c r="L41">
-        <v>34.7113408773259</v>
+        <v>29.6272056464344</v>
       </c>
       <c r="M41">
-        <v>26.0925716120501</v>
+        <v>21.3995214173211</v>
       </c>
       <c r="N41">
-        <v>20.176988117604</v>
+        <v>25.7485761973989</v>
       </c>
       <c r="O41">
-        <v>1402.3401790581</v>
+        <v>1403.9018998547</v>
       </c>
       <c r="P41">
-        <v>33.5790777856748</v>
+        <v>38.8127482125264</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>147.647028916391</v>
+        <v>120.864183019533</v>
       </c>
       <c r="C42">
-        <v>7.14208472352396</v>
+        <v>5.57201802491343</v>
       </c>
       <c r="D42">
-        <v>1.6268564850477</v>
+        <v>1.43587555190915</v>
       </c>
       <c r="E42">
-        <v>6.44529846891263</v>
+        <v>4.12871689178762</v>
       </c>
       <c r="F42">
-        <v>2.53812283443454</v>
+        <v>2.51815496684176</v>
       </c>
       <c r="G42">
-        <v>1.6114556438837</v>
+        <v>1.57029100384779</v>
       </c>
       <c r="H42">
-        <v>0.688417455301081</v>
+        <v>0.666794809434625</v>
       </c>
       <c r="I42">
-        <v>0.923585499219964</v>
+        <v>0.402111159191335</v>
       </c>
       <c r="J42">
-        <v>4.04984316010406</v>
+        <v>3.13254574576069</v>
       </c>
       <c r="K42">
-        <v>5.32999958634639</v>
+        <v>4.58505392746653</v>
       </c>
       <c r="L42">
-        <v>8.62209468376896</v>
+        <v>7.1106458909008</v>
       </c>
       <c r="M42">
-        <v>4.23327054010577</v>
+        <v>3.33504000097085</v>
       </c>
       <c r="N42">
-        <v>8.91521728464436</v>
+        <v>6.56737079263809</v>
       </c>
       <c r="O42">
-        <v>345.924128712395</v>
+        <v>292.034747998301</v>
       </c>
       <c r="P42">
-        <v>54.1775536235174</v>
+        <v>48.6130447537772</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1492.40583792208</v>
+        <v>1495.30720668469</v>
       </c>
       <c r="C43">
-        <v>37.4784830215072</v>
+        <v>48.2604049546687</v>
       </c>
       <c r="D43">
-        <v>46.043816120462</v>
+        <v>48.8233315368062</v>
       </c>
       <c r="E43">
-        <v>63.2561143362885</v>
+        <v>71.4079930676603</v>
       </c>
       <c r="F43">
-        <v>6.92551672877366</v>
+        <v>6.65851017944608</v>
       </c>
       <c r="G43">
-        <v>21.3125291609213</v>
+        <v>18.4518169195252</v>
       </c>
       <c r="H43">
-        <v>32.7788381874048</v>
+        <v>35.0441534903284</v>
       </c>
       <c r="I43">
-        <v>25.6243329207052</v>
+        <v>24.816021273713</v>
       </c>
       <c r="J43">
-        <v>50.0239421078679</v>
+        <v>48.2690442403896</v>
       </c>
       <c r="K43">
-        <v>47.759192177999</v>
+        <v>54.1663420508448</v>
       </c>
       <c r="L43">
-        <v>50.6666639700389</v>
+        <v>48.65400895749</v>
       </c>
       <c r="M43">
-        <v>115.236344460035</v>
+        <v>115.801636936987</v>
       </c>
       <c r="N43">
-        <v>60.6799493167602</v>
+        <v>60.1385900132094</v>
       </c>
       <c r="O43">
-        <v>1976.41031944984</v>
+        <v>1995.6349058912</v>
       </c>
       <c r="P43">
-        <v>44.3802073458881</v>
+        <v>34.4993731857094</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>4811.40602750096</v>
+        <v>4891.43759898913</v>
       </c>
       <c r="C44">
-        <v>129.069007165961</v>
+        <v>142.471296393264</v>
       </c>
       <c r="D44">
-        <v>46.4059326675212</v>
+        <v>51.7370748720445</v>
       </c>
       <c r="E44">
-        <v>98.5287401404846</v>
+        <v>108.206825154463</v>
       </c>
       <c r="F44">
-        <v>231.785420923778</v>
+        <v>236.394280842183</v>
       </c>
       <c r="G44">
-        <v>127.308617035413</v>
+        <v>127.418428090357</v>
       </c>
       <c r="H44">
-        <v>46.0660116554157</v>
+        <v>45.4573333965483</v>
       </c>
       <c r="I44">
-        <v>41.6815601470686</v>
+        <v>41.4540157860001</v>
       </c>
       <c r="J44">
-        <v>113.964112424882</v>
+        <v>115.94973739809</v>
       </c>
       <c r="K44">
-        <v>75.03180521615501</v>
+        <v>72.6956815666277</v>
       </c>
       <c r="L44">
-        <v>189.985095347879</v>
+        <v>200.763035576929</v>
       </c>
       <c r="M44">
-        <v>101.212254877762</v>
+        <v>98.6326244162622</v>
       </c>
       <c r="N44">
-        <v>94.72958935814481</v>
+        <v>90.37814556876261</v>
       </c>
       <c r="O44">
-        <v>7678.44849323235</v>
+        <v>7810.36462157207</v>
       </c>
       <c r="P44">
-        <v>222.186507479337</v>
+        <v>212.91793447387</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>458.487455500741</v>
+        <v>443.409991922918</v>
       </c>
       <c r="C45">
-        <v>17.2098875384951</v>
+        <v>16.6853523963</v>
       </c>
       <c r="D45">
-        <v>3.20220469276713</v>
+        <v>2.59137185459577</v>
       </c>
       <c r="E45">
-        <v>18.0252250884215</v>
+        <v>18.0180556122487</v>
       </c>
       <c r="F45">
-        <v>22.2831320145331</v>
+        <v>22.8877195729819</v>
       </c>
       <c r="G45">
-        <v>7.66184885447693</v>
+        <v>6.70786730506407</v>
       </c>
       <c r="H45">
-        <v>3.1513093897372</v>
+        <v>2.11804634521129</v>
       </c>
       <c r="I45">
-        <v>3.94188150473582</v>
+        <v>4.18815806187459</v>
       </c>
       <c r="J45">
-        <v>21.3572943535365</v>
+        <v>23.9686613095967</v>
       </c>
       <c r="K45">
-        <v>5.66193924086383</v>
+        <v>5.51125181521239</v>
       </c>
       <c r="L45">
-        <v>15.5454950100524</v>
+        <v>13.6382973603486</v>
       </c>
       <c r="M45">
-        <v>18.9088958367738</v>
+        <v>18.7748283606494</v>
       </c>
       <c r="N45">
-        <v>30.2002396254361</v>
+        <v>24.8916084816843</v>
       </c>
       <c r="O45">
-        <v>834.992967390315</v>
+        <v>814.663299061937</v>
       </c>
       <c r="P45">
-        <v>22.5805409981719</v>
+        <v>17.5998044672464</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>134.455220657709</v>
+        <v>120.2226317921</v>
       </c>
       <c r="C46">
-        <v>4.55224118874133</v>
+        <v>3.03543506612692</v>
       </c>
       <c r="D46">
-        <v>1.73276632915898</v>
+        <v>1.00596380314059</v>
       </c>
       <c r="E46">
-        <v>6.23931062467244</v>
+        <v>5.62139072903496</v>
       </c>
       <c r="F46">
-        <v>1.17216203322994</v>
+        <v>0.781421911243978</v>
       </c>
       <c r="G46">
-        <v>3.37797745669107</v>
+        <v>3.11429126766757</v>
       </c>
       <c r="H46">
-        <v>1.92199074300232</v>
+        <v>1.50119510011399</v>
       </c>
       <c r="I46">
-        <v>1.90413074469691</v>
+        <v>1.16481350508427</v>
       </c>
       <c r="J46">
-        <v>5.05053262400982</v>
+        <v>3.69811203940572</v>
       </c>
       <c r="K46">
-        <v>4.21280791599813</v>
+        <v>4.28451570100384</v>
       </c>
       <c r="L46">
-        <v>12.9864744442062</v>
+        <v>9.882175331105159</v>
       </c>
       <c r="M46">
-        <v>3.79575045935789</v>
+        <v>2.92298035950707</v>
       </c>
       <c r="N46">
-        <v>9.47686827017286</v>
+        <v>8.517646845587439</v>
       </c>
       <c r="O46">
-        <v>293.770093790293</v>
+        <v>248.277872229963</v>
       </c>
       <c r="P46">
-        <v>12.3211002667553</v>
+        <v>11.3501336347582</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1622.03971495306</v>
+        <v>1644.1102731656</v>
       </c>
       <c r="C47">
-        <v>51.9317402908165</v>
+        <v>53.5951480989402</v>
       </c>
       <c r="D47">
-        <v>36.4611499677815</v>
+        <v>42.4053250824916</v>
       </c>
       <c r="E47">
-        <v>56.64201359884</v>
+        <v>62.6050143937521</v>
       </c>
       <c r="F47">
-        <v>11.8485791507908</v>
+        <v>9.786611138952949</v>
       </c>
       <c r="G47">
-        <v>27.1942836757303</v>
+        <v>23.478615020432</v>
       </c>
       <c r="H47">
-        <v>11.8556823915196</v>
+        <v>14.0969904495722</v>
       </c>
       <c r="I47">
-        <v>7.39511694508099</v>
+        <v>5.64431448183533</v>
       </c>
       <c r="J47">
-        <v>41.5838699242013</v>
+        <v>39.981090536467</v>
       </c>
       <c r="K47">
-        <v>13.8820900327319</v>
+        <v>19.1727006455701</v>
       </c>
       <c r="L47">
-        <v>37.8283270078158</v>
+        <v>41.7230419636063</v>
       </c>
       <c r="M47">
-        <v>71.1225155222232</v>
+        <v>72.88134333900349</v>
       </c>
       <c r="N47">
-        <v>40.2649907449899</v>
+        <v>39.4961390619237</v>
       </c>
       <c r="O47">
-        <v>2829.85576570805</v>
+        <v>2826.66604953597</v>
       </c>
       <c r="P47">
-        <v>37.4229135123278</v>
+        <v>39.9239033161802</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1418.28967518479</v>
+        <v>1412.87894159858</v>
       </c>
       <c r="C48">
-        <v>26.9753872715181</v>
+        <v>20.538754415914</v>
       </c>
       <c r="D48">
-        <v>5.51457399566572</v>
+        <v>8.570470945033049</v>
       </c>
       <c r="E48">
-        <v>69.9266804690062</v>
+        <v>69.81949594579849</v>
       </c>
       <c r="F48">
-        <v>7.171672004524</v>
+        <v>3.84847574729453</v>
       </c>
       <c r="G48">
-        <v>5.88998512147232</v>
+        <v>3.13087826721304</v>
       </c>
       <c r="H48">
-        <v>3.17216020329252</v>
+        <v>4.02636926220511</v>
       </c>
       <c r="I48">
-        <v>9.225952325368709</v>
+        <v>7.44237773484254</v>
       </c>
       <c r="J48">
-        <v>33.8760472264718</v>
+        <v>38.9244330505157</v>
       </c>
       <c r="K48">
-        <v>15.2771129396658</v>
+        <v>13.7050366882088</v>
       </c>
       <c r="L48">
-        <v>46.844255598782</v>
+        <v>42.3135380424755</v>
       </c>
       <c r="M48">
-        <v>119.453702838978</v>
+        <v>110.874538063182</v>
       </c>
       <c r="N48">
-        <v>31.4559603345608</v>
+        <v>27.6046747126414</v>
       </c>
       <c r="O48">
-        <v>2246.61172836965</v>
+        <v>2319.59977733771</v>
       </c>
       <c r="P48">
-        <v>95.33310743213011</v>
+        <v>95.72353911775301</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>679.256991384127</v>
+        <v>630.038915980655</v>
       </c>
       <c r="C49">
-        <v>6.0090958112466</v>
+        <v>6.87969886914132</v>
       </c>
       <c r="D49">
-        <v>4.03186648534307</v>
+        <v>3.6549050874728</v>
       </c>
       <c r="E49">
-        <v>22.1434797570152</v>
+        <v>19.5573050160807</v>
       </c>
       <c r="F49">
-        <v>27.5158392914447</v>
+        <v>26.8667587386452</v>
       </c>
       <c r="G49">
-        <v>16.0738454053592</v>
+        <v>14.7481534230582</v>
       </c>
       <c r="H49">
-        <v>6.16464517645159</v>
+        <v>7.29764388285418</v>
       </c>
       <c r="I49">
-        <v>6.04196469171318</v>
+        <v>6.12293102361581</v>
       </c>
       <c r="J49">
-        <v>21.7037332811751</v>
+        <v>19.8511807031014</v>
       </c>
       <c r="K49">
-        <v>3.8794744158504</v>
+        <v>3.55019780824891</v>
       </c>
       <c r="L49">
-        <v>1.2826617845068</v>
+        <v>1.30615754567511</v>
       </c>
       <c r="M49">
-        <v>6.8628813289004</v>
+        <v>7.61575617074261</v>
       </c>
       <c r="N49">
-        <v>4.69436393986699</v>
+        <v>5.17736205647923</v>
       </c>
       <c r="O49">
-        <v>613.510167126578</v>
+        <v>583.294645755373</v>
       </c>
       <c r="P49">
-        <v>7.3414471707551</v>
+        <v>7.80862886390421</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>1051.79355991948</v>
+        <v>1042.02177631595</v>
       </c>
       <c r="C50">
-        <v>76.5726835775387</v>
+        <v>76.7169417308813</v>
       </c>
       <c r="D50">
-        <v>17.0216323354884</v>
+        <v>19.5401132231989</v>
       </c>
       <c r="E50">
-        <v>146.124625453957</v>
+        <v>148.84988154106</v>
       </c>
       <c r="F50">
-        <v>3.98812923975779</v>
+        <v>4.12731917373015</v>
       </c>
       <c r="G50">
-        <v>28.3605090314859</v>
+        <v>29.8172190472875</v>
       </c>
       <c r="H50">
-        <v>35.8196976998042</v>
+        <v>40.921480116032</v>
       </c>
       <c r="I50">
-        <v>15.8005339854643</v>
+        <v>15.0148842826709</v>
       </c>
       <c r="J50">
-        <v>113.652661706486</v>
+        <v>111.688946709863</v>
       </c>
       <c r="K50">
-        <v>77.496090683747</v>
+        <v>92.5322541805819</v>
       </c>
       <c r="L50">
-        <v>57.3190413699858</v>
+        <v>50.9770829538451</v>
       </c>
       <c r="M50">
-        <v>36.6602424753514</v>
+        <v>36.0601531296924</v>
       </c>
       <c r="N50">
-        <v>57.5929045588445</v>
+        <v>50.2082061338788</v>
       </c>
       <c r="O50">
-        <v>1985.07152766703</v>
+        <v>2019.19919143851</v>
       </c>
       <c r="P50">
-        <v>99.31064195100279</v>
+        <v>91.2218373384749</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>132.96158105154</v>
+        <v>101.911031756971</v>
       </c>
       <c r="C51">
-        <v>3.0201066002917</v>
+        <v>2.19152534948548</v>
       </c>
       <c r="D51">
-        <v>0.173333033471679</v>
+        <v>0.222926334860621</v>
       </c>
       <c r="E51">
-        <v>2.48916076952341</v>
+        <v>1.40002464081904</v>
       </c>
       <c r="F51">
-        <v>29.3268369326667</v>
+        <v>24.284674874605</v>
       </c>
       <c r="G51">
-        <v>2.17444971508486</v>
+        <v>1.79911096806676</v>
       </c>
       <c r="H51">
-        <v>0.018834754981313</v>
+        <v>0.00299155979975493</v>
       </c>
       <c r="I51">
-        <v>1.11376252027224</v>
+        <v>0.787815342987285</v>
       </c>
       <c r="J51">
-        <v>1.20302285905159</v>
+        <v>0.691717435690288</v>
       </c>
       <c r="K51">
-        <v>0.935409451398493</v>
+        <v>0.910243598564639</v>
       </c>
       <c r="L51">
-        <v>0.352488916786935</v>
+        <v>0.178870233882287</v>
       </c>
       <c r="M51">
-        <v>0.532058536280433</v>
+        <v>0.178342930334149</v>
       </c>
       <c r="N51">
-        <v>1.39104409491473</v>
+        <v>1.44081094723729</v>
       </c>
       <c r="O51">
-        <v>253.809177516992</v>
+        <v>195.035173996728</v>
       </c>
       <c r="P51">
-        <v>22.3446879816381</v>
+        <v>17.4404809085636</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2002.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2002.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>1339.25558345281</v>
+        <v>1441.86940353576</v>
       </c>
       <c r="C2">
-        <v>30.6763250931962</v>
+        <v>31.2484139666823</v>
       </c>
       <c r="D2">
-        <v>52.2004671210979</v>
+        <v>48.588911677776</v>
       </c>
       <c r="E2">
-        <v>62.0520845023539</v>
+        <v>49.6618980771718</v>
       </c>
       <c r="F2">
-        <v>19.0281139721565</v>
+        <v>17.0795803662836</v>
       </c>
       <c r="G2">
-        <v>12.871651111484</v>
+        <v>14.336819130571</v>
       </c>
       <c r="H2">
-        <v>25.4905544137209</v>
+        <v>22.3133057831177</v>
       </c>
       <c r="I2">
-        <v>14.1758396495602</v>
+        <v>7.48445820591954</v>
       </c>
       <c r="J2">
-        <v>61.3136973209553</v>
+        <v>60.4761700147003</v>
       </c>
       <c r="K2">
-        <v>18.88981098811</v>
+        <v>25.8543921749366</v>
       </c>
       <c r="L2">
-        <v>43.7040732055831</v>
+        <v>48.3873825060532</v>
       </c>
       <c r="M2">
-        <v>42.5540605343395</v>
+        <v>37.5675502748237</v>
       </c>
       <c r="N2">
-        <v>19.0226916220413</v>
+        <v>25.1370007105529</v>
       </c>
       <c r="O2">
-        <v>1388.98091381865</v>
+        <v>1299.69650019524</v>
       </c>
       <c r="P2">
-        <v>25.6589461930579</v>
+        <v>25.1033489902666</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>118.526483531074</v>
+        <v>136.431958454314</v>
       </c>
       <c r="C3">
-        <v>3.29376173957348</v>
+        <v>2.7704547626976</v>
       </c>
       <c r="D3">
-        <v>0.166357769082099</v>
+        <v>0.191344479896676</v>
       </c>
       <c r="E3">
-        <v>0.986929997881931</v>
+        <v>2.15205632752994</v>
       </c>
       <c r="F3">
-        <v>8.522440880669601</v>
+        <v>8.42825241322053</v>
       </c>
       <c r="G3">
-        <v>0.294780876979085</v>
+        <v>0.374340409953637</v>
       </c>
       <c r="H3">
-        <v>0.09718771662375871</v>
+        <v>0.0175935867868989</v>
       </c>
       <c r="I3">
-        <v>0.529344060294877</v>
+        <v>0.528795241387681</v>
       </c>
       <c r="J3">
-        <v>0.46184256277611</v>
+        <v>0.735548701069214</v>
       </c>
       <c r="K3">
-        <v>0.266636925007241</v>
+        <v>0.224608601677189</v>
       </c>
       <c r="L3">
-        <v>0.306975322361497</v>
+        <v>0.277105473614117</v>
       </c>
       <c r="M3">
-        <v>0.691221183317028</v>
+        <v>0.712930084813456</v>
       </c>
       <c r="N3">
-        <v>2.25303096821219</v>
+        <v>2.52798275690557</v>
       </c>
       <c r="O3">
-        <v>240.554603112014</v>
+        <v>236.705344194667</v>
       </c>
       <c r="P3">
-        <v>10.5169578496576</v>
+        <v>8.791267154446169</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>1352.92539669411</v>
+        <v>1527.80430164478</v>
       </c>
       <c r="C4">
-        <v>9.307323303686781</v>
+        <v>7.2475690690157</v>
       </c>
       <c r="D4">
-        <v>1.64283654492592</v>
+        <v>3.41796406050848</v>
       </c>
       <c r="E4">
-        <v>21.1483035657874</v>
+        <v>11.9222950766554</v>
       </c>
       <c r="F4">
-        <v>15.7619069526769</v>
+        <v>9.87847157148728</v>
       </c>
       <c r="G4">
-        <v>8.773000077426859</v>
+        <v>7.08616372817987</v>
       </c>
       <c r="H4">
-        <v>11.7714221260267</v>
+        <v>12.8517866054452</v>
       </c>
       <c r="I4">
-        <v>11.4957926217738</v>
+        <v>13.326461267173</v>
       </c>
       <c r="J4">
-        <v>17.1486009404043</v>
+        <v>8.42112073934047</v>
       </c>
       <c r="K4">
-        <v>7.53400929223599</v>
+        <v>7.73299051196479</v>
       </c>
       <c r="L4">
-        <v>71.1435320810876</v>
+        <v>51.8050439294129</v>
       </c>
       <c r="M4">
-        <v>43.1503541698802</v>
+        <v>33.7621073673202</v>
       </c>
       <c r="N4">
-        <v>33.5068066333932</v>
+        <v>16.4013959472494</v>
       </c>
       <c r="O4">
-        <v>2056.51027284493</v>
+        <v>1961.35809140742</v>
       </c>
       <c r="P4">
-        <v>20.5425089031284</v>
+        <v>20.3469357149703</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>741.587946502278</v>
+        <v>815.322762292314</v>
       </c>
       <c r="C5">
-        <v>50.3783701970864</v>
+        <v>41.7997151864216</v>
       </c>
       <c r="D5">
-        <v>10.6013219870115</v>
+        <v>7.69596568815517</v>
       </c>
       <c r="E5">
-        <v>31.4069896247111</v>
+        <v>24.4486324131988</v>
       </c>
       <c r="F5">
-        <v>5.99563164270357</v>
+        <v>3.17642075595968</v>
       </c>
       <c r="G5">
-        <v>5.46353709402289</v>
+        <v>5.3910325629043</v>
       </c>
       <c r="H5">
-        <v>12.9078207401834</v>
+        <v>14.4391218192827</v>
       </c>
       <c r="I5">
-        <v>8.97950643575377</v>
+        <v>9.761918331025161</v>
       </c>
       <c r="J5">
-        <v>26.2424364027131</v>
+        <v>26.3915860797777</v>
       </c>
       <c r="K5">
-        <v>14.5892162357546</v>
+        <v>18.6058979605151</v>
       </c>
       <c r="L5">
-        <v>24.3736592522463</v>
+        <v>19.6305877230882</v>
       </c>
       <c r="M5">
-        <v>27.7574463122751</v>
+        <v>20.9722836201891</v>
       </c>
       <c r="N5">
-        <v>23.6515136707794</v>
+        <v>20.7292865240108</v>
       </c>
       <c r="O5">
-        <v>893.450218734613</v>
+        <v>851.109700758787</v>
       </c>
       <c r="P5">
-        <v>59.5166800050724</v>
+        <v>47.3954695179018</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>8399.56645555214</v>
+        <v>9350.25841914034</v>
       </c>
       <c r="C6">
-        <v>196.630149310292</v>
+        <v>148.5944412734</v>
       </c>
       <c r="D6">
-        <v>154.833647314971</v>
+        <v>154.331124643916</v>
       </c>
       <c r="E6">
-        <v>152.012483196062</v>
+        <v>125.573629489172</v>
       </c>
       <c r="F6">
-        <v>43.2310449363491</v>
+        <v>37.6120002230771</v>
       </c>
       <c r="G6">
-        <v>98.4132837620473</v>
+        <v>76.61984861054739</v>
       </c>
       <c r="H6">
-        <v>72.66628942762</v>
+        <v>70.82129906762771</v>
       </c>
       <c r="I6">
-        <v>32.4974814785981</v>
+        <v>15.5353553492305</v>
       </c>
       <c r="J6">
-        <v>174.725634547148</v>
+        <v>133.846293833388</v>
       </c>
       <c r="K6">
-        <v>109.040284643885</v>
+        <v>97.0718270091399</v>
       </c>
       <c r="L6">
-        <v>539.262590102979</v>
+        <v>448.573862002641</v>
       </c>
       <c r="M6">
-        <v>272.366076948006</v>
+        <v>226.711383558722</v>
       </c>
       <c r="N6">
-        <v>278.976924149527</v>
+        <v>276.47132498194</v>
       </c>
       <c r="O6">
-        <v>12452.9924233039</v>
+        <v>11834.9410702938</v>
       </c>
       <c r="P6">
-        <v>343.242589462189</v>
+        <v>307.418344020374</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>865.89469617304</v>
+        <v>1022.16084021646</v>
       </c>
       <c r="C7">
-        <v>38.4249072782437</v>
+        <v>31.5570058921736</v>
       </c>
       <c r="D7">
-        <v>3.18095403299393</v>
+        <v>3.64236230290205</v>
       </c>
       <c r="E7">
-        <v>18.338795654357</v>
+        <v>16.205421133773</v>
       </c>
       <c r="F7">
-        <v>12.8722068591478</v>
+        <v>9.54228272688243</v>
       </c>
       <c r="G7">
-        <v>8.09768238152707</v>
+        <v>10.7503482169926</v>
       </c>
       <c r="H7">
-        <v>6.21434021618636</v>
+        <v>5.75437713579469</v>
       </c>
       <c r="I7">
-        <v>10.1680801178438</v>
+        <v>5.40823106572816</v>
       </c>
       <c r="J7">
-        <v>17.3799311413416</v>
+        <v>20.2323705863761</v>
       </c>
       <c r="K7">
-        <v>15.6534270943226</v>
+        <v>14.829946100653</v>
       </c>
       <c r="L7">
-        <v>57.2792285547211</v>
+        <v>42.6727131472329</v>
       </c>
       <c r="M7">
-        <v>17.6134549581086</v>
+        <v>15.0769933583554</v>
       </c>
       <c r="N7">
-        <v>23.2962157734686</v>
+        <v>24.1873295834066</v>
       </c>
       <c r="O7">
-        <v>1907.98946029159</v>
+        <v>1812.22551069779</v>
       </c>
       <c r="P7">
-        <v>25.9518385746351</v>
+        <v>21.1732532647038</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>709.273046158213</v>
+        <v>851.103653708882</v>
       </c>
       <c r="C8">
-        <v>10.1614102669666</v>
+        <v>6.48430056442604</v>
       </c>
       <c r="D8">
-        <v>9.77826429453723</v>
+        <v>6.64634211483854</v>
       </c>
       <c r="E8">
-        <v>16.1047859363242</v>
+        <v>13.2131749580646</v>
       </c>
       <c r="F8">
-        <v>4.2997066545339</v>
+        <v>2.09490097677315</v>
       </c>
       <c r="G8">
-        <v>25.4286764133746</v>
+        <v>21.7154660202427</v>
       </c>
       <c r="H8">
-        <v>12.5764651988278</v>
+        <v>12.22909793661</v>
       </c>
       <c r="I8">
-        <v>6.81352257837536</v>
+        <v>10.1590357662708</v>
       </c>
       <c r="J8">
-        <v>39.1150595187081</v>
+        <v>42.2069354009881</v>
       </c>
       <c r="K8">
-        <v>24.692514932413</v>
+        <v>26.6409477183734</v>
       </c>
       <c r="L8">
-        <v>40.9250026559852</v>
+        <v>40.9523065176799</v>
       </c>
       <c r="M8">
-        <v>51.926308081649</v>
+        <v>44.3103181498619</v>
       </c>
       <c r="N8">
-        <v>29.3414650997263</v>
+        <v>21.7403045778853</v>
       </c>
       <c r="O8">
-        <v>1409.05375718078</v>
+        <v>1298.73581382704</v>
       </c>
       <c r="P8">
-        <v>5.86727141998619</v>
+        <v>2.7378310280836</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>179.804034200906</v>
+        <v>210.00401004918</v>
       </c>
       <c r="C9">
-        <v>6.83677480485001</v>
+        <v>5.43772040102463</v>
       </c>
       <c r="D9">
-        <v>1.84946629757385</v>
+        <v>2.51622161403379</v>
       </c>
       <c r="E9">
-        <v>3.95995716832884</v>
+        <v>5.04404047062131</v>
       </c>
       <c r="F9">
-        <v>1.20355171074013</v>
+        <v>1.61984811887038</v>
       </c>
       <c r="G9">
-        <v>21.0267250985799</v>
+        <v>19.4053812634088</v>
       </c>
       <c r="H9">
-        <v>4.79712273676842</v>
+        <v>3.05416381300671</v>
       </c>
       <c r="I9">
-        <v>1.00965892449667</v>
+        <v>1.17043074090478</v>
       </c>
       <c r="J9">
-        <v>3.85667986813357</v>
+        <v>3.58242514947508</v>
       </c>
       <c r="K9">
-        <v>3.23483294361259</v>
+        <v>4.5143695811084</v>
       </c>
       <c r="L9">
-        <v>1.77825196746905</v>
+        <v>1.58987285228869</v>
       </c>
       <c r="M9">
-        <v>9.393858480451209</v>
+        <v>8.421667732408091</v>
       </c>
       <c r="N9">
-        <v>5.32799401057708</v>
+        <v>5.13569840048347</v>
       </c>
       <c r="O9">
-        <v>310.699238909788</v>
+        <v>279.470901864628</v>
       </c>
       <c r="P9">
-        <v>4.92173849301459</v>
+        <v>3.7754946867198</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>4504.60043635778</v>
+        <v>5305.52049816712</v>
       </c>
       <c r="C10">
-        <v>63.5954076575348</v>
+        <v>55.8356699690055</v>
       </c>
       <c r="D10">
-        <v>25.7121946245799</v>
+        <v>20.9606079910095</v>
       </c>
       <c r="E10">
-        <v>53.1620781044087</v>
+        <v>31.5474714219971</v>
       </c>
       <c r="F10">
-        <v>14.1120217099814</v>
+        <v>13.763549560417</v>
       </c>
       <c r="G10">
-        <v>33.4480664861003</v>
+        <v>28.8825919012276</v>
       </c>
       <c r="H10">
-        <v>12.873677578683</v>
+        <v>13.6381639988046</v>
       </c>
       <c r="I10">
-        <v>43.627819444231</v>
+        <v>31.7505979915148</v>
       </c>
       <c r="J10">
-        <v>58.7516654160906</v>
+        <v>53.5637211580828</v>
       </c>
       <c r="K10">
-        <v>33.4402217320688</v>
+        <v>39.0704222939739</v>
       </c>
       <c r="L10">
-        <v>89.8242666815911</v>
+        <v>60.4162664837526</v>
       </c>
       <c r="M10">
-        <v>78.0642572885144</v>
+        <v>79.9179930122456</v>
       </c>
       <c r="N10">
-        <v>90.4088913043298</v>
+        <v>65.5752158743322</v>
       </c>
       <c r="O10">
-        <v>6775.62329205419</v>
+        <v>6103.94137266098</v>
       </c>
       <c r="P10">
-        <v>111.246489911805</v>
+        <v>83.6688323655077</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>1953.588469689</v>
+        <v>2301.44465924661</v>
       </c>
       <c r="C11">
-        <v>65.9393887883472</v>
+        <v>58.5780383853861</v>
       </c>
       <c r="D11">
-        <v>167.182904643593</v>
+        <v>173.223242241518</v>
       </c>
       <c r="E11">
-        <v>59.1772589984398</v>
+        <v>43.0504176618071</v>
       </c>
       <c r="F11">
-        <v>2.42633424817736</v>
+        <v>7.82564012486116</v>
       </c>
       <c r="G11">
-        <v>30.5788380617326</v>
+        <v>22.6721937213996</v>
       </c>
       <c r="H11">
-        <v>16.2517176983133</v>
+        <v>18.5701674233037</v>
       </c>
       <c r="I11">
-        <v>14.8064843365705</v>
+        <v>13.6141257923812</v>
       </c>
       <c r="J11">
-        <v>52.6378910859719</v>
+        <v>41.3346775784729</v>
       </c>
       <c r="K11">
-        <v>31.260270147074</v>
+        <v>25.8897969103019</v>
       </c>
       <c r="L11">
-        <v>53.0801837343404</v>
+        <v>44.4210316063483</v>
       </c>
       <c r="M11">
-        <v>44.5583560524852</v>
+        <v>41.3418709693581</v>
       </c>
       <c r="N11">
-        <v>39.2803586203147</v>
+        <v>29.5955373307817</v>
       </c>
       <c r="O11">
-        <v>3131.79050963479</v>
+        <v>2824.30804274964</v>
       </c>
       <c r="P11">
-        <v>57.5137710140331</v>
+        <v>40.9115194069656</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>284.432745682918</v>
+        <v>330.590631429531</v>
       </c>
       <c r="C12">
-        <v>5.51882864614403</v>
+        <v>6.15697620400781</v>
       </c>
       <c r="D12">
-        <v>1.84186316811782</v>
+        <v>1.75722488682484</v>
       </c>
       <c r="E12">
-        <v>3.10205016249031</v>
+        <v>2.3388288256244</v>
       </c>
       <c r="F12">
-        <v>0.930538127157876</v>
+        <v>1.37632090920803</v>
       </c>
       <c r="G12">
-        <v>0.0349207536101672</v>
+        <v>0.0703574588481337</v>
       </c>
       <c r="H12">
-        <v>0.210091823438642</v>
+        <v>0.0571738217870431</v>
       </c>
       <c r="I12">
-        <v>1.18784246524707</v>
+        <v>0.511023769581024</v>
       </c>
       <c r="J12">
-        <v>2.42787899371888</v>
+        <v>2.19204008138972</v>
       </c>
       <c r="K12">
-        <v>0.139183388653429</v>
+        <v>0.190649025549868</v>
       </c>
       <c r="L12">
-        <v>0.5153356181365441</v>
+        <v>0.193150072172556</v>
       </c>
       <c r="M12">
-        <v>3.60263486251274</v>
+        <v>3.4537025078878</v>
       </c>
       <c r="N12">
-        <v>2.09441222731227</v>
+        <v>1.33076993873333</v>
       </c>
       <c r="O12">
-        <v>509.987885804858</v>
+        <v>470.571737487706</v>
       </c>
       <c r="P12">
-        <v>21.1029515627481</v>
+        <v>15.4257436087608</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>251.749819891875</v>
+        <v>313.004944722655</v>
       </c>
       <c r="C13">
-        <v>17.7258284365554</v>
+        <v>15.0538660682126</v>
       </c>
       <c r="D13">
-        <v>0.478137755240563</v>
+        <v>0.281963481005774</v>
       </c>
       <c r="E13">
-        <v>12.1963156568944</v>
+        <v>14.4263501300686</v>
       </c>
       <c r="F13">
-        <v>2.79663479240215</v>
+        <v>3.93622588380111</v>
       </c>
       <c r="G13">
-        <v>5.47874793424765</v>
+        <v>4.70625059580946</v>
       </c>
       <c r="H13">
-        <v>2.75905144988707</v>
+        <v>2.27577266090206</v>
       </c>
       <c r="I13">
-        <v>1.07923911964314</v>
+        <v>2.36926044174435</v>
       </c>
       <c r="J13">
-        <v>6.14769729388419</v>
+        <v>3.89557915409792</v>
       </c>
       <c r="K13">
-        <v>4.74241535992403</v>
+        <v>2.77626991076944</v>
       </c>
       <c r="L13">
-        <v>18.6930776882832</v>
+        <v>16.2983735261018</v>
       </c>
       <c r="M13">
-        <v>1.73343366472584</v>
+        <v>1.78116704529641</v>
       </c>
       <c r="N13">
-        <v>5.61698526834079</v>
+        <v>5.68117506040489</v>
       </c>
       <c r="O13">
-        <v>492.260931473072</v>
+        <v>455.143398199995</v>
       </c>
       <c r="P13">
-        <v>53.0918413168264</v>
+        <v>51.4109771605057</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>2798.55111557846</v>
+        <v>3332.74685111129</v>
       </c>
       <c r="C14">
-        <v>132.948915901648</v>
+        <v>121.71836612501</v>
       </c>
       <c r="D14">
-        <v>16.9597482798657</v>
+        <v>23.8855057814333</v>
       </c>
       <c r="E14">
-        <v>78.90264332344231</v>
+        <v>62.6779142795029</v>
       </c>
       <c r="F14">
-        <v>17.1569721318688</v>
+        <v>13.4006947466258</v>
       </c>
       <c r="G14">
-        <v>87.79602824217641</v>
+        <v>76.1624958338496</v>
       </c>
       <c r="H14">
-        <v>45.7145726305897</v>
+        <v>33.4846943785791</v>
       </c>
       <c r="I14">
-        <v>29.7269915048803</v>
+        <v>23.3045776877266</v>
       </c>
       <c r="J14">
-        <v>150.241091726325</v>
+        <v>146.330717306827</v>
       </c>
       <c r="K14">
-        <v>157.400313171957</v>
+        <v>140.849724606946</v>
       </c>
       <c r="L14">
-        <v>135.418417865541</v>
+        <v>122.749512833443</v>
       </c>
       <c r="M14">
-        <v>83.1729316208252</v>
+        <v>77.8115908579796</v>
       </c>
       <c r="N14">
-        <v>96.5454075326401</v>
+        <v>72.03107369451671</v>
       </c>
       <c r="O14">
-        <v>4704.14337756794</v>
+        <v>4322.68414398002</v>
       </c>
       <c r="P14">
-        <v>80.97061240615101</v>
+        <v>76.4216114740168</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>1369.89662832217</v>
+        <v>1544.63708523222</v>
       </c>
       <c r="C15">
-        <v>31.9247274411179</v>
+        <v>34.121227635817</v>
       </c>
       <c r="D15">
-        <v>15.3366001106378</v>
+        <v>10.6682987509204</v>
       </c>
       <c r="E15">
-        <v>62.0953138885084</v>
+        <v>51.5905461567412</v>
       </c>
       <c r="F15">
-        <v>18.7350211782698</v>
+        <v>17.0422225131424</v>
       </c>
       <c r="G15">
-        <v>39.204816298877</v>
+        <v>37.2571741428753</v>
       </c>
       <c r="H15">
-        <v>62.8490015264025</v>
+        <v>70.6789691147748</v>
       </c>
       <c r="I15">
-        <v>27.3567249221861</v>
+        <v>23.4203811360939</v>
       </c>
       <c r="J15">
-        <v>150.473742531856</v>
+        <v>125.95594125784</v>
       </c>
       <c r="K15">
-        <v>47.9197340600725</v>
+        <v>65.6507567227997</v>
       </c>
       <c r="L15">
-        <v>44.1488469099042</v>
+        <v>37.1391089531331</v>
       </c>
       <c r="M15">
-        <v>179.221969338677</v>
+        <v>154.457040085908</v>
       </c>
       <c r="N15">
-        <v>96.4127109799108</v>
+        <v>84.46069690882079</v>
       </c>
       <c r="O15">
-        <v>2089.42690037456</v>
+        <v>1969.17918257019</v>
       </c>
       <c r="P15">
-        <v>46.3060834847677</v>
+        <v>48.8868238328363</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>534.169583509295</v>
+        <v>646.353992488499</v>
       </c>
       <c r="C16">
-        <v>61.7935610691233</v>
+        <v>55.5793207536681</v>
       </c>
       <c r="D16">
-        <v>7.1196547016878</v>
+        <v>6.22188913386005</v>
       </c>
       <c r="E16">
-        <v>25.6675151033767</v>
+        <v>26.720907753545</v>
       </c>
       <c r="F16">
-        <v>3.84294384187881</v>
+        <v>4.03975583304714</v>
       </c>
       <c r="G16">
-        <v>19.919456350056</v>
+        <v>18.6316989528239</v>
       </c>
       <c r="H16">
-        <v>12.7701038287491</v>
+        <v>14.2937051322054</v>
       </c>
       <c r="I16">
-        <v>6.65872771932145</v>
+        <v>8.97926235489996</v>
       </c>
       <c r="J16">
-        <v>41.4828193765758</v>
+        <v>43.2696284691385</v>
       </c>
       <c r="K16">
-        <v>43.8377582436153</v>
+        <v>41.5821208199008</v>
       </c>
       <c r="L16">
-        <v>26.2869598091688</v>
+        <v>25.0681556426746</v>
       </c>
       <c r="M16">
-        <v>28.4839511975414</v>
+        <v>29.686683879459</v>
       </c>
       <c r="N16">
-        <v>24.9236584802166</v>
+        <v>19.1280986024227</v>
       </c>
       <c r="O16">
-        <v>1126.60037373467</v>
+        <v>1035.58932544228</v>
       </c>
       <c r="P16">
-        <v>85.85231201265201</v>
+        <v>71.3120432698875</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>548.270122990416</v>
+        <v>642.318011201054</v>
       </c>
       <c r="C17">
-        <v>18.5080863371945</v>
+        <v>15.0515666358056</v>
       </c>
       <c r="D17">
-        <v>1.65263521623819</v>
+        <v>3.00728147351898</v>
       </c>
       <c r="E17">
-        <v>13.2657433912905</v>
+        <v>7.06176873100055</v>
       </c>
       <c r="F17">
-        <v>11.8514266100557</v>
+        <v>9.862842089031901</v>
       </c>
       <c r="G17">
-        <v>5.7952049821196</v>
+        <v>4.62173551392908</v>
       </c>
       <c r="H17">
-        <v>6.59780206916463</v>
+        <v>8.57757393788226</v>
       </c>
       <c r="I17">
-        <v>8.213309284980831</v>
+        <v>8.286138007968921</v>
       </c>
       <c r="J17">
-        <v>12.5348534525459</v>
+        <v>10.6838391547823</v>
       </c>
       <c r="K17">
-        <v>13.212778228135</v>
+        <v>9.85015593883892</v>
       </c>
       <c r="L17">
-        <v>8.125028503395679</v>
+        <v>1.94801748008792</v>
       </c>
       <c r="M17">
-        <v>63.168765116119</v>
+        <v>56.2476011131012</v>
       </c>
       <c r="N17">
-        <v>14.0886942170362</v>
+        <v>14.2077897828879</v>
       </c>
       <c r="O17">
-        <v>1052.57138887595</v>
+        <v>1006.51795273417</v>
       </c>
       <c r="P17">
-        <v>57.947978532204</v>
+        <v>47.0338515394864</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>1155.76983571838</v>
+        <v>1249.02303566908</v>
       </c>
       <c r="C18">
-        <v>35.6137719440147</v>
+        <v>27.9738265541804</v>
       </c>
       <c r="D18">
-        <v>6.63414778601252</v>
+        <v>9.487556041489981</v>
       </c>
       <c r="E18">
-        <v>30.5425057939572</v>
+        <v>27.556851711636</v>
       </c>
       <c r="F18">
-        <v>26.5518996321136</v>
+        <v>27.7415009265456</v>
       </c>
       <c r="G18">
-        <v>21.5396686843828</v>
+        <v>22.2431877690098</v>
       </c>
       <c r="H18">
-        <v>18.0363152536816</v>
+        <v>12.9675212326866</v>
       </c>
       <c r="I18">
-        <v>3.88705701210057</v>
+        <v>1.97031326712416</v>
       </c>
       <c r="J18">
-        <v>46.375247355884</v>
+        <v>34.8310961096499</v>
       </c>
       <c r="K18">
-        <v>20.3864781133681</v>
+        <v>24.8697184419485</v>
       </c>
       <c r="L18">
-        <v>36.4537571849502</v>
+        <v>32.5815134012361</v>
       </c>
       <c r="M18">
-        <v>66.7989833009631</v>
+        <v>67.10839548486</v>
       </c>
       <c r="N18">
-        <v>22.946361496768</v>
+        <v>29.0865216770888</v>
       </c>
       <c r="O18">
-        <v>1334.14350915646</v>
+        <v>1247.95917700089</v>
       </c>
       <c r="P18">
-        <v>59.3452985626933</v>
+        <v>61.7175374550142</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>1202.0272547439</v>
+        <v>1332.01571751518</v>
       </c>
       <c r="C19">
-        <v>23.3450816476216</v>
+        <v>22.3111364284995</v>
       </c>
       <c r="D19">
-        <v>8.407840113702999</v>
+        <v>9.31715339790845</v>
       </c>
       <c r="E19">
-        <v>40.5513383989176</v>
+        <v>36.3649580882646</v>
       </c>
       <c r="F19">
-        <v>93.59483723609419</v>
+        <v>76.92153153098261</v>
       </c>
       <c r="G19">
-        <v>39.4925040579189</v>
+        <v>25.4616806547619</v>
       </c>
       <c r="H19">
-        <v>6.6810055655394</v>
+        <v>4.90651664537524</v>
       </c>
       <c r="I19">
-        <v>2.23891975385896</v>
+        <v>1.27290543359721</v>
       </c>
       <c r="J19">
-        <v>13.061462554536</v>
+        <v>17.6897176588105</v>
       </c>
       <c r="K19">
-        <v>15.6186548861567</v>
+        <v>15.7101868544785</v>
       </c>
       <c r="L19">
-        <v>7.10987438811203</v>
+        <v>8.81748000483849</v>
       </c>
       <c r="M19">
-        <v>26.4306710356427</v>
+        <v>19.3063403628511</v>
       </c>
       <c r="N19">
-        <v>14.0015571723701</v>
+        <v>16.0905451058286</v>
       </c>
       <c r="O19">
-        <v>1535.98921130993</v>
+        <v>1448.64522559812</v>
       </c>
       <c r="P19">
-        <v>44.268929089202</v>
+        <v>30.9348845435059</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>302.166112506002</v>
+        <v>352.626133672427</v>
       </c>
       <c r="C20">
-        <v>7.09930426606035</v>
+        <v>5.20486908302068</v>
       </c>
       <c r="D20">
-        <v>8.103097335253111</v>
+        <v>6.0970084315573</v>
       </c>
       <c r="E20">
-        <v>34.3115951456233</v>
+        <v>33.8589508505646</v>
       </c>
       <c r="F20">
-        <v>1.13753008634117</v>
+        <v>1.33169855942543</v>
       </c>
       <c r="G20">
-        <v>2.2360525808471</v>
+        <v>1.93369489207024</v>
       </c>
       <c r="H20">
-        <v>1.45554451607704</v>
+        <v>0.666524944925696</v>
       </c>
       <c r="I20">
-        <v>1.35772592841584</v>
+        <v>3.4680163309323</v>
       </c>
       <c r="J20">
-        <v>4.74975642114476</v>
+        <v>4.3909840501308</v>
       </c>
       <c r="K20">
-        <v>4.2566194756049</v>
+        <v>4.79689207580007</v>
       </c>
       <c r="L20">
-        <v>7.10151378372466</v>
+        <v>5.13848039762308</v>
       </c>
       <c r="M20">
-        <v>15.6873359292938</v>
+        <v>11.3311292199894</v>
       </c>
       <c r="N20">
-        <v>5.11319326426554</v>
+        <v>4.61767191249273</v>
       </c>
       <c r="O20">
-        <v>516.724454918871</v>
+        <v>474.476232784465</v>
       </c>
       <c r="P20">
-        <v>29.8393458119495</v>
+        <v>25.5244901462307</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>1100.12222410941</v>
+        <v>1291.83772297459</v>
       </c>
       <c r="C21">
-        <v>25.1692557237849</v>
+        <v>32.7144166963431</v>
       </c>
       <c r="D21">
-        <v>5.93744044507097</v>
+        <v>6.50344773748676</v>
       </c>
       <c r="E21">
-        <v>24.1834926330622</v>
+        <v>18.06164270779</v>
       </c>
       <c r="F21">
-        <v>6.67922976076782</v>
+        <v>5.5232564963296</v>
       </c>
       <c r="G21">
-        <v>23.5315821283209</v>
+        <v>20.4669823299154</v>
       </c>
       <c r="H21">
-        <v>5.27068916827895</v>
+        <v>5.19357480761518</v>
       </c>
       <c r="I21">
-        <v>11.0694607287909</v>
+        <v>16.9329110346898</v>
       </c>
       <c r="J21">
-        <v>29.1805691033658</v>
+        <v>26.6305304750919</v>
       </c>
       <c r="K21">
-        <v>2.58272464641943</v>
+        <v>3.59360307820152</v>
       </c>
       <c r="L21">
-        <v>20.4401754322345</v>
+        <v>23.9742995271574</v>
       </c>
       <c r="M21">
-        <v>22.152957157432</v>
+        <v>18.6654126022266</v>
       </c>
       <c r="N21">
-        <v>27.8723542988655</v>
+        <v>26.4685660738107</v>
       </c>
       <c r="O21">
-        <v>2355.29617530505</v>
+        <v>2218.33808669855</v>
       </c>
       <c r="P21">
-        <v>17.8226261866242</v>
+        <v>16.4914472169152</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>1399.16400642788</v>
+        <v>1648.10197044342</v>
       </c>
       <c r="C22">
-        <v>18.649953602755</v>
+        <v>17.8216922926235</v>
       </c>
       <c r="D22">
-        <v>22.1606328268333</v>
+        <v>19.4788718190442</v>
       </c>
       <c r="E22">
-        <v>38.9950967234238</v>
+        <v>23.2127719032048</v>
       </c>
       <c r="F22">
-        <v>3.48088156752167</v>
+        <v>2.46652023798954</v>
       </c>
       <c r="G22">
-        <v>33.3938538262229</v>
+        <v>23.6042321642662</v>
       </c>
       <c r="H22">
-        <v>16.5236744403037</v>
+        <v>15.2208639397866</v>
       </c>
       <c r="I22">
-        <v>8.159841987962929</v>
+        <v>5.22896824968516</v>
       </c>
       <c r="J22">
-        <v>46.8352715736889</v>
+        <v>48.9771459263129</v>
       </c>
       <c r="K22">
-        <v>27.549981806155</v>
+        <v>35.4990544897531</v>
       </c>
       <c r="L22">
-        <v>125.316792310663</v>
+        <v>106.89638981605</v>
       </c>
       <c r="M22">
-        <v>14.3230895662795</v>
+        <v>7.33139102714836</v>
       </c>
       <c r="N22">
-        <v>82.8640935124664</v>
+        <v>75.05079938777379</v>
       </c>
       <c r="O22">
-        <v>2606.51484275894</v>
+        <v>2421.61806409726</v>
       </c>
       <c r="P22">
-        <v>11.8794112406567</v>
+        <v>14.3491608660712</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>2477.45328025162</v>
+        <v>2715.33774537012</v>
       </c>
       <c r="C23">
-        <v>46.6542650513678</v>
+        <v>37.9806074951821</v>
       </c>
       <c r="D23">
-        <v>10.7694427385506</v>
+        <v>10.5093733759912</v>
       </c>
       <c r="E23">
-        <v>33.2337691949049</v>
+        <v>23.1734712863267</v>
       </c>
       <c r="F23">
-        <v>8.6901151914482</v>
+        <v>12.7787083712658</v>
       </c>
       <c r="G23">
-        <v>58.3123991432683</v>
+        <v>55.5916752690387</v>
       </c>
       <c r="H23">
-        <v>65.726186862821</v>
+        <v>69.40439400893131</v>
       </c>
       <c r="I23">
-        <v>15.8073645079732</v>
+        <v>14.868030900016</v>
       </c>
       <c r="J23">
-        <v>132.637835023034</v>
+        <v>116.133591407941</v>
       </c>
       <c r="K23">
-        <v>102.605775530878</v>
+        <v>120.599601207372</v>
       </c>
       <c r="L23">
-        <v>38.7592060761631</v>
+        <v>31.5807965198628</v>
       </c>
       <c r="M23">
-        <v>540.2594630194631</v>
+        <v>468.828863684626</v>
       </c>
       <c r="N23">
-        <v>74.5126526106046</v>
+        <v>73.02325202253491</v>
       </c>
       <c r="O23">
-        <v>3324.14935420677</v>
+        <v>3169.40505516729</v>
       </c>
       <c r="P23">
-        <v>59.1306724800814</v>
+        <v>58.4717175126987</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>905.377397897278</v>
+        <v>1043.33360888495</v>
       </c>
       <c r="C24">
-        <v>57.5598454466236</v>
+        <v>60.4486612886883</v>
       </c>
       <c r="D24">
-        <v>7.11451760015236</v>
+        <v>3.91384316803938</v>
       </c>
       <c r="E24">
-        <v>59.3428248130353</v>
+        <v>58.8917663905848</v>
       </c>
       <c r="F24">
-        <v>13.5512333270477</v>
+        <v>15.8912896069959</v>
       </c>
       <c r="G24">
-        <v>29.8143695607455</v>
+        <v>21.9356494181311</v>
       </c>
       <c r="H24">
-        <v>12.213488841567</v>
+        <v>11.26207653993</v>
       </c>
       <c r="I24">
-        <v>19.0422606980736</v>
+        <v>18.3566295806684</v>
       </c>
       <c r="J24">
-        <v>47.3899095760272</v>
+        <v>33.523780915573</v>
       </c>
       <c r="K24">
-        <v>57.6614859884621</v>
+        <v>58.4149332714937</v>
       </c>
       <c r="L24">
-        <v>60.6700651270772</v>
+        <v>44.1648949296956</v>
       </c>
       <c r="M24">
-        <v>34.6281756703001</v>
+        <v>32.1132487771816</v>
       </c>
       <c r="N24">
-        <v>70.3043849949604</v>
+        <v>59.3773768607979</v>
       </c>
       <c r="O24">
-        <v>1972.54154138404</v>
+        <v>1904.10380438804</v>
       </c>
       <c r="P24">
-        <v>105.486927883962</v>
+        <v>101.803971812784</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>771.681251665482</v>
+        <v>870.17554099444</v>
       </c>
       <c r="C25">
-        <v>42.9310687473953</v>
+        <v>38.3791488655149</v>
       </c>
       <c r="D25">
-        <v>15.8887852724453</v>
+        <v>18.7915145255116</v>
       </c>
       <c r="E25">
-        <v>40.9925659418042</v>
+        <v>27.8951959484882</v>
       </c>
       <c r="F25">
-        <v>13.7865384811657</v>
+        <v>16.3600035400354</v>
       </c>
       <c r="G25">
-        <v>6.65499660545747</v>
+        <v>8.0657006091234</v>
       </c>
       <c r="H25">
-        <v>10.94959309084</v>
+        <v>7.27004258136356</v>
       </c>
       <c r="I25">
-        <v>5.79732651158283</v>
+        <v>8.52784417679303</v>
       </c>
       <c r="J25">
-        <v>16.61427582008</v>
+        <v>14.6361868053597</v>
       </c>
       <c r="K25">
-        <v>15.5727125305115</v>
+        <v>15.6239657509722</v>
       </c>
       <c r="L25">
-        <v>16.2956736469945</v>
+        <v>21.2390020302182</v>
       </c>
       <c r="M25">
-        <v>33.7722362695844</v>
+        <v>26.9911666999254</v>
       </c>
       <c r="N25">
-        <v>41.4704694958389</v>
+        <v>45.923795729154</v>
       </c>
       <c r="O25">
-        <v>873.3026338615271</v>
+        <v>776.743617456786</v>
       </c>
       <c r="P25">
-        <v>39.7908772350573</v>
+        <v>34.8621081906154</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>1215.89755794985</v>
+        <v>1401.09236446381</v>
       </c>
       <c r="C26">
-        <v>67.41382662478171</v>
+        <v>62.3794651470897</v>
       </c>
       <c r="D26">
-        <v>18.4608687433509</v>
+        <v>25.6422007093093</v>
       </c>
       <c r="E26">
-        <v>41.9898127638126</v>
+        <v>25.5517734624521</v>
       </c>
       <c r="F26">
-        <v>9.04160909591517</v>
+        <v>10.8188317391237</v>
       </c>
       <c r="G26">
-        <v>31.8094702256411</v>
+        <v>33.1302395443862</v>
       </c>
       <c r="H26">
-        <v>26.142614546522</v>
+        <v>22.6863044127927</v>
       </c>
       <c r="I26">
-        <v>21.0800181410067</v>
+        <v>22.8420582468174</v>
       </c>
       <c r="J26">
-        <v>70.6914811421764</v>
+        <v>61.2562672512329</v>
       </c>
       <c r="K26">
-        <v>28.5548538416391</v>
+        <v>33.3234438610558</v>
       </c>
       <c r="L26">
-        <v>33.2246204212988</v>
+        <v>28.8643621430576</v>
       </c>
       <c r="M26">
-        <v>79.0232369161906</v>
+        <v>71.44845388736741</v>
       </c>
       <c r="N26">
-        <v>22.6166328007232</v>
+        <v>23.9154156946864</v>
       </c>
       <c r="O26">
-        <v>2186.524262186</v>
+        <v>2056.99615120725</v>
       </c>
       <c r="P26">
-        <v>75.53423441552459</v>
+        <v>67.0282354854361</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>211.536907449642</v>
+        <v>251.67923288036</v>
       </c>
       <c r="C27">
-        <v>3.4843858719332</v>
+        <v>3.38160339302563</v>
       </c>
       <c r="D27">
-        <v>1.17390179983153</v>
+        <v>1.74762114008161</v>
       </c>
       <c r="E27">
-        <v>9.229954352910619</v>
+        <v>7.7816533726374</v>
       </c>
       <c r="F27">
-        <v>5.00711187958013</v>
+        <v>4.17242138190385</v>
       </c>
       <c r="G27">
-        <v>1.37243701330453</v>
+        <v>1.0999549156382</v>
       </c>
       <c r="H27">
-        <v>0.288562835073794</v>
+        <v>0.174742712524585</v>
       </c>
       <c r="I27">
-        <v>2.59757687217388</v>
+        <v>1.99842318350614</v>
       </c>
       <c r="J27">
-        <v>3.20560056886203</v>
+        <v>1.96453441165062</v>
       </c>
       <c r="K27">
-        <v>2.03863948451133</v>
+        <v>2.18416578644401</v>
       </c>
       <c r="L27">
-        <v>1.13559563526019</v>
+        <v>0.294284579331405</v>
       </c>
       <c r="M27">
-        <v>0.238495459167525</v>
+        <v>0.23707960419303</v>
       </c>
       <c r="N27">
-        <v>3.45113234260153</v>
+        <v>3.91165847921902</v>
       </c>
       <c r="O27">
-        <v>352.321536533528</v>
+        <v>325.988216045507</v>
       </c>
       <c r="P27">
-        <v>45.543814179267</v>
+        <v>41.2432259084563</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>311.762051390905</v>
+        <v>375.598875415173</v>
       </c>
       <c r="C28">
-        <v>36.1150009871766</v>
+        <v>35.6695818211952</v>
       </c>
       <c r="D28">
-        <v>5.56553338375426</v>
+        <v>5.50753257391346</v>
       </c>
       <c r="E28">
-        <v>4.37097432295727</v>
+        <v>4.7226463544639</v>
       </c>
       <c r="F28">
-        <v>2.39552344128712</v>
+        <v>1.98355394066365</v>
       </c>
       <c r="G28">
-        <v>4.19250266812942</v>
+        <v>3.30035001626374</v>
       </c>
       <c r="H28">
-        <v>9.83161385549108</v>
+        <v>8.42465173354068</v>
       </c>
       <c r="I28">
-        <v>1.871956253482</v>
+        <v>1.77709494184736</v>
       </c>
       <c r="J28">
-        <v>15.8675335645743</v>
+        <v>14.838518345131</v>
       </c>
       <c r="K28">
-        <v>13.0633408055154</v>
+        <v>11.2065627956919</v>
       </c>
       <c r="L28">
-        <v>15.4122347798616</v>
+        <v>11.2003562843222</v>
       </c>
       <c r="M28">
-        <v>8.14358456334921</v>
+        <v>4.56492754505352</v>
       </c>
       <c r="N28">
-        <v>10.5915028416709</v>
+        <v>14.6271309009354</v>
       </c>
       <c r="O28">
-        <v>672.039647031061</v>
+        <v>621.573631305777</v>
       </c>
       <c r="P28">
-        <v>82.1285843587975</v>
+        <v>76.2470328530648</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>466.564548320536</v>
+        <v>543.30224689177</v>
       </c>
       <c r="C29">
-        <v>3.46675192249348</v>
+        <v>2.28734395454924</v>
       </c>
       <c r="D29">
-        <v>2.83976982728763</v>
+        <v>5.3920604261947</v>
       </c>
       <c r="E29">
-        <v>4.40522239472174</v>
+        <v>1.60085939376151</v>
       </c>
       <c r="F29">
-        <v>21.6138783190041</v>
+        <v>19.4351062071478</v>
       </c>
       <c r="G29">
-        <v>1.83461046049716</v>
+        <v>0.452308831007285</v>
       </c>
       <c r="H29">
-        <v>3.06404917569213</v>
+        <v>3.05084947643064</v>
       </c>
       <c r="I29">
-        <v>2.76526827052533</v>
+        <v>2.43326151234981</v>
       </c>
       <c r="J29">
-        <v>4.57626664283534</v>
+        <v>6.12341109667664</v>
       </c>
       <c r="K29">
-        <v>2.93962886336024</v>
+        <v>2.16914695607945</v>
       </c>
       <c r="L29">
-        <v>2.40149189415599</v>
+        <v>2.14520032526037</v>
       </c>
       <c r="M29">
-        <v>2.22600647588694</v>
+        <v>5.07035238185711</v>
       </c>
       <c r="N29">
-        <v>11.0071621065444</v>
+        <v>12.1004964260828</v>
       </c>
       <c r="O29">
-        <v>923.598001734644</v>
+        <v>843.5744415896</v>
       </c>
       <c r="P29">
-        <v>8.66548467030654</v>
+        <v>9.75118190760548</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>241.617264653393</v>
+        <v>288.120946703722</v>
       </c>
       <c r="C30">
-        <v>4.19456755788293</v>
+        <v>4.00077085251387</v>
       </c>
       <c r="D30">
-        <v>8.28168787686727</v>
+        <v>8.86444998833456</v>
       </c>
       <c r="E30">
-        <v>13.4862064407661</v>
+        <v>8.4738269732775</v>
       </c>
       <c r="F30">
-        <v>1.07612225421613</v>
+        <v>2.52509107035318</v>
       </c>
       <c r="G30">
-        <v>4.41655151680925</v>
+        <v>4.14870513438694</v>
       </c>
       <c r="H30">
-        <v>5.29611165197101</v>
+        <v>4.32925278668543</v>
       </c>
       <c r="I30">
-        <v>2.72118652507993</v>
+        <v>3.99608442358161</v>
       </c>
       <c r="J30">
-        <v>14.8690463373977</v>
+        <v>17.2928469501664</v>
       </c>
       <c r="K30">
-        <v>11.7569755946188</v>
+        <v>10.7541729194975</v>
       </c>
       <c r="L30">
-        <v>36.310990716939</v>
+        <v>24.3906319103415</v>
       </c>
       <c r="M30">
-        <v>10.3114754427298</v>
+        <v>8.583806946875489</v>
       </c>
       <c r="N30">
-        <v>12.052406675223</v>
+        <v>10.5544276098343</v>
       </c>
       <c r="O30">
-        <v>496.464794666633</v>
+        <v>467.930826010147</v>
       </c>
       <c r="P30">
-        <v>9.879121894441649</v>
+        <v>9.720181627162861</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>1918.12979487816</v>
+        <v>2326.6654067455</v>
       </c>
       <c r="C31">
-        <v>49.7118675597452</v>
+        <v>33.7891752917592</v>
       </c>
       <c r="D31">
-        <v>40.4278137401165</v>
+        <v>42.6737014275109</v>
       </c>
       <c r="E31">
-        <v>49.8965969836742</v>
+        <v>37.4535280422385</v>
       </c>
       <c r="F31">
-        <v>11.8090204113394</v>
+        <v>8.8555873666407</v>
       </c>
       <c r="G31">
-        <v>119.589467682661</v>
+        <v>102.530592485118</v>
       </c>
       <c r="H31">
-        <v>13.763250028296</v>
+        <v>10.8911696135276</v>
       </c>
       <c r="I31">
-        <v>28.7730776224132</v>
+        <v>23.8950945885557</v>
       </c>
       <c r="J31">
-        <v>52.9781906217808</v>
+        <v>36.4481546191337</v>
       </c>
       <c r="K31">
-        <v>21.1073655120214</v>
+        <v>17.9878623070385</v>
       </c>
       <c r="L31">
-        <v>76.7803328698803</v>
+        <v>66.2878028124953</v>
       </c>
       <c r="M31">
-        <v>17.0725452925175</v>
+        <v>9.02551031403047</v>
       </c>
       <c r="N31">
-        <v>51.2016870994045</v>
+        <v>59.7303266738478</v>
       </c>
       <c r="O31">
-        <v>3503.49578109805</v>
+        <v>3178.2683154413</v>
       </c>
       <c r="P31">
-        <v>5.23571358553962</v>
+        <v>1.60660633684311</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>481.667258965078</v>
+        <v>522.7100064614961</v>
       </c>
       <c r="C32">
-        <v>7.44286001949799</v>
+        <v>6.98007194090342</v>
       </c>
       <c r="D32">
-        <v>0.7058604156606501</v>
+        <v>1.58755888831949</v>
       </c>
       <c r="E32">
-        <v>3.32517132224307</v>
+        <v>5.33931325911096</v>
       </c>
       <c r="F32">
-        <v>23.8447438304242</v>
+        <v>17.6580497416891</v>
       </c>
       <c r="G32">
-        <v>2.10082251394826</v>
+        <v>1.60148822729668</v>
       </c>
       <c r="H32">
-        <v>2.68850213690378</v>
+        <v>2.25630905967251</v>
       </c>
       <c r="I32">
-        <v>4.87521243949292</v>
+        <v>5.27514397731639</v>
       </c>
       <c r="J32">
-        <v>6.49266062142184</v>
+        <v>5.11230926800859</v>
       </c>
       <c r="K32">
-        <v>1.05143429307345</v>
+        <v>0.921730689373482</v>
       </c>
       <c r="L32">
-        <v>17.7651477349381</v>
+        <v>19.1230525461805</v>
       </c>
       <c r="M32">
-        <v>2.24231755929536</v>
+        <v>2.59634416091941</v>
       </c>
       <c r="N32">
-        <v>6.03385483448264</v>
+        <v>5.33655629565666</v>
       </c>
       <c r="O32">
-        <v>691.256039749979</v>
+        <v>643.074604126801</v>
       </c>
       <c r="P32">
-        <v>19.0073840849904</v>
+        <v>14.371971867295</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>4970.51782469332</v>
+        <v>5691.07350772398</v>
       </c>
       <c r="C33">
-        <v>79.5343601192817</v>
+        <v>53.6322710019697</v>
       </c>
       <c r="D33">
-        <v>90.26178499466271</v>
+        <v>83.39828731946859</v>
       </c>
       <c r="E33">
-        <v>83.3111289528707</v>
+        <v>59.9402732254062</v>
       </c>
       <c r="F33">
-        <v>7.94566808503361</v>
+        <v>8.430957205489671</v>
       </c>
       <c r="G33">
-        <v>78.9594353307304</v>
+        <v>71.95680125055949</v>
       </c>
       <c r="H33">
-        <v>35.4118928361214</v>
+        <v>28.5628822418649</v>
       </c>
       <c r="I33">
-        <v>31.2891595707591</v>
+        <v>24.0649388732741</v>
       </c>
       <c r="J33">
-        <v>111.209064097274</v>
+        <v>107.351518999246</v>
       </c>
       <c r="K33">
-        <v>99.5289440240728</v>
+        <v>92.7902250042595</v>
       </c>
       <c r="L33">
-        <v>130.213448568243</v>
+        <v>101.079001716059</v>
       </c>
       <c r="M33">
-        <v>65.287896534886</v>
+        <v>54.8754504580418</v>
       </c>
       <c r="N33">
-        <v>142.979270679874</v>
+        <v>146.882346876814</v>
       </c>
       <c r="O33">
-        <v>7283.15443962596</v>
+        <v>6682.97116145442</v>
       </c>
       <c r="P33">
-        <v>67.246894356374</v>
+        <v>56.8472615563877</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>2029.22398555835</v>
+        <v>2311.60764981021</v>
       </c>
       <c r="C34">
-        <v>72.0976722663374</v>
+        <v>68.7754378041729</v>
       </c>
       <c r="D34">
-        <v>171.742264618252</v>
+        <v>149.014261701035</v>
       </c>
       <c r="E34">
-        <v>49.8606210361149</v>
+        <v>44.8324000249013</v>
       </c>
       <c r="F34">
-        <v>7.36575419021344</v>
+        <v>7.36211142809465</v>
       </c>
       <c r="G34">
-        <v>44.7617152924457</v>
+        <v>44.9130558512178</v>
       </c>
       <c r="H34">
-        <v>41.1521369182837</v>
+        <v>41.7145322124043</v>
       </c>
       <c r="I34">
-        <v>19.8220357045291</v>
+        <v>19.1889993030803</v>
       </c>
       <c r="J34">
-        <v>54.2598753467072</v>
+        <v>47.2417826212476</v>
       </c>
       <c r="K34">
-        <v>45.8231058473992</v>
+        <v>44.57442812505</v>
       </c>
       <c r="L34">
-        <v>89.3957660764188</v>
+        <v>68.1367066265954</v>
       </c>
       <c r="M34">
-        <v>35.5632075813446</v>
+        <v>33.9463668740435</v>
       </c>
       <c r="N34">
-        <v>121.7028539955</v>
+        <v>105.845350432574</v>
       </c>
       <c r="O34">
-        <v>2886.24600347887</v>
+        <v>2711.16262324797</v>
       </c>
       <c r="P34">
-        <v>73.65806722315951</v>
+        <v>59.7714360011286</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>124.016206185879</v>
+        <v>153.463640454163</v>
       </c>
       <c r="C35">
-        <v>7.24820028812268</v>
+        <v>6.56014401187317</v>
       </c>
       <c r="D35">
-        <v>0.610706052249367</v>
+        <v>0.945464743614528</v>
       </c>
       <c r="E35">
-        <v>2.04683743869647</v>
+        <v>1.60021896855773</v>
       </c>
       <c r="F35">
-        <v>4.51670332956077</v>
+        <v>4.06503277405391</v>
       </c>
       <c r="G35">
-        <v>0.901223352469461</v>
+        <v>1.55804726762857</v>
       </c>
       <c r="H35">
-        <v>0.311010458560969</v>
+        <v>0.247873102778032</v>
       </c>
       <c r="I35">
-        <v>1.01974695244918</v>
+        <v>0.7348317497440891</v>
       </c>
       <c r="J35">
-        <v>2.65352529720843</v>
+        <v>2.54770619001548</v>
       </c>
       <c r="K35">
-        <v>5.09358961047843</v>
+        <v>4.06103824466754</v>
       </c>
       <c r="L35">
-        <v>2.22079968047371</v>
+        <v>1.68134771049151</v>
       </c>
       <c r="M35">
-        <v>1.82253686198054</v>
+        <v>1.15047114430833</v>
       </c>
       <c r="N35">
-        <v>2.1522691120582</v>
+        <v>2.52892615429692</v>
       </c>
       <c r="O35">
-        <v>248.676056570263</v>
+        <v>228.120013836413</v>
       </c>
       <c r="P35">
-        <v>43.5659308408494</v>
+        <v>37.5678336022648</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>2667.07629778464</v>
+        <v>2998.79426004545</v>
       </c>
       <c r="C36">
-        <v>53.0095378215013</v>
+        <v>46.8542555760069</v>
       </c>
       <c r="D36">
-        <v>15.6207199505107</v>
+        <v>13.1892138144154</v>
       </c>
       <c r="E36">
-        <v>95.0746599507475</v>
+        <v>71.9238842178746</v>
       </c>
       <c r="F36">
-        <v>37.8013683424135</v>
+        <v>34.8176511075098</v>
       </c>
       <c r="G36">
-        <v>101.900538206883</v>
+        <v>107.902247945745</v>
       </c>
       <c r="H36">
-        <v>103.999217605291</v>
+        <v>94.6972600354156</v>
       </c>
       <c r="I36">
-        <v>45.3344209879567</v>
+        <v>34.8067525777853</v>
       </c>
       <c r="J36">
-        <v>208.794056253902</v>
+        <v>201.429040167044</v>
       </c>
       <c r="K36">
-        <v>104.403982418176</v>
+        <v>108.300932689046</v>
       </c>
       <c r="L36">
-        <v>78.8716942452259</v>
+        <v>70.2215627412273</v>
       </c>
       <c r="M36">
-        <v>226.505681547099</v>
+        <v>205.224948504477</v>
       </c>
       <c r="N36">
-        <v>106.83910994439</v>
+        <v>76.7139861711438</v>
       </c>
       <c r="O36">
-        <v>4097.1224885251</v>
+        <v>3863.92005175062</v>
       </c>
       <c r="P36">
-        <v>58.403375974012</v>
+        <v>60.6508484576025</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>867.4664185096181</v>
+        <v>979.2490348829421</v>
       </c>
       <c r="C37">
-        <v>21.0181002340131</v>
+        <v>13.9958423474192</v>
       </c>
       <c r="D37">
-        <v>4.36470692649438</v>
+        <v>3.47088391614191</v>
       </c>
       <c r="E37">
-        <v>21.0773694119192</v>
+        <v>18.2252464310597</v>
       </c>
       <c r="F37">
-        <v>36.9030968381707</v>
+        <v>28.8556245746994</v>
       </c>
       <c r="G37">
-        <v>8.72816873382795</v>
+        <v>8.022979272486509</v>
       </c>
       <c r="H37">
-        <v>24.8884534225391</v>
+        <v>25.680210079184</v>
       </c>
       <c r="I37">
-        <v>11.9377467125945</v>
+        <v>14.0354198628902</v>
       </c>
       <c r="J37">
-        <v>38.4126281657174</v>
+        <v>42.7623017251835</v>
       </c>
       <c r="K37">
-        <v>36.42622885579</v>
+        <v>34.9498868506439</v>
       </c>
       <c r="L37">
-        <v>22.9371176550334</v>
+        <v>23.4703070473134</v>
       </c>
       <c r="M37">
-        <v>35.9461148631775</v>
+        <v>33.9286314132255</v>
       </c>
       <c r="N37">
-        <v>17.416500088205</v>
+        <v>10.4360621462493</v>
       </c>
       <c r="O37">
-        <v>1208.51524945227</v>
+        <v>1124.73461175551</v>
       </c>
       <c r="P37">
-        <v>59.9063970930844</v>
+        <v>48.6556033349644</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>870.073057884194</v>
+        <v>998.067612334256</v>
       </c>
       <c r="C38">
-        <v>23.1655422148416</v>
+        <v>19.8248989117054</v>
       </c>
       <c r="D38">
-        <v>11.0658902739042</v>
+        <v>11.1481763498174</v>
       </c>
       <c r="E38">
-        <v>55.9727639135555</v>
+        <v>43.1265613574017</v>
       </c>
       <c r="F38">
-        <v>2.30560561687124</v>
+        <v>4.65971780608665</v>
       </c>
       <c r="G38">
-        <v>4.14427858099389</v>
+        <v>3.14819796748174</v>
       </c>
       <c r="H38">
-        <v>4.91176047075764</v>
+        <v>3.49635403283717</v>
       </c>
       <c r="I38">
-        <v>4.31534212108998</v>
+        <v>3.22020557789666</v>
       </c>
       <c r="J38">
-        <v>45.6634052410985</v>
+        <v>32.1299612301178</v>
       </c>
       <c r="K38">
-        <v>9.237803836814059</v>
+        <v>8.12173834675251</v>
       </c>
       <c r="L38">
-        <v>53.6332939018635</v>
+        <v>48.2380812907453</v>
       </c>
       <c r="M38">
-        <v>14.7447850692058</v>
+        <v>12.5118097180529</v>
       </c>
       <c r="N38">
-        <v>31.2977419641539</v>
+        <v>33.024970484317</v>
       </c>
       <c r="O38">
-        <v>1320.27396117562</v>
+        <v>1258.09587782387</v>
       </c>
       <c r="P38">
-        <v>72.0606011161627</v>
+        <v>53.8574380805754</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>3161.35738511528</v>
+        <v>3550.00636514951</v>
       </c>
       <c r="C39">
-        <v>83.49535705095219</v>
+        <v>75.1599581732776</v>
       </c>
       <c r="D39">
-        <v>52.1899839907477</v>
+        <v>56.522794591466</v>
       </c>
       <c r="E39">
-        <v>137.246942526002</v>
+        <v>112.856569874071</v>
       </c>
       <c r="F39">
-        <v>32.2933544459712</v>
+        <v>27.7880104058355</v>
       </c>
       <c r="G39">
-        <v>111.758310521719</v>
+        <v>104.118861111951</v>
       </c>
       <c r="H39">
-        <v>52.4592065218655</v>
+        <v>45.8892563817543</v>
       </c>
       <c r="I39">
-        <v>45.959188136814</v>
+        <v>50.1007602158256</v>
       </c>
       <c r="J39">
-        <v>176.44256051417</v>
+        <v>146.729729721221</v>
       </c>
       <c r="K39">
-        <v>105.117928892038</v>
+        <v>97.3286210414804</v>
       </c>
       <c r="L39">
-        <v>98.0920280738864</v>
+        <v>80.8227609704945</v>
       </c>
       <c r="M39">
-        <v>61.0519277402031</v>
+        <v>56.4296261683167</v>
       </c>
       <c r="N39">
-        <v>104.127673198779</v>
+        <v>89.3375693792389</v>
       </c>
       <c r="O39">
-        <v>4467.7348221662</v>
+        <v>4205.29532427837</v>
       </c>
       <c r="P39">
-        <v>62.5437310943434</v>
+        <v>52.3491141214247</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>239.754211088816</v>
+        <v>274.584242073174</v>
       </c>
       <c r="C40">
-        <v>3.78431960122787</v>
+        <v>2.86573692888667</v>
       </c>
       <c r="D40">
-        <v>7.42635313275004</v>
+        <v>7.80306968123469</v>
       </c>
       <c r="E40">
-        <v>4.50053786858598</v>
+        <v>3.94499865268897</v>
       </c>
       <c r="F40">
-        <v>0.0931576425168516</v>
+        <v>0.403206865891003</v>
       </c>
       <c r="G40">
-        <v>5.34818708950619</v>
+        <v>4.10242517302658</v>
       </c>
       <c r="H40">
-        <v>4.45089198170626</v>
+        <v>2.33468309739316</v>
       </c>
       <c r="I40">
-        <v>1.48225927449164</v>
+        <v>2.36597598088442</v>
       </c>
       <c r="J40">
-        <v>6.92695277145852</v>
+        <v>6.62432205824169</v>
       </c>
       <c r="K40">
-        <v>5.06408109316834</v>
+        <v>4.61762942963709</v>
       </c>
       <c r="L40">
-        <v>16.2533028458139</v>
+        <v>15.5487668477866</v>
       </c>
       <c r="M40">
-        <v>5.98931558094757</v>
+        <v>6.81680141131758</v>
       </c>
       <c r="N40">
-        <v>21.2759280883721</v>
+        <v>17.5509140923828</v>
       </c>
       <c r="O40">
-        <v>423.188676371936</v>
+        <v>402.093329849073</v>
       </c>
       <c r="P40">
-        <v>2.5969264237457</v>
+        <v>1.68091846790269</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>1059.97944657121</v>
+        <v>1186.15721948043</v>
       </c>
       <c r="C41">
-        <v>13.0308857910263</v>
+        <v>8.40780338707032</v>
       </c>
       <c r="D41">
-        <v>73.4774865551766</v>
+        <v>73.63432294968339</v>
       </c>
       <c r="E41">
-        <v>30.4590131131103</v>
+        <v>25.36731851423</v>
       </c>
       <c r="F41">
-        <v>1.18982419353068</v>
+        <v>1.40154398969678</v>
       </c>
       <c r="G41">
-        <v>25.0727804304137</v>
+        <v>16.1375038145393</v>
       </c>
       <c r="H41">
-        <v>32.4693328277003</v>
+        <v>28.2343541031414</v>
       </c>
       <c r="I41">
-        <v>19.7295140746007</v>
+        <v>26.4930330159308</v>
       </c>
       <c r="J41">
-        <v>45.1810949849655</v>
+        <v>47.3165129068115</v>
       </c>
       <c r="K41">
-        <v>22.1951348270856</v>
+        <v>23.7748678178</v>
       </c>
       <c r="L41">
-        <v>29.6272056464344</v>
+        <v>26.8118467058847</v>
       </c>
       <c r="M41">
-        <v>21.3995214173211</v>
+        <v>13.2101476002303</v>
       </c>
       <c r="N41">
-        <v>25.7485761973989</v>
+        <v>21.4392485416526</v>
       </c>
       <c r="O41">
-        <v>1403.9018998547</v>
+        <v>1303.13556082339</v>
       </c>
       <c r="P41">
-        <v>38.8127482125264</v>
+        <v>27.3443070592259</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>120.864183019533</v>
+        <v>159.32632075772</v>
       </c>
       <c r="C42">
-        <v>5.57201802491343</v>
+        <v>4.85534264670057</v>
       </c>
       <c r="D42">
-        <v>1.43587555190915</v>
+        <v>1.48302487027848</v>
       </c>
       <c r="E42">
-        <v>4.12871689178762</v>
+        <v>3.07141515714353</v>
       </c>
       <c r="F42">
-        <v>2.51815496684176</v>
+        <v>2.72090552966549</v>
       </c>
       <c r="G42">
-        <v>1.57029100384779</v>
+        <v>2.32387432345057</v>
       </c>
       <c r="H42">
-        <v>0.666794809434625</v>
+        <v>0.704889270585997</v>
       </c>
       <c r="I42">
-        <v>0.402111159191335</v>
+        <v>0.595115451267677</v>
       </c>
       <c r="J42">
-        <v>3.13254574576069</v>
+        <v>2.27213022228154</v>
       </c>
       <c r="K42">
-        <v>4.58505392746653</v>
+        <v>4.80928264255196</v>
       </c>
       <c r="L42">
-        <v>7.1106458909008</v>
+        <v>5.61594054179725</v>
       </c>
       <c r="M42">
-        <v>3.33504000097085</v>
+        <v>1.6566104543089</v>
       </c>
       <c r="N42">
-        <v>6.56737079263809</v>
+        <v>6.20891289610238</v>
       </c>
       <c r="O42">
-        <v>292.034747998301</v>
+        <v>264.820363992063</v>
       </c>
       <c r="P42">
-        <v>48.6130447537772</v>
+        <v>42.1559572992972</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1495.30720668469</v>
+        <v>1605.19390494159</v>
       </c>
       <c r="C43">
-        <v>48.2604049546687</v>
+        <v>52.328570384944</v>
       </c>
       <c r="D43">
-        <v>48.8233315368062</v>
+        <v>47.4642512585285</v>
       </c>
       <c r="E43">
-        <v>71.4079930676603</v>
+        <v>75.006588618544</v>
       </c>
       <c r="F43">
-        <v>6.65851017944608</v>
+        <v>8.82212817116603</v>
       </c>
       <c r="G43">
-        <v>18.4518169195252</v>
+        <v>17.5829652772096</v>
       </c>
       <c r="H43">
-        <v>35.0441534903284</v>
+        <v>43.0676083057978</v>
       </c>
       <c r="I43">
-        <v>24.816021273713</v>
+        <v>19.5477566930702</v>
       </c>
       <c r="J43">
-        <v>48.2690442403896</v>
+        <v>36.3505212790261</v>
       </c>
       <c r="K43">
-        <v>54.1663420508448</v>
+        <v>70.01777635931261</v>
       </c>
       <c r="L43">
-        <v>48.65400895749</v>
+        <v>32.0246140821264</v>
       </c>
       <c r="M43">
-        <v>115.801636936987</v>
+        <v>102.802472444319</v>
       </c>
       <c r="N43">
-        <v>60.1385900132094</v>
+        <v>51.9121364822359</v>
       </c>
       <c r="O43">
-        <v>1995.6349058912</v>
+        <v>1926.21978043935</v>
       </c>
       <c r="P43">
-        <v>34.4993731857094</v>
+        <v>27.2439137827628</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>4891.43759898913</v>
+        <v>5584.4640761685</v>
       </c>
       <c r="C44">
-        <v>142.471296393264</v>
+        <v>133.713402712197</v>
       </c>
       <c r="D44">
-        <v>51.7370748720445</v>
+        <v>42.8784957652637</v>
       </c>
       <c r="E44">
-        <v>108.206825154463</v>
+        <v>83.3349885255117</v>
       </c>
       <c r="F44">
-        <v>236.394280842183</v>
+        <v>182.717091340539</v>
       </c>
       <c r="G44">
-        <v>127.418428090357</v>
+        <v>121.913433726195</v>
       </c>
       <c r="H44">
-        <v>45.4573333965483</v>
+        <v>32.8406397008042</v>
       </c>
       <c r="I44">
-        <v>41.4540157860001</v>
+        <v>43.1245085114225</v>
       </c>
       <c r="J44">
-        <v>115.94973739809</v>
+        <v>111.346783107811</v>
       </c>
       <c r="K44">
-        <v>72.6956815666277</v>
+        <v>102.329817796134</v>
       </c>
       <c r="L44">
-        <v>200.763035576929</v>
+        <v>165.185900815432</v>
       </c>
       <c r="M44">
-        <v>98.6326244162622</v>
+        <v>99.9884968156622</v>
       </c>
       <c r="N44">
-        <v>90.37814556876261</v>
+        <v>81.0396504659068</v>
       </c>
       <c r="O44">
-        <v>7810.36462157207</v>
+        <v>7271.29001874262</v>
       </c>
       <c r="P44">
-        <v>212.91793447387</v>
+        <v>177.274434946227</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>443.409991922918</v>
+        <v>488.012029598871</v>
       </c>
       <c r="C45">
-        <v>16.6853523963</v>
+        <v>16.7916593240894</v>
       </c>
       <c r="D45">
-        <v>2.59137185459577</v>
+        <v>2.02175235751172</v>
       </c>
       <c r="E45">
-        <v>18.0180556122487</v>
+        <v>11.6695880081145</v>
       </c>
       <c r="F45">
-        <v>22.8877195729819</v>
+        <v>21.0101897137303</v>
       </c>
       <c r="G45">
-        <v>6.70786730506407</v>
+        <v>6.35072407014428</v>
       </c>
       <c r="H45">
-        <v>2.11804634521129</v>
+        <v>2.98610473650481</v>
       </c>
       <c r="I45">
-        <v>4.18815806187459</v>
+        <v>6.08811840211356</v>
       </c>
       <c r="J45">
-        <v>23.9686613095967</v>
+        <v>19.3343303705247</v>
       </c>
       <c r="K45">
-        <v>5.51125181521239</v>
+        <v>7.19389246784792</v>
       </c>
       <c r="L45">
-        <v>13.6382973603486</v>
+        <v>12.1916327444531</v>
       </c>
       <c r="M45">
-        <v>18.7748283606494</v>
+        <v>17.0033150554894</v>
       </c>
       <c r="N45">
-        <v>24.8916084816843</v>
+        <v>22.880504137681</v>
       </c>
       <c r="O45">
-        <v>814.663299061937</v>
+        <v>805.000927942102</v>
       </c>
       <c r="P45">
-        <v>17.5998044672464</v>
+        <v>12.5584069324645</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>120.2226317921</v>
+        <v>144.387749684062</v>
       </c>
       <c r="C46">
-        <v>3.03543506612692</v>
+        <v>2.30446557777438</v>
       </c>
       <c r="D46">
-        <v>1.00596380314059</v>
+        <v>0.54487859743568</v>
       </c>
       <c r="E46">
-        <v>5.62139072903496</v>
+        <v>5.50542502757812</v>
       </c>
       <c r="F46">
-        <v>0.781421911243978</v>
+        <v>0.645009899242052</v>
       </c>
       <c r="G46">
-        <v>3.11429126766757</v>
+        <v>2.52242778531393</v>
       </c>
       <c r="H46">
-        <v>1.50119510011399</v>
+        <v>1.04046627429212</v>
       </c>
       <c r="I46">
-        <v>1.16481350508427</v>
+        <v>1.09160934321276</v>
       </c>
       <c r="J46">
-        <v>3.69811203940572</v>
+        <v>3.36361374571587</v>
       </c>
       <c r="K46">
-        <v>4.28451570100384</v>
+        <v>4.19281347862671</v>
       </c>
       <c r="L46">
-        <v>9.882175331105159</v>
+        <v>10.6962695688273</v>
       </c>
       <c r="M46">
-        <v>2.92298035950707</v>
+        <v>2.73548787666704</v>
       </c>
       <c r="N46">
-        <v>8.517646845587439</v>
+        <v>7.18058102867401</v>
       </c>
       <c r="O46">
-        <v>248.277872229963</v>
+        <v>228.570652976929</v>
       </c>
       <c r="P46">
-        <v>11.3501336347582</v>
+        <v>11.2260779913253</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1644.1102731656</v>
+        <v>1835.26591344316</v>
       </c>
       <c r="C47">
-        <v>53.5951480989402</v>
+        <v>51.7200143145578</v>
       </c>
       <c r="D47">
-        <v>42.4053250824916</v>
+        <v>36.7574155611185</v>
       </c>
       <c r="E47">
-        <v>62.6050143937521</v>
+        <v>59.0771643705372</v>
       </c>
       <c r="F47">
-        <v>9.786611138952949</v>
+        <v>10.2662175741302</v>
       </c>
       <c r="G47">
-        <v>23.478615020432</v>
+        <v>20.7893072691659</v>
       </c>
       <c r="H47">
-        <v>14.0969904495722</v>
+        <v>12.069811257025</v>
       </c>
       <c r="I47">
-        <v>5.64431448183533</v>
+        <v>5.70867345216352</v>
       </c>
       <c r="J47">
-        <v>39.981090536467</v>
+        <v>37.9294010559247</v>
       </c>
       <c r="K47">
-        <v>19.1727006455701</v>
+        <v>20.4698898337429</v>
       </c>
       <c r="L47">
-        <v>41.7230419636063</v>
+        <v>36.2677009260653</v>
       </c>
       <c r="M47">
-        <v>72.88134333900349</v>
+        <v>63.4569852846266</v>
       </c>
       <c r="N47">
-        <v>39.4961390619237</v>
+        <v>40.9805481328584</v>
       </c>
       <c r="O47">
-        <v>2826.66604953597</v>
+        <v>2639.44301840653</v>
       </c>
       <c r="P47">
-        <v>39.9239033161802</v>
+        <v>30.7324425543405</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1412.87894159858</v>
+        <v>1613.88614878463</v>
       </c>
       <c r="C48">
-        <v>20.538754415914</v>
+        <v>21.5395300897653</v>
       </c>
       <c r="D48">
-        <v>8.570470945033049</v>
+        <v>11.8896800522383</v>
       </c>
       <c r="E48">
-        <v>69.81949594579849</v>
+        <v>53.8550163894994</v>
       </c>
       <c r="F48">
-        <v>3.84847574729453</v>
+        <v>1.44634499749922</v>
       </c>
       <c r="G48">
-        <v>3.13087826721304</v>
+        <v>0.77315848211404</v>
       </c>
       <c r="H48">
-        <v>4.02636926220511</v>
+        <v>6.64328649404299</v>
       </c>
       <c r="I48">
-        <v>7.44237773484254</v>
+        <v>7.88219827581973</v>
       </c>
       <c r="J48">
-        <v>38.9244330505157</v>
+        <v>44.1082139872135</v>
       </c>
       <c r="K48">
-        <v>13.7050366882088</v>
+        <v>7.2317456289189</v>
       </c>
       <c r="L48">
-        <v>42.3135380424755</v>
+        <v>41.042659681405</v>
       </c>
       <c r="M48">
-        <v>110.874538063182</v>
+        <v>96.2467877830703</v>
       </c>
       <c r="N48">
-        <v>27.6046747126414</v>
+        <v>21.5007642800482</v>
       </c>
       <c r="O48">
-        <v>2319.59977733771</v>
+        <v>2152.96267599586</v>
       </c>
       <c r="P48">
-        <v>95.72353911775301</v>
+        <v>85.75116703849071</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>630.038915980655</v>
+        <v>658.925281237291</v>
       </c>
       <c r="C49">
-        <v>6.87969886914132</v>
+        <v>9.424414700233919</v>
       </c>
       <c r="D49">
-        <v>3.6549050874728</v>
+        <v>2.73455339392107</v>
       </c>
       <c r="E49">
-        <v>19.5573050160807</v>
+        <v>14.6741182998268</v>
       </c>
       <c r="F49">
-        <v>26.8667587386452</v>
+        <v>25.5314194566031</v>
       </c>
       <c r="G49">
-        <v>14.7481534230582</v>
+        <v>12.9486829678356</v>
       </c>
       <c r="H49">
-        <v>7.29764388285418</v>
+        <v>6.26578618308382</v>
       </c>
       <c r="I49">
-        <v>6.12293102361581</v>
+        <v>6.40802692477366</v>
       </c>
       <c r="J49">
-        <v>19.8511807031014</v>
+        <v>17.3382605538921</v>
       </c>
       <c r="K49">
-        <v>3.55019780824891</v>
+        <v>5.52192955744116</v>
       </c>
       <c r="L49">
-        <v>1.30615754567511</v>
+        <v>2.33122971026117</v>
       </c>
       <c r="M49">
-        <v>7.61575617074261</v>
+        <v>5.71364835606175</v>
       </c>
       <c r="N49">
-        <v>5.17736205647923</v>
+        <v>4.57278998163244</v>
       </c>
       <c r="O49">
-        <v>583.294645755373</v>
+        <v>548.923774960911</v>
       </c>
       <c r="P49">
-        <v>7.80862886390421</v>
+        <v>7.53816554413227</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>1042.02177631595</v>
+        <v>1218.87919966294</v>
       </c>
       <c r="C50">
-        <v>76.7169417308813</v>
+        <v>68.0165419057724</v>
       </c>
       <c r="D50">
-        <v>19.5401132231989</v>
+        <v>14.2942374327247</v>
       </c>
       <c r="E50">
-        <v>148.84988154106</v>
+        <v>141.577135953063</v>
       </c>
       <c r="F50">
-        <v>4.12731917373015</v>
+        <v>1.76348695578017</v>
       </c>
       <c r="G50">
-        <v>29.8172190472875</v>
+        <v>21.8998883509874</v>
       </c>
       <c r="H50">
-        <v>40.921480116032</v>
+        <v>40.1348193370985</v>
       </c>
       <c r="I50">
-        <v>15.0148842826709</v>
+        <v>12.6782595737026</v>
       </c>
       <c r="J50">
-        <v>111.688946709863</v>
+        <v>90.6722403707782</v>
       </c>
       <c r="K50">
-        <v>92.5322541805819</v>
+        <v>106.879801068602</v>
       </c>
       <c r="L50">
-        <v>50.9770829538451</v>
+        <v>44.9628708000671</v>
       </c>
       <c r="M50">
-        <v>36.0601531296924</v>
+        <v>23.8196896894641</v>
       </c>
       <c r="N50">
-        <v>50.2082061338788</v>
+        <v>45.4115646433893</v>
       </c>
       <c r="O50">
-        <v>2019.19919143851</v>
+        <v>1906.04778409081</v>
       </c>
       <c r="P50">
-        <v>91.2218373384749</v>
+        <v>88.47420887263129</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>101.911031756971</v>
+        <v>113.017986364929</v>
       </c>
       <c r="C51">
-        <v>2.19152534948548</v>
+        <v>1.6048019131577</v>
       </c>
       <c r="D51">
-        <v>0.222926334860621</v>
+        <v>0.430686930588483</v>
       </c>
       <c r="E51">
-        <v>1.40002464081904</v>
+        <v>2.34494539870386</v>
       </c>
       <c r="F51">
-        <v>24.284674874605</v>
+        <v>27.1686430215705</v>
       </c>
       <c r="G51">
-        <v>1.79911096806676</v>
+        <v>1.89252697779311</v>
       </c>
       <c r="H51">
-        <v>0.00299155979975493</v>
+        <v>0.0196568294093534</v>
       </c>
       <c r="I51">
-        <v>0.787815342987285</v>
+        <v>1.29923255405079</v>
       </c>
       <c r="J51">
-        <v>0.691717435690288</v>
+        <v>1.22531993940314</v>
       </c>
       <c r="K51">
-        <v>0.910243598564639</v>
+        <v>1.06815073268208</v>
       </c>
       <c r="L51">
-        <v>0.178870233882287</v>
+        <v>0.115600645499538</v>
       </c>
       <c r="M51">
-        <v>0.178342930334149</v>
+        <v>0.267853219453045</v>
       </c>
       <c r="N51">
-        <v>1.44081094723729</v>
+        <v>1.32502316289273</v>
       </c>
       <c r="O51">
-        <v>195.035173996728</v>
+        <v>176.566688484662</v>
       </c>
       <c r="P51">
-        <v>17.4404809085636</v>
+        <v>16.8592146665662</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2002.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2002.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>1441.86940353576</v>
+        <v>1383.77162393854</v>
       </c>
       <c r="C2">
-        <v>31.2484139666823</v>
+        <v>37.4078131169886</v>
       </c>
       <c r="D2">
-        <v>48.588911677776</v>
+        <v>69.1929826315876</v>
       </c>
       <c r="E2">
-        <v>49.6618980771718</v>
+        <v>56.8498258110892</v>
       </c>
       <c r="F2">
-        <v>17.0795803662836</v>
+        <v>14.776301167448</v>
       </c>
       <c r="G2">
-        <v>14.336819130571</v>
+        <v>16.7778025731856</v>
       </c>
       <c r="H2">
-        <v>22.3133057831177</v>
+        <v>17.4228510669267</v>
       </c>
       <c r="I2">
-        <v>7.48445820591954</v>
+        <v>13.4972705461144</v>
       </c>
       <c r="J2">
-        <v>60.4761700147003</v>
+        <v>64.49224443076611</v>
       </c>
       <c r="K2">
-        <v>25.8543921749366</v>
+        <v>19.1698101078247</v>
       </c>
       <c r="L2">
-        <v>48.3873825060532</v>
+        <v>32.6243323651823</v>
       </c>
       <c r="M2">
-        <v>37.5675502748237</v>
+        <v>42.2772186448518</v>
       </c>
       <c r="N2">
-        <v>25.1370007105529</v>
+        <v>34.8255501710957</v>
       </c>
       <c r="O2">
-        <v>1299.69650019524</v>
+        <v>1315.3784124048</v>
       </c>
       <c r="P2">
-        <v>25.1033489902666</v>
+        <v>36.0506569290681</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>136.431958454314</v>
+        <v>134.781488670221</v>
       </c>
       <c r="C3">
-        <v>2.7704547626976</v>
+        <v>4.10033110051276</v>
       </c>
       <c r="D3">
-        <v>0.191344479896676</v>
+        <v>0.233316516372231</v>
       </c>
       <c r="E3">
-        <v>2.15205632752994</v>
+        <v>1.74987387279173</v>
       </c>
       <c r="F3">
-        <v>8.42825241322053</v>
+        <v>8.21702269865974</v>
       </c>
       <c r="G3">
-        <v>0.374340409953637</v>
+        <v>0.379139339104875</v>
       </c>
       <c r="H3">
-        <v>0.0175935867868989</v>
+        <v>0.0583291290930578</v>
       </c>
       <c r="I3">
-        <v>0.528795241387681</v>
+        <v>0.320810210011817</v>
       </c>
       <c r="J3">
-        <v>0.735548701069214</v>
+        <v>0.583291290930578</v>
       </c>
       <c r="K3">
-        <v>0.224608601677189</v>
+        <v>0.145822822732644</v>
       </c>
       <c r="L3">
-        <v>0.277105473614117</v>
+        <v>0.349974774558347</v>
       </c>
       <c r="M3">
-        <v>0.712930084813456</v>
+        <v>0.641620420023636</v>
       </c>
       <c r="N3">
-        <v>2.52798275690557</v>
+        <v>0.641620420023636</v>
       </c>
       <c r="O3">
-        <v>236.705344194667</v>
+        <v>216.429059591588</v>
       </c>
       <c r="P3">
-        <v>8.791267154446169</v>
+        <v>7.45172551133808</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>1527.80430164478</v>
+        <v>1610.50833235593</v>
       </c>
       <c r="C4">
-        <v>7.2475690690157</v>
+        <v>13.4030496639299</v>
       </c>
       <c r="D4">
-        <v>3.41796406050848</v>
+        <v>4.14340150055778</v>
       </c>
       <c r="E4">
-        <v>11.9222950766554</v>
+        <v>23.8388895446348</v>
       </c>
       <c r="F4">
-        <v>9.87847157148728</v>
+        <v>20.0304476782957</v>
       </c>
       <c r="G4">
-        <v>7.08616372817987</v>
+        <v>8.96638381647012</v>
       </c>
       <c r="H4">
-        <v>12.8517866054452</v>
+        <v>7.80430739925032</v>
       </c>
       <c r="I4">
-        <v>13.326461267173</v>
+        <v>9.41606653605202</v>
       </c>
       <c r="J4">
-        <v>8.42112073934047</v>
+        <v>26.0667172966049</v>
       </c>
       <c r="K4">
-        <v>7.73299051196479</v>
+        <v>10.4340196750847</v>
       </c>
       <c r="L4">
-        <v>51.8050439294129</v>
+        <v>70.94664521442169</v>
       </c>
       <c r="M4">
-        <v>33.7621073673202</v>
+        <v>48.3353965443145</v>
       </c>
       <c r="N4">
-        <v>16.4013959472494</v>
+        <v>25.608996333857</v>
       </c>
       <c r="O4">
-        <v>1961.35809140742</v>
+        <v>1789.6797229975</v>
       </c>
       <c r="P4">
-        <v>20.3469357149703</v>
+        <v>27.6546532609765</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>815.322762292314</v>
+        <v>820.801612099881</v>
       </c>
       <c r="C5">
-        <v>41.7997151864216</v>
+        <v>59.6190447594498</v>
       </c>
       <c r="D5">
-        <v>7.69596568815517</v>
+        <v>12.2444632676633</v>
       </c>
       <c r="E5">
-        <v>24.4486324131988</v>
+        <v>45.525585896528</v>
       </c>
       <c r="F5">
-        <v>3.17642075595968</v>
+        <v>5.74282809205453</v>
       </c>
       <c r="G5">
-        <v>5.3910325629043</v>
+        <v>10.1967950012975</v>
       </c>
       <c r="H5">
-        <v>14.4391218192827</v>
+        <v>15.1464688301627</v>
       </c>
       <c r="I5">
-        <v>9.761918331025161</v>
+        <v>6.67994143536038</v>
       </c>
       <c r="J5">
-        <v>26.3915860797777</v>
+        <v>31.1678680740841</v>
       </c>
       <c r="K5">
-        <v>18.6058979605151</v>
+        <v>18.0717362115739</v>
       </c>
       <c r="L5">
-        <v>19.6305877230882</v>
+        <v>20.9496101579876</v>
       </c>
       <c r="M5">
-        <v>20.9722836201891</v>
+        <v>25.2629041370947</v>
       </c>
       <c r="N5">
-        <v>20.7292865240108</v>
+        <v>22.9909615081859</v>
       </c>
       <c r="O5">
-        <v>851.109700758787</v>
+        <v>771.612036637261</v>
       </c>
       <c r="P5">
-        <v>47.3954695179018</v>
+        <v>53.3860636373512</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>9350.25841914034</v>
+        <v>9749.330093412849</v>
       </c>
       <c r="C6">
-        <v>148.5944412734</v>
+        <v>195.002942328106</v>
       </c>
       <c r="D6">
-        <v>154.331124643916</v>
+        <v>172.884006867583</v>
       </c>
       <c r="E6">
-        <v>125.573629489172</v>
+        <v>190.461032408158</v>
       </c>
       <c r="F6">
-        <v>37.6120002230771</v>
+        <v>50.1603346552392</v>
       </c>
       <c r="G6">
-        <v>76.61984861054739</v>
+        <v>91.7798862745572</v>
       </c>
       <c r="H6">
-        <v>70.82129906762771</v>
+        <v>59.9334440593994</v>
       </c>
       <c r="I6">
-        <v>15.5353553492305</v>
+        <v>48.3251948337559</v>
       </c>
       <c r="J6">
-        <v>133.846293833388</v>
+        <v>169.714006122684</v>
       </c>
       <c r="K6">
-        <v>97.0718270091399</v>
+        <v>88.94851070144981</v>
       </c>
       <c r="L6">
-        <v>448.573862002641</v>
+        <v>570.009585685454</v>
       </c>
       <c r="M6">
-        <v>226.711383558722</v>
+        <v>250.726462812832</v>
       </c>
       <c r="N6">
-        <v>276.47132498194</v>
+        <v>247.897101632231</v>
       </c>
       <c r="O6">
-        <v>11834.9410702938</v>
+        <v>11110.8492987131</v>
       </c>
       <c r="P6">
-        <v>307.418344020374</v>
+        <v>303.010151669754</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>1022.16084021646</v>
+        <v>1024.994281914</v>
       </c>
       <c r="C7">
-        <v>31.5570058921736</v>
+        <v>25.4458866983373</v>
       </c>
       <c r="D7">
-        <v>3.64236230290205</v>
+        <v>4.98578420198625</v>
       </c>
       <c r="E7">
-        <v>16.205421133773</v>
+        <v>22.2521127186562</v>
       </c>
       <c r="F7">
-        <v>9.54228272688243</v>
+        <v>23.0091405232875</v>
       </c>
       <c r="G7">
-        <v>10.7503482169926</v>
+        <v>9.718053953024031</v>
       </c>
       <c r="H7">
-        <v>5.75437713579469</v>
+        <v>6.36602954603895</v>
       </c>
       <c r="I7">
-        <v>5.40823106572816</v>
+        <v>10.6870664734349</v>
       </c>
       <c r="J7">
-        <v>20.2323705863761</v>
+        <v>21.0038266553088</v>
       </c>
       <c r="K7">
-        <v>14.829946100653</v>
+        <v>11.3751713626532</v>
       </c>
       <c r="L7">
-        <v>42.6727131472329</v>
+        <v>65.32050747890131</v>
       </c>
       <c r="M7">
-        <v>15.0769933583554</v>
+        <v>16.9425531791167</v>
       </c>
       <c r="N7">
-        <v>24.1873295834066</v>
+        <v>24.2232168999422</v>
       </c>
       <c r="O7">
-        <v>1812.22551069779</v>
+        <v>1720.45790015618</v>
       </c>
       <c r="P7">
-        <v>21.1732532647038</v>
+        <v>53.447347513443</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>851.103653708882</v>
+        <v>876.993296291542</v>
       </c>
       <c r="C8">
-        <v>6.48430056442604</v>
+        <v>12.2163105347928</v>
       </c>
       <c r="D8">
-        <v>6.64634211483854</v>
+        <v>8.02061532585963</v>
       </c>
       <c r="E8">
-        <v>13.2131749580646</v>
+        <v>23.548195411489</v>
       </c>
       <c r="F8">
-        <v>2.09490097677315</v>
+        <v>1.89877450256223</v>
       </c>
       <c r="G8">
-        <v>21.7154660202427</v>
+        <v>25.015737840446</v>
       </c>
       <c r="H8">
-        <v>12.22909793661</v>
+        <v>7.31533164692978</v>
       </c>
       <c r="I8">
-        <v>10.1590357662708</v>
+        <v>3.38411344313678</v>
       </c>
       <c r="J8">
-        <v>42.2069354009881</v>
+        <v>44.7933383597721</v>
       </c>
       <c r="K8">
-        <v>26.6409477183734</v>
+        <v>22.2408174825289</v>
       </c>
       <c r="L8">
-        <v>40.9523065176799</v>
+        <v>45.3529287234569</v>
       </c>
       <c r="M8">
-        <v>44.3103181498619</v>
+        <v>55.3786898204653</v>
       </c>
       <c r="N8">
-        <v>21.7403045778853</v>
+        <v>23.7326433054386</v>
       </c>
       <c r="O8">
-        <v>1298.73581382704</v>
+        <v>1236.83931728448</v>
       </c>
       <c r="P8">
-        <v>2.7378310280836</v>
+        <v>6.7149337611848</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>210.00401004918</v>
+        <v>213.483727240722</v>
       </c>
       <c r="C9">
-        <v>5.43772040102463</v>
+        <v>8.83186234121801</v>
       </c>
       <c r="D9">
-        <v>2.51622161403379</v>
+        <v>2.05211143648243</v>
       </c>
       <c r="E9">
-        <v>5.04404047062131</v>
+        <v>5.59028360008442</v>
       </c>
       <c r="F9">
-        <v>1.61984811887038</v>
+        <v>1.88172981145336</v>
       </c>
       <c r="G9">
-        <v>19.4053812634088</v>
+        <v>16.9537956373923</v>
       </c>
       <c r="H9">
-        <v>3.05416381300671</v>
+        <v>3.19217334563933</v>
       </c>
       <c r="I9">
-        <v>1.17043074090478</v>
+        <v>0.912049527325523</v>
       </c>
       <c r="J9">
-        <v>3.58242514947508</v>
+        <v>3.47718882292856</v>
       </c>
       <c r="K9">
-        <v>4.5143695811084</v>
+        <v>2.05902675636165</v>
       </c>
       <c r="L9">
-        <v>1.58987285228869</v>
+        <v>2.50450716741505</v>
       </c>
       <c r="M9">
-        <v>8.421667732408091</v>
+        <v>6.46772184642663</v>
       </c>
       <c r="N9">
-        <v>5.13569840048347</v>
+        <v>4.23477420887115</v>
       </c>
       <c r="O9">
-        <v>279.470901864628</v>
+        <v>285.958932742484</v>
       </c>
       <c r="P9">
-        <v>3.7754946867198</v>
+        <v>3.89196849695397</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>5305.52049816712</v>
+        <v>5401.96851257499</v>
       </c>
       <c r="C10">
-        <v>55.8356699690055</v>
+        <v>59.7856181296258</v>
       </c>
       <c r="D10">
-        <v>20.9606079910095</v>
+        <v>24.7838762286667</v>
       </c>
       <c r="E10">
-        <v>31.5474714219971</v>
+        <v>78.2007457632517</v>
       </c>
       <c r="F10">
-        <v>13.763549560417</v>
+        <v>13.2074208487767</v>
       </c>
       <c r="G10">
-        <v>28.8825919012276</v>
+        <v>35.6791430288701</v>
       </c>
       <c r="H10">
-        <v>13.6381639988046</v>
+        <v>19.8926658939604</v>
       </c>
       <c r="I10">
-        <v>31.7505979915148</v>
+        <v>25.05774231464</v>
       </c>
       <c r="J10">
-        <v>53.5637211580828</v>
+        <v>46.0428522704666</v>
       </c>
       <c r="K10">
-        <v>39.0704222939739</v>
+        <v>32.4105943630614</v>
       </c>
       <c r="L10">
-        <v>60.4162664837526</v>
+        <v>88.8454349197924</v>
       </c>
       <c r="M10">
-        <v>79.9179930122456</v>
+        <v>81.9668608994334</v>
       </c>
       <c r="N10">
-        <v>65.5752158743322</v>
+        <v>81.9301996075973</v>
       </c>
       <c r="O10">
-        <v>6103.94137266098</v>
+        <v>5933.72199768201</v>
       </c>
       <c r="P10">
-        <v>83.6688323655077</v>
+        <v>95.1881269840441</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>2301.44465924661</v>
+        <v>2171.33404941701</v>
       </c>
       <c r="C11">
-        <v>58.5780383853861</v>
+        <v>83.740553623853</v>
       </c>
       <c r="D11">
-        <v>173.223242241518</v>
+        <v>126.392612796976</v>
       </c>
       <c r="E11">
-        <v>43.0504176618071</v>
+        <v>92.00782661351499</v>
       </c>
       <c r="F11">
-        <v>7.82564012486116</v>
+        <v>12.2585757868648</v>
       </c>
       <c r="G11">
-        <v>22.6721937213996</v>
+        <v>33.2768290965238</v>
       </c>
       <c r="H11">
-        <v>18.5701674233037</v>
+        <v>30.289966297858</v>
       </c>
       <c r="I11">
-        <v>13.6141257923812</v>
+        <v>18.5805897948114</v>
       </c>
       <c r="J11">
-        <v>41.3346775784729</v>
+        <v>43.3970047870175</v>
       </c>
       <c r="K11">
-        <v>25.8897969103019</v>
+        <v>37.6865539099303</v>
       </c>
       <c r="L11">
-        <v>44.4210316063483</v>
+        <v>67.9416312447315</v>
       </c>
       <c r="M11">
-        <v>41.3418709693581</v>
+        <v>69.8321323795834</v>
       </c>
       <c r="N11">
-        <v>29.5955373307817</v>
+        <v>55.6995138655123</v>
       </c>
       <c r="O11">
-        <v>2824.30804274964</v>
+        <v>2795.10860428509</v>
       </c>
       <c r="P11">
-        <v>40.9115194069656</v>
+        <v>59.1303253140179</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>330.590631429531</v>
+        <v>346.384990549847</v>
       </c>
       <c r="C12">
-        <v>6.15697620400781</v>
+        <v>5.08190843947455</v>
       </c>
       <c r="D12">
-        <v>1.75722488682484</v>
+        <v>2.07463949970693</v>
       </c>
       <c r="E12">
-        <v>2.3388288256244</v>
+        <v>2.92341890635848</v>
       </c>
       <c r="F12">
-        <v>1.37632090920803</v>
+        <v>0.719208359898402</v>
       </c>
       <c r="G12">
-        <v>0.0703574588481337</v>
+        <v>0.442589759937478</v>
       </c>
       <c r="H12">
-        <v>0.0571738217870431</v>
+        <v>0.08915203263845251</v>
       </c>
       <c r="I12">
-        <v>0.511023769581024</v>
+        <v>0.995826959859322</v>
       </c>
       <c r="J12">
-        <v>2.19204008138972</v>
+        <v>0.6085609199140321</v>
       </c>
       <c r="K12">
-        <v>0.190649025549868</v>
+        <v>0.414927899941385</v>
       </c>
       <c r="L12">
-        <v>0.193150072172556</v>
+        <v>0.275831651488638</v>
       </c>
       <c r="M12">
-        <v>3.4537025078878</v>
+        <v>3.92798411944512</v>
       </c>
       <c r="N12">
-        <v>1.33076993873333</v>
+        <v>2.25327605565252</v>
       </c>
       <c r="O12">
-        <v>470.571737487706</v>
+        <v>457.733781916483</v>
       </c>
       <c r="P12">
-        <v>15.4257436087608</v>
+        <v>14.9585367856982</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>313.004944722655</v>
+        <v>350.118743784413</v>
       </c>
       <c r="C13">
-        <v>15.0538660682126</v>
+        <v>19.6637685921162</v>
       </c>
       <c r="D13">
-        <v>0.281963481005774</v>
+        <v>1.21967752553177</v>
       </c>
       <c r="E13">
-        <v>14.4263501300686</v>
+        <v>17.8348148197176</v>
       </c>
       <c r="F13">
-        <v>3.93622588380111</v>
+        <v>2.7108055504409</v>
       </c>
       <c r="G13">
-        <v>4.70625059580946</v>
+        <v>5.10296837867146</v>
       </c>
       <c r="H13">
-        <v>2.27577266090206</v>
+        <v>1.84369858510617</v>
       </c>
       <c r="I13">
-        <v>2.36926044174435</v>
+        <v>1.70187561702108</v>
       </c>
       <c r="J13">
-        <v>3.89557915409792</v>
+        <v>5.23750606816232</v>
       </c>
       <c r="K13">
-        <v>2.77626991076944</v>
+        <v>2.55281342553161</v>
       </c>
       <c r="L13">
-        <v>16.2983735261018</v>
+        <v>21.2824396422622</v>
       </c>
       <c r="M13">
-        <v>1.78116704529641</v>
+        <v>3.12010529787197</v>
       </c>
       <c r="N13">
-        <v>5.68117506040489</v>
+        <v>6.30993974212231</v>
       </c>
       <c r="O13">
-        <v>455.143398199995</v>
+        <v>410.380639590091</v>
       </c>
       <c r="P13">
-        <v>51.4109771605057</v>
+        <v>40.7631734835022</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>3332.74685111129</v>
+        <v>3373.8896354282</v>
       </c>
       <c r="C14">
-        <v>121.71836612501</v>
+        <v>107.291058564847</v>
       </c>
       <c r="D14">
-        <v>23.8855057814333</v>
+        <v>18.222375276958</v>
       </c>
       <c r="E14">
-        <v>62.6779142795029</v>
+        <v>133.337269487233</v>
       </c>
       <c r="F14">
-        <v>13.4006947466258</v>
+        <v>31.0601171235313</v>
       </c>
       <c r="G14">
-        <v>76.1624958338496</v>
+        <v>73.571723423584</v>
       </c>
       <c r="H14">
-        <v>33.4846943785791</v>
+        <v>66.1513652076341</v>
       </c>
       <c r="I14">
-        <v>23.3045776877266</v>
+        <v>20.1385800309434</v>
       </c>
       <c r="J14">
-        <v>146.330717306827</v>
+        <v>183.272825517263</v>
       </c>
       <c r="K14">
-        <v>140.849724606946</v>
+        <v>137.261753877332</v>
       </c>
       <c r="L14">
-        <v>122.749512833443</v>
+        <v>130.909630051164</v>
       </c>
       <c r="M14">
-        <v>77.8115908579796</v>
+        <v>87.3814115452617</v>
       </c>
       <c r="N14">
-        <v>72.03107369451671</v>
+        <v>75.03552997264021</v>
       </c>
       <c r="O14">
-        <v>4322.68414398002</v>
+        <v>4104.78979135404</v>
       </c>
       <c r="P14">
-        <v>76.4216114740168</v>
+        <v>78.4928884591296</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>1544.63708523222</v>
+        <v>1581.26948852886</v>
       </c>
       <c r="C15">
-        <v>34.121227635817</v>
+        <v>40.5115472926473</v>
       </c>
       <c r="D15">
-        <v>10.6682987509204</v>
+        <v>12.136488404904</v>
       </c>
       <c r="E15">
-        <v>51.5905461567412</v>
+        <v>70.7285218764265</v>
       </c>
       <c r="F15">
-        <v>17.0422225131424</v>
+        <v>12.6179020009127</v>
       </c>
       <c r="G15">
-        <v>37.2571741428753</v>
+        <v>40.930523294716</v>
       </c>
       <c r="H15">
-        <v>70.6789691147748</v>
+        <v>53.6663916221125</v>
       </c>
       <c r="I15">
-        <v>23.4203811360939</v>
+        <v>20.253508023107</v>
       </c>
       <c r="J15">
-        <v>125.95594125784</v>
+        <v>146.878182977679</v>
       </c>
       <c r="K15">
-        <v>65.6507567227997</v>
+        <v>50.6848367750987</v>
       </c>
       <c r="L15">
-        <v>37.1391089531331</v>
+        <v>60.5905058513958</v>
       </c>
       <c r="M15">
-        <v>154.457040085908</v>
+        <v>208.099252849335</v>
       </c>
       <c r="N15">
-        <v>84.46069690882079</v>
+        <v>78.8317798587666</v>
       </c>
       <c r="O15">
-        <v>1969.17918257019</v>
+        <v>1853.6972184606</v>
       </c>
       <c r="P15">
-        <v>48.8868238328363</v>
+        <v>43.2158391721829</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>646.353992488499</v>
+        <v>719.199014509643</v>
       </c>
       <c r="C16">
-        <v>55.5793207536681</v>
+        <v>59.7340107318749</v>
       </c>
       <c r="D16">
-        <v>6.22188913386005</v>
+        <v>6.71104355875792</v>
       </c>
       <c r="E16">
-        <v>26.720907753545</v>
+        <v>25.1111214042263</v>
       </c>
       <c r="F16">
-        <v>4.03975583304714</v>
+        <v>3.37219540502357</v>
       </c>
       <c r="G16">
-        <v>18.6316989528239</v>
+        <v>10.3244168990139</v>
       </c>
       <c r="H16">
-        <v>14.2937051322054</v>
+        <v>17.1415289453568</v>
       </c>
       <c r="I16">
-        <v>8.97926235489996</v>
+        <v>9.84017675564257</v>
       </c>
       <c r="J16">
-        <v>43.2696284691385</v>
+        <v>47.2465771185944</v>
       </c>
       <c r="K16">
-        <v>41.5821208199008</v>
+        <v>46.0429143650594</v>
       </c>
       <c r="L16">
-        <v>25.0681556426746</v>
+        <v>35.2809050532039</v>
       </c>
       <c r="M16">
-        <v>29.686683879459</v>
+        <v>27.8926832037258</v>
       </c>
       <c r="N16">
-        <v>19.1280986024227</v>
+        <v>16.8305894309471</v>
       </c>
       <c r="O16">
-        <v>1035.58932544228</v>
+        <v>957.29078177078</v>
       </c>
       <c r="P16">
-        <v>71.3120432698875</v>
+        <v>70.5373614293522</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>642.318011201054</v>
+        <v>666.963357811626</v>
       </c>
       <c r="C17">
-        <v>15.0515666358056</v>
+        <v>30.1736519606061</v>
       </c>
       <c r="D17">
-        <v>3.00728147351898</v>
+        <v>4.40078566430918</v>
       </c>
       <c r="E17">
-        <v>7.06176873100055</v>
+        <v>24.0042854416864</v>
       </c>
       <c r="F17">
-        <v>9.862842089031901</v>
+        <v>16.4402446693212</v>
       </c>
       <c r="G17">
-        <v>4.62173551392908</v>
+        <v>8.63834924110262</v>
       </c>
       <c r="H17">
-        <v>8.57757393788226</v>
+        <v>13.8056303779406</v>
       </c>
       <c r="I17">
-        <v>8.286138007968921</v>
+        <v>8.84775662780986</v>
       </c>
       <c r="J17">
-        <v>10.6838391547823</v>
+        <v>18.2001343783164</v>
       </c>
       <c r="K17">
-        <v>9.85015593883892</v>
+        <v>18.9160541186577</v>
       </c>
       <c r="L17">
-        <v>1.94801748008792</v>
+        <v>9.95977557514955</v>
       </c>
       <c r="M17">
-        <v>56.2476011131012</v>
+        <v>65.09876182244631</v>
       </c>
       <c r="N17">
-        <v>14.2077897828879</v>
+        <v>14.2606710030644</v>
       </c>
       <c r="O17">
-        <v>1006.51795273417</v>
+        <v>888.12989682162</v>
       </c>
       <c r="P17">
-        <v>47.0338515394864</v>
+        <v>62.4894008621577</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>1249.02303566908</v>
+        <v>1264.90381517928</v>
       </c>
       <c r="C18">
-        <v>27.9738265541804</v>
+        <v>34.4240521874148</v>
       </c>
       <c r="D18">
-        <v>9.487556041489981</v>
+        <v>21.1032208862493</v>
       </c>
       <c r="E18">
-        <v>27.556851711636</v>
+        <v>50.8198755075108</v>
       </c>
       <c r="F18">
-        <v>27.7415009265456</v>
+        <v>26.1522004041238</v>
       </c>
       <c r="G18">
-        <v>22.2431877690098</v>
+        <v>17.0665432186848</v>
       </c>
       <c r="H18">
-        <v>12.9675212326866</v>
+        <v>20.9385332041498</v>
       </c>
       <c r="I18">
-        <v>1.97031326712416</v>
+        <v>10.8348386317659</v>
       </c>
       <c r="J18">
-        <v>34.8310961096499</v>
+        <v>50.9538328782942</v>
       </c>
       <c r="K18">
-        <v>24.8697184419485</v>
+        <v>32.2075133477853</v>
       </c>
       <c r="L18">
-        <v>32.5815134012361</v>
+        <v>27.2067007475238</v>
       </c>
       <c r="M18">
-        <v>67.10839548486</v>
+        <v>70.9654984265386</v>
       </c>
       <c r="N18">
-        <v>29.0865216770888</v>
+        <v>22.0571314149318</v>
       </c>
       <c r="O18">
-        <v>1247.95917700089</v>
+        <v>1197.41363414639</v>
       </c>
       <c r="P18">
-        <v>61.7175374550142</v>
+        <v>38.2513958920418</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>1332.01571751518</v>
+        <v>1359.47457575895</v>
       </c>
       <c r="C19">
-        <v>22.3111364284995</v>
+        <v>23.6083353862649</v>
       </c>
       <c r="D19">
-        <v>9.31715339790845</v>
+        <v>9.822512186369529</v>
       </c>
       <c r="E19">
-        <v>36.3649580882646</v>
+        <v>36.0811953404744</v>
       </c>
       <c r="F19">
-        <v>76.92153153098261</v>
+        <v>78.3413497374991</v>
       </c>
       <c r="G19">
-        <v>25.4616806547619</v>
+        <v>40.7758597045723</v>
       </c>
       <c r="H19">
-        <v>4.90651664537524</v>
+        <v>6.42672940193891</v>
       </c>
       <c r="I19">
-        <v>1.27290543359721</v>
+        <v>7.14466385587859</v>
       </c>
       <c r="J19">
-        <v>17.6897176588105</v>
+        <v>23.6301578883518</v>
       </c>
       <c r="K19">
-        <v>15.7101868544785</v>
+        <v>11.9366056121232</v>
       </c>
       <c r="L19">
-        <v>8.81748000483849</v>
+        <v>6.75529684605516</v>
       </c>
       <c r="M19">
-        <v>19.3063403628511</v>
+        <v>28.6775810301593</v>
       </c>
       <c r="N19">
-        <v>16.0905451058286</v>
+        <v>10.6363774818116</v>
       </c>
       <c r="O19">
-        <v>1448.64522559812</v>
+        <v>1396.19438521795</v>
       </c>
       <c r="P19">
-        <v>30.9348845435059</v>
+        <v>32.8956684479324</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>352.626133672427</v>
+        <v>353.801705205454</v>
       </c>
       <c r="C20">
-        <v>5.20486908302068</v>
+        <v>8.65124032754332</v>
       </c>
       <c r="D20">
-        <v>6.0970084315573</v>
+        <v>13.3829111416531</v>
       </c>
       <c r="E20">
-        <v>33.8589508505646</v>
+        <v>37.0430579217933</v>
       </c>
       <c r="F20">
-        <v>1.33169855942543</v>
+        <v>0.494803072349817</v>
       </c>
       <c r="G20">
-        <v>1.93369489207024</v>
+        <v>1.61462055187835</v>
       </c>
       <c r="H20">
-        <v>0.666524944925696</v>
+        <v>1.82295868760459</v>
       </c>
       <c r="I20">
-        <v>3.4680163309323</v>
+        <v>1.66670508580991</v>
       </c>
       <c r="J20">
-        <v>4.3909840501308</v>
+        <v>6.53660900841074</v>
       </c>
       <c r="K20">
-        <v>4.79689207580007</v>
+        <v>4.12827617392038</v>
       </c>
       <c r="L20">
-        <v>5.13848039762308</v>
+        <v>8.35205496187328</v>
       </c>
       <c r="M20">
-        <v>11.3311292199894</v>
+        <v>15.4380143443209</v>
       </c>
       <c r="N20">
-        <v>4.61767191249273</v>
+        <v>6.82307394503431</v>
       </c>
       <c r="O20">
-        <v>474.476232784465</v>
+        <v>452.182327622625</v>
       </c>
       <c r="P20">
-        <v>25.5244901462307</v>
+        <v>22.0007651663446</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>1291.83772297459</v>
+        <v>1373.70827946956</v>
       </c>
       <c r="C21">
-        <v>32.7144166963431</v>
+        <v>25.5066307126345</v>
       </c>
       <c r="D21">
-        <v>6.50344773748676</v>
+        <v>11.7145837888345</v>
       </c>
       <c r="E21">
-        <v>18.06164270779</v>
+        <v>41.9914922308946</v>
       </c>
       <c r="F21">
-        <v>5.5232564963296</v>
+        <v>4.09721896062682</v>
       </c>
       <c r="G21">
-        <v>20.4669823299154</v>
+        <v>20.8103735517648</v>
       </c>
       <c r="H21">
-        <v>5.19357480761518</v>
+        <v>7.87704772007832</v>
       </c>
       <c r="I21">
-        <v>16.9329110346898</v>
+        <v>6.83831615259546</v>
       </c>
       <c r="J21">
-        <v>26.6305304750919</v>
+        <v>27.0935817185112</v>
       </c>
       <c r="K21">
-        <v>3.59360307820152</v>
+        <v>10.264108926757</v>
       </c>
       <c r="L21">
-        <v>23.9742995271574</v>
+        <v>39.904604384133</v>
       </c>
       <c r="M21">
-        <v>18.6654126022266</v>
+        <v>27.3817657716545</v>
       </c>
       <c r="N21">
-        <v>26.4685660738107</v>
+        <v>20.197558256611</v>
       </c>
       <c r="O21">
-        <v>2218.33808669855</v>
+        <v>2077.64379772452</v>
       </c>
       <c r="P21">
-        <v>16.4914472169152</v>
+        <v>18.4790883441371</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>1648.10197044342</v>
+        <v>1630.61644032952</v>
       </c>
       <c r="C22">
-        <v>17.8216922926235</v>
+        <v>27.8437165833377</v>
       </c>
       <c r="D22">
-        <v>19.4788718190442</v>
+        <v>25.7850825276423</v>
       </c>
       <c r="E22">
-        <v>23.2127719032048</v>
+        <v>54.833468455012</v>
       </c>
       <c r="F22">
-        <v>2.46652023798954</v>
+        <v>3.06994642756253</v>
       </c>
       <c r="G22">
-        <v>23.6042321642662</v>
+        <v>27.4252457098938</v>
       </c>
       <c r="H22">
-        <v>15.2208639397866</v>
+        <v>18.9906504644459</v>
       </c>
       <c r="I22">
-        <v>5.22896824968516</v>
+        <v>9.584035816384869</v>
       </c>
       <c r="J22">
-        <v>48.9771459263129</v>
+        <v>51.2971274553137</v>
       </c>
       <c r="K22">
-        <v>35.4990544897531</v>
+        <v>26.2676634396988</v>
       </c>
       <c r="L22">
-        <v>106.89638981605</v>
+        <v>130.067001096476</v>
       </c>
       <c r="M22">
-        <v>7.33139102714836</v>
+        <v>19.1716991044338</v>
       </c>
       <c r="N22">
-        <v>75.05079938777379</v>
+        <v>50.4017832381016</v>
       </c>
       <c r="O22">
-        <v>2421.61806409726</v>
+        <v>2368.84480241245</v>
       </c>
       <c r="P22">
-        <v>14.3491608660712</v>
+        <v>12.6347793577469</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>2715.33774537012</v>
+        <v>2771.17937600526</v>
       </c>
       <c r="C23">
-        <v>37.9806074951821</v>
+        <v>44.558380602484</v>
       </c>
       <c r="D23">
-        <v>10.5093733759912</v>
+        <v>10.6890696747891</v>
       </c>
       <c r="E23">
-        <v>23.1734712863267</v>
+        <v>73.5135206922605</v>
       </c>
       <c r="F23">
-        <v>12.7787083712658</v>
+        <v>14.573150013935</v>
       </c>
       <c r="G23">
-        <v>55.5916752690387</v>
+        <v>49.0173712897945</v>
       </c>
       <c r="H23">
-        <v>69.40439400893131</v>
+        <v>66.6955912733001</v>
       </c>
       <c r="I23">
-        <v>14.868030900016</v>
+        <v>16.5612471585657</v>
       </c>
       <c r="J23">
-        <v>116.133591407941</v>
+        <v>150.941268981829</v>
       </c>
       <c r="K23">
-        <v>120.599601207372</v>
+        <v>97.12187459236191</v>
       </c>
       <c r="L23">
-        <v>31.5807965198628</v>
+        <v>45.4842428799575</v>
       </c>
       <c r="M23">
-        <v>468.828863684626</v>
+        <v>493.451164556264</v>
       </c>
       <c r="N23">
-        <v>73.02325202253491</v>
+        <v>71.937179242927</v>
       </c>
       <c r="O23">
-        <v>3169.40505516729</v>
+        <v>3019.67035417887</v>
       </c>
       <c r="P23">
-        <v>58.4717175126987</v>
+        <v>55.3539102671449</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>1043.33360888495</v>
+        <v>1116.77752385765</v>
       </c>
       <c r="C24">
-        <v>60.4486612886883</v>
+        <v>67.9665921354234</v>
       </c>
       <c r="D24">
-        <v>3.91384316803938</v>
+        <v>5.54091891577594</v>
       </c>
       <c r="E24">
-        <v>58.8917663905848</v>
+        <v>78.7996332559172</v>
       </c>
       <c r="F24">
-        <v>15.8912896069959</v>
+        <v>13.5216366958922</v>
       </c>
       <c r="G24">
-        <v>21.9356494181311</v>
+        <v>15.6208735176732</v>
       </c>
       <c r="H24">
-        <v>11.26207653993</v>
+        <v>19.6389405377984</v>
       </c>
       <c r="I24">
-        <v>18.3566295806684</v>
+        <v>15.186362715298</v>
       </c>
       <c r="J24">
-        <v>33.523780915573</v>
+        <v>63.1101445744166</v>
       </c>
       <c r="K24">
-        <v>58.4149332714937</v>
+        <v>47.4659367735591</v>
       </c>
       <c r="L24">
-        <v>44.1648949296956</v>
+        <v>74.0979617009917</v>
       </c>
       <c r="M24">
-        <v>32.1132487771816</v>
+        <v>32.4651831216785</v>
       </c>
       <c r="N24">
-        <v>59.3773768607979</v>
+        <v>52.4542791190244</v>
       </c>
       <c r="O24">
-        <v>1904.10380438804</v>
+        <v>1760.0270148352</v>
       </c>
       <c r="P24">
-        <v>101.803971812784</v>
+        <v>106.307071258563</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>870.17554099444</v>
+        <v>870.673311480673</v>
       </c>
       <c r="C25">
-        <v>38.3791488655149</v>
+        <v>28.4296197109056</v>
       </c>
       <c r="D25">
-        <v>18.7915145255116</v>
+        <v>20.0331080090739</v>
       </c>
       <c r="E25">
-        <v>27.8951959484882</v>
+        <v>35.5309641248339</v>
       </c>
       <c r="F25">
-        <v>16.3600035400354</v>
+        <v>8.443802674152551</v>
       </c>
       <c r="G25">
-        <v>8.0657006091234</v>
+        <v>9.86024289842852</v>
       </c>
       <c r="H25">
-        <v>7.27004258136356</v>
+        <v>12.8280535044838</v>
       </c>
       <c r="I25">
-        <v>8.52784417679303</v>
+        <v>5.69451646419467</v>
       </c>
       <c r="J25">
-        <v>14.6361868053597</v>
+        <v>17.9343529949996</v>
       </c>
       <c r="K25">
-        <v>15.6239657509722</v>
+        <v>15.9908170912898</v>
       </c>
       <c r="L25">
-        <v>21.2390020302182</v>
+        <v>24.1702048041607</v>
       </c>
       <c r="M25">
-        <v>26.9911666999254</v>
+        <v>25.9518119600868</v>
       </c>
       <c r="N25">
-        <v>45.923795729154</v>
+        <v>52.5644527387733</v>
       </c>
       <c r="O25">
-        <v>776.743617456786</v>
+        <v>779.560654420222</v>
       </c>
       <c r="P25">
-        <v>34.8621081906154</v>
+        <v>33.9521887047949</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>1401.09236446381</v>
+        <v>1528.72650647602</v>
       </c>
       <c r="C26">
-        <v>62.3794651470897</v>
+        <v>61.3875730195638</v>
       </c>
       <c r="D26">
-        <v>25.6422007093093</v>
+        <v>23.4334310182687</v>
       </c>
       <c r="E26">
-        <v>25.5517734624521</v>
+        <v>60.209352211676</v>
       </c>
       <c r="F26">
-        <v>10.8188317391237</v>
+        <v>12.1412341870015</v>
       </c>
       <c r="G26">
-        <v>33.1302395443862</v>
+        <v>25.4093014553586</v>
       </c>
       <c r="H26">
-        <v>22.6863044127927</v>
+        <v>21.2400072475378</v>
       </c>
       <c r="I26">
-        <v>22.8420582468174</v>
+        <v>15.2332526870355</v>
       </c>
       <c r="J26">
-        <v>61.2562672512329</v>
+        <v>65.2200567146424</v>
       </c>
       <c r="K26">
-        <v>33.3234438610558</v>
+        <v>37.0424070382624</v>
       </c>
       <c r="L26">
-        <v>28.8643621430576</v>
+        <v>43.1640333980317</v>
       </c>
       <c r="M26">
-        <v>71.44845388736741</v>
+        <v>77.18080247201451</v>
       </c>
       <c r="N26">
-        <v>23.9154156946864</v>
+        <v>43.9652673944703</v>
       </c>
       <c r="O26">
-        <v>2056.99615120725</v>
+        <v>1858.79184129904</v>
       </c>
       <c r="P26">
-        <v>67.0282354854361</v>
+        <v>74.36525704723211</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>251.67923288036</v>
+        <v>251.028803608192</v>
       </c>
       <c r="C27">
-        <v>3.38160339302563</v>
+        <v>2.85290157926752</v>
       </c>
       <c r="D27">
-        <v>1.74762114008161</v>
+        <v>1.107301677398</v>
       </c>
       <c r="E27">
-        <v>7.7816533726374</v>
+        <v>9.44128241036443</v>
       </c>
       <c r="F27">
-        <v>4.17242138190385</v>
+        <v>6.19189872583571</v>
       </c>
       <c r="G27">
-        <v>1.0999549156382</v>
+        <v>0.810220739559513</v>
       </c>
       <c r="H27">
-        <v>0.174742712524585</v>
+        <v>0.324088295823806</v>
       </c>
       <c r="I27">
-        <v>1.99842318350614</v>
+        <v>1.36810288599881</v>
       </c>
       <c r="J27">
-        <v>1.96453441165062</v>
+        <v>3.06546670642907</v>
       </c>
       <c r="K27">
-        <v>2.18416578644401</v>
+        <v>1.107301677398</v>
       </c>
       <c r="L27">
-        <v>0.294284579331405</v>
+        <v>1.6545239115909</v>
       </c>
       <c r="M27">
-        <v>0.23707960419303</v>
+        <v>0.891242813515466</v>
       </c>
       <c r="N27">
-        <v>3.91165847921902</v>
+        <v>3.97301301380934</v>
       </c>
       <c r="O27">
-        <v>325.988216045507</v>
+        <v>316.988888242958</v>
       </c>
       <c r="P27">
-        <v>41.2432259084563</v>
+        <v>39.7054535050901</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>375.598875415173</v>
+        <v>396.069067097692</v>
       </c>
       <c r="C28">
-        <v>35.6695818211952</v>
+        <v>34.811850962632</v>
       </c>
       <c r="D28">
-        <v>5.50753257391346</v>
+        <v>1.98584174192318</v>
       </c>
       <c r="E28">
-        <v>4.7226463544639</v>
+        <v>9.70938150085197</v>
       </c>
       <c r="F28">
-        <v>1.98355394066365</v>
+        <v>1.98081337823618</v>
       </c>
       <c r="G28">
-        <v>3.30035001626374</v>
+        <v>4.60500874946505</v>
       </c>
       <c r="H28">
-        <v>8.42465173354068</v>
+        <v>6.6807817998346</v>
       </c>
       <c r="I28">
-        <v>1.77709494184736</v>
+        <v>3.77059457374088</v>
       </c>
       <c r="J28">
-        <v>14.838518345131</v>
+        <v>12.8393452269814</v>
       </c>
       <c r="K28">
-        <v>11.2065627956919</v>
+        <v>15.8575203976675</v>
       </c>
       <c r="L28">
-        <v>11.2003562843222</v>
+        <v>12.5884544419155</v>
       </c>
       <c r="M28">
-        <v>4.56492754505352</v>
+        <v>10.4039391747722</v>
       </c>
       <c r="N28">
-        <v>14.6271309009354</v>
+        <v>10.5611875987391</v>
       </c>
       <c r="O28">
-        <v>621.573631305777</v>
+        <v>597.722885933659</v>
       </c>
       <c r="P28">
-        <v>76.2470328530648</v>
+        <v>81.9898101176658</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>543.30224689177</v>
+        <v>570.39934577882</v>
       </c>
       <c r="C29">
-        <v>2.28734395454924</v>
+        <v>5.11782323214008</v>
       </c>
       <c r="D29">
-        <v>5.3920604261947</v>
+        <v>1.58079138934806</v>
       </c>
       <c r="E29">
-        <v>1.60085939376151</v>
+        <v>7.1001647148684</v>
       </c>
       <c r="F29">
-        <v>19.4351062071478</v>
+        <v>16.4514489149115</v>
       </c>
       <c r="G29">
-        <v>0.452308831007285</v>
+        <v>2.08985980286692</v>
       </c>
       <c r="H29">
-        <v>3.05084947643064</v>
+        <v>2.89365203473882</v>
       </c>
       <c r="I29">
-        <v>2.43326151234981</v>
+        <v>2.86120730156892</v>
       </c>
       <c r="J29">
-        <v>6.12341109667664</v>
+        <v>6.91261319409829</v>
       </c>
       <c r="K29">
-        <v>2.16914695607945</v>
+        <v>2.38004959411673</v>
       </c>
       <c r="L29">
-        <v>2.14520032526037</v>
+        <v>5.78730406947764</v>
       </c>
       <c r="M29">
-        <v>5.07035238185711</v>
+        <v>3.50989274584061</v>
       </c>
       <c r="N29">
-        <v>12.1004964260828</v>
+        <v>8.94982743850248</v>
       </c>
       <c r="O29">
-        <v>843.5744415896</v>
+        <v>816.055547778611</v>
       </c>
       <c r="P29">
-        <v>9.75118190760548</v>
+        <v>6.4561885240446</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>288.120946703722</v>
+        <v>281.397980633718</v>
       </c>
       <c r="C30">
-        <v>4.00077085251387</v>
+        <v>3.7151910518131</v>
       </c>
       <c r="D30">
-        <v>8.86444998833456</v>
+        <v>5.99369707212142</v>
       </c>
       <c r="E30">
-        <v>8.4738269732775</v>
+        <v>16.2551055951149</v>
       </c>
       <c r="F30">
-        <v>2.52509107035318</v>
+        <v>0.837226152521261</v>
       </c>
       <c r="G30">
-        <v>4.14870513438694</v>
+        <v>3.97682422447599</v>
       </c>
       <c r="H30">
-        <v>4.32925278668543</v>
+        <v>4.92492383619285</v>
       </c>
       <c r="I30">
-        <v>3.99608442358161</v>
+        <v>2.74130952183063</v>
       </c>
       <c r="J30">
-        <v>17.2928469501664</v>
+        <v>21.0453280033296</v>
       </c>
       <c r="K30">
-        <v>10.7541729194975</v>
+        <v>8.30768966799967</v>
       </c>
       <c r="L30">
-        <v>24.3906319103415</v>
+        <v>32.4776167005048</v>
       </c>
       <c r="M30">
-        <v>8.583806946875489</v>
+        <v>7.74569369880891</v>
       </c>
       <c r="N30">
-        <v>10.5544276098343</v>
+        <v>12.9862479288752</v>
       </c>
       <c r="O30">
-        <v>467.930826010147</v>
+        <v>467.475814477358</v>
       </c>
       <c r="P30">
-        <v>9.720181627162861</v>
+        <v>5.56219225707494</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>2326.6654067455</v>
+        <v>2417.29012438717</v>
       </c>
       <c r="C31">
-        <v>33.7891752917592</v>
+        <v>41.4778851149806</v>
       </c>
       <c r="D31">
-        <v>42.6737014275109</v>
+        <v>33.2677264737353</v>
       </c>
       <c r="E31">
-        <v>37.4535280422385</v>
+        <v>57.2654628999514</v>
       </c>
       <c r="F31">
-        <v>8.8555873666407</v>
+        <v>9.59071043699279</v>
       </c>
       <c r="G31">
-        <v>102.530592485118</v>
+        <v>123.355897523224</v>
       </c>
       <c r="H31">
-        <v>10.8911696135276</v>
+        <v>23.6003616099668</v>
       </c>
       <c r="I31">
-        <v>23.8950945885557</v>
+        <v>19.0791016324482</v>
       </c>
       <c r="J31">
-        <v>36.4481546191337</v>
+        <v>44.7437308495503</v>
       </c>
       <c r="K31">
-        <v>17.9878623070385</v>
+        <v>23.5077632861709</v>
       </c>
       <c r="L31">
-        <v>66.2878028124953</v>
+        <v>78.907477927733</v>
       </c>
       <c r="M31">
-        <v>9.02551031403047</v>
+        <v>22.7872772493905</v>
       </c>
       <c r="N31">
-        <v>59.7303266738478</v>
+        <v>50.8031150373747</v>
       </c>
       <c r="O31">
-        <v>3178.2683154413</v>
+        <v>2989.14375844956</v>
       </c>
       <c r="P31">
-        <v>1.60660633684311</v>
+        <v>13.9957460446814</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>522.7100064614961</v>
+        <v>557.371390792713</v>
       </c>
       <c r="C32">
-        <v>6.98007194090342</v>
+        <v>6.08574155839075</v>
       </c>
       <c r="D32">
-        <v>1.58755888831949</v>
+        <v>1.40076442796494</v>
       </c>
       <c r="E32">
-        <v>5.33931325911096</v>
+        <v>5.66023177014404</v>
       </c>
       <c r="F32">
-        <v>17.6580497416891</v>
+        <v>21.3109526283004</v>
       </c>
       <c r="G32">
-        <v>1.60148822729668</v>
+        <v>1.88674392338135</v>
       </c>
       <c r="H32">
-        <v>2.25630905967251</v>
+        <v>0.579361500643141</v>
       </c>
       <c r="I32">
-        <v>5.27514397731639</v>
+        <v>3.40185646791486</v>
       </c>
       <c r="J32">
-        <v>5.11230926800859</v>
+        <v>4.28805437132124</v>
       </c>
       <c r="K32">
-        <v>0.921730689373482</v>
+        <v>2.02967906909206</v>
       </c>
       <c r="L32">
-        <v>19.1230525461805</v>
+        <v>14.6054801320935</v>
       </c>
       <c r="M32">
-        <v>2.59634416091941</v>
+        <v>5.02905627751131</v>
       </c>
       <c r="N32">
-        <v>5.33655629565666</v>
+        <v>7.79244068513204</v>
       </c>
       <c r="O32">
-        <v>643.074604126801</v>
+        <v>608.783658880299</v>
       </c>
       <c r="P32">
-        <v>14.371971867295</v>
+        <v>22.0208206126229</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>5691.07350772398</v>
+        <v>5664.9463265811</v>
       </c>
       <c r="C33">
-        <v>53.6322710019697</v>
+        <v>86.6882154743639</v>
       </c>
       <c r="D33">
-        <v>83.39828731946859</v>
+        <v>96.3115917299114</v>
       </c>
       <c r="E33">
-        <v>59.9402732254062</v>
+        <v>117.251243324112</v>
       </c>
       <c r="F33">
-        <v>8.430957205489671</v>
+        <v>9.37024158414847</v>
       </c>
       <c r="G33">
-        <v>71.95680125055949</v>
+        <v>74.738501204003</v>
       </c>
       <c r="H33">
-        <v>28.5628822418649</v>
+        <v>32.892022869141</v>
       </c>
       <c r="I33">
-        <v>24.0649388732741</v>
+        <v>30.2115520264601</v>
       </c>
       <c r="J33">
-        <v>107.351518999246</v>
+        <v>102.303422891573</v>
       </c>
       <c r="K33">
-        <v>92.7902250042595</v>
+        <v>110.803876659479</v>
       </c>
       <c r="L33">
-        <v>101.079001716059</v>
+        <v>126.424128009477</v>
       </c>
       <c r="M33">
-        <v>54.8754504580418</v>
+        <v>70.2900790021782</v>
       </c>
       <c r="N33">
-        <v>146.882346876814</v>
+        <v>108.461810153968</v>
       </c>
       <c r="O33">
-        <v>6682.97116145442</v>
+        <v>6525.95994103867</v>
       </c>
       <c r="P33">
-        <v>56.8472615563877</v>
+        <v>81.747934751215</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>2311.60764981021</v>
+        <v>2197.92187125537</v>
       </c>
       <c r="C34">
-        <v>68.7754378041729</v>
+        <v>61.6494411401951</v>
       </c>
       <c r="D34">
-        <v>149.014261701035</v>
+        <v>192.189643636478</v>
       </c>
       <c r="E34">
-        <v>44.8324000249013</v>
+        <v>82.3227177301912</v>
       </c>
       <c r="F34">
-        <v>7.36211142809465</v>
+        <v>7.08508163385063</v>
       </c>
       <c r="G34">
-        <v>44.9130558512178</v>
+        <v>55.2809281225298</v>
       </c>
       <c r="H34">
-        <v>41.7145322124043</v>
+        <v>37.390234455766</v>
       </c>
       <c r="I34">
-        <v>19.1889993030803</v>
+        <v>20.3970555900322</v>
       </c>
       <c r="J34">
-        <v>47.2417826212476</v>
+        <v>62.2264884557298</v>
       </c>
       <c r="K34">
-        <v>44.57442812505</v>
+        <v>37.4495730506173</v>
       </c>
       <c r="L34">
-        <v>68.1367066265954</v>
+        <v>91.9707292214712</v>
       </c>
       <c r="M34">
-        <v>33.9463668740435</v>
+        <v>46.9993005704885</v>
       </c>
       <c r="N34">
-        <v>105.845350432574</v>
+        <v>126.574964588269</v>
       </c>
       <c r="O34">
-        <v>2711.16262324797</v>
+        <v>2633.01362994509</v>
       </c>
       <c r="P34">
-        <v>59.7714360011286</v>
+        <v>57.598141973498</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>153.463640454163</v>
+        <v>161.830595738234</v>
       </c>
       <c r="C35">
-        <v>6.56014401187317</v>
+        <v>6.35667741031061</v>
       </c>
       <c r="D35">
-        <v>0.945464743614528</v>
+        <v>0.344662513262311</v>
       </c>
       <c r="E35">
-        <v>1.60021896855773</v>
+        <v>1.9438257931695</v>
       </c>
       <c r="F35">
-        <v>4.06503277405391</v>
+        <v>5.52484586663518</v>
       </c>
       <c r="G35">
-        <v>1.55804726762857</v>
+        <v>0.545715645998659</v>
       </c>
       <c r="H35">
-        <v>0.247873102778032</v>
+        <v>0.373384389367503</v>
       </c>
       <c r="I35">
-        <v>0.7348317497440891</v>
+        <v>0.940012088861142</v>
       </c>
       <c r="J35">
-        <v>2.54770619001548</v>
+        <v>2.38391571673098</v>
       </c>
       <c r="K35">
-        <v>4.06103824466754</v>
+        <v>5.33543680832517</v>
       </c>
       <c r="L35">
-        <v>1.68134771049151</v>
+        <v>1.93578181566602</v>
       </c>
       <c r="M35">
-        <v>1.15047114430833</v>
+        <v>2.3264719645206</v>
       </c>
       <c r="N35">
-        <v>2.52892615429692</v>
+        <v>2.14941744834492</v>
       </c>
       <c r="O35">
-        <v>228.120013836413</v>
+        <v>217.968319831723</v>
       </c>
       <c r="P35">
-        <v>37.5678336022648</v>
+        <v>38.1061500983806</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>2998.79426004545</v>
+        <v>3110.64958883964</v>
       </c>
       <c r="C36">
-        <v>46.8542555760069</v>
+        <v>72.1765351346389</v>
       </c>
       <c r="D36">
-        <v>13.1892138144154</v>
+        <v>20.5817309012614</v>
       </c>
       <c r="E36">
-        <v>71.9238842178746</v>
+        <v>123.445906069542</v>
       </c>
       <c r="F36">
-        <v>34.8176511075098</v>
+        <v>20.349787038621</v>
       </c>
       <c r="G36">
-        <v>107.902247945745</v>
+        <v>75.5302714095605</v>
       </c>
       <c r="H36">
-        <v>94.6972600354156</v>
+        <v>107.443956371653</v>
       </c>
       <c r="I36">
-        <v>34.8067525777853</v>
+        <v>47.7415873672132</v>
       </c>
       <c r="J36">
-        <v>201.429040167044</v>
+        <v>254.443693067213</v>
       </c>
       <c r="K36">
-        <v>108.300932689046</v>
+        <v>119.450379740611</v>
       </c>
       <c r="L36">
-        <v>70.2215627412273</v>
+        <v>93.5002180175412</v>
       </c>
       <c r="M36">
-        <v>205.224948504477</v>
+        <v>241.315169590608</v>
       </c>
       <c r="N36">
-        <v>76.7139861711438</v>
+        <v>85.01378905613549</v>
       </c>
       <c r="O36">
-        <v>3863.92005175062</v>
+        <v>3601.89188456312</v>
       </c>
       <c r="P36">
-        <v>60.6508484576025</v>
+        <v>48.4562312182806</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>979.2490348829421</v>
+        <v>1005.74233617051</v>
       </c>
       <c r="C37">
-        <v>13.9958423474192</v>
+        <v>26.0150834415434</v>
       </c>
       <c r="D37">
-        <v>3.47088391614191</v>
+        <v>8.744080085793341</v>
       </c>
       <c r="E37">
-        <v>18.2252464310597</v>
+        <v>17.7634417045203</v>
       </c>
       <c r="F37">
-        <v>28.8556245746994</v>
+        <v>43.8855472100312</v>
       </c>
       <c r="G37">
-        <v>8.022979272486509</v>
+        <v>7.08053010914616</v>
       </c>
       <c r="H37">
-        <v>25.680210079184</v>
+        <v>17.1063365219784</v>
       </c>
       <c r="I37">
-        <v>14.0354198628902</v>
+        <v>10.561215677428</v>
       </c>
       <c r="J37">
-        <v>42.7623017251835</v>
+        <v>34.751545414137</v>
       </c>
       <c r="K37">
-        <v>34.9498868506439</v>
+        <v>27.5617122855163</v>
       </c>
       <c r="L37">
-        <v>23.4703070473134</v>
+        <v>21.3106989638969</v>
       </c>
       <c r="M37">
-        <v>33.9286314132255</v>
+        <v>34.2758943042443</v>
       </c>
       <c r="N37">
-        <v>10.4360621462493</v>
+        <v>14.941831060651</v>
       </c>
       <c r="O37">
-        <v>1124.73461175551</v>
+        <v>1098.4953658216</v>
       </c>
       <c r="P37">
-        <v>48.6556033349644</v>
+        <v>41.3147274067656</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>998.067612334256</v>
+        <v>994.325537751499</v>
       </c>
       <c r="C38">
-        <v>19.8248989117054</v>
+        <v>19.9306222107195</v>
       </c>
       <c r="D38">
-        <v>11.1481763498174</v>
+        <v>8.61029186746528</v>
       </c>
       <c r="E38">
-        <v>43.1265613574017</v>
+        <v>71.5900535430675</v>
       </c>
       <c r="F38">
-        <v>4.65971780608665</v>
+        <v>2.68417554463012</v>
       </c>
       <c r="G38">
-        <v>3.14819796748174</v>
+        <v>5.40272113600374</v>
       </c>
       <c r="H38">
-        <v>3.49635403283717</v>
+        <v>5.13104843452247</v>
       </c>
       <c r="I38">
-        <v>3.22020557789666</v>
+        <v>6.39864069224959</v>
       </c>
       <c r="J38">
-        <v>32.1299612301178</v>
+        <v>28.6958275805033</v>
       </c>
       <c r="K38">
-        <v>8.12173834675251</v>
+        <v>12.5472430937636</v>
       </c>
       <c r="L38">
-        <v>48.2380812907453</v>
+        <v>62.5995946156117</v>
       </c>
       <c r="M38">
-        <v>12.5118097180529</v>
+        <v>20.1204260568833</v>
       </c>
       <c r="N38">
-        <v>33.024970484317</v>
+        <v>22.7021538554669</v>
       </c>
       <c r="O38">
-        <v>1258.09587782387</v>
+        <v>1179.41899080514</v>
       </c>
       <c r="P38">
-        <v>53.8574380805754</v>
+        <v>61.600293209636</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>3550.00636514951</v>
+        <v>3649.87150659605</v>
       </c>
       <c r="C39">
-        <v>75.1599581732776</v>
+        <v>91.7177693269927</v>
       </c>
       <c r="D39">
-        <v>56.522794591466</v>
+        <v>62.20839925212</v>
       </c>
       <c r="E39">
-        <v>112.856569874071</v>
+        <v>139.022971480597</v>
       </c>
       <c r="F39">
-        <v>27.7880104058355</v>
+        <v>38.2759705505896</v>
       </c>
       <c r="G39">
-        <v>104.118861111951</v>
+        <v>92.71836261892911</v>
       </c>
       <c r="H39">
-        <v>45.8892563817543</v>
+        <v>54.2112519035184</v>
       </c>
       <c r="I39">
-        <v>50.1007602158256</v>
+        <v>52.1927953336349</v>
       </c>
       <c r="J39">
-        <v>146.729729721221</v>
+        <v>222.114300903147</v>
       </c>
       <c r="K39">
-        <v>97.3286210414804</v>
+        <v>79.08663899832</v>
       </c>
       <c r="L39">
-        <v>80.8227609704945</v>
+        <v>111.2763545926</v>
       </c>
       <c r="M39">
-        <v>56.4296261683167</v>
+        <v>66.54863945339029</v>
       </c>
       <c r="N39">
-        <v>89.3375693792389</v>
+        <v>95.351212583568</v>
       </c>
       <c r="O39">
-        <v>4205.29532427837</v>
+        <v>3933.2735089015</v>
       </c>
       <c r="P39">
-        <v>52.3491141214247</v>
+        <v>78.8623583507642</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>274.584242073174</v>
+        <v>295.506127728459</v>
       </c>
       <c r="C40">
-        <v>2.86573692888667</v>
+        <v>3.60215969273655</v>
       </c>
       <c r="D40">
-        <v>7.80306968123469</v>
+        <v>8.01646196996008</v>
       </c>
       <c r="E40">
-        <v>3.94499865268897</v>
+        <v>8.042874088246361</v>
       </c>
       <c r="F40">
-        <v>0.403206865891003</v>
+        <v>0.465064147959824</v>
       </c>
       <c r="G40">
-        <v>4.10242517302658</v>
+        <v>3.43711765411222</v>
       </c>
       <c r="H40">
-        <v>2.33468309739316</v>
+        <v>4.51303477444484</v>
       </c>
       <c r="I40">
-        <v>2.36597598088442</v>
+        <v>1.72347301890993</v>
       </c>
       <c r="J40">
-        <v>6.62432205824169</v>
+        <v>12.3244038605248</v>
       </c>
       <c r="K40">
-        <v>4.61762942963709</v>
+        <v>3.80881712207483</v>
       </c>
       <c r="L40">
-        <v>15.5487668477866</v>
+        <v>14.156325485729</v>
       </c>
       <c r="M40">
-        <v>6.81680141131758</v>
+        <v>5.7319584788015</v>
       </c>
       <c r="N40">
-        <v>17.5509140923828</v>
+        <v>20.4083501890329</v>
       </c>
       <c r="O40">
-        <v>402.093329849073</v>
+        <v>358.68101123187</v>
       </c>
       <c r="P40">
-        <v>1.68091846790269</v>
+        <v>2.36794764256903</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>1186.15721948043</v>
+        <v>1166.65609696393</v>
       </c>
       <c r="C41">
-        <v>8.40780338707032</v>
+        <v>21.5314790106959</v>
       </c>
       <c r="D41">
-        <v>73.63432294968339</v>
+        <v>96.3841051624581</v>
       </c>
       <c r="E41">
-        <v>25.36731851423</v>
+        <v>42.6228701596312</v>
       </c>
       <c r="F41">
-        <v>1.40154398969678</v>
+        <v>3.27234483048891</v>
       </c>
       <c r="G41">
-        <v>16.1375038145393</v>
+        <v>23.1020713472976</v>
       </c>
       <c r="H41">
-        <v>28.2343541031414</v>
+        <v>32.5836327337256</v>
       </c>
       <c r="I41">
-        <v>26.4930330159308</v>
+        <v>11.7144445192292</v>
       </c>
       <c r="J41">
-        <v>47.3165129068115</v>
+        <v>38.4603223978862</v>
       </c>
       <c r="K41">
-        <v>23.7748678178</v>
+        <v>26.4133522307813</v>
       </c>
       <c r="L41">
-        <v>26.8118467058847</v>
+        <v>29.1763033878636</v>
       </c>
       <c r="M41">
-        <v>13.2101476002303</v>
+        <v>37.782263175745</v>
       </c>
       <c r="N41">
-        <v>21.4392485416526</v>
+        <v>21.2712583613904</v>
       </c>
       <c r="O41">
-        <v>1303.13556082339</v>
+        <v>1265.84799869006</v>
       </c>
       <c r="P41">
-        <v>27.3443070592259</v>
+        <v>22.0209346070567</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>159.32632075772</v>
+        <v>174.94504367276</v>
       </c>
       <c r="C42">
-        <v>4.85534264670057</v>
+        <v>6.32906847641241</v>
       </c>
       <c r="D42">
-        <v>1.48302487027848</v>
+        <v>0.967983933028659</v>
       </c>
       <c r="E42">
-        <v>3.07141515714353</v>
+        <v>5.2536674254898</v>
       </c>
       <c r="F42">
-        <v>2.72090552966549</v>
+        <v>1.79009275738756</v>
       </c>
       <c r="G42">
-        <v>2.32387432345057</v>
+        <v>0.937032066932591</v>
       </c>
       <c r="H42">
-        <v>0.704889270585997</v>
+        <v>1.44814046707764</v>
       </c>
       <c r="I42">
-        <v>0.595115451267677</v>
+        <v>1.10740153364761</v>
       </c>
       <c r="J42">
-        <v>2.27213022228154</v>
+        <v>4.30879822043615</v>
       </c>
       <c r="K42">
-        <v>4.80928264255196</v>
+        <v>5.11835016397388</v>
       </c>
       <c r="L42">
-        <v>5.61594054179725</v>
+        <v>7.37547452314116</v>
       </c>
       <c r="M42">
-        <v>1.6566104543089</v>
+        <v>2.95059603503272</v>
       </c>
       <c r="N42">
-        <v>6.20891289610238</v>
+        <v>6.75519858014259</v>
       </c>
       <c r="O42">
-        <v>264.820363992063</v>
+        <v>245.475844691796</v>
       </c>
       <c r="P42">
-        <v>42.1559572992972</v>
+        <v>41.0085400001959</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1605.19390494159</v>
+        <v>1629.08555096981</v>
       </c>
       <c r="C43">
-        <v>52.328570384944</v>
+        <v>45.4863843406324</v>
       </c>
       <c r="D43">
-        <v>47.4642512585285</v>
+        <v>46.2904426780736</v>
       </c>
       <c r="E43">
-        <v>75.006588618544</v>
+        <v>70.0063350056828</v>
       </c>
       <c r="F43">
-        <v>8.82212817116603</v>
+        <v>7.30116797929785</v>
       </c>
       <c r="G43">
-        <v>17.5829652772096</v>
+        <v>31.0228334688398</v>
       </c>
       <c r="H43">
-        <v>43.0676083057978</v>
+        <v>33.307512221851</v>
       </c>
       <c r="I43">
-        <v>19.5477566930702</v>
+        <v>17.0629125168518</v>
       </c>
       <c r="J43">
-        <v>36.3505212790261</v>
+        <v>69.5148676893217</v>
       </c>
       <c r="K43">
-        <v>70.01777635931261</v>
+        <v>48.4415323079296</v>
       </c>
       <c r="L43">
-        <v>32.0246140821264</v>
+        <v>54.7754734069264</v>
       </c>
       <c r="M43">
-        <v>102.802472444319</v>
+        <v>110.921385603448</v>
       </c>
       <c r="N43">
-        <v>51.9121364822359</v>
+        <v>58.7043098629087</v>
       </c>
       <c r="O43">
-        <v>1926.21978043935</v>
+        <v>1852.37399556064</v>
       </c>
       <c r="P43">
-        <v>27.2439137827628</v>
+        <v>31.2757564657307</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>5584.4640761685</v>
+        <v>5742.08917539171</v>
       </c>
       <c r="C44">
-        <v>133.713402712197</v>
+        <v>107.780400836934</v>
       </c>
       <c r="D44">
-        <v>42.8784957652637</v>
+        <v>41.8447315839691</v>
       </c>
       <c r="E44">
-        <v>83.3349885255117</v>
+        <v>108.718797237563</v>
       </c>
       <c r="F44">
-        <v>182.717091340539</v>
+        <v>220.382140769829</v>
       </c>
       <c r="G44">
-        <v>121.913433726195</v>
+        <v>114.972464546359</v>
       </c>
       <c r="H44">
-        <v>32.8406397008042</v>
+        <v>62.0515920089527</v>
       </c>
       <c r="I44">
-        <v>43.1245085114225</v>
+        <v>45.290787648832</v>
       </c>
       <c r="J44">
-        <v>111.346783107811</v>
+        <v>156.279296257853</v>
       </c>
       <c r="K44">
-        <v>102.329817796134</v>
+        <v>89.9997753481658</v>
       </c>
       <c r="L44">
-        <v>165.185900815432</v>
+        <v>218.710056785494</v>
       </c>
       <c r="M44">
-        <v>99.9884968156622</v>
+        <v>120.003641075055</v>
       </c>
       <c r="N44">
-        <v>81.0396504659068</v>
+        <v>94.3695828298367</v>
       </c>
       <c r="O44">
-        <v>7271.29001874262</v>
+        <v>6973.08885988896</v>
       </c>
       <c r="P44">
-        <v>177.274434946227</v>
+        <v>152.516346234044</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>488.012029598871</v>
+        <v>524.810770213504</v>
       </c>
       <c r="C45">
-        <v>16.7916593240894</v>
+        <v>14.5972357118404</v>
       </c>
       <c r="D45">
-        <v>2.02175235751172</v>
+        <v>3.42449405600701</v>
       </c>
       <c r="E45">
-        <v>11.6695880081145</v>
+        <v>16.2847608291121</v>
       </c>
       <c r="F45">
-        <v>21.0101897137303</v>
+        <v>15.1501780025313</v>
       </c>
       <c r="G45">
-        <v>6.35072407014428</v>
+        <v>9.25036219489081</v>
       </c>
       <c r="H45">
-        <v>2.98610473650481</v>
+        <v>2.78801925233129</v>
       </c>
       <c r="I45">
-        <v>6.08811840211356</v>
+        <v>5.54471244564762</v>
       </c>
       <c r="J45">
-        <v>19.3343303705247</v>
+        <v>19.5592665272845</v>
       </c>
       <c r="K45">
-        <v>7.19389246784792</v>
+        <v>5.87987491843699</v>
       </c>
       <c r="L45">
-        <v>12.1916327444531</v>
+        <v>17.4363036566325</v>
       </c>
       <c r="M45">
-        <v>17.0033150554894</v>
+        <v>24.6802611986682</v>
       </c>
       <c r="N45">
-        <v>22.880504137681</v>
+        <v>30.4930700929763</v>
       </c>
       <c r="O45">
-        <v>805.000927942102</v>
+        <v>765.221784592467</v>
       </c>
       <c r="P45">
-        <v>12.5584069324645</v>
+        <v>11.8926890623769</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>144.387749684062</v>
+        <v>143.586020986302</v>
       </c>
       <c r="C46">
-        <v>2.30446557777438</v>
+        <v>3.80924077589586</v>
       </c>
       <c r="D46">
-        <v>0.54487859743568</v>
+        <v>2.05945982938654</v>
       </c>
       <c r="E46">
-        <v>5.50542502757812</v>
+        <v>7.98993042590294</v>
       </c>
       <c r="F46">
-        <v>0.645009899242052</v>
+        <v>0.853074612654747</v>
       </c>
       <c r="G46">
-        <v>2.52242778531393</v>
+        <v>1.52590902234436</v>
       </c>
       <c r="H46">
-        <v>1.04046627429212</v>
+        <v>1.67588124513074</v>
       </c>
       <c r="I46">
-        <v>1.09160934321276</v>
+        <v>2.20740226897569</v>
       </c>
       <c r="J46">
-        <v>3.36361374571587</v>
+        <v>4.92341834463515</v>
       </c>
       <c r="K46">
-        <v>4.19281347862671</v>
+        <v>3.43011497499091</v>
       </c>
       <c r="L46">
-        <v>10.6962695688273</v>
+        <v>10.8879725269028</v>
       </c>
       <c r="M46">
-        <v>2.73548787666704</v>
+        <v>4.04605304043466</v>
       </c>
       <c r="N46">
-        <v>7.18058102867401</v>
+        <v>6.50378985473563</v>
       </c>
       <c r="O46">
-        <v>228.570652976929</v>
+        <v>222.35547128405</v>
       </c>
       <c r="P46">
-        <v>11.2260779913253</v>
+        <v>11.3531417094104</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1835.26591344316</v>
+        <v>1808.55148642774</v>
       </c>
       <c r="C47">
-        <v>51.7200143145578</v>
+        <v>51.0776021603759</v>
       </c>
       <c r="D47">
-        <v>36.7574155611185</v>
+        <v>50.8247831059856</v>
       </c>
       <c r="E47">
-        <v>59.0771643705372</v>
+        <v>70.3055754230448</v>
       </c>
       <c r="F47">
-        <v>10.2662175741302</v>
+        <v>17.798848340913</v>
       </c>
       <c r="G47">
-        <v>20.7893072691659</v>
+        <v>28.7318113031285</v>
       </c>
       <c r="H47">
-        <v>12.069811257025</v>
+        <v>21.0967644415575</v>
       </c>
       <c r="I47">
-        <v>5.70867345216352</v>
+        <v>13.738579072002</v>
       </c>
       <c r="J47">
-        <v>37.9294010559247</v>
+        <v>32.7119286552037</v>
       </c>
       <c r="K47">
-        <v>20.4698898337429</v>
+        <v>26.0679695420474</v>
       </c>
       <c r="L47">
-        <v>36.2677009260653</v>
+        <v>43.9121025888862</v>
       </c>
       <c r="M47">
-        <v>63.4569852846266</v>
+        <v>72.35976075161121</v>
       </c>
       <c r="N47">
-        <v>40.9805481328584</v>
+        <v>50.2953908744992</v>
       </c>
       <c r="O47">
-        <v>2639.44301840653</v>
+        <v>2621.92057136875</v>
       </c>
       <c r="P47">
-        <v>30.7324425543405</v>
+        <v>34.4211660327789</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1613.88614878463</v>
+        <v>1646.40353419988</v>
       </c>
       <c r="C48">
-        <v>21.5395300897653</v>
+        <v>37.1962671813783</v>
       </c>
       <c r="D48">
-        <v>11.8896800522383</v>
+        <v>8.027423161558421</v>
       </c>
       <c r="E48">
-        <v>53.8550163894994</v>
+        <v>54.8660012176684</v>
       </c>
       <c r="F48">
-        <v>1.44634499749922</v>
+        <v>7.9344250836397</v>
       </c>
       <c r="G48">
-        <v>0.77315848211404</v>
+        <v>9.03261540663482</v>
       </c>
       <c r="H48">
-        <v>6.64328649404299</v>
+        <v>9.114979680859451</v>
       </c>
       <c r="I48">
-        <v>7.88219827581973</v>
+        <v>8.66510561906682</v>
       </c>
       <c r="J48">
-        <v>44.1082139872135</v>
+        <v>32.4518709293379</v>
       </c>
       <c r="K48">
-        <v>7.2317456289189</v>
+        <v>12.8646758870934</v>
       </c>
       <c r="L48">
-        <v>41.042659681405</v>
+        <v>42.2136860214541</v>
       </c>
       <c r="M48">
-        <v>96.2467877830703</v>
+        <v>125.824861873197</v>
       </c>
       <c r="N48">
-        <v>21.5007642800482</v>
+        <v>34.9259282702562</v>
       </c>
       <c r="O48">
-        <v>2152.96267599586</v>
+        <v>2078.50992687709</v>
       </c>
       <c r="P48">
-        <v>85.75116703849071</v>
+        <v>64.68052106396939</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>658.925281237291</v>
+        <v>675.335370873466</v>
       </c>
       <c r="C49">
-        <v>9.424414700233919</v>
+        <v>6.04985070162541</v>
       </c>
       <c r="D49">
-        <v>2.73455339392107</v>
+        <v>2.36588034091456</v>
       </c>
       <c r="E49">
-        <v>14.6741182998268</v>
+        <v>15.0236567182967</v>
       </c>
       <c r="F49">
-        <v>25.5314194566031</v>
+        <v>26.1402318571942</v>
       </c>
       <c r="G49">
-        <v>12.9486829678356</v>
+        <v>16.8023463926162</v>
       </c>
       <c r="H49">
-        <v>6.26578618308382</v>
+        <v>5.75560116438759</v>
       </c>
       <c r="I49">
-        <v>6.40802692477366</v>
+        <v>4.81166472391738</v>
       </c>
       <c r="J49">
-        <v>17.3382605538921</v>
+        <v>18.8654410082048</v>
       </c>
       <c r="K49">
-        <v>5.52192955744116</v>
+        <v>6.20554118963253</v>
       </c>
       <c r="L49">
-        <v>2.33122971026117</v>
+        <v>3.02856569567673</v>
       </c>
       <c r="M49">
-        <v>5.71364835606175</v>
+        <v>7.05339342977359</v>
       </c>
       <c r="N49">
-        <v>4.57278998163244</v>
+        <v>5.26881860853985</v>
       </c>
       <c r="O49">
-        <v>548.923774960911</v>
+        <v>526.76661563491</v>
       </c>
       <c r="P49">
-        <v>7.53816554413227</v>
+        <v>8.97172522912147</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>1218.87919966294</v>
+        <v>1337.605961919</v>
       </c>
       <c r="C50">
-        <v>68.0165419057724</v>
+        <v>78.33189092245981</v>
       </c>
       <c r="D50">
-        <v>14.2942374327247</v>
+        <v>15.3048805517573</v>
       </c>
       <c r="E50">
-        <v>141.577135953063</v>
+        <v>142.379521454768</v>
       </c>
       <c r="F50">
-        <v>1.76348695578017</v>
+        <v>4.20492452019271</v>
       </c>
       <c r="G50">
-        <v>21.8998883509874</v>
+        <v>15.2120730445438</v>
       </c>
       <c r="H50">
-        <v>40.1348193370985</v>
+        <v>40.42403254764</v>
       </c>
       <c r="I50">
-        <v>12.6782595737026</v>
+        <v>14.9243412525615</v>
       </c>
       <c r="J50">
-        <v>90.6722403707782</v>
+        <v>103.670221496919</v>
       </c>
       <c r="K50">
-        <v>106.879801068602</v>
+        <v>81.607280140062</v>
       </c>
       <c r="L50">
-        <v>44.9628708000671</v>
+        <v>55.7836835806642</v>
       </c>
       <c r="M50">
-        <v>23.8196896894641</v>
+        <v>60.9126010407655</v>
       </c>
       <c r="N50">
-        <v>45.4115646433893</v>
+        <v>60.6790961757294</v>
       </c>
       <c r="O50">
-        <v>1906.04778409081</v>
+        <v>1695.57469769942</v>
       </c>
       <c r="P50">
-        <v>88.47420887263129</v>
+        <v>116.840488204708</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>113.017986364929</v>
+        <v>122.608388269957</v>
       </c>
       <c r="C51">
-        <v>1.6048019131577</v>
+        <v>0.97444446064946</v>
       </c>
       <c r="D51">
-        <v>0.430686930588483</v>
+        <v>0.553643447799919</v>
       </c>
       <c r="E51">
-        <v>2.34494539870386</v>
+        <v>2.52665045793152</v>
       </c>
       <c r="F51">
-        <v>27.1686430215705</v>
+        <v>23.8670302320252</v>
       </c>
       <c r="G51">
-        <v>1.89252697779311</v>
+        <v>2.74053506660959</v>
       </c>
       <c r="H51">
-        <v>0.0196568294093534</v>
+        <v>0.138410861949979</v>
       </c>
       <c r="I51">
-        <v>1.29923255405079</v>
+        <v>0.885829516479869</v>
       </c>
       <c r="J51">
-        <v>1.22531993940314</v>
+        <v>1.63534752352781</v>
       </c>
       <c r="K51">
-        <v>1.06815073268208</v>
+        <v>0.60900779257991</v>
       </c>
       <c r="L51">
-        <v>0.115600645499538</v>
+        <v>0.387550413459943</v>
       </c>
       <c r="M51">
-        <v>0.267853219453045</v>
+        <v>0.60900779257991</v>
       </c>
       <c r="N51">
-        <v>1.32502316289273</v>
+        <v>0.968876033649859</v>
       </c>
       <c r="O51">
-        <v>176.566688484662</v>
+        <v>176.481942606999</v>
       </c>
       <c r="P51">
-        <v>16.8592146665662</v>
+        <v>12.8196756593433</v>
       </c>
     </row>
     <row r="52">
@@ -3046,49 +3046,49 @@
         </is>
       </c>
       <c r="B52">
-        <v>3046.58591313892</v>
+        <v>4925.02552479183</v>
       </c>
       <c r="C52">
-        <v>177.049574747228</v>
+        <v>177.748050278776</v>
       </c>
       <c r="D52">
-        <v>70.82044951562079</v>
+        <v>71.0998421726802</v>
       </c>
       <c r="E52">
-        <v>183.028682557167</v>
+        <v>183.750746174208</v>
       </c>
       <c r="F52">
-        <v>94.3641425665048</v>
+        <v>94.73641708189</v>
       </c>
       <c r="G52">
-        <v>59.6387879250762</v>
+        <v>59.8740679824064</v>
       </c>
       <c r="H52">
-        <v>39.9660535769477</v>
+        <v>40.1237230350974</v>
       </c>
       <c r="I52">
-        <v>45.9629753678609</v>
+        <v>46.1443031891641</v>
       </c>
       <c r="J52">
-        <v>161.339676645034</v>
+        <v>161.976175301217</v>
       </c>
       <c r="K52">
-        <v>65.3518239567793</v>
+        <v>65.6096424239571</v>
       </c>
       <c r="L52">
-        <v>57.2867853907309</v>
+        <v>57.5127865993392</v>
       </c>
       <c r="M52">
-        <v>110.944311728376</v>
+        <v>111.381996411987</v>
       </c>
       <c r="N52">
-        <v>95.48681062835991</v>
+        <v>95.8635141641049</v>
       </c>
       <c r="O52">
-        <v>7054.68223979255</v>
+        <v>7082.51355728864</v>
       </c>
       <c r="P52">
-        <v>362.935658578765</v>
+        <v>364.367470416807</v>
       </c>
     </row>
     <row r="53">
@@ -3098,49 +3098,49 @@
         </is>
       </c>
       <c r="B53">
-        <v>1500.18205342649</v>
+        <v>2558.18094261265</v>
       </c>
       <c r="C53">
-        <v>79.7796149311221</v>
+        <v>80.22957937617269</v>
       </c>
       <c r="D53">
-        <v>36.2097056706266</v>
+        <v>36.4139317769019</v>
       </c>
       <c r="E53">
-        <v>89.8527235987263</v>
+        <v>90.3595013131247</v>
       </c>
       <c r="F53">
-        <v>8.80926533821744</v>
+        <v>8.85895041369238</v>
       </c>
       <c r="G53">
-        <v>27.1954124568739</v>
+        <v>27.3487971113955</v>
       </c>
       <c r="H53">
-        <v>28.2799802042708</v>
+        <v>28.4394819217163</v>
       </c>
       <c r="I53">
-        <v>37.102121689261</v>
+        <v>37.3113811048463</v>
       </c>
       <c r="J53">
-        <v>102.814051034741</v>
+        <v>103.393931840849</v>
       </c>
       <c r="K53">
-        <v>81.5753421695062</v>
+        <v>82.0354346831239</v>
       </c>
       <c r="L53">
-        <v>77.5035083708316</v>
+        <v>77.94063536328029</v>
       </c>
       <c r="M53">
-        <v>39.2455048905093</v>
+        <v>39.4668531866127</v>
       </c>
       <c r="N53">
-        <v>50.667637550766</v>
+        <v>50.95340773695</v>
       </c>
       <c r="O53">
-        <v>2675.93270798657</v>
+        <v>2691.02521723197</v>
       </c>
       <c r="P53">
-        <v>301.552424107973</v>
+        <v>303.253207814244</v>
       </c>
     </row>
     <row r="54">
@@ -3150,49 +3150,49 @@
         </is>
       </c>
       <c r="B54">
-        <v>1978.12010287337</v>
+        <v>3471.57681153382</v>
       </c>
       <c r="C54">
-        <v>96.5402988259259</v>
+        <v>94.21001184545681</v>
       </c>
       <c r="D54">
-        <v>50.6049160261234</v>
+        <v>49.3834160059501</v>
       </c>
       <c r="E54">
-        <v>64.01188904655601</v>
+        <v>62.4667718938799</v>
       </c>
       <c r="F54">
-        <v>9.07585478953489</v>
+        <v>8.856782065399081</v>
       </c>
       <c r="G54">
-        <v>70.4219836089859</v>
+        <v>68.72213977652871</v>
       </c>
       <c r="H54">
-        <v>26.0915982436171</v>
+        <v>25.4617999891455</v>
       </c>
       <c r="I54">
-        <v>33.4051223113725</v>
+        <v>32.5987904214792</v>
       </c>
       <c r="J54">
-        <v>104.231818590323</v>
+        <v>101.715873925085</v>
       </c>
       <c r="K54">
-        <v>42.2207339903919</v>
+        <v>41.2016111171443</v>
       </c>
       <c r="L54">
-        <v>51.6646893012643</v>
+        <v>50.4176085039922</v>
       </c>
       <c r="M54">
-        <v>61.1502043484166</v>
+        <v>59.6741624593908</v>
       </c>
       <c r="N54">
-        <v>30.8224815568276</v>
+        <v>30.0784893758303</v>
       </c>
       <c r="O54">
-        <v>2969.49955970762</v>
+        <v>2897.82186400281</v>
       </c>
       <c r="P54">
-        <v>84.0278496530445</v>
+        <v>81.999587813951</v>
       </c>
     </row>
     <row r="55">
@@ -3202,49 +3202,49 @@
         </is>
       </c>
       <c r="B55">
-        <v>1893.52214829409</v>
+        <v>2869.59473474616</v>
       </c>
       <c r="C55">
-        <v>120.28507925686</v>
+        <v>123.371782372302</v>
       </c>
       <c r="D55">
-        <v>201.607383671382</v>
+        <v>206.780944208725</v>
       </c>
       <c r="E55">
-        <v>48.6535162774842</v>
+        <v>49.9020415409559</v>
       </c>
       <c r="F55">
-        <v>43.6582887335947</v>
+        <v>44.7786286517407</v>
       </c>
       <c r="G55">
-        <v>29.7715561615817</v>
+        <v>30.5355408197225</v>
       </c>
       <c r="H55">
-        <v>18.6821510141469</v>
+        <v>19.1615642056648</v>
       </c>
       <c r="I55">
-        <v>23.5774740071587</v>
+        <v>24.1825088370957</v>
       </c>
       <c r="J55">
-        <v>57.844734958241</v>
+        <v>59.3291212571119</v>
       </c>
       <c r="K55">
-        <v>71.5316584284984</v>
+        <v>73.36727257356149</v>
       </c>
       <c r="L55">
-        <v>33.6678336458156</v>
+        <v>34.5318028733104</v>
       </c>
       <c r="M55">
-        <v>13.387209817624</v>
+        <v>13.7307465430967</v>
       </c>
       <c r="N55">
-        <v>27.4737514913925</v>
+        <v>28.1787708906835</v>
       </c>
       <c r="O55">
-        <v>1469.69584796318</v>
+        <v>1507.41054026489</v>
       </c>
       <c r="P55">
-        <v>770.863514573036</v>
+        <v>790.645077063688</v>
       </c>
     </row>
     <row r="56">
@@ -3254,49 +3254,49 @@
         </is>
       </c>
       <c r="B56">
-        <v>30382.2437062893</v>
+        <v>40773.7861707435</v>
       </c>
       <c r="C56">
-        <v>1641.37006238396</v>
+        <v>1665.1840203134</v>
       </c>
       <c r="D56">
-        <v>2855.39232545828</v>
+        <v>2896.82002922165</v>
       </c>
       <c r="E56">
-        <v>918.041046801559</v>
+        <v>931.3605238451941</v>
       </c>
       <c r="F56">
-        <v>296.811746972388</v>
+        <v>301.118065588373</v>
       </c>
       <c r="G56">
-        <v>391.81411329826</v>
+        <v>397.498781871228</v>
       </c>
       <c r="H56">
-        <v>295.013700694194</v>
+        <v>299.293932201972</v>
       </c>
       <c r="I56">
-        <v>478.673063848462</v>
+        <v>485.617932934162</v>
       </c>
       <c r="J56">
-        <v>761.129178681786</v>
+        <v>772.172086466806</v>
       </c>
       <c r="K56">
-        <v>391.864883917729</v>
+        <v>397.550289100573</v>
       </c>
       <c r="L56">
-        <v>343.100182885354</v>
+        <v>348.078081232633</v>
       </c>
       <c r="M56">
-        <v>363.98031859436</v>
+        <v>369.261158176362</v>
       </c>
       <c r="N56">
-        <v>745.374001730553</v>
+        <v>756.1883241833031</v>
       </c>
       <c r="O56">
-        <v>48632.1226600249</v>
+        <v>49337.7059709348</v>
       </c>
       <c r="P56">
-        <v>16623.6467147082</v>
+        <v>16864.8323148178</v>
       </c>
     </row>
     <row r="57">
@@ -3306,49 +3306,49 @@
         </is>
       </c>
       <c r="B57">
-        <v>4164.9111467659</v>
+        <v>6860.22765901944</v>
       </c>
       <c r="C57">
-        <v>243.547086997186</v>
+        <v>247.502367976444</v>
       </c>
       <c r="D57">
-        <v>146.756199940038</v>
+        <v>149.139566595611</v>
       </c>
       <c r="E57">
-        <v>388.916971894339</v>
+        <v>395.233105338636</v>
       </c>
       <c r="F57">
-        <v>159.691921819015</v>
+        <v>162.285368649768</v>
       </c>
       <c r="G57">
-        <v>88.9463716617766</v>
+        <v>90.39088859829759</v>
       </c>
       <c r="H57">
-        <v>121.47889120452</v>
+        <v>123.451746448599</v>
       </c>
       <c r="I57">
-        <v>54.6266165691318</v>
+        <v>55.5137699329475</v>
       </c>
       <c r="J57">
-        <v>278.316066431139</v>
+        <v>282.836006527115</v>
       </c>
       <c r="K57">
-        <v>141.070858395353</v>
+        <v>143.361893323416</v>
       </c>
       <c r="L57">
-        <v>120.136049262818</v>
+        <v>122.087096333145</v>
       </c>
       <c r="M57">
-        <v>223.003537670072</v>
+        <v>226.625184973387</v>
       </c>
       <c r="N57">
-        <v>173.115510847027</v>
+        <v>175.926960968274</v>
       </c>
       <c r="O57">
-        <v>10741.8901468113</v>
+        <v>10916.3418074852</v>
       </c>
       <c r="P57">
-        <v>417.198768727516</v>
+        <v>423.974207411111</v>
       </c>
     </row>
     <row r="58">
@@ -3358,49 +3358,49 @@
         </is>
       </c>
       <c r="B58">
-        <v>151187.289604056</v>
+        <v>220119.854629593</v>
       </c>
       <c r="C58">
-        <v>11086.0565659562</v>
+        <v>10868.2608721519</v>
       </c>
       <c r="D58">
-        <v>18856.2545880595</v>
+        <v>18485.8062662308</v>
       </c>
       <c r="E58">
-        <v>10782.9229568132</v>
+        <v>10571.0825992753</v>
       </c>
       <c r="F58">
-        <v>8702.2711264788</v>
+        <v>8531.307072093159</v>
       </c>
       <c r="G58">
-        <v>6163.66304758552</v>
+        <v>6042.57226459718</v>
       </c>
       <c r="H58">
-        <v>6879.74587841377</v>
+        <v>6744.58699501175</v>
       </c>
       <c r="I58">
-        <v>8840.53289082918</v>
+        <v>8666.852557962169</v>
       </c>
       <c r="J58">
-        <v>7712.48588661891</v>
+        <v>7560.96706614039</v>
       </c>
       <c r="K58">
-        <v>7135.75984653942</v>
+        <v>6995.57133520074</v>
       </c>
       <c r="L58">
-        <v>7757.32618885564</v>
+        <v>7604.9264397369</v>
       </c>
       <c r="M58">
-        <v>3881.41537816733</v>
+        <v>3805.1614324833</v>
       </c>
       <c r="N58">
-        <v>7610.82255238444</v>
+        <v>7461.30100084301</v>
       </c>
       <c r="O58">
-        <v>239610.368248141</v>
+        <v>234903.00399424</v>
       </c>
       <c r="P58">
-        <v>360184.212487367</v>
+        <v>353108.065077391</v>
       </c>
     </row>
     <row r="59">
@@ -3410,49 +3410,49 @@
         </is>
       </c>
       <c r="B59">
-        <v>127.415670372384</v>
+        <v>176.036861639221</v>
       </c>
       <c r="C59">
-        <v>10.2841118308899</v>
+        <v>10.487021107094</v>
       </c>
       <c r="D59">
-        <v>3.65230139788612</v>
+        <v>3.72436263616423</v>
       </c>
       <c r="E59">
-        <v>5.28622570746676</v>
+        <v>5.39052486813244</v>
       </c>
       <c r="F59">
-        <v>0.672792362768496</v>
+        <v>0.686066801398674</v>
       </c>
       <c r="G59">
-        <v>1.44169792021821</v>
+        <v>1.4701431458543</v>
       </c>
       <c r="H59">
-        <v>1.24947153085578</v>
+        <v>1.27412405974039</v>
       </c>
       <c r="I59">
-        <v>2.59505625639277</v>
+        <v>2.64625766253774</v>
       </c>
       <c r="J59">
-        <v>3.4600750085237</v>
+        <v>3.52834355005032</v>
       </c>
       <c r="K59">
-        <v>1.05724514149335</v>
+        <v>1.07810497362649</v>
       </c>
       <c r="L59">
-        <v>0.672792362768496</v>
+        <v>0.686066801398674</v>
       </c>
       <c r="M59">
-        <v>0.384452778724855</v>
+        <v>0.392038172227814</v>
       </c>
       <c r="N59">
-        <v>3.17173542448005</v>
+        <v>3.23431492087946</v>
       </c>
       <c r="O59">
-        <v>228.557176951926</v>
+        <v>233.066693389435</v>
       </c>
       <c r="P59">
-        <v>19.4148653256052</v>
+        <v>19.7979276975046</v>
       </c>
     </row>
     <row r="60">
@@ -3462,49 +3462,49 @@
         </is>
       </c>
       <c r="B60">
-        <v>1821.13520242502</v>
+        <v>3076.55578596519</v>
       </c>
       <c r="C60">
-        <v>154.16092266369</v>
+        <v>152.853382349973</v>
       </c>
       <c r="D60">
-        <v>134.350243506989</v>
+        <v>133.210730610285</v>
       </c>
       <c r="E60">
-        <v>136.41090303402</v>
+        <v>135.253912326741</v>
       </c>
       <c r="F60">
-        <v>57.2682954078084</v>
+        <v>56.7825652782158</v>
       </c>
       <c r="G60">
-        <v>42.4541456766805</v>
+        <v>42.0940641073858</v>
       </c>
       <c r="H60">
-        <v>62.3173572792365</v>
+        <v>61.7888027306584</v>
       </c>
       <c r="I60">
-        <v>84.7893499665195</v>
+        <v>84.0701956481653</v>
       </c>
       <c r="J60">
-        <v>226.011432098285</v>
+        <v>224.094480294136</v>
       </c>
       <c r="K60">
-        <v>152.085395463303</v>
+        <v>150.795459062691</v>
       </c>
       <c r="L60">
-        <v>180.147633332143</v>
+        <v>178.6196826107</v>
       </c>
       <c r="M60">
-        <v>113.293653323121</v>
+        <v>112.332735235394</v>
       </c>
       <c r="N60">
-        <v>86.1472641329616</v>
+        <v>85.41659245025529</v>
       </c>
       <c r="O60">
-        <v>2937.52318381856</v>
+        <v>2912.6081150777</v>
       </c>
       <c r="P60">
-        <v>214.350220296684</v>
+        <v>212.532174909765</v>
       </c>
     </row>
     <row r="61">
@@ -3514,49 +3514,49 @@
         </is>
       </c>
       <c r="B61">
-        <v>14603.4787971994</v>
+        <v>26127.7733253471</v>
       </c>
       <c r="C61">
-        <v>968.408030656448</v>
+        <v>964.905300893747</v>
       </c>
       <c r="D61">
-        <v>247.848494946129</v>
+        <v>246.952027473322</v>
       </c>
       <c r="E61">
-        <v>854.47767410863</v>
+        <v>851.387030200365</v>
       </c>
       <c r="F61">
-        <v>125.923025658114</v>
+        <v>125.467562345317</v>
       </c>
       <c r="G61">
-        <v>494.697600799733</v>
+        <v>492.908280642317</v>
       </c>
       <c r="H61">
-        <v>412.747695212707</v>
+        <v>411.254787687428</v>
       </c>
       <c r="I61">
-        <v>284.825891369544</v>
+        <v>283.795676733455</v>
       </c>
       <c r="J61">
-        <v>1130.30906364545</v>
+        <v>1126.22073819487</v>
       </c>
       <c r="K61">
-        <v>1108.32250360991</v>
+        <v>1104.31370349965</v>
       </c>
       <c r="L61">
-        <v>1092.33227812951</v>
+        <v>1088.38131463041</v>
       </c>
       <c r="M61">
-        <v>1024.37381983783</v>
+        <v>1020.66866193611</v>
       </c>
       <c r="N61">
-        <v>310.810007775186</v>
+        <v>309.685808645981</v>
       </c>
       <c r="O61">
-        <v>27031.4761746085</v>
+        <v>26933.7033834614</v>
       </c>
       <c r="P61">
-        <v>903.447739642342</v>
+        <v>900.179971112433</v>
       </c>
     </row>
     <row r="62">
@@ -3566,49 +3566,49 @@
         </is>
       </c>
       <c r="B62">
-        <v>634.863630347425</v>
+        <v>1305.7268946805</v>
       </c>
       <c r="C62">
-        <v>77.7099297415534</v>
+        <v>78.0998403441683</v>
       </c>
       <c r="D62">
-        <v>12.0156264741995</v>
+        <v>12.0759150393151</v>
       </c>
       <c r="E62">
-        <v>61.3388852966157</v>
+        <v>61.6466539667106</v>
       </c>
       <c r="F62">
-        <v>3.49025340441034</v>
+        <v>3.50776579713439</v>
       </c>
       <c r="G62">
-        <v>26.6908694487638</v>
+        <v>26.8247912400419</v>
       </c>
       <c r="H62">
-        <v>20.7669091057779</v>
+        <v>20.871107347506</v>
       </c>
       <c r="I62">
-        <v>17.0477866256685</v>
+        <v>17.1333241210513</v>
       </c>
       <c r="J62">
-        <v>50.6145933917698</v>
+        <v>50.868552785069</v>
       </c>
       <c r="K62">
-        <v>64.7817864784676</v>
+        <v>65.1068299508822</v>
       </c>
       <c r="L62">
-        <v>50.4754962380044</v>
+        <v>50.7287577094908</v>
       </c>
       <c r="M62">
-        <v>15.2602402240881</v>
+        <v>15.3368086817049</v>
       </c>
       <c r="N62">
-        <v>28.2860474462006</v>
+        <v>28.4279730642268</v>
       </c>
       <c r="O62">
-        <v>2014.5125098354</v>
+        <v>2024.62035305823</v>
       </c>
       <c r="P62">
-        <v>90.2730662890847</v>
+        <v>90.726012595866</v>
       </c>
     </row>
     <row r="63">
@@ -3618,49 +3618,49 @@
         </is>
       </c>
       <c r="B63">
-        <v>7530.15116433989</v>
+        <v>13205.5141361894</v>
       </c>
       <c r="C63">
-        <v>402.566865977834</v>
+        <v>409.347416018285</v>
       </c>
       <c r="D63">
-        <v>318.054234319882</v>
+        <v>323.411313686423</v>
       </c>
       <c r="E63">
-        <v>329.372890345501</v>
+        <v>334.920613105869</v>
       </c>
       <c r="F63">
-        <v>49.0475094443472</v>
+        <v>49.8736308175979</v>
       </c>
       <c r="G63">
-        <v>155.820164619349</v>
+        <v>158.444688674369</v>
       </c>
       <c r="H63">
-        <v>120.732330939931</v>
+        <v>122.765860474087</v>
       </c>
       <c r="I63">
-        <v>200.811822321183</v>
+        <v>204.194153866665</v>
       </c>
       <c r="J63">
-        <v>440.201397263016</v>
+        <v>447.615836587941</v>
       </c>
       <c r="K63">
-        <v>205.622251132071</v>
+        <v>209.08560611993</v>
       </c>
       <c r="L63">
-        <v>174.873235595807</v>
+        <v>177.818676030436</v>
       </c>
       <c r="M63">
-        <v>279.287837432138</v>
+        <v>283.991963174822</v>
       </c>
       <c r="N63">
-        <v>236.748555202522</v>
+        <v>240.736179523405</v>
       </c>
       <c r="O63">
-        <v>11202.4511570889</v>
+        <v>11391.1372787394</v>
       </c>
       <c r="P63">
-        <v>965.00974831753</v>
+        <v>981.263686336239</v>
       </c>
     </row>
     <row r="64">
@@ -3670,49 +3670,49 @@
         </is>
       </c>
       <c r="B64">
-        <v>212.527333279725</v>
+        <v>383.099863075339</v>
       </c>
       <c r="C64">
-        <v>19.5323855243722</v>
+        <v>18.8173016294098</v>
       </c>
       <c r="D64">
-        <v>26.5911189069424</v>
+        <v>25.6176136043945</v>
       </c>
       <c r="E64">
-        <v>25.817559084195</v>
+        <v>24.872373935903</v>
       </c>
       <c r="F64">
-        <v>6.41281093057607</v>
+        <v>6.17803685179433</v>
       </c>
       <c r="G64">
-        <v>1.90295716395864</v>
+        <v>1.83328958448903</v>
       </c>
       <c r="H64">
-        <v>1.16033973412112</v>
+        <v>1.11785950273721</v>
       </c>
       <c r="I64">
-        <v>5.22152880354505</v>
+        <v>5.03036776231746</v>
       </c>
       <c r="J64">
-        <v>14.504246676514</v>
+        <v>13.9732437842152</v>
       </c>
       <c r="K64">
-        <v>3.77110413589365</v>
+        <v>3.63304338389594</v>
       </c>
       <c r="L64">
-        <v>9.08932791728213</v>
+        <v>8.756566104774841</v>
       </c>
       <c r="M64">
-        <v>4.93144387001477</v>
+        <v>4.75090288663316</v>
       </c>
       <c r="N64">
-        <v>10.5397525849335</v>
+        <v>10.1538904831964</v>
       </c>
       <c r="O64">
-        <v>354.870568685377</v>
+        <v>341.878697920464</v>
       </c>
       <c r="P64">
-        <v>39.3548559822747</v>
+        <v>37.9140681345038</v>
       </c>
     </row>
     <row r="65">
@@ -3722,49 +3722,49 @@
         </is>
       </c>
       <c r="B65">
-        <v>708.7869691964989</v>
+        <v>1338.20612388462</v>
       </c>
       <c r="C65">
-        <v>40.808776077886</v>
+        <v>40.9960047068382</v>
       </c>
       <c r="D65">
-        <v>18.3982012053778</v>
+        <v>18.4826112347376</v>
       </c>
       <c r="E65">
-        <v>100.113616133519</v>
+        <v>100.572932410301</v>
       </c>
       <c r="F65">
-        <v>9.10123783031989</v>
+        <v>9.14299385548191</v>
       </c>
       <c r="G65">
-        <v>18.5939267501159</v>
+        <v>18.6792347585114</v>
       </c>
       <c r="H65">
-        <v>17.9088873435327</v>
+        <v>17.9910524253031</v>
       </c>
       <c r="I65">
-        <v>16.0494946685211</v>
+        <v>16.123128949452</v>
       </c>
       <c r="J65">
-        <v>60.1856050069541</v>
+        <v>60.4617335604449</v>
       </c>
       <c r="K65">
-        <v>61.9471349095967</v>
+        <v>62.2313452744091</v>
       </c>
       <c r="L65">
-        <v>64.9808808530366</v>
+        <v>65.27900989290311</v>
       </c>
       <c r="M65">
-        <v>23.7806536856746</v>
+        <v>23.8897581385172</v>
       </c>
       <c r="N65">
-        <v>18.3003384330088</v>
+        <v>18.3842994728507</v>
       </c>
       <c r="O65">
-        <v>1537.52201668985</v>
+        <v>1544.57609100512</v>
       </c>
       <c r="P65">
-        <v>123.20923041261</v>
+        <v>123.77450821561</v>
       </c>
     </row>
     <row r="66">
@@ -3774,49 +3774,49 @@
         </is>
       </c>
       <c r="B66">
-        <v>10276.9178731682</v>
+        <v>17611.1711621277</v>
       </c>
       <c r="C66">
-        <v>562.356248799896</v>
+        <v>561.340997579563</v>
       </c>
       <c r="D66">
-        <v>226.325981628926</v>
+        <v>225.917383468005</v>
       </c>
       <c r="E66">
-        <v>378.216728662716</v>
+        <v>377.533914172534</v>
       </c>
       <c r="F66">
-        <v>54.1701445482922</v>
+        <v>54.0723483461949</v>
       </c>
       <c r="G66">
-        <v>142.829913503231</v>
+        <v>142.572055171802</v>
       </c>
       <c r="H66">
-        <v>208.98374110807</v>
+        <v>208.606451803216</v>
       </c>
       <c r="I66">
-        <v>137.471356038921</v>
+        <v>137.223171792232</v>
       </c>
       <c r="J66">
-        <v>575.1193583967061</v>
+        <v>574.081065265447</v>
       </c>
       <c r="K66">
-        <v>315.375463853996</v>
+        <v>314.806099993944</v>
       </c>
       <c r="L66">
-        <v>413.29092297456</v>
+        <v>412.544787202444</v>
       </c>
       <c r="M66">
-        <v>338.173690156694</v>
+        <v>337.563167463386</v>
       </c>
       <c r="N66">
-        <v>184.724090042378</v>
+        <v>184.390597957528</v>
       </c>
       <c r="O66">
-        <v>17374.391865642</v>
+        <v>17343.0249650664</v>
       </c>
       <c r="P66">
-        <v>906.570494643631</v>
+        <v>904.9338153981011</v>
       </c>
     </row>
     <row r="67">
@@ -3826,49 +3826,49 @@
         </is>
       </c>
       <c r="B67">
-        <v>8445.97005953695</v>
+        <v>17280.3486826295</v>
       </c>
       <c r="C67">
-        <v>480.379556417881</v>
+        <v>478.894018337891</v>
       </c>
       <c r="D67">
-        <v>151.829995158998</v>
+        <v>151.360472181844</v>
       </c>
       <c r="E67">
-        <v>537.166792294622</v>
+        <v>535.505643907688</v>
       </c>
       <c r="F67">
-        <v>154.543159118995</v>
+        <v>154.065245883917</v>
       </c>
       <c r="G67">
-        <v>357.882408289363</v>
+        <v>356.775683536884</v>
       </c>
       <c r="H67">
-        <v>202.620614524582</v>
+        <v>201.99402533142</v>
       </c>
       <c r="I67">
-        <v>128.638261423077</v>
+        <v>128.240457159064</v>
       </c>
       <c r="J67">
-        <v>447.470413998217</v>
+        <v>446.086644995597</v>
       </c>
       <c r="K67">
-        <v>322.95031090208</v>
+        <v>321.951611064878</v>
       </c>
       <c r="L67">
-        <v>448.734760852979</v>
+        <v>447.347081951668</v>
       </c>
       <c r="M67">
-        <v>454.406259601483</v>
+        <v>453.001042011756</v>
       </c>
       <c r="N67">
-        <v>154.14194369342</v>
+        <v>153.66527118723</v>
       </c>
       <c r="O67">
-        <v>23103.6526745751</v>
+        <v>23032.2063455704</v>
       </c>
       <c r="P67">
-        <v>454.411220418334</v>
+        <v>453.005987487649</v>
       </c>
     </row>
     <row r="68">
@@ -3878,49 +3878,49 @@
         </is>
       </c>
       <c r="B68">
-        <v>2185.40217312109</v>
+        <v>3418.36979139761</v>
       </c>
       <c r="C68">
-        <v>117.052875782113</v>
+        <v>115.605341924006</v>
       </c>
       <c r="D68">
-        <v>92.412372133939</v>
+        <v>91.2695549525757</v>
       </c>
       <c r="E68">
-        <v>58.5483800025885</v>
+        <v>57.8243417265126</v>
       </c>
       <c r="F68">
-        <v>17.40935889212</v>
+        <v>17.1940661342456</v>
       </c>
       <c r="G68">
-        <v>25.5357417986871</v>
+        <v>25.2199541634114</v>
       </c>
       <c r="H68">
-        <v>18.056894983559</v>
+        <v>17.8335944735431</v>
       </c>
       <c r="I68">
-        <v>30.5873034758764</v>
+        <v>30.2090457260034</v>
       </c>
       <c r="J68">
-        <v>55.4267489352752</v>
+        <v>54.7413142956521</v>
       </c>
       <c r="K68">
-        <v>20.7426094350993</v>
+        <v>20.4860960494849</v>
       </c>
       <c r="L68">
-        <v>21.7070871375588</v>
+        <v>21.438646542806</v>
       </c>
       <c r="M68">
-        <v>18.2412087204294</v>
+        <v>18.0156288954215</v>
       </c>
       <c r="N68">
-        <v>41.2804258292315</v>
+        <v>40.769931630216</v>
       </c>
       <c r="O68">
-        <v>2697.38765487549</v>
+        <v>2664.03042266073</v>
       </c>
       <c r="P68">
-        <v>643.475337998034</v>
+        <v>635.517803145646</v>
       </c>
     </row>
     <row r="69">
@@ -3930,49 +3930,49 @@
         </is>
       </c>
       <c r="B69">
-        <v>2589.28750905016</v>
+        <v>4038.78625899633</v>
       </c>
       <c r="C69">
-        <v>171.921470792926</v>
+        <v>171.149416658988</v>
       </c>
       <c r="D69">
-        <v>161.15928805973</v>
+        <v>160.435564059493</v>
       </c>
       <c r="E69">
-        <v>90.6969000724164</v>
+        <v>90.28960413483949</v>
       </c>
       <c r="F69">
-        <v>22.2934518550777</v>
+        <v>22.1933378228683</v>
       </c>
       <c r="G69">
-        <v>48.2302619749942</v>
+        <v>48.0136725463037</v>
       </c>
       <c r="H69">
-        <v>47.3184170671</v>
+        <v>47.1059224942026</v>
       </c>
       <c r="I69">
-        <v>35.6976725352919</v>
+        <v>35.5373636714502</v>
       </c>
       <c r="J69">
-        <v>112.890823100723</v>
+        <v>112.383860088735</v>
       </c>
       <c r="K69">
-        <v>67.58711076947741</v>
+        <v>67.2835948210052</v>
       </c>
       <c r="L69">
-        <v>171.06894104442</v>
+        <v>170.300715397487</v>
       </c>
       <c r="M69">
-        <v>64.33181439487809</v>
+        <v>64.04291712673481</v>
       </c>
       <c r="N69">
-        <v>45.0885692107499</v>
+        <v>44.8860882984361</v>
       </c>
       <c r="O69">
-        <v>2351.53642453234</v>
+        <v>2340.97629257621</v>
       </c>
       <c r="P69">
-        <v>472.371854589876</v>
+        <v>470.250556758898</v>
       </c>
     </row>
     <row r="70">
@@ -3982,49 +3982,49 @@
         </is>
       </c>
       <c r="B70">
-        <v>37353.5818570992</v>
+        <v>43854.2680186723</v>
       </c>
       <c r="C70">
-        <v>2549.75082012617</v>
+        <v>2471.63540356255</v>
       </c>
       <c r="D70">
-        <v>2681.24409302807</v>
+        <v>2599.10018406945</v>
       </c>
       <c r="E70">
-        <v>2939.18116883025</v>
+        <v>2849.13497312092</v>
       </c>
       <c r="F70">
-        <v>779.764292924188</v>
+        <v>755.87505163739</v>
       </c>
       <c r="G70">
-        <v>309.700600933343</v>
+        <v>300.212461441064</v>
       </c>
       <c r="H70">
-        <v>1000.92065612929</v>
+        <v>970.255960040751</v>
       </c>
       <c r="I70">
-        <v>771.138694157872</v>
+        <v>747.5137109450091</v>
       </c>
       <c r="J70">
-        <v>415.929219406745</v>
+        <v>403.186607862716</v>
       </c>
       <c r="K70">
-        <v>108.962040515547</v>
+        <v>105.623826005601</v>
       </c>
       <c r="L70">
-        <v>193.581301599764</v>
+        <v>187.650649908614</v>
       </c>
       <c r="M70">
-        <v>494.55578454209</v>
+        <v>479.404330988861</v>
       </c>
       <c r="N70">
-        <v>601.465262423481</v>
+        <v>583.038477675775</v>
       </c>
       <c r="O70">
-        <v>31587.8876622272</v>
+        <v>30620.1456446062</v>
       </c>
       <c r="P70">
-        <v>40251.757403156</v>
+        <v>39018.5848232529</v>
       </c>
     </row>
     <row r="71">
@@ -4034,49 +4034,49 @@
         </is>
       </c>
       <c r="B71">
-        <v>251786.7635742</v>
+        <v>287932.320317304</v>
       </c>
       <c r="C71">
-        <v>11528.4566771726</v>
+        <v>11572.534370159</v>
       </c>
       <c r="D71">
-        <v>13365.7131135185</v>
+        <v>13416.8153395718</v>
       </c>
       <c r="E71">
-        <v>7094.68577679213</v>
+        <v>7121.81147021854</v>
       </c>
       <c r="F71">
-        <v>2270.4607493556</v>
+        <v>2279.14158796655</v>
       </c>
       <c r="G71">
-        <v>2209.61476841519</v>
+        <v>2218.06296960185</v>
       </c>
       <c r="H71">
-        <v>997.6902898096261</v>
+        <v>1001.50484083941</v>
       </c>
       <c r="I71">
-        <v>4418.67091979519</v>
+        <v>4435.56518636224</v>
       </c>
       <c r="J71">
-        <v>4021.32717084052</v>
+        <v>4036.70224049623</v>
       </c>
       <c r="K71">
-        <v>1461.13576062327</v>
+        <v>1466.72224069356</v>
       </c>
       <c r="L71">
-        <v>1358.76262368772</v>
+        <v>1363.95769215573</v>
       </c>
       <c r="M71">
-        <v>975.118336761106</v>
+        <v>978.846586593393</v>
       </c>
       <c r="N71">
-        <v>4453.30979179133</v>
+        <v>4470.33649599578</v>
       </c>
       <c r="O71">
-        <v>101664.700740767</v>
+        <v>102053.403720905</v>
       </c>
       <c r="P71">
-        <v>236406.331429718</v>
+        <v>237310.20312639</v>
       </c>
     </row>
     <row r="72">
@@ -4086,49 +4086,49 @@
         </is>
       </c>
       <c r="B72">
-        <v>639.229943901315</v>
+        <v>960.623375569902</v>
       </c>
       <c r="C72">
-        <v>55.0693166945583</v>
+        <v>55.1133536983944</v>
       </c>
       <c r="D72">
-        <v>11.192506892599</v>
+        <v>11.2014571483594</v>
       </c>
       <c r="E72">
-        <v>35.5640446536882</v>
+        <v>35.5924839746176</v>
       </c>
       <c r="F72">
-        <v>16.833666613641</v>
+        <v>16.8471279072567</v>
       </c>
       <c r="G72">
-        <v>27.5921000044134</v>
+        <v>27.6141644404128</v>
       </c>
       <c r="H72">
-        <v>10.6659583688689</v>
+        <v>10.6744875622164</v>
       </c>
       <c r="I72">
-        <v>12.4160141895575</v>
+        <v>12.4259428412516</v>
       </c>
       <c r="J72">
-        <v>20.4846522950082</v>
+        <v>20.5010331540027</v>
       </c>
       <c r="K72">
-        <v>15.2469305253214</v>
+        <v>15.2591229616604</v>
       </c>
       <c r="L72">
-        <v>61.6100067202393</v>
+        <v>61.6592740848105</v>
       </c>
       <c r="M72">
-        <v>10.8947676364534</v>
+        <v>10.9034798005585</v>
       </c>
       <c r="N72">
-        <v>5.01139559449558</v>
+        <v>5.01540303203548</v>
       </c>
       <c r="O72">
-        <v>1204.17722197187</v>
+        <v>1205.14016032168</v>
       </c>
       <c r="P72">
-        <v>118.473417839289</v>
+        <v>118.568156882172</v>
       </c>
     </row>
     <row r="73">
@@ -4138,49 +4138,49 @@
         </is>
       </c>
       <c r="B73">
-        <v>14045.5930401205</v>
+        <v>23083.965059494</v>
       </c>
       <c r="C73">
-        <v>447.192933683466</v>
+        <v>453.003058019153</v>
       </c>
       <c r="D73">
-        <v>838.966983617929</v>
+        <v>849.867206142031</v>
       </c>
       <c r="E73">
-        <v>447.57712005261</v>
+        <v>453.392235904049</v>
       </c>
       <c r="F73">
-        <v>66.1761020850318</v>
+        <v>67.03589067336689</v>
       </c>
       <c r="G73">
-        <v>207.748779114548</v>
+        <v>210.447941257609</v>
       </c>
       <c r="H73">
-        <v>212.935295097991</v>
+        <v>215.701842703707</v>
       </c>
       <c r="I73">
-        <v>256.156261626676</v>
+        <v>259.484354754528</v>
       </c>
       <c r="J73">
-        <v>806.695328609844</v>
+        <v>817.176263810752</v>
       </c>
       <c r="K73">
-        <v>574.2625752778019</v>
+        <v>581.723643448564</v>
       </c>
       <c r="L73">
-        <v>438.740833562301</v>
+        <v>444.441144551437</v>
       </c>
       <c r="M73">
-        <v>266.625340185847</v>
+        <v>270.089452117948</v>
       </c>
       <c r="N73">
-        <v>315.224915882546</v>
+        <v>319.320454557315</v>
       </c>
       <c r="O73">
-        <v>15408.2745674764</v>
+        <v>15608.4655461174</v>
       </c>
       <c r="P73">
-        <v>1036.82296372702</v>
+        <v>1050.29381686356</v>
       </c>
     </row>
     <row r="74">
@@ -4190,49 +4190,49 @@
         </is>
       </c>
       <c r="B74">
-        <v>23414.50526073</v>
+        <v>37848.2133969566</v>
       </c>
       <c r="C74">
-        <v>1529.46016197052</v>
+        <v>1504.04651831425</v>
       </c>
       <c r="D74">
-        <v>805.943021199036</v>
+        <v>792.551401556179</v>
       </c>
       <c r="E74">
-        <v>1342.01786396879</v>
+        <v>1319.71877791001</v>
       </c>
       <c r="F74">
-        <v>92.7307847430645</v>
+        <v>91.1899619233381</v>
       </c>
       <c r="G74">
-        <v>468.953811801203</v>
+        <v>461.161634299167</v>
       </c>
       <c r="H74">
-        <v>708.376204478056</v>
+        <v>696.605763584718</v>
       </c>
       <c r="I74">
-        <v>406.982024309292</v>
+        <v>400.219575441726</v>
       </c>
       <c r="J74">
-        <v>1903.12226385383</v>
+        <v>1871.49981807166</v>
       </c>
       <c r="K74">
-        <v>1184.97475164397</v>
+        <v>1165.28510765798</v>
       </c>
       <c r="L74">
-        <v>1839.47168000827</v>
+        <v>1808.90685788744</v>
       </c>
       <c r="M74">
-        <v>1186.58210841863</v>
+        <v>1166.86575645206</v>
       </c>
       <c r="N74">
-        <v>306.924924943551</v>
+        <v>301.825033579467</v>
       </c>
       <c r="O74">
-        <v>46274.5541754794</v>
+        <v>45505.6521410169</v>
       </c>
       <c r="P74">
-        <v>3560.29986086372</v>
+        <v>3501.141607368</v>
       </c>
     </row>
     <row r="75">
@@ -4242,49 +4242,49 @@
         </is>
       </c>
       <c r="B75">
-        <v>10603.1768212441</v>
+        <v>11994.5225411029</v>
       </c>
       <c r="C75">
-        <v>270.364196798135</v>
+        <v>273.635969848755</v>
       </c>
       <c r="D75">
-        <v>560.631658678593</v>
+        <v>567.416061250797</v>
       </c>
       <c r="E75">
-        <v>276.1313236618</v>
+        <v>279.472886760347</v>
       </c>
       <c r="F75">
-        <v>82.28571585577819</v>
+        <v>83.2814844922184</v>
       </c>
       <c r="G75">
-        <v>222.904330904512</v>
+        <v>225.601775282713</v>
       </c>
       <c r="H75">
-        <v>232.46571526046</v>
+        <v>235.278865342422</v>
       </c>
       <c r="I75">
-        <v>148.42100860287</v>
+        <v>150.21710387674</v>
       </c>
       <c r="J75">
-        <v>451.438472008377</v>
+        <v>456.90148909504</v>
       </c>
       <c r="K75">
-        <v>418.757574769238</v>
+        <v>423.825108725652</v>
       </c>
       <c r="L75">
-        <v>771.7331488366719</v>
+        <v>781.072165424432</v>
       </c>
       <c r="M75">
-        <v>477.561085294275</v>
+        <v>483.340221390677</v>
       </c>
       <c r="N75">
-        <v>133.544983466914</v>
+        <v>135.161058683703</v>
       </c>
       <c r="O75">
-        <v>13234.1188666206</v>
+        <v>13394.2696335095</v>
       </c>
       <c r="P75">
-        <v>1965.64191924178</v>
+        <v>1989.4288493705</v>
       </c>
     </row>
     <row r="76">
@@ -4294,49 +4294,49 @@
         </is>
       </c>
       <c r="B76">
-        <v>537.31984196599</v>
+        <v>895.248512291183</v>
       </c>
       <c r="C76">
-        <v>53.0804561787221</v>
+        <v>51.3676149683357</v>
       </c>
       <c r="D76">
-        <v>73.9909389157944</v>
+        <v>71.603342077074</v>
       </c>
       <c r="E76">
-        <v>39.9108733010467</v>
+        <v>38.622998375813</v>
       </c>
       <c r="F76">
-        <v>8.645680362443301</v>
+        <v>8.36669486226673</v>
       </c>
       <c r="G76">
-        <v>7.74089985939697</v>
+        <v>7.49111051621562</v>
       </c>
       <c r="H76">
-        <v>5.83080768629902</v>
+        <v>5.64265467455202</v>
       </c>
       <c r="I76">
-        <v>12.3653335416341</v>
+        <v>11.9663193960327</v>
       </c>
       <c r="J76">
-        <v>10.9578972035619</v>
+        <v>10.6042993021754</v>
       </c>
       <c r="K76">
-        <v>9.34939853147946</v>
+        <v>9.04770490919549</v>
       </c>
       <c r="L76">
-        <v>15.9844555538197</v>
+        <v>15.4686567802374</v>
       </c>
       <c r="M76">
-        <v>7.13771285736604</v>
+        <v>6.90738761884817</v>
       </c>
       <c r="N76">
-        <v>18.6987970629589</v>
+        <v>18.095409818391</v>
       </c>
       <c r="O76">
-        <v>774.089985939697</v>
+        <v>749.111051621562</v>
       </c>
       <c r="P76">
-        <v>249.21676300578</v>
+        <v>241.174843762318</v>
       </c>
     </row>
     <row r="77">
@@ -4346,49 +4346,49 @@
         </is>
       </c>
       <c r="B77">
-        <v>22033.3490679268</v>
+        <v>24382.1084224289</v>
       </c>
       <c r="C77">
-        <v>1341.28165843792</v>
+        <v>1317.55005415695</v>
       </c>
       <c r="D77">
-        <v>1179.36915602071</v>
+        <v>1158.50230681287</v>
       </c>
       <c r="E77">
-        <v>424.391832758469</v>
+        <v>416.882970640108</v>
       </c>
       <c r="F77">
-        <v>257.349136113864</v>
+        <v>252.795798772761</v>
       </c>
       <c r="G77">
-        <v>298.477222485055</v>
+        <v>293.196196470619</v>
       </c>
       <c r="H77">
-        <v>339.555432594401</v>
+        <v>333.547600378782</v>
       </c>
       <c r="I77">
-        <v>285.055214029057</v>
+        <v>280.011666691325</v>
       </c>
       <c r="J77">
-        <v>417.701807895931</v>
+        <v>410.311313923193</v>
       </c>
       <c r="K77">
-        <v>298.282167983184</v>
+        <v>293.004593112825</v>
       </c>
       <c r="L77">
-        <v>981.314434214229</v>
+        <v>963.951812663813</v>
       </c>
       <c r="M77">
-        <v>889.038684374769</v>
+        <v>873.3087188486441</v>
       </c>
       <c r="N77">
-        <v>421.056226899812</v>
+        <v>413.606382421614</v>
       </c>
       <c r="O77">
-        <v>21838.9125187439</v>
+        <v>21452.5116263131</v>
       </c>
       <c r="P77">
-        <v>6525.95588336259</v>
+        <v>6410.49064785093</v>
       </c>
     </row>
     <row r="78">
@@ -4398,49 +4398,49 @@
         </is>
       </c>
       <c r="B78">
-        <v>2622.26180700955</v>
+        <v>4341.44400055097</v>
       </c>
       <c r="C78">
-        <v>149.790042454447</v>
+        <v>152.769625234858</v>
       </c>
       <c r="D78">
-        <v>28.31359045873</v>
+        <v>28.8767966986115</v>
       </c>
       <c r="E78">
-        <v>138.967186657416</v>
+        <v>141.731484134217</v>
       </c>
       <c r="F78">
-        <v>15.8242530772207</v>
+        <v>16.1390248151091</v>
       </c>
       <c r="G78">
-        <v>71.64894549881581</v>
+        <v>73.0741668335907</v>
       </c>
       <c r="H78">
-        <v>35.1962472663311</v>
+        <v>35.8963614432916</v>
       </c>
       <c r="I78">
-        <v>32.8327136306996</v>
+        <v>33.4858130394802</v>
       </c>
       <c r="J78">
-        <v>128.865789495963</v>
+        <v>131.429152728088</v>
       </c>
       <c r="K78">
-        <v>90.4849710939726</v>
+        <v>92.2848735263364</v>
       </c>
       <c r="L78">
-        <v>96.10922440866619</v>
+        <v>98.0210029581239</v>
       </c>
       <c r="M78">
-        <v>55.2877475642645</v>
+        <v>56.3875164001023</v>
       </c>
       <c r="N78">
-        <v>150.070230043636</v>
+        <v>153.055386239358</v>
       </c>
       <c r="O78">
-        <v>6327.55345145896</v>
+        <v>6453.41942357012</v>
       </c>
       <c r="P78">
-        <v>276.279606890877</v>
+        <v>281.775285680883</v>
       </c>
     </row>
     <row r="79">
@@ -4450,49 +4450,49 @@
         </is>
       </c>
       <c r="B79">
-        <v>7420.72605826104</v>
+        <v>11253.1530410047</v>
       </c>
       <c r="C79">
-        <v>548.905966624685</v>
+        <v>541.981255444031</v>
       </c>
       <c r="D79">
-        <v>437.149968513854</v>
+        <v>431.635112675786</v>
       </c>
       <c r="E79">
-        <v>374.315270780856</v>
+        <v>369.59310469364</v>
       </c>
       <c r="F79">
-        <v>318.773886177582</v>
+        <v>314.752401209422</v>
       </c>
       <c r="G79">
-        <v>126.006009918136</v>
+        <v>124.416383864196</v>
       </c>
       <c r="H79">
-        <v>132.289479691436</v>
+        <v>130.62058466241</v>
       </c>
       <c r="I79">
-        <v>174.815105478589</v>
+        <v>172.609729350327</v>
       </c>
       <c r="J79">
-        <v>350.527849496222</v>
+        <v>346.105773100399</v>
       </c>
       <c r="K79">
-        <v>188.616298016373</v>
+        <v>186.236813246405</v>
       </c>
       <c r="L79">
-        <v>167.858406801008</v>
+        <v>165.740792752304</v>
       </c>
       <c r="M79">
-        <v>167.970611618388</v>
+        <v>165.851582052272</v>
       </c>
       <c r="N79">
-        <v>189.177322103275</v>
+        <v>186.790759746246</v>
       </c>
       <c r="O79">
-        <v>8092.21142947103</v>
+        <v>7990.12431370063</v>
       </c>
       <c r="P79">
-        <v>2985.88239530856</v>
+        <v>2948.21406145157</v>
       </c>
     </row>
     <row r="80">
@@ -4502,49 +4502,49 @@
         </is>
       </c>
       <c r="B80">
-        <v>1886.54090141022</v>
+        <v>2920.32876231577</v>
       </c>
       <c r="C80">
-        <v>116.054292426117</v>
+        <v>118.326120781802</v>
       </c>
       <c r="D80">
-        <v>323.385041005097</v>
+        <v>329.715485925325</v>
       </c>
       <c r="E80">
-        <v>111.353359062022</v>
+        <v>113.533163990641</v>
       </c>
       <c r="F80">
-        <v>18.2161167858716</v>
+        <v>18.5727075657512</v>
       </c>
       <c r="G80">
-        <v>22.9170501499675</v>
+        <v>23.3656643569128</v>
       </c>
       <c r="H80">
-        <v>25.9530696142794</v>
+        <v>26.4611156178714</v>
       </c>
       <c r="I80">
-        <v>70.0243199026784</v>
+        <v>71.3950855350114</v>
       </c>
       <c r="J80">
-        <v>99.1113450930218</v>
+        <v>101.051505680324</v>
       </c>
       <c r="K80">
-        <v>45.246483629423</v>
+        <v>46.1322091149305</v>
       </c>
       <c r="L80">
-        <v>52.1999475638148</v>
+        <v>53.2217910351903</v>
       </c>
       <c r="M80">
-        <v>41.6228474945991</v>
+        <v>42.4376382550767</v>
       </c>
       <c r="N80">
-        <v>72.4727226964784</v>
+        <v>73.8914171970747</v>
       </c>
       <c r="O80">
-        <v>3049.73051995721</v>
+        <v>3109.43071826609</v>
       </c>
       <c r="P80">
-        <v>621.012884619418</v>
+        <v>633.169562765745</v>
       </c>
     </row>
     <row r="81">
@@ -4554,49 +4554,49 @@
         </is>
       </c>
       <c r="B81">
-        <v>4714.01807932376</v>
+        <v>6753.7885477115</v>
       </c>
       <c r="C81">
-        <v>235.794801520743</v>
+        <v>209.965821474728</v>
       </c>
       <c r="D81">
-        <v>705.1072939729401</v>
+        <v>627.869788697725</v>
       </c>
       <c r="E81">
-        <v>211.429718215364</v>
+        <v>188.269691201627</v>
       </c>
       <c r="F81">
-        <v>236.477934697529</v>
+        <v>210.574124192665</v>
       </c>
       <c r="G81">
-        <v>78.7880263893548</v>
+        <v>70.1575801354474</v>
       </c>
       <c r="H81">
-        <v>28.350026836632</v>
+        <v>25.2445627944023</v>
       </c>
       <c r="I81">
-        <v>81.7482701554288</v>
+        <v>72.7935585798428</v>
       </c>
       <c r="J81">
-        <v>283.044846248462</v>
+        <v>252.040092798732</v>
       </c>
       <c r="K81">
-        <v>264.486394945768</v>
+        <v>235.514535628099</v>
       </c>
       <c r="L81">
-        <v>113.96938499385</v>
+        <v>101.485170109224</v>
       </c>
       <c r="M81">
-        <v>153.932675835849</v>
+        <v>137.070879108562</v>
       </c>
       <c r="N81">
-        <v>157.234486190316</v>
+        <v>140.011008911926</v>
       </c>
       <c r="O81">
-        <v>3772.60296880242</v>
+        <v>3359.35175980932</v>
       </c>
       <c r="P81">
-        <v>3859.13317119535</v>
+        <v>3436.40343741473</v>
       </c>
     </row>
     <row r="82">
@@ -4606,49 +4606,49 @@
         </is>
       </c>
       <c r="B82">
-        <v>41525.8442987767</v>
+        <v>69965.93171862169</v>
       </c>
       <c r="C82">
-        <v>3702.21594991699</v>
+        <v>3700.01174667116</v>
       </c>
       <c r="D82">
-        <v>1762.6567807443</v>
+        <v>1761.60734066571</v>
       </c>
       <c r="E82">
-        <v>1733.74929858</v>
+        <v>1732.7170692657</v>
       </c>
       <c r="F82">
-        <v>1756.57478703361</v>
+        <v>1755.52896801616</v>
       </c>
       <c r="G82">
-        <v>746.314647790824</v>
+        <v>745.870311428136</v>
       </c>
       <c r="H82">
-        <v>886.110527778293</v>
+        <v>885.5829605785621</v>
       </c>
       <c r="I82">
-        <v>688.9840831828331</v>
+        <v>688.573879949682</v>
       </c>
       <c r="J82">
-        <v>2382.46207796247</v>
+        <v>2381.04362190363</v>
       </c>
       <c r="K82">
-        <v>955.988261024457</v>
+        <v>955.419090436778</v>
       </c>
       <c r="L82">
-        <v>1808.18234879744</v>
+        <v>1807.10580397775</v>
       </c>
       <c r="M82">
-        <v>1042.89025840713</v>
+        <v>1042.26934862669</v>
       </c>
       <c r="N82">
-        <v>947.258128888013</v>
+        <v>946.694155994324</v>
       </c>
       <c r="O82">
-        <v>65888.47127058329</v>
+        <v>65849.24298563119</v>
       </c>
       <c r="P82">
-        <v>14014.8998389569</v>
+        <v>14006.5557314999</v>
       </c>
     </row>
     <row r="83">
@@ -4658,49 +4658,49 @@
         </is>
       </c>
       <c r="B83">
-        <v>26577.6659160076</v>
+        <v>41838.806088174</v>
       </c>
       <c r="C83">
-        <v>1746.38331883054</v>
+        <v>1726.1130784471</v>
       </c>
       <c r="D83">
-        <v>1034.10156733919</v>
+        <v>1022.09876868391</v>
       </c>
       <c r="E83">
-        <v>914.0616544754211</v>
+        <v>903.452156971795</v>
       </c>
       <c r="F83">
-        <v>1205.57187622865</v>
+        <v>1191.57882472205</v>
       </c>
       <c r="G83">
-        <v>608.759165510028</v>
+        <v>601.6933086116831</v>
       </c>
       <c r="H83">
-        <v>226.221162851439</v>
+        <v>223.59541780373</v>
       </c>
       <c r="I83">
-        <v>720.242217131792</v>
+        <v>711.882378419324</v>
       </c>
       <c r="J83">
-        <v>1198.05921205088</v>
+        <v>1184.15335990489</v>
       </c>
       <c r="K83">
-        <v>1961.36186878029</v>
+        <v>1938.59637615882</v>
       </c>
       <c r="L83">
-        <v>895.297569277745</v>
+        <v>884.905866180095</v>
       </c>
       <c r="M83">
-        <v>1174.9623539071</v>
+        <v>1161.32458658627</v>
       </c>
       <c r="N83">
-        <v>356.805313418164</v>
+        <v>352.663880437734</v>
       </c>
       <c r="O83">
-        <v>34823.1600460179</v>
+        <v>34418.9682414851</v>
       </c>
       <c r="P83">
-        <v>17861.3564349384</v>
+        <v>17654.0399857907</v>
       </c>
     </row>
     <row r="84">
@@ -4710,49 +4710,49 @@
         </is>
       </c>
       <c r="B84">
-        <v>798.646653351741</v>
+        <v>1246.16572978188</v>
       </c>
       <c r="C84">
-        <v>59.1715664543952</v>
+        <v>59.2408884846651</v>
       </c>
       <c r="D84">
-        <v>82.4397100053439</v>
+        <v>82.53629166465871</v>
       </c>
       <c r="E84">
-        <v>51.7052198705789</v>
+        <v>51.765794755304</v>
       </c>
       <c r="F84">
-        <v>17.1635584632627</v>
+        <v>17.1836663088146</v>
       </c>
       <c r="G84">
-        <v>18.6246461079074</v>
+        <v>18.6464656803578</v>
       </c>
       <c r="H84">
-        <v>18.4150679345423</v>
+        <v>18.4366419771657</v>
       </c>
       <c r="I84">
-        <v>27.6732582375557</v>
+        <v>27.7056786475627</v>
       </c>
       <c r="J84">
-        <v>77.58365460448211</v>
+        <v>77.67454718642991</v>
       </c>
       <c r="K84">
-        <v>49.1555176382181</v>
+        <v>49.2131054373221</v>
       </c>
       <c r="L84">
-        <v>63.309493801499</v>
+        <v>63.3836635912925</v>
       </c>
       <c r="M84">
-        <v>27.5451275059723</v>
+        <v>27.5773978053268</v>
       </c>
       <c r="N84">
-        <v>24.0945371065872</v>
+        <v>24.1227648911588</v>
       </c>
       <c r="O84">
-        <v>1235.03622954848</v>
+        <v>1236.48312751011</v>
       </c>
       <c r="P84">
-        <v>101.203412721171</v>
+        <v>101.321976863722</v>
       </c>
     </row>
     <row r="85">
@@ -4762,49 +4762,49 @@
         </is>
       </c>
       <c r="B85">
-        <v>409.325353972837</v>
+        <v>621.720874488053</v>
       </c>
       <c r="C85">
-        <v>21.8823997367383</v>
+        <v>22.1150291710144</v>
       </c>
       <c r="D85">
-        <v>38.1807505236895</v>
+        <v>38.5866459694093</v>
       </c>
       <c r="E85">
-        <v>28.6559444258732</v>
+        <v>28.9605826840458</v>
       </c>
       <c r="F85">
-        <v>5.58306670722778</v>
+        <v>5.64241968794532</v>
       </c>
       <c r="G85">
-        <v>13.5696809571344</v>
+        <v>13.7139387735687</v>
       </c>
       <c r="H85">
-        <v>12.777993454315</v>
+        <v>12.9138349261929</v>
       </c>
       <c r="I85">
-        <v>10.0954890247866</v>
+        <v>10.2028130810524</v>
       </c>
       <c r="J85">
-        <v>41.2257024576104</v>
+        <v>41.6639684593161</v>
       </c>
       <c r="K85">
-        <v>24.2908584922138</v>
+        <v>24.5490919920633</v>
       </c>
       <c r="L85">
-        <v>29.4751347203539</v>
+        <v>29.7884817022982</v>
       </c>
       <c r="M85">
-        <v>9.946188155768571</v>
+        <v>10.0519250105796</v>
       </c>
       <c r="N85">
-        <v>16.8867140799895</v>
+        <v>17.0662349182188</v>
       </c>
       <c r="O85">
-        <v>498.059841103756</v>
+        <v>503.354661620039</v>
       </c>
       <c r="P85">
-        <v>98.5572361605434</v>
+        <v>99.6049875208911</v>
       </c>
     </row>
     <row r="86">
@@ -4814,49 +4814,49 @@
         </is>
       </c>
       <c r="B86">
-        <v>1064.84117216285</v>
+        <v>2404.80169722125</v>
       </c>
       <c r="C86">
-        <v>66.62388110527741</v>
+        <v>66.7520685204685</v>
       </c>
       <c r="D86">
-        <v>12.9357316598568</v>
+        <v>12.9606206032443</v>
       </c>
       <c r="E86">
-        <v>128.67648861647</v>
+        <v>128.924068105956</v>
       </c>
       <c r="F86">
-        <v>10.4069420120652</v>
+        <v>10.4269654477228</v>
       </c>
       <c r="G86">
-        <v>42.211334890059</v>
+        <v>42.2925514421655</v>
       </c>
       <c r="H86">
-        <v>25.6769410391142</v>
+        <v>25.7263446560638</v>
       </c>
       <c r="I86">
-        <v>18.9659223584366</v>
+        <v>19.0024136664107</v>
       </c>
       <c r="J86">
-        <v>113.60101187002</v>
+        <v>113.81958544804</v>
       </c>
       <c r="K86">
-        <v>102.610503016157</v>
+        <v>102.807930349043</v>
       </c>
       <c r="L86">
-        <v>94.6350895115839</v>
+        <v>94.817171781629</v>
       </c>
       <c r="M86">
-        <v>98.1364905623722</v>
+        <v>98.32530968927411</v>
       </c>
       <c r="N86">
-        <v>52.5210157618246</v>
+        <v>52.6220686146759</v>
       </c>
       <c r="O86">
-        <v>3119.55381397686</v>
+        <v>3125.55597916641</v>
       </c>
       <c r="P86">
-        <v>112.044833625226</v>
+        <v>112.260413044642</v>
       </c>
     </row>
     <row r="87">
@@ -4866,49 +4866,49 @@
         </is>
       </c>
       <c r="B87">
-        <v>17449.7489302017</v>
+        <v>20367.1716385935</v>
       </c>
       <c r="C87">
-        <v>575.668903117469</v>
+        <v>569.416775636161</v>
       </c>
       <c r="D87">
-        <v>1261.81655584028</v>
+        <v>1248.11243195515</v>
       </c>
       <c r="E87">
-        <v>241.313136587404</v>
+        <v>238.692323677955</v>
       </c>
       <c r="F87">
-        <v>138.686417670128</v>
+        <v>137.18019567602</v>
       </c>
       <c r="G87">
-        <v>138.419134029548</v>
+        <v>136.915814904408</v>
       </c>
       <c r="H87">
-        <v>152.09687455283</v>
+        <v>150.445006536227</v>
       </c>
       <c r="I87">
-        <v>201.321742914142</v>
+        <v>199.135261770828</v>
       </c>
       <c r="J87">
-        <v>396.376521091446</v>
+        <v>392.071621995732</v>
       </c>
       <c r="K87">
-        <v>231.398774377692</v>
+        <v>228.88563769688</v>
       </c>
       <c r="L87">
-        <v>159.092718883342</v>
+        <v>157.364871583583</v>
       </c>
       <c r="M87">
-        <v>185.999274089632</v>
+        <v>183.979204624803</v>
       </c>
       <c r="N87">
-        <v>217.822017172601</v>
+        <v>215.456332640705</v>
       </c>
       <c r="O87">
-        <v>7760.63907092594</v>
+        <v>7676.35363437536</v>
       </c>
       <c r="P87">
-        <v>7552.91872773179</v>
+        <v>7470.88926516049</v>
       </c>
     </row>
     <row r="88">

--- a/1-Data-Codes/2-Final_Data/L_2002.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2002.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>1383.77162393854</v>
+        <v>1466.27899788282</v>
       </c>
       <c r="C2">
-        <v>37.4078131169886</v>
+        <v>29.1071269052113</v>
       </c>
       <c r="D2">
-        <v>69.1929826315876</v>
+        <v>47.2576547094167</v>
       </c>
       <c r="E2">
-        <v>56.8498258110892</v>
+        <v>53.6673911615351</v>
       </c>
       <c r="F2">
-        <v>14.776301167448</v>
+        <v>17.5598781138306</v>
       </c>
       <c r="G2">
-        <v>16.7778025731856</v>
+        <v>10.7800781570828</v>
       </c>
       <c r="H2">
-        <v>17.4228510669267</v>
+        <v>22.756563384484</v>
       </c>
       <c r="I2">
-        <v>13.4972705461144</v>
+        <v>11.4174563504433</v>
       </c>
       <c r="J2">
-        <v>64.49224443076611</v>
+        <v>62.1589669344772</v>
       </c>
       <c r="K2">
-        <v>19.1698101078247</v>
+        <v>20.7384778158567</v>
       </c>
       <c r="L2">
-        <v>32.6243323651823</v>
+        <v>34.1678003408668</v>
       </c>
       <c r="M2">
-        <v>42.2772186448518</v>
+        <v>41.516845046572</v>
       </c>
       <c r="N2">
-        <v>34.8255501710957</v>
+        <v>25.7731910038529</v>
       </c>
       <c r="O2">
-        <v>1315.3784124048</v>
+        <v>1286.17685242854</v>
       </c>
       <c r="P2">
-        <v>36.0506569290681</v>
+        <v>25.5754671694143</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>134.781488670221</v>
+        <v>131.013411031574</v>
       </c>
       <c r="C3">
-        <v>4.10033110051276</v>
+        <v>3.70006027830265</v>
       </c>
       <c r="D3">
-        <v>0.233316516372231</v>
+        <v>0.233057492562728</v>
       </c>
       <c r="E3">
-        <v>1.74987387279173</v>
+        <v>1.4607720317889</v>
       </c>
       <c r="F3">
-        <v>8.21702269865974</v>
+        <v>7.64775509224011</v>
       </c>
       <c r="G3">
-        <v>0.379139339104875</v>
+        <v>0.132721971996078</v>
       </c>
       <c r="H3">
-        <v>0.0583291290930578</v>
+        <v>0.0265061453202465</v>
       </c>
       <c r="I3">
-        <v>0.320810210011817</v>
+        <v>0.39615578183706</v>
       </c>
       <c r="J3">
-        <v>0.583291290930578</v>
+        <v>0.347625460579531</v>
       </c>
       <c r="K3">
-        <v>0.145822822732644</v>
+        <v>0.366909972247864</v>
       </c>
       <c r="L3">
-        <v>0.349974774558347</v>
+        <v>0.368334435866761</v>
       </c>
       <c r="M3">
-        <v>0.641620420023636</v>
+        <v>0.757944950605057</v>
       </c>
       <c r="N3">
-        <v>0.641620420023636</v>
+        <v>0.734660648789033</v>
       </c>
       <c r="O3">
-        <v>216.429059591588</v>
+        <v>227.712473590267</v>
       </c>
       <c r="P3">
-        <v>7.45172551133808</v>
+        <v>11.1721235157583</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>1610.50833235593</v>
+        <v>1554.37599236148</v>
       </c>
       <c r="C4">
-        <v>13.4030496639299</v>
+        <v>4.70588019881814</v>
       </c>
       <c r="D4">
-        <v>4.14340150055778</v>
+        <v>2.01241295872396</v>
       </c>
       <c r="E4">
-        <v>23.8388895446348</v>
+        <v>24.1836781167059</v>
       </c>
       <c r="F4">
-        <v>20.0304476782957</v>
+        <v>12.5114502511213</v>
       </c>
       <c r="G4">
-        <v>8.96638381647012</v>
+        <v>7.52710079517881</v>
       </c>
       <c r="H4">
-        <v>7.80430739925032</v>
+        <v>13.6162951501952</v>
       </c>
       <c r="I4">
-        <v>9.41606653605202</v>
+        <v>11.5655797616617</v>
       </c>
       <c r="J4">
-        <v>26.0667172966049</v>
+        <v>18.858270325236</v>
       </c>
       <c r="K4">
-        <v>10.4340196750847</v>
+        <v>6.41091007037399</v>
       </c>
       <c r="L4">
-        <v>70.94664521442169</v>
+        <v>73.29641055190579</v>
       </c>
       <c r="M4">
-        <v>48.3353965443145</v>
+        <v>39.398628027457</v>
       </c>
       <c r="N4">
-        <v>25.608996333857</v>
+        <v>20.9819238636897</v>
       </c>
       <c r="O4">
-        <v>1789.6797229975</v>
+        <v>1880.46198620824</v>
       </c>
       <c r="P4">
-        <v>27.6546532609765</v>
+        <v>27.5623287155999</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>820.801612099881</v>
+        <v>860.069909327596</v>
       </c>
       <c r="C5">
-        <v>59.6190447594498</v>
+        <v>41.9042378295015</v>
       </c>
       <c r="D5">
-        <v>12.2444632676633</v>
+        <v>11.4815427179023</v>
       </c>
       <c r="E5">
-        <v>45.525585896528</v>
+        <v>31.0508251528984</v>
       </c>
       <c r="F5">
-        <v>5.74282809205453</v>
+        <v>3.87591674101825</v>
       </c>
       <c r="G5">
-        <v>10.1967950012975</v>
+        <v>3.96557077663441</v>
       </c>
       <c r="H5">
-        <v>15.1464688301627</v>
+        <v>12.534936919093</v>
       </c>
       <c r="I5">
-        <v>6.67994143536038</v>
+        <v>6.85979612520607</v>
       </c>
       <c r="J5">
-        <v>31.1678680740841</v>
+        <v>29.5019878185852</v>
       </c>
       <c r="K5">
-        <v>18.0717362115739</v>
+        <v>17.9769689774553</v>
       </c>
       <c r="L5">
-        <v>20.9496101579876</v>
+        <v>14.2593152222978</v>
       </c>
       <c r="M5">
-        <v>25.2629041370947</v>
+        <v>17.5456187308246</v>
       </c>
       <c r="N5">
-        <v>22.9909615081859</v>
+        <v>21.3787477431695</v>
       </c>
       <c r="O5">
-        <v>771.612036637261</v>
+        <v>808.177999604921</v>
       </c>
       <c r="P5">
-        <v>53.3860636373512</v>
+        <v>47.030785593788</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>9749.330093412849</v>
+        <v>9568.65119218797</v>
       </c>
       <c r="C6">
-        <v>195.002942328106</v>
+        <v>161.623296297174</v>
       </c>
       <c r="D6">
-        <v>172.884006867583</v>
+        <v>107.410246018226</v>
       </c>
       <c r="E6">
-        <v>190.461032408158</v>
+        <v>125.426118424704</v>
       </c>
       <c r="F6">
-        <v>50.1603346552392</v>
+        <v>41.1125951845659</v>
       </c>
       <c r="G6">
-        <v>91.7798862745572</v>
+        <v>88.4636382569592</v>
       </c>
       <c r="H6">
-        <v>59.9334440593994</v>
+        <v>61.558365624711</v>
       </c>
       <c r="I6">
-        <v>48.3251948337559</v>
+        <v>39.1685355354027</v>
       </c>
       <c r="J6">
-        <v>169.714006122684</v>
+        <v>153.36847270519</v>
       </c>
       <c r="K6">
-        <v>88.94851070144981</v>
+        <v>75.3328999033552</v>
       </c>
       <c r="L6">
-        <v>570.009585685454</v>
+        <v>472.641502021581</v>
       </c>
       <c r="M6">
-        <v>250.726462812832</v>
+        <v>220.249441494819</v>
       </c>
       <c r="N6">
-        <v>247.897101632231</v>
+        <v>229.084918458597</v>
       </c>
       <c r="O6">
-        <v>11110.8492987131</v>
+        <v>11678.3895308939</v>
       </c>
       <c r="P6">
-        <v>303.010151669754</v>
+        <v>293.850375740079</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>1024.994281914</v>
+        <v>1052.99257782114</v>
       </c>
       <c r="C7">
-        <v>25.4458866983373</v>
+        <v>39.1153497613069</v>
       </c>
       <c r="D7">
-        <v>4.98578420198625</v>
+        <v>2.66853543246699</v>
       </c>
       <c r="E7">
-        <v>22.2521127186562</v>
+        <v>14.9654709707672</v>
       </c>
       <c r="F7">
-        <v>23.0091405232875</v>
+        <v>16.7488309749874</v>
       </c>
       <c r="G7">
-        <v>9.718053953024031</v>
+        <v>8.91975651055623</v>
       </c>
       <c r="H7">
-        <v>6.36602954603895</v>
+        <v>5.29521322311443</v>
       </c>
       <c r="I7">
-        <v>10.6870664734349</v>
+        <v>6.19427240819605</v>
       </c>
       <c r="J7">
-        <v>21.0038266553088</v>
+        <v>14.7956697800807</v>
       </c>
       <c r="K7">
-        <v>11.3751713626532</v>
+        <v>8.37589596915285</v>
       </c>
       <c r="L7">
-        <v>65.32050747890131</v>
+        <v>54.8476582447856</v>
       </c>
       <c r="M7">
-        <v>16.9425531791167</v>
+        <v>14.0315885082478</v>
       </c>
       <c r="N7">
-        <v>24.2232168999422</v>
+        <v>22.9790060093344</v>
       </c>
       <c r="O7">
-        <v>1720.45790015618</v>
+        <v>1751.11742666707</v>
       </c>
       <c r="P7">
-        <v>53.447347513443</v>
+        <v>24.7230648823132</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>876.993296291542</v>
+        <v>832.97753137144</v>
       </c>
       <c r="C8">
-        <v>12.2163105347928</v>
+        <v>13.2913887130284</v>
       </c>
       <c r="D8">
-        <v>8.02061532585963</v>
+        <v>5.70145424078776</v>
       </c>
       <c r="E8">
-        <v>23.548195411489</v>
+        <v>14.9304213409568</v>
       </c>
       <c r="F8">
-        <v>1.89877450256223</v>
+        <v>1.53468549166656</v>
       </c>
       <c r="G8">
-        <v>25.015737840446</v>
+        <v>25.5981623007758</v>
       </c>
       <c r="H8">
-        <v>7.31533164692978</v>
+        <v>8.394876672288239</v>
       </c>
       <c r="I8">
-        <v>3.38411344313678</v>
+        <v>6.27140725020136</v>
       </c>
       <c r="J8">
-        <v>44.7933383597721</v>
+        <v>36.4236991724229</v>
       </c>
       <c r="K8">
-        <v>22.2408174825289</v>
+        <v>24.558226679058</v>
       </c>
       <c r="L8">
-        <v>45.3529287234569</v>
+        <v>42.7810770166061</v>
       </c>
       <c r="M8">
-        <v>55.3786898204653</v>
+        <v>44.2702483537078</v>
       </c>
       <c r="N8">
-        <v>23.7326433054386</v>
+        <v>22.8334599361186</v>
       </c>
       <c r="O8">
-        <v>1236.83931728448</v>
+        <v>1313.28947128683</v>
       </c>
       <c r="P8">
-        <v>6.7149337611848</v>
+        <v>1.21686397481869</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>213.483727240722</v>
+        <v>208.673155149525</v>
       </c>
       <c r="C9">
-        <v>8.83186234121801</v>
+        <v>6.16997904541664</v>
       </c>
       <c r="D9">
-        <v>2.05211143648243</v>
+        <v>2.73027089791025</v>
       </c>
       <c r="E9">
-        <v>5.59028360008442</v>
+        <v>3.78822732155763</v>
       </c>
       <c r="F9">
-        <v>1.88172981145336</v>
+        <v>1.77058114096273</v>
       </c>
       <c r="G9">
-        <v>16.9537956373923</v>
+        <v>16.9905357574433</v>
       </c>
       <c r="H9">
-        <v>3.19217334563933</v>
+        <v>3.45427431644006</v>
       </c>
       <c r="I9">
-        <v>0.912049527325523</v>
+        <v>0.681886963986017</v>
       </c>
       <c r="J9">
-        <v>3.47718882292856</v>
+        <v>3.88473737775148</v>
       </c>
       <c r="K9">
-        <v>2.05902675636165</v>
+        <v>3.05648362732291</v>
       </c>
       <c r="L9">
-        <v>2.50450716741505</v>
+        <v>2.4292313950454</v>
       </c>
       <c r="M9">
-        <v>6.46772184642663</v>
+        <v>6.52179537877567</v>
       </c>
       <c r="N9">
-        <v>4.23477420887115</v>
+        <v>4.34781804922593</v>
       </c>
       <c r="O9">
-        <v>285.958932742484</v>
+        <v>290.119790602796</v>
       </c>
       <c r="P9">
-        <v>3.89196849695397</v>
+        <v>4.9304285187273</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>5401.96851257499</v>
+        <v>5466.50964942698</v>
       </c>
       <c r="C10">
-        <v>59.7856181296258</v>
+        <v>58.0886326079407</v>
       </c>
       <c r="D10">
-        <v>24.7838762286667</v>
+        <v>22.53730251771</v>
       </c>
       <c r="E10">
-        <v>78.2007457632517</v>
+        <v>42.2202044581437</v>
       </c>
       <c r="F10">
-        <v>13.2074208487767</v>
+        <v>8.55180193146272</v>
       </c>
       <c r="G10">
-        <v>35.6791430288701</v>
+        <v>23.3806469921596</v>
       </c>
       <c r="H10">
-        <v>19.8926658939604</v>
+        <v>15.2625595011348</v>
       </c>
       <c r="I10">
-        <v>25.05774231464</v>
+        <v>39.6775029964763</v>
       </c>
       <c r="J10">
-        <v>46.0428522704666</v>
+        <v>50.6652408171248</v>
       </c>
       <c r="K10">
-        <v>32.4105943630614</v>
+        <v>32.878495196702</v>
       </c>
       <c r="L10">
-        <v>88.8454349197924</v>
+        <v>68.9979565099468</v>
       </c>
       <c r="M10">
-        <v>81.9668608994334</v>
+        <v>70.5818985538485</v>
       </c>
       <c r="N10">
-        <v>81.9301996075973</v>
+        <v>70.6470756672273</v>
       </c>
       <c r="O10">
-        <v>5933.72199768201</v>
+        <v>5969.09988300975</v>
       </c>
       <c r="P10">
-        <v>95.1881269840441</v>
+        <v>68.9543302818321</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>2171.33404941701</v>
+        <v>2249.5237368105</v>
       </c>
       <c r="C11">
-        <v>83.740553623853</v>
+        <v>80.1357082817926</v>
       </c>
       <c r="D11">
-        <v>126.392612796976</v>
+        <v>152.850945374159</v>
       </c>
       <c r="E11">
-        <v>92.00782661351499</v>
+        <v>59.9627067706703</v>
       </c>
       <c r="F11">
-        <v>12.2585757868648</v>
+        <v>2.56507566097856</v>
       </c>
       <c r="G11">
-        <v>33.2768290965238</v>
+        <v>32.2927691488056</v>
       </c>
       <c r="H11">
-        <v>30.289966297858</v>
+        <v>16.0639163118946</v>
       </c>
       <c r="I11">
-        <v>18.5805897948114</v>
+        <v>18.2034489904643</v>
       </c>
       <c r="J11">
-        <v>43.3970047870175</v>
+        <v>48.4105496509157</v>
       </c>
       <c r="K11">
-        <v>37.6865539099303</v>
+        <v>20.4936721469068</v>
       </c>
       <c r="L11">
-        <v>67.9416312447315</v>
+        <v>61.5863097042651</v>
       </c>
       <c r="M11">
-        <v>69.8321323795834</v>
+        <v>46.2408823383349</v>
       </c>
       <c r="N11">
-        <v>55.6995138655123</v>
+        <v>45.6110340591445</v>
       </c>
       <c r="O11">
-        <v>2795.10860428509</v>
+        <v>2810.45427712974</v>
       </c>
       <c r="P11">
-        <v>59.1303253140179</v>
+        <v>48.5226388444549</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>346.384990549847</v>
+        <v>333.054606844468</v>
       </c>
       <c r="C12">
-        <v>5.08190843947455</v>
+        <v>6.30675278309827</v>
       </c>
       <c r="D12">
-        <v>2.07463949970693</v>
+        <v>1.0741439640842</v>
       </c>
       <c r="E12">
-        <v>2.92341890635848</v>
+        <v>0.797637009250365</v>
       </c>
       <c r="F12">
-        <v>0.719208359898402</v>
+        <v>0.789336766809727</v>
       </c>
       <c r="G12">
-        <v>0.442589759937478</v>
+        <v>0.317770125047663</v>
       </c>
       <c r="H12">
-        <v>0.08915203263845251</v>
+        <v>0.0559722575411077</v>
       </c>
       <c r="I12">
-        <v>0.995826959859322</v>
+        <v>1.0705972513639</v>
       </c>
       <c r="J12">
-        <v>0.6085609199140321</v>
+        <v>3.55397227015886</v>
       </c>
       <c r="K12">
-        <v>0.414927899941385</v>
+        <v>0.405918587685566</v>
       </c>
       <c r="L12">
-        <v>0.275831651488638</v>
+        <v>0.299685384018318</v>
       </c>
       <c r="M12">
-        <v>3.92798411944512</v>
+        <v>3.13238770593983</v>
       </c>
       <c r="N12">
-        <v>2.25327605565252</v>
+        <v>1.75329909070066</v>
       </c>
       <c r="O12">
-        <v>457.733781916483</v>
+        <v>475.806514745718</v>
       </c>
       <c r="P12">
-        <v>14.9585367856982</v>
+        <v>12.0612071659832</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>350.118743784413</v>
+        <v>323.787844893572</v>
       </c>
       <c r="C13">
-        <v>19.6637685921162</v>
+        <v>15.1808492446256</v>
       </c>
       <c r="D13">
-        <v>1.21967752553177</v>
+        <v>0.410058186127859</v>
       </c>
       <c r="E13">
-        <v>17.8348148197176</v>
+        <v>11.3028421446755</v>
       </c>
       <c r="F13">
-        <v>2.7108055504409</v>
+        <v>4.24663309575716</v>
       </c>
       <c r="G13">
-        <v>5.10296837867146</v>
+        <v>4.53456295942346</v>
       </c>
       <c r="H13">
-        <v>1.84369858510617</v>
+        <v>0.953469033287399</v>
       </c>
       <c r="I13">
-        <v>1.70187561702108</v>
+        <v>1.11707932200027</v>
       </c>
       <c r="J13">
-        <v>5.23750606816232</v>
+        <v>4.87795104693284</v>
       </c>
       <c r="K13">
-        <v>2.55281342553161</v>
+        <v>2.56638608814109</v>
       </c>
       <c r="L13">
-        <v>21.2824396422622</v>
+        <v>18.7204543516522</v>
       </c>
       <c r="M13">
-        <v>3.12010529787197</v>
+        <v>1.11971768114101</v>
       </c>
       <c r="N13">
-        <v>6.30993974212231</v>
+        <v>5.12839699956057</v>
       </c>
       <c r="O13">
-        <v>410.380639590091</v>
+        <v>452.041112924439</v>
       </c>
       <c r="P13">
-        <v>40.7631734835022</v>
+        <v>44.2180445164895</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>3373.8896354282</v>
+        <v>3435.89003654081</v>
       </c>
       <c r="C14">
-        <v>107.291058564847</v>
+        <v>122.459787294988</v>
       </c>
       <c r="D14">
-        <v>18.222375276958</v>
+        <v>12.4669296117088</v>
       </c>
       <c r="E14">
-        <v>133.337269487233</v>
+        <v>66.44179490520359</v>
       </c>
       <c r="F14">
-        <v>31.0601171235313</v>
+        <v>16.8095172940743</v>
       </c>
       <c r="G14">
-        <v>73.571723423584</v>
+        <v>78.7383226127493</v>
       </c>
       <c r="H14">
-        <v>66.1513652076341</v>
+        <v>40.4578451394676</v>
       </c>
       <c r="I14">
-        <v>20.1385800309434</v>
+        <v>26.4527447087664</v>
       </c>
       <c r="J14">
-        <v>183.272825517263</v>
+        <v>143.298087861585</v>
       </c>
       <c r="K14">
-        <v>137.261753877332</v>
+        <v>137.830495070944</v>
       </c>
       <c r="L14">
-        <v>130.909630051164</v>
+        <v>115.701816757653</v>
       </c>
       <c r="M14">
-        <v>87.3814115452617</v>
+        <v>75.4802560729146</v>
       </c>
       <c r="N14">
-        <v>75.03552997264021</v>
+        <v>100.54657097261</v>
       </c>
       <c r="O14">
-        <v>4104.78979135404</v>
+        <v>4185.44203432334</v>
       </c>
       <c r="P14">
-        <v>78.4928884591296</v>
+        <v>67.4561649551888</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>1581.26948852886</v>
+        <v>1580.39305624825</v>
       </c>
       <c r="C15">
-        <v>40.5115472926473</v>
+        <v>33.8343921912119</v>
       </c>
       <c r="D15">
-        <v>12.136488404904</v>
+        <v>10.7076587703088</v>
       </c>
       <c r="E15">
-        <v>70.7285218764265</v>
+        <v>65.60530882761731</v>
       </c>
       <c r="F15">
-        <v>12.6179020009127</v>
+        <v>16.3314603424132</v>
       </c>
       <c r="G15">
-        <v>40.930523294716</v>
+        <v>34.6363409728759</v>
       </c>
       <c r="H15">
-        <v>53.6663916221125</v>
+        <v>55.1624127150912</v>
       </c>
       <c r="I15">
-        <v>20.253508023107</v>
+        <v>18.4558320760767</v>
       </c>
       <c r="J15">
-        <v>146.878182977679</v>
+        <v>138.588580606122</v>
       </c>
       <c r="K15">
-        <v>50.6848367750987</v>
+        <v>51.6763228930202</v>
       </c>
       <c r="L15">
-        <v>60.5905058513958</v>
+        <v>33.1349662849405</v>
       </c>
       <c r="M15">
-        <v>208.099252849335</v>
+        <v>160.077057923455</v>
       </c>
       <c r="N15">
-        <v>78.8317798587666</v>
+        <v>86.3307371772152</v>
       </c>
       <c r="O15">
-        <v>1853.6972184606</v>
+        <v>1948.51367050543</v>
       </c>
       <c r="P15">
-        <v>43.2158391721829</v>
+        <v>43.8900005709971</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>719.199014509643</v>
+        <v>696.232865872823</v>
       </c>
       <c r="C16">
-        <v>59.7340107318749</v>
+        <v>57.4084649129107</v>
       </c>
       <c r="D16">
-        <v>6.71104355875792</v>
+        <v>5.34874910265292</v>
       </c>
       <c r="E16">
-        <v>25.1111214042263</v>
+        <v>25.8307386216225</v>
       </c>
       <c r="F16">
-        <v>3.37219540502357</v>
+        <v>3.93391192185082</v>
       </c>
       <c r="G16">
-        <v>10.3244168990139</v>
+        <v>15.4565576937018</v>
       </c>
       <c r="H16">
-        <v>17.1415289453568</v>
+        <v>11.2346719172223</v>
       </c>
       <c r="I16">
-        <v>9.84017675564257</v>
+        <v>8.7667167463966</v>
       </c>
       <c r="J16">
-        <v>47.2465771185944</v>
+        <v>45.2837698148856</v>
       </c>
       <c r="K16">
-        <v>46.0429143650594</v>
+        <v>45.5492515585438</v>
       </c>
       <c r="L16">
-        <v>35.2809050532039</v>
+        <v>24.636510702537</v>
       </c>
       <c r="M16">
-        <v>27.8926832037258</v>
+        <v>27.0002510546561</v>
       </c>
       <c r="N16">
-        <v>16.8305894309471</v>
+        <v>22.8271469363981</v>
       </c>
       <c r="O16">
-        <v>957.29078177078</v>
+        <v>987.565950483012</v>
       </c>
       <c r="P16">
-        <v>70.5373614293522</v>
+        <v>72.9512760166389</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>666.963357811626</v>
+        <v>643.988508335237</v>
       </c>
       <c r="C17">
-        <v>30.1736519606061</v>
+        <v>14.8245551138151</v>
       </c>
       <c r="D17">
-        <v>4.40078566430918</v>
+        <v>3.20258775032843</v>
       </c>
       <c r="E17">
-        <v>24.0042854416864</v>
+        <v>16.252208694904</v>
       </c>
       <c r="F17">
-        <v>16.4402446693212</v>
+        <v>11.1904311411487</v>
       </c>
       <c r="G17">
-        <v>8.63834924110262</v>
+        <v>6.86440228040413</v>
       </c>
       <c r="H17">
-        <v>13.8056303779406</v>
+        <v>6.17518582769674</v>
       </c>
       <c r="I17">
-        <v>8.84775662780986</v>
+        <v>5.77928165912605</v>
       </c>
       <c r="J17">
-        <v>18.2001343783164</v>
+        <v>14.9843032934457</v>
       </c>
       <c r="K17">
-        <v>18.9160541186577</v>
+        <v>9.982749328995149</v>
       </c>
       <c r="L17">
-        <v>9.95977557514955</v>
+        <v>8.82073073227312</v>
       </c>
       <c r="M17">
-        <v>65.09876182244631</v>
+        <v>61.0326107290984</v>
       </c>
       <c r="N17">
-        <v>14.2606710030644</v>
+        <v>11.5714219959554</v>
       </c>
       <c r="O17">
-        <v>888.12989682162</v>
+        <v>987.920143687405</v>
       </c>
       <c r="P17">
-        <v>62.4894008621577</v>
+        <v>45.398565384785</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>1264.90381517928</v>
+        <v>1228.30295442417</v>
       </c>
       <c r="C18">
-        <v>34.4240521874148</v>
+        <v>27.9252580168874</v>
       </c>
       <c r="D18">
-        <v>21.1032208862493</v>
+        <v>8.10555243804172</v>
       </c>
       <c r="E18">
-        <v>50.8198755075108</v>
+        <v>34.5110852543301</v>
       </c>
       <c r="F18">
-        <v>26.1522004041238</v>
+        <v>27.8930360923494</v>
       </c>
       <c r="G18">
-        <v>17.0665432186848</v>
+        <v>27.1788971538772</v>
       </c>
       <c r="H18">
-        <v>20.9385332041498</v>
+        <v>15.6922591726219</v>
       </c>
       <c r="I18">
-        <v>10.8348386317659</v>
+        <v>4.323627712799</v>
       </c>
       <c r="J18">
-        <v>50.9538328782942</v>
+        <v>44.6079923722819</v>
       </c>
       <c r="K18">
-        <v>32.2075133477853</v>
+        <v>20.5220440586317</v>
       </c>
       <c r="L18">
-        <v>27.2067007475238</v>
+        <v>28.3426031593788</v>
       </c>
       <c r="M18">
-        <v>70.9654984265386</v>
+        <v>62.1593170279172</v>
       </c>
       <c r="N18">
-        <v>22.0571314149318</v>
+        <v>26.521928994636</v>
       </c>
       <c r="O18">
-        <v>1197.41363414639</v>
+        <v>1274.51657006492</v>
       </c>
       <c r="P18">
-        <v>38.2513958920418</v>
+        <v>53.1028716706191</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>1359.47457575895</v>
+        <v>1376.24023396498</v>
       </c>
       <c r="C19">
-        <v>23.6083353862649</v>
+        <v>23.1619707955447</v>
       </c>
       <c r="D19">
-        <v>9.822512186369529</v>
+        <v>15.7080948657834</v>
       </c>
       <c r="E19">
-        <v>36.0811953404744</v>
+        <v>32.2496245403333</v>
       </c>
       <c r="F19">
-        <v>78.3413497374991</v>
+        <v>87.83702147061329</v>
       </c>
       <c r="G19">
-        <v>40.7758597045723</v>
+        <v>33.9264224544439</v>
       </c>
       <c r="H19">
-        <v>6.42672940193891</v>
+        <v>5.01005949488613</v>
       </c>
       <c r="I19">
-        <v>7.14466385587859</v>
+        <v>0.0269107325201534</v>
       </c>
       <c r="J19">
-        <v>23.6301578883518</v>
+        <v>15.5632711165261</v>
       </c>
       <c r="K19">
-        <v>11.9366056121232</v>
+        <v>12.8020902465557</v>
       </c>
       <c r="L19">
-        <v>6.75529684605516</v>
+        <v>3.06841049164562</v>
       </c>
       <c r="M19">
-        <v>28.6775810301593</v>
+        <v>25.3327131778479</v>
       </c>
       <c r="N19">
-        <v>10.6363774818116</v>
+        <v>12.5797306644598</v>
       </c>
       <c r="O19">
-        <v>1396.19438521795</v>
+        <v>1385.87829453577</v>
       </c>
       <c r="P19">
-        <v>32.8956684479324</v>
+        <v>37.5613308203034</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>353.801705205454</v>
+        <v>353.958158163431</v>
       </c>
       <c r="C20">
-        <v>8.65124032754332</v>
+        <v>5.81917624001107</v>
       </c>
       <c r="D20">
-        <v>13.3829111416531</v>
+        <v>8.386440195783321</v>
       </c>
       <c r="E20">
-        <v>37.0430579217933</v>
+        <v>30.6809801640466</v>
       </c>
       <c r="F20">
-        <v>0.494803072349817</v>
+        <v>0.27238452105506</v>
       </c>
       <c r="G20">
-        <v>1.61462055187835</v>
+        <v>1.91728860438084</v>
       </c>
       <c r="H20">
-        <v>1.82295868760459</v>
+        <v>1.71533989366501</v>
       </c>
       <c r="I20">
-        <v>1.66670508580991</v>
+        <v>2.26378005763992</v>
       </c>
       <c r="J20">
-        <v>6.53660900841074</v>
+        <v>4.00898087174496</v>
       </c>
       <c r="K20">
-        <v>4.12827617392038</v>
+        <v>3.50777443562298</v>
       </c>
       <c r="L20">
-        <v>8.35205496187328</v>
+        <v>7.71006018972255</v>
       </c>
       <c r="M20">
-        <v>15.4380143443209</v>
+        <v>14.5057856746951</v>
       </c>
       <c r="N20">
-        <v>6.82307394503431</v>
+        <v>4.73690118432341</v>
       </c>
       <c r="O20">
-        <v>452.182327622625</v>
+        <v>475.681587453495</v>
       </c>
       <c r="P20">
-        <v>22.0007651663446</v>
+        <v>21.6982365693832</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>1373.70827946956</v>
+        <v>1407.75184823668</v>
       </c>
       <c r="C21">
-        <v>25.5066307126345</v>
+        <v>21.4984509791855</v>
       </c>
       <c r="D21">
-        <v>11.7145837888345</v>
+        <v>7.38999708263873</v>
       </c>
       <c r="E21">
-        <v>41.9914922308946</v>
+        <v>15.0746948653766</v>
       </c>
       <c r="F21">
-        <v>4.09721896062682</v>
+        <v>6.60488053654931</v>
       </c>
       <c r="G21">
-        <v>20.8103735517648</v>
+        <v>20.3881499754844</v>
       </c>
       <c r="H21">
-        <v>7.87704772007832</v>
+        <v>4.05193383373682</v>
       </c>
       <c r="I21">
-        <v>6.83831615259546</v>
+        <v>7.82773241157416</v>
       </c>
       <c r="J21">
-        <v>27.0935817185112</v>
+        <v>30.2807009445562</v>
       </c>
       <c r="K21">
-        <v>10.264108926757</v>
+        <v>3.44851511542889</v>
       </c>
       <c r="L21">
-        <v>39.904604384133</v>
+        <v>26.3955556848501</v>
       </c>
       <c r="M21">
-        <v>27.3817657716545</v>
+        <v>31.113659221205</v>
       </c>
       <c r="N21">
-        <v>20.197558256611</v>
+        <v>29.6450966881543</v>
       </c>
       <c r="O21">
-        <v>2077.64379772452</v>
+        <v>2083.65693243658</v>
       </c>
       <c r="P21">
-        <v>18.4790883441371</v>
+        <v>20.7568360095816</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>1630.61644032952</v>
+        <v>1707.87230035173</v>
       </c>
       <c r="C22">
-        <v>27.8437165833377</v>
+        <v>10.4853539523714</v>
       </c>
       <c r="D22">
-        <v>25.7850825276423</v>
+        <v>19.8422337118027</v>
       </c>
       <c r="E22">
-        <v>54.833468455012</v>
+        <v>36.5369884496516</v>
       </c>
       <c r="F22">
-        <v>3.06994642756253</v>
+        <v>2.32768231406877</v>
       </c>
       <c r="G22">
-        <v>27.4252457098938</v>
+        <v>27.2005540962687</v>
       </c>
       <c r="H22">
-        <v>18.9906504644459</v>
+        <v>16.1447017774325</v>
       </c>
       <c r="I22">
-        <v>9.584035816384869</v>
+        <v>10.0366259564489</v>
       </c>
       <c r="J22">
-        <v>51.2971274553137</v>
+        <v>43.4480818183519</v>
       </c>
       <c r="K22">
-        <v>26.2676634396988</v>
+        <v>17.9257798889554</v>
       </c>
       <c r="L22">
-        <v>130.067001096476</v>
+        <v>102.571960611553</v>
       </c>
       <c r="M22">
-        <v>19.1716991044338</v>
+        <v>13.6430870321758</v>
       </c>
       <c r="N22">
-        <v>50.4017832381016</v>
+        <v>64.90587080966721</v>
       </c>
       <c r="O22">
-        <v>2368.84480241245</v>
+        <v>2369.71540682424</v>
       </c>
       <c r="P22">
-        <v>12.6347793577469</v>
+        <v>15.2363423548245</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>2771.17937600526</v>
+        <v>2785.23305815758</v>
       </c>
       <c r="C23">
-        <v>44.558380602484</v>
+        <v>35.3692597298335</v>
       </c>
       <c r="D23">
-        <v>10.6890696747891</v>
+        <v>11.3957087963248</v>
       </c>
       <c r="E23">
-        <v>73.5135206922605</v>
+        <v>33.2747910212097</v>
       </c>
       <c r="F23">
-        <v>14.573150013935</v>
+        <v>5.07575638167642</v>
       </c>
       <c r="G23">
-        <v>49.0173712897945</v>
+        <v>53.440155869039</v>
       </c>
       <c r="H23">
-        <v>66.6955912733001</v>
+        <v>61.1012872750763</v>
       </c>
       <c r="I23">
-        <v>16.5612471585657</v>
+        <v>10.5175280841588</v>
       </c>
       <c r="J23">
-        <v>150.941268981829</v>
+        <v>110.740755503065</v>
       </c>
       <c r="K23">
-        <v>97.12187459236191</v>
+        <v>101.670742550124</v>
       </c>
       <c r="L23">
-        <v>45.4842428799575</v>
+        <v>42.6564508509042</v>
       </c>
       <c r="M23">
-        <v>493.451164556264</v>
+        <v>478.588853465704</v>
       </c>
       <c r="N23">
-        <v>71.937179242927</v>
+        <v>79.9588779793321</v>
       </c>
       <c r="O23">
-        <v>3019.67035417887</v>
+        <v>3126.12004545586</v>
       </c>
       <c r="P23">
-        <v>55.3539102671449</v>
+        <v>42.3139275883157</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>1116.77752385765</v>
+        <v>1093.53936056169</v>
       </c>
       <c r="C24">
-        <v>67.9665921354234</v>
+        <v>58.1603153140834</v>
       </c>
       <c r="D24">
-        <v>5.54091891577594</v>
+        <v>5.12123927343891</v>
       </c>
       <c r="E24">
-        <v>78.7996332559172</v>
+        <v>49.4883667927952</v>
       </c>
       <c r="F24">
-        <v>13.5216366958922</v>
+        <v>11.2182784012915</v>
       </c>
       <c r="G24">
-        <v>15.6208735176732</v>
+        <v>26.9485801496402</v>
       </c>
       <c r="H24">
-        <v>19.6389405377984</v>
+        <v>15.8370938821174</v>
       </c>
       <c r="I24">
-        <v>15.186362715298</v>
+        <v>15.1361893214442</v>
       </c>
       <c r="J24">
-        <v>63.1101445744166</v>
+        <v>41.62008310185</v>
       </c>
       <c r="K24">
-        <v>47.4659367735591</v>
+        <v>49.3435337466784</v>
       </c>
       <c r="L24">
-        <v>74.0979617009917</v>
+        <v>57.6156232372594</v>
       </c>
       <c r="M24">
-        <v>32.4651831216785</v>
+        <v>29.2923408121201</v>
       </c>
       <c r="N24">
-        <v>52.4542791190244</v>
+        <v>60.9600690745711</v>
       </c>
       <c r="O24">
-        <v>1760.0270148352</v>
+        <v>1853.07847759135</v>
       </c>
       <c r="P24">
-        <v>106.307071258563</v>
+        <v>99.0038373703003</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>870.673311480673</v>
+        <v>879.274012734464</v>
       </c>
       <c r="C25">
-        <v>28.4296197109056</v>
+        <v>38.0640301656636</v>
       </c>
       <c r="D25">
-        <v>20.0331080090739</v>
+        <v>14.5664616418417</v>
       </c>
       <c r="E25">
-        <v>35.5309641248339</v>
+        <v>37.8347871389775</v>
       </c>
       <c r="F25">
-        <v>8.443802674152551</v>
+        <v>15.8104649476385</v>
       </c>
       <c r="G25">
-        <v>9.86024289842852</v>
+        <v>7.12347073090766</v>
       </c>
       <c r="H25">
-        <v>12.8280535044838</v>
+        <v>17.4520302504568</v>
       </c>
       <c r="I25">
-        <v>5.69451646419467</v>
+        <v>6.79783943386172</v>
       </c>
       <c r="J25">
-        <v>17.9343529949996</v>
+        <v>16.4736291223074</v>
       </c>
       <c r="K25">
-        <v>15.9908170912898</v>
+        <v>12.3146908760679</v>
       </c>
       <c r="L25">
-        <v>24.1702048041607</v>
+        <v>19.1539477065084</v>
       </c>
       <c r="M25">
-        <v>25.9518119600868</v>
+        <v>31.283748233107</v>
       </c>
       <c r="N25">
-        <v>52.5644527387733</v>
+        <v>45.3988433337651</v>
       </c>
       <c r="O25">
-        <v>779.560654420222</v>
+        <v>762.1195913208541</v>
       </c>
       <c r="P25">
-        <v>33.9521887047949</v>
+        <v>31.238997027712</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>1528.72650647602</v>
+        <v>1425.5736816462</v>
       </c>
       <c r="C26">
-        <v>61.3875730195638</v>
+        <v>50.4551953371556</v>
       </c>
       <c r="D26">
-        <v>23.4334310182687</v>
+        <v>13.485791672042</v>
       </c>
       <c r="E26">
-        <v>60.209352211676</v>
+        <v>39.8751983376875</v>
       </c>
       <c r="F26">
-        <v>12.1412341870015</v>
+        <v>7.54423599610423</v>
       </c>
       <c r="G26">
-        <v>25.4093014553586</v>
+        <v>22.0567233547079</v>
       </c>
       <c r="H26">
-        <v>21.2400072475378</v>
+        <v>19.4772807772736</v>
       </c>
       <c r="I26">
-        <v>15.2332526870355</v>
+        <v>17.3740245592255</v>
       </c>
       <c r="J26">
-        <v>65.2200567146424</v>
+        <v>65.46429361416961</v>
       </c>
       <c r="K26">
-        <v>37.0424070382624</v>
+        <v>33.881984321469</v>
       </c>
       <c r="L26">
-        <v>43.1640333980317</v>
+        <v>31.5086903681284</v>
       </c>
       <c r="M26">
-        <v>77.18080247201451</v>
+        <v>77.26354134927971</v>
       </c>
       <c r="N26">
-        <v>43.9652673944703</v>
+        <v>21.7921130591377</v>
       </c>
       <c r="O26">
-        <v>1858.79184129904</v>
+        <v>2049.93824561175</v>
       </c>
       <c r="P26">
-        <v>74.36525704723211</v>
+        <v>65.7371230866185</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>251.028803608192</v>
+        <v>249.752563000948</v>
       </c>
       <c r="C27">
-        <v>2.85290157926752</v>
+        <v>2.46922389999922</v>
       </c>
       <c r="D27">
-        <v>1.107301677398</v>
+        <v>1.33036607274739</v>
       </c>
       <c r="E27">
-        <v>9.44128241036443</v>
+        <v>9.08043120750926</v>
       </c>
       <c r="F27">
-        <v>6.19189872583571</v>
+        <v>5.02385217812396</v>
       </c>
       <c r="G27">
-        <v>0.810220739559513</v>
+        <v>0.901725823820688</v>
       </c>
       <c r="H27">
-        <v>0.324088295823806</v>
+        <v>0.0427202307065274</v>
       </c>
       <c r="I27">
-        <v>1.36810288599881</v>
+        <v>2.29375907039019</v>
       </c>
       <c r="J27">
-        <v>3.06546670642907</v>
+        <v>2.5786931291052</v>
       </c>
       <c r="K27">
-        <v>1.107301677398</v>
+        <v>1.36159355960394</v>
       </c>
       <c r="L27">
-        <v>1.6545239115909</v>
+        <v>0.9303582500372361</v>
       </c>
       <c r="M27">
-        <v>0.891242813515466</v>
+        <v>0.434135336397794</v>
       </c>
       <c r="N27">
-        <v>3.97301301380934</v>
+        <v>3.362322361949</v>
       </c>
       <c r="O27">
-        <v>316.988888242958</v>
+        <v>325.431052790463</v>
       </c>
       <c r="P27">
-        <v>39.7054535050901</v>
+        <v>39.71189886177</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>396.069067097692</v>
+        <v>384.036460647856</v>
       </c>
       <c r="C28">
-        <v>34.811850962632</v>
+        <v>28.3561268511407</v>
       </c>
       <c r="D28">
-        <v>1.98584174192318</v>
+        <v>4.08474349347529</v>
       </c>
       <c r="E28">
-        <v>9.70938150085197</v>
+        <v>4.19965268646303</v>
       </c>
       <c r="F28">
-        <v>1.98081337823618</v>
+        <v>2.02307186615386</v>
       </c>
       <c r="G28">
-        <v>4.60500874946505</v>
+        <v>2.13846474306805</v>
       </c>
       <c r="H28">
-        <v>6.6807817998346</v>
+        <v>9.16235842639052</v>
       </c>
       <c r="I28">
-        <v>3.77059457374088</v>
+        <v>0.928298416048656</v>
       </c>
       <c r="J28">
-        <v>12.8393452269814</v>
+        <v>17.8246097661569</v>
       </c>
       <c r="K28">
-        <v>15.8575203976675</v>
+        <v>11.1405311811885</v>
       </c>
       <c r="L28">
-        <v>12.5884544419155</v>
+        <v>13.264191694816</v>
       </c>
       <c r="M28">
-        <v>10.4039391747722</v>
+        <v>6.75246680561604</v>
       </c>
       <c r="N28">
-        <v>10.5611875987391</v>
+        <v>10.5186645006334</v>
       </c>
       <c r="O28">
-        <v>597.722885933659</v>
+        <v>623.5123560738</v>
       </c>
       <c r="P28">
-        <v>81.9898101176658</v>
+        <v>82.8789310101518</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>570.39934577882</v>
+        <v>540.861314922064</v>
       </c>
       <c r="C29">
-        <v>5.11782323214008</v>
+        <v>2.72451181465687</v>
       </c>
       <c r="D29">
-        <v>1.58079138934806</v>
+        <v>3.26633790891912</v>
       </c>
       <c r="E29">
-        <v>7.1001647148684</v>
+        <v>2.8280488162334</v>
       </c>
       <c r="F29">
-        <v>16.4514489149115</v>
+        <v>22.3634856724461</v>
       </c>
       <c r="G29">
-        <v>2.08985980286692</v>
+        <v>3.3783323353266</v>
       </c>
       <c r="H29">
-        <v>2.89365203473882</v>
+        <v>1.85671093577304</v>
       </c>
       <c r="I29">
-        <v>2.86120730156892</v>
+        <v>1.56523429230844</v>
       </c>
       <c r="J29">
-        <v>6.91261319409829</v>
+        <v>5.90206472297973</v>
       </c>
       <c r="K29">
-        <v>2.38004959411673</v>
+        <v>2.33755974003059</v>
       </c>
       <c r="L29">
-        <v>5.78730406947764</v>
+        <v>2.94945407581995</v>
       </c>
       <c r="M29">
-        <v>3.50989274584061</v>
+        <v>2.26177566795385</v>
       </c>
       <c r="N29">
-        <v>8.94982743850248</v>
+        <v>9.376124669167201</v>
       </c>
       <c r="O29">
-        <v>816.055547778611</v>
+        <v>842.352604716902</v>
       </c>
       <c r="P29">
-        <v>6.4561885240446</v>
+        <v>5.84680880319223</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>281.397980633718</v>
+        <v>279.091085810322</v>
       </c>
       <c r="C30">
-        <v>3.7151910518131</v>
+        <v>2.94025913921436</v>
       </c>
       <c r="D30">
-        <v>5.99369707212142</v>
+        <v>6.60963736513288</v>
       </c>
       <c r="E30">
-        <v>16.2551055951149</v>
+        <v>11.5460175456656</v>
       </c>
       <c r="F30">
-        <v>0.837226152521261</v>
+        <v>1.25926812793926</v>
       </c>
       <c r="G30">
-        <v>3.97682422447599</v>
+        <v>4.27194616764717</v>
       </c>
       <c r="H30">
-        <v>4.92492383619285</v>
+        <v>5.12108053949097</v>
       </c>
       <c r="I30">
-        <v>2.74130952183063</v>
+        <v>1.71504319456696</v>
       </c>
       <c r="J30">
-        <v>21.0453280033296</v>
+        <v>14.8048911202457</v>
       </c>
       <c r="K30">
-        <v>8.30768966799967</v>
+        <v>10.3769893141108</v>
       </c>
       <c r="L30">
-        <v>32.4776167005048</v>
+        <v>30.1428389843701</v>
       </c>
       <c r="M30">
-        <v>7.74569369880891</v>
+        <v>9.707468543355141</v>
       </c>
       <c r="N30">
-        <v>12.9862479288752</v>
+        <v>11.1388789996197</v>
       </c>
       <c r="O30">
-        <v>467.475814477358</v>
+        <v>479.461292577998</v>
       </c>
       <c r="P30">
-        <v>5.56219225707494</v>
+        <v>6.78604508242363</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>2417.29012438717</v>
+        <v>2408.37881669946</v>
       </c>
       <c r="C31">
-        <v>41.4778851149806</v>
+        <v>48.9847227306178</v>
       </c>
       <c r="D31">
-        <v>33.2677264737353</v>
+        <v>39.9927878451366</v>
       </c>
       <c r="E31">
-        <v>57.2654628999514</v>
+        <v>43.8531466474331</v>
       </c>
       <c r="F31">
-        <v>9.59071043699279</v>
+        <v>9.55792373424473</v>
       </c>
       <c r="G31">
-        <v>123.355897523224</v>
+        <v>95.9871417945738</v>
       </c>
       <c r="H31">
-        <v>23.6003616099668</v>
+        <v>10.4122343870544</v>
       </c>
       <c r="I31">
-        <v>19.0791016324482</v>
+        <v>19.7724233301654</v>
       </c>
       <c r="J31">
-        <v>44.7437308495503</v>
+        <v>28.5996908323249</v>
       </c>
       <c r="K31">
-        <v>23.5077632861709</v>
+        <v>17.2737771013057</v>
       </c>
       <c r="L31">
-        <v>78.907477927733</v>
+        <v>60.5243560789075</v>
       </c>
       <c r="M31">
-        <v>22.7872772493905</v>
+        <v>18.9332931840304</v>
       </c>
       <c r="N31">
-        <v>50.8031150373747</v>
+        <v>43.390516229498</v>
       </c>
       <c r="O31">
-        <v>2989.14375844956</v>
+        <v>3103.96993586002</v>
       </c>
       <c r="P31">
-        <v>13.9957460446814</v>
+        <v>5.32122108614165</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>557.371390792713</v>
+        <v>539.168590317026</v>
       </c>
       <c r="C32">
-        <v>6.08574155839075</v>
+        <v>3.63104604133131</v>
       </c>
       <c r="D32">
-        <v>1.40076442796494</v>
+        <v>0.6534128345647801</v>
       </c>
       <c r="E32">
-        <v>5.66023177014404</v>
+        <v>5.0174690565403</v>
       </c>
       <c r="F32">
-        <v>21.3109526283004</v>
+        <v>19.2293568163324</v>
       </c>
       <c r="G32">
-        <v>1.88674392338135</v>
+        <v>1.59962591699821</v>
       </c>
       <c r="H32">
-        <v>0.579361500643141</v>
+        <v>2.44941892892347</v>
       </c>
       <c r="I32">
-        <v>3.40185646791486</v>
+        <v>3.57935368796516</v>
       </c>
       <c r="J32">
-        <v>4.28805437132124</v>
+        <v>3.59034761668762</v>
       </c>
       <c r="K32">
-        <v>2.02967906909206</v>
+        <v>1.71890110892987</v>
       </c>
       <c r="L32">
-        <v>14.6054801320935</v>
+        <v>15.0075872172357</v>
       </c>
       <c r="M32">
-        <v>5.02905627751131</v>
+        <v>1.73976960616066</v>
       </c>
       <c r="N32">
-        <v>7.79244068513204</v>
+        <v>5.76574331810501</v>
       </c>
       <c r="O32">
-        <v>608.783658880299</v>
+        <v>636.753937905371</v>
       </c>
       <c r="P32">
-        <v>22.0208206126229</v>
+        <v>21.8172089449608</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>5664.9463265811</v>
+        <v>5772.66597421959</v>
       </c>
       <c r="C33">
-        <v>86.6882154743639</v>
+        <v>69.209778958537</v>
       </c>
       <c r="D33">
-        <v>96.3115917299114</v>
+        <v>63.3699589742584</v>
       </c>
       <c r="E33">
-        <v>117.251243324112</v>
+        <v>60.64668004589</v>
       </c>
       <c r="F33">
-        <v>9.37024158414847</v>
+        <v>7.66161713901384</v>
       </c>
       <c r="G33">
-        <v>74.738501204003</v>
+        <v>67.8977436211617</v>
       </c>
       <c r="H33">
-        <v>32.892022869141</v>
+        <v>24.5931932041571</v>
       </c>
       <c r="I33">
-        <v>30.2115520264601</v>
+        <v>29.2677586060497</v>
       </c>
       <c r="J33">
-        <v>102.303422891573</v>
+        <v>92.28704271441821</v>
       </c>
       <c r="K33">
-        <v>110.803876659479</v>
+        <v>85.8617563079532</v>
       </c>
       <c r="L33">
-        <v>126.424128009477</v>
+        <v>115.011115623853</v>
       </c>
       <c r="M33">
-        <v>70.2900790021782</v>
+        <v>62.1968765111464</v>
       </c>
       <c r="N33">
-        <v>108.461810153968</v>
+        <v>123.297312008674</v>
       </c>
       <c r="O33">
-        <v>6525.95994103867</v>
+        <v>6601.32228442645</v>
       </c>
       <c r="P33">
-        <v>81.747934751215</v>
+        <v>78.4210816031824</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>2197.92187125537</v>
+        <v>2313.59038265536</v>
       </c>
       <c r="C34">
-        <v>61.6494411401951</v>
+        <v>61.3396586678379</v>
       </c>
       <c r="D34">
-        <v>192.189643636478</v>
+        <v>149.744069192346</v>
       </c>
       <c r="E34">
-        <v>82.3227177301912</v>
+        <v>42.7194722630343</v>
       </c>
       <c r="F34">
-        <v>7.08508163385063</v>
+        <v>8.188898180618001</v>
       </c>
       <c r="G34">
-        <v>55.2809281225298</v>
+        <v>34.5591504077683</v>
       </c>
       <c r="H34">
-        <v>37.390234455766</v>
+        <v>46.3610436060975</v>
       </c>
       <c r="I34">
-        <v>20.3970555900322</v>
+        <v>11.5878947906787</v>
       </c>
       <c r="J34">
-        <v>62.2264884557298</v>
+        <v>56.7564181574243</v>
       </c>
       <c r="K34">
-        <v>37.4495730506173</v>
+        <v>38.0805081610726</v>
       </c>
       <c r="L34">
-        <v>91.9707292214712</v>
+        <v>78.49735197340191</v>
       </c>
       <c r="M34">
-        <v>46.9993005704885</v>
+        <v>38.5101952014797</v>
       </c>
       <c r="N34">
-        <v>126.574964588269</v>
+        <v>114.207154888302</v>
       </c>
       <c r="O34">
-        <v>2633.01362994509</v>
+        <v>2678.45464578266</v>
       </c>
       <c r="P34">
-        <v>57.598141973498</v>
+        <v>53.5558594800541</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>161.830595738234</v>
+        <v>158.308127584551</v>
       </c>
       <c r="C35">
-        <v>6.35667741031061</v>
+        <v>6.94565268131702</v>
       </c>
       <c r="D35">
-        <v>0.344662513262311</v>
+        <v>0.56038893689953</v>
       </c>
       <c r="E35">
-        <v>1.9438257931695</v>
+        <v>2.03566575895484</v>
       </c>
       <c r="F35">
-        <v>5.52484586663518</v>
+        <v>4.21357287028722</v>
       </c>
       <c r="G35">
-        <v>0.545715645998659</v>
+        <v>0.842955630669785</v>
       </c>
       <c r="H35">
-        <v>0.373384389367503</v>
+        <v>0.270017450716162</v>
       </c>
       <c r="I35">
-        <v>0.940012088861142</v>
+        <v>0.823741778149968</v>
       </c>
       <c r="J35">
-        <v>2.38391571673098</v>
+        <v>2.20094413601354</v>
       </c>
       <c r="K35">
-        <v>5.33543680832517</v>
+        <v>5.57541847414821</v>
       </c>
       <c r="L35">
-        <v>1.93578181566602</v>
+        <v>1.76014137255401</v>
       </c>
       <c r="M35">
-        <v>2.3264719645206</v>
+        <v>1.91317913971168</v>
       </c>
       <c r="N35">
-        <v>2.14941744834492</v>
+        <v>2.36023746557862</v>
       </c>
       <c r="O35">
-        <v>217.968319831723</v>
+        <v>222.773396836975</v>
       </c>
       <c r="P35">
-        <v>38.1061500983806</v>
+        <v>37.9909177411217</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>3110.64958883964</v>
+        <v>3114.9780457207</v>
       </c>
       <c r="C36">
-        <v>72.1765351346389</v>
+        <v>43.1946003636499</v>
       </c>
       <c r="D36">
-        <v>20.5817309012614</v>
+        <v>14.9418099978723</v>
       </c>
       <c r="E36">
-        <v>123.445906069542</v>
+        <v>81.3274344638857</v>
       </c>
       <c r="F36">
-        <v>20.349787038621</v>
+        <v>26.6182660953303</v>
       </c>
       <c r="G36">
-        <v>75.5302714095605</v>
+        <v>89.1731086426808</v>
       </c>
       <c r="H36">
-        <v>107.443956371653</v>
+        <v>97.1394542322368</v>
       </c>
       <c r="I36">
-        <v>47.7415873672132</v>
+        <v>37.1277208855572</v>
       </c>
       <c r="J36">
-        <v>254.443693067213</v>
+        <v>201.182815193012</v>
       </c>
       <c r="K36">
-        <v>119.450379740611</v>
+        <v>98.9342435328042</v>
       </c>
       <c r="L36">
-        <v>93.5002180175412</v>
+        <v>70.4622822190252</v>
       </c>
       <c r="M36">
-        <v>241.315169590608</v>
+        <v>203.027686734365</v>
       </c>
       <c r="N36">
-        <v>85.01378905613549</v>
+        <v>78.57756728239011</v>
       </c>
       <c r="O36">
-        <v>3601.89188456312</v>
+        <v>3807.12166281394</v>
       </c>
       <c r="P36">
-        <v>48.4562312182806</v>
+        <v>50.922743569315</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>1005.74233617051</v>
+        <v>1006.98263138262</v>
       </c>
       <c r="C37">
-        <v>26.0150834415434</v>
+        <v>23.8529674030428</v>
       </c>
       <c r="D37">
-        <v>8.744080085793341</v>
+        <v>5.50108748340453</v>
       </c>
       <c r="E37">
-        <v>17.7634417045203</v>
+        <v>20.1755865220581</v>
       </c>
       <c r="F37">
-        <v>43.8855472100312</v>
+        <v>31.9402908562398</v>
       </c>
       <c r="G37">
-        <v>7.08053010914616</v>
+        <v>6.79451643186261</v>
       </c>
       <c r="H37">
-        <v>17.1063365219784</v>
+        <v>21.7915162607271</v>
       </c>
       <c r="I37">
-        <v>10.561215677428</v>
+        <v>10.4753472043605</v>
       </c>
       <c r="J37">
-        <v>34.751545414137</v>
+        <v>36.1250218218477</v>
       </c>
       <c r="K37">
-        <v>27.5617122855163</v>
+        <v>26.642202705612</v>
       </c>
       <c r="L37">
-        <v>21.3106989638969</v>
+        <v>18.819044233891</v>
       </c>
       <c r="M37">
-        <v>34.2758943042443</v>
+        <v>32.040464844198</v>
       </c>
       <c r="N37">
-        <v>14.941831060651</v>
+        <v>20.7885372940669</v>
       </c>
       <c r="O37">
-        <v>1098.4953658216</v>
+        <v>1107.11695583057</v>
       </c>
       <c r="P37">
-        <v>41.3147274067656</v>
+        <v>41.6771556722945</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>994.325537751499</v>
+        <v>988.63273827244</v>
       </c>
       <c r="C38">
-        <v>19.9306222107195</v>
+        <v>23.2413709407777</v>
       </c>
       <c r="D38">
-        <v>8.61029186746528</v>
+        <v>8.81593508874265</v>
       </c>
       <c r="E38">
-        <v>71.5900535430675</v>
+        <v>45.3722363624779</v>
       </c>
       <c r="F38">
-        <v>2.68417554463012</v>
+        <v>1.32833015101013</v>
       </c>
       <c r="G38">
-        <v>5.40272113600374</v>
+        <v>4.18937502217597</v>
       </c>
       <c r="H38">
-        <v>5.13104843452247</v>
+        <v>2.6701516924506</v>
       </c>
       <c r="I38">
-        <v>6.39864069224959</v>
+        <v>2.03873355292174</v>
       </c>
       <c r="J38">
-        <v>28.6958275805033</v>
+        <v>36.6274010443338</v>
       </c>
       <c r="K38">
-        <v>12.5472430937636</v>
+        <v>3.97434941597621</v>
       </c>
       <c r="L38">
-        <v>62.5995946156117</v>
+        <v>61.5902082580376</v>
       </c>
       <c r="M38">
-        <v>20.1204260568833</v>
+        <v>15.7725562276094</v>
       </c>
       <c r="N38">
-        <v>22.7021538554669</v>
+        <v>37.0868204049548</v>
       </c>
       <c r="O38">
-        <v>1179.41899080514</v>
+        <v>1228.81751916509</v>
       </c>
       <c r="P38">
-        <v>61.600293209636</v>
+        <v>54.0904028346464</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>3649.87150659605</v>
+        <v>3622.91606757661</v>
       </c>
       <c r="C39">
-        <v>91.7177693269927</v>
+        <v>79.20773523576661</v>
       </c>
       <c r="D39">
-        <v>62.20839925212</v>
+        <v>53.3160671042731</v>
       </c>
       <c r="E39">
-        <v>139.022971480597</v>
+        <v>123.555521314795</v>
       </c>
       <c r="F39">
-        <v>38.2759705505896</v>
+        <v>27.6492033999637</v>
       </c>
       <c r="G39">
-        <v>92.71836261892911</v>
+        <v>97.1441183601178</v>
       </c>
       <c r="H39">
-        <v>54.2112519035184</v>
+        <v>44.5631981978076</v>
       </c>
       <c r="I39">
-        <v>52.1927953336349</v>
+        <v>37.9095949256771</v>
       </c>
       <c r="J39">
-        <v>222.114300903147</v>
+        <v>167.392885165525</v>
       </c>
       <c r="K39">
-        <v>79.08663899832</v>
+        <v>86.7784492723208</v>
       </c>
       <c r="L39">
-        <v>111.2763545926</v>
+        <v>88.66998535326511</v>
       </c>
       <c r="M39">
-        <v>66.54863945339029</v>
+        <v>56.2491183975173</v>
       </c>
       <c r="N39">
-        <v>95.351212583568</v>
+        <v>96.3885483537603</v>
       </c>
       <c r="O39">
-        <v>3933.2735089015</v>
+        <v>4116.58710640804</v>
       </c>
       <c r="P39">
-        <v>78.8623583507642</v>
+        <v>64.1958471316173</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>295.506127728459</v>
+        <v>286.547911475228</v>
       </c>
       <c r="C40">
-        <v>3.60215969273655</v>
+        <v>1.97637521636477</v>
       </c>
       <c r="D40">
-        <v>8.01646196996008</v>
+        <v>7.18277396054352</v>
       </c>
       <c r="E40">
-        <v>8.042874088246361</v>
+        <v>4.89415367647639</v>
       </c>
       <c r="F40">
-        <v>0.465064147959824</v>
+        <v>0.217675378060312</v>
       </c>
       <c r="G40">
-        <v>3.43711765411222</v>
+        <v>4.3634449881402</v>
       </c>
       <c r="H40">
-        <v>4.51303477444484</v>
+        <v>4.83299540318073</v>
       </c>
       <c r="I40">
-        <v>1.72347301890993</v>
+        <v>2.09039807100413</v>
       </c>
       <c r="J40">
-        <v>12.3244038605248</v>
+        <v>7.7489908182564</v>
       </c>
       <c r="K40">
-        <v>3.80881712207483</v>
+        <v>4.03661318066402</v>
       </c>
       <c r="L40">
-        <v>14.156325485729</v>
+        <v>14.7879689397465</v>
       </c>
       <c r="M40">
-        <v>5.7319584788015</v>
+        <v>4.9749970224315</v>
       </c>
       <c r="N40">
-        <v>20.4083501890329</v>
+        <v>18.2650209743377</v>
       </c>
       <c r="O40">
-        <v>358.68101123187</v>
+        <v>384.775505687669</v>
       </c>
       <c r="P40">
-        <v>2.36794764256903</v>
+        <v>3.20422802138811</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>1166.65609696393</v>
+        <v>1223.43547713626</v>
       </c>
       <c r="C41">
-        <v>21.5314790106959</v>
+        <v>10.9249562221489</v>
       </c>
       <c r="D41">
-        <v>96.3841051624581</v>
+        <v>75.3835689651613</v>
       </c>
       <c r="E41">
-        <v>42.6228701596312</v>
+        <v>26.3419258181356</v>
       </c>
       <c r="F41">
-        <v>3.27234483048891</v>
+        <v>1.04283695453683</v>
       </c>
       <c r="G41">
-        <v>23.1020713472976</v>
+        <v>20.2321432222065</v>
       </c>
       <c r="H41">
-        <v>32.5836327337256</v>
+        <v>29.1508219343014</v>
       </c>
       <c r="I41">
-        <v>11.7144445192292</v>
+        <v>13.5547836370689</v>
       </c>
       <c r="J41">
-        <v>38.4603223978862</v>
+        <v>43.1415739338931</v>
       </c>
       <c r="K41">
-        <v>26.4133522307813</v>
+        <v>17.0524536891184</v>
       </c>
       <c r="L41">
-        <v>29.1763033878636</v>
+        <v>31.1758560816577</v>
       </c>
       <c r="M41">
-        <v>37.782263175745</v>
+        <v>19.8186421684777</v>
       </c>
       <c r="N41">
-        <v>21.2712583613904</v>
+        <v>20.0313230843237</v>
       </c>
       <c r="O41">
-        <v>1265.84799869006</v>
+        <v>1279.54648633637</v>
       </c>
       <c r="P41">
-        <v>22.0209346070567</v>
+        <v>22.9796511579134</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>174.94504367276</v>
+        <v>165.752082787462</v>
       </c>
       <c r="C42">
-        <v>6.32906847641241</v>
+        <v>4.44602707496051</v>
       </c>
       <c r="D42">
-        <v>0.967983933028659</v>
+        <v>1.03868468401556</v>
       </c>
       <c r="E42">
-        <v>5.2536674254898</v>
+        <v>4.20053409329106</v>
       </c>
       <c r="F42">
-        <v>1.79009275738756</v>
+        <v>2.20167885365518</v>
       </c>
       <c r="G42">
-        <v>0.937032066932591</v>
+        <v>1.22478628875347</v>
       </c>
       <c r="H42">
-        <v>1.44814046707764</v>
+        <v>0.364045303645124</v>
       </c>
       <c r="I42">
-        <v>1.10740153364761</v>
+        <v>0.879549986587003</v>
       </c>
       <c r="J42">
-        <v>4.30879822043615</v>
+        <v>2.53413632080793</v>
       </c>
       <c r="K42">
-        <v>5.11835016397388</v>
+        <v>5.12037817981626</v>
       </c>
       <c r="L42">
-        <v>7.37547452314116</v>
+        <v>7.26947009598679</v>
       </c>
       <c r="M42">
-        <v>2.95059603503272</v>
+        <v>2.45078467272843</v>
       </c>
       <c r="N42">
-        <v>6.75519858014259</v>
+        <v>5.89327033728103</v>
       </c>
       <c r="O42">
-        <v>245.475844691796</v>
+        <v>254.931574005746</v>
       </c>
       <c r="P42">
-        <v>41.0085400001959</v>
+        <v>45.5545487213271</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1629.08555096981</v>
+        <v>1660.79281438574</v>
       </c>
       <c r="C43">
-        <v>45.4863843406324</v>
+        <v>37.2378926320486</v>
       </c>
       <c r="D43">
-        <v>46.2904426780736</v>
+        <v>46.216897454728</v>
       </c>
       <c r="E43">
-        <v>70.0063350056828</v>
+        <v>54.1311331877115</v>
       </c>
       <c r="F43">
-        <v>7.30116797929785</v>
+        <v>9.62923378651692</v>
       </c>
       <c r="G43">
-        <v>31.0228334688398</v>
+        <v>17.5771391742904</v>
       </c>
       <c r="H43">
-        <v>33.307512221851</v>
+        <v>39.5175851641936</v>
       </c>
       <c r="I43">
-        <v>17.0629125168518</v>
+        <v>26.1428802519799</v>
       </c>
       <c r="J43">
-        <v>69.5148676893217</v>
+        <v>53.1749498413864</v>
       </c>
       <c r="K43">
-        <v>48.4415323079296</v>
+        <v>48.2451130764635</v>
       </c>
       <c r="L43">
-        <v>54.7754734069264</v>
+        <v>42.6140361293619</v>
       </c>
       <c r="M43">
-        <v>110.921385603448</v>
+        <v>115.413119699618</v>
       </c>
       <c r="N43">
-        <v>58.7043098629087</v>
+        <v>40.2553373724538</v>
       </c>
       <c r="O43">
-        <v>1852.37399556064</v>
+        <v>1874.75054175105</v>
       </c>
       <c r="P43">
-        <v>31.2757564657307</v>
+        <v>44.8689432435394</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>5742.08917539171</v>
+        <v>5569.16543151074</v>
       </c>
       <c r="C44">
-        <v>107.780400836934</v>
+        <v>113.272339102617</v>
       </c>
       <c r="D44">
-        <v>41.8447315839691</v>
+        <v>39.0185134839928</v>
       </c>
       <c r="E44">
-        <v>108.718797237563</v>
+        <v>82.95340253232619</v>
       </c>
       <c r="F44">
-        <v>220.382140769829</v>
+        <v>200.170964687798</v>
       </c>
       <c r="G44">
-        <v>114.972464546359</v>
+        <v>122.25444633931</v>
       </c>
       <c r="H44">
-        <v>62.0515920089527</v>
+        <v>36.6344245397932</v>
       </c>
       <c r="I44">
-        <v>45.290787648832</v>
+        <v>38.5560242423788</v>
       </c>
       <c r="J44">
-        <v>156.279296257853</v>
+        <v>108.627391653952</v>
       </c>
       <c r="K44">
-        <v>89.9997753481658</v>
+        <v>69.50995314846701</v>
       </c>
       <c r="L44">
-        <v>218.710056785494</v>
+        <v>177.742929418894</v>
       </c>
       <c r="M44">
-        <v>120.003641075055</v>
+        <v>96.59451492300251</v>
       </c>
       <c r="N44">
-        <v>94.3695828298367</v>
+        <v>85.45007361084581</v>
       </c>
       <c r="O44">
-        <v>6973.08885988896</v>
+        <v>7291.05517698715</v>
       </c>
       <c r="P44">
-        <v>152.516346234044</v>
+        <v>202.87883179853</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>524.810770213504</v>
+        <v>509.750631657256</v>
       </c>
       <c r="C45">
-        <v>14.5972357118404</v>
+        <v>18.238489123745</v>
       </c>
       <c r="D45">
-        <v>3.42449405600701</v>
+        <v>2.48510193081782</v>
       </c>
       <c r="E45">
-        <v>16.2847608291121</v>
+        <v>15.3189966968198</v>
       </c>
       <c r="F45">
-        <v>15.1501780025313</v>
+        <v>20.9435868553117</v>
       </c>
       <c r="G45">
-        <v>9.25036219489081</v>
+        <v>5.88561828427279</v>
       </c>
       <c r="H45">
-        <v>2.78801925233129</v>
+        <v>1.54424434288583</v>
       </c>
       <c r="I45">
-        <v>5.54471244564762</v>
+        <v>2.8538158881385</v>
       </c>
       <c r="J45">
-        <v>19.5592665272845</v>
+        <v>24.7239690453083</v>
       </c>
       <c r="K45">
-        <v>5.87987491843699</v>
+        <v>4.71325164313886</v>
       </c>
       <c r="L45">
-        <v>17.4363036566325</v>
+        <v>16.5733368693345</v>
       </c>
       <c r="M45">
-        <v>24.6802611986682</v>
+        <v>16.613338806237</v>
       </c>
       <c r="N45">
-        <v>30.4930700929763</v>
+        <v>27.1677927939662</v>
       </c>
       <c r="O45">
-        <v>765.221784592467</v>
+        <v>770.093913985541</v>
       </c>
       <c r="P45">
-        <v>11.8926890623769</v>
+        <v>19.963591389084</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>143.586020986302</v>
+        <v>142.922863907408</v>
       </c>
       <c r="C46">
-        <v>3.80924077589586</v>
+        <v>3.12494003991718</v>
       </c>
       <c r="D46">
-        <v>2.05945982938654</v>
+        <v>0.835007686003589</v>
       </c>
       <c r="E46">
-        <v>7.98993042590294</v>
+        <v>5.2311081242252</v>
       </c>
       <c r="F46">
-        <v>0.853074612654747</v>
+        <v>0.979617370753806</v>
       </c>
       <c r="G46">
-        <v>1.52590902234436</v>
+        <v>1.98636175184459</v>
       </c>
       <c r="H46">
-        <v>1.67588124513074</v>
+        <v>2.34131273640859</v>
       </c>
       <c r="I46">
-        <v>2.20740226897569</v>
+        <v>1.92297017630519</v>
       </c>
       <c r="J46">
-        <v>4.92341834463515</v>
+        <v>4.24746143556112</v>
       </c>
       <c r="K46">
-        <v>3.43011497499091</v>
+        <v>4.36193159791554</v>
       </c>
       <c r="L46">
-        <v>10.8879725269028</v>
+        <v>10.1942155695422</v>
       </c>
       <c r="M46">
-        <v>4.04605304043466</v>
+        <v>2.46828947527369</v>
       </c>
       <c r="N46">
-        <v>6.50378985473563</v>
+        <v>7.84961387779153</v>
       </c>
       <c r="O46">
-        <v>222.35547128405</v>
+        <v>225.814743449215</v>
       </c>
       <c r="P46">
-        <v>11.3531417094104</v>
+        <v>11.3300988738363</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1808.55148642774</v>
+        <v>1877.71027276519</v>
       </c>
       <c r="C47">
-        <v>51.0776021603759</v>
+        <v>43.1078491104222</v>
       </c>
       <c r="D47">
-        <v>50.8247831059856</v>
+        <v>32.7804049962264</v>
       </c>
       <c r="E47">
-        <v>70.3055754230448</v>
+        <v>53.2812960975198</v>
       </c>
       <c r="F47">
-        <v>17.798848340913</v>
+        <v>4.7648458550727</v>
       </c>
       <c r="G47">
-        <v>28.7318113031285</v>
+        <v>24.8485051529756</v>
       </c>
       <c r="H47">
-        <v>21.0967644415575</v>
+        <v>13.0416442946687</v>
       </c>
       <c r="I47">
-        <v>13.738579072002</v>
+        <v>4.26894907388882</v>
       </c>
       <c r="J47">
-        <v>32.7119286552037</v>
+        <v>34.4532594299992</v>
       </c>
       <c r="K47">
-        <v>26.0679695420474</v>
+        <v>15.039422022083</v>
       </c>
       <c r="L47">
-        <v>43.9121025888862</v>
+        <v>42.6465026894175</v>
       </c>
       <c r="M47">
-        <v>72.35976075161121</v>
+        <v>63.2434742305934</v>
       </c>
       <c r="N47">
-        <v>50.2953908744992</v>
+        <v>41.743186838205</v>
       </c>
       <c r="O47">
-        <v>2621.92057136875</v>
+        <v>2653.69248426421</v>
       </c>
       <c r="P47">
-        <v>34.4211660327789</v>
+        <v>21.689189730119</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1646.40353419988</v>
+        <v>1663.14134492879</v>
       </c>
       <c r="C48">
-        <v>37.1962671813783</v>
+        <v>20.0869683791906</v>
       </c>
       <c r="D48">
-        <v>8.027423161558421</v>
+        <v>7.7784649889302</v>
       </c>
       <c r="E48">
-        <v>54.8660012176684</v>
+        <v>60.0756479452249</v>
       </c>
       <c r="F48">
-        <v>7.9344250836397</v>
+        <v>2.86795721023073</v>
       </c>
       <c r="G48">
-        <v>9.03261540663482</v>
+        <v>8.108583197990381</v>
       </c>
       <c r="H48">
-        <v>9.114979680859451</v>
+        <v>5.59328626550845</v>
       </c>
       <c r="I48">
-        <v>8.66510561906682</v>
+        <v>5.74687425246962</v>
       </c>
       <c r="J48">
-        <v>32.4518709293379</v>
+        <v>43.3187516020495</v>
       </c>
       <c r="K48">
-        <v>12.8646758870934</v>
+        <v>12.7189622152652</v>
       </c>
       <c r="L48">
-        <v>42.2136860214541</v>
+        <v>38.475850376286</v>
       </c>
       <c r="M48">
-        <v>125.824861873197</v>
+        <v>108.611429216267</v>
       </c>
       <c r="N48">
-        <v>34.9259282702562</v>
+        <v>28.6619008699764</v>
       </c>
       <c r="O48">
-        <v>2078.50992687709</v>
+        <v>2085.73935647287</v>
       </c>
       <c r="P48">
-        <v>64.68052106396939</v>
+        <v>74.0777506834383</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>675.335370873466</v>
+        <v>682.530285353352</v>
       </c>
       <c r="C49">
-        <v>6.04985070162541</v>
+        <v>6.41595538568851</v>
       </c>
       <c r="D49">
-        <v>2.36588034091456</v>
+        <v>2.72124088284794</v>
       </c>
       <c r="E49">
-        <v>15.0236567182967</v>
+        <v>18.7026584990379</v>
       </c>
       <c r="F49">
-        <v>26.1402318571942</v>
+        <v>24.4958519699</v>
       </c>
       <c r="G49">
-        <v>16.8023463926162</v>
+        <v>16.0121558635737</v>
       </c>
       <c r="H49">
-        <v>5.75560116438759</v>
+        <v>7.19264162736372</v>
       </c>
       <c r="I49">
-        <v>4.81166472391738</v>
+        <v>5.67765166830448</v>
       </c>
       <c r="J49">
-        <v>18.8654410082048</v>
+        <v>17.1987031368961</v>
       </c>
       <c r="K49">
-        <v>6.20554118963253</v>
+        <v>5.38187965233713</v>
       </c>
       <c r="L49">
-        <v>3.02856569567673</v>
+        <v>1.32370329092597</v>
       </c>
       <c r="M49">
-        <v>7.05339342977359</v>
+        <v>4.94965573557357</v>
       </c>
       <c r="N49">
-        <v>5.26881860853985</v>
+        <v>3.45006799273169</v>
       </c>
       <c r="O49">
-        <v>526.76661563491</v>
+        <v>528.990164960745</v>
       </c>
       <c r="P49">
-        <v>8.97172522912147</v>
+        <v>7.03797594332828</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>1337.605961919</v>
+        <v>1288.02291053998</v>
       </c>
       <c r="C50">
-        <v>78.33189092245981</v>
+        <v>70.8188586849183</v>
       </c>
       <c r="D50">
-        <v>15.3048805517573</v>
+        <v>16.699901944821</v>
       </c>
       <c r="E50">
-        <v>142.379521454768</v>
+        <v>139.964855464886</v>
       </c>
       <c r="F50">
-        <v>4.20492452019271</v>
+        <v>1.80026509085089</v>
       </c>
       <c r="G50">
-        <v>15.2120730445438</v>
+        <v>29.2012352655542</v>
       </c>
       <c r="H50">
-        <v>40.42403254764</v>
+        <v>35.0429626430975</v>
       </c>
       <c r="I50">
-        <v>14.9243412525615</v>
+        <v>7.1574033576199</v>
       </c>
       <c r="J50">
-        <v>103.670221496919</v>
+        <v>96.23066756798571</v>
       </c>
       <c r="K50">
-        <v>81.607280140062</v>
+        <v>84.2837033011329</v>
       </c>
       <c r="L50">
-        <v>55.7836835806642</v>
+        <v>56.378486680807</v>
       </c>
       <c r="M50">
-        <v>60.9126010407655</v>
+        <v>38.7789758723446</v>
       </c>
       <c r="N50">
-        <v>60.6790961757294</v>
+        <v>55.3323263630401</v>
       </c>
       <c r="O50">
-        <v>1695.57469769942</v>
+        <v>1825.5413061571</v>
       </c>
       <c r="P50">
-        <v>116.840488204708</v>
+        <v>85.72018201140359</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>122.608388269957</v>
+        <v>119.651379793558</v>
       </c>
       <c r="C51">
-        <v>0.97444446064946</v>
+        <v>2.35912583379293</v>
       </c>
       <c r="D51">
-        <v>0.553643447799919</v>
+        <v>0.08474774228207679</v>
       </c>
       <c r="E51">
-        <v>2.52665045793152</v>
+        <v>1.37934547419548</v>
       </c>
       <c r="F51">
-        <v>23.8670302320252</v>
+        <v>21.1652256476734</v>
       </c>
       <c r="G51">
-        <v>2.74053506660959</v>
+        <v>2.31431781668219</v>
       </c>
       <c r="H51">
-        <v>0.138410861949979</v>
+        <v>0.0157150619101192</v>
       </c>
       <c r="I51">
-        <v>0.885829516479869</v>
+        <v>0.775169012272497</v>
       </c>
       <c r="J51">
-        <v>1.63534752352781</v>
+        <v>1.46791452941061</v>
       </c>
       <c r="K51">
-        <v>0.60900779257991</v>
+        <v>0.496854595097892</v>
       </c>
       <c r="L51">
-        <v>0.387550413459943</v>
+        <v>0.248513552696298</v>
       </c>
       <c r="M51">
-        <v>0.60900779257991</v>
+        <v>0.273051491241417</v>
       </c>
       <c r="N51">
-        <v>0.968876033649859</v>
+        <v>0.6894517891199931</v>
       </c>
       <c r="O51">
-        <v>176.481942606999</v>
+        <v>178.461054756913</v>
       </c>
       <c r="P51">
-        <v>12.8196756593433</v>
+        <v>15.2791667714343</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2002.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2002.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>1466.27899788282</v>
+        <v>1434.01603052619</v>
       </c>
       <c r="C2">
-        <v>29.1071269052113</v>
+        <v>27.6739583273037</v>
       </c>
       <c r="D2">
-        <v>47.2576547094167</v>
+        <v>48.635593361942</v>
       </c>
       <c r="E2">
-        <v>53.6673911615351</v>
+        <v>56.8074732083187</v>
       </c>
       <c r="F2">
-        <v>17.5598781138306</v>
+        <v>18.7950520256272</v>
       </c>
       <c r="G2">
-        <v>10.7800781570828</v>
+        <v>14.9020693884068</v>
       </c>
       <c r="H2">
-        <v>22.756563384484</v>
+        <v>24.5861812134374</v>
       </c>
       <c r="I2">
-        <v>11.4174563504433</v>
+        <v>13.0646528602225</v>
       </c>
       <c r="J2">
-        <v>62.1589669344772</v>
+        <v>63.2682483894504</v>
       </c>
       <c r="K2">
-        <v>20.7384778158567</v>
+        <v>15.9122323291279</v>
       </c>
       <c r="L2">
-        <v>34.1678003408668</v>
+        <v>33.3077189731184</v>
       </c>
       <c r="M2">
-        <v>41.516845046572</v>
+        <v>40.3265410251515</v>
       </c>
       <c r="N2">
-        <v>25.7731910038529</v>
+        <v>26.4856996968311</v>
       </c>
       <c r="O2">
-        <v>1286.17685242854</v>
+        <v>1312.81648374426</v>
       </c>
       <c r="P2">
-        <v>25.5754671694143</v>
+        <v>26.6199596860533</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>131.013411031574</v>
+        <v>128.99109330046</v>
       </c>
       <c r="C3">
-        <v>3.70006027830265</v>
+        <v>4.13448924568242</v>
       </c>
       <c r="D3">
-        <v>0.233057492562728</v>
+        <v>0.212098892438596</v>
       </c>
       <c r="E3">
-        <v>1.4607720317889</v>
+        <v>1.3972036595995</v>
       </c>
       <c r="F3">
-        <v>7.64775509224011</v>
+        <v>7.63761894345647</v>
       </c>
       <c r="G3">
-        <v>0.132721971996078</v>
+        <v>0.236525081442862</v>
       </c>
       <c r="H3">
-        <v>0.0265061453202465</v>
+        <v>0.01056601526489</v>
       </c>
       <c r="I3">
-        <v>0.39615578183706</v>
+        <v>0.359623123973208</v>
       </c>
       <c r="J3">
-        <v>0.347625460579531</v>
+        <v>0.365061640247136</v>
       </c>
       <c r="K3">
-        <v>0.366909972247864</v>
+        <v>0.276312104030754</v>
       </c>
       <c r="L3">
-        <v>0.368334435866761</v>
+        <v>0.199451790939968</v>
       </c>
       <c r="M3">
-        <v>0.757944950605057</v>
+        <v>0.505949216408735</v>
       </c>
       <c r="N3">
-        <v>0.734660648789033</v>
+        <v>0.744014173609245</v>
       </c>
       <c r="O3">
-        <v>227.712473590267</v>
+        <v>221.162669754415</v>
       </c>
       <c r="P3">
-        <v>11.1721235157583</v>
+        <v>10.0913311678876</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>1554.37599236148</v>
+        <v>1565.09840287021</v>
       </c>
       <c r="C4">
-        <v>4.70588019881814</v>
+        <v>6.80577993947626</v>
       </c>
       <c r="D4">
-        <v>2.01241295872396</v>
+        <v>2.56236787808492</v>
       </c>
       <c r="E4">
-        <v>24.1836781167059</v>
+        <v>23.0555207235381</v>
       </c>
       <c r="F4">
-        <v>12.5114502511213</v>
+        <v>10.7557343085261</v>
       </c>
       <c r="G4">
-        <v>7.52710079517881</v>
+        <v>7.05421563415679</v>
       </c>
       <c r="H4">
-        <v>13.6162951501952</v>
+        <v>10.936391033991</v>
       </c>
       <c r="I4">
-        <v>11.5655797616617</v>
+        <v>10.5448304748679</v>
       </c>
       <c r="J4">
-        <v>18.858270325236</v>
+        <v>22.7495921001902</v>
       </c>
       <c r="K4">
-        <v>6.41091007037399</v>
+        <v>4.9098427913168</v>
       </c>
       <c r="L4">
-        <v>73.29641055190579</v>
+        <v>68.8968993357099</v>
       </c>
       <c r="M4">
-        <v>39.398628027457</v>
+        <v>43.6315371956454</v>
       </c>
       <c r="N4">
-        <v>20.9819238636897</v>
+        <v>22.7616888648639</v>
       </c>
       <c r="O4">
-        <v>1880.46198620824</v>
+        <v>1874.09733538603</v>
       </c>
       <c r="P4">
-        <v>27.5623287155999</v>
+        <v>31.9243466884847</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>860.069909327596</v>
+        <v>851.564107191404</v>
       </c>
       <c r="C5">
-        <v>41.9042378295015</v>
+        <v>45.8550828033659</v>
       </c>
       <c r="D5">
-        <v>11.4815427179023</v>
+        <v>11.7606145707226</v>
       </c>
       <c r="E5">
-        <v>31.0508251528984</v>
+        <v>36.3122795131676</v>
       </c>
       <c r="F5">
-        <v>3.87591674101825</v>
+        <v>4.10168042990169</v>
       </c>
       <c r="G5">
-        <v>3.96557077663441</v>
+        <v>5.05043879179712</v>
       </c>
       <c r="H5">
-        <v>12.534936919093</v>
+        <v>11.835377590957</v>
       </c>
       <c r="I5">
-        <v>6.85979612520607</v>
+        <v>6.90376844065587</v>
       </c>
       <c r="J5">
-        <v>29.5019878185852</v>
+        <v>30.5021001809444</v>
       </c>
       <c r="K5">
-        <v>17.9769689774553</v>
+        <v>15.1768650736068</v>
       </c>
       <c r="L5">
-        <v>14.2593152222978</v>
+        <v>16.3792460670892</v>
       </c>
       <c r="M5">
-        <v>17.5456187308246</v>
+        <v>17.8592515802366</v>
       </c>
       <c r="N5">
-        <v>21.3787477431695</v>
+        <v>22.0571639260573</v>
       </c>
       <c r="O5">
-        <v>808.177999604921</v>
+        <v>798.672582003879</v>
       </c>
       <c r="P5">
-        <v>47.030785593788</v>
+        <v>45.8255072957068</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>9568.65119218797</v>
+        <v>9562.40515233258</v>
       </c>
       <c r="C6">
-        <v>161.623296297174</v>
+        <v>170.48568344751</v>
       </c>
       <c r="D6">
-        <v>107.410246018226</v>
+        <v>107.322010658999</v>
       </c>
       <c r="E6">
-        <v>125.426118424704</v>
+        <v>120.31267816981</v>
       </c>
       <c r="F6">
-        <v>41.1125951845659</v>
+        <v>40.7041490500457</v>
       </c>
       <c r="G6">
-        <v>88.4636382569592</v>
+        <v>93.6624722512733</v>
       </c>
       <c r="H6">
-        <v>61.558365624711</v>
+        <v>52.771686207132</v>
       </c>
       <c r="I6">
-        <v>39.1685355354027</v>
+        <v>46.1825758912205</v>
       </c>
       <c r="J6">
-        <v>153.36847270519</v>
+        <v>154.604940133139</v>
       </c>
       <c r="K6">
-        <v>75.3328999033552</v>
+        <v>81.2973150195206</v>
       </c>
       <c r="L6">
-        <v>472.641502021581</v>
+        <v>467.496523783661</v>
       </c>
       <c r="M6">
-        <v>220.249441494819</v>
+        <v>220.839556944174</v>
       </c>
       <c r="N6">
-        <v>229.084918458597</v>
+        <v>236.380970888672</v>
       </c>
       <c r="O6">
-        <v>11678.3895308939</v>
+        <v>11643.5099435087</v>
       </c>
       <c r="P6">
-        <v>293.850375740079</v>
+        <v>299.153669595332</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>1052.99257782114</v>
+        <v>1023.78297015733</v>
       </c>
       <c r="C7">
-        <v>39.1153497613069</v>
+        <v>35.0307254015486</v>
       </c>
       <c r="D7">
-        <v>2.66853543246699</v>
+        <v>3.83894019527466</v>
       </c>
       <c r="E7">
-        <v>14.9654709707672</v>
+        <v>17.2265484419929</v>
       </c>
       <c r="F7">
-        <v>16.7488309749874</v>
+        <v>16.7565865009101</v>
       </c>
       <c r="G7">
-        <v>8.91975651055623</v>
+        <v>6.38189542260261</v>
       </c>
       <c r="H7">
-        <v>5.29521322311443</v>
+        <v>4.80190466256088</v>
       </c>
       <c r="I7">
-        <v>6.19427240819605</v>
+        <v>7.34077590485382</v>
       </c>
       <c r="J7">
-        <v>14.7956697800807</v>
+        <v>18.6581620234218</v>
       </c>
       <c r="K7">
-        <v>8.37589596915285</v>
+        <v>9.29637253540095</v>
       </c>
       <c r="L7">
-        <v>54.8476582447856</v>
+        <v>56.3496997800363</v>
       </c>
       <c r="M7">
-        <v>14.0315885082478</v>
+        <v>12.9503268113972</v>
       </c>
       <c r="N7">
-        <v>22.9790060093344</v>
+        <v>29.6739009029716</v>
       </c>
       <c r="O7">
-        <v>1751.11742666707</v>
+        <v>1764.66385316247</v>
       </c>
       <c r="P7">
-        <v>24.7230648823132</v>
+        <v>28.7815745092102</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>832.97753137144</v>
+        <v>838.599037785341</v>
       </c>
       <c r="C8">
-        <v>13.2913887130284</v>
+        <v>11.8471667762668</v>
       </c>
       <c r="D8">
-        <v>5.70145424078776</v>
+        <v>5.1765379596481</v>
       </c>
       <c r="E8">
-        <v>14.9304213409568</v>
+        <v>16.9715986224449</v>
       </c>
       <c r="F8">
-        <v>1.53468549166656</v>
+        <v>2.03745823530871</v>
       </c>
       <c r="G8">
-        <v>25.5981623007758</v>
+        <v>27.7379088675655</v>
       </c>
       <c r="H8">
-        <v>8.394876672288239</v>
+        <v>7.539911081883</v>
       </c>
       <c r="I8">
-        <v>6.27140725020136</v>
+        <v>4.65851506713802</v>
       </c>
       <c r="J8">
-        <v>36.4236991724229</v>
+        <v>33.6040431777644</v>
       </c>
       <c r="K8">
-        <v>24.558226679058</v>
+        <v>22.6604932282056</v>
       </c>
       <c r="L8">
-        <v>42.7810770166061</v>
+        <v>42.406263264422</v>
       </c>
       <c r="M8">
-        <v>44.2702483537078</v>
+        <v>44.4228665452161</v>
       </c>
       <c r="N8">
-        <v>22.8334599361186</v>
+        <v>27.1283589479535</v>
       </c>
       <c r="O8">
-        <v>1313.28947128683</v>
+        <v>1304.21167000078</v>
       </c>
       <c r="P8">
-        <v>1.21686397481869</v>
+        <v>2.2235253064621</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>208.673155149525</v>
+        <v>211.735207736447</v>
       </c>
       <c r="C9">
-        <v>6.16997904541664</v>
+        <v>6.2235745087163</v>
       </c>
       <c r="D9">
-        <v>2.73027089791025</v>
+        <v>2.02511892763039</v>
       </c>
       <c r="E9">
-        <v>3.78822732155763</v>
+        <v>3.39551764522664</v>
       </c>
       <c r="F9">
-        <v>1.77058114096273</v>
+        <v>1.70678795184343</v>
       </c>
       <c r="G9">
-        <v>16.9905357574433</v>
+        <v>16.9009764116373</v>
       </c>
       <c r="H9">
-        <v>3.45427431644006</v>
+        <v>2.85723628008327</v>
       </c>
       <c r="I9">
-        <v>0.681886963986017</v>
+        <v>0.7390620499109291</v>
       </c>
       <c r="J9">
-        <v>3.88473737775148</v>
+        <v>3.619630903435</v>
       </c>
       <c r="K9">
-        <v>3.05648362732291</v>
+        <v>2.05127489956437</v>
       </c>
       <c r="L9">
-        <v>2.4292313950454</v>
+        <v>3.12706713717027</v>
       </c>
       <c r="M9">
-        <v>6.52179537877567</v>
+        <v>6.42014230666416</v>
       </c>
       <c r="N9">
-        <v>4.34781804922593</v>
+        <v>4.00814541597435</v>
       </c>
       <c r="O9">
-        <v>290.119790602796</v>
+        <v>292.212775052174</v>
       </c>
       <c r="P9">
-        <v>4.9304285187273</v>
+        <v>4.65088214309756</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>5466.50964942698</v>
+        <v>5462.25179538361</v>
       </c>
       <c r="C10">
-        <v>58.0886326079407</v>
+        <v>59.204769937803</v>
       </c>
       <c r="D10">
-        <v>22.53730251771</v>
+        <v>25.7121008289735</v>
       </c>
       <c r="E10">
-        <v>42.2202044581437</v>
+        <v>40.2766235812908</v>
       </c>
       <c r="F10">
-        <v>8.55180193146272</v>
+        <v>6.99018352537288</v>
       </c>
       <c r="G10">
-        <v>23.3806469921596</v>
+        <v>26.2816101265882</v>
       </c>
       <c r="H10">
-        <v>15.2625595011348</v>
+        <v>18.5313749963967</v>
       </c>
       <c r="I10">
-        <v>39.6775029964763</v>
+        <v>36.4587352555056</v>
       </c>
       <c r="J10">
-        <v>50.6652408171248</v>
+        <v>49.7924039579679</v>
       </c>
       <c r="K10">
-        <v>32.878495196702</v>
+        <v>28.3802736227787</v>
       </c>
       <c r="L10">
-        <v>68.9979565099468</v>
+        <v>75.6062568115785</v>
       </c>
       <c r="M10">
-        <v>70.5818985538485</v>
+        <v>71.4910134625958</v>
       </c>
       <c r="N10">
-        <v>70.6470756672273</v>
+        <v>79.082791844234</v>
       </c>
       <c r="O10">
-        <v>5969.09988300975</v>
+        <v>5982.51469357325</v>
       </c>
       <c r="P10">
-        <v>68.9543302818321</v>
+        <v>73.883206749389</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>2249.5237368105</v>
+        <v>2212.0690752334</v>
       </c>
       <c r="C11">
-        <v>80.1357082817926</v>
+        <v>80.4026156887704</v>
       </c>
       <c r="D11">
-        <v>152.850945374159</v>
+        <v>141.714571995731</v>
       </c>
       <c r="E11">
-        <v>59.9627067706703</v>
+        <v>71.564987206393</v>
       </c>
       <c r="F11">
-        <v>2.56507566097856</v>
+        <v>3.86090577495575</v>
       </c>
       <c r="G11">
-        <v>32.2927691488056</v>
+        <v>26.7480941466775</v>
       </c>
       <c r="H11">
-        <v>16.0639163118946</v>
+        <v>13.259991633944</v>
       </c>
       <c r="I11">
-        <v>18.2034489904643</v>
+        <v>18.3320322180859</v>
       </c>
       <c r="J11">
-        <v>48.4105496509157</v>
+        <v>49.3545774258421</v>
       </c>
       <c r="K11">
-        <v>20.4936721469068</v>
+        <v>21.966678739134</v>
       </c>
       <c r="L11">
-        <v>61.5863097042651</v>
+        <v>61.4965242705411</v>
       </c>
       <c r="M11">
-        <v>46.2408823383349</v>
+        <v>48.2411655949237</v>
       </c>
       <c r="N11">
-        <v>45.6110340591445</v>
+        <v>49.8667443466593</v>
       </c>
       <c r="O11">
-        <v>2810.45427712974</v>
+        <v>2850.82308148224</v>
       </c>
       <c r="P11">
-        <v>48.5226388444549</v>
+        <v>47.0309925895312</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>333.054606844468</v>
+        <v>337.284224095558</v>
       </c>
       <c r="C12">
-        <v>6.30675278309827</v>
+        <v>7.90916057116444</v>
       </c>
       <c r="D12">
-        <v>1.0741439640842</v>
+        <v>1.23061979027938</v>
       </c>
       <c r="E12">
-        <v>0.797637009250365</v>
+        <v>1.05137947923838</v>
       </c>
       <c r="F12">
-        <v>0.789336766809727</v>
+        <v>0.82409896918097</v>
       </c>
       <c r="G12">
-        <v>0.317770125047663</v>
+        <v>0.409635521465693</v>
       </c>
       <c r="H12">
-        <v>0.0559722575411077</v>
+        <v>0.013912584383448</v>
       </c>
       <c r="I12">
-        <v>1.0705972513639</v>
+        <v>0.79595343433176</v>
       </c>
       <c r="J12">
-        <v>3.55397227015886</v>
+        <v>1.93770388976254</v>
       </c>
       <c r="K12">
-        <v>0.405918587685566</v>
+        <v>0.475869089769399</v>
       </c>
       <c r="L12">
-        <v>0.299685384018318</v>
+        <v>0.333250804419463</v>
       </c>
       <c r="M12">
-        <v>3.13238770593983</v>
+        <v>3.1444673205048</v>
       </c>
       <c r="N12">
-        <v>1.75329909070066</v>
+        <v>2.44983638195624</v>
       </c>
       <c r="O12">
-        <v>475.806514745718</v>
+        <v>469.781500208472</v>
       </c>
       <c r="P12">
-        <v>12.0612071659832</v>
+        <v>11.6800326372256</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>323.787844893572</v>
+        <v>326.98419002071</v>
       </c>
       <c r="C13">
-        <v>15.1808492446256</v>
+        <v>15.9973142350619</v>
       </c>
       <c r="D13">
-        <v>0.410058186127859</v>
+        <v>0.520974060898477</v>
       </c>
       <c r="E13">
-        <v>11.3028421446755</v>
+        <v>11.1725170403885</v>
       </c>
       <c r="F13">
-        <v>4.24663309575716</v>
+        <v>3.51731136958314</v>
       </c>
       <c r="G13">
-        <v>4.53456295942346</v>
+        <v>5.3784165734964</v>
       </c>
       <c r="H13">
-        <v>0.953469033287399</v>
+        <v>0.940600998166709</v>
       </c>
       <c r="I13">
-        <v>1.11707932200027</v>
+        <v>1.17294822109966</v>
       </c>
       <c r="J13">
-        <v>4.87795104693284</v>
+        <v>4.56578075807847</v>
       </c>
       <c r="K13">
-        <v>2.56638608814109</v>
+        <v>2.82233410215978</v>
       </c>
       <c r="L13">
-        <v>18.7204543516522</v>
+        <v>20.0562704189504</v>
       </c>
       <c r="M13">
-        <v>1.11971768114101</v>
+        <v>1.00682680381725</v>
       </c>
       <c r="N13">
-        <v>5.12839699956057</v>
+        <v>4.8054845802558</v>
       </c>
       <c r="O13">
-        <v>452.041112924439</v>
+        <v>448.533846094002</v>
       </c>
       <c r="P13">
-        <v>44.2180445164895</v>
+        <v>44.1656757249971</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>3435.89003654081</v>
+        <v>3381.59329105159</v>
       </c>
       <c r="C14">
-        <v>122.459787294988</v>
+        <v>114.582592047052</v>
       </c>
       <c r="D14">
-        <v>12.4669296117088</v>
+        <v>10.1630487227513</v>
       </c>
       <c r="E14">
-        <v>66.44179490520359</v>
+        <v>79.0818931869625</v>
       </c>
       <c r="F14">
-        <v>16.8095172940743</v>
+        <v>20.2232685694901</v>
       </c>
       <c r="G14">
-        <v>78.7383226127493</v>
+        <v>81.7236381422934</v>
       </c>
       <c r="H14">
-        <v>40.4578451394676</v>
+        <v>46.1884369562758</v>
       </c>
       <c r="I14">
-        <v>26.4527447087664</v>
+        <v>25.5480073470703</v>
       </c>
       <c r="J14">
-        <v>143.298087861585</v>
+        <v>136.108285882083</v>
       </c>
       <c r="K14">
-        <v>137.830495070944</v>
+        <v>132.817091335567</v>
       </c>
       <c r="L14">
-        <v>115.701816757653</v>
+        <v>119.406891193889</v>
       </c>
       <c r="M14">
-        <v>75.4802560729146</v>
+        <v>77.0741645081839</v>
       </c>
       <c r="N14">
-        <v>100.54657097261</v>
+        <v>86.2835596244602</v>
       </c>
       <c r="O14">
-        <v>4185.44203432334</v>
+        <v>4236.8978071802</v>
       </c>
       <c r="P14">
-        <v>67.4561649551888</v>
+        <v>64.3073904366977</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>1580.39305624825</v>
+        <v>1585.4200425803</v>
       </c>
       <c r="C15">
-        <v>33.8343921912119</v>
+        <v>29.100411967641</v>
       </c>
       <c r="D15">
-        <v>10.7076587703088</v>
+        <v>11.9346645867151</v>
       </c>
       <c r="E15">
-        <v>65.60530882761731</v>
+        <v>71.23539077262021</v>
       </c>
       <c r="F15">
-        <v>16.3314603424132</v>
+        <v>17.2820681776967</v>
       </c>
       <c r="G15">
-        <v>34.6363409728759</v>
+        <v>36.5979522915567</v>
       </c>
       <c r="H15">
-        <v>55.1624127150912</v>
+        <v>46.848647434471</v>
       </c>
       <c r="I15">
-        <v>18.4558320760767</v>
+        <v>22.059715312793</v>
       </c>
       <c r="J15">
-        <v>138.588580606122</v>
+        <v>137.52541315525</v>
       </c>
       <c r="K15">
-        <v>51.6763228930202</v>
+        <v>50.397239569464</v>
       </c>
       <c r="L15">
-        <v>33.1349662849405</v>
+        <v>36.0956761812903</v>
       </c>
       <c r="M15">
-        <v>160.077057923455</v>
+        <v>167.998150516405</v>
       </c>
       <c r="N15">
-        <v>86.3307371772152</v>
+        <v>87.14923360230991</v>
       </c>
       <c r="O15">
-        <v>1948.51367050543</v>
+        <v>1932.46800176627</v>
       </c>
       <c r="P15">
-        <v>43.8900005709971</v>
+        <v>42.1285325322372</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>696.232865872823</v>
+        <v>692.868558729873</v>
       </c>
       <c r="C16">
-        <v>57.4084649129107</v>
+        <v>59.3746502086175</v>
       </c>
       <c r="D16">
-        <v>5.34874910265292</v>
+        <v>5.1876592338382</v>
       </c>
       <c r="E16">
-        <v>25.8307386216225</v>
+        <v>21.6944903628024</v>
       </c>
       <c r="F16">
-        <v>3.93391192185082</v>
+        <v>3.18265917783124</v>
       </c>
       <c r="G16">
-        <v>15.4565576937018</v>
+        <v>13.9820119580209</v>
       </c>
       <c r="H16">
-        <v>11.2346719172223</v>
+        <v>12.3000620571764</v>
       </c>
       <c r="I16">
-        <v>8.7667167463966</v>
+        <v>6.94031546580422</v>
       </c>
       <c r="J16">
-        <v>45.2837698148856</v>
+        <v>43.2363633904913</v>
       </c>
       <c r="K16">
-        <v>45.5492515585438</v>
+        <v>48.4135053461339</v>
       </c>
       <c r="L16">
-        <v>24.636510702537</v>
+        <v>26.7065504497239</v>
       </c>
       <c r="M16">
-        <v>27.0002510546561</v>
+        <v>23.9461056015397</v>
       </c>
       <c r="N16">
-        <v>22.8271469363981</v>
+        <v>24.2526772856251</v>
       </c>
       <c r="O16">
-        <v>987.565950483012</v>
+        <v>996.035683632237</v>
       </c>
       <c r="P16">
-        <v>72.9512760166389</v>
+        <v>72.8173839290826</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>643.988508335237</v>
+        <v>643.209551680755</v>
       </c>
       <c r="C17">
-        <v>14.8245551138151</v>
+        <v>21.0108509374391</v>
       </c>
       <c r="D17">
-        <v>3.20258775032843</v>
+        <v>3.21771679071007</v>
       </c>
       <c r="E17">
-        <v>16.252208694904</v>
+        <v>17.0629085701498</v>
       </c>
       <c r="F17">
-        <v>11.1904311411487</v>
+        <v>10.3635799585451</v>
       </c>
       <c r="G17">
-        <v>6.86440228040413</v>
+        <v>6.38284834975835</v>
       </c>
       <c r="H17">
-        <v>6.17518582769674</v>
+        <v>5.7328574753077</v>
       </c>
       <c r="I17">
-        <v>5.77928165912605</v>
+        <v>6.45358847664788</v>
       </c>
       <c r="J17">
-        <v>14.9843032934457</v>
+        <v>16.9232519968471</v>
       </c>
       <c r="K17">
-        <v>9.982749328995149</v>
+        <v>10.9370678212711</v>
       </c>
       <c r="L17">
-        <v>8.82073073227312</v>
+        <v>9.529104709614071</v>
       </c>
       <c r="M17">
-        <v>61.0326107290984</v>
+        <v>63.5007713253224</v>
       </c>
       <c r="N17">
-        <v>11.5714219959554</v>
+        <v>11.4606107172996</v>
       </c>
       <c r="O17">
-        <v>987.920143687405</v>
+        <v>975.185614812774</v>
       </c>
       <c r="P17">
-        <v>45.398565384785</v>
+        <v>49.686082868552</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>1228.30295442417</v>
+        <v>1230.17541858592</v>
       </c>
       <c r="C18">
-        <v>27.9252580168874</v>
+        <v>28.1245186559336</v>
       </c>
       <c r="D18">
-        <v>8.10555243804172</v>
+        <v>7.22509110247298</v>
       </c>
       <c r="E18">
-        <v>34.5110852543301</v>
+        <v>39.5969113252542</v>
       </c>
       <c r="F18">
-        <v>27.8930360923494</v>
+        <v>29.1094088447168</v>
       </c>
       <c r="G18">
-        <v>27.1788971538772</v>
+        <v>24.8530252286685</v>
       </c>
       <c r="H18">
-        <v>15.6922591726219</v>
+        <v>18.1634304249062</v>
       </c>
       <c r="I18">
-        <v>4.323627712799</v>
+        <v>5.58827817072479</v>
       </c>
       <c r="J18">
-        <v>44.6079923722819</v>
+        <v>38.9939954230008</v>
       </c>
       <c r="K18">
-        <v>20.5220440586317</v>
+        <v>22.9771023040744</v>
       </c>
       <c r="L18">
-        <v>28.3426031593788</v>
+        <v>27.3674029772001</v>
       </c>
       <c r="M18">
-        <v>62.1593170279172</v>
+        <v>60.7485286317138</v>
       </c>
       <c r="N18">
-        <v>26.521928994636</v>
+        <v>19.4510710899628</v>
       </c>
       <c r="O18">
-        <v>1274.51657006492</v>
+        <v>1287.63565248718</v>
       </c>
       <c r="P18">
-        <v>53.1028716706191</v>
+        <v>46.9632339249265</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>1376.24023396498</v>
+        <v>1388.50731608523</v>
       </c>
       <c r="C19">
-        <v>23.1619707955447</v>
+        <v>25.0910907499874</v>
       </c>
       <c r="D19">
-        <v>15.7080948657834</v>
+        <v>12.6792122295312</v>
       </c>
       <c r="E19">
-        <v>32.2496245403333</v>
+        <v>33.6409765080469</v>
       </c>
       <c r="F19">
-        <v>87.83702147061329</v>
+        <v>87.64081910838669</v>
       </c>
       <c r="G19">
-        <v>33.9264224544439</v>
+        <v>37.8797331403626</v>
       </c>
       <c r="H19">
-        <v>5.01005949488613</v>
+        <v>5.16746147029014</v>
       </c>
       <c r="I19">
-        <v>0.0269107325201534</v>
+        <v>2.07210317552582</v>
       </c>
       <c r="J19">
-        <v>15.5632711165261</v>
+        <v>15.1451636829747</v>
       </c>
       <c r="K19">
-        <v>12.8020902465557</v>
+        <v>12.6559715169906</v>
       </c>
       <c r="L19">
-        <v>3.06841049164562</v>
+        <v>2.04704239311776</v>
       </c>
       <c r="M19">
-        <v>25.3327131778479</v>
+        <v>26.5296420197127</v>
       </c>
       <c r="N19">
-        <v>12.5797306644598</v>
+        <v>11.7491654146977</v>
       </c>
       <c r="O19">
-        <v>1385.87829453577</v>
+        <v>1381.27322359212</v>
       </c>
       <c r="P19">
-        <v>37.5613308203034</v>
+        <v>33.747711949029</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>353.958158163431</v>
+        <v>352.519149488668</v>
       </c>
       <c r="C20">
-        <v>5.81917624001107</v>
+        <v>7.38076654368787</v>
       </c>
       <c r="D20">
-        <v>8.386440195783321</v>
+        <v>9.38428136089348</v>
       </c>
       <c r="E20">
-        <v>30.6809801640466</v>
+        <v>32.965171310985</v>
       </c>
       <c r="F20">
-        <v>0.27238452105506</v>
+        <v>0.6016375493031561</v>
       </c>
       <c r="G20">
-        <v>1.91728860438084</v>
+        <v>1.61183297478958</v>
       </c>
       <c r="H20">
-        <v>1.71533989366501</v>
+        <v>1.4310971187707</v>
       </c>
       <c r="I20">
-        <v>2.26378005763992</v>
+        <v>1.73781875907452</v>
       </c>
       <c r="J20">
-        <v>4.00898087174496</v>
+        <v>3.3962889303689</v>
       </c>
       <c r="K20">
-        <v>3.50777443562298</v>
+        <v>3.28517951459534</v>
       </c>
       <c r="L20">
-        <v>7.71006018972255</v>
+        <v>8.12633147282698</v>
       </c>
       <c r="M20">
-        <v>14.5057856746951</v>
+        <v>15.7542607173989</v>
       </c>
       <c r="N20">
-        <v>4.73690118432341</v>
+        <v>4.5192933562257</v>
       </c>
       <c r="O20">
-        <v>475.681587453495</v>
+        <v>472.994041429479</v>
       </c>
       <c r="P20">
-        <v>21.6982365693832</v>
+        <v>19.3842677543501</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>1407.75184823668</v>
+        <v>1429.13467786062</v>
       </c>
       <c r="C21">
-        <v>21.4984509791855</v>
+        <v>22.0848541833005</v>
       </c>
       <c r="D21">
-        <v>7.38999708263873</v>
+        <v>5.85966104017691</v>
       </c>
       <c r="E21">
-        <v>15.0746948653766</v>
+        <v>18.4534376685696</v>
       </c>
       <c r="F21">
-        <v>6.60488053654931</v>
+        <v>4.44949821089695</v>
       </c>
       <c r="G21">
-        <v>20.3881499754844</v>
+        <v>19.6789225222334</v>
       </c>
       <c r="H21">
-        <v>4.05193383373682</v>
+        <v>4.84100100083192</v>
       </c>
       <c r="I21">
-        <v>7.82773241157416</v>
+        <v>6.53015304157664</v>
       </c>
       <c r="J21">
-        <v>30.2807009445562</v>
+        <v>30.2567790695569</v>
       </c>
       <c r="K21">
-        <v>3.44851511542889</v>
+        <v>3.69041079989066</v>
       </c>
       <c r="L21">
-        <v>26.3955556848501</v>
+        <v>23.6762377096843</v>
       </c>
       <c r="M21">
-        <v>31.113659221205</v>
+        <v>30.9001361846605</v>
       </c>
       <c r="N21">
-        <v>29.6450966881543</v>
+        <v>23.8413628712431</v>
       </c>
       <c r="O21">
-        <v>2083.65693243658</v>
+        <v>2067.89176427788</v>
       </c>
       <c r="P21">
-        <v>20.7568360095816</v>
+        <v>19.2663829397167</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>1707.87230035173</v>
+        <v>1681.87203229621</v>
       </c>
       <c r="C22">
-        <v>10.4853539523714</v>
+        <v>12.8652970887233</v>
       </c>
       <c r="D22">
-        <v>19.8422337118027</v>
+        <v>18.5177747896961</v>
       </c>
       <c r="E22">
-        <v>36.5369884496516</v>
+        <v>41.2854626324453</v>
       </c>
       <c r="F22">
-        <v>2.32768231406877</v>
+        <v>2.32889132347818</v>
       </c>
       <c r="G22">
-        <v>27.2005540962687</v>
+        <v>25.7026093496844</v>
       </c>
       <c r="H22">
-        <v>16.1447017774325</v>
+        <v>18.7652251804351</v>
       </c>
       <c r="I22">
-        <v>10.0366259564489</v>
+        <v>10.2483839095911</v>
       </c>
       <c r="J22">
-        <v>43.4480818183519</v>
+        <v>41.4779469290689</v>
       </c>
       <c r="K22">
-        <v>17.9257798889554</v>
+        <v>20.0479565694516</v>
       </c>
       <c r="L22">
-        <v>102.571960611553</v>
+        <v>109.064525891816</v>
       </c>
       <c r="M22">
-        <v>13.6430870321758</v>
+        <v>17.3590445900892</v>
       </c>
       <c r="N22">
-        <v>64.90587080966721</v>
+        <v>62.7414489869645</v>
       </c>
       <c r="O22">
-        <v>2369.71540682424</v>
+        <v>2377.29776872167</v>
       </c>
       <c r="P22">
-        <v>15.2363423548245</v>
+        <v>12.3312431262862</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>2785.23305815758</v>
+        <v>2756.18826364477</v>
       </c>
       <c r="C23">
-        <v>35.3692597298335</v>
+        <v>33.4521194310262</v>
       </c>
       <c r="D23">
-        <v>11.3957087963248</v>
+        <v>11.632538597989</v>
       </c>
       <c r="E23">
-        <v>33.2747910212097</v>
+        <v>42.8713604197748</v>
       </c>
       <c r="F23">
-        <v>5.07575638167642</v>
+        <v>4.55904653663277</v>
       </c>
       <c r="G23">
-        <v>53.440155869039</v>
+        <v>50.0378867724267</v>
       </c>
       <c r="H23">
-        <v>61.1012872750763</v>
+        <v>57.3167774124669</v>
       </c>
       <c r="I23">
-        <v>10.5175280841588</v>
+        <v>9.75119531040925</v>
       </c>
       <c r="J23">
-        <v>110.740755503065</v>
+        <v>125.914259238092</v>
       </c>
       <c r="K23">
-        <v>101.670742550124</v>
+        <v>94.2821444290407</v>
       </c>
       <c r="L23">
-        <v>42.6564508509042</v>
+        <v>39.5157625383384</v>
       </c>
       <c r="M23">
-        <v>478.588853465704</v>
+        <v>486.604672912661</v>
       </c>
       <c r="N23">
-        <v>79.9588779793321</v>
+        <v>73.9328584715399</v>
       </c>
       <c r="O23">
-        <v>3126.12004545586</v>
+        <v>3144.36843962051</v>
       </c>
       <c r="P23">
-        <v>42.3139275883157</v>
+        <v>47.9207476173018</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>1093.53936056169</v>
+        <v>1093.61370398708</v>
       </c>
       <c r="C24">
-        <v>58.1603153140834</v>
+        <v>55.4637974810797</v>
       </c>
       <c r="D24">
-        <v>5.12123927343891</v>
+        <v>7.42419594912537</v>
       </c>
       <c r="E24">
-        <v>49.4883667927952</v>
+        <v>50.5655332557411</v>
       </c>
       <c r="F24">
-        <v>11.2182784012915</v>
+        <v>8.77946194298258</v>
       </c>
       <c r="G24">
-        <v>26.9485801496402</v>
+        <v>30.3167429564571</v>
       </c>
       <c r="H24">
-        <v>15.8370938821174</v>
+        <v>15.6029009328207</v>
       </c>
       <c r="I24">
-        <v>15.1361893214442</v>
+        <v>14.9652798336222</v>
       </c>
       <c r="J24">
-        <v>41.62008310185</v>
+        <v>46.157360302088</v>
       </c>
       <c r="K24">
-        <v>49.3435337466784</v>
+        <v>50.5460919576382</v>
       </c>
       <c r="L24">
-        <v>57.6156232372594</v>
+        <v>66.6078710980112</v>
       </c>
       <c r="M24">
-        <v>29.2923408121201</v>
+        <v>26.2471456286772</v>
       </c>
       <c r="N24">
-        <v>60.9600690745711</v>
+        <v>64.4395996453695</v>
       </c>
       <c r="O24">
-        <v>1853.07847759135</v>
+        <v>1833.47067077303</v>
       </c>
       <c r="P24">
-        <v>99.0038373703003</v>
+        <v>98.27330718560719</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>879.274012734464</v>
+        <v>880.676659372826</v>
       </c>
       <c r="C25">
-        <v>38.0640301656636</v>
+        <v>36.1323893956941</v>
       </c>
       <c r="D25">
-        <v>14.5664616418417</v>
+        <v>13.3612127275054</v>
       </c>
       <c r="E25">
-        <v>37.8347871389775</v>
+        <v>39.9907093227172</v>
       </c>
       <c r="F25">
-        <v>15.8104649476385</v>
+        <v>14.4233910127735</v>
       </c>
       <c r="G25">
-        <v>7.12347073090766</v>
+        <v>5.77183794819929</v>
       </c>
       <c r="H25">
-        <v>17.4520302504568</v>
+        <v>17.3622244413607</v>
       </c>
       <c r="I25">
-        <v>6.79783943386172</v>
+        <v>5.92238138384375</v>
       </c>
       <c r="J25">
-        <v>16.4736291223074</v>
+        <v>13.3107865137848</v>
       </c>
       <c r="K25">
-        <v>12.3146908760679</v>
+        <v>11.685003781206</v>
       </c>
       <c r="L25">
-        <v>19.1539477065084</v>
+        <v>17.9432923865602</v>
       </c>
       <c r="M25">
-        <v>31.283748233107</v>
+        <v>30.1812823037735</v>
       </c>
       <c r="N25">
-        <v>45.3988433337651</v>
+        <v>40.5034194656954</v>
       </c>
       <c r="O25">
-        <v>762.1195913208541</v>
+        <v>780.4592078262911</v>
       </c>
       <c r="P25">
-        <v>31.238997027712</v>
+        <v>35.2291026824378</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>1425.5736816462</v>
+        <v>1437.00497628847</v>
       </c>
       <c r="C26">
-        <v>50.4551953371556</v>
+        <v>57.4075990205333</v>
       </c>
       <c r="D26">
-        <v>13.485791672042</v>
+        <v>14.0142713472381</v>
       </c>
       <c r="E26">
-        <v>39.8751983376875</v>
+        <v>40.1874327749853</v>
       </c>
       <c r="F26">
-        <v>7.54423599610423</v>
+        <v>10.4669644924508</v>
       </c>
       <c r="G26">
-        <v>22.0567233547079</v>
+        <v>25.6306029473257</v>
       </c>
       <c r="H26">
-        <v>19.4772807772736</v>
+        <v>17.8277483396198</v>
       </c>
       <c r="I26">
-        <v>17.3740245592255</v>
+        <v>13.5395128605595</v>
       </c>
       <c r="J26">
-        <v>65.46429361416961</v>
+        <v>48.0894422749788</v>
       </c>
       <c r="K26">
-        <v>33.881984321469</v>
+        <v>30.8419823093241</v>
       </c>
       <c r="L26">
-        <v>31.5086903681284</v>
+        <v>34.4358130102612</v>
       </c>
       <c r="M26">
-        <v>77.26354134927971</v>
+        <v>73.36011862371331</v>
       </c>
       <c r="N26">
-        <v>21.7921130591377</v>
+        <v>28.7036650227552</v>
       </c>
       <c r="O26">
-        <v>2049.93824561175</v>
+        <v>2040.13418666329</v>
       </c>
       <c r="P26">
-        <v>65.7371230866185</v>
+        <v>69.0870787640487</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>249.752563000948</v>
+        <v>246.451454148346</v>
       </c>
       <c r="C27">
-        <v>2.46922389999922</v>
+        <v>2.08744206471931</v>
       </c>
       <c r="D27">
-        <v>1.33036607274739</v>
+        <v>1.1268065878241</v>
       </c>
       <c r="E27">
-        <v>9.08043120750926</v>
+        <v>9.429117428879151</v>
       </c>
       <c r="F27">
-        <v>5.02385217812396</v>
+        <v>5.03491124883739</v>
       </c>
       <c r="G27">
-        <v>0.901725823820688</v>
+        <v>0.632212198869615</v>
       </c>
       <c r="H27">
-        <v>0.0427202307065274</v>
+        <v>0.222636667016769</v>
       </c>
       <c r="I27">
-        <v>2.29375907039019</v>
+        <v>2.37605248107298</v>
       </c>
       <c r="J27">
-        <v>2.5786931291052</v>
+        <v>3.12894131095633</v>
       </c>
       <c r="K27">
-        <v>1.36159355960394</v>
+        <v>1.25831238599325</v>
       </c>
       <c r="L27">
-        <v>0.9303582500372361</v>
+        <v>1.22910016820798</v>
       </c>
       <c r="M27">
-        <v>0.434135336397794</v>
+        <v>0.6240607314810081</v>
       </c>
       <c r="N27">
-        <v>3.362322361949</v>
+        <v>3.59529862582881</v>
       </c>
       <c r="O27">
-        <v>325.431052790463</v>
+        <v>324.907880434436</v>
       </c>
       <c r="P27">
-        <v>39.71189886177</v>
+        <v>39.5124686799588</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>384.036460647856</v>
+        <v>383.730589490012</v>
       </c>
       <c r="C28">
-        <v>28.3561268511407</v>
+        <v>28.180780802447</v>
       </c>
       <c r="D28">
-        <v>4.08474349347529</v>
+        <v>2.98445504423434</v>
       </c>
       <c r="E28">
-        <v>4.19965268646303</v>
+        <v>6.25399145412364</v>
       </c>
       <c r="F28">
-        <v>2.02307186615386</v>
+        <v>1.82706678404018</v>
       </c>
       <c r="G28">
-        <v>2.13846474306805</v>
+        <v>3.31227760801732</v>
       </c>
       <c r="H28">
-        <v>9.16235842639052</v>
+        <v>8.517142585507839</v>
       </c>
       <c r="I28">
-        <v>0.928298416048656</v>
+        <v>2.48673310792945</v>
       </c>
       <c r="J28">
-        <v>17.8246097661569</v>
+        <v>17.0064643902643</v>
       </c>
       <c r="K28">
-        <v>11.1405311811885</v>
+        <v>11.1800133334055</v>
       </c>
       <c r="L28">
-        <v>13.264191694816</v>
+        <v>14.5262407457173</v>
       </c>
       <c r="M28">
-        <v>6.75246680561604</v>
+        <v>8.037403965313789</v>
       </c>
       <c r="N28">
-        <v>10.5186645006334</v>
+        <v>8.12469929333864</v>
       </c>
       <c r="O28">
-        <v>623.5123560738</v>
+        <v>620.272824408354</v>
       </c>
       <c r="P28">
-        <v>82.8789310101518</v>
+        <v>84.1708177329344</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>540.861314922064</v>
+        <v>551.304796646163</v>
       </c>
       <c r="C29">
-        <v>2.72451181465687</v>
+        <v>3.37089766175882</v>
       </c>
       <c r="D29">
-        <v>3.26633790891912</v>
+        <v>1.83872131349377</v>
       </c>
       <c r="E29">
-        <v>2.8280488162334</v>
+        <v>2.78803030441066</v>
       </c>
       <c r="F29">
-        <v>22.3634856724461</v>
+        <v>20.5720035537301</v>
       </c>
       <c r="G29">
-        <v>3.3783323353266</v>
+        <v>4.02660350116088</v>
       </c>
       <c r="H29">
-        <v>1.85671093577304</v>
+        <v>1.42107385586664</v>
       </c>
       <c r="I29">
-        <v>1.56523429230844</v>
+        <v>1.80249311021401</v>
       </c>
       <c r="J29">
-        <v>5.90206472297973</v>
+        <v>5.29794091847873</v>
       </c>
       <c r="K29">
-        <v>2.33755974003059</v>
+        <v>2.23471547987877</v>
       </c>
       <c r="L29">
-        <v>2.94945407581995</v>
+        <v>2.83824318497022</v>
       </c>
       <c r="M29">
-        <v>2.26177566795385</v>
+        <v>2.53969436650719</v>
       </c>
       <c r="N29">
-        <v>9.376124669167201</v>
+        <v>7.95345607362602</v>
       </c>
       <c r="O29">
-        <v>842.352604716902</v>
+        <v>848.798177139799</v>
       </c>
       <c r="P29">
-        <v>5.84680880319223</v>
+        <v>4.5016927522165</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>279.091085810322</v>
+        <v>269.531804677829</v>
       </c>
       <c r="C30">
-        <v>2.94025913921436</v>
+        <v>3.01737017878049</v>
       </c>
       <c r="D30">
-        <v>6.60963736513288</v>
+        <v>5.16825648388555</v>
       </c>
       <c r="E30">
-        <v>11.5460175456656</v>
+        <v>13.1299947322204</v>
       </c>
       <c r="F30">
-        <v>1.25926812793926</v>
+        <v>0.705512561163264</v>
       </c>
       <c r="G30">
-        <v>4.27194616764717</v>
+        <v>3.59824418978338</v>
       </c>
       <c r="H30">
-        <v>5.12108053949097</v>
+        <v>4.92937375443452</v>
       </c>
       <c r="I30">
-        <v>1.71504319456696</v>
+        <v>1.84067258592745</v>
       </c>
       <c r="J30">
-        <v>14.8048911202457</v>
+        <v>16.4596879062777</v>
       </c>
       <c r="K30">
-        <v>10.3769893141108</v>
+        <v>9.19559503628942</v>
       </c>
       <c r="L30">
-        <v>30.1428389843701</v>
+        <v>33.5103178307254</v>
       </c>
       <c r="M30">
-        <v>9.707468543355141</v>
+        <v>9.488974335358201</v>
       </c>
       <c r="N30">
-        <v>11.1388789996197</v>
+        <v>11.9098760558307</v>
       </c>
       <c r="O30">
-        <v>479.461292577998</v>
+        <v>484.270563254429</v>
       </c>
       <c r="P30">
-        <v>6.78604508242363</v>
+        <v>6.91657428996395</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>2408.37881669946</v>
+        <v>2376.62629191669</v>
       </c>
       <c r="C31">
-        <v>48.9847227306178</v>
+        <v>46.5361892844978</v>
       </c>
       <c r="D31">
-        <v>39.9927878451366</v>
+        <v>37.3709551116881</v>
       </c>
       <c r="E31">
-        <v>43.8531466474331</v>
+        <v>44.3628022218453</v>
       </c>
       <c r="F31">
-        <v>9.55792373424473</v>
+        <v>8.011269848727441</v>
       </c>
       <c r="G31">
-        <v>95.9871417945738</v>
+        <v>94.1683533252434</v>
       </c>
       <c r="H31">
-        <v>10.4122343870544</v>
+        <v>12.4805011067257</v>
       </c>
       <c r="I31">
-        <v>19.7724233301654</v>
+        <v>19.338143028267</v>
       </c>
       <c r="J31">
-        <v>28.5996908323249</v>
+        <v>30.1300588779946</v>
       </c>
       <c r="K31">
-        <v>17.2737771013057</v>
+        <v>18.032076027246</v>
       </c>
       <c r="L31">
-        <v>60.5243560789075</v>
+        <v>60.5662877461802</v>
       </c>
       <c r="M31">
-        <v>18.9332931840304</v>
+        <v>20.4625765569218</v>
       </c>
       <c r="N31">
-        <v>43.390516229498</v>
+        <v>45.7540022072305</v>
       </c>
       <c r="O31">
-        <v>3103.96993586002</v>
+        <v>3120.61137804629</v>
       </c>
       <c r="P31">
-        <v>5.32122108614165</v>
+        <v>9.80494276130672</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>539.168590317026</v>
+        <v>548.864031339264</v>
       </c>
       <c r="C32">
-        <v>3.63104604133131</v>
+        <v>4.99155268330777</v>
       </c>
       <c r="D32">
-        <v>0.6534128345647801</v>
+        <v>0.637969607852246</v>
       </c>
       <c r="E32">
-        <v>5.0174690565403</v>
+        <v>3.23640436549473</v>
       </c>
       <c r="F32">
-        <v>19.2293568163324</v>
+        <v>20.0561816814263</v>
       </c>
       <c r="G32">
-        <v>1.59962591699821</v>
+        <v>1.64019408186004</v>
       </c>
       <c r="H32">
-        <v>2.44941892892347</v>
+        <v>2.96468847596235</v>
       </c>
       <c r="I32">
-        <v>3.57935368796516</v>
+        <v>2.8571677032284</v>
       </c>
       <c r="J32">
-        <v>3.59034761668762</v>
+        <v>3.46743920534451</v>
       </c>
       <c r="K32">
-        <v>1.71890110892987</v>
+        <v>1.97263563496576</v>
       </c>
       <c r="L32">
-        <v>15.0075872172357</v>
+        <v>13.1154965982294</v>
       </c>
       <c r="M32">
-        <v>1.73976960616066</v>
+        <v>1.53574001766012</v>
       </c>
       <c r="N32">
-        <v>5.76574331810501</v>
+        <v>7.61753665282174</v>
       </c>
       <c r="O32">
-        <v>636.753937905371</v>
+        <v>626.787630894836</v>
       </c>
       <c r="P32">
-        <v>21.8172089449608</v>
+        <v>23.5818903794437</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>5772.66597421959</v>
+        <v>5721.49015957946</v>
       </c>
       <c r="C33">
-        <v>69.209778958537</v>
+        <v>79.84708843791201</v>
       </c>
       <c r="D33">
-        <v>63.3699589742584</v>
+        <v>54.0747368047537</v>
       </c>
       <c r="E33">
-        <v>60.64668004589</v>
+        <v>72.67417218576951</v>
       </c>
       <c r="F33">
-        <v>7.66161713901384</v>
+        <v>6.73459566072171</v>
       </c>
       <c r="G33">
-        <v>67.8977436211617</v>
+        <v>66.2525829390481</v>
       </c>
       <c r="H33">
-        <v>24.5931932041571</v>
+        <v>26.529352576036</v>
       </c>
       <c r="I33">
-        <v>29.2677586060497</v>
+        <v>28.4324923855658</v>
       </c>
       <c r="J33">
-        <v>92.28704271441821</v>
+        <v>85.3439017079142</v>
       </c>
       <c r="K33">
-        <v>85.8617563079532</v>
+        <v>81.8917410231729</v>
       </c>
       <c r="L33">
-        <v>115.011115623853</v>
+        <v>119.091305992461</v>
       </c>
       <c r="M33">
-        <v>62.1968765111464</v>
+        <v>64.7626027985276</v>
       </c>
       <c r="N33">
-        <v>123.297312008674</v>
+        <v>130.021274490305</v>
       </c>
       <c r="O33">
-        <v>6601.32228442645</v>
+        <v>6613.39351485108</v>
       </c>
       <c r="P33">
-        <v>78.4210816031824</v>
+        <v>81.5317770403158</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>2313.59038265536</v>
+        <v>2258.54956659514</v>
       </c>
       <c r="C34">
-        <v>61.3396586678379</v>
+        <v>64.51431760753459</v>
       </c>
       <c r="D34">
-        <v>149.744069192346</v>
+        <v>157.46105182157</v>
       </c>
       <c r="E34">
-        <v>42.7194722630343</v>
+        <v>44.263104259848</v>
       </c>
       <c r="F34">
-        <v>8.188898180618001</v>
+        <v>7.83877608903754</v>
       </c>
       <c r="G34">
-        <v>34.5591504077683</v>
+        <v>40.9190983553341</v>
       </c>
       <c r="H34">
-        <v>46.3610436060975</v>
+        <v>40.4246823919627</v>
       </c>
       <c r="I34">
-        <v>11.5878947906787</v>
+        <v>13.1433756342607</v>
       </c>
       <c r="J34">
-        <v>56.7564181574243</v>
+        <v>53.8753201772401</v>
       </c>
       <c r="K34">
-        <v>38.0805081610726</v>
+        <v>42.9030449336459</v>
       </c>
       <c r="L34">
-        <v>78.49735197340191</v>
+        <v>93.5269918347002</v>
       </c>
       <c r="M34">
-        <v>38.5101952014797</v>
+        <v>39.9190766172534</v>
       </c>
       <c r="N34">
-        <v>114.207154888302</v>
+        <v>114.91428771062</v>
       </c>
       <c r="O34">
-        <v>2678.45464578266</v>
+        <v>2682.77083386282</v>
       </c>
       <c r="P34">
-        <v>53.5558594800541</v>
+        <v>56.5781109682445</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>158.308127584551</v>
+        <v>156.928587974419</v>
       </c>
       <c r="C35">
-        <v>6.94565268131702</v>
+        <v>6.49199046227712</v>
       </c>
       <c r="D35">
-        <v>0.56038893689953</v>
+        <v>0.467347608013467</v>
       </c>
       <c r="E35">
-        <v>2.03566575895484</v>
+        <v>2.51547796101234</v>
       </c>
       <c r="F35">
-        <v>4.21357287028722</v>
+        <v>4.20089064836425</v>
       </c>
       <c r="G35">
-        <v>0.842955630669785</v>
+        <v>0.544612441562736</v>
       </c>
       <c r="H35">
-        <v>0.270017450716162</v>
+        <v>0.225421458008496</v>
       </c>
       <c r="I35">
-        <v>0.823741778149968</v>
+        <v>0.855712574715961</v>
       </c>
       <c r="J35">
-        <v>2.20094413601354</v>
+        <v>2.31075842174951</v>
       </c>
       <c r="K35">
-        <v>5.57541847414821</v>
+        <v>5.44992245201278</v>
       </c>
       <c r="L35">
-        <v>1.76014137255401</v>
+        <v>1.77256823997667</v>
       </c>
       <c r="M35">
-        <v>1.91317913971168</v>
+        <v>2.05053820544903</v>
       </c>
       <c r="N35">
-        <v>2.36023746557862</v>
+        <v>2.36455709460889</v>
       </c>
       <c r="O35">
-        <v>222.773396836975</v>
+        <v>224.300602608135</v>
       </c>
       <c r="P35">
-        <v>37.9909177411217</v>
+        <v>37.6663646217376</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>3114.9780457207</v>
+        <v>3116.71890633087</v>
       </c>
       <c r="C36">
-        <v>43.1946003636499</v>
+        <v>49.8716844629605</v>
       </c>
       <c r="D36">
-        <v>14.9418099978723</v>
+        <v>12.5673048354801</v>
       </c>
       <c r="E36">
-        <v>81.3274344638857</v>
+        <v>91.4452869307607</v>
       </c>
       <c r="F36">
-        <v>26.6182660953303</v>
+        <v>26.880231009922</v>
       </c>
       <c r="G36">
-        <v>89.1731086426808</v>
+        <v>82.1904531283799</v>
       </c>
       <c r="H36">
-        <v>97.1394542322368</v>
+        <v>101.430660838144</v>
       </c>
       <c r="I36">
-        <v>37.1277208855572</v>
+        <v>39.8437438803793</v>
       </c>
       <c r="J36">
-        <v>201.182815193012</v>
+        <v>199.554074961795</v>
       </c>
       <c r="K36">
-        <v>98.9342435328042</v>
+        <v>106.132817630379</v>
       </c>
       <c r="L36">
-        <v>70.4622822190252</v>
+        <v>76.1592669442221</v>
       </c>
       <c r="M36">
-        <v>203.027686734365</v>
+        <v>210.406606637622</v>
       </c>
       <c r="N36">
-        <v>78.57756728239011</v>
+        <v>82.4499533279012</v>
       </c>
       <c r="O36">
-        <v>3807.12166281394</v>
+        <v>3781.18610074434</v>
       </c>
       <c r="P36">
-        <v>50.922743569315</v>
+        <v>43.7529668034177</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>1006.98263138262</v>
+        <v>1001.33519442321</v>
       </c>
       <c r="C37">
-        <v>23.8529674030428</v>
+        <v>24.1105394752205</v>
       </c>
       <c r="D37">
-        <v>5.50108748340453</v>
+        <v>5.12971641646738</v>
       </c>
       <c r="E37">
-        <v>20.1755865220581</v>
+        <v>19.2740958703462</v>
       </c>
       <c r="F37">
-        <v>31.9402908562398</v>
+        <v>30.9105218283446</v>
       </c>
       <c r="G37">
-        <v>6.79451643186261</v>
+        <v>8.18363401131581</v>
       </c>
       <c r="H37">
-        <v>21.7915162607271</v>
+        <v>21.6952421500643</v>
       </c>
       <c r="I37">
-        <v>10.4753472043605</v>
+        <v>13.8393047563391</v>
       </c>
       <c r="J37">
-        <v>36.1250218218477</v>
+        <v>35.8000324930603</v>
       </c>
       <c r="K37">
-        <v>26.642202705612</v>
+        <v>25.4617135393334</v>
       </c>
       <c r="L37">
-        <v>18.819044233891</v>
+        <v>16.9937527539682</v>
       </c>
       <c r="M37">
-        <v>32.040464844198</v>
+        <v>32.3956873905153</v>
       </c>
       <c r="N37">
-        <v>20.7885372940669</v>
+        <v>19.6671036806198</v>
       </c>
       <c r="O37">
-        <v>1107.11695583057</v>
+        <v>1111.92799599063</v>
       </c>
       <c r="P37">
-        <v>41.6771556722945</v>
+        <v>45.3285344790007</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>988.63273827244</v>
+        <v>987.42328696604</v>
       </c>
       <c r="C38">
-        <v>23.2413709407777</v>
+        <v>22.580719017017</v>
       </c>
       <c r="D38">
-        <v>8.81593508874265</v>
+        <v>7.90134987163026</v>
       </c>
       <c r="E38">
-        <v>45.3722363624779</v>
+        <v>50.1955160851279</v>
       </c>
       <c r="F38">
-        <v>1.32833015101013</v>
+        <v>1.4803944980928</v>
       </c>
       <c r="G38">
-        <v>4.18937502217597</v>
+        <v>4.91443021362421</v>
       </c>
       <c r="H38">
-        <v>2.6701516924506</v>
+        <v>3.51270644035422</v>
       </c>
       <c r="I38">
-        <v>2.03873355292174</v>
+        <v>2.50018177188327</v>
       </c>
       <c r="J38">
-        <v>36.6274010443338</v>
+        <v>36.535927322728</v>
       </c>
       <c r="K38">
-        <v>3.97434941597621</v>
+        <v>4.07937728351862</v>
       </c>
       <c r="L38">
-        <v>61.5902082580376</v>
+        <v>63.8579069171301</v>
       </c>
       <c r="M38">
-        <v>15.7725562276094</v>
+        <v>18.3389364944181</v>
       </c>
       <c r="N38">
-        <v>37.0868204049548</v>
+        <v>32.8176169785657</v>
       </c>
       <c r="O38">
-        <v>1228.81751916509</v>
+        <v>1209.97686210104</v>
       </c>
       <c r="P38">
-        <v>54.0904028346464</v>
+        <v>57.9849134022554</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>3622.91606757661</v>
+        <v>3622.90320400234</v>
       </c>
       <c r="C39">
-        <v>79.20773523576661</v>
+        <v>85.94573172385709</v>
       </c>
       <c r="D39">
-        <v>53.3160671042731</v>
+        <v>51.3806018689599</v>
       </c>
       <c r="E39">
-        <v>123.555521314795</v>
+        <v>130.997065143853</v>
       </c>
       <c r="F39">
-        <v>27.6492033999637</v>
+        <v>27.4817911673318</v>
       </c>
       <c r="G39">
-        <v>97.1441183601178</v>
+        <v>97.5302770007732</v>
       </c>
       <c r="H39">
-        <v>44.5631981978076</v>
+        <v>48.2590539404021</v>
       </c>
       <c r="I39">
-        <v>37.9095949256771</v>
+        <v>36.5022468341654</v>
       </c>
       <c r="J39">
-        <v>167.392885165525</v>
+        <v>158.477996601383</v>
       </c>
       <c r="K39">
-        <v>86.7784492723208</v>
+        <v>85.27094152888171</v>
       </c>
       <c r="L39">
-        <v>88.66998535326511</v>
+        <v>92.6165244200277</v>
       </c>
       <c r="M39">
-        <v>56.2491183975173</v>
+        <v>57.688737240815</v>
       </c>
       <c r="N39">
-        <v>96.3885483537603</v>
+        <v>100.664521311626</v>
       </c>
       <c r="O39">
-        <v>4116.58710640804</v>
+        <v>4102.60475312626</v>
       </c>
       <c r="P39">
-        <v>64.1958471316173</v>
+        <v>67.5969095923905</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>286.547911475228</v>
+        <v>285.88138703963</v>
       </c>
       <c r="C40">
-        <v>1.97637521636477</v>
+        <v>2.75091455815943</v>
       </c>
       <c r="D40">
-        <v>7.18277396054352</v>
+        <v>6.67687964725147</v>
       </c>
       <c r="E40">
-        <v>4.89415367647639</v>
+        <v>5.38033537069222</v>
       </c>
       <c r="F40">
-        <v>0.217675378060312</v>
+        <v>0.171350017102627</v>
       </c>
       <c r="G40">
-        <v>4.3634449881402</v>
+        <v>4.56791080396831</v>
       </c>
       <c r="H40">
-        <v>4.83299540318073</v>
+        <v>4.46278472055596</v>
       </c>
       <c r="I40">
-        <v>2.09039807100413</v>
+        <v>1.45190992853324</v>
       </c>
       <c r="J40">
-        <v>7.7489908182564</v>
+        <v>9.215831208642451</v>
       </c>
       <c r="K40">
-        <v>4.03661318066402</v>
+        <v>4.44453976578906</v>
       </c>
       <c r="L40">
-        <v>14.7879689397465</v>
+        <v>12.7621361901405</v>
       </c>
       <c r="M40">
-        <v>4.9749970224315</v>
+        <v>4.8623205965963</v>
       </c>
       <c r="N40">
-        <v>18.2650209743377</v>
+        <v>18.0345830830704</v>
       </c>
       <c r="O40">
-        <v>384.775505687669</v>
+        <v>380.284557298767</v>
       </c>
       <c r="P40">
-        <v>3.20422802138811</v>
+        <v>2.67247382806826</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>1223.43547713626</v>
+        <v>1193.99105542442</v>
       </c>
       <c r="C41">
-        <v>10.9249562221489</v>
+        <v>13.2707664965243</v>
       </c>
       <c r="D41">
-        <v>75.3835689651613</v>
+        <v>83.3062380497649</v>
       </c>
       <c r="E41">
-        <v>26.3419258181356</v>
+        <v>33.5110978886109</v>
       </c>
       <c r="F41">
-        <v>1.04283695453683</v>
+        <v>1.60754314002907</v>
       </c>
       <c r="G41">
-        <v>20.2321432222065</v>
+        <v>23.0094591144853</v>
       </c>
       <c r="H41">
-        <v>29.1508219343014</v>
+        <v>31.5254521606622</v>
       </c>
       <c r="I41">
-        <v>13.5547836370689</v>
+        <v>12.530594838765</v>
       </c>
       <c r="J41">
-        <v>43.1415739338931</v>
+        <v>40.2320072060984</v>
       </c>
       <c r="K41">
-        <v>17.0524536891184</v>
+        <v>18.2482664982698</v>
       </c>
       <c r="L41">
-        <v>31.1758560816577</v>
+        <v>33.8589404989468</v>
       </c>
       <c r="M41">
-        <v>19.8186421684777</v>
+        <v>27.0583522619091</v>
       </c>
       <c r="N41">
-        <v>20.0313230843237</v>
+        <v>21.3140760316957</v>
       </c>
       <c r="O41">
-        <v>1279.54648633637</v>
+        <v>1281.11837791035</v>
       </c>
       <c r="P41">
-        <v>22.9796511579134</v>
+        <v>26.9743418120882</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>165.752082787462</v>
+        <v>163.73841975747</v>
       </c>
       <c r="C42">
-        <v>4.44602707496051</v>
+        <v>5.29317062710705</v>
       </c>
       <c r="D42">
-        <v>1.03868468401556</v>
+        <v>1.24508020496185</v>
       </c>
       <c r="E42">
-        <v>4.20053409329106</v>
+        <v>5.11872961425471</v>
       </c>
       <c r="F42">
-        <v>2.20167885365518</v>
+        <v>2.03155557078288</v>
       </c>
       <c r="G42">
-        <v>1.22478628875347</v>
+        <v>1.32063774663954</v>
       </c>
       <c r="H42">
-        <v>0.364045303645124</v>
+        <v>0.370374498015681</v>
       </c>
       <c r="I42">
-        <v>0.879549986587003</v>
+        <v>0.974635823150658</v>
       </c>
       <c r="J42">
-        <v>2.53413632080793</v>
+        <v>3.10982386974535</v>
       </c>
       <c r="K42">
-        <v>5.12037817981626</v>
+        <v>4.50587555633223</v>
       </c>
       <c r="L42">
-        <v>7.26947009598679</v>
+        <v>6.9469409378274</v>
       </c>
       <c r="M42">
-        <v>2.45078467272843</v>
+        <v>2.84267203199313</v>
       </c>
       <c r="N42">
-        <v>5.89327033728103</v>
+        <v>6.39455805070083</v>
       </c>
       <c r="O42">
-        <v>254.931574005746</v>
+        <v>257.20439048895</v>
       </c>
       <c r="P42">
-        <v>45.5545487213271</v>
+        <v>44.843185408998</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1660.79281438574</v>
+        <v>1661.6004855924</v>
       </c>
       <c r="C43">
-        <v>37.2378926320486</v>
+        <v>31.1572282248477</v>
       </c>
       <c r="D43">
-        <v>46.216897454728</v>
+        <v>46.3454195200291</v>
       </c>
       <c r="E43">
-        <v>54.1311331877115</v>
+        <v>50.2431679768832</v>
       </c>
       <c r="F43">
-        <v>9.62923378651692</v>
+        <v>8.92377929580349</v>
       </c>
       <c r="G43">
-        <v>17.5771391742904</v>
+        <v>23.5287460507127</v>
       </c>
       <c r="H43">
-        <v>39.5175851641936</v>
+        <v>34.1231484055496</v>
       </c>
       <c r="I43">
-        <v>26.1428802519799</v>
+        <v>24.5301304066048</v>
       </c>
       <c r="J43">
-        <v>53.1749498413864</v>
+        <v>52.412490483571</v>
       </c>
       <c r="K43">
-        <v>48.2451130764635</v>
+        <v>47.8927558881213</v>
       </c>
       <c r="L43">
-        <v>42.6140361293619</v>
+        <v>44.7836082507346</v>
       </c>
       <c r="M43">
-        <v>115.413119699618</v>
+        <v>110.330384699068</v>
       </c>
       <c r="N43">
-        <v>40.2553373724538</v>
+        <v>46.5302272238556</v>
       </c>
       <c r="O43">
-        <v>1874.75054175105</v>
+        <v>1878.72538658295</v>
       </c>
       <c r="P43">
-        <v>44.8689432435394</v>
+        <v>46.9461380497883</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>5569.16543151074</v>
+        <v>5553.64965388765</v>
       </c>
       <c r="C44">
-        <v>113.272339102617</v>
+        <v>111.396666710827</v>
       </c>
       <c r="D44">
-        <v>39.0185134839928</v>
+        <v>37.6147112466552</v>
       </c>
       <c r="E44">
-        <v>82.95340253232619</v>
+        <v>79.0285143850065</v>
       </c>
       <c r="F44">
-        <v>200.170964687798</v>
+        <v>207.652108778647</v>
       </c>
       <c r="G44">
-        <v>122.25444633931</v>
+        <v>122.769508427496</v>
       </c>
       <c r="H44">
-        <v>36.6344245397932</v>
+        <v>38.3981659381634</v>
       </c>
       <c r="I44">
-        <v>38.5560242423788</v>
+        <v>39.5745205100236</v>
       </c>
       <c r="J44">
-        <v>108.627391653952</v>
+        <v>119.485701912736</v>
       </c>
       <c r="K44">
-        <v>69.50995314846701</v>
+        <v>66.69719567149041</v>
       </c>
       <c r="L44">
-        <v>177.742929418894</v>
+        <v>170.707545261793</v>
       </c>
       <c r="M44">
-        <v>96.59451492300251</v>
+        <v>96.34111970535091</v>
       </c>
       <c r="N44">
-        <v>85.45007361084581</v>
+        <v>91.3761846959375</v>
       </c>
       <c r="O44">
-        <v>7291.05517698715</v>
+        <v>7310.26671074109</v>
       </c>
       <c r="P44">
-        <v>202.87883179853</v>
+        <v>204.155853838447</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>509.750631657256</v>
+        <v>507.419012178749</v>
       </c>
       <c r="C45">
-        <v>18.238489123745</v>
+        <v>18.2502248777345</v>
       </c>
       <c r="D45">
-        <v>2.48510193081782</v>
+        <v>3.06563143847803</v>
       </c>
       <c r="E45">
-        <v>15.3189966968198</v>
+        <v>13.5902500009737</v>
       </c>
       <c r="F45">
-        <v>20.9435868553117</v>
+        <v>20.084365112153</v>
       </c>
       <c r="G45">
-        <v>5.88561828427279</v>
+        <v>6.84552883109138</v>
       </c>
       <c r="H45">
-        <v>1.54424434288583</v>
+        <v>2.84687149856124</v>
       </c>
       <c r="I45">
-        <v>2.8538158881385</v>
+        <v>3.94978771427825</v>
       </c>
       <c r="J45">
-        <v>24.7239690453083</v>
+        <v>21.8340834567625</v>
       </c>
       <c r="K45">
-        <v>4.71325164313886</v>
+        <v>5.45335585457172</v>
       </c>
       <c r="L45">
-        <v>16.5733368693345</v>
+        <v>14.3032631675097</v>
       </c>
       <c r="M45">
-        <v>16.613338806237</v>
+        <v>17.0313540975457</v>
       </c>
       <c r="N45">
-        <v>27.1677927939662</v>
+        <v>30.8529367253957</v>
       </c>
       <c r="O45">
-        <v>770.093913985541</v>
+        <v>781.479190557162</v>
       </c>
       <c r="P45">
-        <v>19.963591389084</v>
+        <v>18.8377418010532</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>142.922863907408</v>
+        <v>139.062122538826</v>
       </c>
       <c r="C46">
-        <v>3.12494003991718</v>
+        <v>3.43356817789094</v>
       </c>
       <c r="D46">
-        <v>0.835007686003589</v>
+        <v>1.1395118633463</v>
       </c>
       <c r="E46">
-        <v>5.2311081242252</v>
+        <v>4.72547625543892</v>
       </c>
       <c r="F46">
-        <v>0.979617370753806</v>
+        <v>0.917782590118075</v>
       </c>
       <c r="G46">
-        <v>1.98636175184459</v>
+        <v>2.26099566372351</v>
       </c>
       <c r="H46">
-        <v>2.34131273640859</v>
+        <v>2.37857264809056</v>
       </c>
       <c r="I46">
-        <v>1.92297017630519</v>
+        <v>2.14293708836895</v>
       </c>
       <c r="J46">
-        <v>4.24746143556112</v>
+        <v>4.25825436389194</v>
       </c>
       <c r="K46">
-        <v>4.36193159791554</v>
+        <v>3.7683982064975</v>
       </c>
       <c r="L46">
-        <v>10.1942155695422</v>
+        <v>10.8352830396943</v>
       </c>
       <c r="M46">
-        <v>2.46828947527369</v>
+        <v>2.62959120460701</v>
       </c>
       <c r="N46">
-        <v>7.84961387779153</v>
+        <v>7.32828178703533</v>
       </c>
       <c r="O46">
-        <v>225.814743449215</v>
+        <v>231.362056341945</v>
       </c>
       <c r="P46">
-        <v>11.3300988738363</v>
+        <v>10.8395770701841</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1877.71027276519</v>
+        <v>1869.67854415842</v>
       </c>
       <c r="C47">
-        <v>43.1078491104222</v>
+        <v>43.7121394487934</v>
       </c>
       <c r="D47">
-        <v>32.7804049962264</v>
+        <v>29.7141142758404</v>
       </c>
       <c r="E47">
-        <v>53.2812960975198</v>
+        <v>51.4525201678833</v>
       </c>
       <c r="F47">
-        <v>4.7648458550727</v>
+        <v>9.3296314513232</v>
       </c>
       <c r="G47">
-        <v>24.8485051529756</v>
+        <v>27.3259484295373</v>
       </c>
       <c r="H47">
-        <v>13.0416442946687</v>
+        <v>10.2999704758851</v>
       </c>
       <c r="I47">
-        <v>4.26894907388882</v>
+        <v>6.57523382923467</v>
       </c>
       <c r="J47">
-        <v>34.4532594299992</v>
+        <v>40.8095689746661</v>
       </c>
       <c r="K47">
-        <v>15.039422022083</v>
+        <v>12.7327536282505</v>
       </c>
       <c r="L47">
-        <v>42.6465026894175</v>
+        <v>39.5177078928799</v>
       </c>
       <c r="M47">
-        <v>63.2434742305934</v>
+        <v>65.0651298850879</v>
       </c>
       <c r="N47">
-        <v>41.743186838205</v>
+        <v>39.0922805903516</v>
       </c>
       <c r="O47">
-        <v>2653.69248426421</v>
+        <v>2670.15783186902</v>
       </c>
       <c r="P47">
-        <v>21.689189730119</v>
+        <v>24.4911927094794</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1663.14134492879</v>
+        <v>1644.98120654856</v>
       </c>
       <c r="C48">
-        <v>20.0869683791906</v>
+        <v>22.9826142773517</v>
       </c>
       <c r="D48">
-        <v>7.7784649889302</v>
+        <v>6.44739465900464</v>
       </c>
       <c r="E48">
-        <v>60.0756479452249</v>
+        <v>59.4197405008434</v>
       </c>
       <c r="F48">
-        <v>2.86795721023073</v>
+        <v>5.19038776736428</v>
       </c>
       <c r="G48">
-        <v>8.108583197990381</v>
+        <v>6.7239818241638</v>
       </c>
       <c r="H48">
-        <v>5.59328626550845</v>
+        <v>6.54870578754734</v>
       </c>
       <c r="I48">
-        <v>5.74687425246962</v>
+        <v>7.34128556774591</v>
       </c>
       <c r="J48">
-        <v>43.3187516020495</v>
+        <v>35.3087447682668</v>
       </c>
       <c r="K48">
-        <v>12.7189622152652</v>
+        <v>16.6422087407555</v>
       </c>
       <c r="L48">
-        <v>38.475850376286</v>
+        <v>46.1421935000992</v>
       </c>
       <c r="M48">
-        <v>108.611429216267</v>
+        <v>110.611117399822</v>
       </c>
       <c r="N48">
-        <v>28.6619008699764</v>
+        <v>27.6546659315629</v>
       </c>
       <c r="O48">
-        <v>2085.73935647287</v>
+        <v>2099.01762075533</v>
       </c>
       <c r="P48">
-        <v>74.0777506834383</v>
+        <v>81.0514316214967</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>682.530285353352</v>
+        <v>687.151736838539</v>
       </c>
       <c r="C49">
-        <v>6.41595538568851</v>
+        <v>5.22033662816915</v>
       </c>
       <c r="D49">
-        <v>2.72124088284794</v>
+        <v>3.29913003702062</v>
       </c>
       <c r="E49">
-        <v>18.7026584990379</v>
+        <v>18.182567629434</v>
       </c>
       <c r="F49">
-        <v>24.4958519699</v>
+        <v>24.6830803896288</v>
       </c>
       <c r="G49">
-        <v>16.0121558635737</v>
+        <v>15.0273606108943</v>
       </c>
       <c r="H49">
-        <v>7.19264162736372</v>
+        <v>5.60425762394661</v>
       </c>
       <c r="I49">
-        <v>5.67765166830448</v>
+        <v>5.93035731205399</v>
       </c>
       <c r="J49">
-        <v>17.1987031368961</v>
+        <v>18.5586831319749</v>
       </c>
       <c r="K49">
-        <v>5.38187965233713</v>
+        <v>5.38591877988228</v>
       </c>
       <c r="L49">
-        <v>1.32370329092597</v>
+        <v>1.44795442359922</v>
       </c>
       <c r="M49">
-        <v>4.94965573557357</v>
+        <v>4.47490942387071</v>
       </c>
       <c r="N49">
-        <v>3.45006799273169</v>
+        <v>4.57966847255244</v>
       </c>
       <c r="O49">
-        <v>528.990164960745</v>
+        <v>526.061105406703</v>
       </c>
       <c r="P49">
-        <v>7.03797594332828</v>
+        <v>5.92478919563333</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>1288.02291053998</v>
+        <v>1273.77159755041</v>
       </c>
       <c r="C50">
-        <v>70.8188586849183</v>
+        <v>66.3198192800016</v>
       </c>
       <c r="D50">
-        <v>16.699901944821</v>
+        <v>11.4233460802716</v>
       </c>
       <c r="E50">
-        <v>139.964855464886</v>
+        <v>131.720324675522</v>
       </c>
       <c r="F50">
-        <v>1.80026509085089</v>
+        <v>2.82738154393707</v>
       </c>
       <c r="G50">
-        <v>29.2012352655542</v>
+        <v>27.3647469350858</v>
       </c>
       <c r="H50">
-        <v>35.0429626430975</v>
+        <v>33.7187799489878</v>
       </c>
       <c r="I50">
-        <v>7.1574033576199</v>
+        <v>9.08569666335203</v>
       </c>
       <c r="J50">
-        <v>96.23066756798571</v>
+        <v>105.522233683436</v>
       </c>
       <c r="K50">
-        <v>84.2837033011329</v>
+        <v>81.5177600167393</v>
       </c>
       <c r="L50">
-        <v>56.378486680807</v>
+        <v>55.9255623132444</v>
       </c>
       <c r="M50">
-        <v>38.7789758723446</v>
+        <v>38.9342330660356</v>
       </c>
       <c r="N50">
-        <v>55.3323263630401</v>
+        <v>55.490262017033</v>
       </c>
       <c r="O50">
-        <v>1825.5413061571</v>
+        <v>1837.92510611983</v>
       </c>
       <c r="P50">
-        <v>85.72018201140359</v>
+        <v>90.6759933838442</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>119.651379793558</v>
+        <v>121.938060046378</v>
       </c>
       <c r="C51">
-        <v>2.35912583379293</v>
+        <v>2.4708654315078</v>
       </c>
       <c r="D51">
-        <v>0.08474774228207679</v>
+        <v>0.0592058028441622</v>
       </c>
       <c r="E51">
-        <v>1.37934547419548</v>
+        <v>2.02302628389709</v>
       </c>
       <c r="F51">
-        <v>21.1652256476734</v>
+        <v>20.730350233447</v>
       </c>
       <c r="G51">
-        <v>2.31431781668219</v>
+        <v>1.85224312391965</v>
       </c>
       <c r="H51">
-        <v>0.0157150619101192</v>
+        <v>0.00930501981514641</v>
       </c>
       <c r="I51">
-        <v>0.775169012272497</v>
+        <v>0.740439307695662</v>
       </c>
       <c r="J51">
-        <v>1.46791452941061</v>
+        <v>1.23931722489686</v>
       </c>
       <c r="K51">
-        <v>0.496854595097892</v>
+        <v>0.58249203106343</v>
       </c>
       <c r="L51">
-        <v>0.248513552696298</v>
+        <v>0.295828016435952</v>
       </c>
       <c r="M51">
-        <v>0.273051491241417</v>
+        <v>0.313004822950822</v>
       </c>
       <c r="N51">
-        <v>0.6894517891199931</v>
+        <v>0.628713270401368</v>
       </c>
       <c r="O51">
-        <v>178.461054756913</v>
+        <v>179.380486437345</v>
       </c>
       <c r="P51">
-        <v>15.2791667714343</v>
+        <v>14.8684728460378</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2002.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2002.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>1434.01603052619</v>
+        <v>1362.38209339067</v>
       </c>
       <c r="C2">
-        <v>27.6739583273037</v>
+        <v>24.9860960885914</v>
       </c>
       <c r="D2">
-        <v>48.635593361942</v>
+        <v>50.7982126317531</v>
       </c>
       <c r="E2">
-        <v>56.8074732083187</v>
+        <v>59.4010410061988</v>
       </c>
       <c r="F2">
-        <v>18.7950520256272</v>
+        <v>21.6711734335772</v>
       </c>
       <c r="G2">
-        <v>14.9020693884068</v>
+        <v>15.2941820940902</v>
       </c>
       <c r="H2">
-        <v>24.5861812134374</v>
+        <v>26.2652310027314</v>
       </c>
       <c r="I2">
-        <v>13.0646528602225</v>
+        <v>11.7886057348531</v>
       </c>
       <c r="J2">
-        <v>63.2682483894504</v>
+        <v>64.0575117150082</v>
       </c>
       <c r="K2">
-        <v>15.9122323291279</v>
+        <v>16.9540324280246</v>
       </c>
       <c r="L2">
-        <v>33.3077189731184</v>
+        <v>37.9614419527332</v>
       </c>
       <c r="M2">
-        <v>40.3265410251515</v>
+        <v>42.0878491258266</v>
       </c>
       <c r="N2">
-        <v>26.4856996968311</v>
+        <v>25.0346188820873</v>
       </c>
       <c r="O2">
-        <v>1312.81648374426</v>
+        <v>1377.99782796134</v>
       </c>
       <c r="P2">
-        <v>26.6199596860533</v>
+        <v>23.5991805998629</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>128.99109330046</v>
+        <v>114.422327748967</v>
       </c>
       <c r="C3">
-        <v>4.13448924568242</v>
+        <v>3.92784294596011</v>
       </c>
       <c r="D3">
-        <v>0.212098892438596</v>
+        <v>0.242827006591626</v>
       </c>
       <c r="E3">
-        <v>1.3972036595995</v>
+        <v>1.12127896630287</v>
       </c>
       <c r="F3">
-        <v>7.63761894345647</v>
+        <v>8.22329564739597</v>
       </c>
       <c r="G3">
-        <v>0.236525081442862</v>
+        <v>0.280516689060624</v>
       </c>
       <c r="H3">
-        <v>0.01056601526489</v>
+        <v>0.0171218319101368</v>
       </c>
       <c r="I3">
-        <v>0.359623123973208</v>
+        <v>0.46833745713056</v>
       </c>
       <c r="J3">
-        <v>0.365061640247136</v>
+        <v>0.394749963450447</v>
       </c>
       <c r="K3">
-        <v>0.276312104030754</v>
+        <v>0.117336679396505</v>
       </c>
       <c r="L3">
-        <v>0.199451790939968</v>
+        <v>0.108889888363121</v>
       </c>
       <c r="M3">
-        <v>0.505949216408735</v>
+        <v>0.63635293539341</v>
       </c>
       <c r="N3">
-        <v>0.744014173609245</v>
+        <v>0.857079890741862</v>
       </c>
       <c r="O3">
-        <v>221.162669754415</v>
+        <v>238.31761932305</v>
       </c>
       <c r="P3">
-        <v>10.0913311678876</v>
+        <v>8.999863900446391</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>1565.09840287021</v>
+        <v>1369.63319009915</v>
       </c>
       <c r="C4">
-        <v>6.80577993947626</v>
+        <v>7.19509042974935</v>
       </c>
       <c r="D4">
-        <v>2.56236787808492</v>
+        <v>3.6023474975571</v>
       </c>
       <c r="E4">
-        <v>23.0555207235381</v>
+        <v>24.7778703227956</v>
       </c>
       <c r="F4">
-        <v>10.7557343085261</v>
+        <v>9.67197314761807</v>
       </c>
       <c r="G4">
-        <v>7.05421563415679</v>
+        <v>8.02019934071391</v>
       </c>
       <c r="H4">
-        <v>10.936391033991</v>
+        <v>11.6345700947</v>
       </c>
       <c r="I4">
-        <v>10.5448304748679</v>
+        <v>10.5172948236268</v>
       </c>
       <c r="J4">
-        <v>22.7495921001902</v>
+        <v>28.3036293086176</v>
       </c>
       <c r="K4">
-        <v>4.9098427913168</v>
+        <v>4.96581097814582</v>
       </c>
       <c r="L4">
-        <v>68.8968993357099</v>
+        <v>76.601603478831</v>
       </c>
       <c r="M4">
-        <v>43.6315371956454</v>
+        <v>48.0269807247678</v>
       </c>
       <c r="N4">
-        <v>22.7616888648639</v>
+        <v>32.0504309901974</v>
       </c>
       <c r="O4">
-        <v>1874.09733538603</v>
+        <v>2031.16483771549</v>
       </c>
       <c r="P4">
-        <v>31.9243466884847</v>
+        <v>30.4699202240115</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>851.564107191404</v>
+        <v>749.945541046664</v>
       </c>
       <c r="C5">
-        <v>45.8550828033659</v>
+        <v>49.3690348363027</v>
       </c>
       <c r="D5">
-        <v>11.7606145707226</v>
+        <v>12.9555014533719</v>
       </c>
       <c r="E5">
-        <v>36.3122795131676</v>
+        <v>37.109673400977</v>
       </c>
       <c r="F5">
-        <v>4.10168042990169</v>
+        <v>4.59630711750084</v>
       </c>
       <c r="G5">
-        <v>5.05043879179712</v>
+        <v>5.32196866605456</v>
       </c>
       <c r="H5">
-        <v>11.835377590957</v>
+        <v>12.8910895163708</v>
       </c>
       <c r="I5">
-        <v>6.90376844065587</v>
+        <v>7.40781441534619</v>
       </c>
       <c r="J5">
-        <v>30.5021001809444</v>
+        <v>32.0511744224323</v>
       </c>
       <c r="K5">
-        <v>15.1768650736068</v>
+        <v>15.5912867218545</v>
       </c>
       <c r="L5">
-        <v>16.3792460670892</v>
+        <v>19.3658756196392</v>
       </c>
       <c r="M5">
-        <v>17.8592515802366</v>
+        <v>19.8370253794989</v>
       </c>
       <c r="N5">
-        <v>22.0571639260573</v>
+        <v>22.560234111679</v>
       </c>
       <c r="O5">
-        <v>798.672582003879</v>
+        <v>889.965636583705</v>
       </c>
       <c r="P5">
-        <v>45.8255072957068</v>
+        <v>49.3844506584645</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>9562.40515233258</v>
+        <v>8415.603434795779</v>
       </c>
       <c r="C6">
-        <v>170.48568344751</v>
+        <v>207.641077008564</v>
       </c>
       <c r="D6">
-        <v>107.322010658999</v>
+        <v>133.870248714002</v>
       </c>
       <c r="E6">
-        <v>120.31267816981</v>
+        <v>137.438757099775</v>
       </c>
       <c r="F6">
-        <v>40.7041490500457</v>
+        <v>45.0707814760988</v>
       </c>
       <c r="G6">
-        <v>93.6624722512733</v>
+        <v>105.305244595765</v>
       </c>
       <c r="H6">
-        <v>52.771686207132</v>
+        <v>64.2551396902349</v>
       </c>
       <c r="I6">
-        <v>46.1825758912205</v>
+        <v>50.2080201601942</v>
       </c>
       <c r="J6">
-        <v>154.604940133139</v>
+        <v>180.569300448527</v>
       </c>
       <c r="K6">
-        <v>81.2973150195206</v>
+        <v>98.9126290980191</v>
       </c>
       <c r="L6">
-        <v>467.496523783661</v>
+        <v>532.764155408757</v>
       </c>
       <c r="M6">
-        <v>220.839556944174</v>
+        <v>251.565147096949</v>
       </c>
       <c r="N6">
-        <v>236.380970888672</v>
+        <v>262.311266046819</v>
       </c>
       <c r="O6">
-        <v>11643.5099435087</v>
+        <v>12519.3715513226</v>
       </c>
       <c r="P6">
-        <v>299.153669595332</v>
+        <v>304.740186524441</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>1023.78297015733</v>
+        <v>881.595282213471</v>
       </c>
       <c r="C7">
-        <v>35.0307254015486</v>
+        <v>35.9935700763172</v>
       </c>
       <c r="D7">
-        <v>3.83894019527466</v>
+        <v>4.42832075767647</v>
       </c>
       <c r="E7">
-        <v>17.2265484419929</v>
+        <v>17.0923406424116</v>
       </c>
       <c r="F7">
-        <v>16.7565865009101</v>
+        <v>16.5830486753384</v>
       </c>
       <c r="G7">
-        <v>6.38189542260261</v>
+        <v>6.60732577835593</v>
       </c>
       <c r="H7">
-        <v>4.80190466256088</v>
+        <v>6.36277124154583</v>
       </c>
       <c r="I7">
-        <v>7.34077590485382</v>
+        <v>7.97994136446591</v>
       </c>
       <c r="J7">
-        <v>18.6581620234218</v>
+        <v>20.3180605683384</v>
       </c>
       <c r="K7">
-        <v>9.29637253540095</v>
+        <v>11.5516924896731</v>
       </c>
       <c r="L7">
-        <v>56.3496997800363</v>
+        <v>63.3930032081073</v>
       </c>
       <c r="M7">
-        <v>12.9503268113972</v>
+        <v>14.5791251108935</v>
       </c>
       <c r="N7">
-        <v>29.6739009029716</v>
+        <v>30.7215118632023</v>
       </c>
       <c r="O7">
-        <v>1764.66385316247</v>
+        <v>1886.23986222229</v>
       </c>
       <c r="P7">
-        <v>28.7815745092102</v>
+        <v>23.1975717694374</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>838.599037785341</v>
+        <v>715.542360531526</v>
       </c>
       <c r="C8">
-        <v>11.8471667762668</v>
+        <v>10.4259616246433</v>
       </c>
       <c r="D8">
-        <v>5.1765379596481</v>
+        <v>5.37484732620631</v>
       </c>
       <c r="E8">
-        <v>16.9715986224449</v>
+        <v>18.8392909966588</v>
       </c>
       <c r="F8">
-        <v>2.03745823530871</v>
+        <v>1.70477994430018</v>
       </c>
       <c r="G8">
-        <v>27.7379088675655</v>
+        <v>31.4165403848686</v>
       </c>
       <c r="H8">
-        <v>7.539911081883</v>
+        <v>8.084917149023751</v>
       </c>
       <c r="I8">
-        <v>4.65851506713802</v>
+        <v>4.72284517676407</v>
       </c>
       <c r="J8">
-        <v>33.6040431777644</v>
+        <v>37.3159467977082</v>
       </c>
       <c r="K8">
-        <v>22.6604932282056</v>
+        <v>24.8885587591542</v>
       </c>
       <c r="L8">
-        <v>42.406263264422</v>
+        <v>46.404239421648</v>
       </c>
       <c r="M8">
-        <v>44.4228665452161</v>
+        <v>45.7035200300755</v>
       </c>
       <c r="N8">
-        <v>27.1283589479535</v>
+        <v>30.8816725472754</v>
       </c>
       <c r="O8">
-        <v>1304.21167000078</v>
+        <v>1402.79547175785</v>
       </c>
       <c r="P8">
-        <v>2.2235253064621</v>
+        <v>2.89370530716716</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>211.735207736447</v>
+        <v>176.300072164151</v>
       </c>
       <c r="C9">
-        <v>6.2235745087163</v>
+        <v>7.47293633206376</v>
       </c>
       <c r="D9">
-        <v>2.02511892763039</v>
+        <v>2.50333781081007</v>
       </c>
       <c r="E9">
-        <v>3.39551764522664</v>
+        <v>3.35362745936794</v>
       </c>
       <c r="F9">
-        <v>1.70678795184343</v>
+        <v>1.35631868494016</v>
       </c>
       <c r="G9">
-        <v>16.9009764116373</v>
+        <v>18.8441743432945</v>
       </c>
       <c r="H9">
-        <v>2.85723628008327</v>
+        <v>3.49031514694123</v>
       </c>
       <c r="I9">
-        <v>0.7390620499109291</v>
+        <v>0.886014957425003</v>
       </c>
       <c r="J9">
-        <v>3.619630903435</v>
+        <v>4.09005034534034</v>
       </c>
       <c r="K9">
-        <v>2.05127489956437</v>
+        <v>2.55969917763208</v>
       </c>
       <c r="L9">
-        <v>3.12706713717027</v>
+        <v>3.4496422734736</v>
       </c>
       <c r="M9">
-        <v>6.42014230666416</v>
+        <v>6.83734083349984</v>
       </c>
       <c r="N9">
-        <v>4.00814541597435</v>
+        <v>4.73405917305059</v>
       </c>
       <c r="O9">
-        <v>292.212775052174</v>
+        <v>321.866320550959</v>
       </c>
       <c r="P9">
-        <v>4.65088214309756</v>
+        <v>4.90455105298816</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>5462.25179538361</v>
+        <v>4616.64644382451</v>
       </c>
       <c r="C10">
-        <v>59.204769937803</v>
+        <v>74.022180285872</v>
       </c>
       <c r="D10">
-        <v>25.7121008289735</v>
+        <v>32.8827165906881</v>
       </c>
       <c r="E10">
-        <v>40.2766235812908</v>
+        <v>46.2879201633685</v>
       </c>
       <c r="F10">
-        <v>6.99018352537288</v>
+        <v>8.38254843769468</v>
       </c>
       <c r="G10">
-        <v>26.2816101265882</v>
+        <v>35.3363129945422</v>
       </c>
       <c r="H10">
-        <v>18.5313749963967</v>
+        <v>20.2368066258463</v>
       </c>
       <c r="I10">
-        <v>36.4587352555056</v>
+        <v>42.9220585532831</v>
       </c>
       <c r="J10">
-        <v>49.7924039579679</v>
+        <v>59.341783109829</v>
       </c>
       <c r="K10">
-        <v>28.3802736227787</v>
+        <v>26.1239225199486</v>
       </c>
       <c r="L10">
-        <v>75.6062568115785</v>
+        <v>84.3617964371654</v>
       </c>
       <c r="M10">
-        <v>71.4910134625958</v>
+        <v>72.0447873824304</v>
       </c>
       <c r="N10">
-        <v>79.082791844234</v>
+        <v>88.16273345447961</v>
       </c>
       <c r="O10">
-        <v>5982.51469357325</v>
+        <v>6732.74679724972</v>
       </c>
       <c r="P10">
-        <v>73.883206749389</v>
+        <v>79.7050281674217</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>2212.0690752334</v>
+        <v>1918.45119669057</v>
       </c>
       <c r="C11">
-        <v>80.4026156887704</v>
+        <v>82.3574746081359</v>
       </c>
       <c r="D11">
-        <v>141.714571995731</v>
+        <v>139.22897599073</v>
       </c>
       <c r="E11">
-        <v>71.564987206393</v>
+        <v>75.9709303933443</v>
       </c>
       <c r="F11">
-        <v>3.86090577495575</v>
+        <v>2.19536347036532</v>
       </c>
       <c r="G11">
-        <v>26.7480941466775</v>
+        <v>28.3074690673212</v>
       </c>
       <c r="H11">
-        <v>13.259991633944</v>
+        <v>14.4578873572878</v>
       </c>
       <c r="I11">
-        <v>18.3320322180859</v>
+        <v>18.8823743837205</v>
       </c>
       <c r="J11">
-        <v>49.3545774258421</v>
+        <v>45.9265251076179</v>
       </c>
       <c r="K11">
-        <v>21.966678739134</v>
+        <v>23.4466770909079</v>
       </c>
       <c r="L11">
-        <v>61.4965242705411</v>
+        <v>63.1909021888981</v>
       </c>
       <c r="M11">
-        <v>48.2411655949237</v>
+        <v>46.658918403997</v>
       </c>
       <c r="N11">
-        <v>49.8667443466593</v>
+        <v>54.901109918459</v>
       </c>
       <c r="O11">
-        <v>2850.82308148224</v>
+        <v>3157.26435617569</v>
       </c>
       <c r="P11">
-        <v>47.0309925895312</v>
+        <v>49.0495942524181</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>337.284224095558</v>
+        <v>274.928723616088</v>
       </c>
       <c r="C12">
-        <v>7.90916057116444</v>
+        <v>8.138578712608661</v>
       </c>
       <c r="D12">
-        <v>1.23061979027938</v>
+        <v>1.5519355963845</v>
       </c>
       <c r="E12">
-        <v>1.05137947923838</v>
+        <v>1.25879992796709</v>
       </c>
       <c r="F12">
-        <v>0.82409896918097</v>
+        <v>0.958392953850146</v>
       </c>
       <c r="G12">
-        <v>0.409635521465693</v>
+        <v>0.252940664626418</v>
       </c>
       <c r="H12">
-        <v>0.013912584383448</v>
+        <v>0.0128026986807004</v>
       </c>
       <c r="I12">
-        <v>0.79595343433176</v>
+        <v>0.991410074972735</v>
       </c>
       <c r="J12">
-        <v>1.93770388976254</v>
+        <v>2.20422444954327</v>
       </c>
       <c r="K12">
-        <v>0.475869089769399</v>
+        <v>0.113266035145482</v>
       </c>
       <c r="L12">
-        <v>0.333250804419463</v>
+        <v>0.215277692991219</v>
       </c>
       <c r="M12">
-        <v>3.1444673205048</v>
+        <v>3.71253669751553</v>
       </c>
       <c r="N12">
-        <v>2.44983638195624</v>
+        <v>3.76194445044939</v>
       </c>
       <c r="O12">
-        <v>469.781500208472</v>
+        <v>523.072432250638</v>
       </c>
       <c r="P12">
-        <v>11.6800326372256</v>
+        <v>14.6809885588368</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>326.98419002071</v>
+        <v>261.300246509937</v>
       </c>
       <c r="C13">
-        <v>15.9973142350619</v>
+        <v>17.1194024824189</v>
       </c>
       <c r="D13">
-        <v>0.520974060898477</v>
+        <v>0.512903048517356</v>
       </c>
       <c r="E13">
-        <v>11.1725170403885</v>
+        <v>10.5788669094035</v>
       </c>
       <c r="F13">
-        <v>3.51731136958314</v>
+        <v>2.59892424309297</v>
       </c>
       <c r="G13">
-        <v>5.3784165734964</v>
+        <v>4.86807855844022</v>
       </c>
       <c r="H13">
-        <v>0.940600998166709</v>
+        <v>1.15164167530048</v>
       </c>
       <c r="I13">
-        <v>1.17294822109966</v>
+        <v>1.23609144172386</v>
       </c>
       <c r="J13">
-        <v>4.56578075807847</v>
+        <v>5.44003531692454</v>
       </c>
       <c r="K13">
-        <v>2.82233410215978</v>
+        <v>3.35986728375882</v>
       </c>
       <c r="L13">
-        <v>20.0562704189504</v>
+        <v>23.8279582604235</v>
       </c>
       <c r="M13">
-        <v>1.00682680381725</v>
+        <v>0.782420049009663</v>
       </c>
       <c r="N13">
-        <v>4.8054845802558</v>
+        <v>5.66517582468081</v>
       </c>
       <c r="O13">
-        <v>448.533846094002</v>
+        <v>496.675646398937</v>
       </c>
       <c r="P13">
-        <v>44.1656757249971</v>
+        <v>42.3234081309197</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>3381.59329105159</v>
+        <v>2894.89092086496</v>
       </c>
       <c r="C14">
-        <v>114.582592047052</v>
+        <v>124.509545146455</v>
       </c>
       <c r="D14">
-        <v>10.1630487227513</v>
+        <v>10.9308400697219</v>
       </c>
       <c r="E14">
-        <v>79.0818931869625</v>
+        <v>84.41037824200851</v>
       </c>
       <c r="F14">
-        <v>20.2232685694901</v>
+        <v>19.839827569878</v>
       </c>
       <c r="G14">
-        <v>81.7236381422934</v>
+        <v>91.682678221736</v>
       </c>
       <c r="H14">
-        <v>46.1884369562758</v>
+        <v>44.9807813561491</v>
       </c>
       <c r="I14">
-        <v>25.5480073470703</v>
+        <v>27.2023038022401</v>
       </c>
       <c r="J14">
-        <v>136.108285882083</v>
+        <v>138.637609336852</v>
       </c>
       <c r="K14">
-        <v>132.817091335567</v>
+        <v>149.01543271891</v>
       </c>
       <c r="L14">
-        <v>119.406891193889</v>
+        <v>128.461577431642</v>
       </c>
       <c r="M14">
-        <v>77.0741645081839</v>
+        <v>75.44599720141891</v>
       </c>
       <c r="N14">
-        <v>86.2835596244602</v>
+        <v>93.67708970016111</v>
       </c>
       <c r="O14">
-        <v>4236.8978071802</v>
+        <v>4665.67170353609</v>
       </c>
       <c r="P14">
-        <v>64.3073904366977</v>
+        <v>55.9322430911478</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>1585.4200425803</v>
+        <v>1375.57933569608</v>
       </c>
       <c r="C15">
-        <v>29.100411967641</v>
+        <v>31.1734631494497</v>
       </c>
       <c r="D15">
-        <v>11.9346645867151</v>
+        <v>13.5490050891101</v>
       </c>
       <c r="E15">
-        <v>71.23539077262021</v>
+        <v>75.4827313477838</v>
       </c>
       <c r="F15">
-        <v>17.2820681776967</v>
+        <v>20.1358459155095</v>
       </c>
       <c r="G15">
-        <v>36.5979522915567</v>
+        <v>41.0124203131847</v>
       </c>
       <c r="H15">
-        <v>46.848647434471</v>
+        <v>48.4054585716569</v>
       </c>
       <c r="I15">
-        <v>22.059715312793</v>
+        <v>22.6684836784761</v>
       </c>
       <c r="J15">
-        <v>137.52541315525</v>
+        <v>145.679657318732</v>
       </c>
       <c r="K15">
-        <v>50.397239569464</v>
+        <v>51.2582462332801</v>
       </c>
       <c r="L15">
-        <v>36.0956761812903</v>
+        <v>38.5132005577311</v>
       </c>
       <c r="M15">
-        <v>167.998150516405</v>
+        <v>170.558683811844</v>
       </c>
       <c r="N15">
-        <v>87.14923360230991</v>
+        <v>89.7931367403711</v>
       </c>
       <c r="O15">
-        <v>1932.46800176627</v>
+        <v>2104.94513286094</v>
       </c>
       <c r="P15">
-        <v>42.1285325322372</v>
+        <v>49.2373575389716</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>692.868558729873</v>
+        <v>567.94094484402</v>
       </c>
       <c r="C16">
-        <v>59.3746502086175</v>
+        <v>62.2262811933237</v>
       </c>
       <c r="D16">
-        <v>5.1876592338382</v>
+        <v>4.81270760022421</v>
       </c>
       <c r="E16">
-        <v>21.6944903628024</v>
+        <v>20.7400335451946</v>
       </c>
       <c r="F16">
-        <v>3.18265917783124</v>
+        <v>2.84225966051693</v>
       </c>
       <c r="G16">
-        <v>13.9820119580209</v>
+        <v>16.2440911229479</v>
       </c>
       <c r="H16">
-        <v>12.3000620571764</v>
+        <v>12.8798838513596</v>
       </c>
       <c r="I16">
-        <v>6.94031546580422</v>
+        <v>6.50529504362095</v>
       </c>
       <c r="J16">
-        <v>43.2363633904913</v>
+        <v>44.3395587488335</v>
       </c>
       <c r="K16">
-        <v>48.4135053461339</v>
+        <v>54.0223693505671</v>
       </c>
       <c r="L16">
-        <v>26.7065504497239</v>
+        <v>27.6058632533874</v>
       </c>
       <c r="M16">
-        <v>23.9461056015397</v>
+        <v>23.6616834385963</v>
       </c>
       <c r="N16">
-        <v>24.2526772856251</v>
+        <v>28.7899998560627</v>
       </c>
       <c r="O16">
-        <v>996.035683632237</v>
+        <v>1106.70385782416</v>
       </c>
       <c r="P16">
-        <v>72.8173839290826</v>
+        <v>73.02898244673629</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>643.209551680755</v>
+        <v>531.2082745632411</v>
       </c>
       <c r="C17">
-        <v>21.0108509374391</v>
+        <v>22.9096093624242</v>
       </c>
       <c r="D17">
-        <v>3.21771679071007</v>
+        <v>2.42074546940819</v>
       </c>
       <c r="E17">
-        <v>17.0629085701498</v>
+        <v>20.2624382625406</v>
       </c>
       <c r="F17">
-        <v>10.3635799585451</v>
+        <v>9.20903265361599</v>
       </c>
       <c r="G17">
-        <v>6.38284834975835</v>
+        <v>7.20876513653818</v>
       </c>
       <c r="H17">
-        <v>5.7328574753077</v>
+        <v>6.9956229695596</v>
       </c>
       <c r="I17">
-        <v>6.45358847664788</v>
+        <v>6.56019817051125</v>
       </c>
       <c r="J17">
-        <v>16.9232519968471</v>
+        <v>17.1609026946885</v>
       </c>
       <c r="K17">
-        <v>10.9370678212711</v>
+        <v>12.369926824938</v>
       </c>
       <c r="L17">
-        <v>9.529104709614071</v>
+        <v>10.6527002937942</v>
       </c>
       <c r="M17">
-        <v>63.5007713253224</v>
+        <v>71.945883747037</v>
       </c>
       <c r="N17">
-        <v>11.4606107172996</v>
+        <v>12.1470564463703</v>
       </c>
       <c r="O17">
-        <v>975.185614812774</v>
+        <v>1066.82663337951</v>
       </c>
       <c r="P17">
-        <v>49.686082868552</v>
+        <v>39.3362107968118</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>1230.17541858592</v>
+        <v>1110.33125419939</v>
       </c>
       <c r="C18">
-        <v>28.1245186559336</v>
+        <v>32.4153531936226</v>
       </c>
       <c r="D18">
-        <v>7.22509110247298</v>
+        <v>7.78282497716163</v>
       </c>
       <c r="E18">
-        <v>39.5969113252542</v>
+        <v>39.4104579110029</v>
       </c>
       <c r="F18">
-        <v>29.1094088447168</v>
+        <v>29.8623946388938</v>
       </c>
       <c r="G18">
-        <v>24.8530252286685</v>
+        <v>25.3877292315222</v>
       </c>
       <c r="H18">
-        <v>18.1634304249062</v>
+        <v>18.2344928772222</v>
       </c>
       <c r="I18">
-        <v>5.58827817072479</v>
+        <v>5.78221245338114</v>
       </c>
       <c r="J18">
-        <v>38.9939954230008</v>
+        <v>42.1440780593777</v>
       </c>
       <c r="K18">
-        <v>22.9771023040744</v>
+        <v>21.4251459219616</v>
       </c>
       <c r="L18">
-        <v>27.3674029772001</v>
+        <v>33.7903907282275</v>
       </c>
       <c r="M18">
-        <v>60.7485286317138</v>
+        <v>65.34508220248669</v>
       </c>
       <c r="N18">
-        <v>19.4510710899628</v>
+        <v>19.1039739091816</v>
       </c>
       <c r="O18">
-        <v>1287.63565248718</v>
+        <v>1387.65844839225</v>
       </c>
       <c r="P18">
-        <v>46.9632339249265</v>
+        <v>54.2105005104185</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>1388.50731608523</v>
+        <v>1271.16643011565</v>
       </c>
       <c r="C19">
-        <v>25.0910907499874</v>
+        <v>29.0091877690401</v>
       </c>
       <c r="D19">
-        <v>12.6792122295312</v>
+        <v>12.3640867817933</v>
       </c>
       <c r="E19">
-        <v>33.6409765080469</v>
+        <v>33.1595053895468</v>
       </c>
       <c r="F19">
-        <v>87.64081910838669</v>
+        <v>93.459591798719</v>
       </c>
       <c r="G19">
-        <v>37.8797331403626</v>
+        <v>40.651320581305</v>
       </c>
       <c r="H19">
-        <v>5.16746147029014</v>
+        <v>4.70699783752748</v>
       </c>
       <c r="I19">
-        <v>2.07210317552582</v>
+        <v>3.32090352058285</v>
       </c>
       <c r="J19">
-        <v>15.1451636829747</v>
+        <v>12.3824696625114</v>
       </c>
       <c r="K19">
-        <v>12.6559715169906</v>
+        <v>13.3632518438598</v>
       </c>
       <c r="L19">
-        <v>2.04704239311776</v>
+        <v>2.45814104979966</v>
       </c>
       <c r="M19">
-        <v>26.5296420197127</v>
+        <v>32.4079661405514</v>
       </c>
       <c r="N19">
-        <v>11.7491654146977</v>
+        <v>11.6613800842928</v>
       </c>
       <c r="O19">
-        <v>1381.27322359212</v>
+        <v>1485.20257487566</v>
       </c>
       <c r="P19">
-        <v>33.747711949029</v>
+        <v>35.5489937565805</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>352.519149488668</v>
+        <v>301.493990700529</v>
       </c>
       <c r="C20">
-        <v>7.38076654368787</v>
+        <v>8.39041014173911</v>
       </c>
       <c r="D20">
-        <v>9.38428136089348</v>
+        <v>9.04990557671233</v>
       </c>
       <c r="E20">
-        <v>32.965171310985</v>
+        <v>33.0996414876646</v>
       </c>
       <c r="F20">
-        <v>0.6016375493031561</v>
+        <v>0.647131745379148</v>
       </c>
       <c r="G20">
-        <v>1.61183297478958</v>
+        <v>1.95768321684758</v>
       </c>
       <c r="H20">
-        <v>1.4310971187707</v>
+        <v>1.37453742618998</v>
       </c>
       <c r="I20">
-        <v>1.73781875907452</v>
+        <v>2.05213371821788</v>
       </c>
       <c r="J20">
-        <v>3.3962889303689</v>
+        <v>3.49321783560502</v>
       </c>
       <c r="K20">
-        <v>3.28517951459534</v>
+        <v>3.44101036330231</v>
       </c>
       <c r="L20">
-        <v>8.12633147282698</v>
+        <v>9.4617127833257</v>
       </c>
       <c r="M20">
-        <v>15.7542607173989</v>
+        <v>19.834433761366</v>
       </c>
       <c r="N20">
-        <v>4.5192933562257</v>
+        <v>4.77830950689429</v>
       </c>
       <c r="O20">
-        <v>472.994041429479</v>
+        <v>519.606002100717</v>
       </c>
       <c r="P20">
-        <v>19.3842677543501</v>
+        <v>19.3723782903342</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>1429.13467786062</v>
+        <v>1164.15471365862</v>
       </c>
       <c r="C21">
-        <v>22.0848541833005</v>
+        <v>20.0646288729218</v>
       </c>
       <c r="D21">
-        <v>5.85966104017691</v>
+        <v>4.58025365413315</v>
       </c>
       <c r="E21">
-        <v>18.4534376685696</v>
+        <v>20.1186732333232</v>
       </c>
       <c r="F21">
-        <v>4.44949821089695</v>
+        <v>4.58809744040365</v>
       </c>
       <c r="G21">
-        <v>19.6789225222334</v>
+        <v>24.8848501337528</v>
       </c>
       <c r="H21">
-        <v>4.84100100083192</v>
+        <v>3.07545988931947</v>
       </c>
       <c r="I21">
-        <v>6.53015304157664</v>
+        <v>7.49353376413046</v>
       </c>
       <c r="J21">
-        <v>30.2567790695569</v>
+        <v>32.5149544035037</v>
       </c>
       <c r="K21">
-        <v>3.69041079989066</v>
+        <v>4.00956476153567</v>
       </c>
       <c r="L21">
-        <v>23.6762377096843</v>
+        <v>27.4050753689945</v>
       </c>
       <c r="M21">
-        <v>30.9001361846605</v>
+        <v>34.0478702623738</v>
       </c>
       <c r="N21">
-        <v>23.8413628712431</v>
+        <v>21.0358858542607</v>
       </c>
       <c r="O21">
-        <v>2067.89176427788</v>
+        <v>2292.90600034043</v>
       </c>
       <c r="P21">
-        <v>19.2663829397167</v>
+        <v>20.4623583519395</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>1681.87203229621</v>
+        <v>1391.23967088055</v>
       </c>
       <c r="C22">
-        <v>12.8652970887233</v>
+        <v>13.2042561164736</v>
       </c>
       <c r="D22">
-        <v>18.5177747896961</v>
+        <v>23.2208789049651</v>
       </c>
       <c r="E22">
-        <v>41.2854626324453</v>
+        <v>44.1063927860072</v>
       </c>
       <c r="F22">
-        <v>2.32889132347818</v>
+        <v>2.51634086562306</v>
       </c>
       <c r="G22">
-        <v>25.7026093496844</v>
+        <v>29.0685882663385</v>
       </c>
       <c r="H22">
-        <v>18.7652251804351</v>
+        <v>20.1528797199174</v>
       </c>
       <c r="I22">
-        <v>10.2483839095911</v>
+        <v>11.1202789826215</v>
       </c>
       <c r="J22">
-        <v>41.4779469290689</v>
+        <v>42.3120209684483</v>
       </c>
       <c r="K22">
-        <v>20.0479565694516</v>
+        <v>20.8138174872038</v>
       </c>
       <c r="L22">
-        <v>109.064525891816</v>
+        <v>126.299242949227</v>
       </c>
       <c r="M22">
-        <v>17.3590445900892</v>
+        <v>15.9322840869376</v>
       </c>
       <c r="N22">
-        <v>62.7414489869645</v>
+        <v>68.2173886364387</v>
       </c>
       <c r="O22">
-        <v>2377.29776872167</v>
+        <v>2630.81165318284</v>
       </c>
       <c r="P22">
-        <v>12.3312431262862</v>
+        <v>10.0067841480526</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>2756.18826364477</v>
+        <v>2466.24660369831</v>
       </c>
       <c r="C23">
-        <v>33.4521194310262</v>
+        <v>39.8190956080377</v>
       </c>
       <c r="D23">
-        <v>11.632538597989</v>
+        <v>10.5642440265313</v>
       </c>
       <c r="E23">
-        <v>42.8713604197748</v>
+        <v>42.8575979603403</v>
       </c>
       <c r="F23">
-        <v>4.55904653663277</v>
+        <v>6.36578911897836</v>
       </c>
       <c r="G23">
-        <v>50.0378867724267</v>
+        <v>52.6061732821895</v>
       </c>
       <c r="H23">
-        <v>57.3167774124669</v>
+        <v>61.7578316501616</v>
       </c>
       <c r="I23">
-        <v>9.75119531040925</v>
+        <v>9.99036063800002</v>
       </c>
       <c r="J23">
-        <v>125.914259238092</v>
+        <v>141.601109709608</v>
       </c>
       <c r="K23">
-        <v>94.2821444290407</v>
+        <v>98.60313413461181</v>
       </c>
       <c r="L23">
-        <v>39.5157625383384</v>
+        <v>40.4447658628977</v>
       </c>
       <c r="M23">
-        <v>486.604672912661</v>
+        <v>556.599922170679</v>
       </c>
       <c r="N23">
-        <v>73.9328584715399</v>
+        <v>78.2467180996732</v>
       </c>
       <c r="O23">
-        <v>3144.36843962051</v>
+        <v>3344.06401596466</v>
       </c>
       <c r="P23">
-        <v>47.9207476173018</v>
+        <v>41.4530840142453</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>1093.61370398708</v>
+        <v>924.990992453584</v>
       </c>
       <c r="C24">
-        <v>55.4637974810797</v>
+        <v>50.2029069136386</v>
       </c>
       <c r="D24">
-        <v>7.42419594912537</v>
+        <v>7.37756691060016</v>
       </c>
       <c r="E24">
-        <v>50.5655332557411</v>
+        <v>54.7608749782386</v>
       </c>
       <c r="F24">
-        <v>8.77946194298258</v>
+        <v>8.054873225429541</v>
       </c>
       <c r="G24">
-        <v>30.3167429564571</v>
+        <v>34.2106165867707</v>
       </c>
       <c r="H24">
-        <v>15.6029009328207</v>
+        <v>16.1999865381202</v>
       </c>
       <c r="I24">
-        <v>14.9652798336222</v>
+        <v>16.5198227932637</v>
       </c>
       <c r="J24">
-        <v>46.157360302088</v>
+        <v>50.0968201756907</v>
       </c>
       <c r="K24">
-        <v>50.5460919576382</v>
+        <v>52.088916083023</v>
       </c>
       <c r="L24">
-        <v>66.6078710980112</v>
+        <v>73.0031998208227</v>
       </c>
       <c r="M24">
-        <v>26.2471456286772</v>
+        <v>27.1737272017832</v>
       </c>
       <c r="N24">
-        <v>64.4395996453695</v>
+        <v>77.40391556626371</v>
       </c>
       <c r="O24">
-        <v>1833.47067077303</v>
+        <v>1991.07892616288</v>
       </c>
       <c r="P24">
-        <v>98.27330718560719</v>
+        <v>68.44892245947911</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>880.676659372826</v>
+        <v>791.12444821387</v>
       </c>
       <c r="C25">
-        <v>36.1323893956941</v>
+        <v>39.6339560814458</v>
       </c>
       <c r="D25">
-        <v>13.3612127275054</v>
+        <v>13.2347285465374</v>
       </c>
       <c r="E25">
-        <v>39.9907093227172</v>
+        <v>42.0010499639739</v>
       </c>
       <c r="F25">
-        <v>14.4233910127735</v>
+        <v>16.4678144460087</v>
       </c>
       <c r="G25">
-        <v>5.77183794819929</v>
+        <v>7.59075499227516</v>
       </c>
       <c r="H25">
-        <v>17.3622244413607</v>
+        <v>16.8365206632381</v>
       </c>
       <c r="I25">
-        <v>5.92238138384375</v>
+        <v>5.29388991796727</v>
       </c>
       <c r="J25">
-        <v>13.3107865137848</v>
+        <v>14.4953550854519</v>
       </c>
       <c r="K25">
-        <v>11.685003781206</v>
+        <v>10.8845661902638</v>
       </c>
       <c r="L25">
-        <v>17.9432923865602</v>
+        <v>18.1878973908877</v>
       </c>
       <c r="M25">
-        <v>30.1812823037735</v>
+        <v>37.446439718259</v>
       </c>
       <c r="N25">
-        <v>40.5034194656954</v>
+        <v>36.0453660512055</v>
       </c>
       <c r="O25">
-        <v>780.4592078262911</v>
+        <v>862.390938234729</v>
       </c>
       <c r="P25">
-        <v>35.2291026824378</v>
+        <v>39.0866310838043</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>1437.00497628847</v>
+        <v>1234.79140029342</v>
       </c>
       <c r="C26">
-        <v>57.4075990205333</v>
+        <v>60.6274936849536</v>
       </c>
       <c r="D26">
-        <v>14.0142713472381</v>
+        <v>11.3067761458147</v>
       </c>
       <c r="E26">
-        <v>40.1874327749853</v>
+        <v>40.6876819235269</v>
       </c>
       <c r="F26">
-        <v>10.4669644924508</v>
+        <v>9.02255603586109</v>
       </c>
       <c r="G26">
-        <v>25.6306029473257</v>
+        <v>30.8235932870961</v>
       </c>
       <c r="H26">
-        <v>17.8277483396198</v>
+        <v>17.5395954997393</v>
       </c>
       <c r="I26">
-        <v>13.5395128605595</v>
+        <v>14.2747749034222</v>
       </c>
       <c r="J26">
-        <v>48.0894422749788</v>
+        <v>52.2388706181932</v>
       </c>
       <c r="K26">
-        <v>30.8419823093241</v>
+        <v>28.8831143245033</v>
       </c>
       <c r="L26">
-        <v>34.4358130102612</v>
+        <v>35.3529241484132</v>
       </c>
       <c r="M26">
-        <v>73.36011862371331</v>
+        <v>76.91960278242119</v>
       </c>
       <c r="N26">
-        <v>28.7036650227552</v>
+        <v>30.3099953586405</v>
       </c>
       <c r="O26">
-        <v>2040.13418666329</v>
+        <v>2225.61942155881</v>
       </c>
       <c r="P26">
-        <v>69.0870787640487</v>
+        <v>62.4152383553364</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>246.451454148346</v>
+        <v>207.834250843195</v>
       </c>
       <c r="C27">
-        <v>2.08744206471931</v>
+        <v>1.99382741336282</v>
       </c>
       <c r="D27">
-        <v>1.1268065878241</v>
+        <v>1.67387111344143</v>
       </c>
       <c r="E27">
-        <v>9.429117428879151</v>
+        <v>9.79169437431008</v>
       </c>
       <c r="F27">
-        <v>5.03491124883739</v>
+        <v>5.39007662062686</v>
       </c>
       <c r="G27">
-        <v>0.632212198869615</v>
+        <v>0.675467400325128</v>
       </c>
       <c r="H27">
-        <v>0.222636667016769</v>
+        <v>0.269914493525626</v>
       </c>
       <c r="I27">
-        <v>2.37605248107298</v>
+        <v>2.38736257321671</v>
       </c>
       <c r="J27">
-        <v>3.12894131095633</v>
+        <v>3.71369548351812</v>
       </c>
       <c r="K27">
-        <v>1.25831238599325</v>
+        <v>1.41803733438076</v>
       </c>
       <c r="L27">
-        <v>1.22910016820798</v>
+        <v>1.43796941750622</v>
       </c>
       <c r="M27">
-        <v>0.6240607314810081</v>
+        <v>0.6017294614675121</v>
       </c>
       <c r="N27">
-        <v>3.59529862582881</v>
+        <v>3.61861502139551</v>
       </c>
       <c r="O27">
-        <v>324.907880434436</v>
+        <v>364.051722731162</v>
       </c>
       <c r="P27">
-        <v>39.5124686799588</v>
+        <v>34.045306592934</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>383.730589490012</v>
+        <v>299.631406210029</v>
       </c>
       <c r="C28">
-        <v>28.180780802447</v>
+        <v>30.1611181862162</v>
       </c>
       <c r="D28">
-        <v>2.98445504423434</v>
+        <v>3.34864425175148</v>
       </c>
       <c r="E28">
-        <v>6.25399145412364</v>
+        <v>7.55439110020427</v>
       </c>
       <c r="F28">
-        <v>1.82706678404018</v>
+        <v>1.43481094698398</v>
       </c>
       <c r="G28">
-        <v>3.31227760801732</v>
+        <v>4.24892832982781</v>
       </c>
       <c r="H28">
-        <v>8.517142585507839</v>
+        <v>8.590448417438781</v>
       </c>
       <c r="I28">
-        <v>2.48673310792945</v>
+        <v>2.98611219798889</v>
       </c>
       <c r="J28">
-        <v>17.0064643902643</v>
+        <v>16.4902428127836</v>
       </c>
       <c r="K28">
-        <v>11.1800133334055</v>
+        <v>11.55371754697</v>
       </c>
       <c r="L28">
-        <v>14.5262407457173</v>
+        <v>16.7372891564292</v>
       </c>
       <c r="M28">
-        <v>8.037403965313789</v>
+        <v>9.19669299044665</v>
       </c>
       <c r="N28">
-        <v>8.12469929333864</v>
+        <v>9.360144878248709</v>
       </c>
       <c r="O28">
-        <v>620.272824408354</v>
+        <v>709.331627895464</v>
       </c>
       <c r="P28">
-        <v>84.1708177329344</v>
+        <v>60.771877781922</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>551.304796646163</v>
+        <v>471.645502756452</v>
       </c>
       <c r="C29">
-        <v>3.37089766175882</v>
+        <v>3.58766960165923</v>
       </c>
       <c r="D29">
-        <v>1.83872131349377</v>
+        <v>2.09101638418398</v>
       </c>
       <c r="E29">
-        <v>2.78803030441066</v>
+        <v>3.27009172683698</v>
       </c>
       <c r="F29">
-        <v>20.5720035537301</v>
+        <v>18.8366427915864</v>
       </c>
       <c r="G29">
-        <v>4.02660350116088</v>
+        <v>4.05364289055104</v>
       </c>
       <c r="H29">
-        <v>1.42107385586664</v>
+        <v>1.88163467804265</v>
       </c>
       <c r="I29">
-        <v>1.80249311021401</v>
+        <v>2.02755176765109</v>
       </c>
       <c r="J29">
-        <v>5.29794091847873</v>
+        <v>4.66342640951976</v>
       </c>
       <c r="K29">
-        <v>2.23471547987877</v>
+        <v>2.47856447430694</v>
       </c>
       <c r="L29">
-        <v>2.83824318497022</v>
+        <v>2.9148433431931</v>
       </c>
       <c r="M29">
-        <v>2.53969436650719</v>
+        <v>3.29401495510878</v>
       </c>
       <c r="N29">
-        <v>7.95345607362602</v>
+        <v>7.62769037538538</v>
       </c>
       <c r="O29">
-        <v>848.798177139799</v>
+        <v>939.846572489566</v>
       </c>
       <c r="P29">
-        <v>4.5016927522165</v>
+        <v>5.66124976243719</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>269.531804677829</v>
+        <v>227.378508083526</v>
       </c>
       <c r="C30">
-        <v>3.01737017878049</v>
+        <v>3.4077643598283</v>
       </c>
       <c r="D30">
-        <v>5.16825648388555</v>
+        <v>5.32663258987548</v>
       </c>
       <c r="E30">
-        <v>13.1299947322204</v>
+        <v>12.7247780355901</v>
       </c>
       <c r="F30">
-        <v>0.705512561163264</v>
+        <v>1.0021058777512</v>
       </c>
       <c r="G30">
-        <v>3.59824418978338</v>
+        <v>4.06793430923753</v>
       </c>
       <c r="H30">
-        <v>4.92937375443452</v>
+        <v>5.45196753902933</v>
       </c>
       <c r="I30">
-        <v>1.84067258592745</v>
+        <v>1.95121717731345</v>
       </c>
       <c r="J30">
-        <v>16.4596879062777</v>
+        <v>16.9412721368213</v>
       </c>
       <c r="K30">
-        <v>9.19559503628942</v>
+        <v>10.470774198212</v>
       </c>
       <c r="L30">
-        <v>33.5103178307254</v>
+        <v>40.5954586632356</v>
       </c>
       <c r="M30">
-        <v>9.488974335358201</v>
+        <v>10.6809542405628</v>
       </c>
       <c r="N30">
-        <v>11.9098760558307</v>
+        <v>13.4648067330656</v>
       </c>
       <c r="O30">
-        <v>484.270563254429</v>
+        <v>511.259533790314</v>
       </c>
       <c r="P30">
-        <v>6.91657428996395</v>
+        <v>5.92250318746774</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>2376.62629191669</v>
+        <v>2030.40541011894</v>
       </c>
       <c r="C31">
-        <v>46.5361892844978</v>
+        <v>53.6132026330596</v>
       </c>
       <c r="D31">
-        <v>37.3709551116881</v>
+        <v>38.226539950486</v>
       </c>
       <c r="E31">
-        <v>44.3628022218453</v>
+        <v>48.703975475702</v>
       </c>
       <c r="F31">
-        <v>8.011269848727441</v>
+        <v>5.11263425313185</v>
       </c>
       <c r="G31">
-        <v>94.1683533252434</v>
+        <v>103.876697381691</v>
       </c>
       <c r="H31">
-        <v>12.4805011067257</v>
+        <v>14.311816072301</v>
       </c>
       <c r="I31">
-        <v>19.338143028267</v>
+        <v>21.4033710109922</v>
       </c>
       <c r="J31">
-        <v>30.1300588779946</v>
+        <v>36.4527927027559</v>
       </c>
       <c r="K31">
-        <v>18.032076027246</v>
+        <v>20.8281489431707</v>
       </c>
       <c r="L31">
-        <v>60.5662877461802</v>
+        <v>70.92020103090761</v>
       </c>
       <c r="M31">
-        <v>20.4625765569218</v>
+        <v>22.7996745504511</v>
       </c>
       <c r="N31">
-        <v>45.7540022072305</v>
+        <v>46.9944834308633</v>
       </c>
       <c r="O31">
-        <v>3120.61137804629</v>
+        <v>3419.94509029847</v>
       </c>
       <c r="P31">
-        <v>9.80494276130672</v>
+        <v>11.9562584689483</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>548.864031339264</v>
+        <v>476.723141160906</v>
       </c>
       <c r="C32">
-        <v>4.99155268330777</v>
+        <v>5.47799415546738</v>
       </c>
       <c r="D32">
-        <v>0.637969607852246</v>
+        <v>0.826935381365048</v>
       </c>
       <c r="E32">
-        <v>3.23640436549473</v>
+        <v>3.51312021301479</v>
       </c>
       <c r="F32">
-        <v>20.0561816814263</v>
+        <v>22.0718352664742</v>
       </c>
       <c r="G32">
-        <v>1.64019408186004</v>
+        <v>2.2004854425177</v>
       </c>
       <c r="H32">
-        <v>2.96468847596235</v>
+        <v>3.49416742083697</v>
       </c>
       <c r="I32">
-        <v>2.8571677032284</v>
+        <v>4.46204431194972</v>
       </c>
       <c r="J32">
-        <v>3.46743920534451</v>
+        <v>4.52712953678923</v>
       </c>
       <c r="K32">
-        <v>1.97263563496576</v>
+        <v>2.54553973812087</v>
       </c>
       <c r="L32">
-        <v>13.1154965982294</v>
+        <v>14.9479816265685</v>
       </c>
       <c r="M32">
-        <v>1.53574001766012</v>
+        <v>2.18238341827829</v>
       </c>
       <c r="N32">
-        <v>7.61753665282174</v>
+        <v>9.33338978112757</v>
       </c>
       <c r="O32">
-        <v>626.787630894836</v>
+        <v>695.566096391463</v>
       </c>
       <c r="P32">
-        <v>23.5818903794437</v>
+        <v>20.9869464865348</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>5721.49015957946</v>
+        <v>4972.72032555827</v>
       </c>
       <c r="C33">
-        <v>79.84708843791201</v>
+        <v>88.8426569114023</v>
       </c>
       <c r="D33">
-        <v>54.0747368047537</v>
+        <v>65.7008422959115</v>
       </c>
       <c r="E33">
-        <v>72.67417218576951</v>
+        <v>76.8218683426379</v>
       </c>
       <c r="F33">
-        <v>6.73459566072171</v>
+        <v>7.91079021746007</v>
       </c>
       <c r="G33">
-        <v>66.2525829390481</v>
+        <v>68.04251566040961</v>
       </c>
       <c r="H33">
-        <v>26.529352576036</v>
+        <v>26.853918342824</v>
       </c>
       <c r="I33">
-        <v>28.4324923855658</v>
+        <v>29.7493106182594</v>
       </c>
       <c r="J33">
-        <v>85.3439017079142</v>
+        <v>91.9272863635225</v>
       </c>
       <c r="K33">
-        <v>81.8917410231729</v>
+        <v>80.8777626372829</v>
       </c>
       <c r="L33">
-        <v>119.091305992461</v>
+        <v>121.866299644913</v>
       </c>
       <c r="M33">
-        <v>64.7626027985276</v>
+        <v>65.13091738455449</v>
       </c>
       <c r="N33">
-        <v>130.021274490305</v>
+        <v>135.402881568164</v>
       </c>
       <c r="O33">
-        <v>6613.39351485108</v>
+        <v>7357.14308174592</v>
       </c>
       <c r="P33">
-        <v>81.5317770403158</v>
+        <v>60.9620712270491</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>2258.54956659514</v>
+        <v>1995.16844900853</v>
       </c>
       <c r="C34">
-        <v>64.51431760753459</v>
+        <v>75.7066193874643</v>
       </c>
       <c r="D34">
-        <v>157.46105182157</v>
+        <v>173.801780574169</v>
       </c>
       <c r="E34">
-        <v>44.263104259848</v>
+        <v>44.3521657688243</v>
       </c>
       <c r="F34">
-        <v>7.83877608903754</v>
+        <v>7.77188033111825</v>
       </c>
       <c r="G34">
-        <v>40.9190983553341</v>
+        <v>46.9130129965439</v>
       </c>
       <c r="H34">
-        <v>40.4246823919627</v>
+        <v>47.1499630590289</v>
       </c>
       <c r="I34">
-        <v>13.1433756342607</v>
+        <v>15.168667141648</v>
       </c>
       <c r="J34">
-        <v>53.8753201772401</v>
+        <v>54.4968805664807</v>
       </c>
       <c r="K34">
-        <v>42.9030449336459</v>
+        <v>44.6441602902712</v>
       </c>
       <c r="L34">
-        <v>93.5269918347002</v>
+        <v>102.965401366397</v>
       </c>
       <c r="M34">
-        <v>39.9190766172534</v>
+        <v>44.3754978036188</v>
       </c>
       <c r="N34">
-        <v>114.91428771062</v>
+        <v>122.232313427859</v>
       </c>
       <c r="O34">
-        <v>2682.77083386282</v>
+        <v>2889.60155329029</v>
       </c>
       <c r="P34">
-        <v>56.5781109682445</v>
+        <v>58.7473326666322</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>156.928587974419</v>
+        <v>126.240557500854</v>
       </c>
       <c r="C35">
-        <v>6.49199046227712</v>
+        <v>6.5776735146594</v>
       </c>
       <c r="D35">
-        <v>0.467347608013467</v>
+        <v>0.459944800873259</v>
       </c>
       <c r="E35">
-        <v>2.51547796101234</v>
+        <v>2.93120201244778</v>
       </c>
       <c r="F35">
-        <v>4.20089064836425</v>
+        <v>4.06725820308504</v>
       </c>
       <c r="G35">
-        <v>0.544612441562736</v>
+        <v>0.749645868608366</v>
       </c>
       <c r="H35">
-        <v>0.225421458008496</v>
+        <v>0.217940309440654</v>
       </c>
       <c r="I35">
-        <v>0.855712574715961</v>
+        <v>1.10102134870618</v>
       </c>
       <c r="J35">
-        <v>2.31075842174951</v>
+        <v>2.77881573637514</v>
       </c>
       <c r="K35">
-        <v>5.44992245201278</v>
+        <v>5.62521303598049</v>
       </c>
       <c r="L35">
-        <v>1.77256823997667</v>
+        <v>2.10571577319959</v>
       </c>
       <c r="M35">
-        <v>2.05053820544903</v>
+        <v>2.26689025427459</v>
       </c>
       <c r="N35">
-        <v>2.36455709460889</v>
+        <v>3.12885944426868</v>
       </c>
       <c r="O35">
-        <v>224.300602608135</v>
+        <v>256.258917124484</v>
       </c>
       <c r="P35">
-        <v>37.6663646217376</v>
+        <v>31.7995358803119</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>3116.71890633087</v>
+        <v>2752.82861687333</v>
       </c>
       <c r="C36">
-        <v>49.8716844629605</v>
+        <v>51.9634006125769</v>
       </c>
       <c r="D36">
-        <v>12.5673048354801</v>
+        <v>12.9357268799553</v>
       </c>
       <c r="E36">
-        <v>91.4452869307607</v>
+        <v>96.0083820199261</v>
       </c>
       <c r="F36">
-        <v>26.880231009922</v>
+        <v>30.9869491618188</v>
       </c>
       <c r="G36">
-        <v>82.1904531283799</v>
+        <v>88.8413105036003</v>
       </c>
       <c r="H36">
-        <v>101.430660838144</v>
+        <v>101.312078415436</v>
       </c>
       <c r="I36">
-        <v>39.8437438803793</v>
+        <v>45.8015607775133</v>
       </c>
       <c r="J36">
-        <v>199.554074961795</v>
+        <v>213.129797816856</v>
       </c>
       <c r="K36">
-        <v>106.132817630379</v>
+        <v>105.417901648764</v>
       </c>
       <c r="L36">
-        <v>76.1592669442221</v>
+        <v>82.36678943303561</v>
       </c>
       <c r="M36">
-        <v>210.406606637622</v>
+        <v>219.141324107447</v>
       </c>
       <c r="N36">
-        <v>82.4499533279012</v>
+        <v>88.8689206835255</v>
       </c>
       <c r="O36">
-        <v>3781.18610074434</v>
+        <v>4077.77735208273</v>
       </c>
       <c r="P36">
-        <v>43.7529668034177</v>
+        <v>45.0585381475669</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>1001.33519442321</v>
+        <v>865.582269031784</v>
       </c>
       <c r="C37">
-        <v>24.1105394752205</v>
+        <v>23.6873058512883</v>
       </c>
       <c r="D37">
-        <v>5.12971641646738</v>
+        <v>3.8314501863811</v>
       </c>
       <c r="E37">
-        <v>19.2740958703462</v>
+        <v>19.7139806548677</v>
       </c>
       <c r="F37">
-        <v>30.9105218283446</v>
+        <v>30.7783012908273</v>
       </c>
       <c r="G37">
-        <v>8.18363401131581</v>
+        <v>10.4398507944068</v>
       </c>
       <c r="H37">
-        <v>21.6952421500643</v>
+        <v>24.6840782581698</v>
       </c>
       <c r="I37">
-        <v>13.8393047563391</v>
+        <v>14.0341206265092</v>
       </c>
       <c r="J37">
-        <v>35.8000324930603</v>
+        <v>38.6702447915884</v>
       </c>
       <c r="K37">
-        <v>25.4617135393334</v>
+        <v>28.4402521767661</v>
       </c>
       <c r="L37">
-        <v>16.9937527539682</v>
+        <v>18.6108267213688</v>
       </c>
       <c r="M37">
-        <v>32.3956873905153</v>
+        <v>39.0079761792343</v>
       </c>
       <c r="N37">
-        <v>19.6671036806198</v>
+        <v>19.4169679081879</v>
       </c>
       <c r="O37">
-        <v>1111.92799599063</v>
+        <v>1233.89189107767</v>
       </c>
       <c r="P37">
-        <v>45.3285344790007</v>
+        <v>44.973141582504</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>987.42328696604</v>
+        <v>841.400577442354</v>
       </c>
       <c r="C38">
-        <v>22.580719017017</v>
+        <v>23.6889017251634</v>
       </c>
       <c r="D38">
-        <v>7.90134987163026</v>
+        <v>9.205723641649911</v>
       </c>
       <c r="E38">
-        <v>50.1955160851279</v>
+        <v>55.3987565305371</v>
       </c>
       <c r="F38">
-        <v>1.4803944980928</v>
+        <v>1.68897924059724</v>
       </c>
       <c r="G38">
-        <v>4.91443021362421</v>
+        <v>5.98414301839503</v>
       </c>
       <c r="H38">
-        <v>3.51270644035422</v>
+        <v>3.97925401966943</v>
       </c>
       <c r="I38">
-        <v>2.50018177188327</v>
+        <v>2.81458548491359</v>
       </c>
       <c r="J38">
-        <v>36.535927322728</v>
+        <v>43.123307169083</v>
       </c>
       <c r="K38">
-        <v>4.07937728351862</v>
+        <v>5.18368489282507</v>
       </c>
       <c r="L38">
-        <v>63.8579069171301</v>
+        <v>73.28958600223351</v>
       </c>
       <c r="M38">
-        <v>18.3389364944181</v>
+        <v>19.589655703638</v>
       </c>
       <c r="N38">
-        <v>32.8176169785657</v>
+        <v>32.725404798973</v>
       </c>
       <c r="O38">
-        <v>1209.97686210104</v>
+        <v>1334.2647275403</v>
       </c>
       <c r="P38">
-        <v>57.9849134022554</v>
+        <v>57.6540768000499</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>3622.90320400234</v>
+        <v>3130.46117036803</v>
       </c>
       <c r="C39">
-        <v>85.94573172385709</v>
+        <v>97.4374015236203</v>
       </c>
       <c r="D39">
-        <v>51.3806018689599</v>
+        <v>52.0721224299194</v>
       </c>
       <c r="E39">
-        <v>130.997065143853</v>
+        <v>127.564732256383</v>
       </c>
       <c r="F39">
-        <v>27.4817911673318</v>
+        <v>29.7503948953782</v>
       </c>
       <c r="G39">
-        <v>97.5302770007732</v>
+        <v>112.64410815443</v>
       </c>
       <c r="H39">
-        <v>48.2590539404021</v>
+        <v>51.1688086579807</v>
       </c>
       <c r="I39">
-        <v>36.5022468341654</v>
+        <v>33.8008598885462</v>
       </c>
       <c r="J39">
-        <v>158.477996601383</v>
+        <v>162.349726296507</v>
       </c>
       <c r="K39">
-        <v>85.27094152888171</v>
+        <v>92.7487292267593</v>
       </c>
       <c r="L39">
-        <v>92.6165244200277</v>
+        <v>101.587731411839</v>
       </c>
       <c r="M39">
-        <v>57.688737240815</v>
+        <v>61.548478535817</v>
       </c>
       <c r="N39">
-        <v>100.664521311626</v>
+        <v>108.080028030804</v>
       </c>
       <c r="O39">
-        <v>4102.60475312626</v>
+        <v>4539.68568252204</v>
       </c>
       <c r="P39">
-        <v>67.5969095923905</v>
+        <v>56.3383428493296</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>285.88138703963</v>
+        <v>241.342652906059</v>
       </c>
       <c r="C40">
-        <v>2.75091455815943</v>
+        <v>2.99139152434084</v>
       </c>
       <c r="D40">
-        <v>6.67687964725147</v>
+        <v>7.45843714626061</v>
       </c>
       <c r="E40">
-        <v>5.38033537069222</v>
+        <v>5.11817907909983</v>
       </c>
       <c r="F40">
-        <v>0.171350017102627</v>
+        <v>0.378265384723359</v>
       </c>
       <c r="G40">
-        <v>4.56791080396831</v>
+        <v>4.68485987781458</v>
       </c>
       <c r="H40">
-        <v>4.46278472055596</v>
+        <v>4.75259483350398</v>
       </c>
       <c r="I40">
-        <v>1.45190992853324</v>
+        <v>1.31623060793185</v>
       </c>
       <c r="J40">
-        <v>9.215831208642451</v>
+        <v>9.822120056595651</v>
       </c>
       <c r="K40">
-        <v>4.44453976578906</v>
+        <v>5.32290612639083</v>
       </c>
       <c r="L40">
-        <v>12.7621361901405</v>
+        <v>15.1315765239346</v>
       </c>
       <c r="M40">
-        <v>4.8623205965963</v>
+        <v>5.11345579847955</v>
       </c>
       <c r="N40">
-        <v>18.0345830830704</v>
+        <v>20.8258828357353</v>
       </c>
       <c r="O40">
-        <v>380.284557298767</v>
+        <v>413.034791568555</v>
       </c>
       <c r="P40">
-        <v>2.67247382806826</v>
+        <v>3.33334528798867</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>1193.99105542442</v>
+        <v>1075.79687902234</v>
       </c>
       <c r="C41">
-        <v>13.2707664965243</v>
+        <v>14.0014757140019</v>
       </c>
       <c r="D41">
-        <v>83.3062380497649</v>
+        <v>84.494121741135</v>
       </c>
       <c r="E41">
-        <v>33.5110978886109</v>
+        <v>33.6957205189919</v>
       </c>
       <c r="F41">
-        <v>1.60754314002907</v>
+        <v>1.90927556070618</v>
       </c>
       <c r="G41">
-        <v>23.0094591144853</v>
+        <v>22.029054263646</v>
       </c>
       <c r="H41">
-        <v>31.5254521606622</v>
+        <v>33.0867323057789</v>
       </c>
       <c r="I41">
-        <v>12.530594838765</v>
+        <v>10.7012958075176</v>
       </c>
       <c r="J41">
-        <v>40.2320072060984</v>
+        <v>39.4527011229508</v>
       </c>
       <c r="K41">
-        <v>18.2482664982698</v>
+        <v>20.3424756398866</v>
       </c>
       <c r="L41">
-        <v>33.8589404989468</v>
+        <v>36.8528962617801</v>
       </c>
       <c r="M41">
-        <v>27.0583522619091</v>
+        <v>29.8617470996709</v>
       </c>
       <c r="N41">
-        <v>21.3140760316957</v>
+        <v>21.3644617089336</v>
       </c>
       <c r="O41">
-        <v>1281.11837791035</v>
+        <v>1393.27839282557</v>
       </c>
       <c r="P41">
-        <v>26.9743418120882</v>
+        <v>25.580893943266</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>163.73841975747</v>
+        <v>122.524452934403</v>
       </c>
       <c r="C42">
-        <v>5.29317062710705</v>
+        <v>5.74198984793318</v>
       </c>
       <c r="D42">
-        <v>1.24508020496185</v>
+        <v>1.65252786369843</v>
       </c>
       <c r="E42">
-        <v>5.11872961425471</v>
+        <v>5.54687866785468</v>
       </c>
       <c r="F42">
-        <v>2.03155557078288</v>
+        <v>2.45643903327843</v>
       </c>
       <c r="G42">
-        <v>1.32063774663954</v>
+        <v>1.5101843925257</v>
       </c>
       <c r="H42">
-        <v>0.370374498015681</v>
+        <v>0.510775654049249</v>
       </c>
       <c r="I42">
-        <v>0.974635823150658</v>
+        <v>0.966556987736594</v>
       </c>
       <c r="J42">
-        <v>3.10982386974535</v>
+        <v>3.75126681325315</v>
       </c>
       <c r="K42">
-        <v>4.50587555633223</v>
+        <v>4.99612232284469</v>
       </c>
       <c r="L42">
-        <v>6.9469409378274</v>
+        <v>8.294947441413751</v>
       </c>
       <c r="M42">
-        <v>2.84267203199313</v>
+        <v>3.24908518291996</v>
       </c>
       <c r="N42">
-        <v>6.39455805070083</v>
+        <v>6.87112017622666</v>
       </c>
       <c r="O42">
-        <v>257.20439048895</v>
+        <v>299.011999651375</v>
       </c>
       <c r="P42">
-        <v>44.843185408998</v>
+        <v>38.0999069945028</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1661.6004855924</v>
+        <v>1538.02965613619</v>
       </c>
       <c r="C43">
-        <v>31.1572282248477</v>
+        <v>36.4975085267549</v>
       </c>
       <c r="D43">
-        <v>46.3454195200291</v>
+        <v>42.1648583988157</v>
       </c>
       <c r="E43">
-        <v>50.2431679768832</v>
+        <v>60.9624533855525</v>
       </c>
       <c r="F43">
-        <v>8.92377929580349</v>
+        <v>7.18665693245201</v>
       </c>
       <c r="G43">
-        <v>23.5287460507127</v>
+        <v>26.9153848950476</v>
       </c>
       <c r="H43">
-        <v>34.1231484055496</v>
+        <v>34.925122569644</v>
       </c>
       <c r="I43">
-        <v>24.5301304066048</v>
+        <v>27.2684636238237</v>
       </c>
       <c r="J43">
-        <v>52.412490483571</v>
+        <v>52.519399656813</v>
       </c>
       <c r="K43">
-        <v>47.8927558881213</v>
+        <v>44.8926132462659</v>
       </c>
       <c r="L43">
-        <v>44.7836082507346</v>
+        <v>46.0530387681003</v>
       </c>
       <c r="M43">
-        <v>110.330384699068</v>
+        <v>112.420007484291</v>
       </c>
       <c r="N43">
-        <v>46.5302272238556</v>
+        <v>49.6028864404852</v>
       </c>
       <c r="O43">
-        <v>1878.72538658295</v>
+        <v>1984.54282358358</v>
       </c>
       <c r="P43">
-        <v>46.9461380497883</v>
+        <v>52.0198553103845</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>5553.64965388765</v>
+        <v>4944.93005399016</v>
       </c>
       <c r="C44">
-        <v>111.396666710827</v>
+        <v>116.750945418112</v>
       </c>
       <c r="D44">
-        <v>37.6147112466552</v>
+        <v>44.1340352270788</v>
       </c>
       <c r="E44">
-        <v>79.0285143850065</v>
+        <v>87.504474460072</v>
       </c>
       <c r="F44">
-        <v>207.652108778647</v>
+        <v>220.151572166676</v>
       </c>
       <c r="G44">
-        <v>122.769508427496</v>
+        <v>134.695931528841</v>
       </c>
       <c r="H44">
-        <v>38.3981659381634</v>
+        <v>42.8278912682296</v>
       </c>
       <c r="I44">
-        <v>39.5745205100236</v>
+        <v>43.8989897022119</v>
       </c>
       <c r="J44">
-        <v>119.485701912736</v>
+        <v>119.352000569164</v>
       </c>
       <c r="K44">
-        <v>66.69719567149041</v>
+        <v>69.914576770917</v>
       </c>
       <c r="L44">
-        <v>170.707545261793</v>
+        <v>199.504925621883</v>
       </c>
       <c r="M44">
-        <v>96.34111970535091</v>
+        <v>103.666185413319</v>
       </c>
       <c r="N44">
-        <v>91.3761846959375</v>
+        <v>102.662466624681</v>
       </c>
       <c r="O44">
-        <v>7310.26671074109</v>
+        <v>7862.97633663975</v>
       </c>
       <c r="P44">
-        <v>204.155853838447</v>
+        <v>168.37547475195</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>507.419012178749</v>
+        <v>438.417121415553</v>
       </c>
       <c r="C45">
-        <v>18.2502248777345</v>
+        <v>17.7275640196501</v>
       </c>
       <c r="D45">
-        <v>3.06563143847803</v>
+        <v>4.47102075534463</v>
       </c>
       <c r="E45">
-        <v>13.5902500009737</v>
+        <v>15.3361877304782</v>
       </c>
       <c r="F45">
-        <v>20.084365112153</v>
+        <v>16.9150666676242</v>
       </c>
       <c r="G45">
-        <v>6.84552883109138</v>
+        <v>7.54449856590989</v>
       </c>
       <c r="H45">
-        <v>2.84687149856124</v>
+        <v>3.07043594928734</v>
       </c>
       <c r="I45">
-        <v>3.94978771427825</v>
+        <v>3.30764813073537</v>
       </c>
       <c r="J45">
-        <v>21.8340834567625</v>
+        <v>22.1796077683635</v>
       </c>
       <c r="K45">
-        <v>5.45335585457172</v>
+        <v>5.25038182820559</v>
       </c>
       <c r="L45">
-        <v>14.3032631675097</v>
+        <v>17.3572218409282</v>
       </c>
       <c r="M45">
-        <v>17.0313540975457</v>
+        <v>18.5324010698624</v>
       </c>
       <c r="N45">
-        <v>30.8529367253957</v>
+        <v>34.4175407831015</v>
       </c>
       <c r="O45">
-        <v>781.479190557162</v>
+        <v>825.024547248282</v>
       </c>
       <c r="P45">
-        <v>18.8377418010532</v>
+        <v>17.4208786757522</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>139.062122538826</v>
+        <v>113.208410252453</v>
       </c>
       <c r="C46">
-        <v>3.43356817789094</v>
+        <v>3.29010930376607</v>
       </c>
       <c r="D46">
-        <v>1.1395118633463</v>
+        <v>1.35651986427259</v>
       </c>
       <c r="E46">
-        <v>4.72547625543892</v>
+        <v>4.41907210243183</v>
       </c>
       <c r="F46">
-        <v>0.917782590118075</v>
+        <v>1.09916219525488</v>
       </c>
       <c r="G46">
-        <v>2.26099566372351</v>
+        <v>2.90833827859253</v>
       </c>
       <c r="H46">
-        <v>2.37857264809056</v>
+        <v>2.34269341058935</v>
       </c>
       <c r="I46">
-        <v>2.14293708836895</v>
+        <v>2.17215309111747</v>
       </c>
       <c r="J46">
-        <v>4.25825436389194</v>
+        <v>4.85594751114771</v>
       </c>
       <c r="K46">
-        <v>3.7683982064975</v>
+        <v>4.68364250652604</v>
       </c>
       <c r="L46">
-        <v>10.8352830396943</v>
+        <v>13.9267582786044</v>
       </c>
       <c r="M46">
-        <v>2.62959120460701</v>
+        <v>2.91384133474006</v>
       </c>
       <c r="N46">
-        <v>7.32828178703533</v>
+        <v>8.74814690035393</v>
       </c>
       <c r="O46">
-        <v>231.362056341945</v>
+        <v>251.127586884458</v>
       </c>
       <c r="P46">
-        <v>10.8395770701841</v>
+        <v>9.325520319725671</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1869.67854415842</v>
+        <v>1655.46095077032</v>
       </c>
       <c r="C47">
-        <v>43.7121394487934</v>
+        <v>43.7671995157362</v>
       </c>
       <c r="D47">
-        <v>29.7141142758404</v>
+        <v>28.0260173481246</v>
       </c>
       <c r="E47">
-        <v>51.4525201678833</v>
+        <v>56.2253678767463</v>
       </c>
       <c r="F47">
-        <v>9.3296314513232</v>
+        <v>9.32606140853561</v>
       </c>
       <c r="G47">
-        <v>27.3259484295373</v>
+        <v>25.7513605943091</v>
       </c>
       <c r="H47">
-        <v>10.2999704758851</v>
+        <v>10.7096971412825</v>
       </c>
       <c r="I47">
-        <v>6.57523382923467</v>
+        <v>6.56968750603663</v>
       </c>
       <c r="J47">
-        <v>40.8095689746661</v>
+        <v>39.3897554162507</v>
       </c>
       <c r="K47">
-        <v>12.7327536282505</v>
+        <v>14.3217324290184</v>
       </c>
       <c r="L47">
-        <v>39.5177078928799</v>
+        <v>41.9728651612032</v>
       </c>
       <c r="M47">
-        <v>65.0651298850879</v>
+        <v>74.3399298218077</v>
       </c>
       <c r="N47">
-        <v>39.0922805903516</v>
+        <v>40.6281675764178</v>
       </c>
       <c r="O47">
-        <v>2670.15783186902</v>
+        <v>2875.37623893388</v>
       </c>
       <c r="P47">
-        <v>24.4911927094794</v>
+        <v>23.0285882461167</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1644.98120654856</v>
+        <v>1410.97636206367</v>
       </c>
       <c r="C48">
-        <v>22.9826142773517</v>
+        <v>23.4428561094793</v>
       </c>
       <c r="D48">
-        <v>6.44739465900464</v>
+        <v>7.67827021411809</v>
       </c>
       <c r="E48">
-        <v>59.4197405008434</v>
+        <v>65.05887392132161</v>
       </c>
       <c r="F48">
-        <v>5.19038776736428</v>
+        <v>6.86319433280228</v>
       </c>
       <c r="G48">
-        <v>6.7239818241638</v>
+        <v>6.72339251747388</v>
       </c>
       <c r="H48">
-        <v>6.54870578754734</v>
+        <v>5.40862384818176</v>
       </c>
       <c r="I48">
-        <v>7.34128556774591</v>
+        <v>8.56176693259027</v>
       </c>
       <c r="J48">
-        <v>35.3087447682668</v>
+        <v>39.118459550263</v>
       </c>
       <c r="K48">
-        <v>16.6422087407555</v>
+        <v>17.8820953464966</v>
       </c>
       <c r="L48">
-        <v>46.1421935000992</v>
+        <v>54.141142485846</v>
       </c>
       <c r="M48">
-        <v>110.611117399822</v>
+        <v>126.252351933549</v>
       </c>
       <c r="N48">
-        <v>27.6546659315629</v>
+        <v>31.6303381074087</v>
       </c>
       <c r="O48">
-        <v>2099.01762075533</v>
+        <v>2292.80322061439</v>
       </c>
       <c r="P48">
-        <v>81.0514316214967</v>
+        <v>85.9502049573136</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>687.151736838539</v>
+        <v>650.541701533159</v>
       </c>
       <c r="C49">
-        <v>5.22033662816915</v>
+        <v>5.0835029264917</v>
       </c>
       <c r="D49">
-        <v>3.29913003702062</v>
+        <v>3.39935946552904</v>
       </c>
       <c r="E49">
-        <v>18.182567629434</v>
+        <v>20.8675115276687</v>
       </c>
       <c r="F49">
-        <v>24.6830803896288</v>
+        <v>24.8615445415414</v>
       </c>
       <c r="G49">
-        <v>15.0273606108943</v>
+        <v>16.6044784693498</v>
       </c>
       <c r="H49">
-        <v>5.60425762394661</v>
+        <v>5.83394786801603</v>
       </c>
       <c r="I49">
-        <v>5.93035731205399</v>
+        <v>6.78526539345733</v>
       </c>
       <c r="J49">
-        <v>18.5586831319749</v>
+        <v>21.3614193105243</v>
       </c>
       <c r="K49">
-        <v>5.38591877988228</v>
+        <v>3.9327671387116</v>
       </c>
       <c r="L49">
-        <v>1.44795442359922</v>
+        <v>1.37266424521799</v>
       </c>
       <c r="M49">
-        <v>4.47490942387071</v>
+        <v>5.04299795519461</v>
       </c>
       <c r="N49">
-        <v>4.57966847255244</v>
+        <v>5.24622584177628</v>
       </c>
       <c r="O49">
-        <v>526.061105406703</v>
+        <v>563.115613389478</v>
       </c>
       <c r="P49">
-        <v>5.92478919563333</v>
+        <v>5.40374223205497</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>1273.77159755041</v>
+        <v>1043.45603842511</v>
       </c>
       <c r="C50">
-        <v>66.3198192800016</v>
+        <v>67.9506929655805</v>
       </c>
       <c r="D50">
-        <v>11.4233460802716</v>
+        <v>17.2332630196165</v>
       </c>
       <c r="E50">
-        <v>131.720324675522</v>
+        <v>142.63604682437</v>
       </c>
       <c r="F50">
-        <v>2.82738154393707</v>
+        <v>2.61439813978174</v>
       </c>
       <c r="G50">
-        <v>27.3647469350858</v>
+        <v>35.1899931778178</v>
       </c>
       <c r="H50">
-        <v>33.7187799489878</v>
+        <v>36.1235074011231</v>
       </c>
       <c r="I50">
-        <v>9.08569666335203</v>
+        <v>10.3949830965629</v>
       </c>
       <c r="J50">
-        <v>105.522233683436</v>
+        <v>116.231423407494</v>
       </c>
       <c r="K50">
-        <v>81.5177600167393</v>
+        <v>85.5586843591535</v>
       </c>
       <c r="L50">
-        <v>55.9255623132444</v>
+        <v>64.27738762234</v>
       </c>
       <c r="M50">
-        <v>38.9342330660356</v>
+        <v>41.7962031248789</v>
       </c>
       <c r="N50">
-        <v>55.490262017033</v>
+        <v>61.3447094127245</v>
       </c>
       <c r="O50">
-        <v>1837.92510611983</v>
+        <v>2024.08719701252</v>
       </c>
       <c r="P50">
-        <v>90.6759933838442</v>
+        <v>70.23620701933</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>121.938060046378</v>
+        <v>103.751443197337</v>
       </c>
       <c r="C51">
-        <v>2.4708654315078</v>
+        <v>3.18918809160454</v>
       </c>
       <c r="D51">
-        <v>0.0592058028441622</v>
+        <v>0.0591702965941576</v>
       </c>
       <c r="E51">
-        <v>2.02302628389709</v>
+        <v>2.05062708882434</v>
       </c>
       <c r="F51">
-        <v>20.730350233447</v>
+        <v>20.2943985674265</v>
       </c>
       <c r="G51">
-        <v>1.85224312391965</v>
+        <v>1.89494145125767</v>
       </c>
       <c r="H51">
-        <v>0.00930501981514641</v>
+        <v>0.0146529324228196</v>
       </c>
       <c r="I51">
-        <v>0.740439307695662</v>
+        <v>0.765117515662702</v>
       </c>
       <c r="J51">
-        <v>1.23931722489686</v>
+        <v>1.07684867327264</v>
       </c>
       <c r="K51">
-        <v>0.58249203106343</v>
+        <v>0.647381550594538</v>
       </c>
       <c r="L51">
-        <v>0.295828016435952</v>
+        <v>0.228041477907783</v>
       </c>
       <c r="M51">
-        <v>0.313004822950822</v>
+        <v>0.397878269810929</v>
       </c>
       <c r="N51">
-        <v>0.628713270401368</v>
+        <v>0.799351981428121</v>
       </c>
       <c r="O51">
-        <v>179.380486437345</v>
+        <v>199.935323836748</v>
       </c>
       <c r="P51">
-        <v>14.8684728460378</v>
+        <v>13.45119637163</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2002.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2002.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>1362.38209339067</v>
+        <v>1363.73863184386</v>
       </c>
       <c r="C2">
-        <v>24.9860960885914</v>
+        <v>26.2343483507697</v>
       </c>
       <c r="D2">
-        <v>50.7982126317531</v>
+        <v>55.1892917269949</v>
       </c>
       <c r="E2">
-        <v>59.4010410061988</v>
+        <v>63.9974424582292</v>
       </c>
       <c r="F2">
-        <v>21.6711734335772</v>
+        <v>22.2728772309548</v>
       </c>
       <c r="G2">
-        <v>15.2941820940902</v>
+        <v>15.2631292879655</v>
       </c>
       <c r="H2">
-        <v>26.2652310027314</v>
+        <v>27.2513381215837</v>
       </c>
       <c r="I2">
-        <v>11.7886057348531</v>
+        <v>12.0652845804551</v>
       </c>
       <c r="J2">
-        <v>64.0575117150082</v>
+        <v>64.0703360296212</v>
       </c>
       <c r="K2">
-        <v>16.9540324280246</v>
+        <v>17.2763325977987</v>
       </c>
       <c r="L2">
-        <v>37.9614419527332</v>
+        <v>37.5056356289148</v>
       </c>
       <c r="M2">
-        <v>42.0878491258266</v>
+        <v>41.4941832702508</v>
       </c>
       <c r="N2">
-        <v>25.0346188820873</v>
+        <v>25.9067082792933</v>
       </c>
       <c r="O2">
-        <v>1377.99782796134</v>
+        <v>1362.97651560033</v>
       </c>
       <c r="P2">
-        <v>23.5991805998629</v>
+        <v>25.8354327412959</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>114.422327748967</v>
+        <v>114.535009961368</v>
       </c>
       <c r="C3">
-        <v>3.92784294596011</v>
+        <v>3.95658140328373</v>
       </c>
       <c r="D3">
-        <v>0.242827006591626</v>
+        <v>0.244667500211374</v>
       </c>
       <c r="E3">
-        <v>1.12127896630287</v>
+        <v>1.19127595330312</v>
       </c>
       <c r="F3">
-        <v>8.22329564739597</v>
+        <v>7.73135613682305</v>
       </c>
       <c r="G3">
-        <v>0.280516689060624</v>
+        <v>0.239797316273489</v>
       </c>
       <c r="H3">
-        <v>0.0171218319101368</v>
+        <v>0.01088410943281</v>
       </c>
       <c r="I3">
-        <v>0.46833745713056</v>
+        <v>0.451437636266466</v>
       </c>
       <c r="J3">
-        <v>0.394749963450447</v>
+        <v>0.393162212387059</v>
       </c>
       <c r="K3">
-        <v>0.117336679396505</v>
+        <v>0.142668713820825</v>
       </c>
       <c r="L3">
-        <v>0.108889888363121</v>
+        <v>0.106562844901874</v>
       </c>
       <c r="M3">
-        <v>0.63635293539341</v>
+        <v>0.638475367572156</v>
       </c>
       <c r="N3">
-        <v>0.857079890741862</v>
+        <v>0.860241453726864</v>
       </c>
       <c r="O3">
-        <v>238.31761932305</v>
+        <v>237.631534527924</v>
       </c>
       <c r="P3">
-        <v>8.999863900446391</v>
+        <v>10.2976504519573</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>1369.63319009915</v>
+        <v>1370.10568806566</v>
       </c>
       <c r="C4">
-        <v>7.19509042974935</v>
+        <v>7.27674723855259</v>
       </c>
       <c r="D4">
-        <v>3.6023474975571</v>
+        <v>3.58530726085667</v>
       </c>
       <c r="E4">
-        <v>24.7778703227956</v>
+        <v>24.8169273535136</v>
       </c>
       <c r="F4">
-        <v>9.67197314761807</v>
+        <v>11.966490863237</v>
       </c>
       <c r="G4">
-        <v>8.02019934071391</v>
+        <v>8.00241774210242</v>
       </c>
       <c r="H4">
-        <v>11.6345700947</v>
+        <v>11.5916067782857</v>
       </c>
       <c r="I4">
-        <v>10.5172948236268</v>
+        <v>10.5707894431892</v>
       </c>
       <c r="J4">
-        <v>28.3036293086176</v>
+        <v>28.4175166789632</v>
       </c>
       <c r="K4">
-        <v>4.96581097814582</v>
+        <v>4.86775244528638</v>
       </c>
       <c r="L4">
-        <v>76.601603478831</v>
+        <v>74.03802903722649</v>
       </c>
       <c r="M4">
-        <v>48.0269807247678</v>
+        <v>46.6613173780927</v>
       </c>
       <c r="N4">
-        <v>32.0504309901974</v>
+        <v>31.8558546446874</v>
       </c>
       <c r="O4">
-        <v>2031.16483771549</v>
+        <v>2026.65135111922</v>
       </c>
       <c r="P4">
-        <v>30.4699202240115</v>
+        <v>34.1888001791336</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>749.945541046664</v>
+        <v>751.059238983632</v>
       </c>
       <c r="C5">
-        <v>49.3690348363027</v>
+        <v>51.2913168527955</v>
       </c>
       <c r="D5">
-        <v>12.9555014533719</v>
+        <v>14.1038761703535</v>
       </c>
       <c r="E5">
-        <v>37.109673400977</v>
+        <v>39.3903966662079</v>
       </c>
       <c r="F5">
-        <v>4.59630711750084</v>
+        <v>4.95035079817524</v>
       </c>
       <c r="G5">
-        <v>5.32196866605456</v>
+        <v>5.5205670425237</v>
       </c>
       <c r="H5">
-        <v>12.8910895163708</v>
+        <v>13.4611364736922</v>
       </c>
       <c r="I5">
-        <v>7.40781441534619</v>
+        <v>7.60185299448228</v>
       </c>
       <c r="J5">
-        <v>32.0511744224323</v>
+        <v>33.2053467156731</v>
       </c>
       <c r="K5">
-        <v>15.5912867218545</v>
+        <v>16.0994211955712</v>
       </c>
       <c r="L5">
-        <v>19.3658756196392</v>
+        <v>19.7420312287074</v>
       </c>
       <c r="M5">
-        <v>19.8370253794989</v>
+        <v>20.4114827885044</v>
       </c>
       <c r="N5">
-        <v>22.560234111679</v>
+        <v>23.3448844190171</v>
       </c>
       <c r="O5">
-        <v>889.965636583705</v>
+        <v>872.035639865444</v>
       </c>
       <c r="P5">
-        <v>49.3844506584645</v>
+        <v>57.1765252720131</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>8415.603434795779</v>
+        <v>8419.224890829129</v>
       </c>
       <c r="C6">
-        <v>207.641077008564</v>
+        <v>209.232188834356</v>
       </c>
       <c r="D6">
-        <v>133.870248714002</v>
+        <v>134.104507467099</v>
       </c>
       <c r="E6">
-        <v>137.438757099775</v>
+        <v>138.2877567167</v>
       </c>
       <c r="F6">
-        <v>45.0707814760988</v>
+        <v>45.3197034852746</v>
       </c>
       <c r="G6">
-        <v>105.305244595765</v>
+        <v>104.957056625156</v>
       </c>
       <c r="H6">
-        <v>64.2551396902349</v>
+        <v>64.1597573753638</v>
       </c>
       <c r="I6">
-        <v>50.2080201601942</v>
+        <v>50.1552541897656</v>
       </c>
       <c r="J6">
-        <v>180.569300448527</v>
+        <v>179.976496444026</v>
       </c>
       <c r="K6">
-        <v>98.9126290980191</v>
+        <v>98.2755838364679</v>
       </c>
       <c r="L6">
-        <v>532.764155408757</v>
+        <v>529.0427903117341</v>
       </c>
       <c r="M6">
-        <v>251.565147096949</v>
+        <v>250.312109152312</v>
       </c>
       <c r="N6">
-        <v>262.311266046819</v>
+        <v>261.540071438421</v>
       </c>
       <c r="O6">
-        <v>12519.3715513226</v>
+        <v>12490.8476423918</v>
       </c>
       <c r="P6">
-        <v>304.740186524441</v>
+        <v>333.498680261503</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>881.595282213471</v>
+        <v>882.326956596983</v>
       </c>
       <c r="C7">
-        <v>35.9935700763172</v>
+        <v>37.0526588545431</v>
       </c>
       <c r="D7">
-        <v>4.42832075767647</v>
+        <v>4.30394408524262</v>
       </c>
       <c r="E7">
-        <v>17.0923406424116</v>
+        <v>16.7909146172724</v>
       </c>
       <c r="F7">
-        <v>16.5830486753384</v>
+        <v>17.9769246451727</v>
       </c>
       <c r="G7">
-        <v>6.60732577835593</v>
+        <v>6.38148625788263</v>
       </c>
       <c r="H7">
-        <v>6.36277124154583</v>
+        <v>6.15485130634321</v>
       </c>
       <c r="I7">
-        <v>7.97994136446591</v>
+        <v>7.81435999050717</v>
       </c>
       <c r="J7">
-        <v>20.3180605683384</v>
+        <v>20.0034221859319</v>
       </c>
       <c r="K7">
-        <v>11.5516924896731</v>
+        <v>11.2801886063036</v>
       </c>
       <c r="L7">
-        <v>63.3930032081073</v>
+        <v>61.3562106638845</v>
       </c>
       <c r="M7">
-        <v>14.5791251108935</v>
+        <v>14.0251625169635</v>
       </c>
       <c r="N7">
-        <v>30.7215118632023</v>
+        <v>29.9235978232694</v>
       </c>
       <c r="O7">
-        <v>1886.23986222229</v>
+        <v>1879.00939131007</v>
       </c>
       <c r="P7">
-        <v>23.1975717694374</v>
+        <v>29.835604220377</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>715.542360531526</v>
+        <v>715.438980569942</v>
       </c>
       <c r="C8">
-        <v>10.4259616246433</v>
+        <v>10.4725178081566</v>
       </c>
       <c r="D8">
-        <v>5.37484732620631</v>
+        <v>5.28864604597935</v>
       </c>
       <c r="E8">
-        <v>18.8392909966588</v>
+        <v>19.04418506662</v>
       </c>
       <c r="F8">
-        <v>1.70477994430018</v>
+        <v>1.7121621839484</v>
       </c>
       <c r="G8">
-        <v>31.4165403848686</v>
+        <v>31.1905366126356</v>
       </c>
       <c r="H8">
-        <v>8.084917149023751</v>
+        <v>8.04031254593899</v>
       </c>
       <c r="I8">
-        <v>4.72284517676407</v>
+        <v>4.77863717520218</v>
       </c>
       <c r="J8">
-        <v>37.3159467977082</v>
+        <v>37.1812371775848</v>
       </c>
       <c r="K8">
-        <v>24.8885587591542</v>
+        <v>24.8592684264798</v>
       </c>
       <c r="L8">
-        <v>46.404239421648</v>
+        <v>46.120341121409</v>
       </c>
       <c r="M8">
-        <v>45.7035200300755</v>
+        <v>45.8306984480969</v>
       </c>
       <c r="N8">
-        <v>30.8816725472754</v>
+        <v>30.8791348542105</v>
       </c>
       <c r="O8">
-        <v>1402.79547175785</v>
+        <v>1402.86654037377</v>
       </c>
       <c r="P8">
-        <v>2.89370530716716</v>
+        <v>3.04490768777067</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>176.300072164151</v>
+        <v>176.344516041092</v>
       </c>
       <c r="C9">
-        <v>7.47293633206376</v>
+        <v>7.70022043362973</v>
       </c>
       <c r="D9">
-        <v>2.50333781081007</v>
+        <v>2.49199070758116</v>
       </c>
       <c r="E9">
-        <v>3.35362745936794</v>
+        <v>3.4052242827195</v>
       </c>
       <c r="F9">
-        <v>1.35631868494016</v>
+        <v>1.39866206233956</v>
       </c>
       <c r="G9">
-        <v>18.8441743432945</v>
+        <v>18.1825981832954</v>
       </c>
       <c r="H9">
-        <v>3.49031514694123</v>
+        <v>3.44601547872075</v>
       </c>
       <c r="I9">
-        <v>0.886014957425003</v>
+        <v>0.887701832830407</v>
       </c>
       <c r="J9">
-        <v>4.09005034534034</v>
+        <v>4.00397986208464</v>
       </c>
       <c r="K9">
-        <v>2.55969917763208</v>
+        <v>2.52909921186426</v>
       </c>
       <c r="L9">
-        <v>3.4496422734736</v>
+        <v>3.39062380112581</v>
       </c>
       <c r="M9">
-        <v>6.83734083349984</v>
+        <v>6.22362716196231</v>
       </c>
       <c r="N9">
-        <v>4.73405917305059</v>
+        <v>4.76896575110968</v>
       </c>
       <c r="O9">
-        <v>321.866320550959</v>
+        <v>322.624253397817</v>
       </c>
       <c r="P9">
-        <v>4.90455105298816</v>
+        <v>5.21206423991195</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>4616.64644382451</v>
+        <v>4616.79224092923</v>
       </c>
       <c r="C10">
-        <v>74.022180285872</v>
+        <v>74.9909823377789</v>
       </c>
       <c r="D10">
-        <v>32.8827165906881</v>
+        <v>33.015203064689</v>
       </c>
       <c r="E10">
-        <v>46.2879201633685</v>
+        <v>46.8811404431505</v>
       </c>
       <c r="F10">
-        <v>8.38254843769468</v>
+        <v>8.572292738172701</v>
       </c>
       <c r="G10">
-        <v>35.3363129945422</v>
+        <v>35.3564994325989</v>
       </c>
       <c r="H10">
-        <v>20.2368066258463</v>
+        <v>20.2978754692496</v>
       </c>
       <c r="I10">
-        <v>42.9220585532831</v>
+        <v>43.0954033243711</v>
       </c>
       <c r="J10">
-        <v>59.341783109829</v>
+        <v>59.7114822672946</v>
       </c>
       <c r="K10">
-        <v>26.1239225199486</v>
+        <v>26.2310033421262</v>
       </c>
       <c r="L10">
-        <v>84.3617964371654</v>
+        <v>84.12739937972199</v>
       </c>
       <c r="M10">
-        <v>72.0447873824304</v>
+        <v>72.4968436766974</v>
       </c>
       <c r="N10">
-        <v>88.16273345447961</v>
+        <v>88.0012654921379</v>
       </c>
       <c r="O10">
-        <v>6732.74679724972</v>
+        <v>6723.43993563611</v>
       </c>
       <c r="P10">
-        <v>79.7050281674217</v>
+        <v>83.37492838423169</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>1918.45119669057</v>
+        <v>1918.53583150383</v>
       </c>
       <c r="C11">
-        <v>82.3574746081359</v>
+        <v>84.5945798158631</v>
       </c>
       <c r="D11">
-        <v>139.22897599073</v>
+        <v>148.714602933494</v>
       </c>
       <c r="E11">
-        <v>75.9709303933443</v>
+        <v>78.0992827217105</v>
       </c>
       <c r="F11">
-        <v>2.19536347036532</v>
+        <v>2.49027834142964</v>
       </c>
       <c r="G11">
-        <v>28.3074690673212</v>
+        <v>28.9886780986731</v>
       </c>
       <c r="H11">
-        <v>14.4578873572878</v>
+        <v>14.8705441628398</v>
       </c>
       <c r="I11">
-        <v>18.8823743837205</v>
+        <v>19.3754292732321</v>
       </c>
       <c r="J11">
-        <v>45.9265251076179</v>
+        <v>47.0442919732195</v>
       </c>
       <c r="K11">
-        <v>23.4466770909079</v>
+        <v>24.1817436089088</v>
       </c>
       <c r="L11">
-        <v>63.1909021888981</v>
+        <v>62.2633641217925</v>
       </c>
       <c r="M11">
-        <v>46.658918403997</v>
+        <v>48.0537366497315</v>
       </c>
       <c r="N11">
-        <v>54.901109918459</v>
+        <v>55.2095197614667</v>
       </c>
       <c r="O11">
-        <v>3157.26435617569</v>
+        <v>3133.47593602033</v>
       </c>
       <c r="P11">
-        <v>49.0495942524181</v>
+        <v>54.1452179819648</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>274.928723616088</v>
+        <v>275.106276113313</v>
       </c>
       <c r="C12">
-        <v>8.138578712608661</v>
+        <v>8.40128957814758</v>
       </c>
       <c r="D12">
-        <v>1.5519355963845</v>
+        <v>1.52406096415278</v>
       </c>
       <c r="E12">
-        <v>1.25879992796709</v>
+        <v>1.2416430369099</v>
       </c>
       <c r="F12">
-        <v>0.958392953850146</v>
+        <v>0.956093847871803</v>
       </c>
       <c r="G12">
-        <v>0.252940664626418</v>
+        <v>0.258353653484101</v>
       </c>
       <c r="H12">
-        <v>0.0128026986807004</v>
+        <v>0.015930734300616</v>
       </c>
       <c r="I12">
-        <v>0.991410074972735</v>
+        <v>0.984137239228147</v>
       </c>
       <c r="J12">
-        <v>2.20422444954327</v>
+        <v>2.18754175532354</v>
       </c>
       <c r="K12">
-        <v>0.113266035145482</v>
+        <v>0.103521397713963</v>
       </c>
       <c r="L12">
-        <v>0.215277692991219</v>
+        <v>0.213998148077094</v>
       </c>
       <c r="M12">
-        <v>3.71253669751553</v>
+        <v>3.61590609178378</v>
       </c>
       <c r="N12">
-        <v>3.76194445044939</v>
+        <v>3.74860208388812</v>
       </c>
       <c r="O12">
-        <v>523.072432250638</v>
+        <v>521.28331125016</v>
       </c>
       <c r="P12">
-        <v>14.6809885588368</v>
+        <v>16.3128110303415</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>261.300246509937</v>
+        <v>261.599955336197</v>
       </c>
       <c r="C13">
-        <v>17.1194024824189</v>
+        <v>17.635538465404</v>
       </c>
       <c r="D13">
-        <v>0.512903048517356</v>
+        <v>0.511143997590481</v>
       </c>
       <c r="E13">
-        <v>10.5788669094035</v>
+        <v>10.9967870295124</v>
       </c>
       <c r="F13">
-        <v>2.59892424309297</v>
+        <v>3.31754628560662</v>
       </c>
       <c r="G13">
-        <v>4.86807855844022</v>
+        <v>5.26884794713369</v>
       </c>
       <c r="H13">
-        <v>1.15164167530048</v>
+        <v>1.16396473806443</v>
       </c>
       <c r="I13">
-        <v>1.23609144172386</v>
+        <v>1.22470214644501</v>
       </c>
       <c r="J13">
-        <v>5.44003531692454</v>
+        <v>5.45147057829503</v>
       </c>
       <c r="K13">
-        <v>3.35986728375882</v>
+        <v>3.27970111155416</v>
       </c>
       <c r="L13">
-        <v>23.8279582604235</v>
+        <v>20.5048255093329</v>
       </c>
       <c r="M13">
-        <v>0.782420049009663</v>
+        <v>0.784647528511308</v>
       </c>
       <c r="N13">
-        <v>5.66517582468081</v>
+        <v>5.59149861511898</v>
       </c>
       <c r="O13">
-        <v>496.675646398937</v>
+        <v>491.481963337045</v>
       </c>
       <c r="P13">
-        <v>42.3234081309197</v>
+        <v>49.3300305670312</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>2894.89092086496</v>
+        <v>2895.25846866663</v>
       </c>
       <c r="C14">
-        <v>124.509545146455</v>
+        <v>126.439802228595</v>
       </c>
       <c r="D14">
-        <v>10.9308400697219</v>
+        <v>10.8716832522685</v>
       </c>
       <c r="E14">
-        <v>84.41037824200851</v>
+        <v>85.3766023070806</v>
       </c>
       <c r="F14">
-        <v>19.839827569878</v>
+        <v>21.5894827484647</v>
       </c>
       <c r="G14">
-        <v>91.682678221736</v>
+        <v>91.53622975361191</v>
       </c>
       <c r="H14">
-        <v>44.9807813561491</v>
+        <v>46.5188499994101</v>
       </c>
       <c r="I14">
-        <v>27.2023038022401</v>
+        <v>28.5448709588797</v>
       </c>
       <c r="J14">
-        <v>138.637609336852</v>
+        <v>143.369032456747</v>
       </c>
       <c r="K14">
-        <v>149.01543271891</v>
+        <v>155.926831117104</v>
       </c>
       <c r="L14">
-        <v>128.461577431642</v>
+        <v>127.271190310462</v>
       </c>
       <c r="M14">
-        <v>75.44599720141891</v>
+        <v>80.4432759393857</v>
       </c>
       <c r="N14">
-        <v>93.67708970016111</v>
+        <v>93.38017370659411</v>
       </c>
       <c r="O14">
-        <v>4665.67170353609</v>
+        <v>4626.97237056843</v>
       </c>
       <c r="P14">
-        <v>55.9322430911478</v>
+        <v>70.3779559394855</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>1375.57933569608</v>
+        <v>1375.6495799239</v>
       </c>
       <c r="C15">
-        <v>31.1734631494497</v>
+        <v>31.6817255201489</v>
       </c>
       <c r="D15">
-        <v>13.5490050891101</v>
+        <v>14.0710842182833</v>
       </c>
       <c r="E15">
-        <v>75.4827313477838</v>
+        <v>78.0810785581445</v>
       </c>
       <c r="F15">
-        <v>20.1358459155095</v>
+        <v>20.9265476361395</v>
       </c>
       <c r="G15">
-        <v>41.0124203131847</v>
+        <v>39.8898247169108</v>
       </c>
       <c r="H15">
-        <v>48.4054585716569</v>
+        <v>50.3964739947675</v>
       </c>
       <c r="I15">
-        <v>22.6684836784761</v>
+        <v>23.4631900909908</v>
       </c>
       <c r="J15">
-        <v>145.679657318732</v>
+        <v>149.419785490456</v>
       </c>
       <c r="K15">
-        <v>51.2582462332801</v>
+        <v>52.1967709519722</v>
       </c>
       <c r="L15">
-        <v>38.5132005577311</v>
+        <v>39.711026106836</v>
       </c>
       <c r="M15">
-        <v>170.558683811844</v>
+        <v>177.505381057723</v>
       </c>
       <c r="N15">
-        <v>89.7931367403711</v>
+        <v>94.8950927970853</v>
       </c>
       <c r="O15">
-        <v>2104.94513286094</v>
+        <v>2080.32803231176</v>
       </c>
       <c r="P15">
-        <v>49.2373575389716</v>
+        <v>50.8423443582931</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>567.94094484402</v>
+        <v>567.787044402973</v>
       </c>
       <c r="C16">
-        <v>62.2262811933237</v>
+        <v>62.7843261271513</v>
       </c>
       <c r="D16">
-        <v>4.81270760022421</v>
+        <v>5.20654258037179</v>
       </c>
       <c r="E16">
-        <v>20.7400335451946</v>
+        <v>20.9112453679513</v>
       </c>
       <c r="F16">
-        <v>2.84225966051693</v>
+        <v>3.32772598645889</v>
       </c>
       <c r="G16">
-        <v>16.2440911229479</v>
+        <v>16.5221189015588</v>
       </c>
       <c r="H16">
-        <v>12.8798838513596</v>
+        <v>13.3640594852721</v>
       </c>
       <c r="I16">
-        <v>6.50529504362095</v>
+        <v>7.07027368249199</v>
       </c>
       <c r="J16">
-        <v>44.3395587488335</v>
+        <v>46.6948986568852</v>
       </c>
       <c r="K16">
-        <v>54.0223693505671</v>
+        <v>56.2925099023013</v>
       </c>
       <c r="L16">
-        <v>27.6058632533874</v>
+        <v>27.3868580851358</v>
       </c>
       <c r="M16">
-        <v>23.6616834385963</v>
+        <v>25.033631357058</v>
       </c>
       <c r="N16">
-        <v>28.7899998560627</v>
+        <v>29.3085249119575</v>
       </c>
       <c r="O16">
-        <v>1106.70385782416</v>
+        <v>1087.36371269846</v>
       </c>
       <c r="P16">
-        <v>73.02898244673629</v>
+        <v>84.210505477193</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>531.2082745632411</v>
+        <v>532.026693916493</v>
       </c>
       <c r="C17">
-        <v>22.9096093624242</v>
+        <v>22.0707052136234</v>
       </c>
       <c r="D17">
-        <v>2.42074546940819</v>
+        <v>2.33764837111574</v>
       </c>
       <c r="E17">
-        <v>20.2624382625406</v>
+        <v>19.9809081694951</v>
       </c>
       <c r="F17">
-        <v>9.20903265361599</v>
+        <v>10.4632273962254</v>
       </c>
       <c r="G17">
-        <v>7.20876513653818</v>
+        <v>6.94029181412236</v>
       </c>
       <c r="H17">
-        <v>6.9956229695596</v>
+        <v>7.46565363282295</v>
       </c>
       <c r="I17">
-        <v>6.56019817051125</v>
+        <v>6.81720393974306</v>
       </c>
       <c r="J17">
-        <v>17.1609026946885</v>
+        <v>17.9301480983973</v>
       </c>
       <c r="K17">
-        <v>12.369926824938</v>
+        <v>12.648197733249</v>
       </c>
       <c r="L17">
-        <v>10.6527002937942</v>
+        <v>10.3811860014898</v>
       </c>
       <c r="M17">
-        <v>71.945883747037</v>
+        <v>68.6643402059226</v>
       </c>
       <c r="N17">
-        <v>12.1470564463703</v>
+        <v>12.0379416867441</v>
       </c>
       <c r="O17">
-        <v>1066.82663337951</v>
+        <v>1055.50488833769</v>
       </c>
       <c r="P17">
-        <v>39.3362107968118</v>
+        <v>52.5027962708887</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>1110.33125419939</v>
+        <v>1110.60802136857</v>
       </c>
       <c r="C18">
-        <v>32.4153531936226</v>
+        <v>32.7776621266825</v>
       </c>
       <c r="D18">
-        <v>7.78282497716163</v>
+        <v>8.03220141718942</v>
       </c>
       <c r="E18">
-        <v>39.4104579110029</v>
+        <v>39.4753920225684</v>
       </c>
       <c r="F18">
-        <v>29.8623946388938</v>
+        <v>30.9377138911125</v>
       </c>
       <c r="G18">
-        <v>25.3877292315222</v>
+        <v>25.3657057513728</v>
       </c>
       <c r="H18">
-        <v>18.2344928772222</v>
+        <v>18.1888656404474</v>
       </c>
       <c r="I18">
-        <v>5.78221245338114</v>
+        <v>5.63048630132845</v>
       </c>
       <c r="J18">
-        <v>42.1440780593777</v>
+        <v>42.186304775075</v>
       </c>
       <c r="K18">
-        <v>21.4251459219616</v>
+        <v>21.2535838432093</v>
       </c>
       <c r="L18">
-        <v>33.7903907282275</v>
+        <v>33.5442124093132</v>
       </c>
       <c r="M18">
-        <v>65.34508220248669</v>
+        <v>64.7897820657176</v>
       </c>
       <c r="N18">
-        <v>19.1039739091816</v>
+        <v>18.9649274140488</v>
       </c>
       <c r="O18">
-        <v>1387.65844839225</v>
+        <v>1386.58846453176</v>
       </c>
       <c r="P18">
-        <v>54.2105005104185</v>
+        <v>54.8592603525073</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>1271.16643011565</v>
+        <v>1270.51109468529</v>
       </c>
       <c r="C19">
-        <v>29.0091877690401</v>
+        <v>29.8066876256416</v>
       </c>
       <c r="D19">
-        <v>12.3640867817933</v>
+        <v>12.9969307338153</v>
       </c>
       <c r="E19">
-        <v>33.1595053895468</v>
+        <v>36.9238432293115</v>
       </c>
       <c r="F19">
-        <v>93.459591798719</v>
+        <v>93.74882350264311</v>
       </c>
       <c r="G19">
-        <v>40.651320581305</v>
+        <v>40.7358693081135</v>
       </c>
       <c r="H19">
-        <v>4.70699783752748</v>
+        <v>4.72319891721172</v>
       </c>
       <c r="I19">
-        <v>3.32090352058285</v>
+        <v>3.37420231044231</v>
       </c>
       <c r="J19">
-        <v>12.3824696625114</v>
+        <v>12.5808474228568</v>
       </c>
       <c r="K19">
-        <v>13.3632518438598</v>
+        <v>13.448655992457</v>
       </c>
       <c r="L19">
-        <v>2.45814104979966</v>
+        <v>2.45977731336016</v>
       </c>
       <c r="M19">
-        <v>32.4079661405514</v>
+        <v>31.6276469766144</v>
       </c>
       <c r="N19">
-        <v>11.6613800842928</v>
+        <v>11.8057040394359</v>
       </c>
       <c r="O19">
-        <v>1485.20257487566</v>
+        <v>1476.81314549005</v>
       </c>
       <c r="P19">
-        <v>35.5489937565805</v>
+        <v>39.209620985293</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>301.493990700529</v>
+        <v>302.253628217952</v>
       </c>
       <c r="C20">
-        <v>8.39041014173911</v>
+        <v>8.419681283926311</v>
       </c>
       <c r="D20">
-        <v>9.04990557671233</v>
+        <v>9.5735053134262</v>
       </c>
       <c r="E20">
-        <v>33.0996414876646</v>
+        <v>36.6222369773277</v>
       </c>
       <c r="F20">
-        <v>0.647131745379148</v>
+        <v>0.665149876366757</v>
       </c>
       <c r="G20">
-        <v>1.95768321684758</v>
+        <v>1.94193643290853</v>
       </c>
       <c r="H20">
-        <v>1.37453742618998</v>
+        <v>1.36003054378</v>
       </c>
       <c r="I20">
-        <v>2.05213371821788</v>
+        <v>1.99739297934096</v>
       </c>
       <c r="J20">
-        <v>3.49321783560502</v>
+        <v>3.39234970315321</v>
       </c>
       <c r="K20">
-        <v>3.44101036330231</v>
+        <v>3.24297787518197</v>
       </c>
       <c r="L20">
-        <v>9.4617127833257</v>
+        <v>8.869084638618221</v>
       </c>
       <c r="M20">
-        <v>19.834433761366</v>
+        <v>17.8543848449451</v>
       </c>
       <c r="N20">
-        <v>4.77830950689429</v>
+        <v>4.75784549636418</v>
       </c>
       <c r="O20">
-        <v>519.606002100717</v>
+        <v>514.596863336647</v>
       </c>
       <c r="P20">
-        <v>19.3723782903342</v>
+        <v>23.1020189027972</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>1164.15471365862</v>
+        <v>1163.85627879505</v>
       </c>
       <c r="C21">
-        <v>20.0646288729218</v>
+        <v>20.6397406942587</v>
       </c>
       <c r="D21">
-        <v>4.58025365413315</v>
+        <v>4.86055037957792</v>
       </c>
       <c r="E21">
-        <v>20.1186732333232</v>
+        <v>20.6346950800009</v>
       </c>
       <c r="F21">
-        <v>4.58809744040365</v>
+        <v>4.75697932586224</v>
       </c>
       <c r="G21">
-        <v>24.8848501337528</v>
+        <v>24.8931932290876</v>
       </c>
       <c r="H21">
-        <v>3.07545988931947</v>
+        <v>3.145579078303</v>
       </c>
       <c r="I21">
-        <v>7.49353376413046</v>
+        <v>7.58114929033348</v>
       </c>
       <c r="J21">
-        <v>32.5149544035037</v>
+        <v>33.1604809854135</v>
       </c>
       <c r="K21">
-        <v>4.00956476153567</v>
+        <v>4.04904867385244</v>
       </c>
       <c r="L21">
-        <v>27.4050753689945</v>
+        <v>27.4395000880117</v>
       </c>
       <c r="M21">
-        <v>34.0478702623738</v>
+        <v>34.1514055900597</v>
       </c>
       <c r="N21">
-        <v>21.0358858542607</v>
+        <v>21.2224439172305</v>
       </c>
       <c r="O21">
-        <v>2292.90600034043</v>
+        <v>2287.40441129234</v>
       </c>
       <c r="P21">
-        <v>20.4623583519395</v>
+        <v>22.3578936540592</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>1391.23967088055</v>
+        <v>1391.00704163963</v>
       </c>
       <c r="C22">
-        <v>13.2042561164736</v>
+        <v>13.2273264480494</v>
       </c>
       <c r="D22">
-        <v>23.2208789049651</v>
+        <v>23.5351754009948</v>
       </c>
       <c r="E22">
-        <v>44.1063927860072</v>
+        <v>45.2892409391841</v>
       </c>
       <c r="F22">
-        <v>2.51634086562306</v>
+        <v>2.56788148790347</v>
       </c>
       <c r="G22">
-        <v>29.0685882663385</v>
+        <v>29.0412178422605</v>
       </c>
       <c r="H22">
-        <v>20.1528797199174</v>
+        <v>20.3871774571723</v>
       </c>
       <c r="I22">
-        <v>11.1202789826215</v>
+        <v>11.5384602348485</v>
       </c>
       <c r="J22">
-        <v>42.3120209684483</v>
+        <v>42.9040233575426</v>
       </c>
       <c r="K22">
-        <v>20.8138174872038</v>
+        <v>20.9664674030779</v>
       </c>
       <c r="L22">
-        <v>126.299242949227</v>
+        <v>125.22272126488</v>
       </c>
       <c r="M22">
-        <v>15.9322840869376</v>
+        <v>15.8963577822499</v>
       </c>
       <c r="N22">
-        <v>68.2173886364387</v>
+        <v>68.6071880528792</v>
       </c>
       <c r="O22">
-        <v>2630.81165318284</v>
+        <v>2626.73592262326</v>
       </c>
       <c r="P22">
-        <v>10.0067841480526</v>
+        <v>11.526607524516</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>2466.24660369831</v>
+        <v>2468.89890122172</v>
       </c>
       <c r="C23">
-        <v>39.8190956080377</v>
+        <v>41.6557485398395</v>
       </c>
       <c r="D23">
-        <v>10.5642440265313</v>
+        <v>10.793845540533</v>
       </c>
       <c r="E23">
-        <v>42.8575979603403</v>
+        <v>45.7129381831053</v>
       </c>
       <c r="F23">
-        <v>6.36578911897836</v>
+        <v>7.78279359667095</v>
       </c>
       <c r="G23">
-        <v>52.6061732821895</v>
+        <v>52.2552786360805</v>
       </c>
       <c r="H23">
-        <v>61.7578316501616</v>
+        <v>63.3904245554796</v>
       </c>
       <c r="I23">
-        <v>9.99036063800002</v>
+        <v>10.6727756786268</v>
       </c>
       <c r="J23">
-        <v>141.601109709608</v>
+        <v>143.324257750329</v>
       </c>
       <c r="K23">
-        <v>98.60313413461181</v>
+        <v>99.2510423875714</v>
       </c>
       <c r="L23">
-        <v>40.4447658628977</v>
+        <v>40.5568391662974</v>
       </c>
       <c r="M23">
-        <v>556.599922170679</v>
+        <v>539.525233384588</v>
       </c>
       <c r="N23">
-        <v>78.2467180996732</v>
+        <v>77.9818525093126</v>
       </c>
       <c r="O23">
-        <v>3344.06401596466</v>
+        <v>3332.50867712958</v>
       </c>
       <c r="P23">
-        <v>41.4530840142453</v>
+        <v>54.8543454892239</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>924.990992453584</v>
+        <v>926.338002273639</v>
       </c>
       <c r="C24">
-        <v>50.2029069136386</v>
+        <v>55.8730770613641</v>
       </c>
       <c r="D24">
-        <v>7.37756691060016</v>
+        <v>8.546417682668411</v>
       </c>
       <c r="E24">
-        <v>54.7608749782386</v>
+        <v>53.6591838161821</v>
       </c>
       <c r="F24">
-        <v>8.054873225429541</v>
+        <v>9.00192752792765</v>
       </c>
       <c r="G24">
-        <v>34.2106165867707</v>
+        <v>33.4343358222559</v>
       </c>
       <c r="H24">
-        <v>16.1999865381202</v>
+        <v>16.1932790282777</v>
       </c>
       <c r="I24">
-        <v>16.5198227932637</v>
+        <v>17.3571894658316</v>
       </c>
       <c r="J24">
-        <v>50.0968201756907</v>
+        <v>52.0970426966076</v>
       </c>
       <c r="K24">
-        <v>52.088916083023</v>
+        <v>53.1036466513282</v>
       </c>
       <c r="L24">
-        <v>73.0031998208227</v>
+        <v>69.49110846520151</v>
       </c>
       <c r="M24">
-        <v>27.1737272017832</v>
+        <v>28.6995715105803</v>
       </c>
       <c r="N24">
-        <v>77.40391556626371</v>
+        <v>75.1708391933882</v>
       </c>
       <c r="O24">
-        <v>1991.07892616288</v>
+        <v>1947.22729339893</v>
       </c>
       <c r="P24">
-        <v>68.44892245947911</v>
+        <v>105.144706972139</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>791.12444821387</v>
+        <v>791.009404856564</v>
       </c>
       <c r="C25">
-        <v>39.6339560814458</v>
+        <v>41.7581065550989</v>
       </c>
       <c r="D25">
-        <v>13.2347285465374</v>
+        <v>14.3664077738972</v>
       </c>
       <c r="E25">
-        <v>42.0010499639739</v>
+        <v>43.8720777857146</v>
       </c>
       <c r="F25">
-        <v>16.4678144460087</v>
+        <v>16.5451203308117</v>
       </c>
       <c r="G25">
-        <v>7.59075499227516</v>
+        <v>7.50355921930043</v>
       </c>
       <c r="H25">
-        <v>16.8365206632381</v>
+        <v>18.0467789679471</v>
       </c>
       <c r="I25">
-        <v>5.29388991796727</v>
+        <v>5.37778474457805</v>
       </c>
       <c r="J25">
-        <v>14.4953550854519</v>
+        <v>15.2138448254081</v>
       </c>
       <c r="K25">
-        <v>10.8845661902638</v>
+        <v>11.6653546273788</v>
       </c>
       <c r="L25">
-        <v>18.1878973908877</v>
+        <v>18.9814476012438</v>
       </c>
       <c r="M25">
-        <v>37.446439718259</v>
+        <v>36.918910071151</v>
       </c>
       <c r="N25">
-        <v>36.0453660512055</v>
+        <v>39.2943779652728</v>
       </c>
       <c r="O25">
-        <v>862.390938234729</v>
+        <v>848.15331596268</v>
       </c>
       <c r="P25">
-        <v>39.0866310838043</v>
+        <v>42.868001382214</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>1234.79140029342</v>
+        <v>1234.97189170093</v>
       </c>
       <c r="C26">
-        <v>60.6274936849536</v>
+        <v>63.8133149386436</v>
       </c>
       <c r="D26">
-        <v>11.3067761458147</v>
+        <v>12.2659942768514</v>
       </c>
       <c r="E26">
-        <v>40.6876819235269</v>
+        <v>42.8546732096336</v>
       </c>
       <c r="F26">
-        <v>9.02255603586109</v>
+        <v>10.1189488592323</v>
       </c>
       <c r="G26">
-        <v>30.8235932870961</v>
+        <v>30.1576785399422</v>
       </c>
       <c r="H26">
-        <v>17.5395954997393</v>
+        <v>17.9892016621336</v>
       </c>
       <c r="I26">
-        <v>14.2747749034222</v>
+        <v>15.1085930480154</v>
       </c>
       <c r="J26">
-        <v>52.2388706181932</v>
+        <v>54.1425987900339</v>
       </c>
       <c r="K26">
-        <v>28.8831143245033</v>
+        <v>29.1880262862897</v>
       </c>
       <c r="L26">
-        <v>35.3529241484132</v>
+        <v>36.4371756972614</v>
       </c>
       <c r="M26">
-        <v>76.91960278242119</v>
+        <v>77.14001072480301</v>
       </c>
       <c r="N26">
-        <v>30.3099953586405</v>
+        <v>31.8541463067669</v>
       </c>
       <c r="O26">
-        <v>2225.61942155881</v>
+        <v>2197.07824962808</v>
       </c>
       <c r="P26">
-        <v>62.4152383553364</v>
+        <v>76.6066671849714</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>207.834250843195</v>
+        <v>207.966995014691</v>
       </c>
       <c r="C27">
-        <v>1.99382741336282</v>
+        <v>1.98572916109364</v>
       </c>
       <c r="D27">
-        <v>1.67387111344143</v>
+        <v>1.72542224301865</v>
       </c>
       <c r="E27">
-        <v>9.79169437431008</v>
+        <v>9.677348662843359</v>
       </c>
       <c r="F27">
-        <v>5.39007662062686</v>
+        <v>5.84178574697654</v>
       </c>
       <c r="G27">
-        <v>0.675467400325128</v>
+        <v>0.644553740061133</v>
       </c>
       <c r="H27">
-        <v>0.269914493525626</v>
+        <v>0.264063526565786</v>
       </c>
       <c r="I27">
-        <v>2.38736257321671</v>
+        <v>2.46792991207064</v>
       </c>
       <c r="J27">
-        <v>3.71369548351812</v>
+        <v>3.63231553182432</v>
       </c>
       <c r="K27">
-        <v>1.41803733438076</v>
+        <v>1.43757925646942</v>
       </c>
       <c r="L27">
-        <v>1.43796941750622</v>
+        <v>1.24749666819658</v>
       </c>
       <c r="M27">
-        <v>0.6017294614675121</v>
+        <v>0.597851441508894</v>
       </c>
       <c r="N27">
-        <v>3.61861502139551</v>
+        <v>3.54486371776663</v>
       </c>
       <c r="O27">
-        <v>364.051722731162</v>
+        <v>355.629941881706</v>
       </c>
       <c r="P27">
-        <v>34.045306592934</v>
+        <v>43.3089469123892</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>299.631406210029</v>
+        <v>297.581055147781</v>
       </c>
       <c r="C28">
-        <v>30.1611181862162</v>
+        <v>29.4563725851267</v>
       </c>
       <c r="D28">
-        <v>3.34864425175148</v>
+        <v>3.2783067267098</v>
       </c>
       <c r="E28">
-        <v>7.55439110020427</v>
+        <v>7.09915867622663</v>
       </c>
       <c r="F28">
-        <v>1.43481094698398</v>
+        <v>1.64239960132516</v>
       </c>
       <c r="G28">
-        <v>4.24892832982781</v>
+        <v>3.97311689176777</v>
       </c>
       <c r="H28">
-        <v>8.590448417438781</v>
+        <v>8.740573689634431</v>
       </c>
       <c r="I28">
-        <v>2.98611219798889</v>
+        <v>2.97434877774083</v>
       </c>
       <c r="J28">
-        <v>16.4902428127836</v>
+        <v>17.425368402764</v>
       </c>
       <c r="K28">
-        <v>11.55371754697</v>
+        <v>12.3955321923872</v>
       </c>
       <c r="L28">
-        <v>16.7372891564292</v>
+        <v>15.499807128522</v>
       </c>
       <c r="M28">
-        <v>9.19669299044665</v>
+        <v>9.74234560300442</v>
       </c>
       <c r="N28">
-        <v>9.360144878248709</v>
+        <v>9.29133840405526</v>
       </c>
       <c r="O28">
-        <v>709.331627895464</v>
+        <v>684.451929915605</v>
       </c>
       <c r="P28">
-        <v>60.771877781922</v>
+        <v>89.6213991892656</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>471.645502756452</v>
+        <v>471.254773004357</v>
       </c>
       <c r="C29">
-        <v>3.58766960165923</v>
+        <v>3.57406103478503</v>
       </c>
       <c r="D29">
-        <v>2.09101638418398</v>
+        <v>2.07279414690015</v>
       </c>
       <c r="E29">
-        <v>3.27009172683698</v>
+        <v>3.24532481499411</v>
       </c>
       <c r="F29">
-        <v>18.8366427915864</v>
+        <v>22.4761517609224</v>
       </c>
       <c r="G29">
-        <v>4.05364289055104</v>
+        <v>4.00217459906254</v>
       </c>
       <c r="H29">
-        <v>1.88163467804265</v>
+        <v>1.82784178659402</v>
       </c>
       <c r="I29">
-        <v>2.02755176765109</v>
+        <v>2.11757390485602</v>
       </c>
       <c r="J29">
-        <v>4.66342640951976</v>
+        <v>4.65612655700237</v>
       </c>
       <c r="K29">
-        <v>2.47856447430694</v>
+        <v>2.41673004849034</v>
       </c>
       <c r="L29">
-        <v>2.9148433431931</v>
+        <v>2.8952483972236</v>
       </c>
       <c r="M29">
-        <v>3.29401495510878</v>
+        <v>3.25795740042551</v>
       </c>
       <c r="N29">
-        <v>7.62769037538538</v>
+        <v>7.55556804277808</v>
       </c>
       <c r="O29">
-        <v>939.846572489566</v>
+        <v>935.536896197142</v>
       </c>
       <c r="P29">
-        <v>5.66124976243719</v>
+        <v>6.31945584799617</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>227.378508083526</v>
+        <v>227.287001657463</v>
       </c>
       <c r="C30">
-        <v>3.4077643598283</v>
+        <v>3.32772314768597</v>
       </c>
       <c r="D30">
-        <v>5.32663258987548</v>
+        <v>5.43272690809041</v>
       </c>
       <c r="E30">
-        <v>12.7247780355901</v>
+        <v>13.5846994263826</v>
       </c>
       <c r="F30">
-        <v>1.0021058777512</v>
+        <v>1.00526028898468</v>
       </c>
       <c r="G30">
-        <v>4.06793430923753</v>
+        <v>3.94668715774315</v>
       </c>
       <c r="H30">
-        <v>5.45196753902933</v>
+        <v>5.40885633027907</v>
       </c>
       <c r="I30">
-        <v>1.95121717731345</v>
+        <v>1.87919721559385</v>
       </c>
       <c r="J30">
-        <v>16.9412721368213</v>
+        <v>17.0248654469073</v>
       </c>
       <c r="K30">
-        <v>10.470774198212</v>
+        <v>10.5496763776344</v>
       </c>
       <c r="L30">
-        <v>40.5954586632356</v>
+        <v>37.981562074649</v>
       </c>
       <c r="M30">
-        <v>10.6809542405628</v>
+        <v>10.3874168099306</v>
       </c>
       <c r="N30">
-        <v>13.4648067330656</v>
+        <v>13.6358837896027</v>
       </c>
       <c r="O30">
-        <v>511.259533790314</v>
+        <v>511.916756702303</v>
       </c>
       <c r="P30">
-        <v>5.92250318746774</v>
+        <v>6.90311143050835</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>2030.40541011894</v>
+        <v>2030.41657119326</v>
       </c>
       <c r="C31">
-        <v>53.6132026330596</v>
+        <v>53.664250376349</v>
       </c>
       <c r="D31">
-        <v>38.226539950486</v>
+        <v>38.0508632479149</v>
       </c>
       <c r="E31">
-        <v>48.703975475702</v>
+        <v>48.6670176345727</v>
       </c>
       <c r="F31">
-        <v>5.11263425313185</v>
+        <v>5.30539082026689</v>
       </c>
       <c r="G31">
-        <v>103.876697381691</v>
+        <v>103.927567998377</v>
       </c>
       <c r="H31">
-        <v>14.311816072301</v>
+        <v>14.6441517466536</v>
       </c>
       <c r="I31">
-        <v>21.4033710109922</v>
+        <v>22.0384340454801</v>
       </c>
       <c r="J31">
-        <v>36.4527927027559</v>
+        <v>36.5784353395308</v>
       </c>
       <c r="K31">
-        <v>20.8281489431707</v>
+        <v>20.8395822563973</v>
       </c>
       <c r="L31">
-        <v>70.92020103090761</v>
+        <v>70.6365016478366</v>
       </c>
       <c r="M31">
-        <v>22.7996745504511</v>
+        <v>22.7670074897063</v>
       </c>
       <c r="N31">
-        <v>46.9944834308633</v>
+        <v>46.8676436967184</v>
       </c>
       <c r="O31">
-        <v>3419.94509029847</v>
+        <v>3417.41595117707</v>
       </c>
       <c r="P31">
-        <v>11.9562584689483</v>
+        <v>12.7747826168512</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>476.723141160906</v>
+        <v>476.688825495329</v>
       </c>
       <c r="C32">
-        <v>5.47799415546738</v>
+        <v>5.55080579734896</v>
       </c>
       <c r="D32">
-        <v>0.826935381365048</v>
+        <v>0.824136008340458</v>
       </c>
       <c r="E32">
-        <v>3.51312021301479</v>
+        <v>3.62750175275649</v>
       </c>
       <c r="F32">
-        <v>22.0718352664742</v>
+        <v>22.9726974111119</v>
       </c>
       <c r="G32">
-        <v>2.2004854425177</v>
+        <v>2.18326388370139</v>
       </c>
       <c r="H32">
-        <v>3.49416742083697</v>
+        <v>3.62015825078779</v>
       </c>
       <c r="I32">
-        <v>4.46204431194972</v>
+        <v>4.50212741279642</v>
       </c>
       <c r="J32">
-        <v>4.52712953678923</v>
+        <v>4.48870155064655</v>
       </c>
       <c r="K32">
-        <v>2.54553973812087</v>
+        <v>2.54588446801131</v>
       </c>
       <c r="L32">
-        <v>14.9479816265685</v>
+        <v>13.9201827760621</v>
       </c>
       <c r="M32">
-        <v>2.18238341827829</v>
+        <v>2.12593059867174</v>
       </c>
       <c r="N32">
-        <v>9.33338978112757</v>
+        <v>9.37440362094806</v>
       </c>
       <c r="O32">
-        <v>695.566096391463</v>
+        <v>692.374281631469</v>
       </c>
       <c r="P32">
-        <v>20.9869464865348</v>
+        <v>24.8996888434775</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>4972.72032555827</v>
+        <v>4970.31473488501</v>
       </c>
       <c r="C33">
-        <v>88.8426569114023</v>
+        <v>90.86129539095821</v>
       </c>
       <c r="D33">
-        <v>65.7008422959115</v>
+        <v>64.0193252422882</v>
       </c>
       <c r="E33">
-        <v>76.8218683426379</v>
+        <v>80.98311543840021</v>
       </c>
       <c r="F33">
-        <v>7.91079021746007</v>
+        <v>8.255224034405</v>
       </c>
       <c r="G33">
-        <v>68.04251566040961</v>
+        <v>70.3371680826339</v>
       </c>
       <c r="H33">
-        <v>26.853918342824</v>
+        <v>28.5882772685263</v>
       </c>
       <c r="I33">
-        <v>29.7493106182594</v>
+        <v>32.0555152277294</v>
       </c>
       <c r="J33">
-        <v>91.9272863635225</v>
+        <v>99.9930913542308</v>
       </c>
       <c r="K33">
-        <v>80.8777626372829</v>
+        <v>86.2197641117717</v>
       </c>
       <c r="L33">
-        <v>121.866299644913</v>
+        <v>126.470907775157</v>
       </c>
       <c r="M33">
-        <v>65.13091738455449</v>
+        <v>69.18259831682811</v>
       </c>
       <c r="N33">
-        <v>135.402881568164</v>
+        <v>140.996979814543</v>
       </c>
       <c r="O33">
-        <v>7357.14308174592</v>
+        <v>7294.5641744398</v>
       </c>
       <c r="P33">
-        <v>60.9620712270491</v>
+        <v>83.66727631980081</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>1995.16844900853</v>
+        <v>1996.02563296759</v>
       </c>
       <c r="C34">
-        <v>75.7066193874643</v>
+        <v>76.6062270051074</v>
       </c>
       <c r="D34">
-        <v>173.801780574169</v>
+        <v>179.681516072136</v>
       </c>
       <c r="E34">
-        <v>44.3521657688243</v>
+        <v>45.1147099366586</v>
       </c>
       <c r="F34">
-        <v>7.77188033111825</v>
+        <v>8.1114619494133</v>
       </c>
       <c r="G34">
-        <v>46.9130129965439</v>
+        <v>46.6650831590043</v>
       </c>
       <c r="H34">
-        <v>47.1499630590289</v>
+        <v>46.8924833980093</v>
       </c>
       <c r="I34">
-        <v>15.168667141648</v>
+        <v>15.1549712552428</v>
       </c>
       <c r="J34">
-        <v>54.4968805664807</v>
+        <v>54.6858009143308</v>
       </c>
       <c r="K34">
-        <v>44.6441602902712</v>
+        <v>44.2012893849774</v>
       </c>
       <c r="L34">
-        <v>102.965401366397</v>
+        <v>102.68311439927</v>
       </c>
       <c r="M34">
-        <v>44.3754978036188</v>
+        <v>44.1058402829152</v>
       </c>
       <c r="N34">
-        <v>122.232313427859</v>
+        <v>124.484071786944</v>
       </c>
       <c r="O34">
-        <v>2889.60155329029</v>
+        <v>2878.80948650897</v>
       </c>
       <c r="P34">
-        <v>58.7473326666322</v>
+        <v>61.1175611498241</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>126.240557500854</v>
+        <v>126.677412888308</v>
       </c>
       <c r="C35">
-        <v>6.5776735146594</v>
+        <v>6.61459451597859</v>
       </c>
       <c r="D35">
-        <v>0.459944800873259</v>
+        <v>0.439949233408821</v>
       </c>
       <c r="E35">
-        <v>2.93120201244778</v>
+        <v>2.83944770219353</v>
       </c>
       <c r="F35">
-        <v>4.06725820308504</v>
+        <v>4.48725769269711</v>
       </c>
       <c r="G35">
-        <v>0.749645868608366</v>
+        <v>0.701319874037119</v>
       </c>
       <c r="H35">
-        <v>0.217940309440654</v>
+        <v>0.202292250616811</v>
       </c>
       <c r="I35">
-        <v>1.10102134870618</v>
+        <v>1.06451519165832</v>
       </c>
       <c r="J35">
-        <v>2.77881573637514</v>
+        <v>2.72431716436281</v>
       </c>
       <c r="K35">
-        <v>5.62521303598049</v>
+        <v>5.70043766585724</v>
       </c>
       <c r="L35">
-        <v>2.10571577319959</v>
+        <v>1.95405378364992</v>
       </c>
       <c r="M35">
-        <v>2.26689025427459</v>
+        <v>2.33735628245537</v>
       </c>
       <c r="N35">
-        <v>3.12885944426868</v>
+        <v>2.97142262471852</v>
       </c>
       <c r="O35">
-        <v>256.258917124484</v>
+        <v>246.010572187581</v>
       </c>
       <c r="P35">
-        <v>31.7995358803119</v>
+        <v>42.4596977528497</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>2752.82861687333</v>
+        <v>2753.22753289075</v>
       </c>
       <c r="C36">
-        <v>51.9634006125769</v>
+        <v>53.2028199489002</v>
       </c>
       <c r="D36">
-        <v>12.9357268799553</v>
+        <v>13.2237259288005</v>
       </c>
       <c r="E36">
-        <v>96.0083820199261</v>
+        <v>97.7870806556756</v>
       </c>
       <c r="F36">
-        <v>30.9869491618188</v>
+        <v>32.7698484624227</v>
       </c>
       <c r="G36">
-        <v>88.8413105036003</v>
+        <v>88.8539729747427</v>
       </c>
       <c r="H36">
-        <v>101.312078415436</v>
+        <v>106.057323968227</v>
       </c>
       <c r="I36">
-        <v>45.8015607775133</v>
+        <v>47.2209236677074</v>
       </c>
       <c r="J36">
-        <v>213.129797816856</v>
+        <v>218.791395432347</v>
       </c>
       <c r="K36">
-        <v>105.417901648764</v>
+        <v>107.739159111667</v>
       </c>
       <c r="L36">
-        <v>82.36678943303561</v>
+        <v>83.1787618076216</v>
       </c>
       <c r="M36">
-        <v>219.141324107447</v>
+        <v>225.60969600569</v>
       </c>
       <c r="N36">
-        <v>88.8689206835255</v>
+        <v>90.7493221924548</v>
       </c>
       <c r="O36">
-        <v>4077.77735208273</v>
+        <v>4047.02986552568</v>
       </c>
       <c r="P36">
-        <v>45.0585381475669</v>
+        <v>47.6239136146052</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>865.582269031784</v>
+        <v>868.4353479095011</v>
       </c>
       <c r="C37">
-        <v>23.6873058512883</v>
+        <v>25.3277110293932</v>
       </c>
       <c r="D37">
-        <v>3.8314501863811</v>
+        <v>4.66723005898125</v>
       </c>
       <c r="E37">
-        <v>19.7139806548677</v>
+        <v>20.407494700818</v>
       </c>
       <c r="F37">
-        <v>30.7783012908273</v>
+        <v>32.904819762959</v>
       </c>
       <c r="G37">
-        <v>10.4398507944068</v>
+        <v>10.3559962008865</v>
       </c>
       <c r="H37">
-        <v>24.6840782581698</v>
+        <v>25.621527476349</v>
       </c>
       <c r="I37">
-        <v>14.0341206265092</v>
+        <v>14.8876108981499</v>
       </c>
       <c r="J37">
-        <v>38.6702447915884</v>
+        <v>39.6075890793568</v>
       </c>
       <c r="K37">
-        <v>28.4402521767661</v>
+        <v>28.5466944321392</v>
       </c>
       <c r="L37">
-        <v>18.6108267213688</v>
+        <v>18.1695955507421</v>
       </c>
       <c r="M37">
-        <v>39.0079761792343</v>
+        <v>38.6645602667458</v>
       </c>
       <c r="N37">
-        <v>19.4169679081879</v>
+        <v>19.551488361108</v>
       </c>
       <c r="O37">
-        <v>1233.89189107767</v>
+        <v>1215.20568822805</v>
       </c>
       <c r="P37">
-        <v>44.973141582504</v>
+        <v>54.4755233069429</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>841.400577442354</v>
+        <v>842.116019830208</v>
       </c>
       <c r="C38">
-        <v>23.6889017251634</v>
+        <v>24.8353937977855</v>
       </c>
       <c r="D38">
-        <v>9.205723641649911</v>
+        <v>9.09644163353517</v>
       </c>
       <c r="E38">
-        <v>55.3987565305371</v>
+        <v>57.895237747264</v>
       </c>
       <c r="F38">
-        <v>1.68897924059724</v>
+        <v>1.71815441722485</v>
       </c>
       <c r="G38">
-        <v>5.98414301839503</v>
+        <v>6.04731871139987</v>
       </c>
       <c r="H38">
-        <v>3.97925401966943</v>
+        <v>3.82998856461145</v>
       </c>
       <c r="I38">
-        <v>2.81458548491359</v>
+        <v>2.85769380211448</v>
       </c>
       <c r="J38">
-        <v>43.123307169083</v>
+        <v>43.1436279665029</v>
       </c>
       <c r="K38">
-        <v>5.18368489282507</v>
+        <v>5.01408793941878</v>
       </c>
       <c r="L38">
-        <v>73.28958600223351</v>
+        <v>69.57366098929811</v>
       </c>
       <c r="M38">
-        <v>19.589655703638</v>
+        <v>19.0621685741021</v>
       </c>
       <c r="N38">
-        <v>32.725404798973</v>
+        <v>32.5512210649817</v>
       </c>
       <c r="O38">
-        <v>1334.2647275403</v>
+        <v>1327.39137130686</v>
       </c>
       <c r="P38">
-        <v>57.6540768000499</v>
+        <v>65.3613987954611</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>3130.46117036803</v>
+        <v>3131.88670188564</v>
       </c>
       <c r="C39">
-        <v>97.4374015236203</v>
+        <v>98.9348813674013</v>
       </c>
       <c r="D39">
-        <v>52.0721224299194</v>
+        <v>55.1745837182054</v>
       </c>
       <c r="E39">
-        <v>127.564732256383</v>
+        <v>138.709033288244</v>
       </c>
       <c r="F39">
-        <v>29.7503948953782</v>
+        <v>33.3429175637501</v>
       </c>
       <c r="G39">
-        <v>112.64410815443</v>
+        <v>109.071453231792</v>
       </c>
       <c r="H39">
-        <v>51.1688086579807</v>
+        <v>53.8308124569026</v>
       </c>
       <c r="I39">
-        <v>33.8008598885462</v>
+        <v>36.4304875177109</v>
       </c>
       <c r="J39">
-        <v>162.349726296507</v>
+        <v>172.458240205069</v>
       </c>
       <c r="K39">
-        <v>92.7487292267593</v>
+        <v>98.5081759217301</v>
       </c>
       <c r="L39">
-        <v>101.587731411839</v>
+        <v>102.320397614313</v>
       </c>
       <c r="M39">
-        <v>61.548478535817</v>
+        <v>64.6029548826758</v>
       </c>
       <c r="N39">
-        <v>108.080028030804</v>
+        <v>111.799555649226</v>
       </c>
       <c r="O39">
-        <v>4539.68568252204</v>
+        <v>4480.21918057734</v>
       </c>
       <c r="P39">
-        <v>56.3383428493296</v>
+        <v>70.7632123069513</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>241.342652906059</v>
+        <v>241.301340690973</v>
       </c>
       <c r="C40">
-        <v>2.99139152434084</v>
+        <v>2.976388598545</v>
       </c>
       <c r="D40">
-        <v>7.45843714626061</v>
+        <v>7.44961664000455</v>
       </c>
       <c r="E40">
-        <v>5.11817907909983</v>
+        <v>5.11758944550632</v>
       </c>
       <c r="F40">
-        <v>0.378265384723359</v>
+        <v>0.374853403471002</v>
       </c>
       <c r="G40">
-        <v>4.68485987781458</v>
+        <v>4.76965453715003</v>
       </c>
       <c r="H40">
-        <v>4.75259483350398</v>
+        <v>4.84278117162727</v>
       </c>
       <c r="I40">
-        <v>1.31623060793185</v>
+        <v>1.32137885930495</v>
       </c>
       <c r="J40">
-        <v>9.822120056595651</v>
+        <v>9.79356439308391</v>
       </c>
       <c r="K40">
-        <v>5.32290612639083</v>
+        <v>5.30563458960885</v>
       </c>
       <c r="L40">
-        <v>15.1315765239346</v>
+        <v>15.1349368100997</v>
       </c>
       <c r="M40">
-        <v>5.11345579847955</v>
+        <v>5.09570951892372</v>
       </c>
       <c r="N40">
-        <v>20.8258828357353</v>
+        <v>20.6757985840928</v>
       </c>
       <c r="O40">
-        <v>413.034791568555</v>
+        <v>413.047118710143</v>
       </c>
       <c r="P40">
-        <v>3.33334528798867</v>
+        <v>3.37565159858049</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>1075.79687902234</v>
+        <v>1076.57179317448</v>
       </c>
       <c r="C41">
-        <v>14.0014757140019</v>
+        <v>14.7890473896012</v>
       </c>
       <c r="D41">
-        <v>84.494121741135</v>
+        <v>89.99589775509379</v>
       </c>
       <c r="E41">
-        <v>33.6957205189919</v>
+        <v>34.4758341040676</v>
       </c>
       <c r="F41">
-        <v>1.90927556070618</v>
+        <v>1.90353164050285</v>
       </c>
       <c r="G41">
-        <v>22.029054263646</v>
+        <v>22.2149213381657</v>
       </c>
       <c r="H41">
-        <v>33.0867323057789</v>
+        <v>33.4372887059093</v>
       </c>
       <c r="I41">
-        <v>10.7012958075176</v>
+        <v>10.962105039254</v>
       </c>
       <c r="J41">
-        <v>39.4527011229508</v>
+        <v>40.0337982247463</v>
       </c>
       <c r="K41">
-        <v>20.3424756398866</v>
+        <v>20.5722703019931</v>
       </c>
       <c r="L41">
-        <v>36.8528962617801</v>
+        <v>36.5046030092554</v>
       </c>
       <c r="M41">
-        <v>29.8617470996709</v>
+        <v>29.6181113170097</v>
       </c>
       <c r="N41">
-        <v>21.3644617089336</v>
+        <v>21.3204517093128</v>
       </c>
       <c r="O41">
-        <v>1393.27839282557</v>
+        <v>1383.17865264861</v>
       </c>
       <c r="P41">
-        <v>25.580893943266</v>
+        <v>27.2073035703909</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>122.524452934403</v>
+        <v>121.903028571236</v>
       </c>
       <c r="C42">
-        <v>5.74198984793318</v>
+        <v>5.74874128886089</v>
       </c>
       <c r="D42">
-        <v>1.65252786369843</v>
+        <v>1.61673009321581</v>
       </c>
       <c r="E42">
-        <v>5.54687866785468</v>
+        <v>5.22746707938326</v>
       </c>
       <c r="F42">
-        <v>2.45643903327843</v>
+        <v>2.340509626037</v>
       </c>
       <c r="G42">
-        <v>1.5101843925257</v>
+        <v>1.4663083932642</v>
       </c>
       <c r="H42">
-        <v>0.510775654049249</v>
+        <v>0.451315015562046</v>
       </c>
       <c r="I42">
-        <v>0.966556987736594</v>
+        <v>0.8833991947826601</v>
       </c>
       <c r="J42">
-        <v>3.75126681325315</v>
+        <v>3.58442886867991</v>
       </c>
       <c r="K42">
-        <v>4.99612232284469</v>
+        <v>5.12143704397597</v>
       </c>
       <c r="L42">
-        <v>8.294947441413751</v>
+        <v>7.25455030533962</v>
       </c>
       <c r="M42">
-        <v>3.24908518291996</v>
+        <v>3.38888226173634</v>
       </c>
       <c r="N42">
-        <v>6.87112017622666</v>
+        <v>6.48957148815426</v>
       </c>
       <c r="O42">
-        <v>299.011999651375</v>
+        <v>290.131622155395</v>
       </c>
       <c r="P42">
-        <v>38.0999069945028</v>
+        <v>50.5538737820454</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1538.02965613619</v>
+        <v>1537.86251007272</v>
       </c>
       <c r="C43">
-        <v>36.4975085267549</v>
+        <v>36.2985398394529</v>
       </c>
       <c r="D43">
-        <v>42.1648583988157</v>
+        <v>45.7205701400329</v>
       </c>
       <c r="E43">
-        <v>60.9624533855525</v>
+        <v>61.1205216518791</v>
       </c>
       <c r="F43">
-        <v>7.18665693245201</v>
+        <v>7.75476685211585</v>
       </c>
       <c r="G43">
-        <v>26.9153848950476</v>
+        <v>27.1506355759835</v>
       </c>
       <c r="H43">
-        <v>34.925122569644</v>
+        <v>36.6087078894244</v>
       </c>
       <c r="I43">
-        <v>27.2684636238237</v>
+        <v>28.2758286779188</v>
       </c>
       <c r="J43">
-        <v>52.519399656813</v>
+        <v>54.8572496679101</v>
       </c>
       <c r="K43">
-        <v>44.8926132462659</v>
+        <v>47.1139723472816</v>
       </c>
       <c r="L43">
-        <v>46.0530387681003</v>
+        <v>47.3009103275455</v>
       </c>
       <c r="M43">
-        <v>112.420007484291</v>
+        <v>117.957987075893</v>
       </c>
       <c r="N43">
-        <v>49.6028864404852</v>
+        <v>50.8805052240204</v>
       </c>
       <c r="O43">
-        <v>1984.54282358358</v>
+        <v>1963.20821055185</v>
       </c>
       <c r="P43">
-        <v>52.0198553103845</v>
+        <v>54.1858751965356</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>4944.93005399016</v>
+        <v>4948.79871320947</v>
       </c>
       <c r="C44">
-        <v>116.750945418112</v>
+        <v>120.672940572828</v>
       </c>
       <c r="D44">
-        <v>44.1340352270788</v>
+        <v>44.3234956080709</v>
       </c>
       <c r="E44">
-        <v>87.504474460072</v>
+        <v>89.0722974200517</v>
       </c>
       <c r="F44">
-        <v>220.151572166676</v>
+        <v>224.880065334555</v>
       </c>
       <c r="G44">
-        <v>134.695931528841</v>
+        <v>134.769411558347</v>
       </c>
       <c r="H44">
-        <v>42.8278912682296</v>
+        <v>43.910322225062</v>
       </c>
       <c r="I44">
-        <v>43.8989897022119</v>
+        <v>45.3787022686205</v>
       </c>
       <c r="J44">
-        <v>119.352000569164</v>
+        <v>121.859499090944</v>
       </c>
       <c r="K44">
-        <v>69.914576770917</v>
+        <v>70.16080731569331</v>
       </c>
       <c r="L44">
-        <v>199.504925621883</v>
+        <v>190.556020478558</v>
       </c>
       <c r="M44">
-        <v>103.666185413319</v>
+        <v>105.373774622509</v>
       </c>
       <c r="N44">
-        <v>102.662466624681</v>
+        <v>102.40963718362</v>
       </c>
       <c r="O44">
-        <v>7862.97633663975</v>
+        <v>7818.42629145029</v>
       </c>
       <c r="P44">
-        <v>168.37547475195</v>
+        <v>201.523701499664</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>438.417121415553</v>
+        <v>439.156722305922</v>
       </c>
       <c r="C45">
-        <v>17.7275640196501</v>
+        <v>17.9213431590568</v>
       </c>
       <c r="D45">
-        <v>4.47102075534463</v>
+        <v>4.41892344934837</v>
       </c>
       <c r="E45">
-        <v>15.3361877304782</v>
+        <v>15.1347534929336</v>
       </c>
       <c r="F45">
-        <v>16.9150666676242</v>
+        <v>20.5911929166586</v>
       </c>
       <c r="G45">
-        <v>7.54449856590989</v>
+        <v>7.43747753775025</v>
       </c>
       <c r="H45">
-        <v>3.07043594928734</v>
+        <v>3.0933912042793</v>
       </c>
       <c r="I45">
-        <v>3.30764813073537</v>
+        <v>3.27852904281488</v>
       </c>
       <c r="J45">
-        <v>22.1796077683635</v>
+        <v>22.3400850859258</v>
       </c>
       <c r="K45">
-        <v>5.25038182820559</v>
+        <v>5.21556695044225</v>
       </c>
       <c r="L45">
-        <v>17.3572218409282</v>
+        <v>16.8729787077696</v>
       </c>
       <c r="M45">
-        <v>18.5324010698624</v>
+        <v>18.9155183594847</v>
       </c>
       <c r="N45">
-        <v>34.4175407831015</v>
+        <v>33.6674937466949</v>
       </c>
       <c r="O45">
-        <v>825.024547248282</v>
+        <v>817.006881135981</v>
       </c>
       <c r="P45">
-        <v>17.4208786757522</v>
+        <v>21.9445873684588</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>113.208410252453</v>
+        <v>113.328928834675</v>
       </c>
       <c r="C46">
-        <v>3.29010930376607</v>
+        <v>3.59276053268332</v>
       </c>
       <c r="D46">
-        <v>1.35651986427259</v>
+        <v>1.38777327977896</v>
       </c>
       <c r="E46">
-        <v>4.41907210243183</v>
+        <v>4.70335583431992</v>
       </c>
       <c r="F46">
-        <v>1.09916219525488</v>
+        <v>1.1042578198076</v>
       </c>
       <c r="G46">
-        <v>2.90833827859253</v>
+        <v>2.79569688807835</v>
       </c>
       <c r="H46">
-        <v>2.34269341058935</v>
+        <v>2.3389923099358</v>
       </c>
       <c r="I46">
-        <v>2.17215309111747</v>
+        <v>2.13032828558442</v>
       </c>
       <c r="J46">
-        <v>4.85594751114771</v>
+        <v>4.85610511245162</v>
       </c>
       <c r="K46">
-        <v>4.68364250652604</v>
+        <v>4.63275659582977</v>
       </c>
       <c r="L46">
-        <v>13.9267582786044</v>
+        <v>11.9268226745882</v>
       </c>
       <c r="M46">
-        <v>2.91384133474006</v>
+        <v>2.77908856355361</v>
       </c>
       <c r="N46">
-        <v>8.74814690035393</v>
+        <v>9.14500632366234</v>
       </c>
       <c r="O46">
-        <v>251.127586884458</v>
+        <v>250.435119418288</v>
       </c>
       <c r="P46">
-        <v>9.325520319725671</v>
+        <v>11.3661765243664</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1655.46095077032</v>
+        <v>1657.31674827004</v>
       </c>
       <c r="C47">
-        <v>43.7671995157362</v>
+        <v>46.1747038070145</v>
       </c>
       <c r="D47">
-        <v>28.0260173481246</v>
+        <v>29.8591703508333</v>
       </c>
       <c r="E47">
-        <v>56.2253678767463</v>
+        <v>58.1228434039447</v>
       </c>
       <c r="F47">
-        <v>9.32606140853561</v>
+        <v>10.2520078035169</v>
       </c>
       <c r="G47">
-        <v>25.7513605943091</v>
+        <v>26.1408202541409</v>
       </c>
       <c r="H47">
-        <v>10.7096971412825</v>
+        <v>11.110271167358</v>
       </c>
       <c r="I47">
-        <v>6.56968750603663</v>
+        <v>6.93226380908498</v>
       </c>
       <c r="J47">
-        <v>39.3897554162507</v>
+        <v>40.3495212547023</v>
       </c>
       <c r="K47">
-        <v>14.3217324290184</v>
+        <v>14.2328623283412</v>
       </c>
       <c r="L47">
-        <v>41.9728651612032</v>
+        <v>42.1599425503903</v>
       </c>
       <c r="M47">
-        <v>74.3399298218077</v>
+        <v>72.7033256746862</v>
       </c>
       <c r="N47">
-        <v>40.6281675764178</v>
+        <v>41.5644899491138</v>
       </c>
       <c r="O47">
-        <v>2875.37623893388</v>
+        <v>2862.37509332605</v>
       </c>
       <c r="P47">
-        <v>23.0285882461167</v>
+        <v>24.9721369156958</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1410.97636206367</v>
+        <v>1411.92383035998</v>
       </c>
       <c r="C48">
-        <v>23.4428561094793</v>
+        <v>23.862850334353</v>
       </c>
       <c r="D48">
-        <v>7.67827021411809</v>
+        <v>7.52022450505822</v>
       </c>
       <c r="E48">
-        <v>65.05887392132161</v>
+        <v>67.922038444358</v>
       </c>
       <c r="F48">
-        <v>6.86319433280228</v>
+        <v>7.0945180336891</v>
       </c>
       <c r="G48">
-        <v>6.72339251747388</v>
+        <v>6.69266144704396</v>
       </c>
       <c r="H48">
-        <v>5.40862384818176</v>
+        <v>5.34183834708555</v>
       </c>
       <c r="I48">
-        <v>8.56176693259027</v>
+        <v>8.931888988270339</v>
       </c>
       <c r="J48">
-        <v>39.118459550263</v>
+        <v>38.6137659243516</v>
       </c>
       <c r="K48">
-        <v>17.8820953464966</v>
+        <v>17.6700728453661</v>
       </c>
       <c r="L48">
-        <v>54.141142485846</v>
+        <v>52.8657055975233</v>
       </c>
       <c r="M48">
-        <v>126.252351933549</v>
+        <v>119.800029317502</v>
       </c>
       <c r="N48">
-        <v>31.6303381074087</v>
+        <v>31.2995472813794</v>
       </c>
       <c r="O48">
-        <v>2292.80322061439</v>
+        <v>2285.8963725852</v>
       </c>
       <c r="P48">
-        <v>85.9502049573136</v>
+        <v>97.4658868015915</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>650.541701533159</v>
+        <v>650.694585472114</v>
       </c>
       <c r="C49">
-        <v>5.0835029264917</v>
+        <v>5.14343643231862</v>
       </c>
       <c r="D49">
-        <v>3.39935946552904</v>
+        <v>3.51267774956462</v>
       </c>
       <c r="E49">
-        <v>20.8675115276687</v>
+        <v>21.0959478875206</v>
       </c>
       <c r="F49">
-        <v>24.8615445415414</v>
+        <v>25.8179526142226</v>
       </c>
       <c r="G49">
-        <v>16.6044784693498</v>
+        <v>16.1667281831144</v>
       </c>
       <c r="H49">
-        <v>5.83394786801603</v>
+        <v>5.81861385916642</v>
       </c>
       <c r="I49">
-        <v>6.78526539345733</v>
+        <v>6.53626526024239</v>
       </c>
       <c r="J49">
-        <v>21.3614193105243</v>
+        <v>21.0301854508802</v>
       </c>
       <c r="K49">
-        <v>3.9327671387116</v>
+        <v>3.80292294443963</v>
       </c>
       <c r="L49">
-        <v>1.37266424521799</v>
+        <v>1.35469445874001</v>
       </c>
       <c r="M49">
-        <v>5.04299795519461</v>
+        <v>5.1143905239274</v>
       </c>
       <c r="N49">
-        <v>5.24622584177628</v>
+        <v>5.25959587136995</v>
       </c>
       <c r="O49">
-        <v>563.115613389478</v>
+        <v>562.748662658351</v>
       </c>
       <c r="P49">
-        <v>5.40374223205497</v>
+        <v>5.51656854584998</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>1043.45603842511</v>
+        <v>1043.97448365801</v>
       </c>
       <c r="C50">
-        <v>67.9506929655805</v>
+        <v>73.30957504287829</v>
       </c>
       <c r="D50">
-        <v>17.2332630196165</v>
+        <v>17.9749531168473</v>
       </c>
       <c r="E50">
-        <v>142.63604682437</v>
+        <v>145.804593813759</v>
       </c>
       <c r="F50">
-        <v>2.61439813978174</v>
+        <v>2.76320833007893</v>
       </c>
       <c r="G50">
-        <v>35.1899931778178</v>
+        <v>33.325235807102</v>
       </c>
       <c r="H50">
-        <v>36.1235074011231</v>
+        <v>36.5941618482532</v>
       </c>
       <c r="I50">
-        <v>10.3949830965629</v>
+        <v>11.3577055538646</v>
       </c>
       <c r="J50">
-        <v>116.231423407494</v>
+        <v>116.933917865265</v>
       </c>
       <c r="K50">
-        <v>85.5586843591535</v>
+        <v>85.0974307015757</v>
       </c>
       <c r="L50">
-        <v>64.27738762234</v>
+        <v>61.4712157227687</v>
       </c>
       <c r="M50">
-        <v>41.7962031248789</v>
+        <v>41.2969912003238</v>
       </c>
       <c r="N50">
-        <v>61.3447094127245</v>
+        <v>61.9495770687902</v>
       </c>
       <c r="O50">
-        <v>2024.08719701252</v>
+        <v>1986.76130408677</v>
       </c>
       <c r="P50">
-        <v>70.23620701933</v>
+        <v>101.81692845961</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>103.751443197337</v>
+        <v>103.551095109071</v>
       </c>
       <c r="C51">
-        <v>3.18918809160454</v>
+        <v>3.08910421966388</v>
       </c>
       <c r="D51">
-        <v>0.0591702965941576</v>
+        <v>0.0683069554128186</v>
       </c>
       <c r="E51">
-        <v>2.05062708882434</v>
+        <v>2.06205325299029</v>
       </c>
       <c r="F51">
-        <v>20.2943985674265</v>
+        <v>21.329700592573</v>
       </c>
       <c r="G51">
-        <v>1.89494145125767</v>
+        <v>1.8169079124078</v>
       </c>
       <c r="H51">
-        <v>0.0146529324228196</v>
+        <v>0.0118036413450931</v>
       </c>
       <c r="I51">
-        <v>0.765117515662702</v>
+        <v>0.778421173720826</v>
       </c>
       <c r="J51">
-        <v>1.07684867327264</v>
+        <v>0.952790641835651</v>
       </c>
       <c r="K51">
-        <v>0.647381550594538</v>
+        <v>0.638829689317184</v>
       </c>
       <c r="L51">
-        <v>0.228041477907783</v>
+        <v>0.244515326699885</v>
       </c>
       <c r="M51">
-        <v>0.397878269810929</v>
+        <v>0.377291476579047</v>
       </c>
       <c r="N51">
-        <v>0.799351981428121</v>
+        <v>0.770891932971957</v>
       </c>
       <c r="O51">
-        <v>199.935323836748</v>
+        <v>197.565571744826</v>
       </c>
       <c r="P51">
-        <v>13.45119637163</v>
+        <v>16.1063821439205</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2002.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2002.xlsx
@@ -531,7 +531,7 @@
         <v>0.106562844901874</v>
       </c>
       <c r="M3">
-        <v>0.638475367572156</v>
+        <v>0.6384753675721559</v>
       </c>
       <c r="N3">
         <v>0.860241453726864</v>
@@ -923,7 +923,7 @@
         <v>148.714602933494</v>
       </c>
       <c r="E11">
-        <v>78.0992827217105</v>
+        <v>78.09928272171049</v>
       </c>
       <c r="F11">
         <v>2.49027834142964</v>
@@ -1226,7 +1226,7 @@
         </is>
       </c>
       <c r="B17">
-        <v>532.026693916493</v>
+        <v>532.0266939164929</v>
       </c>
       <c r="C17">
         <v>22.0707052136234</v>
@@ -1412,7 +1412,7 @@
         <v>3.24297787518197</v>
       </c>
       <c r="L20">
-        <v>8.869084638618221</v>
+        <v>8.86908463861822</v>
       </c>
       <c r="M20">
         <v>17.8543848449451</v>
@@ -1421,7 +1421,7 @@
         <v>4.75784549636418</v>
       </c>
       <c r="O20">
-        <v>514.596863336647</v>
+        <v>514.5968633366469</v>
       </c>
       <c r="P20">
         <v>23.1020189027972</v>
@@ -1590,7 +1590,7 @@
         </is>
       </c>
       <c r="B24">
-        <v>926.338002273639</v>
+        <v>926.3380022736389</v>
       </c>
       <c r="C24">
         <v>55.8730770613641</v>
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="B25">
-        <v>791.009404856564</v>
+        <v>791.0094048565639</v>
       </c>
       <c r="C25">
         <v>41.7581065550989</v>
@@ -2061,19 +2061,19 @@
         <v>4970.31473488501</v>
       </c>
       <c r="C33">
-        <v>90.86129539095821</v>
+        <v>90.8612953909582</v>
       </c>
       <c r="D33">
         <v>64.0193252422882</v>
       </c>
       <c r="E33">
-        <v>80.98311543840021</v>
+        <v>80.9831154384002</v>
       </c>
       <c r="F33">
         <v>8.255224034405</v>
       </c>
       <c r="G33">
-        <v>70.3371680826339</v>
+        <v>70.33716808263389</v>
       </c>
       <c r="H33">
         <v>28.5882772685263</v>
@@ -2266,7 +2266,7 @@
         </is>
       </c>
       <c r="B37">
-        <v>868.4353479095011</v>
+        <v>868.435347909501</v>
       </c>
       <c r="C37">
         <v>25.3277110293932</v>
@@ -2547,7 +2547,7 @@
         <v>0.451315015562046</v>
       </c>
       <c r="I42">
-        <v>0.8833991947826601</v>
+        <v>0.88339919478266</v>
       </c>
       <c r="J42">
         <v>3.58442886867991</v>
@@ -2657,7 +2657,7 @@
         <v>121.859499090944</v>
       </c>
       <c r="K44">
-        <v>70.16080731569331</v>
+        <v>70.1608073156933</v>
       </c>
       <c r="L44">
         <v>190.556020478558</v>
@@ -2847,7 +2847,7 @@
         <v>7.52022450505822</v>
       </c>
       <c r="E48">
-        <v>67.922038444358</v>
+        <v>67.92203844435799</v>
       </c>
       <c r="F48">
         <v>7.0945180336891</v>
@@ -2880,7 +2880,7 @@
         <v>2285.8963725852</v>
       </c>
       <c r="P48">
-        <v>97.4658868015915</v>
+        <v>97.46588680159149</v>
       </c>
     </row>
     <row r="49">
@@ -3153,7 +3153,7 @@
         <v>3471.57681153382</v>
       </c>
       <c r="C54">
-        <v>94.21001184545681</v>
+        <v>94.2100118454568</v>
       </c>
       <c r="D54">
         <v>49.3834160059501</v>
@@ -3244,7 +3244,7 @@
         <v>1507.41054026489</v>
       </c>
       <c r="P55">
-        <v>790.645077063688</v>
+        <v>790.6450770636879</v>
       </c>
     </row>
     <row r="56">
@@ -3660,7 +3660,7 @@
         <v>11391.1372787394</v>
       </c>
       <c r="P63">
-        <v>981.263686336239</v>
+        <v>981.2636863362389</v>
       </c>
     </row>
     <row r="64">
@@ -3752,7 +3752,7 @@
         <v>62.2313452744091</v>
       </c>
       <c r="L65">
-        <v>65.27900989290311</v>
+        <v>65.2790098929031</v>
       </c>
       <c r="M65">
         <v>23.8897581385172</v>
@@ -3816,7 +3816,7 @@
         <v>17343.0249650664</v>
       </c>
       <c r="P66">
-        <v>904.9338153981011</v>
+        <v>904.933815398101</v>
       </c>
     </row>
     <row r="67">
@@ -4162,7 +4162,7 @@
         <v>259.484354754528</v>
       </c>
       <c r="J73">
-        <v>817.176263810752</v>
+        <v>817.1762638107519</v>
       </c>
       <c r="K73">
         <v>581.723643448564</v>
@@ -4379,7 +4379,7 @@
         <v>963.951812663813</v>
       </c>
       <c r="M77">
-        <v>873.3087188486441</v>
+        <v>873.308718848644</v>
       </c>
       <c r="N77">
         <v>413.606382421614</v>
@@ -4734,7 +4734,7 @@
         <v>27.7056786475627</v>
       </c>
       <c r="J84">
-        <v>77.67454718642991</v>
+        <v>77.6745471864299</v>
       </c>
       <c r="K84">
         <v>49.2131054373221</v>
